--- a/kspr_results/Fichier cible entreprises en croissance partie 56-134.xlsx
+++ b/kspr_results/Fichier cible entreprises en croissance partie 56-134.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,567 +436,7653 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Rang</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nom_de_l_entreprise</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>url_de_l_entreprise</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>phones</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>emails</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>addresses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>founder_profile</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>profile_description</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>founder_profile_url</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>profiles</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Taux_de_croissance_Annuel_moyen</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Taux_de_croissance_2019_2022</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Chiffre_d_affaires_2022</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Chiffre_d_affaires_2019</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Salariés_2022</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Salariés_2019</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Salariés_Créations_de_postes_en_2024</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Total_2024</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Secteur</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Région</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/christophe-herlemont-657ba3194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC29BeMBk9fznLOZzhkUUODJibqNr66B7jM</t>
+      <c r="A2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plug In Digital </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://plugindigital.com/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['123-456-7890', 'WhatsApp: +123987654', 'Fax: 987-654-3210', '+1234567890', 'WhatsApp: 555-123-4567']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['?subject=Job%20offers%20from%20Plug%20In%20Digital%20%2F%20Dear%20Villagers%20%28recruitment%29&amp;body=https%3A%2F%2Femploi.afjv.com%2Fannonces-societes%2F701%0D%0A%0D%0ARecruitment%3A%20Ads%2C%20Jobs%20and%20Internships%20from%20Plug%20In%20Digital%20%2F%20Dear%20Villagers%3A%20graphic%20designer%2C%20programmer%2C%20game%20designer%2C%20tester%2C%20development%2C%20design%2C%20sales%2C%20marketing%2C%20press...']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/plug-in-digital</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/francisingrand?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACvoQABRPfZPrutMmRTVWMUUUO552WhiiA', 'person_name': 'Francis Ingrand', 'profile_description': 'Founder and CEO Plug In Digital and Dear Villagers Videogames Business Veteran'}</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Founder and CEO Plug In Digital and Dear Villagers Videogames Business Veteran</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/francisingrand?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACvoQABRPfZPrutMmRTVWMUUUO552WhiiA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/charlesimbert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLewq4Bba37dcT8tS-7PnVeBG5ZtCEaOjA', 'person_name': 'Charles Imbert', 'profile_description': 'Associate Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/julie-botta?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA4ak10BHLZ9qCX6U312ePutjspaK4zXJao', 'person_name': 'Julie BOTTA', 'profile_description': 'HR Assistant'}, {'profile_url': 'https://www.linkedin.com/in/juliendrouard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFiPWEBi7zn54nSpxO5FtCxhsR2oqiEjxA', 'person_name': 'Julien Drouard', 'profile_description': 'Production Director &amp; Chief Operating Officer | Former Video Game Director @ ANKAMA'}, {'profile_url': 'https://www.linkedin.com/in/herv%C3%A9-roche-385138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAE9xUBX6JMGrT5OyziahLzerYeL-OqMvY', 'person_name': 'Hervé ROCHE', 'profile_description': 'Directeur Senior effiCity - Coach immobilier - Business Developer'}, {'profile_url': 'https://www.linkedin.com/in/ludovic-reimonenq?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACEpFjgBiRbdyrIcCTnC9OxU6Ro4N3GuIGY', 'person_name': 'Ludovic Reimonenq', 'profile_description': "🎮 Bridging the gap between publishers' games and digital platforms."}, {'profile_url': 'https://www.linkedin.com/in/benjamin-garel-42555770?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA8IAp0BsyN2KyVNphiXHBkqVqAHvGCZd24', 'person_name': 'Benjamin Garel', 'profile_description': 'Head of Sales at Plug In Digital / Dear Villagers'}, {'profile_url': 'https://www.linkedin.com/in/nad%C3%A8ge-panza-343b2b9a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUrEiMBj0ERLGrvqiSx16sasik867ESpqo', 'person_name': 'Nadège Panza', 'profile_description': 'DRH'}, {'profile_url': 'https://www.linkedin.com/in/williambertin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAelUScBx3DXBbFp3H0bj5anR-1eLS2VPBo', 'person_name': 'William Bertin', 'profile_description': 'Senior Game Scout - Plug In Digital / Dear Villagers'}, {'profile_url': 'https://www.linkedin.com/in/francisingrand?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACvoQABRPfZPrutMmRTVWMUUUO552WhiiA', 'person_name': 'Francis Ingrand', 'profile_description': 'Founder and CEO Plug In Digital and Dear Villagers Videogames Business Veteran'}, {'profile_url': 'https://www.linkedin.com/in/wgcb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzbQ2cBlBWyaWliESFv5GfT44z6qanVato', 'person_name': 'William Bonnet', 'profile_description': 'Admin System &amp; Network'}, {'profile_url': 'https://www.linkedin.com/in/wassim-bousmaha-aa088224a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD21m5gBxGqgX2jVyFls--ReAUKWIO0uyhk', 'person_name': 'Wassim Bousmaha', 'profile_description': 'Marketing &amp; Back Catalogue Assistant chez Plug In Digital'}, {'profile_url': 'https://www.linkedin.com/in/stanislas-jun-peyrat-6353179b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABU518kBq8VuhP_i4PYYuwxb6ZtHlEgx1K0', 'person_name': 'Stanislas Jun Peyrat', 'profile_description': 'Senior Business Developer chez Plug In Digital'}]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>38,05 %</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>163,08 %</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>24.389.362 €</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>9.270.859 €</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>21</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>55</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/nad%C3%A8ge-panza-343b2b9a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUrEiMBj0ERLGrvqiSx16sasik867ESpqo</t>
+      <c r="A3" t="n">
+        <v>160</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Singulier </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.singulier.co/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['+1-202-555-0152', '+1-202-555-0199', '123-456-7890', '+1-202-555-0165', 'WhatsApp: +123987654', 'Fax: 987-654-3210', '+1234567890', '+1-202-555-0117', 'WhatsApp: +123789456']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Oak Avenue, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/singulierconsulting</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/r%C3%A9mi-pesseguier-99841b19?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPMoMQBqIm8gfI3R6W1f14aSrOcaNu4qSA', 'person_name': 'Rémi Pesseguier', 'profile_description': 'CEO, Co Founder &amp; Partner at Singulier'}</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CEO, Co Founder &amp; Partner at Singulier</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/r%C3%A9mi-pesseguier-99841b19?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPMoMQBqIm8gfI3R6W1f14aSrOcaNu4qSA</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/r%C3%A9mi-pesseguier-99841b19?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPMoMQBqIm8gfI3R6W1f14aSrOcaNu4qSA', 'person_name': 'Rémi Pesseguier', 'profile_description': 'CEO, Co Founder &amp; Partner at Singulier'}, {'profile_url': 'https://www.linkedin.com/in/antoine-rodesch-b11574143?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACLKBD0BspBByNZ-I92QcfPTAD6O0AXzV38', 'person_name': 'Antoine RODESCH', 'profile_description': 'ESSEC I Consultant Singulier - Data &amp; Customer Insight expertise'}, {'profile_url': 'https://www.linkedin.com/in/mehdichabadi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABm15uIB1GgyoWTJGp4ITAFHX6gxNo3v-5Q', 'person_name': 'Mehdi Chabadi', 'profile_description': 'Engagement Manager at Singulier'}, {'profile_url': 'https://www.linkedin.com/in/frederic-rougemont-b724393?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACZFkYBI0_cjSrHc_J_3wmeH0aeIDeVauU', 'person_name': 'Frederic Rougemont', 'profile_description': 'Digital Transformation | CPO | Ecommerce - MktPlace - B2B\\B2C'}, {'profile_url': 'https://www.linkedin.com/in/abdelmonem-ben-yahia-414360134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDMzFABoSZ29jz43i0YcftdQJznYG1-YBc', 'person_name': 'Abdelmonem Ben yahia', 'profile_description': 'Data Engineer'}, {'profile_url': 'https://www.linkedin.com/in/clara-thery-9a3b76129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-suQsBONy7fRABODW0-GZoIpkRvoTx0-c', 'person_name': 'Clara Thery', 'profile_description': 'Engagement Manager @ SINGULIER'}, {'profile_url': 'https://www.linkedin.com/in/lionel-fidalgo-35998140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAivvLUBCeKt1cLDtJHa-J5Bzjwqxpjfbl4', 'person_name': 'Lionel Fidalgo', 'profile_description': 'Chief Financial Officer'}, {'profile_url': 'https://www.linkedin.com/in/ghita-fizazi-bourdier-83411491?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNqjKgBOe1jL8AbrhMJLiX48jnLD6COJm0', 'person_name': 'Ghita FIZAZI BOURDIER', 'profile_description': 'Data &amp; Insights I Customer Strategy I Digital Transformation'}, {'profile_url': 'https://www.linkedin.com/in/maximelapraye?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAscKMwBvfMDNyp6y1ghOULkHvdTUb3XH2M', 'person_name': 'Maxime Lapraye', 'profile_description': 'Manager - Digital Media Practice @Singulier'}, {'profile_url': 'https://www.linkedin.com/in/abdellah-wadjinny?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABunvUgBan3aDxUZp27enGacdEz9JSYvAwM', 'person_name': 'Abdellah Wadjinny', 'profile_description': 'Data Engineer @ Singulier'}, {'profile_url': 'https://www.linkedin.com/in/baptiste-lacondemine-74a7bb20a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUn_WoBgHSM4lo1YpiQ4Zi3NlqieyoU_EY', 'person_name': 'Baptiste Lacondemine', 'profile_description': 'Digital Strategy Analyst at @Singulier | ESCP'}, {'profile_url': 'https://www.linkedin.com/in/robinchateau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzYx2YBv-ca-OXEqg5oyV5_zWW0dP-1Pig', 'person_name': 'Robin Château', 'profile_description': 'Engagement Manager Product and Tech practice'}]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>35,24 %</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>147,38 %</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>13.777.794 €</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>5.569.508 €</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>17</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>55</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Audit, conseil et autres services</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/francisingrand?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACvoQABRPfZPrutMmRTVWMUUUO552WhiiA</t>
+      <c r="A4" t="n">
+        <v>441</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADSI </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.adsi-group.com/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['0033181938300', '123-456-7890', 'Fax: 987-654-3210', '+33 (0)1 81 93 83 00', 'WhatsApp: +123456789', '01 81 93 83 00', '+1234567890']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['contact-lyon@adsi-group.com', 'contact@adsi-tech.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact@adsi-tech.com', 'contact@adsi-group.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact-lyon@adsi-group.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact@adsi-group.com']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Siège Adsi Group 116 rue de Verdun, 92800 Puteaux', '123 Main Street, City, Country', '6 place Charles Hernu, Immeuble le Colysée, 69100 VILLEURBANNE', 'Agence Lyon 6 place Charles Hernu, Immeuble le Colysée, 69100 VILLEURBANNE', 'ADSI Tech 116 rue de Verdun, 92800 Puteaux', '116 rue de Verdun, 92800 Puteaux']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/adsi-group</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/clementdubard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1P4u0BdMHBxQIqJprXhMt_I9wiRKqq-p0', 'person_name': 'Clément DUBARD', 'profile_description': 'Directeur Associé'}</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Directeur Associé</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/clementdubard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1P4u0BdMHBxQIqJprXhMt_I9wiRKqq-p0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/clementbouchenoire?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3VAGQBvur-zuiUPerRb2rbpyUH4z9U1K8', 'person_name': 'Clément Bouchenoire', 'profile_description': 'Directeur des opérations'}, {'profile_url': 'https://www.linkedin.com/in/aymane-touzlin-6107a713a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHu0KwBx5HwwByBWzo5pGSVThk6bKokVok', 'person_name': 'Aymane TOUZLIN', 'profile_description': 'Chef de projet &amp; Consultant fonctionnel GEODE'}, {'profile_url': 'https://www.linkedin.com/in/salim-hamecha-33474a7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEEjVgBrtwh2MDyCdfDRH8Jh5ic5dx5444', 'person_name': 'Salim Hamecha', 'profile_description': 'Consultant Sage 100 ADSI PME'}, {'profile_url': 'https://www.linkedin.com/in/leslie-flores?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACEV3CcB-S7teJo6NB7S2yjhLRbVhWsxNJw', 'person_name': 'Leslie Flores Ruiz', 'profile_description': 'Responsable de Compte chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/martin-parard-3223611?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA64ooBJsjrWXoQxPZHV2ZQujWM2UKhpTg', 'person_name': 'Martin Parard', 'profile_description': 'Co-owner &amp; Managing Director at ADSI Group (we’re hiring!)'}, {'profile_url': 'https://www.linkedin.com/in/fatima-ezzahra-naji-329073b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkanREBNKn4gw1cFS7RvxJDzu4AFwJi1nY', 'person_name': 'Fatima-Ezzahra Naji', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/thibault-leclancher-b8a246103?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABoyuxoBJb-RaBKqiaL7iqzYtKmnraKfc74', 'person_name': 'Thibault Leclancher', 'profile_description': 'Développeur iOS'}, {'profile_url': 'https://www.linkedin.com/in/cedriccharpentier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGsnqABLGIaWIUh92bOS4rjzhVqg8pIiZA', 'person_name': 'Cédric Charpentier', 'profile_description': 'Responsable Applications et Développements'}, {'profile_url': 'https://www.linkedin.com/in/sadok-zaak-19529762?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA02QUEBQo4_Q23xiIdI8_BJDWCxGlz3AZw', 'person_name': 'Sadok Zaak', 'profile_description': 'Consultant IT Finance X3 Spécialité Audit &amp; Expertise || ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/reda-benyoub-68856319b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7j6ggBmeAXiaWKJkv0-DP2krNYYlmAdXI', 'person_name': 'reda benyoub', 'profile_description': 'Ingénieur Analyste développeur chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/soumaya-el-azzouzi-853627160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaJHf8BCp_efIgJaCrYgjBB__Ph5EaW4Tw', 'person_name': 'SOUMAYA EL AZZOUZI', 'profile_description': 'Finance Functional Consultant Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/lhessas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABnh_1EBo1WnI7f2eErbUF3U2K4yR9Ybif0', 'person_name': 'Lamine HESSAS', 'profile_description': 'Consultant Technique Senior Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/yani-hariche-1610ba230?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADmt_1kBe_MStY5XQIR9zPTGO04QAZIlVMg', 'person_name': 'Yani HARICHE', 'profile_description': "Etudiant BAC+4 en recherche d'alternance Master Informatique et Systèmes Intelligents - Intelligence Embarquée"}, {'profile_url': 'https://www.linkedin.com/in/salma-s-273b38156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWLDncBAQ1gZIdle5nO1399UfbA51hezTA', 'person_name': 'Salma S.', 'profile_description': 'Consultante Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-gu%C3%A9rin-8a189792?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO1TTkBOJkfSIXNFNbsAj0zjJeEZGv8Ou8', 'person_name': 'Kévin Guérin', 'profile_description': 'Consultant technico fonctionnel Sage ERP X3'}, {'profile_url': 'https://www.linkedin.com/in/clementchobert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcwb50B2ecwaA93gpHJ5N1G4xQ-H4PmPp8', 'person_name': 'Clement CHOBERT', 'profile_description': 'Directeur Général, Associé &amp; Consultant Expert Sage X3 - chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/isabelle-de-izorder-b34849180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACrW5xgBBeq7dTvoDNO4k_0osUG7uDXPAX0', 'person_name': 'Isabelle de izOrder', 'profile_description': 'Chargée de communication chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/cyril-macon-24111580?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEaQBEBTYd_HcPw5X_2IeZ-0igrJwlBOtU', 'person_name': 'Cyril Macon', 'profile_description': 'Consultant Sage X3 certifié chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/idir-bouiflou-261174a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYX32kBHBZ6DboCtwCtXVK1kzpmIOLsUSs', 'person_name': 'Idir Bouiflou', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/thomas-missri-16a32410b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuiUeIBtkRPtWAfHuO1lhUpeREUovCjNmY', 'person_name': 'Thomas Missri', 'profile_description': 'Consultant Certifié Sage X3 Finance'}, {'profile_url': 'https://www.linkedin.com/in/lxskh?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACe85wYBCY-Q-Sfxld10jA1wwBG9XobH1ro', 'person_name': 'Alexis Kohr', 'profile_description': 'Consultant Sage X3 chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/nastassia-lavetskaya-592a91123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6YCv4BaPa6wpTU6d-JujwztIP2V6DNVQs', 'person_name': 'Nastassia Lavetskaya', 'profile_description': 'Chef de projet &amp; Consultante ERP (Sage X3)'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-giacometti-299151113?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxR2VUByC5WfZ-A7CqEaw_6SV5WP1KLpcU', 'person_name': 'Nicolas Giacometti', 'profile_description': 'Développeur'}, {'profile_url': 'https://www.linkedin.com/in/ludovic-buffy-a269388a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMA-r4B7SoF5NBoTT8QIcapY65Pom1lXa4', 'person_name': 'Ludovic Buffy', 'profile_description': 'Consultant Certifié Sage X3 chez ADSI Conseil'}, {'profile_url': 'https://www.linkedin.com/in/cdi-it-sara-rochdi-50299b129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-l4hIBoGipxfZu0ejTl_ygXmBPVBrpUTg', 'person_name': 'Sara ROCHDI', 'profile_description': 'Chef de projet intégration ERP'}, {'profile_url': 'https://www.linkedin.com/in/etienne-silvio?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuat50Bt68cojAEn7T8yRMyu3BobB6tiUY', 'person_name': 'Etienne Silvio', 'profile_description': 'Consultant ERP Technico-fonctionnel - Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/axel-gonon-146912194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2yi0YBMB_HSB14r1u2_UGP1bOS4YtROy0', 'person_name': 'Axel Gonon', 'profile_description': 'Développeur ERP - ADSI - Lyon📍'}, {'profile_url': 'https://www.linkedin.com/in/hilal-najim?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACUCc8gBbqmhAqLoLJzOvHoMNLBOvDXYVdw', 'person_name': 'Hilal NAJIM', 'profile_description': 'Consultant Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/florent-omont-4b41b12?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABicIgBGK1vTqZQB6E-beLfI2ZxCji8HIQ', 'person_name': 'Florent OMONT', 'profile_description': 'Associé ADSI, Consultant Sage ERP X3'}, {'profile_url': 'https://www.linkedin.com/in/matthieu-thiberge-9859a3150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACR0L7UB4u4-B5zJVNJ6qpUM45er2XKyB88', 'person_name': 'Matthieu Thiberge', 'profile_description': 'PMO - Direction du delivery / Chef de projet IT'}, {'profile_url': 'https://www.linkedin.com/in/doroth%C3%A9e-jacquet-4831219?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGeh2MBYVRhSYyXaBCttqoBBhiw02IA6o0', 'person_name': 'Dorothée Jacquet', 'profile_description': 'Consultant Sage X3 at ADSI, Lyon'}, {'profile_url': 'https://www.linkedin.com/in/sarah-couchoux-21383172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9tuu8BFPOz_XRBKQjyTKvuIMoTPQeR7s0', 'person_name': 'Sarah Couchoux', 'profile_description': 'Team Leader iOS chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/patrick-cadiou-1bb58292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOpcp8BGZ0jGMIDEAQ2ogZKfCIz9rOPG-8', 'person_name': 'Patrick CADIOU', 'profile_description': 'Directeur Systemes'}, {'profile_url': 'https://www.linkedin.com/in/brice-picouleau-83b63b87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJs-e8BFHv_bOfW73ORfuNL0WSMBTGsZHU', 'person_name': 'Brice PICOULEAU', 'profile_description': "Chef de projet / Consultant Expert / Manager d'équipe"}, {'profile_url': 'https://www.linkedin.com/in/anis-ayoudj?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJG6jEBUZ0n8nzjk0jstkBOpFpXvoWWg94', 'person_name': 'Anis AYOUDJ', 'profile_description': 'Data Engineer'}, {'profile_url': 'https://www.linkedin.com/in/clementdubard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1P4u0BdMHBxQIqJprXhMt_I9wiRKqq-p0', 'person_name': 'Clément DUBARD', 'profile_description': 'Directeur Associé'}, {'profile_url': 'https://www.linkedin.com/in/d%C3%A9borah-dannon-2558927b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEJt-EBwQo4Kyv-Lh6LkFTQQEnxaTY4q48', 'person_name': 'Déborah DANNON', 'profile_description': 'Chef de projet RH et paie'}, {'profile_url': 'https://www.linkedin.com/in/juliette-sagot-4527b0142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKlMX4BNTfFmXAc9ytVVg0HkT2RPb4TfaU', 'person_name': 'Juliette Sagot', 'profile_description': 'Responsable administration des ventes &amp; achats chez ADSI DIGITAL'}, {'profile_url': 'https://www.linkedin.com/in/aicha-el-habouz-562857152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTKB1oBF2GfCupqiUj5pWUAgPFpSFdtOpg', 'person_name': 'Aicha El Habouz', 'profile_description': 'Consultante Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/alice-fache-b47524206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADRnH2cBM6J2p54EUxpDtq6u5wMnHBGmPHw', 'person_name': 'Alice Fache', 'profile_description': 'Ingénieure commerciale chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/amelie-benguigui-47113425?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAUuLJUBhFKyGM3cKEMvAqG3gIuMopVSN7w', 'person_name': 'Amelie Benguigui', 'profile_description': "Ingénieur d'études et développement"}, {'profile_url': 'https://www.linkedin.com/in/dominique-magnien-235b0432?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbtQEkBchGXYrLcL2pfDGhPsgKGMZoPvwA', 'person_name': 'Dominique Magnien', 'profile_description': 'Chef de Projet X3 chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/nicolasagnus?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWbPYEBUEKAccmS57M9u26sLFr24SpD-98', 'person_name': 'Nicolas Agnus', 'profile_description': 'Product Manager chez ADSI-Digital'}, {'profile_url': 'https://www.linkedin.com/in/xavier-parein-9b549b7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABD6yNkBAVjJ_u8zRcR_2pNh9tEkRhBzWl8', 'person_name': 'Xavier Parein', 'profile_description': 'Consultant chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/sakina-guyant-960949b3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABgqohgBH30-IvEQdg11G8FDtNgcS5d-iLU', 'person_name': 'Sakina Guyant', 'profile_description': 'Consultante Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/frederic-chavarot?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYl_0kBiizRfkX7Ozbe4ee9RnxwRfyRnRY', 'person_name': 'Frédéric Chavarot', 'profile_description': 'Cofondateur et Directeur du delivery chez ADSI Tech'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-herren?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABv7sh4BMJbJ1OZlVSE91wEJrc4DJdJ7xSE', 'person_name': 'Jérôme HERREN', 'profile_description': 'Gestion de projet - Développement commercial'}, {'profile_url': 'https://www.linkedin.com/in/micha%C3%ABl-poelman-751a62212?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADXnz60BUfkOJO6FY5hJ-AgXRmzgzTkEQNg', 'person_name': 'Michaël POELMAN', 'profile_description': 'Chef de projet Sage 100 chez APOGEA'}, {'profile_url': 'https://www.linkedin.com/in/fadi-rabhi-288a10a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbAuogBAq4agYl8EFwxCQsy6VWg_VE_Vxk', 'person_name': 'Fadi RABHI', 'profile_description': 'Team Lead &amp; Research and Development Engineer'}, {'profile_url': 'https://www.linkedin.com/in/sanae-bouya-7a0308143?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACLATmgBtC5sozCGIraMvkKUib7Fms-qBa0', 'person_name': 'Sanae Bouya', 'profile_description': 'MOA- Cheffe de projet WMS/ERP (Implémentation des systèmes d’information)'}, {'profile_url': 'https://www.linkedin.com/in/romain-vall%C3%A8s-2730b3116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzYsLcBP3R0mx_cfaLarobIZIfxFOss5gI', 'person_name': 'Romain Vallès', 'profile_description': 'Consultant Senior Chef de projet X3'}, {'profile_url': 'https://www.linkedin.com/in/daphn%C3%A9-lefebvre-9a3a33175?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmfFMsBrcplKQT_f6w89kutnokgZ-JuEHs', 'person_name': 'Daphné Lefebvre', 'profile_description': 'Chef de projet développement'}, {'profile_url': 'https://www.linkedin.com/in/christophe-granger%C3%A9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKznPwBTIFUEAk4Wx7Z-ut3UDq_EVyLHWw', 'person_name': 'Christophe Grangeré', 'profile_description': 'Consultant Sage 100 ADSI PME'}, {'profile_url': 'https://www.linkedin.com/in/mathis-m-dc?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAESIaZUB5aO8Vu2GqRi-HV7ZmFdOCjdBG-A', 'person_name': 'Mathis M.', 'profile_description': "Étudiant à l'ESIEE-IT"}, {'profile_url': 'https://www.linkedin.com/in/clara-salivet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC87VDgBosOCjT6QIX_vCkTaUf-rZmd85RY', 'person_name': 'Clara Salivet', 'profile_description': 'Alternante consultante fonctionnelle Sage x3 chez ADSI Group | 4ICS à CPE Lyon'}, {'profile_url': 'https://www.linkedin.com/in/julie-lefebvre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACtKPm0BUB-vkC5fDAyozTqLrbWMwIXjtcs', 'person_name': 'Julie Lefebvre', 'profile_description': 'Développeur web PHP chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/christophe-cochet-6887a579?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCrM4gB82en0plmxPoATp3FaE6aURakO6o', 'person_name': 'christophe Cochet', 'profile_description': 'Responsable Projets Paie &amp; Rh'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-etheve-642590109?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABtQ6JIB8dhifu2wQFEWnmyMz3u2QnQ9RBU', 'person_name': 'Sébastien ETHEVE', 'profile_description': 'Consultant fonctionnel Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/adrien-curatolo-b50226101?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABnW-OwBz4vCKtIcmdK6VtuWr3Zu8lvRzUg', 'person_name': 'Adrien Curatolo', 'profile_description': 'Consultant Négoce Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/romain-leonarduzzi-73b8045?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAECTx8B2aVrMmhfe809nBPRGVCifGnrA4U', 'person_name': 'Romain Leonarduzzi', 'profile_description': 'Responsable Pôle Applicatif &amp; Marketing ADSI'}, {'profile_url': 'https://www.linkedin.com/in/fouad-sadki-3135a5a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVxyX8BW1r9mlawbe7uV4LVSyxD0_Hc8xo', 'person_name': 'Fouad Sadki', 'profile_description': 'Consultant technique, Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-knehler-4a00aa119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1hQDgBvM9yqYMrtGhIJj5MfwhRBYaGcHQ', 'person_name': 'Laetitia KNEHLER', 'profile_description': 'Responsable Administrative et du Personnel chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/usman-mohammad-51b336210?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADVxQmcB4_vw57uB86gyB1wdKCQbS7NPPmQ', 'person_name': 'Usman Mohammad', 'profile_description': 'Consultant BI'}, {'profile_url': 'https://www.linkedin.com/in/jeanbaptiste-blandureau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABx0sJgBsl0sMXLzHSZj79ohLaV0Bby5aYs', 'person_name': 'Jean-Baptiste Blandureau', 'profile_description': 'Chef de projet &amp; Consultant Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-basa-5078a7169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACgtTBcBsSzOEUZ1EVOw1hawHvkt6B20FKQ', 'person_name': 'Guillaume Basa', 'profile_description': 'Directeur ADSI Lyon, Associé / Directeur de projet ERP SAGE X3'}, {'profile_url': 'https://www.linkedin.com/in/michel-callet-89a300123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB56mPYBaeysql8emb2WrmtQ0g4J1nvFwWc', 'person_name': 'michel callet', 'profile_description': 'Responsable support chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-c-aa91262a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEiiHKEB7jc2K7qKUpjD3eqa6s3Fk_kBCcM', 'person_name': 'Alexandre C.', 'profile_description': 'Alternant consultant technique ERP chez ADSI Group.'}, {'profile_url': 'https://www.linkedin.com/in/amouezant?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABwiKUkBlkhoej3rc617hR8wTWJnDMFSr_w', 'person_name': 'Alain Mouëzant', 'profile_description': 'Architecte SI chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/elisa-meissimilly-11211b1a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC9cB94BmO7f0ZuoWQMlomcPIEXbFMjxD-c', 'person_name': 'Elisa Meissimilly', 'profile_description': 'Consultante finance &amp; Chef de projet ERP - Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/amber-bartlett-10b794aa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdAqJsB1zivoeEvuiSP-IEYQ-eaVgOSDIk', 'person_name': 'Amber Bartlett', 'profile_description': 'Account Manager at ADSI Group'}]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>13,34 %</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>45,6 %</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>6.318.530 €</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.339.627 €</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>28</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>55</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/r%C3%A9mi-pesseguier-99841b19?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPMoMQBqIm8gfI3R6W1f14aSrOcaNu4qSA</t>
+      <c r="A5" t="n">
+        <v>441</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADSI </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.adsi-group.com/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['0033181938300', '123-456-7890', 'Fax: 987-654-3210', '+33 (0)1 81 93 83 00', 'WhatsApp: +123456789', '01 81 93 83 00', '+1234567890']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['contact-lyon@adsi-group.com', 'contact@adsi-tech.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact@adsi-tech.com', 'contact@adsi-group.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact-lyon@adsi-group.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact@adsi-group.com']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Siège Adsi Group 116 rue de Verdun, 92800 Puteaux', '123 Main Street, City, Country', '6 place Charles Hernu, Immeuble le Colysée, 69100 VILLEURBANNE', 'Agence Lyon 6 place Charles Hernu, Immeuble le Colysée, 69100 VILLEURBANNE', 'ADSI Tech 116 rue de Verdun, 92800 Puteaux', '116 rue de Verdun, 92800 Puteaux']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/adsi-group</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/frederic-chavarot?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYl_0kBiizRfkX7Ozbe4ee9RnxwRfyRnRY', 'person_name': 'Frédéric Chavarot', 'profile_description': 'Cofondateur et Directeur du delivery chez ADSI Tech'}</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Cofondateur et Directeur du delivery chez ADSI Tech</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/frederic-chavarot?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYl_0kBiizRfkX7Ozbe4ee9RnxwRfyRnRY</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/clementbouchenoire?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3VAGQBvur-zuiUPerRb2rbpyUH4z9U1K8', 'person_name': 'Clément Bouchenoire', 'profile_description': 'Directeur des opérations'}, {'profile_url': 'https://www.linkedin.com/in/aymane-touzlin-6107a713a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHu0KwBx5HwwByBWzo5pGSVThk6bKokVok', 'person_name': 'Aymane TOUZLIN', 'profile_description': 'Chef de projet &amp; Consultant fonctionnel GEODE'}, {'profile_url': 'https://www.linkedin.com/in/salim-hamecha-33474a7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEEjVgBrtwh2MDyCdfDRH8Jh5ic5dx5444', 'person_name': 'Salim Hamecha', 'profile_description': 'Consultant Sage 100 ADSI PME'}, {'profile_url': 'https://www.linkedin.com/in/leslie-flores?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACEV3CcB-S7teJo6NB7S2yjhLRbVhWsxNJw', 'person_name': 'Leslie Flores Ruiz', 'profile_description': 'Responsable de Compte chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/martin-parard-3223611?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA64ooBJsjrWXoQxPZHV2ZQujWM2UKhpTg', 'person_name': 'Martin Parard', 'profile_description': 'Co-owner &amp; Managing Director at ADSI Group (we’re hiring!)'}, {'profile_url': 'https://www.linkedin.com/in/fatima-ezzahra-naji-329073b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkanREBNKn4gw1cFS7RvxJDzu4AFwJi1nY', 'person_name': 'Fatima-Ezzahra Naji', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/thibault-leclancher-b8a246103?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABoyuxoBJb-RaBKqiaL7iqzYtKmnraKfc74', 'person_name': 'Thibault Leclancher', 'profile_description': 'Développeur iOS'}, {'profile_url': 'https://www.linkedin.com/in/cedriccharpentier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGsnqABLGIaWIUh92bOS4rjzhVqg8pIiZA', 'person_name': 'Cédric Charpentier', 'profile_description': 'Responsable Applications et Développements'}, {'profile_url': 'https://www.linkedin.com/in/sadok-zaak-19529762?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA02QUEBQo4_Q23xiIdI8_BJDWCxGlz3AZw', 'person_name': 'Sadok Zaak', 'profile_description': 'Consultant IT Finance X3 Spécialité Audit &amp; Expertise || ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/reda-benyoub-68856319b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7j6ggBmeAXiaWKJkv0-DP2krNYYlmAdXI', 'person_name': 'reda benyoub', 'profile_description': 'Ingénieur Analyste développeur chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/soumaya-el-azzouzi-853627160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaJHf8BCp_efIgJaCrYgjBB__Ph5EaW4Tw', 'person_name': 'SOUMAYA EL AZZOUZI', 'profile_description': 'Finance Functional Consultant Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/lhessas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABnh_1EBo1WnI7f2eErbUF3U2K4yR9Ybif0', 'person_name': 'Lamine HESSAS', 'profile_description': 'Consultant Technique Senior Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/yani-hariche-1610ba230?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADmt_1kBe_MStY5XQIR9zPTGO04QAZIlVMg', 'person_name': 'Yani HARICHE', 'profile_description': "Etudiant BAC+4 en recherche d'alternance Master Informatique et Systèmes Intelligents - Intelligence Embarquée"}, {'profile_url': 'https://www.linkedin.com/in/salma-s-273b38156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWLDncBAQ1gZIdle5nO1399UfbA51hezTA', 'person_name': 'Salma S.', 'profile_description': 'Consultante Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-gu%C3%A9rin-8a189792?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO1TTkBOJkfSIXNFNbsAj0zjJeEZGv8Ou8', 'person_name': 'Kévin Guérin', 'profile_description': 'Consultant technico fonctionnel Sage ERP X3'}, {'profile_url': 'https://www.linkedin.com/in/clementchobert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcwb50B2ecwaA93gpHJ5N1G4xQ-H4PmPp8', 'person_name': 'Clement CHOBERT', 'profile_description': 'Directeur Général, Associé &amp; Consultant Expert Sage X3 - chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/isabelle-de-izorder-b34849180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACrW5xgBBeq7dTvoDNO4k_0osUG7uDXPAX0', 'person_name': 'Isabelle de izOrder', 'profile_description': 'Chargée de communication chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/cyril-macon-24111580?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEaQBEBTYd_HcPw5X_2IeZ-0igrJwlBOtU', 'person_name': 'Cyril Macon', 'profile_description': 'Consultant Sage X3 certifié chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/idir-bouiflou-261174a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYX32kBHBZ6DboCtwCtXVK1kzpmIOLsUSs', 'person_name': 'Idir Bouiflou', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/thomas-missri-16a32410b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuiUeIBtkRPtWAfHuO1lhUpeREUovCjNmY', 'person_name': 'Thomas Missri', 'profile_description': 'Consultant Certifié Sage X3 Finance'}, {'profile_url': 'https://www.linkedin.com/in/lxskh?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACe85wYBCY-Q-Sfxld10jA1wwBG9XobH1ro', 'person_name': 'Alexis Kohr', 'profile_description': 'Consultant Sage X3 chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/nastassia-lavetskaya-592a91123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6YCv4BaPa6wpTU6d-JujwztIP2V6DNVQs', 'person_name': 'Nastassia Lavetskaya', 'profile_description': 'Chef de projet &amp; Consultante ERP (Sage X3)'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-giacometti-299151113?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxR2VUByC5WfZ-A7CqEaw_6SV5WP1KLpcU', 'person_name': 'Nicolas Giacometti', 'profile_description': 'Développeur'}, {'profile_url': 'https://www.linkedin.com/in/ludovic-buffy-a269388a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMA-r4B7SoF5NBoTT8QIcapY65Pom1lXa4', 'person_name': 'Ludovic Buffy', 'profile_description': 'Consultant Certifié Sage X3 chez ADSI Conseil'}, {'profile_url': 'https://www.linkedin.com/in/cdi-it-sara-rochdi-50299b129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-l4hIBoGipxfZu0ejTl_ygXmBPVBrpUTg', 'person_name': 'Sara ROCHDI', 'profile_description': 'Chef de projet intégration ERP'}, {'profile_url': 'https://www.linkedin.com/in/etienne-silvio?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuat50Bt68cojAEn7T8yRMyu3BobB6tiUY', 'person_name': 'Etienne Silvio', 'profile_description': 'Consultant ERP Technico-fonctionnel - Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/axel-gonon-146912194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2yi0YBMB_HSB14r1u2_UGP1bOS4YtROy0', 'person_name': 'Axel Gonon', 'profile_description': 'Développeur ERP - ADSI - Lyon📍'}, {'profile_url': 'https://www.linkedin.com/in/hilal-najim?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACUCc8gBbqmhAqLoLJzOvHoMNLBOvDXYVdw', 'person_name': 'Hilal NAJIM', 'profile_description': 'Consultant Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/florent-omont-4b41b12?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABicIgBGK1vTqZQB6E-beLfI2ZxCji8HIQ', 'person_name': 'Florent OMONT', 'profile_description': 'Associé ADSI, Consultant Sage ERP X3'}, {'profile_url': 'https://www.linkedin.com/in/matthieu-thiberge-9859a3150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACR0L7UB4u4-B5zJVNJ6qpUM45er2XKyB88', 'person_name': 'Matthieu Thiberge', 'profile_description': 'PMO - Direction du delivery / Chef de projet IT'}, {'profile_url': 'https://www.linkedin.com/in/doroth%C3%A9e-jacquet-4831219?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGeh2MBYVRhSYyXaBCttqoBBhiw02IA6o0', 'person_name': 'Dorothée Jacquet', 'profile_description': 'Consultant Sage X3 at ADSI, Lyon'}, {'profile_url': 'https://www.linkedin.com/in/sarah-couchoux-21383172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9tuu8BFPOz_XRBKQjyTKvuIMoTPQeR7s0', 'person_name': 'Sarah Couchoux', 'profile_description': 'Team Leader iOS chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/patrick-cadiou-1bb58292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOpcp8BGZ0jGMIDEAQ2ogZKfCIz9rOPG-8', 'person_name': 'Patrick CADIOU', 'profile_description': 'Directeur Systemes'}, {'profile_url': 'https://www.linkedin.com/in/brice-picouleau-83b63b87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJs-e8BFHv_bOfW73ORfuNL0WSMBTGsZHU', 'person_name': 'Brice PICOULEAU', 'profile_description': "Chef de projet / Consultant Expert / Manager d'équipe"}, {'profile_url': 'https://www.linkedin.com/in/anis-ayoudj?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJG6jEBUZ0n8nzjk0jstkBOpFpXvoWWg94', 'person_name': 'Anis AYOUDJ', 'profile_description': 'Data Engineer'}, {'profile_url': 'https://www.linkedin.com/in/clementdubard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1P4u0BdMHBxQIqJprXhMt_I9wiRKqq-p0', 'person_name': 'Clément DUBARD', 'profile_description': 'Directeur Associé'}, {'profile_url': 'https://www.linkedin.com/in/d%C3%A9borah-dannon-2558927b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEJt-EBwQo4Kyv-Lh6LkFTQQEnxaTY4q48', 'person_name': 'Déborah DANNON', 'profile_description': 'Chef de projet RH et paie'}, {'profile_url': 'https://www.linkedin.com/in/juliette-sagot-4527b0142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKlMX4BNTfFmXAc9ytVVg0HkT2RPb4TfaU', 'person_name': 'Juliette Sagot', 'profile_description': 'Responsable administration des ventes &amp; achats chez ADSI DIGITAL'}, {'profile_url': 'https://www.linkedin.com/in/aicha-el-habouz-562857152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTKB1oBF2GfCupqiUj5pWUAgPFpSFdtOpg', 'person_name': 'Aicha El Habouz', 'profile_description': 'Consultante Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/alice-fache-b47524206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADRnH2cBM6J2p54EUxpDtq6u5wMnHBGmPHw', 'person_name': 'Alice Fache', 'profile_description': 'Ingénieure commerciale chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/amelie-benguigui-47113425?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAUuLJUBhFKyGM3cKEMvAqG3gIuMopVSN7w', 'person_name': 'Amelie Benguigui', 'profile_description': "Ingénieur d'études et développement"}, {'profile_url': 'https://www.linkedin.com/in/dominique-magnien-235b0432?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbtQEkBchGXYrLcL2pfDGhPsgKGMZoPvwA', 'person_name': 'Dominique Magnien', 'profile_description': 'Chef de Projet X3 chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/nicolasagnus?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWbPYEBUEKAccmS57M9u26sLFr24SpD-98', 'person_name': 'Nicolas Agnus', 'profile_description': 'Product Manager chez ADSI-Digital'}, {'profile_url': 'https://www.linkedin.com/in/xavier-parein-9b549b7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABD6yNkBAVjJ_u8zRcR_2pNh9tEkRhBzWl8', 'person_name': 'Xavier Parein', 'profile_description': 'Consultant chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/sakina-guyant-960949b3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABgqohgBH30-IvEQdg11G8FDtNgcS5d-iLU', 'person_name': 'Sakina Guyant', 'profile_description': 'Consultante Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/frederic-chavarot?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYl_0kBiizRfkX7Ozbe4ee9RnxwRfyRnRY', 'person_name': 'Frédéric Chavarot', 'profile_description': 'Cofondateur et Directeur du delivery chez ADSI Tech'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-herren?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABv7sh4BMJbJ1OZlVSE91wEJrc4DJdJ7xSE', 'person_name': 'Jérôme HERREN', 'profile_description': 'Gestion de projet - Développement commercial'}, {'profile_url': 'https://www.linkedin.com/in/micha%C3%ABl-poelman-751a62212?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADXnz60BUfkOJO6FY5hJ-AgXRmzgzTkEQNg', 'person_name': 'Michaël POELMAN', 'profile_description': 'Chef de projet Sage 100 chez APOGEA'}, {'profile_url': 'https://www.linkedin.com/in/fadi-rabhi-288a10a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbAuogBAq4agYl8EFwxCQsy6VWg_VE_Vxk', 'person_name': 'Fadi RABHI', 'profile_description': 'Team Lead &amp; Research and Development Engineer'}, {'profile_url': 'https://www.linkedin.com/in/sanae-bouya-7a0308143?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACLATmgBtC5sozCGIraMvkKUib7Fms-qBa0', 'person_name': 'Sanae Bouya', 'profile_description': 'MOA- Cheffe de projet WMS/ERP (Implémentation des systèmes d’information)'}, {'profile_url': 'https://www.linkedin.com/in/romain-vall%C3%A8s-2730b3116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzYsLcBP3R0mx_cfaLarobIZIfxFOss5gI', 'person_name': 'Romain Vallès', 'profile_description': 'Consultant Senior Chef de projet X3'}, {'profile_url': 'https://www.linkedin.com/in/daphn%C3%A9-lefebvre-9a3a33175?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmfFMsBrcplKQT_f6w89kutnokgZ-JuEHs', 'person_name': 'Daphné Lefebvre', 'profile_description': 'Chef de projet développement'}, {'profile_url': 'https://www.linkedin.com/in/christophe-granger%C3%A9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKznPwBTIFUEAk4Wx7Z-ut3UDq_EVyLHWw', 'person_name': 'Christophe Grangeré', 'profile_description': 'Consultant Sage 100 ADSI PME'}, {'profile_url': 'https://www.linkedin.com/in/mathis-m-dc?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAESIaZUB5aO8Vu2GqRi-HV7ZmFdOCjdBG-A', 'person_name': 'Mathis M.', 'profile_description': "Étudiant à l'ESIEE-IT"}, {'profile_url': 'https://www.linkedin.com/in/clara-salivet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC87VDgBosOCjT6QIX_vCkTaUf-rZmd85RY', 'person_name': 'Clara Salivet', 'profile_description': 'Alternante consultante fonctionnelle Sage x3 chez ADSI Group | 4ICS à CPE Lyon'}, {'profile_url': 'https://www.linkedin.com/in/julie-lefebvre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACtKPm0BUB-vkC5fDAyozTqLrbWMwIXjtcs', 'person_name': 'Julie Lefebvre', 'profile_description': 'Développeur web PHP chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/christophe-cochet-6887a579?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCrM4gB82en0plmxPoATp3FaE6aURakO6o', 'person_name': 'christophe Cochet', 'profile_description': 'Responsable Projets Paie &amp; Rh'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-etheve-642590109?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABtQ6JIB8dhifu2wQFEWnmyMz3u2QnQ9RBU', 'person_name': 'Sébastien ETHEVE', 'profile_description': 'Consultant fonctionnel Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/adrien-curatolo-b50226101?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABnW-OwBz4vCKtIcmdK6VtuWr3Zu8lvRzUg', 'person_name': 'Adrien Curatolo', 'profile_description': 'Consultant Négoce Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/romain-leonarduzzi-73b8045?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAECTx8B2aVrMmhfe809nBPRGVCifGnrA4U', 'person_name': 'Romain Leonarduzzi', 'profile_description': 'Responsable Pôle Applicatif &amp; Marketing ADSI'}, {'profile_url': 'https://www.linkedin.com/in/fouad-sadki-3135a5a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVxyX8BW1r9mlawbe7uV4LVSyxD0_Hc8xo', 'person_name': 'Fouad Sadki', 'profile_description': 'Consultant technique, Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-knehler-4a00aa119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1hQDgBvM9yqYMrtGhIJj5MfwhRBYaGcHQ', 'person_name': 'Laetitia KNEHLER', 'profile_description': 'Responsable Administrative et du Personnel chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/usman-mohammad-51b336210?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADVxQmcB4_vw57uB86gyB1wdKCQbS7NPPmQ', 'person_name': 'Usman Mohammad', 'profile_description': 'Consultant BI'}, {'profile_url': 'https://www.linkedin.com/in/jeanbaptiste-blandureau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABx0sJgBsl0sMXLzHSZj79ohLaV0Bby5aYs', 'person_name': 'Jean-Baptiste Blandureau', 'profile_description': 'Chef de projet &amp; Consultant Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-basa-5078a7169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACgtTBcBsSzOEUZ1EVOw1hawHvkt6B20FKQ', 'person_name': 'Guillaume Basa', 'profile_description': 'Directeur ADSI Lyon, Associé / Directeur de projet ERP SAGE X3'}, {'profile_url': 'https://www.linkedin.com/in/michel-callet-89a300123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB56mPYBaeysql8emb2WrmtQ0g4J1nvFwWc', 'person_name': 'michel callet', 'profile_description': 'Responsable support chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-c-aa91262a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEiiHKEB7jc2K7qKUpjD3eqa6s3Fk_kBCcM', 'person_name': 'Alexandre C.', 'profile_description': 'Alternant consultant technique ERP chez ADSI Group.'}, {'profile_url': 'https://www.linkedin.com/in/amouezant?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABwiKUkBlkhoej3rc617hR8wTWJnDMFSr_w', 'person_name': 'Alain Mouëzant', 'profile_description': 'Architecte SI chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/elisa-meissimilly-11211b1a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC9cB94BmO7f0ZuoWQMlomcPIEXbFMjxD-c', 'person_name': 'Elisa Meissimilly', 'profile_description': 'Consultante finance &amp; Chef de projet ERP - Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/amber-bartlett-10b794aa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdAqJsB1zivoeEvuiSP-IEYQ-eaVgOSDIk', 'person_name': 'Amber Bartlett', 'profile_description': 'Account Manager at ADSI Group'}]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>13,34 %</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>45,6 %</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>6.318.530 €</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4.339.627 €</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>28</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>55</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/clementdubard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1P4u0BdMHBxQIqJprXhMt_I9wiRKqq-p0</t>
+      <c r="A6" t="n">
+        <v>441</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADSI </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.adsi-group.com/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['0033181938300', '123-456-7890', 'Fax: 987-654-3210', '+33 (0)1 81 93 83 00', 'WhatsApp: +123456789', '01 81 93 83 00', '+1234567890']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['contact-lyon@adsi-group.com', 'contact@adsi-tech.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact@adsi-tech.com', 'contact@adsi-group.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact-lyon@adsi-group.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact@adsi-group.com']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Siège Adsi Group 116 rue de Verdun, 92800 Puteaux', '123 Main Street, City, Country', '6 place Charles Hernu, Immeuble le Colysée, 69100 VILLEURBANNE', 'Agence Lyon 6 place Charles Hernu, Immeuble le Colysée, 69100 VILLEURBANNE', 'ADSI Tech 116 rue de Verdun, 92800 Puteaux', '116 rue de Verdun, 92800 Puteaux']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/adsi-group</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/martin-parard-3223611?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA64ooBJsjrWXoQxPZHV2ZQujWM2UKhpTg', 'person_name': 'Martin Parard', 'profile_description': 'Co-owner &amp; Managing Director at ADSI Group (we’re hiring!)'}</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Co-owner &amp; Managing Director at ADSI Group (we’re hiring!)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/martin-parard-3223611?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA64ooBJsjrWXoQxPZHV2ZQujWM2UKhpTg</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/clementbouchenoire?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3VAGQBvur-zuiUPerRb2rbpyUH4z9U1K8', 'person_name': 'Clément Bouchenoire', 'profile_description': 'Directeur des opérations'}, {'profile_url': 'https://www.linkedin.com/in/aymane-touzlin-6107a713a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHu0KwBx5HwwByBWzo5pGSVThk6bKokVok', 'person_name': 'Aymane TOUZLIN', 'profile_description': 'Chef de projet &amp; Consultant fonctionnel GEODE'}, {'profile_url': 'https://www.linkedin.com/in/salim-hamecha-33474a7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEEjVgBrtwh2MDyCdfDRH8Jh5ic5dx5444', 'person_name': 'Salim Hamecha', 'profile_description': 'Consultant Sage 100 ADSI PME'}, {'profile_url': 'https://www.linkedin.com/in/leslie-flores?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACEV3CcB-S7teJo6NB7S2yjhLRbVhWsxNJw', 'person_name': 'Leslie Flores Ruiz', 'profile_description': 'Responsable de Compte chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/martin-parard-3223611?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA64ooBJsjrWXoQxPZHV2ZQujWM2UKhpTg', 'person_name': 'Martin Parard', 'profile_description': 'Co-owner &amp; Managing Director at ADSI Group (we’re hiring!)'}, {'profile_url': 'https://www.linkedin.com/in/fatima-ezzahra-naji-329073b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkanREBNKn4gw1cFS7RvxJDzu4AFwJi1nY', 'person_name': 'Fatima-Ezzahra Naji', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/thibault-leclancher-b8a246103?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABoyuxoBJb-RaBKqiaL7iqzYtKmnraKfc74', 'person_name': 'Thibault Leclancher', 'profile_description': 'Développeur iOS'}, {'profile_url': 'https://www.linkedin.com/in/cedriccharpentier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGsnqABLGIaWIUh92bOS4rjzhVqg8pIiZA', 'person_name': 'Cédric Charpentier', 'profile_description': 'Responsable Applications et Développements'}, {'profile_url': 'https://www.linkedin.com/in/sadok-zaak-19529762?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA02QUEBQo4_Q23xiIdI8_BJDWCxGlz3AZw', 'person_name': 'Sadok Zaak', 'profile_description': 'Consultant IT Finance X3 Spécialité Audit &amp; Expertise || ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/reda-benyoub-68856319b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7j6ggBmeAXiaWKJkv0-DP2krNYYlmAdXI', 'person_name': 'reda benyoub', 'profile_description': 'Ingénieur Analyste développeur chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/soumaya-el-azzouzi-853627160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaJHf8BCp_efIgJaCrYgjBB__Ph5EaW4Tw', 'person_name': 'SOUMAYA EL AZZOUZI', 'profile_description': 'Finance Functional Consultant Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/lhessas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABnh_1EBo1WnI7f2eErbUF3U2K4yR9Ybif0', 'person_name': 'Lamine HESSAS', 'profile_description': 'Consultant Technique Senior Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/yani-hariche-1610ba230?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADmt_1kBe_MStY5XQIR9zPTGO04QAZIlVMg', 'person_name': 'Yani HARICHE', 'profile_description': "Etudiant BAC+4 en recherche d'alternance Master Informatique et Systèmes Intelligents - Intelligence Embarquée"}, {'profile_url': 'https://www.linkedin.com/in/salma-s-273b38156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWLDncBAQ1gZIdle5nO1399UfbA51hezTA', 'person_name': 'Salma S.', 'profile_description': 'Consultante Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-gu%C3%A9rin-8a189792?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO1TTkBOJkfSIXNFNbsAj0zjJeEZGv8Ou8', 'person_name': 'Kévin Guérin', 'profile_description': 'Consultant technico fonctionnel Sage ERP X3'}, {'profile_url': 'https://www.linkedin.com/in/clementchobert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcwb50B2ecwaA93gpHJ5N1G4xQ-H4PmPp8', 'person_name': 'Clement CHOBERT', 'profile_description': 'Directeur Général, Associé &amp; Consultant Expert Sage X3 - chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/isabelle-de-izorder-b34849180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACrW5xgBBeq7dTvoDNO4k_0osUG7uDXPAX0', 'person_name': 'Isabelle de izOrder', 'profile_description': 'Chargée de communication chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/cyril-macon-24111580?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEaQBEBTYd_HcPw5X_2IeZ-0igrJwlBOtU', 'person_name': 'Cyril Macon', 'profile_description': 'Consultant Sage X3 certifié chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/idir-bouiflou-261174a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYX32kBHBZ6DboCtwCtXVK1kzpmIOLsUSs', 'person_name': 'Idir Bouiflou', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/thomas-missri-16a32410b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuiUeIBtkRPtWAfHuO1lhUpeREUovCjNmY', 'person_name': 'Thomas Missri', 'profile_description': 'Consultant Certifié Sage X3 Finance'}, {'profile_url': 'https://www.linkedin.com/in/lxskh?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACe85wYBCY-Q-Sfxld10jA1wwBG9XobH1ro', 'person_name': 'Alexis Kohr', 'profile_description': 'Consultant Sage X3 chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/nastassia-lavetskaya-592a91123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6YCv4BaPa6wpTU6d-JujwztIP2V6DNVQs', 'person_name': 'Nastassia Lavetskaya', 'profile_description': 'Chef de projet &amp; Consultante ERP (Sage X3)'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-giacometti-299151113?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxR2VUByC5WfZ-A7CqEaw_6SV5WP1KLpcU', 'person_name': 'Nicolas Giacometti', 'profile_description': 'Développeur'}, {'profile_url': 'https://www.linkedin.com/in/ludovic-buffy-a269388a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMA-r4B7SoF5NBoTT8QIcapY65Pom1lXa4', 'person_name': 'Ludovic Buffy', 'profile_description': 'Consultant Certifié Sage X3 chez ADSI Conseil'}, {'profile_url': 'https://www.linkedin.com/in/cdi-it-sara-rochdi-50299b129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-l4hIBoGipxfZu0ejTl_ygXmBPVBrpUTg', 'person_name': 'Sara ROCHDI', 'profile_description': 'Chef de projet intégration ERP'}, {'profile_url': 'https://www.linkedin.com/in/etienne-silvio?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuat50Bt68cojAEn7T8yRMyu3BobB6tiUY', 'person_name': 'Etienne Silvio', 'profile_description': 'Consultant ERP Technico-fonctionnel - Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/axel-gonon-146912194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2yi0YBMB_HSB14r1u2_UGP1bOS4YtROy0', 'person_name': 'Axel Gonon', 'profile_description': 'Développeur ERP - ADSI - Lyon📍'}, {'profile_url': 'https://www.linkedin.com/in/hilal-najim?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACUCc8gBbqmhAqLoLJzOvHoMNLBOvDXYVdw', 'person_name': 'Hilal NAJIM', 'profile_description': 'Consultant Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/florent-omont-4b41b12?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABicIgBGK1vTqZQB6E-beLfI2ZxCji8HIQ', 'person_name': 'Florent OMONT', 'profile_description': 'Associé ADSI, Consultant Sage ERP X3'}, {'profile_url': 'https://www.linkedin.com/in/matthieu-thiberge-9859a3150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACR0L7UB4u4-B5zJVNJ6qpUM45er2XKyB88', 'person_name': 'Matthieu Thiberge', 'profile_description': 'PMO - Direction du delivery / Chef de projet IT'}, {'profile_url': 'https://www.linkedin.com/in/doroth%C3%A9e-jacquet-4831219?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGeh2MBYVRhSYyXaBCttqoBBhiw02IA6o0', 'person_name': 'Dorothée Jacquet', 'profile_description': 'Consultant Sage X3 at ADSI, Lyon'}, {'profile_url': 'https://www.linkedin.com/in/sarah-couchoux-21383172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9tuu8BFPOz_XRBKQjyTKvuIMoTPQeR7s0', 'person_name': 'Sarah Couchoux', 'profile_description': 'Team Leader iOS chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/patrick-cadiou-1bb58292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOpcp8BGZ0jGMIDEAQ2ogZKfCIz9rOPG-8', 'person_name': 'Patrick CADIOU', 'profile_description': 'Directeur Systemes'}, {'profile_url': 'https://www.linkedin.com/in/brice-picouleau-83b63b87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJs-e8BFHv_bOfW73ORfuNL0WSMBTGsZHU', 'person_name': 'Brice PICOULEAU', 'profile_description': "Chef de projet / Consultant Expert / Manager d'équipe"}, {'profile_url': 'https://www.linkedin.com/in/anis-ayoudj?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJG6jEBUZ0n8nzjk0jstkBOpFpXvoWWg94', 'person_name': 'Anis AYOUDJ', 'profile_description': 'Data Engineer'}, {'profile_url': 'https://www.linkedin.com/in/clementdubard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1P4u0BdMHBxQIqJprXhMt_I9wiRKqq-p0', 'person_name': 'Clément DUBARD', 'profile_description': 'Directeur Associé'}, {'profile_url': 'https://www.linkedin.com/in/d%C3%A9borah-dannon-2558927b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEJt-EBwQo4Kyv-Lh6LkFTQQEnxaTY4q48', 'person_name': 'Déborah DANNON', 'profile_description': 'Chef de projet RH et paie'}, {'profile_url': 'https://www.linkedin.com/in/juliette-sagot-4527b0142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKlMX4BNTfFmXAc9ytVVg0HkT2RPb4TfaU', 'person_name': 'Juliette Sagot', 'profile_description': 'Responsable administration des ventes &amp; achats chez ADSI DIGITAL'}, {'profile_url': 'https://www.linkedin.com/in/aicha-el-habouz-562857152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTKB1oBF2GfCupqiUj5pWUAgPFpSFdtOpg', 'person_name': 'Aicha El Habouz', 'profile_description': 'Consultante Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/alice-fache-b47524206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADRnH2cBM6J2p54EUxpDtq6u5wMnHBGmPHw', 'person_name': 'Alice Fache', 'profile_description': 'Ingénieure commerciale chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/amelie-benguigui-47113425?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAUuLJUBhFKyGM3cKEMvAqG3gIuMopVSN7w', 'person_name': 'Amelie Benguigui', 'profile_description': "Ingénieur d'études et développement"}, {'profile_url': 'https://www.linkedin.com/in/dominique-magnien-235b0432?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbtQEkBchGXYrLcL2pfDGhPsgKGMZoPvwA', 'person_name': 'Dominique Magnien', 'profile_description': 'Chef de Projet X3 chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/nicolasagnus?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWbPYEBUEKAccmS57M9u26sLFr24SpD-98', 'person_name': 'Nicolas Agnus', 'profile_description': 'Product Manager chez ADSI-Digital'}, {'profile_url': 'https://www.linkedin.com/in/xavier-parein-9b549b7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABD6yNkBAVjJ_u8zRcR_2pNh9tEkRhBzWl8', 'person_name': 'Xavier Parein', 'profile_description': 'Consultant chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/sakina-guyant-960949b3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABgqohgBH30-IvEQdg11G8FDtNgcS5d-iLU', 'person_name': 'Sakina Guyant', 'profile_description': 'Consultante Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/frederic-chavarot?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYl_0kBiizRfkX7Ozbe4ee9RnxwRfyRnRY', 'person_name': 'Frédéric Chavarot', 'profile_description': 'Cofondateur et Directeur du delivery chez ADSI Tech'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-herren?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABv7sh4BMJbJ1OZlVSE91wEJrc4DJdJ7xSE', 'person_name': 'Jérôme HERREN', 'profile_description': 'Gestion de projet - Développement commercial'}, {'profile_url': 'https://www.linkedin.com/in/micha%C3%ABl-poelman-751a62212?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADXnz60BUfkOJO6FY5hJ-AgXRmzgzTkEQNg', 'person_name': 'Michaël POELMAN', 'profile_description': 'Chef de projet Sage 100 chez APOGEA'}, {'profile_url': 'https://www.linkedin.com/in/fadi-rabhi-288a10a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbAuogBAq4agYl8EFwxCQsy6VWg_VE_Vxk', 'person_name': 'Fadi RABHI', 'profile_description': 'Team Lead &amp; Research and Development Engineer'}, {'profile_url': 'https://www.linkedin.com/in/sanae-bouya-7a0308143?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACLATmgBtC5sozCGIraMvkKUib7Fms-qBa0', 'person_name': 'Sanae Bouya', 'profile_description': 'MOA- Cheffe de projet WMS/ERP (Implémentation des systèmes d’information)'}, {'profile_url': 'https://www.linkedin.com/in/romain-vall%C3%A8s-2730b3116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzYsLcBP3R0mx_cfaLarobIZIfxFOss5gI', 'person_name': 'Romain Vallès', 'profile_description': 'Consultant Senior Chef de projet X3'}, {'profile_url': 'https://www.linkedin.com/in/daphn%C3%A9-lefebvre-9a3a33175?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmfFMsBrcplKQT_f6w89kutnokgZ-JuEHs', 'person_name': 'Daphné Lefebvre', 'profile_description': 'Chef de projet développement'}, {'profile_url': 'https://www.linkedin.com/in/christophe-granger%C3%A9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKznPwBTIFUEAk4Wx7Z-ut3UDq_EVyLHWw', 'person_name': 'Christophe Grangeré', 'profile_description': 'Consultant Sage 100 ADSI PME'}, {'profile_url': 'https://www.linkedin.com/in/mathis-m-dc?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAESIaZUB5aO8Vu2GqRi-HV7ZmFdOCjdBG-A', 'person_name': 'Mathis M.', 'profile_description': "Étudiant à l'ESIEE-IT"}, {'profile_url': 'https://www.linkedin.com/in/clara-salivet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC87VDgBosOCjT6QIX_vCkTaUf-rZmd85RY', 'person_name': 'Clara Salivet', 'profile_description': 'Alternante consultante fonctionnelle Sage x3 chez ADSI Group | 4ICS à CPE Lyon'}, {'profile_url': 'https://www.linkedin.com/in/julie-lefebvre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACtKPm0BUB-vkC5fDAyozTqLrbWMwIXjtcs', 'person_name': 'Julie Lefebvre', 'profile_description': 'Développeur web PHP chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/christophe-cochet-6887a579?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCrM4gB82en0plmxPoATp3FaE6aURakO6o', 'person_name': 'christophe Cochet', 'profile_description': 'Responsable Projets Paie &amp; Rh'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-etheve-642590109?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABtQ6JIB8dhifu2wQFEWnmyMz3u2QnQ9RBU', 'person_name': 'Sébastien ETHEVE', 'profile_description': 'Consultant fonctionnel Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/adrien-curatolo-b50226101?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABnW-OwBz4vCKtIcmdK6VtuWr3Zu8lvRzUg', 'person_name': 'Adrien Curatolo', 'profile_description': 'Consultant Négoce Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/romain-leonarduzzi-73b8045?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAECTx8B2aVrMmhfe809nBPRGVCifGnrA4U', 'person_name': 'Romain Leonarduzzi', 'profile_description': 'Responsable Pôle Applicatif &amp; Marketing ADSI'}, {'profile_url': 'https://www.linkedin.com/in/fouad-sadki-3135a5a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVxyX8BW1r9mlawbe7uV4LVSyxD0_Hc8xo', 'person_name': 'Fouad Sadki', 'profile_description': 'Consultant technique, Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-knehler-4a00aa119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1hQDgBvM9yqYMrtGhIJj5MfwhRBYaGcHQ', 'person_name': 'Laetitia KNEHLER', 'profile_description': 'Responsable Administrative et du Personnel chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/usman-mohammad-51b336210?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADVxQmcB4_vw57uB86gyB1wdKCQbS7NPPmQ', 'person_name': 'Usman Mohammad', 'profile_description': 'Consultant BI'}, {'profile_url': 'https://www.linkedin.com/in/jeanbaptiste-blandureau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABx0sJgBsl0sMXLzHSZj79ohLaV0Bby5aYs', 'person_name': 'Jean-Baptiste Blandureau', 'profile_description': 'Chef de projet &amp; Consultant Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-basa-5078a7169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACgtTBcBsSzOEUZ1EVOw1hawHvkt6B20FKQ', 'person_name': 'Guillaume Basa', 'profile_description': 'Directeur ADSI Lyon, Associé / Directeur de projet ERP SAGE X3'}, {'profile_url': 'https://www.linkedin.com/in/michel-callet-89a300123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB56mPYBaeysql8emb2WrmtQ0g4J1nvFwWc', 'person_name': 'michel callet', 'profile_description': 'Responsable support chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-c-aa91262a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEiiHKEB7jc2K7qKUpjD3eqa6s3Fk_kBCcM', 'person_name': 'Alexandre C.', 'profile_description': 'Alternant consultant technique ERP chez ADSI Group.'}, {'profile_url': 'https://www.linkedin.com/in/amouezant?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABwiKUkBlkhoej3rc617hR8wTWJnDMFSr_w', 'person_name': 'Alain Mouëzant', 'profile_description': 'Architecte SI chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/elisa-meissimilly-11211b1a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC9cB94BmO7f0ZuoWQMlomcPIEXbFMjxD-c', 'person_name': 'Elisa Meissimilly', 'profile_description': 'Consultante finance &amp; Chef de projet ERP - Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/amber-bartlett-10b794aa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdAqJsB1zivoeEvuiSP-IEYQ-eaVgOSDIk', 'person_name': 'Amber Bartlett', 'profile_description': 'Account Manager at ADSI Group'}]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>13,34 %</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>45,6 %</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6.318.530 €</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>4.339.627 €</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>55</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/frederic-chavarot?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYl_0kBiizRfkX7Ozbe4ee9RnxwRfyRnRY</t>
+      <c r="A7" t="n">
+        <v>441</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADSI </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.adsi-group.com/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['0033181938300', '123-456-7890', 'Fax: 987-654-3210', '+33 (0)1 81 93 83 00', 'WhatsApp: +123456789', '01 81 93 83 00', '+1234567890']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['contact-lyon@adsi-group.com', 'contact@adsi-tech.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact@adsi-tech.com', 'contact@adsi-group.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact-lyon@adsi-group.com?subject=Contact%20depuis%20le%20site%20internet%20adsi-group.com', 'contact@adsi-group.com']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Siège Adsi Group 116 rue de Verdun, 92800 Puteaux', '123 Main Street, City, Country', '6 place Charles Hernu, Immeuble le Colysée, 69100 VILLEURBANNE', 'Agence Lyon 6 place Charles Hernu, Immeuble le Colysée, 69100 VILLEURBANNE', 'ADSI Tech 116 rue de Verdun, 92800 Puteaux', '116 rue de Verdun, 92800 Puteaux']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/adsi-group</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/clementchobert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcwb50B2ecwaA93gpHJ5N1G4xQ-H4PmPp8', 'person_name': 'Clement CHOBERT', 'profile_description': 'Directeur Général, Associé &amp; Consultant Expert Sage X3 - chez ADSI Group'}</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Directeur Général, Associé &amp; Consultant Expert Sage X3 - chez ADSI Group</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/clementchobert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcwb50B2ecwaA93gpHJ5N1G4xQ-H4PmPp8</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/clementbouchenoire?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3VAGQBvur-zuiUPerRb2rbpyUH4z9U1K8', 'person_name': 'Clément Bouchenoire', 'profile_description': 'Directeur des opérations'}, {'profile_url': 'https://www.linkedin.com/in/aymane-touzlin-6107a713a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHu0KwBx5HwwByBWzo5pGSVThk6bKokVok', 'person_name': 'Aymane TOUZLIN', 'profile_description': 'Chef de projet &amp; Consultant fonctionnel GEODE'}, {'profile_url': 'https://www.linkedin.com/in/salim-hamecha-33474a7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEEjVgBrtwh2MDyCdfDRH8Jh5ic5dx5444', 'person_name': 'Salim Hamecha', 'profile_description': 'Consultant Sage 100 ADSI PME'}, {'profile_url': 'https://www.linkedin.com/in/leslie-flores?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACEV3CcB-S7teJo6NB7S2yjhLRbVhWsxNJw', 'person_name': 'Leslie Flores Ruiz', 'profile_description': 'Responsable de Compte chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/martin-parard-3223611?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA64ooBJsjrWXoQxPZHV2ZQujWM2UKhpTg', 'person_name': 'Martin Parard', 'profile_description': 'Co-owner &amp; Managing Director at ADSI Group (we’re hiring!)'}, {'profile_url': 'https://www.linkedin.com/in/fatima-ezzahra-naji-329073b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkanREBNKn4gw1cFS7RvxJDzu4AFwJi1nY', 'person_name': 'Fatima-Ezzahra Naji', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/thibault-leclancher-b8a246103?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABoyuxoBJb-RaBKqiaL7iqzYtKmnraKfc74', 'person_name': 'Thibault Leclancher', 'profile_description': 'Développeur iOS'}, {'profile_url': 'https://www.linkedin.com/in/cedriccharpentier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGsnqABLGIaWIUh92bOS4rjzhVqg8pIiZA', 'person_name': 'Cédric Charpentier', 'profile_description': 'Responsable Applications et Développements'}, {'profile_url': 'https://www.linkedin.com/in/sadok-zaak-19529762?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA02QUEBQo4_Q23xiIdI8_BJDWCxGlz3AZw', 'person_name': 'Sadok Zaak', 'profile_description': 'Consultant IT Finance X3 Spécialité Audit &amp; Expertise || ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/reda-benyoub-68856319b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7j6ggBmeAXiaWKJkv0-DP2krNYYlmAdXI', 'person_name': 'reda benyoub', 'profile_description': 'Ingénieur Analyste développeur chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/soumaya-el-azzouzi-853627160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaJHf8BCp_efIgJaCrYgjBB__Ph5EaW4Tw', 'person_name': 'SOUMAYA EL AZZOUZI', 'profile_description': 'Finance Functional Consultant Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/lhessas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABnh_1EBo1WnI7f2eErbUF3U2K4yR9Ybif0', 'person_name': 'Lamine HESSAS', 'profile_description': 'Consultant Technique Senior Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/yani-hariche-1610ba230?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADmt_1kBe_MStY5XQIR9zPTGO04QAZIlVMg', 'person_name': 'Yani HARICHE', 'profile_description': "Etudiant BAC+4 en recherche d'alternance Master Informatique et Systèmes Intelligents - Intelligence Embarquée"}, {'profile_url': 'https://www.linkedin.com/in/salma-s-273b38156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWLDncBAQ1gZIdle5nO1399UfbA51hezTA', 'person_name': 'Salma S.', 'profile_description': 'Consultante Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-gu%C3%A9rin-8a189792?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO1TTkBOJkfSIXNFNbsAj0zjJeEZGv8Ou8', 'person_name': 'Kévin Guérin', 'profile_description': 'Consultant technico fonctionnel Sage ERP X3'}, {'profile_url': 'https://www.linkedin.com/in/clementchobert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcwb50B2ecwaA93gpHJ5N1G4xQ-H4PmPp8', 'person_name': 'Clement CHOBERT', 'profile_description': 'Directeur Général, Associé &amp; Consultant Expert Sage X3 - chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/isabelle-de-izorder-b34849180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACrW5xgBBeq7dTvoDNO4k_0osUG7uDXPAX0', 'person_name': 'Isabelle de izOrder', 'profile_description': 'Chargée de communication chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/cyril-macon-24111580?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEaQBEBTYd_HcPw5X_2IeZ-0igrJwlBOtU', 'person_name': 'Cyril Macon', 'profile_description': 'Consultant Sage X3 certifié chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/idir-bouiflou-261174a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYX32kBHBZ6DboCtwCtXVK1kzpmIOLsUSs', 'person_name': 'Idir Bouiflou', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/thomas-missri-16a32410b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuiUeIBtkRPtWAfHuO1lhUpeREUovCjNmY', 'person_name': 'Thomas Missri', 'profile_description': 'Consultant Certifié Sage X3 Finance'}, {'profile_url': 'https://www.linkedin.com/in/lxskh?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACe85wYBCY-Q-Sfxld10jA1wwBG9XobH1ro', 'person_name': 'Alexis Kohr', 'profile_description': 'Consultant Sage X3 chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/nastassia-lavetskaya-592a91123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6YCv4BaPa6wpTU6d-JujwztIP2V6DNVQs', 'person_name': 'Nastassia Lavetskaya', 'profile_description': 'Chef de projet &amp; Consultante ERP (Sage X3)'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-giacometti-299151113?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxR2VUByC5WfZ-A7CqEaw_6SV5WP1KLpcU', 'person_name': 'Nicolas Giacometti', 'profile_description': 'Développeur'}, {'profile_url': 'https://www.linkedin.com/in/ludovic-buffy-a269388a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMA-r4B7SoF5NBoTT8QIcapY65Pom1lXa4', 'person_name': 'Ludovic Buffy', 'profile_description': 'Consultant Certifié Sage X3 chez ADSI Conseil'}, {'profile_url': 'https://www.linkedin.com/in/cdi-it-sara-rochdi-50299b129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-l4hIBoGipxfZu0ejTl_ygXmBPVBrpUTg', 'person_name': 'Sara ROCHDI', 'profile_description': 'Chef de projet intégration ERP'}, {'profile_url': 'https://www.linkedin.com/in/etienne-silvio?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuat50Bt68cojAEn7T8yRMyu3BobB6tiUY', 'person_name': 'Etienne Silvio', 'profile_description': 'Consultant ERP Technico-fonctionnel - Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/axel-gonon-146912194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2yi0YBMB_HSB14r1u2_UGP1bOS4YtROy0', 'person_name': 'Axel Gonon', 'profile_description': 'Développeur ERP - ADSI - Lyon📍'}, {'profile_url': 'https://www.linkedin.com/in/hilal-najim?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACUCc8gBbqmhAqLoLJzOvHoMNLBOvDXYVdw', 'person_name': 'Hilal NAJIM', 'profile_description': 'Consultant Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/florent-omont-4b41b12?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABicIgBGK1vTqZQB6E-beLfI2ZxCji8HIQ', 'person_name': 'Florent OMONT', 'profile_description': 'Associé ADSI, Consultant Sage ERP X3'}, {'profile_url': 'https://www.linkedin.com/in/matthieu-thiberge-9859a3150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACR0L7UB4u4-B5zJVNJ6qpUM45er2XKyB88', 'person_name': 'Matthieu Thiberge', 'profile_description': 'PMO - Direction du delivery / Chef de projet IT'}, {'profile_url': 'https://www.linkedin.com/in/doroth%C3%A9e-jacquet-4831219?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGeh2MBYVRhSYyXaBCttqoBBhiw02IA6o0', 'person_name': 'Dorothée Jacquet', 'profile_description': 'Consultant Sage X3 at ADSI, Lyon'}, {'profile_url': 'https://www.linkedin.com/in/sarah-couchoux-21383172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9tuu8BFPOz_XRBKQjyTKvuIMoTPQeR7s0', 'person_name': 'Sarah Couchoux', 'profile_description': 'Team Leader iOS chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/patrick-cadiou-1bb58292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOpcp8BGZ0jGMIDEAQ2ogZKfCIz9rOPG-8', 'person_name': 'Patrick CADIOU', 'profile_description': 'Directeur Systemes'}, {'profile_url': 'https://www.linkedin.com/in/brice-picouleau-83b63b87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJs-e8BFHv_bOfW73ORfuNL0WSMBTGsZHU', 'person_name': 'Brice PICOULEAU', 'profile_description': "Chef de projet / Consultant Expert / Manager d'équipe"}, {'profile_url': 'https://www.linkedin.com/in/anis-ayoudj?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJG6jEBUZ0n8nzjk0jstkBOpFpXvoWWg94', 'person_name': 'Anis AYOUDJ', 'profile_description': 'Data Engineer'}, {'profile_url': 'https://www.linkedin.com/in/clementdubard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1P4u0BdMHBxQIqJprXhMt_I9wiRKqq-p0', 'person_name': 'Clément DUBARD', 'profile_description': 'Directeur Associé'}, {'profile_url': 'https://www.linkedin.com/in/d%C3%A9borah-dannon-2558927b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEJt-EBwQo4Kyv-Lh6LkFTQQEnxaTY4q48', 'person_name': 'Déborah DANNON', 'profile_description': 'Chef de projet RH et paie'}, {'profile_url': 'https://www.linkedin.com/in/juliette-sagot-4527b0142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKlMX4BNTfFmXAc9ytVVg0HkT2RPb4TfaU', 'person_name': 'Juliette Sagot', 'profile_description': 'Responsable administration des ventes &amp; achats chez ADSI DIGITAL'}, {'profile_url': 'https://www.linkedin.com/in/aicha-el-habouz-562857152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTKB1oBF2GfCupqiUj5pWUAgPFpSFdtOpg', 'person_name': 'Aicha El Habouz', 'profile_description': 'Consultante Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/alice-fache-b47524206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADRnH2cBM6J2p54EUxpDtq6u5wMnHBGmPHw', 'person_name': 'Alice Fache', 'profile_description': 'Ingénieure commerciale chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/amelie-benguigui-47113425?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAUuLJUBhFKyGM3cKEMvAqG3gIuMopVSN7w', 'person_name': 'Amelie Benguigui', 'profile_description': "Ingénieur d'études et développement"}, {'profile_url': 'https://www.linkedin.com/in/dominique-magnien-235b0432?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbtQEkBchGXYrLcL2pfDGhPsgKGMZoPvwA', 'person_name': 'Dominique Magnien', 'profile_description': 'Chef de Projet X3 chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/nicolasagnus?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWbPYEBUEKAccmS57M9u26sLFr24SpD-98', 'person_name': 'Nicolas Agnus', 'profile_description': 'Product Manager chez ADSI-Digital'}, {'profile_url': 'https://www.linkedin.com/in/xavier-parein-9b549b7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABD6yNkBAVjJ_u8zRcR_2pNh9tEkRhBzWl8', 'person_name': 'Xavier Parein', 'profile_description': 'Consultant chez ADSI'}, {'profile_url': 'https://www.linkedin.com/in/sakina-guyant-960949b3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABgqohgBH30-IvEQdg11G8FDtNgcS5d-iLU', 'person_name': 'Sakina Guyant', 'profile_description': 'Consultante Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/frederic-chavarot?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYl_0kBiizRfkX7Ozbe4ee9RnxwRfyRnRY', 'person_name': 'Frédéric Chavarot', 'profile_description': 'Cofondateur et Directeur du delivery chez ADSI Tech'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-herren?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABv7sh4BMJbJ1OZlVSE91wEJrc4DJdJ7xSE', 'person_name': 'Jérôme HERREN', 'profile_description': 'Gestion de projet - Développement commercial'}, {'profile_url': 'https://www.linkedin.com/in/micha%C3%ABl-poelman-751a62212?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADXnz60BUfkOJO6FY5hJ-AgXRmzgzTkEQNg', 'person_name': 'Michaël POELMAN', 'profile_description': 'Chef de projet Sage 100 chez APOGEA'}, {'profile_url': 'https://www.linkedin.com/in/fadi-rabhi-288a10a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbAuogBAq4agYl8EFwxCQsy6VWg_VE_Vxk', 'person_name': 'Fadi RABHI', 'profile_description': 'Team Lead &amp; Research and Development Engineer'}, {'profile_url': 'https://www.linkedin.com/in/sanae-bouya-7a0308143?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACLATmgBtC5sozCGIraMvkKUib7Fms-qBa0', 'person_name': 'Sanae Bouya', 'profile_description': 'MOA- Cheffe de projet WMS/ERP (Implémentation des systèmes d’information)'}, {'profile_url': 'https://www.linkedin.com/in/romain-vall%C3%A8s-2730b3116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzYsLcBP3R0mx_cfaLarobIZIfxFOss5gI', 'person_name': 'Romain Vallès', 'profile_description': 'Consultant Senior Chef de projet X3'}, {'profile_url': 'https://www.linkedin.com/in/daphn%C3%A9-lefebvre-9a3a33175?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmfFMsBrcplKQT_f6w89kutnokgZ-JuEHs', 'person_name': 'Daphné Lefebvre', 'profile_description': 'Chef de projet développement'}, {'profile_url': 'https://www.linkedin.com/in/christophe-granger%C3%A9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKznPwBTIFUEAk4Wx7Z-ut3UDq_EVyLHWw', 'person_name': 'Christophe Grangeré', 'profile_description': 'Consultant Sage 100 ADSI PME'}, {'profile_url': 'https://www.linkedin.com/in/mathis-m-dc?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAESIaZUB5aO8Vu2GqRi-HV7ZmFdOCjdBG-A', 'person_name': 'Mathis M.', 'profile_description': "Étudiant à l'ESIEE-IT"}, {'profile_url': 'https://www.linkedin.com/in/clara-salivet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC87VDgBosOCjT6QIX_vCkTaUf-rZmd85RY', 'person_name': 'Clara Salivet', 'profile_description': 'Alternante consultante fonctionnelle Sage x3 chez ADSI Group | 4ICS à CPE Lyon'}, {'profile_url': 'https://www.linkedin.com/in/julie-lefebvre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACtKPm0BUB-vkC5fDAyozTqLrbWMwIXjtcs', 'person_name': 'Julie Lefebvre', 'profile_description': 'Développeur web PHP chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/christophe-cochet-6887a579?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCrM4gB82en0plmxPoATp3FaE6aURakO6o', 'person_name': 'christophe Cochet', 'profile_description': 'Responsable Projets Paie &amp; Rh'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-etheve-642590109?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABtQ6JIB8dhifu2wQFEWnmyMz3u2QnQ9RBU', 'person_name': 'Sébastien ETHEVE', 'profile_description': 'Consultant fonctionnel Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/adrien-curatolo-b50226101?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABnW-OwBz4vCKtIcmdK6VtuWr3Zu8lvRzUg', 'person_name': 'Adrien Curatolo', 'profile_description': 'Consultant Négoce Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/romain-leonarduzzi-73b8045?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAECTx8B2aVrMmhfe809nBPRGVCifGnrA4U', 'person_name': 'Romain Leonarduzzi', 'profile_description': 'Responsable Pôle Applicatif &amp; Marketing ADSI'}, {'profile_url': 'https://www.linkedin.com/in/fouad-sadki-3135a5a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVxyX8BW1r9mlawbe7uV4LVSyxD0_Hc8xo', 'person_name': 'Fouad Sadki', 'profile_description': 'Consultant technique, Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-knehler-4a00aa119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1hQDgBvM9yqYMrtGhIJj5MfwhRBYaGcHQ', 'person_name': 'Laetitia KNEHLER', 'profile_description': 'Responsable Administrative et du Personnel chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/usman-mohammad-51b336210?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADVxQmcB4_vw57uB86gyB1wdKCQbS7NPPmQ', 'person_name': 'Usman Mohammad', 'profile_description': 'Consultant BI'}, {'profile_url': 'https://www.linkedin.com/in/jeanbaptiste-blandureau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABx0sJgBsl0sMXLzHSZj79ohLaV0Bby5aYs', 'person_name': 'Jean-Baptiste Blandureau', 'profile_description': 'Chef de projet &amp; Consultant Sage X3 chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-basa-5078a7169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACgtTBcBsSzOEUZ1EVOw1hawHvkt6B20FKQ', 'person_name': 'Guillaume Basa', 'profile_description': 'Directeur ADSI Lyon, Associé / Directeur de projet ERP SAGE X3'}, {'profile_url': 'https://www.linkedin.com/in/michel-callet-89a300123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB56mPYBaeysql8emb2WrmtQ0g4J1nvFwWc', 'person_name': 'michel callet', 'profile_description': 'Responsable support chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-c-aa91262a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEiiHKEB7jc2K7qKUpjD3eqa6s3Fk_kBCcM', 'person_name': 'Alexandre C.', 'profile_description': 'Alternant consultant technique ERP chez ADSI Group.'}, {'profile_url': 'https://www.linkedin.com/in/amouezant?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABwiKUkBlkhoej3rc617hR8wTWJnDMFSr_w', 'person_name': 'Alain Mouëzant', 'profile_description': 'Architecte SI chez ADSI Group'}, {'profile_url': 'https://www.linkedin.com/in/elisa-meissimilly-11211b1a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC9cB94BmO7f0ZuoWQMlomcPIEXbFMjxD-c', 'person_name': 'Elisa Meissimilly', 'profile_description': 'Consultante finance &amp; Chef de projet ERP - Sage X3'}, {'profile_url': 'https://www.linkedin.com/in/amber-bartlett-10b794aa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdAqJsB1zivoeEvuiSP-IEYQ-eaVgOSDIk', 'person_name': 'Amber Bartlett', 'profile_description': 'Account Manager at ADSI Group'}]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>13,34 %</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>45,6 %</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>6.318.530 €</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.339.627 €</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>28</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>55</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/martin-parard-3223611?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA64ooBJsjrWXoQxPZHV2ZQujWM2UKhpTg</t>
+      <c r="A8" t="n">
+        <v>135</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Values.Media </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.values.media/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['+33 (0)1 49 96 97 97', '+33(0)149969797']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['d.diallo@values.media', 'm.sourice@values.media', 'c.boquel@values.media', 'e.crego@values.media', 's.lemaistre@values.media', 'm.pradelles@values.media', 'c.roche@values.media', 'o.abrantes@values.media', 'm.laurencon-marcopoulos@values.media', 'l.poignant@values.media', 'd.boccara@values.media', 'p.hebert@values.media', 'n.bitam@values.media', 'h.deriac@values.media', 'e.ghil@values.media', 't.mancicidor@values.media', 'm.tossou@values.media', 'o.lavecot@values.media', 'm.clergeon@values.media', 's.fitzgerald@values.media', 's.cusseau@values.media', 'j.badie@values.media', 'n.leverd@values.media', 'j.frankel@values.media', 'patrick.gb@values.media', 'm.rodrigues@values.media', 'd.ferreira@values.media', 'x.chen@values.media', 'm.haros@values.media', 'j.dupic@values.media', 's.constant@values.media', 'm.nacer@values.media', 'a.font@values.media', 'c.martin@values.media', 's.rocha@values.media', 'j.goncalves@values.media', 'a.tauvron@values.media', 'e.guillerme@values.media', 'h.zhao@values.media', 'c.laurent@values.media', 'a.veg@values.media', 'ma.pisano@values.media', 'c.desaintphalle@values.media', 'l.itaty-ndong@values.media', 'm.watier@values.media', 'r.gallon@values.media', 'v.graff@values.media', 'm.ozawa@values.media', 'a.dupont@values.media', 'f.ziller@values.media']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['18 rue Oberkampf, 75011 Paris']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/valuesmedia</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/emmanuel-crego?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAH1hs0BMPNzvuM6cJ70Ml2HmlgZdv6i4uc', 'person_name': 'Emmanuel Crego', 'profile_description': 'Directeur Général du Groupe Values'}</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Directeur Général du Groupe Values</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/emmanuel-crego?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAH1hs0BMPNzvuM6cJ70Ml2HmlgZdv6i4uc</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/camille-boquel-b415ab87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJrZqEBSWw3fUmVfFs2nTr5RN0yRcMa-wk', 'person_name': 'Camille Boquel', 'profile_description': 'Experte TV'}, {'profile_url': 'https://www.linkedin.com/in/st%C3%A9phanie-cusseau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI2fYMBTWN-KprWtGNrwHyY-Vo0DypaBSc', 'person_name': 'Stéphanie Cusseau', 'profile_description': 'Directrice Conseil | Business Director @values.media | Founder &amp; President @Aroonii (non-profit)'}, {'profile_url': 'https://www.linkedin.com/in/steven-fitzgerald?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOZThkBJjSYiwFHcSkJkUU7yOokmuT__y0', 'person_name': 'Steven Fitzgerald', 'profile_description': 'Directeur Général Adjoint chez Values.media'}, {'profile_url': 'https://www.linkedin.com/in/camilleroche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQskTUBc2ma453kTmnrW0l76IsOoPInMC4', 'person_name': 'Camille Roche', 'profile_description': 'Directrice de clientèle at Values.media | Membre de la commission Jeunes Talents de l’UDECAM'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mentine-laurent-4ab849a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABa6U4MBWbKDYxQ-PE7GZ0DSAIC_1gR70IQ', 'person_name': 'Clémentine Laurent', 'profile_description': 'Directrice de clientèle chez Values Media'}, {'profile_url': 'https://www.linkedin.com/in/julie-frankel-paris?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAVlo1gBct_FIbqxYOQ1_XbxJouwLUgsEOM', 'person_name': 'Julie Frankel', 'profile_description': 'Cheffe de Groupe trading Offline'}, {'profile_url': 'https://www.linkedin.com/in/romain-gabillaud-a313082a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYYv8UBpoAbxT4GCM94PlgX7qcnKSNVskU', 'person_name': 'Romain Gabillaud', 'profile_description': 'Expert Offline'}, {'profile_url': 'https://www.linkedin.com/in/djibril-diallo-44616a115?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByth_YBUhyP7-wawwT8SXZwasb_Kzj79Wc', 'person_name': 'Djibril DIALLO', 'profile_description': 'Directeur de clientèle Brand content/OPS chez Values.media | Expert en Brand content et Partenariats médias'}, {'profile_url': 'https://www.linkedin.com/in/michael-haros?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHVkeIB-7qWvY2uLtvnm1yXeJWZogsWB3o', 'person_name': 'Michael Haros', 'profile_description': 'Directeur général chez Values.media'}, {'profile_url': 'https://www.linkedin.com/in/emmanuel-crego?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAH1hs0BMPNzvuM6cJ70Ml2HmlgZdv6i4uc', 'person_name': 'Emmanuel Crego', 'profile_description': 'Directeur Général du Groupe Values'}, {'profile_url': 'https://www.linkedin.com/in/xiaoye-chen-353237b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjzfC8BNBT32lc_qTEF_UaRrGLXWU4FpEs', 'person_name': 'Xiaoye Chen', 'profile_description': 'Chef de projet Tracking et Analytics'}, {'profile_url': 'https://www.linkedin.com/in/patrick-gouyou-beauchamps-53466117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN6Z7gBRqBx2W83nZ1r672wsP0N3XzqAcA', 'person_name': 'Patrick Gouyou Beauchamps', 'profile_description': 'Président chez Values.media'}]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>38,8 %</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>167,38 %</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>13.596.984 €</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>5.085.246 €</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>33</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>56</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/clementchobert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcwb50B2ecwaA93gpHJ5N1G4xQ-H4PmPp8</t>
+      <c r="A9" t="n">
+        <v>135</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Values.Media </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.values.media/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['+33 (0)1 49 96 97 97', '+33(0)149969797']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['d.diallo@values.media', 'm.sourice@values.media', 'c.boquel@values.media', 'e.crego@values.media', 's.lemaistre@values.media', 'm.pradelles@values.media', 'c.roche@values.media', 'o.abrantes@values.media', 'm.laurencon-marcopoulos@values.media', 'l.poignant@values.media', 'd.boccara@values.media', 'p.hebert@values.media', 'n.bitam@values.media', 'h.deriac@values.media', 'e.ghil@values.media', 't.mancicidor@values.media', 'm.tossou@values.media', 'o.lavecot@values.media', 'm.clergeon@values.media', 's.fitzgerald@values.media', 's.cusseau@values.media', 'j.badie@values.media', 'n.leverd@values.media', 'j.frankel@values.media', 'patrick.gb@values.media', 'm.rodrigues@values.media', 'd.ferreira@values.media', 'x.chen@values.media', 'm.haros@values.media', 'j.dupic@values.media', 's.constant@values.media', 'm.nacer@values.media', 'a.font@values.media', 'c.martin@values.media', 's.rocha@values.media', 'j.goncalves@values.media', 'a.tauvron@values.media', 'e.guillerme@values.media', 'h.zhao@values.media', 'c.laurent@values.media', 'a.veg@values.media', 'ma.pisano@values.media', 'c.desaintphalle@values.media', 'l.itaty-ndong@values.media', 'm.watier@values.media', 'r.gallon@values.media', 'v.graff@values.media', 'm.ozawa@values.media', 'a.dupont@values.media', 'f.ziller@values.media']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['18 rue Oberkampf, 75011 Paris']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/valuesmedia</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/michael-haros?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHVkeIB-7qWvY2uLtvnm1yXeJWZogsWB3o', 'person_name': 'Michael Haros', 'profile_description': 'Directeur général chez Values.media'}</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Directeur général chez Values.media</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-haros?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHVkeIB-7qWvY2uLtvnm1yXeJWZogsWB3o</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/camille-boquel-b415ab87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJrZqEBSWw3fUmVfFs2nTr5RN0yRcMa-wk', 'person_name': 'Camille Boquel', 'profile_description': 'Experte TV'}, {'profile_url': 'https://www.linkedin.com/in/st%C3%A9phanie-cusseau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI2fYMBTWN-KprWtGNrwHyY-Vo0DypaBSc', 'person_name': 'Stéphanie Cusseau', 'profile_description': 'Directrice Conseil | Business Director @values.media | Founder &amp; President @Aroonii (non-profit)'}, {'profile_url': 'https://www.linkedin.com/in/steven-fitzgerald?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOZThkBJjSYiwFHcSkJkUU7yOokmuT__y0', 'person_name': 'Steven Fitzgerald', 'profile_description': 'Directeur Général Adjoint chez Values.media'}, {'profile_url': 'https://www.linkedin.com/in/camilleroche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQskTUBc2ma453kTmnrW0l76IsOoPInMC4', 'person_name': 'Camille Roche', 'profile_description': 'Directrice de clientèle at Values.media | Membre de la commission Jeunes Talents de l’UDECAM'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mentine-laurent-4ab849a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABa6U4MBWbKDYxQ-PE7GZ0DSAIC_1gR70IQ', 'person_name': 'Clémentine Laurent', 'profile_description': 'Directrice de clientèle chez Values Media'}, {'profile_url': 'https://www.linkedin.com/in/julie-frankel-paris?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAVlo1gBct_FIbqxYOQ1_XbxJouwLUgsEOM', 'person_name': 'Julie Frankel', 'profile_description': 'Cheffe de Groupe trading Offline'}, {'profile_url': 'https://www.linkedin.com/in/romain-gabillaud-a313082a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYYv8UBpoAbxT4GCM94PlgX7qcnKSNVskU', 'person_name': 'Romain Gabillaud', 'profile_description': 'Expert Offline'}, {'profile_url': 'https://www.linkedin.com/in/djibril-diallo-44616a115?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByth_YBUhyP7-wawwT8SXZwasb_Kzj79Wc', 'person_name': 'Djibril DIALLO', 'profile_description': 'Directeur de clientèle Brand content/OPS chez Values.media | Expert en Brand content et Partenariats médias'}, {'profile_url': 'https://www.linkedin.com/in/michael-haros?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHVkeIB-7qWvY2uLtvnm1yXeJWZogsWB3o', 'person_name': 'Michael Haros', 'profile_description': 'Directeur général chez Values.media'}, {'profile_url': 'https://www.linkedin.com/in/emmanuel-crego?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAH1hs0BMPNzvuM6cJ70Ml2HmlgZdv6i4uc', 'person_name': 'Emmanuel Crego', 'profile_description': 'Directeur Général du Groupe Values'}, {'profile_url': 'https://www.linkedin.com/in/xiaoye-chen-353237b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjzfC8BNBT32lc_qTEF_UaRrGLXWU4FpEs', 'person_name': 'Xiaoye Chen', 'profile_description': 'Chef de projet Tracking et Analytics'}, {'profile_url': 'https://www.linkedin.com/in/patrick-gouyou-beauchamps-53466117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN6Z7gBRqBx2W83nZ1r672wsP0N3XzqAcA', 'person_name': 'Patrick Gouyou Beauchamps', 'profile_description': 'Président chez Values.media'}]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>38,8 %</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>167,38 %</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>13.596.984 €</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>5.085.246 €</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>33</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>56</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/emmanuel-crego?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAH1hs0BMPNzvuM6cJ70Ml2HmlgZdv6i4uc</t>
+      <c r="A10" t="n">
+        <v>135</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Values.Media </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.values.media/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['+33 (0)1 49 96 97 97', '+33(0)149969797']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['d.diallo@values.media', 'm.sourice@values.media', 'c.boquel@values.media', 'e.crego@values.media', 's.lemaistre@values.media', 'm.pradelles@values.media', 'c.roche@values.media', 'o.abrantes@values.media', 'm.laurencon-marcopoulos@values.media', 'l.poignant@values.media', 'd.boccara@values.media', 'p.hebert@values.media', 'n.bitam@values.media', 'h.deriac@values.media', 'e.ghil@values.media', 't.mancicidor@values.media', 'm.tossou@values.media', 'o.lavecot@values.media', 'm.clergeon@values.media', 's.fitzgerald@values.media', 's.cusseau@values.media', 'j.badie@values.media', 'n.leverd@values.media', 'j.frankel@values.media', 'patrick.gb@values.media', 'm.rodrigues@values.media', 'd.ferreira@values.media', 'x.chen@values.media', 'm.haros@values.media', 'j.dupic@values.media', 's.constant@values.media', 'm.nacer@values.media', 'a.font@values.media', 'c.martin@values.media', 's.rocha@values.media', 'j.goncalves@values.media', 'a.tauvron@values.media', 'e.guillerme@values.media', 'h.zhao@values.media', 'c.laurent@values.media', 'a.veg@values.media', 'ma.pisano@values.media', 'c.desaintphalle@values.media', 'l.itaty-ndong@values.media', 'm.watier@values.media', 'r.gallon@values.media', 'v.graff@values.media', 'm.ozawa@values.media', 'a.dupont@values.media', 'f.ziller@values.media']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['18 rue Oberkampf, 75011 Paris']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/valuesmedia</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/patrick-gouyou-beauchamps-53466117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN6Z7gBRqBx2W83nZ1r672wsP0N3XzqAcA', 'person_name': 'Patrick Gouyou Beauchamps', 'profile_description': 'Président chez Values.media'}</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Président chez Values.media</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/patrick-gouyou-beauchamps-53466117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN6Z7gBRqBx2W83nZ1r672wsP0N3XzqAcA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/camille-boquel-b415ab87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJrZqEBSWw3fUmVfFs2nTr5RN0yRcMa-wk', 'person_name': 'Camille Boquel', 'profile_description': 'Experte TV'}, {'profile_url': 'https://www.linkedin.com/in/st%C3%A9phanie-cusseau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI2fYMBTWN-KprWtGNrwHyY-Vo0DypaBSc', 'person_name': 'Stéphanie Cusseau', 'profile_description': 'Directrice Conseil | Business Director @values.media | Founder &amp; President @Aroonii (non-profit)'}, {'profile_url': 'https://www.linkedin.com/in/steven-fitzgerald?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOZThkBJjSYiwFHcSkJkUU7yOokmuT__y0', 'person_name': 'Steven Fitzgerald', 'profile_description': 'Directeur Général Adjoint chez Values.media'}, {'profile_url': 'https://www.linkedin.com/in/camilleroche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQskTUBc2ma453kTmnrW0l76IsOoPInMC4', 'person_name': 'Camille Roche', 'profile_description': 'Directrice de clientèle at Values.media | Membre de la commission Jeunes Talents de l’UDECAM'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mentine-laurent-4ab849a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABa6U4MBWbKDYxQ-PE7GZ0DSAIC_1gR70IQ', 'person_name': 'Clémentine Laurent', 'profile_description': 'Directrice de clientèle chez Values Media'}, {'profile_url': 'https://www.linkedin.com/in/julie-frankel-paris?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAVlo1gBct_FIbqxYOQ1_XbxJouwLUgsEOM', 'person_name': 'Julie Frankel', 'profile_description': 'Cheffe de Groupe trading Offline'}, {'profile_url': 'https://www.linkedin.com/in/romain-gabillaud-a313082a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYYv8UBpoAbxT4GCM94PlgX7qcnKSNVskU', 'person_name': 'Romain Gabillaud', 'profile_description': 'Expert Offline'}, {'profile_url': 'https://www.linkedin.com/in/djibril-diallo-44616a115?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByth_YBUhyP7-wawwT8SXZwasb_Kzj79Wc', 'person_name': 'Djibril DIALLO', 'profile_description': 'Directeur de clientèle Brand content/OPS chez Values.media | Expert en Brand content et Partenariats médias'}, {'profile_url': 'https://www.linkedin.com/in/michael-haros?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHVkeIB-7qWvY2uLtvnm1yXeJWZogsWB3o', 'person_name': 'Michael Haros', 'profile_description': 'Directeur général chez Values.media'}, {'profile_url': 'https://www.linkedin.com/in/emmanuel-crego?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAH1hs0BMPNzvuM6cJ70Ml2HmlgZdv6i4uc', 'person_name': 'Emmanuel Crego', 'profile_description': 'Directeur Général du Groupe Values'}, {'profile_url': 'https://www.linkedin.com/in/xiaoye-chen-353237b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjzfC8BNBT32lc_qTEF_UaRrGLXWU4FpEs', 'person_name': 'Xiaoye Chen', 'profile_description': 'Chef de projet Tracking et Analytics'}, {'profile_url': 'https://www.linkedin.com/in/patrick-gouyou-beauchamps-53466117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN6Z7gBRqBx2W83nZ1r672wsP0N3XzqAcA', 'person_name': 'Patrick Gouyou Beauchamps', 'profile_description': 'Président chez Values.media'}]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>38,8 %</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>167,38 %</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>13.596.984 €</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>5.085.246 €</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>33</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>56</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/michael-haros?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHVkeIB-7qWvY2uLtvnm1yXeJWZogsWB3o</t>
+      <c r="A11" t="n">
+        <v>135</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Values.Media </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.values.media/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['+33 (0)1 49 96 97 97', '+33(0)149969797']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['d.diallo@values.media', 'm.sourice@values.media', 'c.boquel@values.media', 'e.crego@values.media', 's.lemaistre@values.media', 'm.pradelles@values.media', 'c.roche@values.media', 'o.abrantes@values.media', 'm.laurencon-marcopoulos@values.media', 'l.poignant@values.media', 'd.boccara@values.media', 'p.hebert@values.media', 'n.bitam@values.media', 'h.deriac@values.media', 'e.ghil@values.media', 't.mancicidor@values.media', 'm.tossou@values.media', 'o.lavecot@values.media', 'm.clergeon@values.media', 's.fitzgerald@values.media', 's.cusseau@values.media', 'j.badie@values.media', 'n.leverd@values.media', 'j.frankel@values.media', 'patrick.gb@values.media', 'm.rodrigues@values.media', 'd.ferreira@values.media', 'x.chen@values.media', 'm.haros@values.media', 'j.dupic@values.media', 's.constant@values.media', 'm.nacer@values.media', 'a.font@values.media', 'c.martin@values.media', 's.rocha@values.media', 'j.goncalves@values.media', 'a.tauvron@values.media', 'e.guillerme@values.media', 'h.zhao@values.media', 'c.laurent@values.media', 'a.veg@values.media', 'ma.pisano@values.media', 'c.desaintphalle@values.media', 'l.itaty-ndong@values.media', 'm.watier@values.media', 'r.gallon@values.media', 'v.graff@values.media', 'm.ozawa@values.media', 'a.dupont@values.media', 'f.ziller@values.media']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['18 rue Oberkampf, 75011 Paris']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/valuesmedia</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/st%C3%A9phanie-cusseau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI2fYMBTWN-KprWtGNrwHyY-Vo0DypaBSc', 'person_name': 'Stéphanie Cusseau', 'profile_description': 'Directrice Conseil | Business Director @values.media | Founder &amp; President @Aroonii (non-profit)'}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Directrice Conseil | Business Director @values.media | Founder &amp; President @Aroonii (non-profit)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/st%C3%A9phanie-cusseau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI2fYMBTWN-KprWtGNrwHyY-Vo0DypaBSc</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/camille-boquel-b415ab87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJrZqEBSWw3fUmVfFs2nTr5RN0yRcMa-wk', 'person_name': 'Camille Boquel', 'profile_description': 'Experte TV'}, {'profile_url': 'https://www.linkedin.com/in/st%C3%A9phanie-cusseau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI2fYMBTWN-KprWtGNrwHyY-Vo0DypaBSc', 'person_name': 'Stéphanie Cusseau', 'profile_description': 'Directrice Conseil | Business Director @values.media | Founder &amp; President @Aroonii (non-profit)'}, {'profile_url': 'https://www.linkedin.com/in/steven-fitzgerald?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOZThkBJjSYiwFHcSkJkUU7yOokmuT__y0', 'person_name': 'Steven Fitzgerald', 'profile_description': 'Directeur Général Adjoint chez Values.media'}, {'profile_url': 'https://www.linkedin.com/in/camilleroche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQskTUBc2ma453kTmnrW0l76IsOoPInMC4', 'person_name': 'Camille Roche', 'profile_description': 'Directrice de clientèle at Values.media | Membre de la commission Jeunes Talents de l’UDECAM'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mentine-laurent-4ab849a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABa6U4MBWbKDYxQ-PE7GZ0DSAIC_1gR70IQ', 'person_name': 'Clémentine Laurent', 'profile_description': 'Directrice de clientèle chez Values Media'}, {'profile_url': 'https://www.linkedin.com/in/julie-frankel-paris?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAVlo1gBct_FIbqxYOQ1_XbxJouwLUgsEOM', 'person_name': 'Julie Frankel', 'profile_description': 'Cheffe de Groupe trading Offline'}, {'profile_url': 'https://www.linkedin.com/in/romain-gabillaud-a313082a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYYv8UBpoAbxT4GCM94PlgX7qcnKSNVskU', 'person_name': 'Romain Gabillaud', 'profile_description': 'Expert Offline'}, {'profile_url': 'https://www.linkedin.com/in/djibril-diallo-44616a115?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByth_YBUhyP7-wawwT8SXZwasb_Kzj79Wc', 'person_name': 'Djibril DIALLO', 'profile_description': 'Directeur de clientèle Brand content/OPS chez Values.media | Expert en Brand content et Partenariats médias'}, {'profile_url': 'https://www.linkedin.com/in/michael-haros?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHVkeIB-7qWvY2uLtvnm1yXeJWZogsWB3o', 'person_name': 'Michael Haros', 'profile_description': 'Directeur général chez Values.media'}, {'profile_url': 'https://www.linkedin.com/in/emmanuel-crego?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAH1hs0BMPNzvuM6cJ70Ml2HmlgZdv6i4uc', 'person_name': 'Emmanuel Crego', 'profile_description': 'Directeur Général du Groupe Values'}, {'profile_url': 'https://www.linkedin.com/in/xiaoye-chen-353237b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjzfC8BNBT32lc_qTEF_UaRrGLXWU4FpEs', 'person_name': 'Xiaoye Chen', 'profile_description': 'Chef de projet Tracking et Analytics'}, {'profile_url': 'https://www.linkedin.com/in/patrick-gouyou-beauchamps-53466117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN6Z7gBRqBx2W83nZ1r672wsP0N3XzqAcA', 'person_name': 'Patrick Gouyou Beauchamps', 'profile_description': 'Président chez Values.media'}]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>38,8 %</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>167,38 %</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>13.596.984 €</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>5.085.246 €</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>33</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>56</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/patrick-gouyou-beauchamps-53466117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN6Z7gBRqBx2W83nZ1r672wsP0N3XzqAcA</t>
+      <c r="A12" t="n">
+        <v>135</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Values.Media </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.values.media/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['+33 (0)1 49 96 97 97', '+33(0)149969797']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['d.diallo@values.media', 'm.sourice@values.media', 'c.boquel@values.media', 'e.crego@values.media', 's.lemaistre@values.media', 'm.pradelles@values.media', 'c.roche@values.media', 'o.abrantes@values.media', 'm.laurencon-marcopoulos@values.media', 'l.poignant@values.media', 'd.boccara@values.media', 'p.hebert@values.media', 'n.bitam@values.media', 'h.deriac@values.media', 'e.ghil@values.media', 't.mancicidor@values.media', 'm.tossou@values.media', 'o.lavecot@values.media', 'm.clergeon@values.media', 's.fitzgerald@values.media', 's.cusseau@values.media', 'j.badie@values.media', 'n.leverd@values.media', 'j.frankel@values.media', 'patrick.gb@values.media', 'm.rodrigues@values.media', 'd.ferreira@values.media', 'x.chen@values.media', 'm.haros@values.media', 'j.dupic@values.media', 's.constant@values.media', 'm.nacer@values.media', 'a.font@values.media', 'c.martin@values.media', 's.rocha@values.media', 'j.goncalves@values.media', 'a.tauvron@values.media', 'e.guillerme@values.media', 'h.zhao@values.media', 'c.laurent@values.media', 'a.veg@values.media', 'ma.pisano@values.media', 'c.desaintphalle@values.media', 'l.itaty-ndong@values.media', 'm.watier@values.media', 'r.gallon@values.media', 'v.graff@values.media', 'm.ozawa@values.media', 'a.dupont@values.media', 'f.ziller@values.media']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['18 rue Oberkampf, 75011 Paris']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/valuesmedia</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/steven-fitzgerald?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOZThkBJjSYiwFHcSkJkUU7yOokmuT__y0', 'person_name': 'Steven Fitzgerald', 'profile_description': 'Directeur Général Adjoint chez Values.media'}</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Directeur Général Adjoint chez Values.media</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/steven-fitzgerald?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOZThkBJjSYiwFHcSkJkUU7yOokmuT__y0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/camille-boquel-b415ab87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJrZqEBSWw3fUmVfFs2nTr5RN0yRcMa-wk', 'person_name': 'Camille Boquel', 'profile_description': 'Experte TV'}, {'profile_url': 'https://www.linkedin.com/in/st%C3%A9phanie-cusseau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI2fYMBTWN-KprWtGNrwHyY-Vo0DypaBSc', 'person_name': 'Stéphanie Cusseau', 'profile_description': 'Directrice Conseil | Business Director @values.media | Founder &amp; President @Aroonii (non-profit)'}, {'profile_url': 'https://www.linkedin.com/in/steven-fitzgerald?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOZThkBJjSYiwFHcSkJkUU7yOokmuT__y0', 'person_name': 'Steven Fitzgerald', 'profile_description': 'Directeur Général Adjoint chez Values.media'}, {'profile_url': 'https://www.linkedin.com/in/camilleroche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQskTUBc2ma453kTmnrW0l76IsOoPInMC4', 'person_name': 'Camille Roche', 'profile_description': 'Directrice de clientèle at Values.media | Membre de la commission Jeunes Talents de l’UDECAM'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mentine-laurent-4ab849a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABa6U4MBWbKDYxQ-PE7GZ0DSAIC_1gR70IQ', 'person_name': 'Clémentine Laurent', 'profile_description': 'Directrice de clientèle chez Values Media'}, {'profile_url': 'https://www.linkedin.com/in/julie-frankel-paris?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAVlo1gBct_FIbqxYOQ1_XbxJouwLUgsEOM', 'person_name': 'Julie Frankel', 'profile_description': 'Cheffe de Groupe trading Offline'}, {'profile_url': 'https://www.linkedin.com/in/romain-gabillaud-a313082a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYYv8UBpoAbxT4GCM94PlgX7qcnKSNVskU', 'person_name': 'Romain Gabillaud', 'profile_description': 'Expert Offline'}, {'profile_url': 'https://www.linkedin.com/in/djibril-diallo-44616a115?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByth_YBUhyP7-wawwT8SXZwasb_Kzj79Wc', 'person_name': 'Djibril DIALLO', 'profile_description': 'Directeur de clientèle Brand content/OPS chez Values.media | Expert en Brand content et Partenariats médias'}, {'profile_url': 'https://www.linkedin.com/in/michael-haros?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHVkeIB-7qWvY2uLtvnm1yXeJWZogsWB3o', 'person_name': 'Michael Haros', 'profile_description': 'Directeur général chez Values.media'}, {'profile_url': 'https://www.linkedin.com/in/emmanuel-crego?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAH1hs0BMPNzvuM6cJ70Ml2HmlgZdv6i4uc', 'person_name': 'Emmanuel Crego', 'profile_description': 'Directeur Général du Groupe Values'}, {'profile_url': 'https://www.linkedin.com/in/xiaoye-chen-353237b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjzfC8BNBT32lc_qTEF_UaRrGLXWU4FpEs', 'person_name': 'Xiaoye Chen', 'profile_description': 'Chef de projet Tracking et Analytics'}, {'profile_url': 'https://www.linkedin.com/in/patrick-gouyou-beauchamps-53466117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN6Z7gBRqBx2W83nZ1r672wsP0N3XzqAcA', 'person_name': 'Patrick Gouyou Beauchamps', 'profile_description': 'Président chez Values.media'}]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>38,8 %</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>167,38 %</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>13.596.984 €</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>5.085.246 €</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>33</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>56</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/st%C3%A9phanie-cusseau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI2fYMBTWN-KprWtGNrwHyY-Vo0DypaBSc</t>
+      <c r="A13" t="n">
+        <v>140</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">écomiam </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.ecomiam.com/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['0800 94 24 28']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/ecomiam.com</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/fr%C3%A9d%C3%A9ric-paris-3238b441?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjah8sBiD4_sty4vch71f2NgwnaPt20CH0', 'person_name': 'Frédéric Paris', 'profile_description': 'Gérant écomiam La Rochelle'}</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Gérant écomiam La Rochelle</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/fr%C3%A9d%C3%A9ric-paris-3238b441?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjah8sBiD4_sty4vch71f2NgwnaPt20CH0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/danielsauvaget?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvKfC4BZ1ba9ablv5z0ml7pZrOSAVVfhuI', 'person_name': 'Daniel Sauvaget', 'profile_description': 'PDG écomiam &amp; Entrepreneur engagé I Secteur alimentaire - grande distribution I Promoteur de la simplicité et de la responsabilité individuelle !'}, {'profile_url': 'https://www.linkedin.com/in/sol%C3%A8ne-bouch%C3%A9-7262a114b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQr_M4BZGce-aLHyt7r7EOCWGoUXjCSToA', 'person_name': 'Solène Bouché', 'profile_description': 'Responsable de magasin'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9l%C3%A8ne-morin-5b686337?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfHjZoBkI-1nCX1e00eROnrh3twPE6Qo8A', 'person_name': 'Hélène MORIN', 'profile_description': 'Responsable marketing chez écomiam'}, {'profile_url': 'https://www.linkedin.com/in/matis-voltz-173a0b28b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEZzcycBzHiFgXXzdudY6BZSILiIdDN_zsY', 'person_name': 'Matis Voltz', 'profile_description': '-Employé ecomiam Trie-Château Alternant Responsable Distribution Omnicanale ( RDO )'}, {'profile_url': 'https://www.linkedin.com/in/bernardclaude?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAACLr8BHnqrZD8sxQb0uhMxQgxtT-ivXBE', 'person_name': 'Bernard Claude', 'profile_description': 'Administrateur indépendant. Conseil en gouvernance.'}, {'profile_url': 'https://www.linkedin.com/in/fr%C3%A9d%C3%A9ric-paris-3238b441?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjah8sBiD4_sty4vch71f2NgwnaPt20CH0', 'person_name': 'Frédéric Paris', 'profile_description': 'Gérant écomiam La Rochelle'}, {'profile_url': 'https://www.linkedin.com/in/christophe-vasseur?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAgiEs8B-1qsCzJkrFS9hINeJUg004hdzL0', 'person_name': 'Christophe Vasseur', 'profile_description': 'Directeur Général / LBO - Associé - Investisseur / Agro - Agri - Food Sector'}, {'profile_url': 'https://www.linkedin.com/in/alexis-frostin-b6181a25b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEAD6vkBWGV1eIfq6MeWLadqY5U7_1r_8Ro', 'person_name': 'Alexis Frostin', 'profile_description': 'Apprentis chez ECOMIAM'}, {'profile_url': 'https://www.linkedin.com/in/thibaud-jourdren?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfo-w4Bx0P_2AfX8bN8M2ZJcw3W0B2uV-U', 'person_name': 'Thibaud Jourdren', 'profile_description': 'Réferent Supports Digitaux chez écomiam'}, {'profile_url': 'https://www.linkedin.com/in/jeremy-gourichon-67808957?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvveHwBQLfkJVME9H-1xZC5xvNlkmT6_w0', 'person_name': 'Jeremy Gourichon', 'profile_description': 'Associé gérant affilié Ecomiam / Locataire Gérant Carrefour Contact'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-lemasson-0837b7263?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEC5bqMBH_cty2q0dJFnDDKR20LA6IVBpFw', 'person_name': 'Chloé Lemasson', 'profile_description': 'Préparatrice vendeuse à Ecomiam Vannes'}]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>38,01 %</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>162,85 %</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>38.636.421 €</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>14.698.832 €</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>32</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>56</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Commerce de détail</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/steven-fitzgerald?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOZThkBJjSYiwFHcSkJkUU7yOokmuT__y0</t>
+      <c r="A14" t="n">
+        <v>140</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">écomiam </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.ecomiam.com/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['0800 94 24 28']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/ecomiam.com</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/danielsauvaget?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvKfC4BZ1ba9ablv5z0ml7pZrOSAVVfhuI', 'person_name': 'Daniel Sauvaget', 'profile_description': 'PDG écomiam &amp; Entrepreneur engagé I Secteur alimentaire - grande distribution I Promoteur de la simplicité et de la responsabilité individuelle !'}</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PDG écomiam &amp; Entrepreneur engagé I Secteur alimentaire - grande distribution I Promoteur de la simplicité et de la responsabilité individuelle !</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/danielsauvaget?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvKfC4BZ1ba9ablv5z0ml7pZrOSAVVfhuI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/danielsauvaget?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvKfC4BZ1ba9ablv5z0ml7pZrOSAVVfhuI', 'person_name': 'Daniel Sauvaget', 'profile_description': 'PDG écomiam &amp; Entrepreneur engagé I Secteur alimentaire - grande distribution I Promoteur de la simplicité et de la responsabilité individuelle !'}, {'profile_url': 'https://www.linkedin.com/in/sol%C3%A8ne-bouch%C3%A9-7262a114b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQr_M4BZGce-aLHyt7r7EOCWGoUXjCSToA', 'person_name': 'Solène Bouché', 'profile_description': 'Responsable de magasin'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9l%C3%A8ne-morin-5b686337?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfHjZoBkI-1nCX1e00eROnrh3twPE6Qo8A', 'person_name': 'Hélène MORIN', 'profile_description': 'Responsable marketing chez écomiam'}, {'profile_url': 'https://www.linkedin.com/in/matis-voltz-173a0b28b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEZzcycBzHiFgXXzdudY6BZSILiIdDN_zsY', 'person_name': 'Matis Voltz', 'profile_description': '-Employé ecomiam Trie-Château Alternant Responsable Distribution Omnicanale ( RDO )'}, {'profile_url': 'https://www.linkedin.com/in/bernardclaude?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAACLr8BHnqrZD8sxQb0uhMxQgxtT-ivXBE', 'person_name': 'Bernard Claude', 'profile_description': 'Administrateur indépendant. Conseil en gouvernance.'}, {'profile_url': 'https://www.linkedin.com/in/fr%C3%A9d%C3%A9ric-paris-3238b441?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjah8sBiD4_sty4vch71f2NgwnaPt20CH0', 'person_name': 'Frédéric Paris', 'profile_description': 'Gérant écomiam La Rochelle'}, {'profile_url': 'https://www.linkedin.com/in/christophe-vasseur?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAgiEs8B-1qsCzJkrFS9hINeJUg004hdzL0', 'person_name': 'Christophe Vasseur', 'profile_description': 'Directeur Général / LBO - Associé - Investisseur / Agro - Agri - Food Sector'}, {'profile_url': 'https://www.linkedin.com/in/alexis-frostin-b6181a25b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEAD6vkBWGV1eIfq6MeWLadqY5U7_1r_8Ro', 'person_name': 'Alexis Frostin', 'profile_description': 'Apprentis chez ECOMIAM'}, {'profile_url': 'https://www.linkedin.com/in/thibaud-jourdren?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfo-w4Bx0P_2AfX8bN8M2ZJcw3W0B2uV-U', 'person_name': 'Thibaud Jourdren', 'profile_description': 'Réferent Supports Digitaux chez écomiam'}, {'profile_url': 'https://www.linkedin.com/in/jeremy-gourichon-67808957?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvveHwBQLfkJVME9H-1xZC5xvNlkmT6_w0', 'person_name': 'Jeremy Gourichon', 'profile_description': 'Associé gérant affilié Ecomiam / Locataire Gérant Carrefour Contact'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-lemasson-0837b7263?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEC5bqMBH_cty2q0dJFnDDKR20LA6IVBpFw', 'person_name': 'Chloé Lemasson', 'profile_description': 'Préparatrice vendeuse à Ecomiam Vannes'}]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>38,01 %</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>162,85 %</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>38.636.421 €</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>14.698.832 €</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>32</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>56</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Commerce de détail</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/fr%C3%A9d%C3%A9ric-paris-3238b441?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjah8sBiD4_sty4vch71f2NgwnaPt20CH0</t>
+      <c r="A15" t="n">
+        <v>140</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">écomiam </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.ecomiam.com/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['0800 94 24 28']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/ecomiam.com</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/jeremy-gourichon-67808957?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvveHwBQLfkJVME9H-1xZC5xvNlkmT6_w0', 'person_name': 'Jeremy Gourichon', 'profile_description': 'Associé gérant affilié Ecomiam / Locataire Gérant Carrefour Contact'}</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Associé gérant affilié Ecomiam / Locataire Gérant Carrefour Contact</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jeremy-gourichon-67808957?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvveHwBQLfkJVME9H-1xZC5xvNlkmT6_w0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/danielsauvaget?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvKfC4BZ1ba9ablv5z0ml7pZrOSAVVfhuI', 'person_name': 'Daniel Sauvaget', 'profile_description': 'PDG écomiam &amp; Entrepreneur engagé I Secteur alimentaire - grande distribution I Promoteur de la simplicité et de la responsabilité individuelle !'}, {'profile_url': 'https://www.linkedin.com/in/sol%C3%A8ne-bouch%C3%A9-7262a114b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQr_M4BZGce-aLHyt7r7EOCWGoUXjCSToA', 'person_name': 'Solène Bouché', 'profile_description': 'Responsable de magasin'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9l%C3%A8ne-morin-5b686337?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfHjZoBkI-1nCX1e00eROnrh3twPE6Qo8A', 'person_name': 'Hélène MORIN', 'profile_description': 'Responsable marketing chez écomiam'}, {'profile_url': 'https://www.linkedin.com/in/matis-voltz-173a0b28b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEZzcycBzHiFgXXzdudY6BZSILiIdDN_zsY', 'person_name': 'Matis Voltz', 'profile_description': '-Employé ecomiam Trie-Château Alternant Responsable Distribution Omnicanale ( RDO )'}, {'profile_url': 'https://www.linkedin.com/in/bernardclaude?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAACLr8BHnqrZD8sxQb0uhMxQgxtT-ivXBE', 'person_name': 'Bernard Claude', 'profile_description': 'Administrateur indépendant. Conseil en gouvernance.'}, {'profile_url': 'https://www.linkedin.com/in/fr%C3%A9d%C3%A9ric-paris-3238b441?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjah8sBiD4_sty4vch71f2NgwnaPt20CH0', 'person_name': 'Frédéric Paris', 'profile_description': 'Gérant écomiam La Rochelle'}, {'profile_url': 'https://www.linkedin.com/in/christophe-vasseur?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAgiEs8B-1qsCzJkrFS9hINeJUg004hdzL0', 'person_name': 'Christophe Vasseur', 'profile_description': 'Directeur Général / LBO - Associé - Investisseur / Agro - Agri - Food Sector'}, {'profile_url': 'https://www.linkedin.com/in/alexis-frostin-b6181a25b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEAD6vkBWGV1eIfq6MeWLadqY5U7_1r_8Ro', 'person_name': 'Alexis Frostin', 'profile_description': 'Apprentis chez ECOMIAM'}, {'profile_url': 'https://www.linkedin.com/in/thibaud-jourdren?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfo-w4Bx0P_2AfX8bN8M2ZJcw3W0B2uV-U', 'person_name': 'Thibaud Jourdren', 'profile_description': 'Réferent Supports Digitaux chez écomiam'}, {'profile_url': 'https://www.linkedin.com/in/jeremy-gourichon-67808957?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvveHwBQLfkJVME9H-1xZC5xvNlkmT6_w0', 'person_name': 'Jeremy Gourichon', 'profile_description': 'Associé gérant affilié Ecomiam / Locataire Gérant Carrefour Contact'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-lemasson-0837b7263?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEC5bqMBH_cty2q0dJFnDDKR20LA6IVBpFw', 'person_name': 'Chloé Lemasson', 'profile_description': 'Préparatrice vendeuse à Ecomiam Vannes'}]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>38,01 %</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>162,85 %</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>38.636.421 €</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>14.698.832 €</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>32</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>56</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Commerce de détail</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/danielsauvaget?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvKfC4BZ1ba9ablv5z0ml7pZrOSAVVfhuI</t>
+      <c r="A16" t="n">
+        <v>140</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">écomiam </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.ecomiam.com/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['0800 94 24 28']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/ecomiam.com</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/christophe-vasseur?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAgiEs8B-1qsCzJkrFS9hINeJUg004hdzL0', 'person_name': 'Christophe Vasseur', 'profile_description': 'Directeur Général / LBO - Associé - Investisseur / Agro - Agri - Food Sector'}</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Directeur Général / LBO - Associé - Investisseur / Agro - Agri - Food Sector</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christophe-vasseur?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAgiEs8B-1qsCzJkrFS9hINeJUg004hdzL0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/danielsauvaget?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvKfC4BZ1ba9ablv5z0ml7pZrOSAVVfhuI', 'person_name': 'Daniel Sauvaget', 'profile_description': 'PDG écomiam &amp; Entrepreneur engagé I Secteur alimentaire - grande distribution I Promoteur de la simplicité et de la responsabilité individuelle !'}, {'profile_url': 'https://www.linkedin.com/in/sol%C3%A8ne-bouch%C3%A9-7262a114b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQr_M4BZGce-aLHyt7r7EOCWGoUXjCSToA', 'person_name': 'Solène Bouché', 'profile_description': 'Responsable de magasin'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9l%C3%A8ne-morin-5b686337?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfHjZoBkI-1nCX1e00eROnrh3twPE6Qo8A', 'person_name': 'Hélène MORIN', 'profile_description': 'Responsable marketing chez écomiam'}, {'profile_url': 'https://www.linkedin.com/in/matis-voltz-173a0b28b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEZzcycBzHiFgXXzdudY6BZSILiIdDN_zsY', 'person_name': 'Matis Voltz', 'profile_description': '-Employé ecomiam Trie-Château Alternant Responsable Distribution Omnicanale ( RDO )'}, {'profile_url': 'https://www.linkedin.com/in/bernardclaude?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAACLr8BHnqrZD8sxQb0uhMxQgxtT-ivXBE', 'person_name': 'Bernard Claude', 'profile_description': 'Administrateur indépendant. Conseil en gouvernance.'}, {'profile_url': 'https://www.linkedin.com/in/fr%C3%A9d%C3%A9ric-paris-3238b441?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjah8sBiD4_sty4vch71f2NgwnaPt20CH0', 'person_name': 'Frédéric Paris', 'profile_description': 'Gérant écomiam La Rochelle'}, {'profile_url': 'https://www.linkedin.com/in/christophe-vasseur?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAgiEs8B-1qsCzJkrFS9hINeJUg004hdzL0', 'person_name': 'Christophe Vasseur', 'profile_description': 'Directeur Général / LBO - Associé - Investisseur / Agro - Agri - Food Sector'}, {'profile_url': 'https://www.linkedin.com/in/alexis-frostin-b6181a25b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEAD6vkBWGV1eIfq6MeWLadqY5U7_1r_8Ro', 'person_name': 'Alexis Frostin', 'profile_description': 'Apprentis chez ECOMIAM'}, {'profile_url': 'https://www.linkedin.com/in/thibaud-jourdren?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfo-w4Bx0P_2AfX8bN8M2ZJcw3W0B2uV-U', 'person_name': 'Thibaud Jourdren', 'profile_description': 'Réferent Supports Digitaux chez écomiam'}, {'profile_url': 'https://www.linkedin.com/in/jeremy-gourichon-67808957?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvveHwBQLfkJVME9H-1xZC5xvNlkmT6_w0', 'person_name': 'Jeremy Gourichon', 'profile_description': 'Associé gérant affilié Ecomiam / Locataire Gérant Carrefour Contact'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-lemasson-0837b7263?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEC5bqMBH_cty2q0dJFnDDKR20LA6IVBpFw', 'person_name': 'Chloé Lemasson', 'profile_description': 'Préparatrice vendeuse à Ecomiam Vannes'}]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>38,01 %</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>162,85 %</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>38.636.421 €</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>14.698.832 €</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>32</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>56</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Commerce de détail</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/jeremy-gourichon-67808957?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvveHwBQLfkJVME9H-1xZC5xvNlkmT6_w0</t>
+      <c r="A17" t="n">
+        <v>113</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hula-Hoop </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.hula-hoop.fr/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['+33 (0)2 85 67 05 40', '+33(0)481761800', 'nantes@hula-hoop.fr', '+41768024150', '+33 481 761 800', '+1 438-630-1339', '514 907-0087', '0481761800', '+33(0) 4 81 76 18 00', '+41 (0)76 802 41 50']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['contact@hula-hoop.fr', 'nantes@hula-hoop.fr', 'contact@hula-hoop.ca', 'contact@hula-hoop.ch']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['64-66 Rue Des Archives 75003 Paris', 'Route des jeunes 105 A 1127 Lancy', '11, rue La Noue Bras de fer 44200 Nantes', "Lyon 8 cours d'Herbouville 69001 Lyon", '11 Rue La Noue Bras de Fer 44200 Nantes', 'Route des jeunes 105A, 1227 Lancy Genève', "8 cours d'Herbouville 69004 Lyon", 'Route des jeunes 105A, 1227 Lancy', 'Rue du Commerce, 31 Brussels, NA 1000', "8 cours d'Herbouville 69001 Lyon", '3764 St-Dominique, H2W 0A2 Montréal', '3764 St-Dominique H2W 0A2 Montréal']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/agence-hula-hoop</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/clairegoyat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaq4gBQtk7O2gcKLp1D-9Bdl3L8GpWHqw', 'person_name': 'Claire Goyat', 'profile_description': 'Directrice Associée chez Hula Hoop'}</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Directrice Associée chez Hula Hoop</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/clairegoyat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaq4gBQtk7O2gcKLp1D-9Bdl3L8GpWHqw</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/emma-spraggins?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZzEk4BloovSMiAXnA-6k7IS9JgWQMlHCk', 'person_name': 'Emma SPRAGGINS', 'profile_description': 'Cheffe de Projet Digital'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dricmorel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACo4nUBWFu2NErr7rUrCbdab9LcTUvPJuc', 'person_name': 'Cédric Morel', 'profile_description': 'CEO Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/clairegoyat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaq4gBQtk7O2gcKLp1D-9Bdl3L8GpWHqw', 'person_name': 'Claire Goyat', 'profile_description': 'Directrice Associée chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/joanne-matless-10a6611b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADIbxVoBa7iOb4pWvJMSAlcodjT0d1vrqlY', 'person_name': 'Joanne Matless', 'profile_description': 'Community Manager 👩\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-ponthus-54a000a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZs4woB92yzYsuT2bB2qQTZfKGB746PeEs', 'person_name': 'Guillaume PONTHUS', 'profile_description': 'Head of digital &amp; performance - Hula Hoop I Lyon - Paris - Nantes - Montréal - Genève - Bruxelles'}, {'profile_url': 'https://www.linkedin.com/in/laetitiaverdier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHYY8UBHNb2p9_xGDsnnvC1F-u9D98aWHU', 'person_name': 'Laetitia Verdier', 'profile_description': 'Directrice Digitale &amp; Social Media - Associée chez Hula Hoop l Associée Time for the planet'}, {'profile_url': 'https://www.linkedin.com/in/bgalassi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0WP34BoVxDjf4DjD_vxKfkOsiJxeY8uDE', 'person_name': 'Bruno Galassi', 'profile_description': 'Inniti Conseil / H7- Partnerships / HULA HOOP International network manager'}, {'profile_url': 'https://www.linkedin.com/in/alexchauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAR8fwAB_aUNxBT7ej19mwyCsf298u6wJDw', 'person_name': 'Alexandre Chauveau', 'profile_description': 'Directeur Général / Directeur des Stratégies'}, {'profile_url': 'https://www.linkedin.com/in/clara-vast?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkGqiwBcB5dO6Y3eY79mTNMi08rFGqVTaM', 'person_name': 'Clara Vast', 'profile_description': 'Cheffe de projet stratégie - Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/serena-benetti-0826a083?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABG4omIBc4x_bPgzFTAAFJgT7_a3wnKWgqU', 'person_name': 'Serena Benetti', 'profile_description': 'Directrice des opérations'}, {'profile_url': 'https://www.linkedin.com/in/klerviecariou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3INSAByOVFJ-jmOAclM5mLdJoLWo2KCZ4', 'person_name': 'Klervie Cariou', 'profile_description': 'Directrice de clientèle chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/julien-mabey?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4AekIB0JZPaAzPdJbr3YfYkGb3otxwmI8', 'person_name': 'Julien Mabey', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/mathieufabre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIeYAUB3a8zIJoBkAcb737184X7mH1981U', 'person_name': 'Mathieu Fabre', 'profile_description': 'Directeur Conseil - Head of Social - Advocacy - Influence | ex BUZZMAN | ex PUBLICIS LEO BURNETT'}, {'profile_url': 'https://www.linkedin.com/in/simon-dousset-352722206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADRupW4BvBPT0mglbC2PxxCcuNbnE0hAqGs', 'person_name': 'Simon Dousset', 'profile_description': 'Creative développeur front end 👨🏻\u200d💻 Master 2 (ESADD) 🎓'}, {'profile_url': 'https://www.linkedin.com/in/maxime-persuy-a0050929?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAXyzmABTjM0I1kOkGJG7OQ2iV8bHpX7yfc', 'person_name': 'Maxime Persuy', 'profile_description': 'Directeur de clientèle senior @Hula-hoop | Ex Rosa Paris | Ex HumanSeven / Les Gaulois (Havas Paris)'}, {'profile_url': 'https://www.linkedin.com/in/corentin-beaufort?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiTXIkB-MdZZ7O6RgSGNjBlzx8FA4FmwUU', 'person_name': 'Corentin Beaufort', 'profile_description': 'Traffic Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/lothaire-fargetton-94690bb6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiyG4YBOgRT4yCWr9Gau1W5nig9xNNqYQQ', 'person_name': 'Lothaire Fargetton', 'profile_description': 'Directeur de création chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/stephanelefrapper?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKLKQQBz-tz2i63ZbeCwSVcGsXMn-FlywM', 'person_name': 'Stéphane Le Frapper', 'profile_description': 'Creative Director - Copywriter'}, {'profile_url': 'https://www.linkedin.com/in/florine-berteau-691029140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACIs4o0B5-yIpCInAc2cw4scHriu7wPa4uo', 'person_name': 'Florine Berteau', 'profile_description': ''}, {'profile_url': 'https://www.linkedin.com/in/jeanne-vandepoortaele-9b45b319b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7lgNgBQGEvdA8LN8NAEnY-YF2EEtI3khc', 'person_name': 'Jeanne Vandepoortaele', 'profile_description': 'Directrice Artistique Junior chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/emilie-chessel-11b5ba5a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAyMGycBOu-cKDoh17KLQdD1GvH5ctvom3g', 'person_name': 'Emilie Chessel', 'profile_description': 'Directeur de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/solene-bourlier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKOK-4BYqCf6fFUZsJlTesk9N248U42jtI', 'person_name': 'Solène Bourlier', 'profile_description': 'Directrice conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/gerald-sergent-a28614153?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTuqcAB_20j8pRwVEN8ehk4bkqOvCeBs0Y', 'person_name': 'Gerald Sergent', 'profile_description': 'Directeur Conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/anabelle-da-costa-8b21b017b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqQvAYBoPjOiDuNvg5T-MxX2548VIycPIo', 'person_name': 'Anabelle Da Costa', 'profile_description': 'Social Media Manager chez HULA HOOP®'}, {'profile_url': 'https://www.linkedin.com/in/andres-carla?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACILF2gB3V4HTCgz_L2-5ceqgX6EinWvabk', 'person_name': 'Carla ANDRES', 'profile_description': 'Cheffe de projet Junior - HULA-HOOP'}, {'profile_url': 'https://www.linkedin.com/in/thierry-silvestri-099607b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfCx7UBjFZbhkNL6d0RAL3SCi1_bmtCgyo', 'person_name': 'Thierry Silvestri', 'profile_description': 'Directeur de création chez Agence Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/mathildebonmarchand?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6qXB0BM0BbHDF_0p4JA0X6Jfz77Ba9rXk', 'person_name': 'Mathilde Bonmarchand', 'profile_description': 'Directrice de clientèle Social Média &amp; Influence'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%ABva-tenaud44?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC152TMBUxTk-F-EAr-nH_FeflWihAZkpx8', 'person_name': 'Maëva Tenaud', 'profile_description': 'Alternante Graphiste Social Media chez Hula Hoop Nantes'}, {'profile_url': 'https://www.linkedin.com/in/orlane-geffriaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADP3croBXuEV55JtiacMkhdOOYKmWN6UZ3A', 'person_name': 'Orlane Geffriaud', 'profile_description': 'Alternante Graphiste Social Media chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/apollinevarlet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABRKzdIB9xaqwPLTOBa4FXfSy_bWu5MZ1b4', 'person_name': 'Apolline Varlet', 'profile_description': 'Directrice de clientèle chez Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/el%C3%A9onore-meyer-167724201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOK4d8Bgn_NIg6gM7qewwHfW-qBNopK_nU', 'person_name': 'Eléonore Meyer', 'profile_description': '⭐ Cheffe de projet junior - HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/matiya-chebah?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD7Km5ABa6XQX_G78AmgBHMaTd0cazIo4Hs', 'person_name': 'Matiya Chebah', 'profile_description': 'Social Ads Manager - Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/damien-duport?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcr8g8BpbFCa-Ry-uErGItbIdFBTDBQyio', 'person_name': 'Damien DUPORT', 'profile_description': 'Director / Hula Hoop Suisse'}, {'profile_url': 'https://www.linkedin.com/in/romainperruchon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA02MIoBwptmcxj5mwIwTQF1-oZ6-e3skd4', 'person_name': 'Romain Perruchon', 'profile_description': 'Directeur artistique Motion Designer chez Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/vincent-schwob-7b4493a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXIwbgB25c8p-57YXLy0ZSG_lj4OQ71Gwk', 'person_name': 'Vincent Schwob', 'profile_description': 'Directeur artistique'}, {'profile_url': 'https://www.linkedin.com/in/pierre-buzulier-77232315?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMSroYBQJJ8ozUJ9QdtKL6GUogSaanYs9k', 'person_name': 'Pierre Buzulier', 'profile_description': 'Creative - Art Director'}, {'profile_url': 'https://www.linkedin.com/in/meziane-meftah-cabot-3b5b9b236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADroiXkB7UmmeAO6r6orea6KlmZ99-qtNSE', 'person_name': 'Meziane Meftah-Cabot', 'profile_description': 'Chef de projet digital | HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/justine-manigaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABobt5QBrVWDLvhlkHclfmPeAqcw_JfIuEE', 'person_name': 'Justine Manigaud', 'profile_description': 'Lead Creative Digital chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/hula-hoop-l-montr%C3%A9al-159019199?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC50XpUB8vFtfgZYFey89sI4OlBP4IgYJyg', 'person_name': 'Hula Hoop l Montréal', 'profile_description': 'Agence de communication'}, {'profile_url': 'https://www.linkedin.com/in/madionne87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfPUvQBWiv8Ny5Xiuh09pTq7KGKW5aX8Aw', 'person_name': 'Marc-André Dionne', 'profile_description': 'Président &amp; Chef des opérations | Agence Hula Hoop Montréal'}, {'profile_url': 'https://www.linkedin.com/in/marine-fournel-3a28a9134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDhSOoBjIaiq7noXxxQLCswlqIlYNomcz0', 'person_name': 'Marine Fournel', 'profile_description': 'Directrice Commerciale / Sales Director'}, {'profile_url': 'https://www.linkedin.com/in/emilie-desjardins?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSiFeMBI7KffRFjzTi_eecvlidIrgcFGCI', 'person_name': 'Emilie Desjardins', 'profile_description': '📲 Social Media Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/alyne-brutsaert-39481a221?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADfUBqABF0JktbPgk9v_NXY-VW6fk0UPT20', 'person_name': 'Alyne Brutsaert', 'profile_description': 'Apprentie conceptrice rédactrice &amp; planneuse stratégique'}, {'profile_url': 'https://www.linkedin.com/in/mathildeerard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmG7mUBzfz02xil01l4FxspmU9Kzm2Sh-w', 'person_name': 'Mathilde Erard', 'profile_description': 'Illustratrice - Directrice artistique'}, {'profile_url': 'https://www.linkedin.com/in/jean-michel-buvat-95814519?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPCBxQBITDte4mlgLwR4WqFqMjQPpCo2Q8', 'person_name': 'Jean-michel Buvat', 'profile_description': 'Directeur de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/juliette-poilv%C3%A9-28aa88205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADROh4oBOYt6UrUUKSL3rEeBEDzz9IQdvsE', 'person_name': 'Juliette Poilvé', 'profile_description': 'Étudiante en communication'}, {'profile_url': 'https://www.linkedin.com/in/anna-ter-haar-4253b716?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAANDMJ0BNHp7HjGGP2YRejo3EN6JDf4AnzM', 'person_name': 'Anna Ter Haar', 'profile_description': 'Senior Designer'}, {'profile_url': 'https://www.linkedin.com/in/antoine-platteaux-01a99215a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACY7cpYBPpbEBQ9icJCAZfDOFC4A8tGcSGI', 'person_name': 'Antoine Platteaux', 'profile_description': 'Directeur artistique'}, {'profile_url': 'https://www.linkedin.com/in/janakabotejue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAETNVsBncQ29czs4t0UNtH0opOvTeqhRzI', 'person_name': 'Janaka Botejue', 'profile_description': 'Bernard Botejue Industries (Pvt) Ltd'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mence-thomas-b86696a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbh0BYBt5JuA3NQOkAAFJqn_0h-t9zIGJk', 'person_name': 'Clémence Thomas', 'profile_description': 'Directrice de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/melanie-poirier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABIiR60BkTFBxkwK_tX0iu-ImqDU1Av2Xpw', 'person_name': 'Mélanie Poirier', 'profile_description': 'Directrice artistique | Hula Hoop MTL'}, {'profile_url': 'https://www.linkedin.com/in/marion-enault-escuder-73296226b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEIr05YBeyoEfxdy_ojRRwj6sfOwIGUfj_8', 'person_name': 'Marion Enault-Escuder', 'profile_description': 'Directrice Artistique chez HULA HOOP®'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-frappat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAharcMBt6Se3YrYvkQZLUDfJOtFzyOPRXM', 'person_name': 'Jérémy Frappat', 'profile_description': 'Directeur Stratégie et Newbiz France - Hula Hoop🤸🏻🔴⚪️'}, {'profile_url': 'https://www.linkedin.com/in/antoine-renoux-10354677?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBGmRMByLPBWElQb3Gi7Z1FC6XaB3-5gWE', 'person_name': 'Antoine Renoux', 'profile_description': 'Responsable éditorial chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/lilou-sinisi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4vrt0B_VCcaodGzb5U6zKwLFsL_jNLdJU', 'person_name': 'Lilou Sinisi', 'profile_description': 'Community Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/steph-hamra-863861a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYyEYsBCqHV3ErRPN9HRxuMraMiNHVz9yA', 'person_name': 'Steph Hamra', 'profile_description': 'Registrar at Aquinas College'}, {'profile_url': 'https://www.linkedin.com/in/daniela-colett?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcjX_QB4_Ib5mnItxRUa8F_TAfBP-v44tA', 'person_name': 'Daniela Colett', 'profile_description': 'Empresária | Empreendedorismo Feminino'}, {'profile_url': 'https://www.linkedin.com/in/axelle-leycuras-directrice-artistique-junior?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrhO4EB7ZSaOrAq9GtmwRSPDAqJqUNLLtA', 'person_name': 'Axelle Leycuras', 'profile_description': 'Directrice Artistique chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/gayanibotejue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbBXnsB3I2AfbuzGv1Ha7VIEDTev0AGVxM', 'person_name': 'Gayani Botejue', 'profile_description': 'Travel and Apparel'}, {'profile_url': 'https://www.linkedin.com/in/adrianabuitragomusic?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABFq89wB_jjuFFHolzUO81lMLhagFic9JiY', 'person_name': 'Adriana Buitrago', 'profile_description': 'Event Production &amp; Marketing Strategist'}, {'profile_url': 'https://www.linkedin.com/in/kiera-blaney-01750313a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHj8FMBd2TqqJTcLJ5HubpKJWF1doTB7q8', 'person_name': 'Kiera Blaney', 'profile_description': 'Adventure Travel Content Creator - Hula Hoop/Circus Performer - Chinese Medicine Doctor'}, {'profile_url': 'https://www.linkedin.com/in/andrea-boswell-burns-8bb9a573?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-hbM8BUHuVVElBxiWH9-z6_k2dkwUYMog', 'person_name': 'Andrea Boswell-Burns', 'profile_description': 'Actor/Performer/Educator/Entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-fortin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADmgce4ByDf_qMzaPL5F7pZOLv4NDtqWK2E', 'person_name': 'Jérôme Fortin', 'profile_description': 'Coordonnateur en service-conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/zachary-fouqueray-23ab3a31a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFD4W84Bymmu6r1ErRsKEJkTvFkZOvNwflA', 'person_name': 'Zachary Fouqueray', 'profile_description': 'Assistant chef de projet chez HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/charles-alexandre-brault-36a1bb308?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE5XE0IBXger6XuHw86bKPwLxvsL7BzXryA', 'person_name': 'Charles-Alexandre Brault', 'profile_description': 'Responsable développement commercial chez HULA HOOP MONTRÉAL'}]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>41,93 %</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>185,92 %</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>4.490.070 €</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.570.395 €</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>13</v>
+      </c>
+      <c r="R17" t="n">
+        <v>15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>57</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/christophe-vasseur?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAgiEs8B-1qsCzJkrFS9hINeJUg004hdzL0</t>
+      <c r="A18" t="n">
+        <v>113</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hula-Hoop </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.hula-hoop.fr/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['+33 (0)2 85 67 05 40', '+33(0)481761800', 'nantes@hula-hoop.fr', '+41768024150', '+33 481 761 800', '+1 438-630-1339', '514 907-0087', '0481761800', '+33(0) 4 81 76 18 00', '+41 (0)76 802 41 50']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['contact@hula-hoop.fr', 'nantes@hula-hoop.fr', 'contact@hula-hoop.ca', 'contact@hula-hoop.ch']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['64-66 Rue Des Archives 75003 Paris', 'Route des jeunes 105 A 1127 Lancy', '11, rue La Noue Bras de fer 44200 Nantes', "Lyon 8 cours d'Herbouville 69001 Lyon", '11 Rue La Noue Bras de Fer 44200 Nantes', 'Route des jeunes 105A, 1227 Lancy Genève', "8 cours d'Herbouville 69004 Lyon", 'Route des jeunes 105A, 1227 Lancy', 'Rue du Commerce, 31 Brussels, NA 1000', "8 cours d'Herbouville 69001 Lyon", '3764 St-Dominique, H2W 0A2 Montréal', '3764 St-Dominique H2W 0A2 Montréal']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/agence-hula-hoop</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/alexchauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAR8fwAB_aUNxBT7ej19mwyCsf298u6wJDw', 'person_name': 'Alexandre Chauveau', 'profile_description': 'Directeur Général / Directeur des Stratégies'}</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Directeur Général / Directeur des Stratégies</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexchauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAR8fwAB_aUNxBT7ej19mwyCsf298u6wJDw</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/emma-spraggins?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZzEk4BloovSMiAXnA-6k7IS9JgWQMlHCk', 'person_name': 'Emma SPRAGGINS', 'profile_description': 'Cheffe de Projet Digital'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dricmorel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACo4nUBWFu2NErr7rUrCbdab9LcTUvPJuc', 'person_name': 'Cédric Morel', 'profile_description': 'CEO Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/clairegoyat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaq4gBQtk7O2gcKLp1D-9Bdl3L8GpWHqw', 'person_name': 'Claire Goyat', 'profile_description': 'Directrice Associée chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/joanne-matless-10a6611b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADIbxVoBa7iOb4pWvJMSAlcodjT0d1vrqlY', 'person_name': 'Joanne Matless', 'profile_description': 'Community Manager 👩\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-ponthus-54a000a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZs4woB92yzYsuT2bB2qQTZfKGB746PeEs', 'person_name': 'Guillaume PONTHUS', 'profile_description': 'Head of digital &amp; performance - Hula Hoop I Lyon - Paris - Nantes - Montréal - Genève - Bruxelles'}, {'profile_url': 'https://www.linkedin.com/in/laetitiaverdier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHYY8UBHNb2p9_xGDsnnvC1F-u9D98aWHU', 'person_name': 'Laetitia Verdier', 'profile_description': 'Directrice Digitale &amp; Social Media - Associée chez Hula Hoop l Associée Time for the planet'}, {'profile_url': 'https://www.linkedin.com/in/bgalassi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0WP34BoVxDjf4DjD_vxKfkOsiJxeY8uDE', 'person_name': 'Bruno Galassi', 'profile_description': 'Inniti Conseil / H7- Partnerships / HULA HOOP International network manager'}, {'profile_url': 'https://www.linkedin.com/in/alexchauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAR8fwAB_aUNxBT7ej19mwyCsf298u6wJDw', 'person_name': 'Alexandre Chauveau', 'profile_description': 'Directeur Général / Directeur des Stratégies'}, {'profile_url': 'https://www.linkedin.com/in/clara-vast?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkGqiwBcB5dO6Y3eY79mTNMi08rFGqVTaM', 'person_name': 'Clara Vast', 'profile_description': 'Cheffe de projet stratégie - Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/serena-benetti-0826a083?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABG4omIBc4x_bPgzFTAAFJgT7_a3wnKWgqU', 'person_name': 'Serena Benetti', 'profile_description': 'Directrice des opérations'}, {'profile_url': 'https://www.linkedin.com/in/klerviecariou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3INSAByOVFJ-jmOAclM5mLdJoLWo2KCZ4', 'person_name': 'Klervie Cariou', 'profile_description': 'Directrice de clientèle chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/julien-mabey?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4AekIB0JZPaAzPdJbr3YfYkGb3otxwmI8', 'person_name': 'Julien Mabey', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/mathieufabre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIeYAUB3a8zIJoBkAcb737184X7mH1981U', 'person_name': 'Mathieu Fabre', 'profile_description': 'Directeur Conseil - Head of Social - Advocacy - Influence | ex BUZZMAN | ex PUBLICIS LEO BURNETT'}, {'profile_url': 'https://www.linkedin.com/in/simon-dousset-352722206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADRupW4BvBPT0mglbC2PxxCcuNbnE0hAqGs', 'person_name': 'Simon Dousset', 'profile_description': 'Creative développeur front end 👨🏻\u200d💻 Master 2 (ESADD) 🎓'}, {'profile_url': 'https://www.linkedin.com/in/maxime-persuy-a0050929?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAXyzmABTjM0I1kOkGJG7OQ2iV8bHpX7yfc', 'person_name': 'Maxime Persuy', 'profile_description': 'Directeur de clientèle senior @Hula-hoop | Ex Rosa Paris | Ex HumanSeven / Les Gaulois (Havas Paris)'}, {'profile_url': 'https://www.linkedin.com/in/corentin-beaufort?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiTXIkB-MdZZ7O6RgSGNjBlzx8FA4FmwUU', 'person_name': 'Corentin Beaufort', 'profile_description': 'Traffic Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/lothaire-fargetton-94690bb6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiyG4YBOgRT4yCWr9Gau1W5nig9xNNqYQQ', 'person_name': 'Lothaire Fargetton', 'profile_description': 'Directeur de création chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/stephanelefrapper?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKLKQQBz-tz2i63ZbeCwSVcGsXMn-FlywM', 'person_name': 'Stéphane Le Frapper', 'profile_description': 'Creative Director - Copywriter'}, {'profile_url': 'https://www.linkedin.com/in/florine-berteau-691029140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACIs4o0B5-yIpCInAc2cw4scHriu7wPa4uo', 'person_name': 'Florine Berteau', 'profile_description': ''}, {'profile_url': 'https://www.linkedin.com/in/jeanne-vandepoortaele-9b45b319b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7lgNgBQGEvdA8LN8NAEnY-YF2EEtI3khc', 'person_name': 'Jeanne Vandepoortaele', 'profile_description': 'Directrice Artistique Junior chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/emilie-chessel-11b5ba5a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAyMGycBOu-cKDoh17KLQdD1GvH5ctvom3g', 'person_name': 'Emilie Chessel', 'profile_description': 'Directeur de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/solene-bourlier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKOK-4BYqCf6fFUZsJlTesk9N248U42jtI', 'person_name': 'Solène Bourlier', 'profile_description': 'Directrice conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/gerald-sergent-a28614153?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTuqcAB_20j8pRwVEN8ehk4bkqOvCeBs0Y', 'person_name': 'Gerald Sergent', 'profile_description': 'Directeur Conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/anabelle-da-costa-8b21b017b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqQvAYBoPjOiDuNvg5T-MxX2548VIycPIo', 'person_name': 'Anabelle Da Costa', 'profile_description': 'Social Media Manager chez HULA HOOP®'}, {'profile_url': 'https://www.linkedin.com/in/andres-carla?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACILF2gB3V4HTCgz_L2-5ceqgX6EinWvabk', 'person_name': 'Carla ANDRES', 'profile_description': 'Cheffe de projet Junior - HULA-HOOP'}, {'profile_url': 'https://www.linkedin.com/in/thierry-silvestri-099607b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfCx7UBjFZbhkNL6d0RAL3SCi1_bmtCgyo', 'person_name': 'Thierry Silvestri', 'profile_description': 'Directeur de création chez Agence Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/mathildebonmarchand?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6qXB0BM0BbHDF_0p4JA0X6Jfz77Ba9rXk', 'person_name': 'Mathilde Bonmarchand', 'profile_description': 'Directrice de clientèle Social Média &amp; Influence'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%ABva-tenaud44?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC152TMBUxTk-F-EAr-nH_FeflWihAZkpx8', 'person_name': 'Maëva Tenaud', 'profile_description': 'Alternante Graphiste Social Media chez Hula Hoop Nantes'}, {'profile_url': 'https://www.linkedin.com/in/orlane-geffriaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADP3croBXuEV55JtiacMkhdOOYKmWN6UZ3A', 'person_name': 'Orlane Geffriaud', 'profile_description': 'Alternante Graphiste Social Media chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/apollinevarlet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABRKzdIB9xaqwPLTOBa4FXfSy_bWu5MZ1b4', 'person_name': 'Apolline Varlet', 'profile_description': 'Directrice de clientèle chez Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/el%C3%A9onore-meyer-167724201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOK4d8Bgn_NIg6gM7qewwHfW-qBNopK_nU', 'person_name': 'Eléonore Meyer', 'profile_description': '⭐ Cheffe de projet junior - HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/matiya-chebah?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD7Km5ABa6XQX_G78AmgBHMaTd0cazIo4Hs', 'person_name': 'Matiya Chebah', 'profile_description': 'Social Ads Manager - Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/damien-duport?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcr8g8BpbFCa-Ry-uErGItbIdFBTDBQyio', 'person_name': 'Damien DUPORT', 'profile_description': 'Director / Hula Hoop Suisse'}, {'profile_url': 'https://www.linkedin.com/in/romainperruchon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA02MIoBwptmcxj5mwIwTQF1-oZ6-e3skd4', 'person_name': 'Romain Perruchon', 'profile_description': 'Directeur artistique Motion Designer chez Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/vincent-schwob-7b4493a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXIwbgB25c8p-57YXLy0ZSG_lj4OQ71Gwk', 'person_name': 'Vincent Schwob', 'profile_description': 'Directeur artistique'}, {'profile_url': 'https://www.linkedin.com/in/pierre-buzulier-77232315?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMSroYBQJJ8ozUJ9QdtKL6GUogSaanYs9k', 'person_name': 'Pierre Buzulier', 'profile_description': 'Creative - Art Director'}, {'profile_url': 'https://www.linkedin.com/in/meziane-meftah-cabot-3b5b9b236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADroiXkB7UmmeAO6r6orea6KlmZ99-qtNSE', 'person_name': 'Meziane Meftah-Cabot', 'profile_description': 'Chef de projet digital | HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/justine-manigaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABobt5QBrVWDLvhlkHclfmPeAqcw_JfIuEE', 'person_name': 'Justine Manigaud', 'profile_description': 'Lead Creative Digital chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/hula-hoop-l-montr%C3%A9al-159019199?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC50XpUB8vFtfgZYFey89sI4OlBP4IgYJyg', 'person_name': 'Hula Hoop l Montréal', 'profile_description': 'Agence de communication'}, {'profile_url': 'https://www.linkedin.com/in/madionne87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfPUvQBWiv8Ny5Xiuh09pTq7KGKW5aX8Aw', 'person_name': 'Marc-André Dionne', 'profile_description': 'Président &amp; Chef des opérations | Agence Hula Hoop Montréal'}, {'profile_url': 'https://www.linkedin.com/in/marine-fournel-3a28a9134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDhSOoBjIaiq7noXxxQLCswlqIlYNomcz0', 'person_name': 'Marine Fournel', 'profile_description': 'Directrice Commerciale / Sales Director'}, {'profile_url': 'https://www.linkedin.com/in/emilie-desjardins?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSiFeMBI7KffRFjzTi_eecvlidIrgcFGCI', 'person_name': 'Emilie Desjardins', 'profile_description': '📲 Social Media Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/alyne-brutsaert-39481a221?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADfUBqABF0JktbPgk9v_NXY-VW6fk0UPT20', 'person_name': 'Alyne Brutsaert', 'profile_description': 'Apprentie conceptrice rédactrice &amp; planneuse stratégique'}, {'profile_url': 'https://www.linkedin.com/in/mathildeerard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmG7mUBzfz02xil01l4FxspmU9Kzm2Sh-w', 'person_name': 'Mathilde Erard', 'profile_description': 'Illustratrice - Directrice artistique'}, {'profile_url': 'https://www.linkedin.com/in/jean-michel-buvat-95814519?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPCBxQBITDte4mlgLwR4WqFqMjQPpCo2Q8', 'person_name': 'Jean-michel Buvat', 'profile_description': 'Directeur de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/juliette-poilv%C3%A9-28aa88205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADROh4oBOYt6UrUUKSL3rEeBEDzz9IQdvsE', 'person_name': 'Juliette Poilvé', 'profile_description': 'Étudiante en communication'}, {'profile_url': 'https://www.linkedin.com/in/anna-ter-haar-4253b716?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAANDMJ0BNHp7HjGGP2YRejo3EN6JDf4AnzM', 'person_name': 'Anna Ter Haar', 'profile_description': 'Senior Designer'}, {'profile_url': 'https://www.linkedin.com/in/antoine-platteaux-01a99215a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACY7cpYBPpbEBQ9icJCAZfDOFC4A8tGcSGI', 'person_name': 'Antoine Platteaux', 'profile_description': 'Directeur artistique'}, {'profile_url': 'https://www.linkedin.com/in/janakabotejue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAETNVsBncQ29czs4t0UNtH0opOvTeqhRzI', 'person_name': 'Janaka Botejue', 'profile_description': 'Bernard Botejue Industries (Pvt) Ltd'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mence-thomas-b86696a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbh0BYBt5JuA3NQOkAAFJqn_0h-t9zIGJk', 'person_name': 'Clémence Thomas', 'profile_description': 'Directrice de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/melanie-poirier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABIiR60BkTFBxkwK_tX0iu-ImqDU1Av2Xpw', 'person_name': 'Mélanie Poirier', 'profile_description': 'Directrice artistique | Hula Hoop MTL'}, {'profile_url': 'https://www.linkedin.com/in/marion-enault-escuder-73296226b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEIr05YBeyoEfxdy_ojRRwj6sfOwIGUfj_8', 'person_name': 'Marion Enault-Escuder', 'profile_description': 'Directrice Artistique chez HULA HOOP®'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-frappat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAharcMBt6Se3YrYvkQZLUDfJOtFzyOPRXM', 'person_name': 'Jérémy Frappat', 'profile_description': 'Directeur Stratégie et Newbiz France - Hula Hoop🤸🏻🔴⚪️'}, {'profile_url': 'https://www.linkedin.com/in/antoine-renoux-10354677?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBGmRMByLPBWElQb3Gi7Z1FC6XaB3-5gWE', 'person_name': 'Antoine Renoux', 'profile_description': 'Responsable éditorial chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/lilou-sinisi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4vrt0B_VCcaodGzb5U6zKwLFsL_jNLdJU', 'person_name': 'Lilou Sinisi', 'profile_description': 'Community Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/steph-hamra-863861a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYyEYsBCqHV3ErRPN9HRxuMraMiNHVz9yA', 'person_name': 'Steph Hamra', 'profile_description': 'Registrar at Aquinas College'}, {'profile_url': 'https://www.linkedin.com/in/daniela-colett?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcjX_QB4_Ib5mnItxRUa8F_TAfBP-v44tA', 'person_name': 'Daniela Colett', 'profile_description': 'Empresária | Empreendedorismo Feminino'}, {'profile_url': 'https://www.linkedin.com/in/axelle-leycuras-directrice-artistique-junior?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrhO4EB7ZSaOrAq9GtmwRSPDAqJqUNLLtA', 'person_name': 'Axelle Leycuras', 'profile_description': 'Directrice Artistique chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/gayanibotejue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbBXnsB3I2AfbuzGv1Ha7VIEDTev0AGVxM', 'person_name': 'Gayani Botejue', 'profile_description': 'Travel and Apparel'}, {'profile_url': 'https://www.linkedin.com/in/adrianabuitragomusic?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABFq89wB_jjuFFHolzUO81lMLhagFic9JiY', 'person_name': 'Adriana Buitrago', 'profile_description': 'Event Production &amp; Marketing Strategist'}, {'profile_url': 'https://www.linkedin.com/in/kiera-blaney-01750313a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHj8FMBd2TqqJTcLJ5HubpKJWF1doTB7q8', 'person_name': 'Kiera Blaney', 'profile_description': 'Adventure Travel Content Creator - Hula Hoop/Circus Performer - Chinese Medicine Doctor'}, {'profile_url': 'https://www.linkedin.com/in/andrea-boswell-burns-8bb9a573?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-hbM8BUHuVVElBxiWH9-z6_k2dkwUYMog', 'person_name': 'Andrea Boswell-Burns', 'profile_description': 'Actor/Performer/Educator/Entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-fortin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADmgce4ByDf_qMzaPL5F7pZOLv4NDtqWK2E', 'person_name': 'Jérôme Fortin', 'profile_description': 'Coordonnateur en service-conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/zachary-fouqueray-23ab3a31a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFD4W84Bymmu6r1ErRsKEJkTvFkZOvNwflA', 'person_name': 'Zachary Fouqueray', 'profile_description': 'Assistant chef de projet chez HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/charles-alexandre-brault-36a1bb308?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE5XE0IBXger6XuHw86bKPwLxvsL7BzXryA', 'person_name': 'Charles-Alexandre Brault', 'profile_description': 'Responsable développement commercial chez HULA HOOP MONTRÉAL'}]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>41,93 %</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>185,92 %</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>4.490.070 €</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1.570.395 €</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>13</v>
+      </c>
+      <c r="R18" t="n">
+        <v>15</v>
+      </c>
+      <c r="S18" t="n">
+        <v>57</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/clairegoyat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaq4gBQtk7O2gcKLp1D-9Bdl3L8GpWHqw</t>
+      <c r="A19" t="n">
+        <v>113</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hula-Hoop </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.hula-hoop.fr/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['+33 (0)2 85 67 05 40', '+33(0)481761800', 'nantes@hula-hoop.fr', '+41768024150', '+33 481 761 800', '+1 438-630-1339', '514 907-0087', '0481761800', '+33(0) 4 81 76 18 00', '+41 (0)76 802 41 50']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['contact@hula-hoop.fr', 'nantes@hula-hoop.fr', 'contact@hula-hoop.ca', 'contact@hula-hoop.ch']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['64-66 Rue Des Archives 75003 Paris', 'Route des jeunes 105 A 1127 Lancy', '11, rue La Noue Bras de fer 44200 Nantes', "Lyon 8 cours d'Herbouville 69001 Lyon", '11 Rue La Noue Bras de Fer 44200 Nantes', 'Route des jeunes 105A, 1227 Lancy Genève', "8 cours d'Herbouville 69004 Lyon", 'Route des jeunes 105A, 1227 Lancy', 'Rue du Commerce, 31 Brussels, NA 1000', "8 cours d'Herbouville 69001 Lyon", '3764 St-Dominique, H2W 0A2 Montréal', '3764 St-Dominique H2W 0A2 Montréal']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/agence-hula-hoop</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/c%C3%A9dricmorel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACo4nUBWFu2NErr7rUrCbdab9LcTUvPJuc', 'person_name': 'Cédric Morel', 'profile_description': 'CEO Hula Hoop'}</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CEO Hula Hoop</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/c%C3%A9dricmorel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACo4nUBWFu2NErr7rUrCbdab9LcTUvPJuc</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/emma-spraggins?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZzEk4BloovSMiAXnA-6k7IS9JgWQMlHCk', 'person_name': 'Emma SPRAGGINS', 'profile_description': 'Cheffe de Projet Digital'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dricmorel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACo4nUBWFu2NErr7rUrCbdab9LcTUvPJuc', 'person_name': 'Cédric Morel', 'profile_description': 'CEO Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/clairegoyat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaq4gBQtk7O2gcKLp1D-9Bdl3L8GpWHqw', 'person_name': 'Claire Goyat', 'profile_description': 'Directrice Associée chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/joanne-matless-10a6611b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADIbxVoBa7iOb4pWvJMSAlcodjT0d1vrqlY', 'person_name': 'Joanne Matless', 'profile_description': 'Community Manager 👩\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-ponthus-54a000a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZs4woB92yzYsuT2bB2qQTZfKGB746PeEs', 'person_name': 'Guillaume PONTHUS', 'profile_description': 'Head of digital &amp; performance - Hula Hoop I Lyon - Paris - Nantes - Montréal - Genève - Bruxelles'}, {'profile_url': 'https://www.linkedin.com/in/laetitiaverdier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHYY8UBHNb2p9_xGDsnnvC1F-u9D98aWHU', 'person_name': 'Laetitia Verdier', 'profile_description': 'Directrice Digitale &amp; Social Media - Associée chez Hula Hoop l Associée Time for the planet'}, {'profile_url': 'https://www.linkedin.com/in/bgalassi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0WP34BoVxDjf4DjD_vxKfkOsiJxeY8uDE', 'person_name': 'Bruno Galassi', 'profile_description': 'Inniti Conseil / H7- Partnerships / HULA HOOP International network manager'}, {'profile_url': 'https://www.linkedin.com/in/alexchauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAR8fwAB_aUNxBT7ej19mwyCsf298u6wJDw', 'person_name': 'Alexandre Chauveau', 'profile_description': 'Directeur Général / Directeur des Stratégies'}, {'profile_url': 'https://www.linkedin.com/in/clara-vast?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkGqiwBcB5dO6Y3eY79mTNMi08rFGqVTaM', 'person_name': 'Clara Vast', 'profile_description': 'Cheffe de projet stratégie - Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/serena-benetti-0826a083?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABG4omIBc4x_bPgzFTAAFJgT7_a3wnKWgqU', 'person_name': 'Serena Benetti', 'profile_description': 'Directrice des opérations'}, {'profile_url': 'https://www.linkedin.com/in/klerviecariou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3INSAByOVFJ-jmOAclM5mLdJoLWo2KCZ4', 'person_name': 'Klervie Cariou', 'profile_description': 'Directrice de clientèle chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/julien-mabey?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4AekIB0JZPaAzPdJbr3YfYkGb3otxwmI8', 'person_name': 'Julien Mabey', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/mathieufabre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIeYAUB3a8zIJoBkAcb737184X7mH1981U', 'person_name': 'Mathieu Fabre', 'profile_description': 'Directeur Conseil - Head of Social - Advocacy - Influence | ex BUZZMAN | ex PUBLICIS LEO BURNETT'}, {'profile_url': 'https://www.linkedin.com/in/simon-dousset-352722206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADRupW4BvBPT0mglbC2PxxCcuNbnE0hAqGs', 'person_name': 'Simon Dousset', 'profile_description': 'Creative développeur front end 👨🏻\u200d💻 Master 2 (ESADD) 🎓'}, {'profile_url': 'https://www.linkedin.com/in/maxime-persuy-a0050929?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAXyzmABTjM0I1kOkGJG7OQ2iV8bHpX7yfc', 'person_name': 'Maxime Persuy', 'profile_description': 'Directeur de clientèle senior @Hula-hoop | Ex Rosa Paris | Ex HumanSeven / Les Gaulois (Havas Paris)'}, {'profile_url': 'https://www.linkedin.com/in/corentin-beaufort?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiTXIkB-MdZZ7O6RgSGNjBlzx8FA4FmwUU', 'person_name': 'Corentin Beaufort', 'profile_description': 'Traffic Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/lothaire-fargetton-94690bb6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiyG4YBOgRT4yCWr9Gau1W5nig9xNNqYQQ', 'person_name': 'Lothaire Fargetton', 'profile_description': 'Directeur de création chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/stephanelefrapper?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKLKQQBz-tz2i63ZbeCwSVcGsXMn-FlywM', 'person_name': 'Stéphane Le Frapper', 'profile_description': 'Creative Director - Copywriter'}, {'profile_url': 'https://www.linkedin.com/in/florine-berteau-691029140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACIs4o0B5-yIpCInAc2cw4scHriu7wPa4uo', 'person_name': 'Florine Berteau', 'profile_description': ''}, {'profile_url': 'https://www.linkedin.com/in/jeanne-vandepoortaele-9b45b319b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7lgNgBQGEvdA8LN8NAEnY-YF2EEtI3khc', 'person_name': 'Jeanne Vandepoortaele', 'profile_description': 'Directrice Artistique Junior chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/emilie-chessel-11b5ba5a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAyMGycBOu-cKDoh17KLQdD1GvH5ctvom3g', 'person_name': 'Emilie Chessel', 'profile_description': 'Directeur de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/solene-bourlier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKOK-4BYqCf6fFUZsJlTesk9N248U42jtI', 'person_name': 'Solène Bourlier', 'profile_description': 'Directrice conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/gerald-sergent-a28614153?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTuqcAB_20j8pRwVEN8ehk4bkqOvCeBs0Y', 'person_name': 'Gerald Sergent', 'profile_description': 'Directeur Conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/anabelle-da-costa-8b21b017b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqQvAYBoPjOiDuNvg5T-MxX2548VIycPIo', 'person_name': 'Anabelle Da Costa', 'profile_description': 'Social Media Manager chez HULA HOOP®'}, {'profile_url': 'https://www.linkedin.com/in/andres-carla?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACILF2gB3V4HTCgz_L2-5ceqgX6EinWvabk', 'person_name': 'Carla ANDRES', 'profile_description': 'Cheffe de projet Junior - HULA-HOOP'}, {'profile_url': 'https://www.linkedin.com/in/thierry-silvestri-099607b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfCx7UBjFZbhkNL6d0RAL3SCi1_bmtCgyo', 'person_name': 'Thierry Silvestri', 'profile_description': 'Directeur de création chez Agence Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/mathildebonmarchand?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6qXB0BM0BbHDF_0p4JA0X6Jfz77Ba9rXk', 'person_name': 'Mathilde Bonmarchand', 'profile_description': 'Directrice de clientèle Social Média &amp; Influence'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%ABva-tenaud44?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC152TMBUxTk-F-EAr-nH_FeflWihAZkpx8', 'person_name': 'Maëva Tenaud', 'profile_description': 'Alternante Graphiste Social Media chez Hula Hoop Nantes'}, {'profile_url': 'https://www.linkedin.com/in/orlane-geffriaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADP3croBXuEV55JtiacMkhdOOYKmWN6UZ3A', 'person_name': 'Orlane Geffriaud', 'profile_description': 'Alternante Graphiste Social Media chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/apollinevarlet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABRKzdIB9xaqwPLTOBa4FXfSy_bWu5MZ1b4', 'person_name': 'Apolline Varlet', 'profile_description': 'Directrice de clientèle chez Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/el%C3%A9onore-meyer-167724201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOK4d8Bgn_NIg6gM7qewwHfW-qBNopK_nU', 'person_name': 'Eléonore Meyer', 'profile_description': '⭐ Cheffe de projet junior - HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/matiya-chebah?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD7Km5ABa6XQX_G78AmgBHMaTd0cazIo4Hs', 'person_name': 'Matiya Chebah', 'profile_description': 'Social Ads Manager - Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/damien-duport?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcr8g8BpbFCa-Ry-uErGItbIdFBTDBQyio', 'person_name': 'Damien DUPORT', 'profile_description': 'Director / Hula Hoop Suisse'}, {'profile_url': 'https://www.linkedin.com/in/romainperruchon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA02MIoBwptmcxj5mwIwTQF1-oZ6-e3skd4', 'person_name': 'Romain Perruchon', 'profile_description': 'Directeur artistique Motion Designer chez Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/vincent-schwob-7b4493a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXIwbgB25c8p-57YXLy0ZSG_lj4OQ71Gwk', 'person_name': 'Vincent Schwob', 'profile_description': 'Directeur artistique'}, {'profile_url': 'https://www.linkedin.com/in/pierre-buzulier-77232315?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMSroYBQJJ8ozUJ9QdtKL6GUogSaanYs9k', 'person_name': 'Pierre Buzulier', 'profile_description': 'Creative - Art Director'}, {'profile_url': 'https://www.linkedin.com/in/meziane-meftah-cabot-3b5b9b236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADroiXkB7UmmeAO6r6orea6KlmZ99-qtNSE', 'person_name': 'Meziane Meftah-Cabot', 'profile_description': 'Chef de projet digital | HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/justine-manigaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABobt5QBrVWDLvhlkHclfmPeAqcw_JfIuEE', 'person_name': 'Justine Manigaud', 'profile_description': 'Lead Creative Digital chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/hula-hoop-l-montr%C3%A9al-159019199?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC50XpUB8vFtfgZYFey89sI4OlBP4IgYJyg', 'person_name': 'Hula Hoop l Montréal', 'profile_description': 'Agence de communication'}, {'profile_url': 'https://www.linkedin.com/in/madionne87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfPUvQBWiv8Ny5Xiuh09pTq7KGKW5aX8Aw', 'person_name': 'Marc-André Dionne', 'profile_description': 'Président &amp; Chef des opérations | Agence Hula Hoop Montréal'}, {'profile_url': 'https://www.linkedin.com/in/marine-fournel-3a28a9134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDhSOoBjIaiq7noXxxQLCswlqIlYNomcz0', 'person_name': 'Marine Fournel', 'profile_description': 'Directrice Commerciale / Sales Director'}, {'profile_url': 'https://www.linkedin.com/in/emilie-desjardins?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSiFeMBI7KffRFjzTi_eecvlidIrgcFGCI', 'person_name': 'Emilie Desjardins', 'profile_description': '📲 Social Media Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/alyne-brutsaert-39481a221?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADfUBqABF0JktbPgk9v_NXY-VW6fk0UPT20', 'person_name': 'Alyne Brutsaert', 'profile_description': 'Apprentie conceptrice rédactrice &amp; planneuse stratégique'}, {'profile_url': 'https://www.linkedin.com/in/mathildeerard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmG7mUBzfz02xil01l4FxspmU9Kzm2Sh-w', 'person_name': 'Mathilde Erard', 'profile_description': 'Illustratrice - Directrice artistique'}, {'profile_url': 'https://www.linkedin.com/in/jean-michel-buvat-95814519?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPCBxQBITDte4mlgLwR4WqFqMjQPpCo2Q8', 'person_name': 'Jean-michel Buvat', 'profile_description': 'Directeur de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/juliette-poilv%C3%A9-28aa88205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADROh4oBOYt6UrUUKSL3rEeBEDzz9IQdvsE', 'person_name': 'Juliette Poilvé', 'profile_description': 'Étudiante en communication'}, {'profile_url': 'https://www.linkedin.com/in/anna-ter-haar-4253b716?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAANDMJ0BNHp7HjGGP2YRejo3EN6JDf4AnzM', 'person_name': 'Anna Ter Haar', 'profile_description': 'Senior Designer'}, {'profile_url': 'https://www.linkedin.com/in/antoine-platteaux-01a99215a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACY7cpYBPpbEBQ9icJCAZfDOFC4A8tGcSGI', 'person_name': 'Antoine Platteaux', 'profile_description': 'Directeur artistique'}, {'profile_url': 'https://www.linkedin.com/in/janakabotejue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAETNVsBncQ29czs4t0UNtH0opOvTeqhRzI', 'person_name': 'Janaka Botejue', 'profile_description': 'Bernard Botejue Industries (Pvt) Ltd'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mence-thomas-b86696a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbh0BYBt5JuA3NQOkAAFJqn_0h-t9zIGJk', 'person_name': 'Clémence Thomas', 'profile_description': 'Directrice de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/melanie-poirier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABIiR60BkTFBxkwK_tX0iu-ImqDU1Av2Xpw', 'person_name': 'Mélanie Poirier', 'profile_description': 'Directrice artistique | Hula Hoop MTL'}, {'profile_url': 'https://www.linkedin.com/in/marion-enault-escuder-73296226b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEIr05YBeyoEfxdy_ojRRwj6sfOwIGUfj_8', 'person_name': 'Marion Enault-Escuder', 'profile_description': 'Directrice Artistique chez HULA HOOP®'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-frappat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAharcMBt6Se3YrYvkQZLUDfJOtFzyOPRXM', 'person_name': 'Jérémy Frappat', 'profile_description': 'Directeur Stratégie et Newbiz France - Hula Hoop🤸🏻🔴⚪️'}, {'profile_url': 'https://www.linkedin.com/in/antoine-renoux-10354677?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBGmRMByLPBWElQb3Gi7Z1FC6XaB3-5gWE', 'person_name': 'Antoine Renoux', 'profile_description': 'Responsable éditorial chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/lilou-sinisi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4vrt0B_VCcaodGzb5U6zKwLFsL_jNLdJU', 'person_name': 'Lilou Sinisi', 'profile_description': 'Community Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/steph-hamra-863861a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYyEYsBCqHV3ErRPN9HRxuMraMiNHVz9yA', 'person_name': 'Steph Hamra', 'profile_description': 'Registrar at Aquinas College'}, {'profile_url': 'https://www.linkedin.com/in/daniela-colett?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcjX_QB4_Ib5mnItxRUa8F_TAfBP-v44tA', 'person_name': 'Daniela Colett', 'profile_description': 'Empresária | Empreendedorismo Feminino'}, {'profile_url': 'https://www.linkedin.com/in/axelle-leycuras-directrice-artistique-junior?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrhO4EB7ZSaOrAq9GtmwRSPDAqJqUNLLtA', 'person_name': 'Axelle Leycuras', 'profile_description': 'Directrice Artistique chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/gayanibotejue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbBXnsB3I2AfbuzGv1Ha7VIEDTev0AGVxM', 'person_name': 'Gayani Botejue', 'profile_description': 'Travel and Apparel'}, {'profile_url': 'https://www.linkedin.com/in/adrianabuitragomusic?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABFq89wB_jjuFFHolzUO81lMLhagFic9JiY', 'person_name': 'Adriana Buitrago', 'profile_description': 'Event Production &amp; Marketing Strategist'}, {'profile_url': 'https://www.linkedin.com/in/kiera-blaney-01750313a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHj8FMBd2TqqJTcLJ5HubpKJWF1doTB7q8', 'person_name': 'Kiera Blaney', 'profile_description': 'Adventure Travel Content Creator - Hula Hoop/Circus Performer - Chinese Medicine Doctor'}, {'profile_url': 'https://www.linkedin.com/in/andrea-boswell-burns-8bb9a573?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-hbM8BUHuVVElBxiWH9-z6_k2dkwUYMog', 'person_name': 'Andrea Boswell-Burns', 'profile_description': 'Actor/Performer/Educator/Entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-fortin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADmgce4ByDf_qMzaPL5F7pZOLv4NDtqWK2E', 'person_name': 'Jérôme Fortin', 'profile_description': 'Coordonnateur en service-conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/zachary-fouqueray-23ab3a31a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFD4W84Bymmu6r1ErRsKEJkTvFkZOvNwflA', 'person_name': 'Zachary Fouqueray', 'profile_description': 'Assistant chef de projet chez HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/charles-alexandre-brault-36a1bb308?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE5XE0IBXger6XuHw86bKPwLxvsL7BzXryA', 'person_name': 'Charles-Alexandre Brault', 'profile_description': 'Responsable développement commercial chez HULA HOOP MONTRÉAL'}]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>41,93 %</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>185,92 %</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>4.490.070 €</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.570.395 €</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>13</v>
+      </c>
+      <c r="R19" t="n">
+        <v>15</v>
+      </c>
+      <c r="S19" t="n">
+        <v>57</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/alexchauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAR8fwAB_aUNxBT7ej19mwyCsf298u6wJDw</t>
+      <c r="A20" t="n">
+        <v>113</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hula-Hoop </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.hula-hoop.fr/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['+33 (0)2 85 67 05 40', '+33(0)481761800', 'nantes@hula-hoop.fr', '+41768024150', '+33 481 761 800', '+1 438-630-1339', '514 907-0087', '0481761800', '+33(0) 4 81 76 18 00', '+41 (0)76 802 41 50']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['contact@hula-hoop.fr', 'nantes@hula-hoop.fr', 'contact@hula-hoop.ca', 'contact@hula-hoop.ch']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['64-66 Rue Des Archives 75003 Paris', 'Route des jeunes 105 A 1127 Lancy', '11, rue La Noue Bras de fer 44200 Nantes', "Lyon 8 cours d'Herbouville 69001 Lyon", '11 Rue La Noue Bras de Fer 44200 Nantes', 'Route des jeunes 105A, 1227 Lancy Genève', "8 cours d'Herbouville 69004 Lyon", 'Route des jeunes 105A, 1227 Lancy', 'Rue du Commerce, 31 Brussels, NA 1000', "8 cours d'Herbouville 69001 Lyon", '3764 St-Dominique, H2W 0A2 Montréal', '3764 St-Dominique H2W 0A2 Montréal']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/agence-hula-hoop</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/madionne87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfPUvQBWiv8Ny5Xiuh09pTq7KGKW5aX8Aw', 'person_name': 'Marc-André Dionne', 'profile_description': 'Président &amp; Chef des opérations | Agence Hula Hoop Montréal'}</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Président &amp; Chef des opérations | Agence Hula Hoop Montréal</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/madionne87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfPUvQBWiv8Ny5Xiuh09pTq7KGKW5aX8Aw</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/emma-spraggins?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZzEk4BloovSMiAXnA-6k7IS9JgWQMlHCk', 'person_name': 'Emma SPRAGGINS', 'profile_description': 'Cheffe de Projet Digital'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dricmorel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACo4nUBWFu2NErr7rUrCbdab9LcTUvPJuc', 'person_name': 'Cédric Morel', 'profile_description': 'CEO Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/clairegoyat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaq4gBQtk7O2gcKLp1D-9Bdl3L8GpWHqw', 'person_name': 'Claire Goyat', 'profile_description': 'Directrice Associée chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/joanne-matless-10a6611b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADIbxVoBa7iOb4pWvJMSAlcodjT0d1vrqlY', 'person_name': 'Joanne Matless', 'profile_description': 'Community Manager 👩\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-ponthus-54a000a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZs4woB92yzYsuT2bB2qQTZfKGB746PeEs', 'person_name': 'Guillaume PONTHUS', 'profile_description': 'Head of digital &amp; performance - Hula Hoop I Lyon - Paris - Nantes - Montréal - Genève - Bruxelles'}, {'profile_url': 'https://www.linkedin.com/in/laetitiaverdier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHYY8UBHNb2p9_xGDsnnvC1F-u9D98aWHU', 'person_name': 'Laetitia Verdier', 'profile_description': 'Directrice Digitale &amp; Social Media - Associée chez Hula Hoop l Associée Time for the planet'}, {'profile_url': 'https://www.linkedin.com/in/bgalassi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0WP34BoVxDjf4DjD_vxKfkOsiJxeY8uDE', 'person_name': 'Bruno Galassi', 'profile_description': 'Inniti Conseil / H7- Partnerships / HULA HOOP International network manager'}, {'profile_url': 'https://www.linkedin.com/in/alexchauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAR8fwAB_aUNxBT7ej19mwyCsf298u6wJDw', 'person_name': 'Alexandre Chauveau', 'profile_description': 'Directeur Général / Directeur des Stratégies'}, {'profile_url': 'https://www.linkedin.com/in/clara-vast?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkGqiwBcB5dO6Y3eY79mTNMi08rFGqVTaM', 'person_name': 'Clara Vast', 'profile_description': 'Cheffe de projet stratégie - Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/serena-benetti-0826a083?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABG4omIBc4x_bPgzFTAAFJgT7_a3wnKWgqU', 'person_name': 'Serena Benetti', 'profile_description': 'Directrice des opérations'}, {'profile_url': 'https://www.linkedin.com/in/klerviecariou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3INSAByOVFJ-jmOAclM5mLdJoLWo2KCZ4', 'person_name': 'Klervie Cariou', 'profile_description': 'Directrice de clientèle chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/julien-mabey?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4AekIB0JZPaAzPdJbr3YfYkGb3otxwmI8', 'person_name': 'Julien Mabey', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/mathieufabre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIeYAUB3a8zIJoBkAcb737184X7mH1981U', 'person_name': 'Mathieu Fabre', 'profile_description': 'Directeur Conseil - Head of Social - Advocacy - Influence | ex BUZZMAN | ex PUBLICIS LEO BURNETT'}, {'profile_url': 'https://www.linkedin.com/in/simon-dousset-352722206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADRupW4BvBPT0mglbC2PxxCcuNbnE0hAqGs', 'person_name': 'Simon Dousset', 'profile_description': 'Creative développeur front end 👨🏻\u200d💻 Master 2 (ESADD) 🎓'}, {'profile_url': 'https://www.linkedin.com/in/maxime-persuy-a0050929?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAXyzmABTjM0I1kOkGJG7OQ2iV8bHpX7yfc', 'person_name': 'Maxime Persuy', 'profile_description': 'Directeur de clientèle senior @Hula-hoop | Ex Rosa Paris | Ex HumanSeven / Les Gaulois (Havas Paris)'}, {'profile_url': 'https://www.linkedin.com/in/corentin-beaufort?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiTXIkB-MdZZ7O6RgSGNjBlzx8FA4FmwUU', 'person_name': 'Corentin Beaufort', 'profile_description': 'Traffic Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/lothaire-fargetton-94690bb6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiyG4YBOgRT4yCWr9Gau1W5nig9xNNqYQQ', 'person_name': 'Lothaire Fargetton', 'profile_description': 'Directeur de création chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/stephanelefrapper?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKLKQQBz-tz2i63ZbeCwSVcGsXMn-FlywM', 'person_name': 'Stéphane Le Frapper', 'profile_description': 'Creative Director - Copywriter'}, {'profile_url': 'https://www.linkedin.com/in/florine-berteau-691029140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACIs4o0B5-yIpCInAc2cw4scHriu7wPa4uo', 'person_name': 'Florine Berteau', 'profile_description': ''}, {'profile_url': 'https://www.linkedin.com/in/jeanne-vandepoortaele-9b45b319b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7lgNgBQGEvdA8LN8NAEnY-YF2EEtI3khc', 'person_name': 'Jeanne Vandepoortaele', 'profile_description': 'Directrice Artistique Junior chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/emilie-chessel-11b5ba5a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAyMGycBOu-cKDoh17KLQdD1GvH5ctvom3g', 'person_name': 'Emilie Chessel', 'profile_description': 'Directeur de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/solene-bourlier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKOK-4BYqCf6fFUZsJlTesk9N248U42jtI', 'person_name': 'Solène Bourlier', 'profile_description': 'Directrice conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/gerald-sergent-a28614153?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTuqcAB_20j8pRwVEN8ehk4bkqOvCeBs0Y', 'person_name': 'Gerald Sergent', 'profile_description': 'Directeur Conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/anabelle-da-costa-8b21b017b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqQvAYBoPjOiDuNvg5T-MxX2548VIycPIo', 'person_name': 'Anabelle Da Costa', 'profile_description': 'Social Media Manager chez HULA HOOP®'}, {'profile_url': 'https://www.linkedin.com/in/andres-carla?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACILF2gB3V4HTCgz_L2-5ceqgX6EinWvabk', 'person_name': 'Carla ANDRES', 'profile_description': 'Cheffe de projet Junior - HULA-HOOP'}, {'profile_url': 'https://www.linkedin.com/in/thierry-silvestri-099607b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfCx7UBjFZbhkNL6d0RAL3SCi1_bmtCgyo', 'person_name': 'Thierry Silvestri', 'profile_description': 'Directeur de création chez Agence Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/mathildebonmarchand?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6qXB0BM0BbHDF_0p4JA0X6Jfz77Ba9rXk', 'person_name': 'Mathilde Bonmarchand', 'profile_description': 'Directrice de clientèle Social Média &amp; Influence'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%ABva-tenaud44?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC152TMBUxTk-F-EAr-nH_FeflWihAZkpx8', 'person_name': 'Maëva Tenaud', 'profile_description': 'Alternante Graphiste Social Media chez Hula Hoop Nantes'}, {'profile_url': 'https://www.linkedin.com/in/orlane-geffriaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADP3croBXuEV55JtiacMkhdOOYKmWN6UZ3A', 'person_name': 'Orlane Geffriaud', 'profile_description': 'Alternante Graphiste Social Media chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/apollinevarlet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABRKzdIB9xaqwPLTOBa4FXfSy_bWu5MZ1b4', 'person_name': 'Apolline Varlet', 'profile_description': 'Directrice de clientèle chez Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/el%C3%A9onore-meyer-167724201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOK4d8Bgn_NIg6gM7qewwHfW-qBNopK_nU', 'person_name': 'Eléonore Meyer', 'profile_description': '⭐ Cheffe de projet junior - HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/matiya-chebah?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD7Km5ABa6XQX_G78AmgBHMaTd0cazIo4Hs', 'person_name': 'Matiya Chebah', 'profile_description': 'Social Ads Manager - Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/damien-duport?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcr8g8BpbFCa-Ry-uErGItbIdFBTDBQyio', 'person_name': 'Damien DUPORT', 'profile_description': 'Director / Hula Hoop Suisse'}, {'profile_url': 'https://www.linkedin.com/in/romainperruchon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA02MIoBwptmcxj5mwIwTQF1-oZ6-e3skd4', 'person_name': 'Romain Perruchon', 'profile_description': 'Directeur artistique Motion Designer chez Hula-Hoop'}, {'profile_url': 'https://www.linkedin.com/in/vincent-schwob-7b4493a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXIwbgB25c8p-57YXLy0ZSG_lj4OQ71Gwk', 'person_name': 'Vincent Schwob', 'profile_description': 'Directeur artistique'}, {'profile_url': 'https://www.linkedin.com/in/pierre-buzulier-77232315?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMSroYBQJJ8ozUJ9QdtKL6GUogSaanYs9k', 'person_name': 'Pierre Buzulier', 'profile_description': 'Creative - Art Director'}, {'profile_url': 'https://www.linkedin.com/in/meziane-meftah-cabot-3b5b9b236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADroiXkB7UmmeAO6r6orea6KlmZ99-qtNSE', 'person_name': 'Meziane Meftah-Cabot', 'profile_description': 'Chef de projet digital | HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/justine-manigaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABobt5QBrVWDLvhlkHclfmPeAqcw_JfIuEE', 'person_name': 'Justine Manigaud', 'profile_description': 'Lead Creative Digital chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/hula-hoop-l-montr%C3%A9al-159019199?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC50XpUB8vFtfgZYFey89sI4OlBP4IgYJyg', 'person_name': 'Hula Hoop l Montréal', 'profile_description': 'Agence de communication'}, {'profile_url': 'https://www.linkedin.com/in/madionne87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfPUvQBWiv8Ny5Xiuh09pTq7KGKW5aX8Aw', 'person_name': 'Marc-André Dionne', 'profile_description': 'Président &amp; Chef des opérations | Agence Hula Hoop Montréal'}, {'profile_url': 'https://www.linkedin.com/in/marine-fournel-3a28a9134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDhSOoBjIaiq7noXxxQLCswlqIlYNomcz0', 'person_name': 'Marine Fournel', 'profile_description': 'Directrice Commerciale / Sales Director'}, {'profile_url': 'https://www.linkedin.com/in/emilie-desjardins?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSiFeMBI7KffRFjzTi_eecvlidIrgcFGCI', 'person_name': 'Emilie Desjardins', 'profile_description': '📲 Social Media Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/alyne-brutsaert-39481a221?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADfUBqABF0JktbPgk9v_NXY-VW6fk0UPT20', 'person_name': 'Alyne Brutsaert', 'profile_description': 'Apprentie conceptrice rédactrice &amp; planneuse stratégique'}, {'profile_url': 'https://www.linkedin.com/in/mathildeerard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmG7mUBzfz02xil01l4FxspmU9Kzm2Sh-w', 'person_name': 'Mathilde Erard', 'profile_description': 'Illustratrice - Directrice artistique'}, {'profile_url': 'https://www.linkedin.com/in/jean-michel-buvat-95814519?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPCBxQBITDte4mlgLwR4WqFqMjQPpCo2Q8', 'person_name': 'Jean-michel Buvat', 'profile_description': 'Directeur de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/juliette-poilv%C3%A9-28aa88205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADROh4oBOYt6UrUUKSL3rEeBEDzz9IQdvsE', 'person_name': 'Juliette Poilvé', 'profile_description': 'Étudiante en communication'}, {'profile_url': 'https://www.linkedin.com/in/anna-ter-haar-4253b716?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAANDMJ0BNHp7HjGGP2YRejo3EN6JDf4AnzM', 'person_name': 'Anna Ter Haar', 'profile_description': 'Senior Designer'}, {'profile_url': 'https://www.linkedin.com/in/antoine-platteaux-01a99215a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACY7cpYBPpbEBQ9icJCAZfDOFC4A8tGcSGI', 'person_name': 'Antoine Platteaux', 'profile_description': 'Directeur artistique'}, {'profile_url': 'https://www.linkedin.com/in/janakabotejue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAETNVsBncQ29czs4t0UNtH0opOvTeqhRzI', 'person_name': 'Janaka Botejue', 'profile_description': 'Bernard Botejue Industries (Pvt) Ltd'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mence-thomas-b86696a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbh0BYBt5JuA3NQOkAAFJqn_0h-t9zIGJk', 'person_name': 'Clémence Thomas', 'profile_description': 'Directrice de clientèle'}, {'profile_url': 'https://www.linkedin.com/in/melanie-poirier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABIiR60BkTFBxkwK_tX0iu-ImqDU1Av2Xpw', 'person_name': 'Mélanie Poirier', 'profile_description': 'Directrice artistique | Hula Hoop MTL'}, {'profile_url': 'https://www.linkedin.com/in/marion-enault-escuder-73296226b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEIr05YBeyoEfxdy_ojRRwj6sfOwIGUfj_8', 'person_name': 'Marion Enault-Escuder', 'profile_description': 'Directrice Artistique chez HULA HOOP®'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-frappat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAharcMBt6Se3YrYvkQZLUDfJOtFzyOPRXM', 'person_name': 'Jérémy Frappat', 'profile_description': 'Directeur Stratégie et Newbiz France - Hula Hoop🤸🏻🔴⚪️'}, {'profile_url': 'https://www.linkedin.com/in/antoine-renoux-10354677?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBGmRMByLPBWElQb3Gi7Z1FC6XaB3-5gWE', 'person_name': 'Antoine Renoux', 'profile_description': 'Responsable éditorial chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/lilou-sinisi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4vrt0B_VCcaodGzb5U6zKwLFsL_jNLdJU', 'person_name': 'Lilou Sinisi', 'profile_description': 'Community Manager chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/steph-hamra-863861a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYyEYsBCqHV3ErRPN9HRxuMraMiNHVz9yA', 'person_name': 'Steph Hamra', 'profile_description': 'Registrar at Aquinas College'}, {'profile_url': 'https://www.linkedin.com/in/daniela-colett?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcjX_QB4_Ib5mnItxRUa8F_TAfBP-v44tA', 'person_name': 'Daniela Colett', 'profile_description': 'Empresária | Empreendedorismo Feminino'}, {'profile_url': 'https://www.linkedin.com/in/axelle-leycuras-directrice-artistique-junior?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrhO4EB7ZSaOrAq9GtmwRSPDAqJqUNLLtA', 'person_name': 'Axelle Leycuras', 'profile_description': 'Directrice Artistique chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/gayanibotejue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbBXnsB3I2AfbuzGv1Ha7VIEDTev0AGVxM', 'person_name': 'Gayani Botejue', 'profile_description': 'Travel and Apparel'}, {'profile_url': 'https://www.linkedin.com/in/adrianabuitragomusic?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABFq89wB_jjuFFHolzUO81lMLhagFic9JiY', 'person_name': 'Adriana Buitrago', 'profile_description': 'Event Production &amp; Marketing Strategist'}, {'profile_url': 'https://www.linkedin.com/in/kiera-blaney-01750313a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHj8FMBd2TqqJTcLJ5HubpKJWF1doTB7q8', 'person_name': 'Kiera Blaney', 'profile_description': 'Adventure Travel Content Creator - Hula Hoop/Circus Performer - Chinese Medicine Doctor'}, {'profile_url': 'https://www.linkedin.com/in/andrea-boswell-burns-8bb9a573?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-hbM8BUHuVVElBxiWH9-z6_k2dkwUYMog', 'person_name': 'Andrea Boswell-Burns', 'profile_description': 'Actor/Performer/Educator/Entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-fortin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADmgce4ByDf_qMzaPL5F7pZOLv4NDtqWK2E', 'person_name': 'Jérôme Fortin', 'profile_description': 'Coordonnateur en service-conseil chez Hula Hoop'}, {'profile_url': 'https://www.linkedin.com/in/zachary-fouqueray-23ab3a31a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFD4W84Bymmu6r1ErRsKEJkTvFkZOvNwflA', 'person_name': 'Zachary Fouqueray', 'profile_description': 'Assistant chef de projet chez HULA HOOP'}, {'profile_url': 'https://www.linkedin.com/in/charles-alexandre-brault-36a1bb308?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE5XE0IBXger6XuHw86bKPwLxvsL7BzXryA', 'person_name': 'Charles-Alexandre Brault', 'profile_description': 'Responsable développement commercial chez HULA HOOP MONTRÉAL'}]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>41,93 %</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>185,92 %</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>4.490.070 €</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.570.395 €</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>13</v>
+      </c>
+      <c r="R20" t="n">
+        <v>15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>57</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/c%C3%A9dricmorel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACo4nUBWFu2NErr7rUrCbdab9LcTUvPJuc</t>
+      <c r="A21" t="n">
+        <v>446</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castor &amp; Pollux </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.castoretpollux.com/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['0174880340']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['bonjour@castoretpollux.com']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/castor-&amp;-pollux</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI', 'person_name': 'Stephane Clousier', 'profile_description': 'Co fondateur chez Castor &amp; Pollux'}</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Co fondateur chez Castor &amp; Pollux</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/marina-albert-489b50b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiNa6kBY5QaRrekaJGmT6-lo4NzMVZ2p3o', 'person_name': 'Marina Albert', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/jade-pigneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRVCIMB8g3FL8FJkdD5IpntCOmNt3eip8M', 'person_name': 'Jade Pigneau', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo', 'person_name': 'Nicolas RUIZ', 'profile_description': 'Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/nicolasthomassinbd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJANJgBPryPOvtdjnB_SVbXBT5IqdntIdE', 'person_name': 'Nicolas Thomassin', 'profile_description': 'I help brands to achieve their digital marketing objectives @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/morganlaunay?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMQ68BeAWEDjtbmqKk3qV610lw1QL8-YA', 'person_name': 'Morgan Launay', 'profile_description': 'Directeur Castor &amp; Pollux Talents + Associé'}, {'profile_url': 'https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U', 'person_name': 'Julien Cocquerel', 'profile_description': 'Co-fondateur de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-danvers?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuVWbMB9zwD19txHFKXfw6wzsUSBjtGYWI', 'person_name': 'Mathilde Danvers', 'profile_description': 'Marketing digital, e-commerce, chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/victoria-g-a7b3081b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKXX_8B2ZYQkRPqo9wPQJPoU_6IUXA-ghQ', 'person_name': 'Victoria G.', 'profile_description': 'RH (passionnée) | Pure joueuse du digital @Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/alice-laurin-b32aa872?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA93vlYB2YQtzrcJBfNtWebyGbyTMp252Ho', 'person_name': 'Alice Laurin', 'profile_description': 'Directrice de projet et associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-montailler-b1974510b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuyMAUBY43Bh3phD5AcHEXivKnRC3NMszQ', 'person_name': 'Clément Montailler', 'profile_description': 'Directeur Stratégie Social Media Associé — CASTOR&amp;POLLUX | Social Media et Site'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0', 'person_name': 'Raphaël Braud', 'profile_description': 'CTO @ Castor &amp; Pollux | Pur joueur du digital'}, {'profile_url': 'https://www.linkedin.com/in/lucie-delberghe-9807ab150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRszbABq0jOv7HifANduAHJE9MudVHsqC8', 'person_name': 'Lucie Delberghe', 'profile_description': 'Consultante junior chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY', 'person_name': 'Lucille Pheulpin', 'profile_description': 'Présidente de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU', 'person_name': 'Elodie Denaeyer', 'profile_description': 'Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/sashariche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRR6A4BvMZVnP22O7WQsJKXKcHFJILgEY4', 'person_name': 'Sasha Riche', 'profile_description': 'Community Manager Senior chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI', 'person_name': 'Camille Sibille', 'profile_description': 'Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucile-thomas-971b608a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMJT2UBPB-_EUyIDRkH98zQIwdKNYkfBeI', 'person_name': 'Lucile Thomas', 'profile_description': 'Directrice du pôle Social Media et Influence chez Castor &amp; Pollux Groupe'}, {'profile_url': 'https://www.linkedin.com/in/tiphaine-baubinnec-99507675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_ZdQEBS_78FWgSYGfodV_qQSY_b-47HBE', 'person_name': 'Tiphaine Baubinnec', 'profile_description': 'Planneuse stratégique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lanie-kaliciak-484691a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABaGimQBPCQl_smcwdvy5R6fCxsW7D-I8Tg', 'person_name': 'Mélanie Kaliciak', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/francesca-luciano?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJlztQBl56Xa_Y2mIbETcOzZqV6uDtKNuE', 'person_name': 'Francesca Luciano', 'profile_description': 'Communication | Project Management | Sustainability'}, {'profile_url': 'https://www.linkedin.com/in/ambre-matamba-61864a209?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT0YvQBU44HxbboH4DVMI_dFu-688WnDfE', 'person_name': 'Ambre Matamba', 'profile_description': 'Community Manager - Castor &amp; Pollux, agence conseil en communication digitale'}, {'profile_url': 'https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI', 'person_name': 'Stephane Clousier', 'profile_description': 'Co fondateur chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/anna-prylutsky-159b18148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPCy9UB13DMY_-jrKfiFP5mCldBRXkPF6I', 'person_name': 'Anna Prylutsky', 'profile_description': 'Motion Designer, Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/nadine-lakis-5801996a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6fBPABUvxoKxeCOaksxDkG_xQaluRXoXY', 'person_name': 'Nadine Lakis', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0', 'person_name': 'Deborah Boussidan', 'profile_description': 'Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/sandra-klila-96a555174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClfOCIBQVRBZUZ7oHffIrBh1VV7sECoyzE', 'person_name': 'Sandra Klila', 'profile_description': 'Community Manager chez Castor et Pollux'}, {'profile_url': 'https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug', 'person_name': 'Noé Melon', 'profile_description': 'Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa'}, {'profile_url': 'https://www.linkedin.com/in/casllux-torpo-a71423140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACI77DUBkKYr0cz9ylZauaFBRoLFI5-Uvbo', 'person_name': 'Casllux Torpo', 'profile_description': 'Business Developement'}, {'profile_url': 'https://www.linkedin.com/in/aela-marchand-60b002242?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwoMOsBxR9hxA0BTFiv96VWSnz2eOoAzkc', 'person_name': 'Aela Marchand', 'profile_description': 'Etudiante designer graphique'}, {'profile_url': 'https://www.linkedin.com/in/ilona-barbeau-31a04a19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7QeUYBr505Rp0Zerki_7E2hdYizNIxDKI', 'person_name': 'Ilona Barbeau', 'profile_description': 'Étudiante - Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/violette-auger-1b2250156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVpThYB1QXFJPjbMTeSQ-z1u0L3q82-FNY', 'person_name': 'Violette Auger', 'profile_description': 'Copywriter chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/coralie-chatellier-2746a8108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsnqXgBZvUsN0KfiKCFLiZwD1zKgTbHiC4', 'person_name': 'Coralie Chatellier', 'profile_description': 'Social media Manager chez Castor &amp; Pollux - Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/claire-chauve-a5251180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEpWZ4B1Xj8bm8VLAF598g-6fKIu5kluQI', 'person_name': 'Claire Chauve', 'profile_description': 'Consultante Social media manager chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/yohann-le-leuch-3b533bb0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeK43kBiwjVECZwUWo6MtjH7ISK47Z0Aqs', 'person_name': 'Yohann Le Leuch', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/martin-dac?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABWEBuUB8DPxIIFtoMF4OHR96YKq-LFBLw8', 'person_name': 'Martin Dac', 'profile_description': 'Consultant New Business @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/margaux-manget-5b6b25174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl1CxoBvNeD6tONKmWpiBVKtCZR7ozOQEw', 'person_name': 'Margaux Manget', 'profile_description': 'Community Manager Chez Castor&amp;Pollux - Étudiante à l’ISEG Lyon/Paris'}, {'profile_url': 'https://www.linkedin.com/in/camilleplunian?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBEYL8BdZvqQUL3k9l5vkb8UXrLXn0jRl0', 'person_name': 'Camille Plunian', 'profile_description': 'Directrice artistique — Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/gautier-rennes-0a4bb043?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlA73wBn377eUV_P56v5vc6QUXlcKdZm14', 'person_name': 'Gautier Rennes', 'profile_description': 'Directeur du social media, membre du comité de direction'}, {'profile_url': 'https://www.linkedin.com/in/nicolasrolier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmQyqUBIwsI04jO-1cNBFDXThSotnNXWSs', 'person_name': 'Nicolas Rolier', 'profile_description': 'Développeur Drupal'}, {'profile_url': 'https://www.linkedin.com/in/pauline-medigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs-80MBSQOWvIuYEXx0M-7vBE2WgXAjgo8', 'person_name': 'Pauline Médigue', 'profile_description': 'Directrice Artistique'}, {'profile_url': 'https://www.linkedin.com/in/emelineduboquet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2kMDgBddrYka4rNMcrPe8djvKEO_QXozc', 'person_name': 'emeline duboquet', 'profile_description': 'Directrice Artistique Associée — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-boudaya-7a4b721b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLlXOwBfxDeAa9dQke5rBXdloyS2x4yQo4', 'person_name': 'Célia Boudaya', 'profile_description': 'Étudiante en Master 2 de Communication Digitale à l’ECS Paris'}, {'profile_url': 'https://www.linkedin.com/in/antonachos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqtf1ABDTGqn10c1zyrcWzoWk6PKmWPQFM', 'person_name': 'Quentin Antonacci', 'profile_description': 'Directeur Artistique ➡️ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/kimberley-cantin-4059671b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLdk4UBPCdNF8brFpfnWvZUVOc5w-9f12s', 'person_name': 'Kimberley Cantin', 'profile_description': '🚀 Freelance Motion Design | Étudiante BGMD à Gobelins'}, {'profile_url': 'https://www.linkedin.com/in/alexis-bellamy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcD51UB_u5wjIIOeywMw1inul2kHIR7C6A', 'person_name': 'Alexis Bellamy', 'profile_description': 'Développeur Fullstack @ Castor &amp; Pollux | Pur joueur du digital | Team tech 👊👨\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/julia-wolff-61773910?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI-hzMBUWN6ZvJIP2ptrzVo40B_H3XpU4g', 'person_name': 'Julia Wolff', 'profile_description': 'Directrice de Projet Associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/sarah-douma-b84719174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACllqFQBEjxRer3S6RXkBCG_D8ThxZDeTEI', 'person_name': 'Sarah Douma', 'profile_description': 'Directrice artistique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/luciealexandre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzE6XsBCJcxSnfR0lAzSVkqrjiq8M86UnE', 'person_name': 'Lucie Alexandre', 'profile_description': 'Infographiste chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/celine-smadja-07a479149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPXtB4BHu_oFHlm_kfdKTCsmf8YCzHgsAQ', 'person_name': 'Celine Smadja', 'profile_description': 'Responsable administratif chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/am%C3%A9ly-martinez-57903998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSmcu0BlHhBi67HVs5Sn_Ipjhlsg9WIu1c', 'person_name': 'Amély Martinez', 'profile_description': 'Consultante chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/maria-melida-trochez-osorio-a26316196?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC33Az4B9yhHcAivZHmqEnuK4TukVhCJbb0', 'person_name': 'Maria Melida TROCHEZ OSORIO', 'profile_description': "agent d'entretien en Castor &amp; Pollux, Agence conseil en communication digitale."}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-gomes-9a953962?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0_0VEBSFiWyT2pflm1pLvE5Xe5TL0wUbc', 'person_name': 'Cédric Gomes', 'profile_description': 'Copywriter @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/christian-mcintire-a3112020a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUOE8UBRyiBdipNyzePHgIiVkGh20VoTLQ', 'person_name': 'CHRISTIAN McIntire', 'profile_description': 'Fine Gemstone sales and acquisition.'}, {'profile_url': 'https://www.linkedin.com/in/adrien-edouard-344841197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC44XKQBvhoeSl5ejCf0DwzE2IZdq2Pbo9o', 'person_name': 'Adrien Edouard', 'profile_description': 'Planneur stratégique junior | Havas Play'}, {'profile_url': 'https://www.linkedin.com/in/cyana-ghazi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmqDYMBCOBnshWJIgAWS36VYhN4gjEm8Go', 'person_name': 'Cyana G.', 'profile_description': 'Product Designer | UX.UI ☀️'}, {'profile_url': 'https://www.linkedin.com/in/corentin-leban?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqaJ4YB2ozuA0-8nOQpJBtPRPpY3lD6y6M', 'person_name': 'Corentin L.', 'profile_description': 'UX designer — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/zuzana-ja%C5%A1kov%C3%A1-59140374?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-4x30BtA_xrL6OwcZmufbBH5I8ccUMPm4', 'person_name': 'Zuzana Jašková', 'profile_description': 'riaditeľka odboru obchodu a správy majetku'}, {'profile_url': 'https://www.linkedin.com/in/cathalyne-faissat-06865638?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAftRdABfu3odlT5DqsdXafLP3_zhMwKVPo', 'person_name': 'Cathalyne Faissat', 'profile_description': 'Consultante en stratégie de contenus chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/viera-dubnick%C3%A1-950852129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-gl8wB7xVoSXRzNv_K-7RGf-qQ1wfglWA', 'person_name': 'Viera Dubnická', 'profile_description': 'Finance Manager'}, {'profile_url': 'https://www.linkedin.com/in/maisy-mcleod-riera-66a533134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDThvIB_e6uSlK4cXPbRuWc0bs1DCz5yXk', 'person_name': 'Maisy McLeod-Riera', 'profile_description': 'Freelance Camera &amp; Video Assistant'}, {'profile_url': 'https://www.linkedin.com/in/swaranjali-bhagat-73802b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKIEFwB9qzh2Hx-0B5H4AMOQaG0eOxhSUQ', 'person_name': 'Swaranjali Bhagat', 'profile_description': 'Interior Designer , self-employed'}, {'profile_url': 'https://www.linkedin.com/in/ishclor-v-371b4542?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkRS8UBSZ3eXU61ibVHsyqdHTBWupvMxKY', 'person_name': 'Ishclor V.', 'profile_description': 'Graduate @ Silwood Cooking School'}, {'profile_url': 'https://www.linkedin.com/in/gloria-ratar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiOxcABlOgs2aEF24akofdaDWv-86nyI-A', 'person_name': 'Gloria Ratar', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/mustafa-ii?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACflYVcBxW3hfZLZ2MAKGPrnH69fYTX46uU', 'person_name': 'Mustafa I.', 'profile_description': 'Scriptwriter by profession, voice actor hobbyist'}]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>13,07 %</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>44,54 %</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>7.697.147 €</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>5.325.196 €</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>44</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>57</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/madionne87?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfPUvQBWiv8Ny5Xiuh09pTq7KGKW5aX8Aw</t>
+      <c r="A22" t="n">
+        <v>446</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castor &amp; Pollux </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.castoretpollux.com/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['0174880340']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['bonjour@castoretpollux.com']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/castor-&amp;-pollux</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug', 'person_name': 'Noé Melon', 'profile_description': 'Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa'}</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/marina-albert-489b50b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiNa6kBY5QaRrekaJGmT6-lo4NzMVZ2p3o', 'person_name': 'Marina Albert', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/jade-pigneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRVCIMB8g3FL8FJkdD5IpntCOmNt3eip8M', 'person_name': 'Jade Pigneau', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo', 'person_name': 'Nicolas RUIZ', 'profile_description': 'Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/nicolasthomassinbd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJANJgBPryPOvtdjnB_SVbXBT5IqdntIdE', 'person_name': 'Nicolas Thomassin', 'profile_description': 'I help brands to achieve their digital marketing objectives @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/morganlaunay?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMQ68BeAWEDjtbmqKk3qV610lw1QL8-YA', 'person_name': 'Morgan Launay', 'profile_description': 'Directeur Castor &amp; Pollux Talents + Associé'}, {'profile_url': 'https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U', 'person_name': 'Julien Cocquerel', 'profile_description': 'Co-fondateur de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-danvers?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuVWbMB9zwD19txHFKXfw6wzsUSBjtGYWI', 'person_name': 'Mathilde Danvers', 'profile_description': 'Marketing digital, e-commerce, chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/victoria-g-a7b3081b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKXX_8B2ZYQkRPqo9wPQJPoU_6IUXA-ghQ', 'person_name': 'Victoria G.', 'profile_description': 'RH (passionnée) | Pure joueuse du digital @Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/alice-laurin-b32aa872?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA93vlYB2YQtzrcJBfNtWebyGbyTMp252Ho', 'person_name': 'Alice Laurin', 'profile_description': 'Directrice de projet et associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-montailler-b1974510b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuyMAUBY43Bh3phD5AcHEXivKnRC3NMszQ', 'person_name': 'Clément Montailler', 'profile_description': 'Directeur Stratégie Social Media Associé — CASTOR&amp;POLLUX | Social Media et Site'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0', 'person_name': 'Raphaël Braud', 'profile_description': 'CTO @ Castor &amp; Pollux | Pur joueur du digital'}, {'profile_url': 'https://www.linkedin.com/in/lucie-delberghe-9807ab150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRszbABq0jOv7HifANduAHJE9MudVHsqC8', 'person_name': 'Lucie Delberghe', 'profile_description': 'Consultante junior chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY', 'person_name': 'Lucille Pheulpin', 'profile_description': 'Présidente de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU', 'person_name': 'Elodie Denaeyer', 'profile_description': 'Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/sashariche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRR6A4BvMZVnP22O7WQsJKXKcHFJILgEY4', 'person_name': 'Sasha Riche', 'profile_description': 'Community Manager Senior chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI', 'person_name': 'Camille Sibille', 'profile_description': 'Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucile-thomas-971b608a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMJT2UBPB-_EUyIDRkH98zQIwdKNYkfBeI', 'person_name': 'Lucile Thomas', 'profile_description': 'Directrice du pôle Social Media et Influence chez Castor &amp; Pollux Groupe'}, {'profile_url': 'https://www.linkedin.com/in/tiphaine-baubinnec-99507675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_ZdQEBS_78FWgSYGfodV_qQSY_b-47HBE', 'person_name': 'Tiphaine Baubinnec', 'profile_description': 'Planneuse stratégique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lanie-kaliciak-484691a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABaGimQBPCQl_smcwdvy5R6fCxsW7D-I8Tg', 'person_name': 'Mélanie Kaliciak', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/francesca-luciano?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJlztQBl56Xa_Y2mIbETcOzZqV6uDtKNuE', 'person_name': 'Francesca Luciano', 'profile_description': 'Communication | Project Management | Sustainability'}, {'profile_url': 'https://www.linkedin.com/in/ambre-matamba-61864a209?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT0YvQBU44HxbboH4DVMI_dFu-688WnDfE', 'person_name': 'Ambre Matamba', 'profile_description': 'Community Manager - Castor &amp; Pollux, agence conseil en communication digitale'}, {'profile_url': 'https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI', 'person_name': 'Stephane Clousier', 'profile_description': 'Co fondateur chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/anna-prylutsky-159b18148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPCy9UB13DMY_-jrKfiFP5mCldBRXkPF6I', 'person_name': 'Anna Prylutsky', 'profile_description': 'Motion Designer, Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/nadine-lakis-5801996a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6fBPABUvxoKxeCOaksxDkG_xQaluRXoXY', 'person_name': 'Nadine Lakis', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0', 'person_name': 'Deborah Boussidan', 'profile_description': 'Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/sandra-klila-96a555174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClfOCIBQVRBZUZ7oHffIrBh1VV7sECoyzE', 'person_name': 'Sandra Klila', 'profile_description': 'Community Manager chez Castor et Pollux'}, {'profile_url': 'https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug', 'person_name': 'Noé Melon', 'profile_description': 'Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa'}, {'profile_url': 'https://www.linkedin.com/in/casllux-torpo-a71423140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACI77DUBkKYr0cz9ylZauaFBRoLFI5-Uvbo', 'person_name': 'Casllux Torpo', 'profile_description': 'Business Developement'}, {'profile_url': 'https://www.linkedin.com/in/aela-marchand-60b002242?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwoMOsBxR9hxA0BTFiv96VWSnz2eOoAzkc', 'person_name': 'Aela Marchand', 'profile_description': 'Etudiante designer graphique'}, {'profile_url': 'https://www.linkedin.com/in/ilona-barbeau-31a04a19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7QeUYBr505Rp0Zerki_7E2hdYizNIxDKI', 'person_name': 'Ilona Barbeau', 'profile_description': 'Étudiante - Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/violette-auger-1b2250156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVpThYB1QXFJPjbMTeSQ-z1u0L3q82-FNY', 'person_name': 'Violette Auger', 'profile_description': 'Copywriter chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/coralie-chatellier-2746a8108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsnqXgBZvUsN0KfiKCFLiZwD1zKgTbHiC4', 'person_name': 'Coralie Chatellier', 'profile_description': 'Social media Manager chez Castor &amp; Pollux - Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/claire-chauve-a5251180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEpWZ4B1Xj8bm8VLAF598g-6fKIu5kluQI', 'person_name': 'Claire Chauve', 'profile_description': 'Consultante Social media manager chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/yohann-le-leuch-3b533bb0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeK43kBiwjVECZwUWo6MtjH7ISK47Z0Aqs', 'person_name': 'Yohann Le Leuch', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/martin-dac?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABWEBuUB8DPxIIFtoMF4OHR96YKq-LFBLw8', 'person_name': 'Martin Dac', 'profile_description': 'Consultant New Business @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/margaux-manget-5b6b25174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl1CxoBvNeD6tONKmWpiBVKtCZR7ozOQEw', 'person_name': 'Margaux Manget', 'profile_description': 'Community Manager Chez Castor&amp;Pollux - Étudiante à l’ISEG Lyon/Paris'}, {'profile_url': 'https://www.linkedin.com/in/camilleplunian?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBEYL8BdZvqQUL3k9l5vkb8UXrLXn0jRl0', 'person_name': 'Camille Plunian', 'profile_description': 'Directrice artistique — Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/gautier-rennes-0a4bb043?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlA73wBn377eUV_P56v5vc6QUXlcKdZm14', 'person_name': 'Gautier Rennes', 'profile_description': 'Directeur du social media, membre du comité de direction'}, {'profile_url': 'https://www.linkedin.com/in/nicolasrolier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmQyqUBIwsI04jO-1cNBFDXThSotnNXWSs', 'person_name': 'Nicolas Rolier', 'profile_description': 'Développeur Drupal'}, {'profile_url': 'https://www.linkedin.com/in/pauline-medigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs-80MBSQOWvIuYEXx0M-7vBE2WgXAjgo8', 'person_name': 'Pauline Médigue', 'profile_description': 'Directrice Artistique'}, {'profile_url': 'https://www.linkedin.com/in/emelineduboquet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2kMDgBddrYka4rNMcrPe8djvKEO_QXozc', 'person_name': 'emeline duboquet', 'profile_description': 'Directrice Artistique Associée — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-boudaya-7a4b721b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLlXOwBfxDeAa9dQke5rBXdloyS2x4yQo4', 'person_name': 'Célia Boudaya', 'profile_description': 'Étudiante en Master 2 de Communication Digitale à l’ECS Paris'}, {'profile_url': 'https://www.linkedin.com/in/antonachos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqtf1ABDTGqn10c1zyrcWzoWk6PKmWPQFM', 'person_name': 'Quentin Antonacci', 'profile_description': 'Directeur Artistique ➡️ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/kimberley-cantin-4059671b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLdk4UBPCdNF8brFpfnWvZUVOc5w-9f12s', 'person_name': 'Kimberley Cantin', 'profile_description': '🚀 Freelance Motion Design | Étudiante BGMD à Gobelins'}, {'profile_url': 'https://www.linkedin.com/in/alexis-bellamy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcD51UB_u5wjIIOeywMw1inul2kHIR7C6A', 'person_name': 'Alexis Bellamy', 'profile_description': 'Développeur Fullstack @ Castor &amp; Pollux | Pur joueur du digital | Team tech 👊👨\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/julia-wolff-61773910?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI-hzMBUWN6ZvJIP2ptrzVo40B_H3XpU4g', 'person_name': 'Julia Wolff', 'profile_description': 'Directrice de Projet Associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/sarah-douma-b84719174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACllqFQBEjxRer3S6RXkBCG_D8ThxZDeTEI', 'person_name': 'Sarah Douma', 'profile_description': 'Directrice artistique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/luciealexandre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzE6XsBCJcxSnfR0lAzSVkqrjiq8M86UnE', 'person_name': 'Lucie Alexandre', 'profile_description': 'Infographiste chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/celine-smadja-07a479149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPXtB4BHu_oFHlm_kfdKTCsmf8YCzHgsAQ', 'person_name': 'Celine Smadja', 'profile_description': 'Responsable administratif chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/am%C3%A9ly-martinez-57903998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSmcu0BlHhBi67HVs5Sn_Ipjhlsg9WIu1c', 'person_name': 'Amély Martinez', 'profile_description': 'Consultante chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/maria-melida-trochez-osorio-a26316196?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC33Az4B9yhHcAivZHmqEnuK4TukVhCJbb0', 'person_name': 'Maria Melida TROCHEZ OSORIO', 'profile_description': "agent d'entretien en Castor &amp; Pollux, Agence conseil en communication digitale."}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-gomes-9a953962?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0_0VEBSFiWyT2pflm1pLvE5Xe5TL0wUbc', 'person_name': 'Cédric Gomes', 'profile_description': 'Copywriter @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/christian-mcintire-a3112020a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUOE8UBRyiBdipNyzePHgIiVkGh20VoTLQ', 'person_name': 'CHRISTIAN McIntire', 'profile_description': 'Fine Gemstone sales and acquisition.'}, {'profile_url': 'https://www.linkedin.com/in/adrien-edouard-344841197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC44XKQBvhoeSl5ejCf0DwzE2IZdq2Pbo9o', 'person_name': 'Adrien Edouard', 'profile_description': 'Planneur stratégique junior | Havas Play'}, {'profile_url': 'https://www.linkedin.com/in/cyana-ghazi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmqDYMBCOBnshWJIgAWS36VYhN4gjEm8Go', 'person_name': 'Cyana G.', 'profile_description': 'Product Designer | UX.UI ☀️'}, {'profile_url': 'https://www.linkedin.com/in/corentin-leban?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqaJ4YB2ozuA0-8nOQpJBtPRPpY3lD6y6M', 'person_name': 'Corentin L.', 'profile_description': 'UX designer — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/zuzana-ja%C5%A1kov%C3%A1-59140374?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-4x30BtA_xrL6OwcZmufbBH5I8ccUMPm4', 'person_name': 'Zuzana Jašková', 'profile_description': 'riaditeľka odboru obchodu a správy majetku'}, {'profile_url': 'https://www.linkedin.com/in/cathalyne-faissat-06865638?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAftRdABfu3odlT5DqsdXafLP3_zhMwKVPo', 'person_name': 'Cathalyne Faissat', 'profile_description': 'Consultante en stratégie de contenus chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/viera-dubnick%C3%A1-950852129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-gl8wB7xVoSXRzNv_K-7RGf-qQ1wfglWA', 'person_name': 'Viera Dubnická', 'profile_description': 'Finance Manager'}, {'profile_url': 'https://www.linkedin.com/in/maisy-mcleod-riera-66a533134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDThvIB_e6uSlK4cXPbRuWc0bs1DCz5yXk', 'person_name': 'Maisy McLeod-Riera', 'profile_description': 'Freelance Camera &amp; Video Assistant'}, {'profile_url': 'https://www.linkedin.com/in/swaranjali-bhagat-73802b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKIEFwB9qzh2Hx-0B5H4AMOQaG0eOxhSUQ', 'person_name': 'Swaranjali Bhagat', 'profile_description': 'Interior Designer , self-employed'}, {'profile_url': 'https://www.linkedin.com/in/ishclor-v-371b4542?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkRS8UBSZ3eXU61ibVHsyqdHTBWupvMxKY', 'person_name': 'Ishclor V.', 'profile_description': 'Graduate @ Silwood Cooking School'}, {'profile_url': 'https://www.linkedin.com/in/gloria-ratar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiOxcABlOgs2aEF24akofdaDWv-86nyI-A', 'person_name': 'Gloria Ratar', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/mustafa-ii?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACflYVcBxW3hfZLZ2MAKGPrnH69fYTX46uU', 'person_name': 'Mustafa I.', 'profile_description': 'Scriptwriter by profession, voice actor hobbyist'}]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>13,07 %</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>44,54 %</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>7.697.147 €</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>5.325.196 €</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>44</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>57</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI</t>
+      <c r="A23" t="n">
+        <v>446</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castor &amp; Pollux </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.castoretpollux.com/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['0174880340']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['bonjour@castoretpollux.com']</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/castor-&amp;-pollux</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0', 'person_name': 'Deborah Boussidan', 'profile_description': 'Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX'}</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/marina-albert-489b50b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiNa6kBY5QaRrekaJGmT6-lo4NzMVZ2p3o', 'person_name': 'Marina Albert', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/jade-pigneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRVCIMB8g3FL8FJkdD5IpntCOmNt3eip8M', 'person_name': 'Jade Pigneau', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo', 'person_name': 'Nicolas RUIZ', 'profile_description': 'Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/nicolasthomassinbd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJANJgBPryPOvtdjnB_SVbXBT5IqdntIdE', 'person_name': 'Nicolas Thomassin', 'profile_description': 'I help brands to achieve their digital marketing objectives @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/morganlaunay?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMQ68BeAWEDjtbmqKk3qV610lw1QL8-YA', 'person_name': 'Morgan Launay', 'profile_description': 'Directeur Castor &amp; Pollux Talents + Associé'}, {'profile_url': 'https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U', 'person_name': 'Julien Cocquerel', 'profile_description': 'Co-fondateur de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-danvers?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuVWbMB9zwD19txHFKXfw6wzsUSBjtGYWI', 'person_name': 'Mathilde Danvers', 'profile_description': 'Marketing digital, e-commerce, chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/victoria-g-a7b3081b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKXX_8B2ZYQkRPqo9wPQJPoU_6IUXA-ghQ', 'person_name': 'Victoria G.', 'profile_description': 'RH (passionnée) | Pure joueuse du digital @Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/alice-laurin-b32aa872?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA93vlYB2YQtzrcJBfNtWebyGbyTMp252Ho', 'person_name': 'Alice Laurin', 'profile_description': 'Directrice de projet et associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-montailler-b1974510b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuyMAUBY43Bh3phD5AcHEXivKnRC3NMszQ', 'person_name': 'Clément Montailler', 'profile_description': 'Directeur Stratégie Social Media Associé — CASTOR&amp;POLLUX | Social Media et Site'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0', 'person_name': 'Raphaël Braud', 'profile_description': 'CTO @ Castor &amp; Pollux | Pur joueur du digital'}, {'profile_url': 'https://www.linkedin.com/in/lucie-delberghe-9807ab150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRszbABq0jOv7HifANduAHJE9MudVHsqC8', 'person_name': 'Lucie Delberghe', 'profile_description': 'Consultante junior chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY', 'person_name': 'Lucille Pheulpin', 'profile_description': 'Présidente de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU', 'person_name': 'Elodie Denaeyer', 'profile_description': 'Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/sashariche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRR6A4BvMZVnP22O7WQsJKXKcHFJILgEY4', 'person_name': 'Sasha Riche', 'profile_description': 'Community Manager Senior chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI', 'person_name': 'Camille Sibille', 'profile_description': 'Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucile-thomas-971b608a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMJT2UBPB-_EUyIDRkH98zQIwdKNYkfBeI', 'person_name': 'Lucile Thomas', 'profile_description': 'Directrice du pôle Social Media et Influence chez Castor &amp; Pollux Groupe'}, {'profile_url': 'https://www.linkedin.com/in/tiphaine-baubinnec-99507675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_ZdQEBS_78FWgSYGfodV_qQSY_b-47HBE', 'person_name': 'Tiphaine Baubinnec', 'profile_description': 'Planneuse stratégique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lanie-kaliciak-484691a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABaGimQBPCQl_smcwdvy5R6fCxsW7D-I8Tg', 'person_name': 'Mélanie Kaliciak', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/francesca-luciano?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJlztQBl56Xa_Y2mIbETcOzZqV6uDtKNuE', 'person_name': 'Francesca Luciano', 'profile_description': 'Communication | Project Management | Sustainability'}, {'profile_url': 'https://www.linkedin.com/in/ambre-matamba-61864a209?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT0YvQBU44HxbboH4DVMI_dFu-688WnDfE', 'person_name': 'Ambre Matamba', 'profile_description': 'Community Manager - Castor &amp; Pollux, agence conseil en communication digitale'}, {'profile_url': 'https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI', 'person_name': 'Stephane Clousier', 'profile_description': 'Co fondateur chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/anna-prylutsky-159b18148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPCy9UB13DMY_-jrKfiFP5mCldBRXkPF6I', 'person_name': 'Anna Prylutsky', 'profile_description': 'Motion Designer, Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/nadine-lakis-5801996a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6fBPABUvxoKxeCOaksxDkG_xQaluRXoXY', 'person_name': 'Nadine Lakis', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0', 'person_name': 'Deborah Boussidan', 'profile_description': 'Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/sandra-klila-96a555174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClfOCIBQVRBZUZ7oHffIrBh1VV7sECoyzE', 'person_name': 'Sandra Klila', 'profile_description': 'Community Manager chez Castor et Pollux'}, {'profile_url': 'https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug', 'person_name': 'Noé Melon', 'profile_description': 'Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa'}, {'profile_url': 'https://www.linkedin.com/in/casllux-torpo-a71423140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACI77DUBkKYr0cz9ylZauaFBRoLFI5-Uvbo', 'person_name': 'Casllux Torpo', 'profile_description': 'Business Developement'}, {'profile_url': 'https://www.linkedin.com/in/aela-marchand-60b002242?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwoMOsBxR9hxA0BTFiv96VWSnz2eOoAzkc', 'person_name': 'Aela Marchand', 'profile_description': 'Etudiante designer graphique'}, {'profile_url': 'https://www.linkedin.com/in/ilona-barbeau-31a04a19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7QeUYBr505Rp0Zerki_7E2hdYizNIxDKI', 'person_name': 'Ilona Barbeau', 'profile_description': 'Étudiante - Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/violette-auger-1b2250156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVpThYB1QXFJPjbMTeSQ-z1u0L3q82-FNY', 'person_name': 'Violette Auger', 'profile_description': 'Copywriter chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/coralie-chatellier-2746a8108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsnqXgBZvUsN0KfiKCFLiZwD1zKgTbHiC4', 'person_name': 'Coralie Chatellier', 'profile_description': 'Social media Manager chez Castor &amp; Pollux - Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/claire-chauve-a5251180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEpWZ4B1Xj8bm8VLAF598g-6fKIu5kluQI', 'person_name': 'Claire Chauve', 'profile_description': 'Consultante Social media manager chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/yohann-le-leuch-3b533bb0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeK43kBiwjVECZwUWo6MtjH7ISK47Z0Aqs', 'person_name': 'Yohann Le Leuch', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/martin-dac?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABWEBuUB8DPxIIFtoMF4OHR96YKq-LFBLw8', 'person_name': 'Martin Dac', 'profile_description': 'Consultant New Business @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/margaux-manget-5b6b25174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl1CxoBvNeD6tONKmWpiBVKtCZR7ozOQEw', 'person_name': 'Margaux Manget', 'profile_description': 'Community Manager Chez Castor&amp;Pollux - Étudiante à l’ISEG Lyon/Paris'}, {'profile_url': 'https://www.linkedin.com/in/camilleplunian?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBEYL8BdZvqQUL3k9l5vkb8UXrLXn0jRl0', 'person_name': 'Camille Plunian', 'profile_description': 'Directrice artistique — Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/gautier-rennes-0a4bb043?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlA73wBn377eUV_P56v5vc6QUXlcKdZm14', 'person_name': 'Gautier Rennes', 'profile_description': 'Directeur du social media, membre du comité de direction'}, {'profile_url': 'https://www.linkedin.com/in/nicolasrolier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmQyqUBIwsI04jO-1cNBFDXThSotnNXWSs', 'person_name': 'Nicolas Rolier', 'profile_description': 'Développeur Drupal'}, {'profile_url': 'https://www.linkedin.com/in/pauline-medigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs-80MBSQOWvIuYEXx0M-7vBE2WgXAjgo8', 'person_name': 'Pauline Médigue', 'profile_description': 'Directrice Artistique'}, {'profile_url': 'https://www.linkedin.com/in/emelineduboquet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2kMDgBddrYka4rNMcrPe8djvKEO_QXozc', 'person_name': 'emeline duboquet', 'profile_description': 'Directrice Artistique Associée — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-boudaya-7a4b721b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLlXOwBfxDeAa9dQke5rBXdloyS2x4yQo4', 'person_name': 'Célia Boudaya', 'profile_description': 'Étudiante en Master 2 de Communication Digitale à l’ECS Paris'}, {'profile_url': 'https://www.linkedin.com/in/antonachos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqtf1ABDTGqn10c1zyrcWzoWk6PKmWPQFM', 'person_name': 'Quentin Antonacci', 'profile_description': 'Directeur Artistique ➡️ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/kimberley-cantin-4059671b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLdk4UBPCdNF8brFpfnWvZUVOc5w-9f12s', 'person_name': 'Kimberley Cantin', 'profile_description': '🚀 Freelance Motion Design | Étudiante BGMD à Gobelins'}, {'profile_url': 'https://www.linkedin.com/in/alexis-bellamy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcD51UB_u5wjIIOeywMw1inul2kHIR7C6A', 'person_name': 'Alexis Bellamy', 'profile_description': 'Développeur Fullstack @ Castor &amp; Pollux | Pur joueur du digital | Team tech 👊👨\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/julia-wolff-61773910?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI-hzMBUWN6ZvJIP2ptrzVo40B_H3XpU4g', 'person_name': 'Julia Wolff', 'profile_description': 'Directrice de Projet Associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/sarah-douma-b84719174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACllqFQBEjxRer3S6RXkBCG_D8ThxZDeTEI', 'person_name': 'Sarah Douma', 'profile_description': 'Directrice artistique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/luciealexandre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzE6XsBCJcxSnfR0lAzSVkqrjiq8M86UnE', 'person_name': 'Lucie Alexandre', 'profile_description': 'Infographiste chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/celine-smadja-07a479149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPXtB4BHu_oFHlm_kfdKTCsmf8YCzHgsAQ', 'person_name': 'Celine Smadja', 'profile_description': 'Responsable administratif chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/am%C3%A9ly-martinez-57903998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSmcu0BlHhBi67HVs5Sn_Ipjhlsg9WIu1c', 'person_name': 'Amély Martinez', 'profile_description': 'Consultante chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/maria-melida-trochez-osorio-a26316196?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC33Az4B9yhHcAivZHmqEnuK4TukVhCJbb0', 'person_name': 'Maria Melida TROCHEZ OSORIO', 'profile_description': "agent d'entretien en Castor &amp; Pollux, Agence conseil en communication digitale."}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-gomes-9a953962?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0_0VEBSFiWyT2pflm1pLvE5Xe5TL0wUbc', 'person_name': 'Cédric Gomes', 'profile_description': 'Copywriter @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/christian-mcintire-a3112020a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUOE8UBRyiBdipNyzePHgIiVkGh20VoTLQ', 'person_name': 'CHRISTIAN McIntire', 'profile_description': 'Fine Gemstone sales and acquisition.'}, {'profile_url': 'https://www.linkedin.com/in/adrien-edouard-344841197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC44XKQBvhoeSl5ejCf0DwzE2IZdq2Pbo9o', 'person_name': 'Adrien Edouard', 'profile_description': 'Planneur stratégique junior | Havas Play'}, {'profile_url': 'https://www.linkedin.com/in/cyana-ghazi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmqDYMBCOBnshWJIgAWS36VYhN4gjEm8Go', 'person_name': 'Cyana G.', 'profile_description': 'Product Designer | UX.UI ☀️'}, {'profile_url': 'https://www.linkedin.com/in/corentin-leban?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqaJ4YB2ozuA0-8nOQpJBtPRPpY3lD6y6M', 'person_name': 'Corentin L.', 'profile_description': 'UX designer — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/zuzana-ja%C5%A1kov%C3%A1-59140374?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-4x30BtA_xrL6OwcZmufbBH5I8ccUMPm4', 'person_name': 'Zuzana Jašková', 'profile_description': 'riaditeľka odboru obchodu a správy majetku'}, {'profile_url': 'https://www.linkedin.com/in/cathalyne-faissat-06865638?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAftRdABfu3odlT5DqsdXafLP3_zhMwKVPo', 'person_name': 'Cathalyne Faissat', 'profile_description': 'Consultante en stratégie de contenus chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/viera-dubnick%C3%A1-950852129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-gl8wB7xVoSXRzNv_K-7RGf-qQ1wfglWA', 'person_name': 'Viera Dubnická', 'profile_description': 'Finance Manager'}, {'profile_url': 'https://www.linkedin.com/in/maisy-mcleod-riera-66a533134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDThvIB_e6uSlK4cXPbRuWc0bs1DCz5yXk', 'person_name': 'Maisy McLeod-Riera', 'profile_description': 'Freelance Camera &amp; Video Assistant'}, {'profile_url': 'https://www.linkedin.com/in/swaranjali-bhagat-73802b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKIEFwB9qzh2Hx-0B5H4AMOQaG0eOxhSUQ', 'person_name': 'Swaranjali Bhagat', 'profile_description': 'Interior Designer , self-employed'}, {'profile_url': 'https://www.linkedin.com/in/ishclor-v-371b4542?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkRS8UBSZ3eXU61ibVHsyqdHTBWupvMxKY', 'person_name': 'Ishclor V.', 'profile_description': 'Graduate @ Silwood Cooking School'}, {'profile_url': 'https://www.linkedin.com/in/gloria-ratar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiOxcABlOgs2aEF24akofdaDWv-86nyI-A', 'person_name': 'Gloria Ratar', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/mustafa-ii?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACflYVcBxW3hfZLZ2MAKGPrnH69fYTX46uU', 'person_name': 'Mustafa I.', 'profile_description': 'Scriptwriter by profession, voice actor hobbyist'}]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>13,07 %</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>44,54 %</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>7.697.147 €</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>5.325.196 €</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>44</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>57</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug</t>
+      <c r="A24" t="n">
+        <v>446</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castor &amp; Pollux </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.castoretpollux.com/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['0174880340']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['bonjour@castoretpollux.com']</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/castor-&amp;-pollux</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY', 'person_name': 'Lucille Pheulpin', 'profile_description': 'Présidente de Castor &amp; Pollux'}</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Présidente de Castor &amp; Pollux</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/marina-albert-489b50b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiNa6kBY5QaRrekaJGmT6-lo4NzMVZ2p3o', 'person_name': 'Marina Albert', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/jade-pigneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRVCIMB8g3FL8FJkdD5IpntCOmNt3eip8M', 'person_name': 'Jade Pigneau', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo', 'person_name': 'Nicolas RUIZ', 'profile_description': 'Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/nicolasthomassinbd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJANJgBPryPOvtdjnB_SVbXBT5IqdntIdE', 'person_name': 'Nicolas Thomassin', 'profile_description': 'I help brands to achieve their digital marketing objectives @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/morganlaunay?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMQ68BeAWEDjtbmqKk3qV610lw1QL8-YA', 'person_name': 'Morgan Launay', 'profile_description': 'Directeur Castor &amp; Pollux Talents + Associé'}, {'profile_url': 'https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U', 'person_name': 'Julien Cocquerel', 'profile_description': 'Co-fondateur de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-danvers?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuVWbMB9zwD19txHFKXfw6wzsUSBjtGYWI', 'person_name': 'Mathilde Danvers', 'profile_description': 'Marketing digital, e-commerce, chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/victoria-g-a7b3081b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKXX_8B2ZYQkRPqo9wPQJPoU_6IUXA-ghQ', 'person_name': 'Victoria G.', 'profile_description': 'RH (passionnée) | Pure joueuse du digital @Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/alice-laurin-b32aa872?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA93vlYB2YQtzrcJBfNtWebyGbyTMp252Ho', 'person_name': 'Alice Laurin', 'profile_description': 'Directrice de projet et associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-montailler-b1974510b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuyMAUBY43Bh3phD5AcHEXivKnRC3NMszQ', 'person_name': 'Clément Montailler', 'profile_description': 'Directeur Stratégie Social Media Associé — CASTOR&amp;POLLUX | Social Media et Site'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0', 'person_name': 'Raphaël Braud', 'profile_description': 'CTO @ Castor &amp; Pollux | Pur joueur du digital'}, {'profile_url': 'https://www.linkedin.com/in/lucie-delberghe-9807ab150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRszbABq0jOv7HifANduAHJE9MudVHsqC8', 'person_name': 'Lucie Delberghe', 'profile_description': 'Consultante junior chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY', 'person_name': 'Lucille Pheulpin', 'profile_description': 'Présidente de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU', 'person_name': 'Elodie Denaeyer', 'profile_description': 'Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/sashariche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRR6A4BvMZVnP22O7WQsJKXKcHFJILgEY4', 'person_name': 'Sasha Riche', 'profile_description': 'Community Manager Senior chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI', 'person_name': 'Camille Sibille', 'profile_description': 'Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucile-thomas-971b608a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMJT2UBPB-_EUyIDRkH98zQIwdKNYkfBeI', 'person_name': 'Lucile Thomas', 'profile_description': 'Directrice du pôle Social Media et Influence chez Castor &amp; Pollux Groupe'}, {'profile_url': 'https://www.linkedin.com/in/tiphaine-baubinnec-99507675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_ZdQEBS_78FWgSYGfodV_qQSY_b-47HBE', 'person_name': 'Tiphaine Baubinnec', 'profile_description': 'Planneuse stratégique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lanie-kaliciak-484691a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABaGimQBPCQl_smcwdvy5R6fCxsW7D-I8Tg', 'person_name': 'Mélanie Kaliciak', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/francesca-luciano?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJlztQBl56Xa_Y2mIbETcOzZqV6uDtKNuE', 'person_name': 'Francesca Luciano', 'profile_description': 'Communication | Project Management | Sustainability'}, {'profile_url': 'https://www.linkedin.com/in/ambre-matamba-61864a209?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT0YvQBU44HxbboH4DVMI_dFu-688WnDfE', 'person_name': 'Ambre Matamba', 'profile_description': 'Community Manager - Castor &amp; Pollux, agence conseil en communication digitale'}, {'profile_url': 'https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI', 'person_name': 'Stephane Clousier', 'profile_description': 'Co fondateur chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/anna-prylutsky-159b18148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPCy9UB13DMY_-jrKfiFP5mCldBRXkPF6I', 'person_name': 'Anna Prylutsky', 'profile_description': 'Motion Designer, Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/nadine-lakis-5801996a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6fBPABUvxoKxeCOaksxDkG_xQaluRXoXY', 'person_name': 'Nadine Lakis', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0', 'person_name': 'Deborah Boussidan', 'profile_description': 'Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/sandra-klila-96a555174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClfOCIBQVRBZUZ7oHffIrBh1VV7sECoyzE', 'person_name': 'Sandra Klila', 'profile_description': 'Community Manager chez Castor et Pollux'}, {'profile_url': 'https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug', 'person_name': 'Noé Melon', 'profile_description': 'Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa'}, {'profile_url': 'https://www.linkedin.com/in/casllux-torpo-a71423140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACI77DUBkKYr0cz9ylZauaFBRoLFI5-Uvbo', 'person_name': 'Casllux Torpo', 'profile_description': 'Business Developement'}, {'profile_url': 'https://www.linkedin.com/in/aela-marchand-60b002242?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwoMOsBxR9hxA0BTFiv96VWSnz2eOoAzkc', 'person_name': 'Aela Marchand', 'profile_description': 'Etudiante designer graphique'}, {'profile_url': 'https://www.linkedin.com/in/ilona-barbeau-31a04a19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7QeUYBr505Rp0Zerki_7E2hdYizNIxDKI', 'person_name': 'Ilona Barbeau', 'profile_description': 'Étudiante - Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/violette-auger-1b2250156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVpThYB1QXFJPjbMTeSQ-z1u0L3q82-FNY', 'person_name': 'Violette Auger', 'profile_description': 'Copywriter chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/coralie-chatellier-2746a8108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsnqXgBZvUsN0KfiKCFLiZwD1zKgTbHiC4', 'person_name': 'Coralie Chatellier', 'profile_description': 'Social media Manager chez Castor &amp; Pollux - Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/claire-chauve-a5251180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEpWZ4B1Xj8bm8VLAF598g-6fKIu5kluQI', 'person_name': 'Claire Chauve', 'profile_description': 'Consultante Social media manager chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/yohann-le-leuch-3b533bb0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeK43kBiwjVECZwUWo6MtjH7ISK47Z0Aqs', 'person_name': 'Yohann Le Leuch', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/martin-dac?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABWEBuUB8DPxIIFtoMF4OHR96YKq-LFBLw8', 'person_name': 'Martin Dac', 'profile_description': 'Consultant New Business @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/margaux-manget-5b6b25174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl1CxoBvNeD6tONKmWpiBVKtCZR7ozOQEw', 'person_name': 'Margaux Manget', 'profile_description': 'Community Manager Chez Castor&amp;Pollux - Étudiante à l’ISEG Lyon/Paris'}, {'profile_url': 'https://www.linkedin.com/in/camilleplunian?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBEYL8BdZvqQUL3k9l5vkb8UXrLXn0jRl0', 'person_name': 'Camille Plunian', 'profile_description': 'Directrice artistique — Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/gautier-rennes-0a4bb043?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlA73wBn377eUV_P56v5vc6QUXlcKdZm14', 'person_name': 'Gautier Rennes', 'profile_description': 'Directeur du social media, membre du comité de direction'}, {'profile_url': 'https://www.linkedin.com/in/nicolasrolier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmQyqUBIwsI04jO-1cNBFDXThSotnNXWSs', 'person_name': 'Nicolas Rolier', 'profile_description': 'Développeur Drupal'}, {'profile_url': 'https://www.linkedin.com/in/pauline-medigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs-80MBSQOWvIuYEXx0M-7vBE2WgXAjgo8', 'person_name': 'Pauline Médigue', 'profile_description': 'Directrice Artistique'}, {'profile_url': 'https://www.linkedin.com/in/emelineduboquet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2kMDgBddrYka4rNMcrPe8djvKEO_QXozc', 'person_name': 'emeline duboquet', 'profile_description': 'Directrice Artistique Associée — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-boudaya-7a4b721b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLlXOwBfxDeAa9dQke5rBXdloyS2x4yQo4', 'person_name': 'Célia Boudaya', 'profile_description': 'Étudiante en Master 2 de Communication Digitale à l’ECS Paris'}, {'profile_url': 'https://www.linkedin.com/in/antonachos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqtf1ABDTGqn10c1zyrcWzoWk6PKmWPQFM', 'person_name': 'Quentin Antonacci', 'profile_description': 'Directeur Artistique ➡️ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/kimberley-cantin-4059671b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLdk4UBPCdNF8brFpfnWvZUVOc5w-9f12s', 'person_name': 'Kimberley Cantin', 'profile_description': '🚀 Freelance Motion Design | Étudiante BGMD à Gobelins'}, {'profile_url': 'https://www.linkedin.com/in/alexis-bellamy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcD51UB_u5wjIIOeywMw1inul2kHIR7C6A', 'person_name': 'Alexis Bellamy', 'profile_description': 'Développeur Fullstack @ Castor &amp; Pollux | Pur joueur du digital | Team tech 👊👨\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/julia-wolff-61773910?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI-hzMBUWN6ZvJIP2ptrzVo40B_H3XpU4g', 'person_name': 'Julia Wolff', 'profile_description': 'Directrice de Projet Associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/sarah-douma-b84719174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACllqFQBEjxRer3S6RXkBCG_D8ThxZDeTEI', 'person_name': 'Sarah Douma', 'profile_description': 'Directrice artistique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/luciealexandre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzE6XsBCJcxSnfR0lAzSVkqrjiq8M86UnE', 'person_name': 'Lucie Alexandre', 'profile_description': 'Infographiste chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/celine-smadja-07a479149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPXtB4BHu_oFHlm_kfdKTCsmf8YCzHgsAQ', 'person_name': 'Celine Smadja', 'profile_description': 'Responsable administratif chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/am%C3%A9ly-martinez-57903998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSmcu0BlHhBi67HVs5Sn_Ipjhlsg9WIu1c', 'person_name': 'Amély Martinez', 'profile_description': 'Consultante chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/maria-melida-trochez-osorio-a26316196?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC33Az4B9yhHcAivZHmqEnuK4TukVhCJbb0', 'person_name': 'Maria Melida TROCHEZ OSORIO', 'profile_description': "agent d'entretien en Castor &amp; Pollux, Agence conseil en communication digitale."}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-gomes-9a953962?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0_0VEBSFiWyT2pflm1pLvE5Xe5TL0wUbc', 'person_name': 'Cédric Gomes', 'profile_description': 'Copywriter @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/christian-mcintire-a3112020a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUOE8UBRyiBdipNyzePHgIiVkGh20VoTLQ', 'person_name': 'CHRISTIAN McIntire', 'profile_description': 'Fine Gemstone sales and acquisition.'}, {'profile_url': 'https://www.linkedin.com/in/adrien-edouard-344841197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC44XKQBvhoeSl5ejCf0DwzE2IZdq2Pbo9o', 'person_name': 'Adrien Edouard', 'profile_description': 'Planneur stratégique junior | Havas Play'}, {'profile_url': 'https://www.linkedin.com/in/cyana-ghazi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmqDYMBCOBnshWJIgAWS36VYhN4gjEm8Go', 'person_name': 'Cyana G.', 'profile_description': 'Product Designer | UX.UI ☀️'}, {'profile_url': 'https://www.linkedin.com/in/corentin-leban?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqaJ4YB2ozuA0-8nOQpJBtPRPpY3lD6y6M', 'person_name': 'Corentin L.', 'profile_description': 'UX designer — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/zuzana-ja%C5%A1kov%C3%A1-59140374?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-4x30BtA_xrL6OwcZmufbBH5I8ccUMPm4', 'person_name': 'Zuzana Jašková', 'profile_description': 'riaditeľka odboru obchodu a správy majetku'}, {'profile_url': 'https://www.linkedin.com/in/cathalyne-faissat-06865638?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAftRdABfu3odlT5DqsdXafLP3_zhMwKVPo', 'person_name': 'Cathalyne Faissat', 'profile_description': 'Consultante en stratégie de contenus chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/viera-dubnick%C3%A1-950852129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-gl8wB7xVoSXRzNv_K-7RGf-qQ1wfglWA', 'person_name': 'Viera Dubnická', 'profile_description': 'Finance Manager'}, {'profile_url': 'https://www.linkedin.com/in/maisy-mcleod-riera-66a533134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDThvIB_e6uSlK4cXPbRuWc0bs1DCz5yXk', 'person_name': 'Maisy McLeod-Riera', 'profile_description': 'Freelance Camera &amp; Video Assistant'}, {'profile_url': 'https://www.linkedin.com/in/swaranjali-bhagat-73802b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKIEFwB9qzh2Hx-0B5H4AMOQaG0eOxhSUQ', 'person_name': 'Swaranjali Bhagat', 'profile_description': 'Interior Designer , self-employed'}, {'profile_url': 'https://www.linkedin.com/in/ishclor-v-371b4542?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkRS8UBSZ3eXU61ibVHsyqdHTBWupvMxKY', 'person_name': 'Ishclor V.', 'profile_description': 'Graduate @ Silwood Cooking School'}, {'profile_url': 'https://www.linkedin.com/in/gloria-ratar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiOxcABlOgs2aEF24akofdaDWv-86nyI-A', 'person_name': 'Gloria Ratar', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/mustafa-ii?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACflYVcBxW3hfZLZ2MAKGPrnH69fYTX46uU', 'person_name': 'Mustafa I.', 'profile_description': 'Scriptwriter by profession, voice actor hobbyist'}]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>13,07 %</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>44,54 %</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>7.697.147 €</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>5.325.196 €</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>44</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>57</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0</t>
+      <c r="A25" t="n">
+        <v>446</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castor &amp; Pollux </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.castoretpollux.com/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['0174880340']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['bonjour@castoretpollux.com']</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/castor-&amp;-pollux</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU', 'person_name': 'Elodie Denaeyer', 'profile_description': 'Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux'}</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/marina-albert-489b50b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiNa6kBY5QaRrekaJGmT6-lo4NzMVZ2p3o', 'person_name': 'Marina Albert', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/jade-pigneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRVCIMB8g3FL8FJkdD5IpntCOmNt3eip8M', 'person_name': 'Jade Pigneau', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo', 'person_name': 'Nicolas RUIZ', 'profile_description': 'Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/nicolasthomassinbd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJANJgBPryPOvtdjnB_SVbXBT5IqdntIdE', 'person_name': 'Nicolas Thomassin', 'profile_description': 'I help brands to achieve their digital marketing objectives @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/morganlaunay?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMQ68BeAWEDjtbmqKk3qV610lw1QL8-YA', 'person_name': 'Morgan Launay', 'profile_description': 'Directeur Castor &amp; Pollux Talents + Associé'}, {'profile_url': 'https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U', 'person_name': 'Julien Cocquerel', 'profile_description': 'Co-fondateur de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-danvers?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuVWbMB9zwD19txHFKXfw6wzsUSBjtGYWI', 'person_name': 'Mathilde Danvers', 'profile_description': 'Marketing digital, e-commerce, chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/victoria-g-a7b3081b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKXX_8B2ZYQkRPqo9wPQJPoU_6IUXA-ghQ', 'person_name': 'Victoria G.', 'profile_description': 'RH (passionnée) | Pure joueuse du digital @Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/alice-laurin-b32aa872?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA93vlYB2YQtzrcJBfNtWebyGbyTMp252Ho', 'person_name': 'Alice Laurin', 'profile_description': 'Directrice de projet et associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-montailler-b1974510b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuyMAUBY43Bh3phD5AcHEXivKnRC3NMszQ', 'person_name': 'Clément Montailler', 'profile_description': 'Directeur Stratégie Social Media Associé — CASTOR&amp;POLLUX | Social Media et Site'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0', 'person_name': 'Raphaël Braud', 'profile_description': 'CTO @ Castor &amp; Pollux | Pur joueur du digital'}, {'profile_url': 'https://www.linkedin.com/in/lucie-delberghe-9807ab150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRszbABq0jOv7HifANduAHJE9MudVHsqC8', 'person_name': 'Lucie Delberghe', 'profile_description': 'Consultante junior chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY', 'person_name': 'Lucille Pheulpin', 'profile_description': 'Présidente de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU', 'person_name': 'Elodie Denaeyer', 'profile_description': 'Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/sashariche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRR6A4BvMZVnP22O7WQsJKXKcHFJILgEY4', 'person_name': 'Sasha Riche', 'profile_description': 'Community Manager Senior chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI', 'person_name': 'Camille Sibille', 'profile_description': 'Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucile-thomas-971b608a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMJT2UBPB-_EUyIDRkH98zQIwdKNYkfBeI', 'person_name': 'Lucile Thomas', 'profile_description': 'Directrice du pôle Social Media et Influence chez Castor &amp; Pollux Groupe'}, {'profile_url': 'https://www.linkedin.com/in/tiphaine-baubinnec-99507675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_ZdQEBS_78FWgSYGfodV_qQSY_b-47HBE', 'person_name': 'Tiphaine Baubinnec', 'profile_description': 'Planneuse stratégique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lanie-kaliciak-484691a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABaGimQBPCQl_smcwdvy5R6fCxsW7D-I8Tg', 'person_name': 'Mélanie Kaliciak', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/francesca-luciano?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJlztQBl56Xa_Y2mIbETcOzZqV6uDtKNuE', 'person_name': 'Francesca Luciano', 'profile_description': 'Communication | Project Management | Sustainability'}, {'profile_url': 'https://www.linkedin.com/in/ambre-matamba-61864a209?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT0YvQBU44HxbboH4DVMI_dFu-688WnDfE', 'person_name': 'Ambre Matamba', 'profile_description': 'Community Manager - Castor &amp; Pollux, agence conseil en communication digitale'}, {'profile_url': 'https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI', 'person_name': 'Stephane Clousier', 'profile_description': 'Co fondateur chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/anna-prylutsky-159b18148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPCy9UB13DMY_-jrKfiFP5mCldBRXkPF6I', 'person_name': 'Anna Prylutsky', 'profile_description': 'Motion Designer, Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/nadine-lakis-5801996a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6fBPABUvxoKxeCOaksxDkG_xQaluRXoXY', 'person_name': 'Nadine Lakis', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0', 'person_name': 'Deborah Boussidan', 'profile_description': 'Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/sandra-klila-96a555174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClfOCIBQVRBZUZ7oHffIrBh1VV7sECoyzE', 'person_name': 'Sandra Klila', 'profile_description': 'Community Manager chez Castor et Pollux'}, {'profile_url': 'https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug', 'person_name': 'Noé Melon', 'profile_description': 'Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa'}, {'profile_url': 'https://www.linkedin.com/in/casllux-torpo-a71423140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACI77DUBkKYr0cz9ylZauaFBRoLFI5-Uvbo', 'person_name': 'Casllux Torpo', 'profile_description': 'Business Developement'}, {'profile_url': 'https://www.linkedin.com/in/aela-marchand-60b002242?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwoMOsBxR9hxA0BTFiv96VWSnz2eOoAzkc', 'person_name': 'Aela Marchand', 'profile_description': 'Etudiante designer graphique'}, {'profile_url': 'https://www.linkedin.com/in/ilona-barbeau-31a04a19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7QeUYBr505Rp0Zerki_7E2hdYizNIxDKI', 'person_name': 'Ilona Barbeau', 'profile_description': 'Étudiante - Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/violette-auger-1b2250156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVpThYB1QXFJPjbMTeSQ-z1u0L3q82-FNY', 'person_name': 'Violette Auger', 'profile_description': 'Copywriter chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/coralie-chatellier-2746a8108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsnqXgBZvUsN0KfiKCFLiZwD1zKgTbHiC4', 'person_name': 'Coralie Chatellier', 'profile_description': 'Social media Manager chez Castor &amp; Pollux - Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/claire-chauve-a5251180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEpWZ4B1Xj8bm8VLAF598g-6fKIu5kluQI', 'person_name': 'Claire Chauve', 'profile_description': 'Consultante Social media manager chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/yohann-le-leuch-3b533bb0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeK43kBiwjVECZwUWo6MtjH7ISK47Z0Aqs', 'person_name': 'Yohann Le Leuch', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/martin-dac?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABWEBuUB8DPxIIFtoMF4OHR96YKq-LFBLw8', 'person_name': 'Martin Dac', 'profile_description': 'Consultant New Business @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/margaux-manget-5b6b25174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl1CxoBvNeD6tONKmWpiBVKtCZR7ozOQEw', 'person_name': 'Margaux Manget', 'profile_description': 'Community Manager Chez Castor&amp;Pollux - Étudiante à l’ISEG Lyon/Paris'}, {'profile_url': 'https://www.linkedin.com/in/camilleplunian?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBEYL8BdZvqQUL3k9l5vkb8UXrLXn0jRl0', 'person_name': 'Camille Plunian', 'profile_description': 'Directrice artistique — Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/gautier-rennes-0a4bb043?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlA73wBn377eUV_P56v5vc6QUXlcKdZm14', 'person_name': 'Gautier Rennes', 'profile_description': 'Directeur du social media, membre du comité de direction'}, {'profile_url': 'https://www.linkedin.com/in/nicolasrolier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmQyqUBIwsI04jO-1cNBFDXThSotnNXWSs', 'person_name': 'Nicolas Rolier', 'profile_description': 'Développeur Drupal'}, {'profile_url': 'https://www.linkedin.com/in/pauline-medigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs-80MBSQOWvIuYEXx0M-7vBE2WgXAjgo8', 'person_name': 'Pauline Médigue', 'profile_description': 'Directrice Artistique'}, {'profile_url': 'https://www.linkedin.com/in/emelineduboquet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2kMDgBddrYka4rNMcrPe8djvKEO_QXozc', 'person_name': 'emeline duboquet', 'profile_description': 'Directrice Artistique Associée — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-boudaya-7a4b721b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLlXOwBfxDeAa9dQke5rBXdloyS2x4yQo4', 'person_name': 'Célia Boudaya', 'profile_description': 'Étudiante en Master 2 de Communication Digitale à l’ECS Paris'}, {'profile_url': 'https://www.linkedin.com/in/antonachos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqtf1ABDTGqn10c1zyrcWzoWk6PKmWPQFM', 'person_name': 'Quentin Antonacci', 'profile_description': 'Directeur Artistique ➡️ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/kimberley-cantin-4059671b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLdk4UBPCdNF8brFpfnWvZUVOc5w-9f12s', 'person_name': 'Kimberley Cantin', 'profile_description': '🚀 Freelance Motion Design | Étudiante BGMD à Gobelins'}, {'profile_url': 'https://www.linkedin.com/in/alexis-bellamy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcD51UB_u5wjIIOeywMw1inul2kHIR7C6A', 'person_name': 'Alexis Bellamy', 'profile_description': 'Développeur Fullstack @ Castor &amp; Pollux | Pur joueur du digital | Team tech 👊👨\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/julia-wolff-61773910?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI-hzMBUWN6ZvJIP2ptrzVo40B_H3XpU4g', 'person_name': 'Julia Wolff', 'profile_description': 'Directrice de Projet Associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/sarah-douma-b84719174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACllqFQBEjxRer3S6RXkBCG_D8ThxZDeTEI', 'person_name': 'Sarah Douma', 'profile_description': 'Directrice artistique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/luciealexandre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzE6XsBCJcxSnfR0lAzSVkqrjiq8M86UnE', 'person_name': 'Lucie Alexandre', 'profile_description': 'Infographiste chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/celine-smadja-07a479149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPXtB4BHu_oFHlm_kfdKTCsmf8YCzHgsAQ', 'person_name': 'Celine Smadja', 'profile_description': 'Responsable administratif chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/am%C3%A9ly-martinez-57903998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSmcu0BlHhBi67HVs5Sn_Ipjhlsg9WIu1c', 'person_name': 'Amély Martinez', 'profile_description': 'Consultante chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/maria-melida-trochez-osorio-a26316196?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC33Az4B9yhHcAivZHmqEnuK4TukVhCJbb0', 'person_name': 'Maria Melida TROCHEZ OSORIO', 'profile_description': "agent d'entretien en Castor &amp; Pollux, Agence conseil en communication digitale."}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-gomes-9a953962?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0_0VEBSFiWyT2pflm1pLvE5Xe5TL0wUbc', 'person_name': 'Cédric Gomes', 'profile_description': 'Copywriter @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/christian-mcintire-a3112020a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUOE8UBRyiBdipNyzePHgIiVkGh20VoTLQ', 'person_name': 'CHRISTIAN McIntire', 'profile_description': 'Fine Gemstone sales and acquisition.'}, {'profile_url': 'https://www.linkedin.com/in/adrien-edouard-344841197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC44XKQBvhoeSl5ejCf0DwzE2IZdq2Pbo9o', 'person_name': 'Adrien Edouard', 'profile_description': 'Planneur stratégique junior | Havas Play'}, {'profile_url': 'https://www.linkedin.com/in/cyana-ghazi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmqDYMBCOBnshWJIgAWS36VYhN4gjEm8Go', 'person_name': 'Cyana G.', 'profile_description': 'Product Designer | UX.UI ☀️'}, {'profile_url': 'https://www.linkedin.com/in/corentin-leban?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqaJ4YB2ozuA0-8nOQpJBtPRPpY3lD6y6M', 'person_name': 'Corentin L.', 'profile_description': 'UX designer — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/zuzana-ja%C5%A1kov%C3%A1-59140374?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-4x30BtA_xrL6OwcZmufbBH5I8ccUMPm4', 'person_name': 'Zuzana Jašková', 'profile_description': 'riaditeľka odboru obchodu a správy majetku'}, {'profile_url': 'https://www.linkedin.com/in/cathalyne-faissat-06865638?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAftRdABfu3odlT5DqsdXafLP3_zhMwKVPo', 'person_name': 'Cathalyne Faissat', 'profile_description': 'Consultante en stratégie de contenus chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/viera-dubnick%C3%A1-950852129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-gl8wB7xVoSXRzNv_K-7RGf-qQ1wfglWA', 'person_name': 'Viera Dubnická', 'profile_description': 'Finance Manager'}, {'profile_url': 'https://www.linkedin.com/in/maisy-mcleod-riera-66a533134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDThvIB_e6uSlK4cXPbRuWc0bs1DCz5yXk', 'person_name': 'Maisy McLeod-Riera', 'profile_description': 'Freelance Camera &amp; Video Assistant'}, {'profile_url': 'https://www.linkedin.com/in/swaranjali-bhagat-73802b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKIEFwB9qzh2Hx-0B5H4AMOQaG0eOxhSUQ', 'person_name': 'Swaranjali Bhagat', 'profile_description': 'Interior Designer , self-employed'}, {'profile_url': 'https://www.linkedin.com/in/ishclor-v-371b4542?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkRS8UBSZ3eXU61ibVHsyqdHTBWupvMxKY', 'person_name': 'Ishclor V.', 'profile_description': 'Graduate @ Silwood Cooking School'}, {'profile_url': 'https://www.linkedin.com/in/gloria-ratar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiOxcABlOgs2aEF24akofdaDWv-86nyI-A', 'person_name': 'Gloria Ratar', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/mustafa-ii?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACflYVcBxW3hfZLZ2MAKGPrnH69fYTX46uU', 'person_name': 'Mustafa I.', 'profile_description': 'Scriptwriter by profession, voice actor hobbyist'}]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>13,07 %</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>44,54 %</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>7.697.147 €</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>5.325.196 €</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>44</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>57</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY</t>
+      <c r="A26" t="n">
+        <v>446</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castor &amp; Pollux </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.castoretpollux.com/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['0174880340']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['bonjour@castoretpollux.com']</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/castor-&amp;-pollux</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0', 'person_name': 'Raphaël Braud', 'profile_description': 'CTO @ Castor &amp; Pollux | Pur joueur du digital'}</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CTO @ Castor &amp; Pollux | Pur joueur du digital</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/marina-albert-489b50b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiNa6kBY5QaRrekaJGmT6-lo4NzMVZ2p3o', 'person_name': 'Marina Albert', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/jade-pigneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRVCIMB8g3FL8FJkdD5IpntCOmNt3eip8M', 'person_name': 'Jade Pigneau', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo', 'person_name': 'Nicolas RUIZ', 'profile_description': 'Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/nicolasthomassinbd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJANJgBPryPOvtdjnB_SVbXBT5IqdntIdE', 'person_name': 'Nicolas Thomassin', 'profile_description': 'I help brands to achieve their digital marketing objectives @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/morganlaunay?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMQ68BeAWEDjtbmqKk3qV610lw1QL8-YA', 'person_name': 'Morgan Launay', 'profile_description': 'Directeur Castor &amp; Pollux Talents + Associé'}, {'profile_url': 'https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U', 'person_name': 'Julien Cocquerel', 'profile_description': 'Co-fondateur de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-danvers?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuVWbMB9zwD19txHFKXfw6wzsUSBjtGYWI', 'person_name': 'Mathilde Danvers', 'profile_description': 'Marketing digital, e-commerce, chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/victoria-g-a7b3081b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKXX_8B2ZYQkRPqo9wPQJPoU_6IUXA-ghQ', 'person_name': 'Victoria G.', 'profile_description': 'RH (passionnée) | Pure joueuse du digital @Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/alice-laurin-b32aa872?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA93vlYB2YQtzrcJBfNtWebyGbyTMp252Ho', 'person_name': 'Alice Laurin', 'profile_description': 'Directrice de projet et associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-montailler-b1974510b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuyMAUBY43Bh3phD5AcHEXivKnRC3NMszQ', 'person_name': 'Clément Montailler', 'profile_description': 'Directeur Stratégie Social Media Associé — CASTOR&amp;POLLUX | Social Media et Site'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0', 'person_name': 'Raphaël Braud', 'profile_description': 'CTO @ Castor &amp; Pollux | Pur joueur du digital'}, {'profile_url': 'https://www.linkedin.com/in/lucie-delberghe-9807ab150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRszbABq0jOv7HifANduAHJE9MudVHsqC8', 'person_name': 'Lucie Delberghe', 'profile_description': 'Consultante junior chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY', 'person_name': 'Lucille Pheulpin', 'profile_description': 'Présidente de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU', 'person_name': 'Elodie Denaeyer', 'profile_description': 'Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/sashariche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRR6A4BvMZVnP22O7WQsJKXKcHFJILgEY4', 'person_name': 'Sasha Riche', 'profile_description': 'Community Manager Senior chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI', 'person_name': 'Camille Sibille', 'profile_description': 'Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucile-thomas-971b608a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMJT2UBPB-_EUyIDRkH98zQIwdKNYkfBeI', 'person_name': 'Lucile Thomas', 'profile_description': 'Directrice du pôle Social Media et Influence chez Castor &amp; Pollux Groupe'}, {'profile_url': 'https://www.linkedin.com/in/tiphaine-baubinnec-99507675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_ZdQEBS_78FWgSYGfodV_qQSY_b-47HBE', 'person_name': 'Tiphaine Baubinnec', 'profile_description': 'Planneuse stratégique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lanie-kaliciak-484691a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABaGimQBPCQl_smcwdvy5R6fCxsW7D-I8Tg', 'person_name': 'Mélanie Kaliciak', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/francesca-luciano?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJlztQBl56Xa_Y2mIbETcOzZqV6uDtKNuE', 'person_name': 'Francesca Luciano', 'profile_description': 'Communication | Project Management | Sustainability'}, {'profile_url': 'https://www.linkedin.com/in/ambre-matamba-61864a209?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT0YvQBU44HxbboH4DVMI_dFu-688WnDfE', 'person_name': 'Ambre Matamba', 'profile_description': 'Community Manager - Castor &amp; Pollux, agence conseil en communication digitale'}, {'profile_url': 'https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI', 'person_name': 'Stephane Clousier', 'profile_description': 'Co fondateur chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/anna-prylutsky-159b18148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPCy9UB13DMY_-jrKfiFP5mCldBRXkPF6I', 'person_name': 'Anna Prylutsky', 'profile_description': 'Motion Designer, Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/nadine-lakis-5801996a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6fBPABUvxoKxeCOaksxDkG_xQaluRXoXY', 'person_name': 'Nadine Lakis', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0', 'person_name': 'Deborah Boussidan', 'profile_description': 'Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/sandra-klila-96a555174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClfOCIBQVRBZUZ7oHffIrBh1VV7sECoyzE', 'person_name': 'Sandra Klila', 'profile_description': 'Community Manager chez Castor et Pollux'}, {'profile_url': 'https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug', 'person_name': 'Noé Melon', 'profile_description': 'Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa'}, {'profile_url': 'https://www.linkedin.com/in/casllux-torpo-a71423140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACI77DUBkKYr0cz9ylZauaFBRoLFI5-Uvbo', 'person_name': 'Casllux Torpo', 'profile_description': 'Business Developement'}, {'profile_url': 'https://www.linkedin.com/in/aela-marchand-60b002242?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwoMOsBxR9hxA0BTFiv96VWSnz2eOoAzkc', 'person_name': 'Aela Marchand', 'profile_description': 'Etudiante designer graphique'}, {'profile_url': 'https://www.linkedin.com/in/ilona-barbeau-31a04a19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7QeUYBr505Rp0Zerki_7E2hdYizNIxDKI', 'person_name': 'Ilona Barbeau', 'profile_description': 'Étudiante - Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/violette-auger-1b2250156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVpThYB1QXFJPjbMTeSQ-z1u0L3q82-FNY', 'person_name': 'Violette Auger', 'profile_description': 'Copywriter chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/coralie-chatellier-2746a8108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsnqXgBZvUsN0KfiKCFLiZwD1zKgTbHiC4', 'person_name': 'Coralie Chatellier', 'profile_description': 'Social media Manager chez Castor &amp; Pollux - Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/claire-chauve-a5251180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEpWZ4B1Xj8bm8VLAF598g-6fKIu5kluQI', 'person_name': 'Claire Chauve', 'profile_description': 'Consultante Social media manager chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/yohann-le-leuch-3b533bb0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeK43kBiwjVECZwUWo6MtjH7ISK47Z0Aqs', 'person_name': 'Yohann Le Leuch', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/martin-dac?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABWEBuUB8DPxIIFtoMF4OHR96YKq-LFBLw8', 'person_name': 'Martin Dac', 'profile_description': 'Consultant New Business @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/margaux-manget-5b6b25174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl1CxoBvNeD6tONKmWpiBVKtCZR7ozOQEw', 'person_name': 'Margaux Manget', 'profile_description': 'Community Manager Chez Castor&amp;Pollux - Étudiante à l’ISEG Lyon/Paris'}, {'profile_url': 'https://www.linkedin.com/in/camilleplunian?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBEYL8BdZvqQUL3k9l5vkb8UXrLXn0jRl0', 'person_name': 'Camille Plunian', 'profile_description': 'Directrice artistique — Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/gautier-rennes-0a4bb043?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlA73wBn377eUV_P56v5vc6QUXlcKdZm14', 'person_name': 'Gautier Rennes', 'profile_description': 'Directeur du social media, membre du comité de direction'}, {'profile_url': 'https://www.linkedin.com/in/nicolasrolier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmQyqUBIwsI04jO-1cNBFDXThSotnNXWSs', 'person_name': 'Nicolas Rolier', 'profile_description': 'Développeur Drupal'}, {'profile_url': 'https://www.linkedin.com/in/pauline-medigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs-80MBSQOWvIuYEXx0M-7vBE2WgXAjgo8', 'person_name': 'Pauline Médigue', 'profile_description': 'Directrice Artistique'}, {'profile_url': 'https://www.linkedin.com/in/emelineduboquet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2kMDgBddrYka4rNMcrPe8djvKEO_QXozc', 'person_name': 'emeline duboquet', 'profile_description': 'Directrice Artistique Associée — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-boudaya-7a4b721b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLlXOwBfxDeAa9dQke5rBXdloyS2x4yQo4', 'person_name': 'Célia Boudaya', 'profile_description': 'Étudiante en Master 2 de Communication Digitale à l’ECS Paris'}, {'profile_url': 'https://www.linkedin.com/in/antonachos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqtf1ABDTGqn10c1zyrcWzoWk6PKmWPQFM', 'person_name': 'Quentin Antonacci', 'profile_description': 'Directeur Artistique ➡️ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/kimberley-cantin-4059671b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLdk4UBPCdNF8brFpfnWvZUVOc5w-9f12s', 'person_name': 'Kimberley Cantin', 'profile_description': '🚀 Freelance Motion Design | Étudiante BGMD à Gobelins'}, {'profile_url': 'https://www.linkedin.com/in/alexis-bellamy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcD51UB_u5wjIIOeywMw1inul2kHIR7C6A', 'person_name': 'Alexis Bellamy', 'profile_description': 'Développeur Fullstack @ Castor &amp; Pollux | Pur joueur du digital | Team tech 👊👨\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/julia-wolff-61773910?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI-hzMBUWN6ZvJIP2ptrzVo40B_H3XpU4g', 'person_name': 'Julia Wolff', 'profile_description': 'Directrice de Projet Associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/sarah-douma-b84719174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACllqFQBEjxRer3S6RXkBCG_D8ThxZDeTEI', 'person_name': 'Sarah Douma', 'profile_description': 'Directrice artistique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/luciealexandre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzE6XsBCJcxSnfR0lAzSVkqrjiq8M86UnE', 'person_name': 'Lucie Alexandre', 'profile_description': 'Infographiste chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/celine-smadja-07a479149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPXtB4BHu_oFHlm_kfdKTCsmf8YCzHgsAQ', 'person_name': 'Celine Smadja', 'profile_description': 'Responsable administratif chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/am%C3%A9ly-martinez-57903998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSmcu0BlHhBi67HVs5Sn_Ipjhlsg9WIu1c', 'person_name': 'Amély Martinez', 'profile_description': 'Consultante chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/maria-melida-trochez-osorio-a26316196?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC33Az4B9yhHcAivZHmqEnuK4TukVhCJbb0', 'person_name': 'Maria Melida TROCHEZ OSORIO', 'profile_description': "agent d'entretien en Castor &amp; Pollux, Agence conseil en communication digitale."}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-gomes-9a953962?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0_0VEBSFiWyT2pflm1pLvE5Xe5TL0wUbc', 'person_name': 'Cédric Gomes', 'profile_description': 'Copywriter @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/christian-mcintire-a3112020a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUOE8UBRyiBdipNyzePHgIiVkGh20VoTLQ', 'person_name': 'CHRISTIAN McIntire', 'profile_description': 'Fine Gemstone sales and acquisition.'}, {'profile_url': 'https://www.linkedin.com/in/adrien-edouard-344841197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC44XKQBvhoeSl5ejCf0DwzE2IZdq2Pbo9o', 'person_name': 'Adrien Edouard', 'profile_description': 'Planneur stratégique junior | Havas Play'}, {'profile_url': 'https://www.linkedin.com/in/cyana-ghazi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmqDYMBCOBnshWJIgAWS36VYhN4gjEm8Go', 'person_name': 'Cyana G.', 'profile_description': 'Product Designer | UX.UI ☀️'}, {'profile_url': 'https://www.linkedin.com/in/corentin-leban?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqaJ4YB2ozuA0-8nOQpJBtPRPpY3lD6y6M', 'person_name': 'Corentin L.', 'profile_description': 'UX designer — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/zuzana-ja%C5%A1kov%C3%A1-59140374?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-4x30BtA_xrL6OwcZmufbBH5I8ccUMPm4', 'person_name': 'Zuzana Jašková', 'profile_description': 'riaditeľka odboru obchodu a správy majetku'}, {'profile_url': 'https://www.linkedin.com/in/cathalyne-faissat-06865638?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAftRdABfu3odlT5DqsdXafLP3_zhMwKVPo', 'person_name': 'Cathalyne Faissat', 'profile_description': 'Consultante en stratégie de contenus chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/viera-dubnick%C3%A1-950852129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-gl8wB7xVoSXRzNv_K-7RGf-qQ1wfglWA', 'person_name': 'Viera Dubnická', 'profile_description': 'Finance Manager'}, {'profile_url': 'https://www.linkedin.com/in/maisy-mcleod-riera-66a533134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDThvIB_e6uSlK4cXPbRuWc0bs1DCz5yXk', 'person_name': 'Maisy McLeod-Riera', 'profile_description': 'Freelance Camera &amp; Video Assistant'}, {'profile_url': 'https://www.linkedin.com/in/swaranjali-bhagat-73802b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKIEFwB9qzh2Hx-0B5H4AMOQaG0eOxhSUQ', 'person_name': 'Swaranjali Bhagat', 'profile_description': 'Interior Designer , self-employed'}, {'profile_url': 'https://www.linkedin.com/in/ishclor-v-371b4542?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkRS8UBSZ3eXU61ibVHsyqdHTBWupvMxKY', 'person_name': 'Ishclor V.', 'profile_description': 'Graduate @ Silwood Cooking School'}, {'profile_url': 'https://www.linkedin.com/in/gloria-ratar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiOxcABlOgs2aEF24akofdaDWv-86nyI-A', 'person_name': 'Gloria Ratar', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/mustafa-ii?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACflYVcBxW3hfZLZ2MAKGPrnH69fYTX46uU', 'person_name': 'Mustafa I.', 'profile_description': 'Scriptwriter by profession, voice actor hobbyist'}]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>13,07 %</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>44,54 %</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>7.697.147 €</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>5.325.196 €</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>44</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>57</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU</t>
+      <c r="A27" t="n">
+        <v>446</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castor &amp; Pollux </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.castoretpollux.com/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['0174880340']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['bonjour@castoretpollux.com']</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/castor-&amp;-pollux</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI', 'person_name': 'Camille Sibille', 'profile_description': 'Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux'}</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/marina-albert-489b50b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiNa6kBY5QaRrekaJGmT6-lo4NzMVZ2p3o', 'person_name': 'Marina Albert', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/jade-pigneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRVCIMB8g3FL8FJkdD5IpntCOmNt3eip8M', 'person_name': 'Jade Pigneau', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo', 'person_name': 'Nicolas RUIZ', 'profile_description': 'Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/nicolasthomassinbd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJANJgBPryPOvtdjnB_SVbXBT5IqdntIdE', 'person_name': 'Nicolas Thomassin', 'profile_description': 'I help brands to achieve their digital marketing objectives @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/morganlaunay?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMQ68BeAWEDjtbmqKk3qV610lw1QL8-YA', 'person_name': 'Morgan Launay', 'profile_description': 'Directeur Castor &amp; Pollux Talents + Associé'}, {'profile_url': 'https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U', 'person_name': 'Julien Cocquerel', 'profile_description': 'Co-fondateur de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-danvers?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuVWbMB9zwD19txHFKXfw6wzsUSBjtGYWI', 'person_name': 'Mathilde Danvers', 'profile_description': 'Marketing digital, e-commerce, chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/victoria-g-a7b3081b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKXX_8B2ZYQkRPqo9wPQJPoU_6IUXA-ghQ', 'person_name': 'Victoria G.', 'profile_description': 'RH (passionnée) | Pure joueuse du digital @Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/alice-laurin-b32aa872?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA93vlYB2YQtzrcJBfNtWebyGbyTMp252Ho', 'person_name': 'Alice Laurin', 'profile_description': 'Directrice de projet et associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-montailler-b1974510b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuyMAUBY43Bh3phD5AcHEXivKnRC3NMszQ', 'person_name': 'Clément Montailler', 'profile_description': 'Directeur Stratégie Social Media Associé — CASTOR&amp;POLLUX | Social Media et Site'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0', 'person_name': 'Raphaël Braud', 'profile_description': 'CTO @ Castor &amp; Pollux | Pur joueur du digital'}, {'profile_url': 'https://www.linkedin.com/in/lucie-delberghe-9807ab150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRszbABq0jOv7HifANduAHJE9MudVHsqC8', 'person_name': 'Lucie Delberghe', 'profile_description': 'Consultante junior chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY', 'person_name': 'Lucille Pheulpin', 'profile_description': 'Présidente de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU', 'person_name': 'Elodie Denaeyer', 'profile_description': 'Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/sashariche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRR6A4BvMZVnP22O7WQsJKXKcHFJILgEY4', 'person_name': 'Sasha Riche', 'profile_description': 'Community Manager Senior chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI', 'person_name': 'Camille Sibille', 'profile_description': 'Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucile-thomas-971b608a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMJT2UBPB-_EUyIDRkH98zQIwdKNYkfBeI', 'person_name': 'Lucile Thomas', 'profile_description': 'Directrice du pôle Social Media et Influence chez Castor &amp; Pollux Groupe'}, {'profile_url': 'https://www.linkedin.com/in/tiphaine-baubinnec-99507675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_ZdQEBS_78FWgSYGfodV_qQSY_b-47HBE', 'person_name': 'Tiphaine Baubinnec', 'profile_description': 'Planneuse stratégique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lanie-kaliciak-484691a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABaGimQBPCQl_smcwdvy5R6fCxsW7D-I8Tg', 'person_name': 'Mélanie Kaliciak', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/francesca-luciano?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJlztQBl56Xa_Y2mIbETcOzZqV6uDtKNuE', 'person_name': 'Francesca Luciano', 'profile_description': 'Communication | Project Management | Sustainability'}, {'profile_url': 'https://www.linkedin.com/in/ambre-matamba-61864a209?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT0YvQBU44HxbboH4DVMI_dFu-688WnDfE', 'person_name': 'Ambre Matamba', 'profile_description': 'Community Manager - Castor &amp; Pollux, agence conseil en communication digitale'}, {'profile_url': 'https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI', 'person_name': 'Stephane Clousier', 'profile_description': 'Co fondateur chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/anna-prylutsky-159b18148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPCy9UB13DMY_-jrKfiFP5mCldBRXkPF6I', 'person_name': 'Anna Prylutsky', 'profile_description': 'Motion Designer, Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/nadine-lakis-5801996a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6fBPABUvxoKxeCOaksxDkG_xQaluRXoXY', 'person_name': 'Nadine Lakis', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0', 'person_name': 'Deborah Boussidan', 'profile_description': 'Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/sandra-klila-96a555174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClfOCIBQVRBZUZ7oHffIrBh1VV7sECoyzE', 'person_name': 'Sandra Klila', 'profile_description': 'Community Manager chez Castor et Pollux'}, {'profile_url': 'https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug', 'person_name': 'Noé Melon', 'profile_description': 'Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa'}, {'profile_url': 'https://www.linkedin.com/in/casllux-torpo-a71423140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACI77DUBkKYr0cz9ylZauaFBRoLFI5-Uvbo', 'person_name': 'Casllux Torpo', 'profile_description': 'Business Developement'}, {'profile_url': 'https://www.linkedin.com/in/aela-marchand-60b002242?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwoMOsBxR9hxA0BTFiv96VWSnz2eOoAzkc', 'person_name': 'Aela Marchand', 'profile_description': 'Etudiante designer graphique'}, {'profile_url': 'https://www.linkedin.com/in/ilona-barbeau-31a04a19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7QeUYBr505Rp0Zerki_7E2hdYizNIxDKI', 'person_name': 'Ilona Barbeau', 'profile_description': 'Étudiante - Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/violette-auger-1b2250156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVpThYB1QXFJPjbMTeSQ-z1u0L3q82-FNY', 'person_name': 'Violette Auger', 'profile_description': 'Copywriter chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/coralie-chatellier-2746a8108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsnqXgBZvUsN0KfiKCFLiZwD1zKgTbHiC4', 'person_name': 'Coralie Chatellier', 'profile_description': 'Social media Manager chez Castor &amp; Pollux - Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/claire-chauve-a5251180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEpWZ4B1Xj8bm8VLAF598g-6fKIu5kluQI', 'person_name': 'Claire Chauve', 'profile_description': 'Consultante Social media manager chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/yohann-le-leuch-3b533bb0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeK43kBiwjVECZwUWo6MtjH7ISK47Z0Aqs', 'person_name': 'Yohann Le Leuch', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/martin-dac?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABWEBuUB8DPxIIFtoMF4OHR96YKq-LFBLw8', 'person_name': 'Martin Dac', 'profile_description': 'Consultant New Business @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/margaux-manget-5b6b25174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl1CxoBvNeD6tONKmWpiBVKtCZR7ozOQEw', 'person_name': 'Margaux Manget', 'profile_description': 'Community Manager Chez Castor&amp;Pollux - Étudiante à l’ISEG Lyon/Paris'}, {'profile_url': 'https://www.linkedin.com/in/camilleplunian?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBEYL8BdZvqQUL3k9l5vkb8UXrLXn0jRl0', 'person_name': 'Camille Plunian', 'profile_description': 'Directrice artistique — Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/gautier-rennes-0a4bb043?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlA73wBn377eUV_P56v5vc6QUXlcKdZm14', 'person_name': 'Gautier Rennes', 'profile_description': 'Directeur du social media, membre du comité de direction'}, {'profile_url': 'https://www.linkedin.com/in/nicolasrolier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmQyqUBIwsI04jO-1cNBFDXThSotnNXWSs', 'person_name': 'Nicolas Rolier', 'profile_description': 'Développeur Drupal'}, {'profile_url': 'https://www.linkedin.com/in/pauline-medigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs-80MBSQOWvIuYEXx0M-7vBE2WgXAjgo8', 'person_name': 'Pauline Médigue', 'profile_description': 'Directrice Artistique'}, {'profile_url': 'https://www.linkedin.com/in/emelineduboquet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2kMDgBddrYka4rNMcrPe8djvKEO_QXozc', 'person_name': 'emeline duboquet', 'profile_description': 'Directrice Artistique Associée — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-boudaya-7a4b721b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLlXOwBfxDeAa9dQke5rBXdloyS2x4yQo4', 'person_name': 'Célia Boudaya', 'profile_description': 'Étudiante en Master 2 de Communication Digitale à l’ECS Paris'}, {'profile_url': 'https://www.linkedin.com/in/antonachos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqtf1ABDTGqn10c1zyrcWzoWk6PKmWPQFM', 'person_name': 'Quentin Antonacci', 'profile_description': 'Directeur Artistique ➡️ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/kimberley-cantin-4059671b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLdk4UBPCdNF8brFpfnWvZUVOc5w-9f12s', 'person_name': 'Kimberley Cantin', 'profile_description': '🚀 Freelance Motion Design | Étudiante BGMD à Gobelins'}, {'profile_url': 'https://www.linkedin.com/in/alexis-bellamy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcD51UB_u5wjIIOeywMw1inul2kHIR7C6A', 'person_name': 'Alexis Bellamy', 'profile_description': 'Développeur Fullstack @ Castor &amp; Pollux | Pur joueur du digital | Team tech 👊👨\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/julia-wolff-61773910?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI-hzMBUWN6ZvJIP2ptrzVo40B_H3XpU4g', 'person_name': 'Julia Wolff', 'profile_description': 'Directrice de Projet Associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/sarah-douma-b84719174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACllqFQBEjxRer3S6RXkBCG_D8ThxZDeTEI', 'person_name': 'Sarah Douma', 'profile_description': 'Directrice artistique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/luciealexandre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzE6XsBCJcxSnfR0lAzSVkqrjiq8M86UnE', 'person_name': 'Lucie Alexandre', 'profile_description': 'Infographiste chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/celine-smadja-07a479149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPXtB4BHu_oFHlm_kfdKTCsmf8YCzHgsAQ', 'person_name': 'Celine Smadja', 'profile_description': 'Responsable administratif chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/am%C3%A9ly-martinez-57903998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSmcu0BlHhBi67HVs5Sn_Ipjhlsg9WIu1c', 'person_name': 'Amély Martinez', 'profile_description': 'Consultante chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/maria-melida-trochez-osorio-a26316196?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC33Az4B9yhHcAivZHmqEnuK4TukVhCJbb0', 'person_name': 'Maria Melida TROCHEZ OSORIO', 'profile_description': "agent d'entretien en Castor &amp; Pollux, Agence conseil en communication digitale."}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-gomes-9a953962?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0_0VEBSFiWyT2pflm1pLvE5Xe5TL0wUbc', 'person_name': 'Cédric Gomes', 'profile_description': 'Copywriter @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/christian-mcintire-a3112020a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUOE8UBRyiBdipNyzePHgIiVkGh20VoTLQ', 'person_name': 'CHRISTIAN McIntire', 'profile_description': 'Fine Gemstone sales and acquisition.'}, {'profile_url': 'https://www.linkedin.com/in/adrien-edouard-344841197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC44XKQBvhoeSl5ejCf0DwzE2IZdq2Pbo9o', 'person_name': 'Adrien Edouard', 'profile_description': 'Planneur stratégique junior | Havas Play'}, {'profile_url': 'https://www.linkedin.com/in/cyana-ghazi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmqDYMBCOBnshWJIgAWS36VYhN4gjEm8Go', 'person_name': 'Cyana G.', 'profile_description': 'Product Designer | UX.UI ☀️'}, {'profile_url': 'https://www.linkedin.com/in/corentin-leban?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqaJ4YB2ozuA0-8nOQpJBtPRPpY3lD6y6M', 'person_name': 'Corentin L.', 'profile_description': 'UX designer — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/zuzana-ja%C5%A1kov%C3%A1-59140374?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-4x30BtA_xrL6OwcZmufbBH5I8ccUMPm4', 'person_name': 'Zuzana Jašková', 'profile_description': 'riaditeľka odboru obchodu a správy majetku'}, {'profile_url': 'https://www.linkedin.com/in/cathalyne-faissat-06865638?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAftRdABfu3odlT5DqsdXafLP3_zhMwKVPo', 'person_name': 'Cathalyne Faissat', 'profile_description': 'Consultante en stratégie de contenus chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/viera-dubnick%C3%A1-950852129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-gl8wB7xVoSXRzNv_K-7RGf-qQ1wfglWA', 'person_name': 'Viera Dubnická', 'profile_description': 'Finance Manager'}, {'profile_url': 'https://www.linkedin.com/in/maisy-mcleod-riera-66a533134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDThvIB_e6uSlK4cXPbRuWc0bs1DCz5yXk', 'person_name': 'Maisy McLeod-Riera', 'profile_description': 'Freelance Camera &amp; Video Assistant'}, {'profile_url': 'https://www.linkedin.com/in/swaranjali-bhagat-73802b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKIEFwB9qzh2Hx-0B5H4AMOQaG0eOxhSUQ', 'person_name': 'Swaranjali Bhagat', 'profile_description': 'Interior Designer , self-employed'}, {'profile_url': 'https://www.linkedin.com/in/ishclor-v-371b4542?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkRS8UBSZ3eXU61ibVHsyqdHTBWupvMxKY', 'person_name': 'Ishclor V.', 'profile_description': 'Graduate @ Silwood Cooking School'}, {'profile_url': 'https://www.linkedin.com/in/gloria-ratar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiOxcABlOgs2aEF24akofdaDWv-86nyI-A', 'person_name': 'Gloria Ratar', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/mustafa-ii?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACflYVcBxW3hfZLZ2MAKGPrnH69fYTX46uU', 'person_name': 'Mustafa I.', 'profile_description': 'Scriptwriter by profession, voice actor hobbyist'}]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>13,07 %</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>44,54 %</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>7.697.147 €</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>5.325.196 €</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>44</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>57</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0</t>
+      <c r="A28" t="n">
+        <v>446</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castor &amp; Pollux </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.castoretpollux.com/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['0174880340']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['bonjour@castoretpollux.com']</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/castor-&amp;-pollux</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo', 'person_name': 'Nicolas RUIZ', 'profile_description': 'Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.'}</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/marina-albert-489b50b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiNa6kBY5QaRrekaJGmT6-lo4NzMVZ2p3o', 'person_name': 'Marina Albert', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/jade-pigneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRVCIMB8g3FL8FJkdD5IpntCOmNt3eip8M', 'person_name': 'Jade Pigneau', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo', 'person_name': 'Nicolas RUIZ', 'profile_description': 'Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/nicolasthomassinbd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJANJgBPryPOvtdjnB_SVbXBT5IqdntIdE', 'person_name': 'Nicolas Thomassin', 'profile_description': 'I help brands to achieve their digital marketing objectives @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/morganlaunay?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMQ68BeAWEDjtbmqKk3qV610lw1QL8-YA', 'person_name': 'Morgan Launay', 'profile_description': 'Directeur Castor &amp; Pollux Talents + Associé'}, {'profile_url': 'https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U', 'person_name': 'Julien Cocquerel', 'profile_description': 'Co-fondateur de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-danvers?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuVWbMB9zwD19txHFKXfw6wzsUSBjtGYWI', 'person_name': 'Mathilde Danvers', 'profile_description': 'Marketing digital, e-commerce, chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/victoria-g-a7b3081b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKXX_8B2ZYQkRPqo9wPQJPoU_6IUXA-ghQ', 'person_name': 'Victoria G.', 'profile_description': 'RH (passionnée) | Pure joueuse du digital @Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/alice-laurin-b32aa872?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA93vlYB2YQtzrcJBfNtWebyGbyTMp252Ho', 'person_name': 'Alice Laurin', 'profile_description': 'Directrice de projet et associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-montailler-b1974510b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuyMAUBY43Bh3phD5AcHEXivKnRC3NMszQ', 'person_name': 'Clément Montailler', 'profile_description': 'Directeur Stratégie Social Media Associé — CASTOR&amp;POLLUX | Social Media et Site'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0', 'person_name': 'Raphaël Braud', 'profile_description': 'CTO @ Castor &amp; Pollux | Pur joueur du digital'}, {'profile_url': 'https://www.linkedin.com/in/lucie-delberghe-9807ab150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRszbABq0jOv7HifANduAHJE9MudVHsqC8', 'person_name': 'Lucie Delberghe', 'profile_description': 'Consultante junior chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY', 'person_name': 'Lucille Pheulpin', 'profile_description': 'Présidente de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU', 'person_name': 'Elodie Denaeyer', 'profile_description': 'Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/sashariche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRR6A4BvMZVnP22O7WQsJKXKcHFJILgEY4', 'person_name': 'Sasha Riche', 'profile_description': 'Community Manager Senior chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI', 'person_name': 'Camille Sibille', 'profile_description': 'Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucile-thomas-971b608a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMJT2UBPB-_EUyIDRkH98zQIwdKNYkfBeI', 'person_name': 'Lucile Thomas', 'profile_description': 'Directrice du pôle Social Media et Influence chez Castor &amp; Pollux Groupe'}, {'profile_url': 'https://www.linkedin.com/in/tiphaine-baubinnec-99507675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_ZdQEBS_78FWgSYGfodV_qQSY_b-47HBE', 'person_name': 'Tiphaine Baubinnec', 'profile_description': 'Planneuse stratégique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lanie-kaliciak-484691a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABaGimQBPCQl_smcwdvy5R6fCxsW7D-I8Tg', 'person_name': 'Mélanie Kaliciak', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/francesca-luciano?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJlztQBl56Xa_Y2mIbETcOzZqV6uDtKNuE', 'person_name': 'Francesca Luciano', 'profile_description': 'Communication | Project Management | Sustainability'}, {'profile_url': 'https://www.linkedin.com/in/ambre-matamba-61864a209?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT0YvQBU44HxbboH4DVMI_dFu-688WnDfE', 'person_name': 'Ambre Matamba', 'profile_description': 'Community Manager - Castor &amp; Pollux, agence conseil en communication digitale'}, {'profile_url': 'https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI', 'person_name': 'Stephane Clousier', 'profile_description': 'Co fondateur chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/anna-prylutsky-159b18148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPCy9UB13DMY_-jrKfiFP5mCldBRXkPF6I', 'person_name': 'Anna Prylutsky', 'profile_description': 'Motion Designer, Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/nadine-lakis-5801996a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6fBPABUvxoKxeCOaksxDkG_xQaluRXoXY', 'person_name': 'Nadine Lakis', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0', 'person_name': 'Deborah Boussidan', 'profile_description': 'Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/sandra-klila-96a555174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClfOCIBQVRBZUZ7oHffIrBh1VV7sECoyzE', 'person_name': 'Sandra Klila', 'profile_description': 'Community Manager chez Castor et Pollux'}, {'profile_url': 'https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug', 'person_name': 'Noé Melon', 'profile_description': 'Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa'}, {'profile_url': 'https://www.linkedin.com/in/casllux-torpo-a71423140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACI77DUBkKYr0cz9ylZauaFBRoLFI5-Uvbo', 'person_name': 'Casllux Torpo', 'profile_description': 'Business Developement'}, {'profile_url': 'https://www.linkedin.com/in/aela-marchand-60b002242?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwoMOsBxR9hxA0BTFiv96VWSnz2eOoAzkc', 'person_name': 'Aela Marchand', 'profile_description': 'Etudiante designer graphique'}, {'profile_url': 'https://www.linkedin.com/in/ilona-barbeau-31a04a19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7QeUYBr505Rp0Zerki_7E2hdYizNIxDKI', 'person_name': 'Ilona Barbeau', 'profile_description': 'Étudiante - Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/violette-auger-1b2250156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVpThYB1QXFJPjbMTeSQ-z1u0L3q82-FNY', 'person_name': 'Violette Auger', 'profile_description': 'Copywriter chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/coralie-chatellier-2746a8108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsnqXgBZvUsN0KfiKCFLiZwD1zKgTbHiC4', 'person_name': 'Coralie Chatellier', 'profile_description': 'Social media Manager chez Castor &amp; Pollux - Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/claire-chauve-a5251180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEpWZ4B1Xj8bm8VLAF598g-6fKIu5kluQI', 'person_name': 'Claire Chauve', 'profile_description': 'Consultante Social media manager chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/yohann-le-leuch-3b533bb0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeK43kBiwjVECZwUWo6MtjH7ISK47Z0Aqs', 'person_name': 'Yohann Le Leuch', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/martin-dac?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABWEBuUB8DPxIIFtoMF4OHR96YKq-LFBLw8', 'person_name': 'Martin Dac', 'profile_description': 'Consultant New Business @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/margaux-manget-5b6b25174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl1CxoBvNeD6tONKmWpiBVKtCZR7ozOQEw', 'person_name': 'Margaux Manget', 'profile_description': 'Community Manager Chez Castor&amp;Pollux - Étudiante à l’ISEG Lyon/Paris'}, {'profile_url': 'https://www.linkedin.com/in/camilleplunian?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBEYL8BdZvqQUL3k9l5vkb8UXrLXn0jRl0', 'person_name': 'Camille Plunian', 'profile_description': 'Directrice artistique — Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/gautier-rennes-0a4bb043?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlA73wBn377eUV_P56v5vc6QUXlcKdZm14', 'person_name': 'Gautier Rennes', 'profile_description': 'Directeur du social media, membre du comité de direction'}, {'profile_url': 'https://www.linkedin.com/in/nicolasrolier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmQyqUBIwsI04jO-1cNBFDXThSotnNXWSs', 'person_name': 'Nicolas Rolier', 'profile_description': 'Développeur Drupal'}, {'profile_url': 'https://www.linkedin.com/in/pauline-medigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs-80MBSQOWvIuYEXx0M-7vBE2WgXAjgo8', 'person_name': 'Pauline Médigue', 'profile_description': 'Directrice Artistique'}, {'profile_url': 'https://www.linkedin.com/in/emelineduboquet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2kMDgBddrYka4rNMcrPe8djvKEO_QXozc', 'person_name': 'emeline duboquet', 'profile_description': 'Directrice Artistique Associée — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-boudaya-7a4b721b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLlXOwBfxDeAa9dQke5rBXdloyS2x4yQo4', 'person_name': 'Célia Boudaya', 'profile_description': 'Étudiante en Master 2 de Communication Digitale à l’ECS Paris'}, {'profile_url': 'https://www.linkedin.com/in/antonachos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqtf1ABDTGqn10c1zyrcWzoWk6PKmWPQFM', 'person_name': 'Quentin Antonacci', 'profile_description': 'Directeur Artistique ➡️ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/kimberley-cantin-4059671b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLdk4UBPCdNF8brFpfnWvZUVOc5w-9f12s', 'person_name': 'Kimberley Cantin', 'profile_description': '🚀 Freelance Motion Design | Étudiante BGMD à Gobelins'}, {'profile_url': 'https://www.linkedin.com/in/alexis-bellamy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcD51UB_u5wjIIOeywMw1inul2kHIR7C6A', 'person_name': 'Alexis Bellamy', 'profile_description': 'Développeur Fullstack @ Castor &amp; Pollux | Pur joueur du digital | Team tech 👊👨\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/julia-wolff-61773910?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI-hzMBUWN6ZvJIP2ptrzVo40B_H3XpU4g', 'person_name': 'Julia Wolff', 'profile_description': 'Directrice de Projet Associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/sarah-douma-b84719174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACllqFQBEjxRer3S6RXkBCG_D8ThxZDeTEI', 'person_name': 'Sarah Douma', 'profile_description': 'Directrice artistique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/luciealexandre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzE6XsBCJcxSnfR0lAzSVkqrjiq8M86UnE', 'person_name': 'Lucie Alexandre', 'profile_description': 'Infographiste chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/celine-smadja-07a479149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPXtB4BHu_oFHlm_kfdKTCsmf8YCzHgsAQ', 'person_name': 'Celine Smadja', 'profile_description': 'Responsable administratif chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/am%C3%A9ly-martinez-57903998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSmcu0BlHhBi67HVs5Sn_Ipjhlsg9WIu1c', 'person_name': 'Amély Martinez', 'profile_description': 'Consultante chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/maria-melida-trochez-osorio-a26316196?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC33Az4B9yhHcAivZHmqEnuK4TukVhCJbb0', 'person_name': 'Maria Melida TROCHEZ OSORIO', 'profile_description': "agent d'entretien en Castor &amp; Pollux, Agence conseil en communication digitale."}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-gomes-9a953962?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0_0VEBSFiWyT2pflm1pLvE5Xe5TL0wUbc', 'person_name': 'Cédric Gomes', 'profile_description': 'Copywriter @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/christian-mcintire-a3112020a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUOE8UBRyiBdipNyzePHgIiVkGh20VoTLQ', 'person_name': 'CHRISTIAN McIntire', 'profile_description': 'Fine Gemstone sales and acquisition.'}, {'profile_url': 'https://www.linkedin.com/in/adrien-edouard-344841197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC44XKQBvhoeSl5ejCf0DwzE2IZdq2Pbo9o', 'person_name': 'Adrien Edouard', 'profile_description': 'Planneur stratégique junior | Havas Play'}, {'profile_url': 'https://www.linkedin.com/in/cyana-ghazi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmqDYMBCOBnshWJIgAWS36VYhN4gjEm8Go', 'person_name': 'Cyana G.', 'profile_description': 'Product Designer | UX.UI ☀️'}, {'profile_url': 'https://www.linkedin.com/in/corentin-leban?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqaJ4YB2ozuA0-8nOQpJBtPRPpY3lD6y6M', 'person_name': 'Corentin L.', 'profile_description': 'UX designer — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/zuzana-ja%C5%A1kov%C3%A1-59140374?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-4x30BtA_xrL6OwcZmufbBH5I8ccUMPm4', 'person_name': 'Zuzana Jašková', 'profile_description': 'riaditeľka odboru obchodu a správy majetku'}, {'profile_url': 'https://www.linkedin.com/in/cathalyne-faissat-06865638?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAftRdABfu3odlT5DqsdXafLP3_zhMwKVPo', 'person_name': 'Cathalyne Faissat', 'profile_description': 'Consultante en stratégie de contenus chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/viera-dubnick%C3%A1-950852129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-gl8wB7xVoSXRzNv_K-7RGf-qQ1wfglWA', 'person_name': 'Viera Dubnická', 'profile_description': 'Finance Manager'}, {'profile_url': 'https://www.linkedin.com/in/maisy-mcleod-riera-66a533134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDThvIB_e6uSlK4cXPbRuWc0bs1DCz5yXk', 'person_name': 'Maisy McLeod-Riera', 'profile_description': 'Freelance Camera &amp; Video Assistant'}, {'profile_url': 'https://www.linkedin.com/in/swaranjali-bhagat-73802b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKIEFwB9qzh2Hx-0B5H4AMOQaG0eOxhSUQ', 'person_name': 'Swaranjali Bhagat', 'profile_description': 'Interior Designer , self-employed'}, {'profile_url': 'https://www.linkedin.com/in/ishclor-v-371b4542?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkRS8UBSZ3eXU61ibVHsyqdHTBWupvMxKY', 'person_name': 'Ishclor V.', 'profile_description': 'Graduate @ Silwood Cooking School'}, {'profile_url': 'https://www.linkedin.com/in/gloria-ratar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiOxcABlOgs2aEF24akofdaDWv-86nyI-A', 'person_name': 'Gloria Ratar', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/mustafa-ii?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACflYVcBxW3hfZLZ2MAKGPrnH69fYTX46uU', 'person_name': 'Mustafa I.', 'profile_description': 'Scriptwriter by profession, voice actor hobbyist'}]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>13,07 %</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>44,54 %</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>7.697.147 €</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5.325.196 €</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>44</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>57</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI</t>
+      <c r="A29" t="n">
+        <v>446</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castor &amp; Pollux </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.castoretpollux.com/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['0174880340']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['bonjour@castoretpollux.com']</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/castor-&amp;-pollux</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U', 'person_name': 'Julien Cocquerel', 'profile_description': 'Co-fondateur de Castor &amp; Pollux'}</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Co-fondateur de Castor &amp; Pollux</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/marina-albert-489b50b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiNa6kBY5QaRrekaJGmT6-lo4NzMVZ2p3o', 'person_name': 'Marina Albert', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/jade-pigneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRVCIMB8g3FL8FJkdD5IpntCOmNt3eip8M', 'person_name': 'Jade Pigneau', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo', 'person_name': 'Nicolas RUIZ', 'profile_description': 'Directeur Conseil Associé chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/nicolasthomassinbd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJANJgBPryPOvtdjnB_SVbXBT5IqdntIdE', 'person_name': 'Nicolas Thomassin', 'profile_description': 'I help brands to achieve their digital marketing objectives @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/morganlaunay?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMQ68BeAWEDjtbmqKk3qV610lw1QL8-YA', 'person_name': 'Morgan Launay', 'profile_description': 'Directeur Castor &amp; Pollux Talents + Associé'}, {'profile_url': 'https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U', 'person_name': 'Julien Cocquerel', 'profile_description': 'Co-fondateur de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-danvers?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuVWbMB9zwD19txHFKXfw6wzsUSBjtGYWI', 'person_name': 'Mathilde Danvers', 'profile_description': 'Marketing digital, e-commerce, chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/victoria-g-a7b3081b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKXX_8B2ZYQkRPqo9wPQJPoU_6IUXA-ghQ', 'person_name': 'Victoria G.', 'profile_description': 'RH (passionnée) | Pure joueuse du digital @Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/alice-laurin-b32aa872?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA93vlYB2YQtzrcJBfNtWebyGbyTMp252Ho', 'person_name': 'Alice Laurin', 'profile_description': 'Directrice de projet et associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-montailler-b1974510b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuyMAUBY43Bh3phD5AcHEXivKnRC3NMszQ', 'person_name': 'Clément Montailler', 'profile_description': 'Directeur Stratégie Social Media Associé — CASTOR&amp;POLLUX | Social Media et Site'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-braud-1146865?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD9SSAB0HQA6F5oth2Ws_AOmMwLB_tBkO0', 'person_name': 'Raphaël Braud', 'profile_description': 'CTO @ Castor &amp; Pollux | Pur joueur du digital'}, {'profile_url': 'https://www.linkedin.com/in/lucie-delberghe-9807ab150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRszbABq0jOv7HifANduAHJE9MudVHsqC8', 'person_name': 'Lucie Delberghe', 'profile_description': 'Consultante junior chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucille-pheulpin-2915331b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQr9M0BdO8FxUZ22n9F4RePZl5u7Yj7ymY', 'person_name': 'Lucille Pheulpin', 'profile_description': 'Présidente de Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/elodie-denaeyer-a150855?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADmf3EBX24J9oxvkxr8KATgiiKpvhdsNBU', 'person_name': 'Elodie Denaeyer', 'profile_description': 'Directrice Générale Associée | Pure joueuse du digital @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/sashariche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRR6A4BvMZVnP22O7WQsJKXKcHFJILgEY4', 'person_name': 'Sasha Riche', 'profile_description': 'Community Manager Senior chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/camillesibille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABVzTBAB1Wh-bQpP-SlxvVal_wgdMpNT-lI', 'person_name': 'Camille Sibille', 'profile_description': 'Directrice du consulting &amp; associée | Pure joueuse du digital chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/lucile-thomas-971b608a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMJT2UBPB-_EUyIDRkH98zQIwdKNYkfBeI', 'person_name': 'Lucile Thomas', 'profile_description': 'Directrice du pôle Social Media et Influence chez Castor &amp; Pollux Groupe'}, {'profile_url': 'https://www.linkedin.com/in/tiphaine-baubinnec-99507675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_ZdQEBS_78FWgSYGfodV_qQSY_b-47HBE', 'person_name': 'Tiphaine Baubinnec', 'profile_description': 'Planneuse stratégique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lanie-kaliciak-484691a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABaGimQBPCQl_smcwdvy5R6fCxsW7D-I8Tg', 'person_name': 'Mélanie Kaliciak', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/francesca-luciano?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJlztQBl56Xa_Y2mIbETcOzZqV6uDtKNuE', 'person_name': 'Francesca Luciano', 'profile_description': 'Communication | Project Management | Sustainability'}, {'profile_url': 'https://www.linkedin.com/in/ambre-matamba-61864a209?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT0YvQBU44HxbboH4DVMI_dFu-688WnDfE', 'person_name': 'Ambre Matamba', 'profile_description': 'Community Manager - Castor &amp; Pollux, agence conseil en communication digitale'}, {'profile_url': 'https://www.linkedin.com/in/stephaneclousier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYG8woBytyN23t-tcDTwTIJmhuwMmB-GuI', 'person_name': 'Stephane Clousier', 'profile_description': 'Co fondateur chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/anna-prylutsky-159b18148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPCy9UB13DMY_-jrKfiFP5mCldBRXkPF6I', 'person_name': 'Anna Prylutsky', 'profile_description': 'Motion Designer, Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/nadine-lakis-5801996a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6fBPABUvxoKxeCOaksxDkG_xQaluRXoXY', 'person_name': 'Nadine Lakis', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/deborah-boussidan-0b48441b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQ3r4gBH3TquJ93GhSXbSKl1eBNyPFdkz0', 'person_name': 'Deborah Boussidan', 'profile_description': 'Directrice générale adjointe associée | New Business | CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/sandra-klila-96a555174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClfOCIBQVRBZUZ7oHffIrBh1VV7sECoyzE', 'person_name': 'Sandra Klila', 'profile_description': 'Community Manager chez Castor et Pollux'}, {'profile_url': 'https://www.linkedin.com/in/noemelon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHKz-4BiGykBhHLz_3wMIfQL743Sq6mRug', 'person_name': 'Noé Melon', 'profile_description': 'Directeur de la création associé — Pur joueur du digital chez Castor &amp; Pollux | Jury Awwwards | Intervenant à Lisaa'}, {'profile_url': 'https://www.linkedin.com/in/casllux-torpo-a71423140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACI77DUBkKYr0cz9ylZauaFBRoLFI5-Uvbo', 'person_name': 'Casllux Torpo', 'profile_description': 'Business Developement'}, {'profile_url': 'https://www.linkedin.com/in/aela-marchand-60b002242?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwoMOsBxR9hxA0BTFiv96VWSnz2eOoAzkc', 'person_name': 'Aela Marchand', 'profile_description': 'Etudiante designer graphique'}, {'profile_url': 'https://www.linkedin.com/in/ilona-barbeau-31a04a19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7QeUYBr505Rp0Zerki_7E2hdYizNIxDKI', 'person_name': 'Ilona Barbeau', 'profile_description': 'Étudiante - Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/violette-auger-1b2250156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVpThYB1QXFJPjbMTeSQ-z1u0L3q82-FNY', 'person_name': 'Violette Auger', 'profile_description': 'Copywriter chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/coralie-chatellier-2746a8108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsnqXgBZvUsN0KfiKCFLiZwD1zKgTbHiC4', 'person_name': 'Coralie Chatellier', 'profile_description': 'Social media Manager chez Castor &amp; Pollux - Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/claire-chauve-a5251180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEpWZ4B1Xj8bm8VLAF598g-6fKIu5kluQI', 'person_name': 'Claire Chauve', 'profile_description': 'Consultante Social media manager chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/yohann-le-leuch-3b533bb0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeK43kBiwjVECZwUWo6MtjH7ISK47Z0Aqs', 'person_name': 'Yohann Le Leuch', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/martin-dac?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABWEBuUB8DPxIIFtoMF4OHR96YKq-LFBLw8', 'person_name': 'Martin Dac', 'profile_description': 'Consultant New Business @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/margaux-manget-5b6b25174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl1CxoBvNeD6tONKmWpiBVKtCZR7ozOQEw', 'person_name': 'Margaux Manget', 'profile_description': 'Community Manager Chez Castor&amp;Pollux - Étudiante à l’ISEG Lyon/Paris'}, {'profile_url': 'https://www.linkedin.com/in/camilleplunian?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBEYL8BdZvqQUL3k9l5vkb8UXrLXn0jRl0', 'person_name': 'Camille Plunian', 'profile_description': 'Directrice artistique — Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/gautier-rennes-0a4bb043?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlA73wBn377eUV_P56v5vc6QUXlcKdZm14', 'person_name': 'Gautier Rennes', 'profile_description': 'Directeur du social media, membre du comité de direction'}, {'profile_url': 'https://www.linkedin.com/in/nicolasrolier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmQyqUBIwsI04jO-1cNBFDXThSotnNXWSs', 'person_name': 'Nicolas Rolier', 'profile_description': 'Développeur Drupal'}, {'profile_url': 'https://www.linkedin.com/in/pauline-medigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs-80MBSQOWvIuYEXx0M-7vBE2WgXAjgo8', 'person_name': 'Pauline Médigue', 'profile_description': 'Directrice Artistique'}, {'profile_url': 'https://www.linkedin.com/in/emelineduboquet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2kMDgBddrYka4rNMcrPe8djvKEO_QXozc', 'person_name': 'emeline duboquet', 'profile_description': 'Directrice Artistique Associée — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-boudaya-7a4b721b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLlXOwBfxDeAa9dQke5rBXdloyS2x4yQo4', 'person_name': 'Célia Boudaya', 'profile_description': 'Étudiante en Master 2 de Communication Digitale à l’ECS Paris'}, {'profile_url': 'https://www.linkedin.com/in/antonachos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqtf1ABDTGqn10c1zyrcWzoWk6PKmWPQFM', 'person_name': 'Quentin Antonacci', 'profile_description': 'Directeur Artistique ➡️ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/kimberley-cantin-4059671b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLdk4UBPCdNF8brFpfnWvZUVOc5w-9f12s', 'person_name': 'Kimberley Cantin', 'profile_description': '🚀 Freelance Motion Design | Étudiante BGMD à Gobelins'}, {'profile_url': 'https://www.linkedin.com/in/alexis-bellamy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcD51UB_u5wjIIOeywMw1inul2kHIR7C6A', 'person_name': 'Alexis Bellamy', 'profile_description': 'Développeur Fullstack @ Castor &amp; Pollux | Pur joueur du digital | Team tech 👊👨\u200d💻'}, {'profile_url': 'https://www.linkedin.com/in/julia-wolff-61773910?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAI-hzMBUWN6ZvJIP2ptrzVo40B_H3XpU4g', 'person_name': 'Julia Wolff', 'profile_description': 'Directrice de Projet Associée chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/sarah-douma-b84719174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACllqFQBEjxRer3S6RXkBCG_D8ThxZDeTEI', 'person_name': 'Sarah Douma', 'profile_description': 'Directrice artistique chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/luciealexandre?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzE6XsBCJcxSnfR0lAzSVkqrjiq8M86UnE', 'person_name': 'Lucie Alexandre', 'profile_description': 'Infographiste chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/celine-smadja-07a479149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPXtB4BHu_oFHlm_kfdKTCsmf8YCzHgsAQ', 'person_name': 'Celine Smadja', 'profile_description': 'Responsable administratif chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/am%C3%A9ly-martinez-57903998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSmcu0BlHhBi67HVs5Sn_Ipjhlsg9WIu1c', 'person_name': 'Amély Martinez', 'profile_description': 'Consultante chez Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/maria-melida-trochez-osorio-a26316196?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC33Az4B9yhHcAivZHmqEnuK4TukVhCJbb0', 'person_name': 'Maria Melida TROCHEZ OSORIO', 'profile_description': "agent d'entretien en Castor &amp; Pollux, Agence conseil en communication digitale."}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-gomes-9a953962?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0_0VEBSFiWyT2pflm1pLvE5Xe5TL0wUbc', 'person_name': 'Cédric Gomes', 'profile_description': 'Copywriter @ Castor &amp; Pollux'}, {'profile_url': 'https://www.linkedin.com/in/christian-mcintire-a3112020a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUOE8UBRyiBdipNyzePHgIiVkGh20VoTLQ', 'person_name': 'CHRISTIAN McIntire', 'profile_description': 'Fine Gemstone sales and acquisition.'}, {'profile_url': 'https://www.linkedin.com/in/adrien-edouard-344841197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC44XKQBvhoeSl5ejCf0DwzE2IZdq2Pbo9o', 'person_name': 'Adrien Edouard', 'profile_description': 'Planneur stratégique junior | Havas Play'}, {'profile_url': 'https://www.linkedin.com/in/cyana-ghazi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmqDYMBCOBnshWJIgAWS36VYhN4gjEm8Go', 'person_name': 'Cyana G.', 'profile_description': 'Product Designer | UX.UI ☀️'}, {'profile_url': 'https://www.linkedin.com/in/corentin-leban?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqaJ4YB2ozuA0-8nOQpJBtPRPpY3lD6y6M', 'person_name': 'Corentin L.', 'profile_description': 'UX designer — CASTOR&amp;POLLUX'}, {'profile_url': 'https://www.linkedin.com/in/zuzana-ja%C5%A1kov%C3%A1-59140374?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-4x30BtA_xrL6OwcZmufbBH5I8ccUMPm4', 'person_name': 'Zuzana Jašková', 'profile_description': 'riaditeľka odboru obchodu a správy majetku'}, {'profile_url': 'https://www.linkedin.com/in/cathalyne-faissat-06865638?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAftRdABfu3odlT5DqsdXafLP3_zhMwKVPo', 'person_name': 'Cathalyne Faissat', 'profile_description': 'Consultante en stratégie de contenus chez Castor &amp; Pollux, Agence conseil en communication digitale.'}, {'profile_url': 'https://www.linkedin.com/in/viera-dubnick%C3%A1-950852129?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-gl8wB7xVoSXRzNv_K-7RGf-qQ1wfglWA', 'person_name': 'Viera Dubnická', 'profile_description': 'Finance Manager'}, {'profile_url': 'https://www.linkedin.com/in/maisy-mcleod-riera-66a533134?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDThvIB_e6uSlK4cXPbRuWc0bs1DCz5yXk', 'person_name': 'Maisy McLeod-Riera', 'profile_description': 'Freelance Camera &amp; Video Assistant'}, {'profile_url': 'https://www.linkedin.com/in/swaranjali-bhagat-73802b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKIEFwB9qzh2Hx-0B5H4AMOQaG0eOxhSUQ', 'person_name': 'Swaranjali Bhagat', 'profile_description': 'Interior Designer , self-employed'}, {'profile_url': 'https://www.linkedin.com/in/ishclor-v-371b4542?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkRS8UBSZ3eXU61ibVHsyqdHTBWupvMxKY', 'person_name': 'Ishclor V.', 'profile_description': 'Graduate @ Silwood Cooking School'}, {'profile_url': 'https://www.linkedin.com/in/gloria-ratar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACiOxcABlOgs2aEF24akofdaDWv-86nyI-A', 'person_name': 'Gloria Ratar', 'profile_description': 'Graphic Designer'}, {'profile_url': 'https://www.linkedin.com/in/mustafa-ii?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACflYVcBxW3hfZLZ2MAKGPrnH69fYTX46uU', 'person_name': 'Mustafa I.', 'profile_description': 'Scriptwriter by profession, voice actor hobbyist'}]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>13,07 %</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>44,54 %</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>7.697.147 €</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>5.325.196 €</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>44</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>57</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/nicolas-ruiz-a9963672?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9mSZUBRPpxqwZ5QSAhxSzHkhCKYodM3Wo</t>
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TapNation </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.tap-nation.io/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['456-789-0123', '789-012-3456', '+1-202-555-0152', '123-456-7890', 'Fax: 987-654-3210', 'WhatsApp: +9876543210', '+123456789012', 'Fax: +1-202-555-0199', '+1-202-555-0117', 'WhatsApp: +1-202-555-0165']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Elm Street, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/tapnation</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/philippe-grazina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzkoEkBnw25vk_XAjGZjp1o_xs4HlRs1sg', 'person_name': 'Philippe Grazina', 'profile_description': 'Head of Marketing @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}, {'profile_url': 'https://www.linkedin.com/in/shwetapakhare?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWz0A8Bh9WAkMa1h2nWXU106x-aGmzHNUM', 'person_name': 'Shweta Pakhare', 'profile_description': 'Marketing Manager at TapNation | 3 years in Communication and Marketing | International Marketing and Brand Management at NEOMA BS'}, {'profile_url': 'https://www.linkedin.com/in/philippe-ld?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaCPJEBDFEqoyQk4lG3RENlur5ME16_0zc', 'person_name': 'Philippe L.', 'profile_description': 'Head of Web3 @TapNation / Gaming &amp; Web3 Leader'}, {'profile_url': 'https://www.linkedin.com/in/anastase-helaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACE39dsBE__8LmuvL2dT_dzvIQk3-bGy2vs', 'person_name': 'Anastase Helaine', 'profile_description': 'Product Manager - Web 3 | Tapnation #Mobile #Gaming #Web3'}, {'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}, {'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}, {'profile_url': 'https://www.linkedin.com/in/emmanuelbrunet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAABKR8BMQDf-GK-HewEBnj2NHmlAGAqzNs', 'person_name': 'Emmanuel Brunet', 'profile_description': 'Digital expert turned into Wine enthusiast'}, {'profile_url': 'https://www.linkedin.com/in/syef-medini-040a3222a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl2GLABXZBXnJvDHdkqY1PYMMFRTb24fjE', 'person_name': 'Syef Medini', 'profile_description': 'Monetisation Manager'}, {'profile_url': 'https://www.linkedin.com/in/yohan-avakian-78366899?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABTruFMBDiddWriT4Kfv6cd4OUmhDh2T-G4', 'person_name': 'Yohan Avakian', 'profile_description': 'IT and System Engineer'}, {'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}, {'profile_url': 'https://www.linkedin.com/in/philippe-casassa-b519aa10a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuOP-0BzncSYfTZIV6e-cvuOhDCjlVE104', 'person_name': 'Philippe CASASSA', 'profile_description': 'Responsable financier chez TAPNATION'}, {'profile_url': 'https://www.linkedin.com/in/ecem-calban-13410b116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzZNvgBtHS58s8mDKa7pAjJNeDTVvICnSM', 'person_name': 'Ecem Calban', 'profile_description': 'User Acquisition Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/alexandreberthault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo5U54BPYbbNG7e9Obs8cyPA0ZQmjW0LiI', 'person_name': 'Alexandre Berthault', 'profile_description': 'Gameplay programmer'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-ramadier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-BHIkBdbUsePuGvWsNvX1hqXh039xQSM8', 'person_name': 'Laetitia Ramadier', 'profile_description': 'ASO graphic designer at TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/kinsey-dardanus-5971b4b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiXBUMBPsjMMIb1GxqM4y5A4TPpGoSyl7o', 'person_name': 'Kinsey Dardanus', 'profile_description': 'CPO at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}, {'profile_url': 'https://www.linkedin.com/in/kamelhaddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAojzecBjaS3LEwuYfuZ8_QL36iSYNSih84', 'person_name': 'Kamel Haddad 🏴\u200d☠️', 'profile_description': 'VP of Engineering at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sarthakjoshi17?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS4VIYBDqE_DLxPHhC1hzhmKcHBGLVE4v4', 'person_name': 'Sarthak Joshi', 'profile_description': "Senior Publishing Manager at TapNation | Let's make the next hit together"}, {'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}, {'profile_url': 'https://www.linkedin.com/in/andrei-luzan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkbBjIBbxGcR94iZW8R9yqoN_Q9SBr9VCU', 'person_name': 'Andrei Luzan', 'profile_description': 'Sr Ad Monetization Manager | Ad Monetization Consultant | Mobile Game Development | Ad Monetization'}, {'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}, {'profile_url': 'https://www.linkedin.com/in/vincent-f%C3%A9vrier-9580ab53?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs56ZQBdAVEj0Buxuo4CS9L6tuisTL7fzk', 'person_name': 'Vincent Février', 'profile_description': 'Chief Marketing Officer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julienlandez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtP1cBo8EpWzqq84ppD4unvsI89Trd17E', 'person_name': 'Julien Landez', 'profile_description': '3D artist'}, {'profile_url': 'https://www.linkedin.com/in/mittaljatin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUo-YBUKPNGMk6hBZy_37AOxu4uQK8G2w', 'person_name': 'Jatin Mittal', 'profile_description': 'Head of User Acquisition @ Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sumit-bhandari-350587171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjXhSwBqTXZa-8oDNg8aqAN5sJZKyRl7zg', 'person_name': 'Sumit Bhandari', 'profile_description': 'MSc Data Analytics Student at Paris School of Business | BI and Data Analytics Enthusiast | Open to Opportunities'}, {'profile_url': 'https://www.linkedin.com/in/paul-thibault-497149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmT3MB-6VPwtJjq2bpq73MkTYN2Gke6mg', 'person_name': 'Paul Thibault', 'profile_description': 'Game developer'}, {'profile_url': 'https://www.linkedin.com/in/ayush-lakra?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoLuCEBjyEOLc4SzlY8za4sO53wW3c6Ntk', 'person_name': 'Ayush Lakra', 'profile_description': 'Former Marketing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sa%C3%AFd-salloub-webmarketing?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASUcowB3IceGlL66dKa86OxZoXirtaow7E', 'person_name': 'Saïd Salloub', 'profile_description': "Expert en Monétisation d'audience et Acquisition de trafic"}, {'profile_url': 'https://www.linkedin.com/in/carolina-alzamora-gomes?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm_uEYBhLGGQggidJ9hQ411a3UNp4DcXJY', 'person_name': 'Carolina Alzamora Gomes', 'profile_description': 'Business Analyst | Digital Business Consultancy ✅ | Project Management | 🔴 MSc in E-Business and Digital Marketing | +5 year BBA | Data Analysis, Strategic Thinking, GTM Strategy, Inside Sales | ➡️ Tech Innovation'}, {'profile_url': 'https://www.linkedin.com/in/antoine-nisoli?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYzdiUBkTsPS7MYjMt0VTiHppVIZAfJiQI', 'person_name': 'Antoine Nisoli', 'profile_description': 'Unity Developer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/skelly-francisco-8b0184172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj11AQB57CIZIRjMYV-09nRoUcy9M43ubQ', 'person_name': 'Skelly Francisco', 'profile_description': 'Game designer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/a%C3%AFssatou-b-diop-46966618b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzFCREBVFsSlBMIuoVDAA2me6m45WE5UW8', 'person_name': 'Aïssatou B. Diop', 'profile_description': 'Data Analyst at TapNation | Business &amp; Technology Manager Student at Epitech Digital School'}, {'profile_url': 'https://www.linkedin.com/in/olgazhukowskaya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2k6HUBQCBy0ZMOX75EI3iBNFu1A00vwbg', 'person_name': 'Olga Z.', 'profile_description': 'Ad monetization manager'}, {'profile_url': 'https://www.linkedin.com/in/sufian-ahmad-%F0%9F%99%8C-0b38ab1a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCK1McBMYgTFkwDj6scDeigD0GP2xZZlBo', 'person_name': 'Sufian Ahmad 🙌', 'profile_description': 'Indie Game Developer | Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ozgursertel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvbn4sBxM5n5ek7DFP2pwp2aKrDpqTq7Sg', 'person_name': 'Özgür Sertel', 'profile_description': 'QA Engineer @ TapNation'}, {'profile_url': 'https://www.linkedin.com/in/segunsojobi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSodPUBPsSq5D6U7_DK1P85mTAwspn3by0', 'person_name': 'Segun Sojobi', 'profile_description': 'Software Engineer, Real-time 3D.'}, {'profile_url': 'https://www.linkedin.com/in/fabien-nicot-40348b174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClchIMBLAma35N-8kQLEnIj8HTe5n6YfdQ', 'person_name': 'Fabien Nicot', 'profile_description': 'Lead Dev Unity at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ahmet-akif-u%C4%9Furtan-2038b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkMxKMBIGZ5x_h4MebplTIJ_HG-j_WT06M', 'person_name': 'Ahmet Akif Uğurtan', 'profile_description': 'Backend Engineer at Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lisch-35831884?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHYLPQBMFCQDaGYaxblmFKLRU5O5h_eo1s', 'person_name': 'Maxime Lisch', 'profile_description': 'Head of Creative chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/jessie-bouton-0289b6231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADn9n6ABdU307fgp0sT17Mn2d9gbNyHeOAE', 'person_name': 'Jessie Bouton', 'profile_description': 'QA testeur Manager pour TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ilya-chaplinskiy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACced9IBNT2aU8287ksYiZmoFktqyDZJ0E0', 'person_name': 'Ilya Chaplinskiy', 'profile_description': 'Product Data Analyst @ TapNation | HEC Paris &amp; MSU Graduate'}, {'profile_url': 'https://www.linkedin.com/in/hosni-ammar-300307139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGu5PABIm1UKsQQ5gjxiMNq7txC5PLQ2eQ', 'person_name': 'Hosni Ammar', 'profile_description': 'Passionate Game Developer / Mobile Gaming Specialist / Freelancer / Founder of Broken Mug Studio'}, {'profile_url': 'https://www.linkedin.com/in/timoth%C3%A9e-bruneau-93b59a133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCoDb8BnWxcc6DYcFoVP0HxUNV9SdyHxiA', 'person_name': 'Timothée Bruneau', 'profile_description': 'Senior Game Designer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/uzairhassan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXu8aABg1K5CuF8aWd5DSOLPFf_miL0dOA', 'person_name': 'Uzair Hassan', 'profile_description': 'Unity Game Developer | Hyper-Hybrid-Casual-Puzzle'}, {'profile_url': 'https://www.linkedin.com/in/qichangwu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi8KN8B5UZrjiThXH9Iu8hdWMmzJHS6X3A', 'person_name': 'QC W.', 'profile_description': 'Product and Publishing in Gaming Industry'}, {'profile_url': 'https://www.linkedin.com/in/sandra-zlatkovska-a73b20204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQiq_cBIixmuF0582qvKR6D_6GaZfs4Fmk', 'person_name': 'Sandra Zlatkovska', 'profile_description': 'User Acquisition Manager'}, {'profile_url': 'https://www.linkedin.com/in/laetitiabelkhamsa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWA7hMB0oWpa5_9k19I8sADKLqe0_5smFU', 'person_name': 'Laetitia Belkhamsa', 'profile_description': 'Senior Product Manager @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-qasim-4052b292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOfAsUBckPjwbtJB-pjV4C21Y4iEsELYEQ', 'person_name': 'Muhammad Qasim', 'profile_description': 'Game Developer | Tech Lead | Hypercasual Games | Metaverse 3D | Unity 3D C#'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-pierre-3a1274205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvvCkBbkx9nnAjJNN7NFYQWmcEtqSDSx4', 'person_name': 'Sébastien Pierre', 'profile_description': 'Infographiste 3D Généraliste chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umairsaifullah01?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACipgxYB8JOS4JdqtmKHfG9YM1qymgk49_k', 'person_name': 'Umair Saifullah', 'profile_description': 'Sr. Game Developer - C# || Unity 3D | Unreal Engine || Metaverse (NFT) || Game Design'}, {'profile_url': 'https://www.linkedin.com/in/vasif-abdullayev-a3b582185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuwZ08Bb9xyLDZ0Vjdj_3-rlQBxlj-V_40', 'person_name': 'Vasif Abdullayev', 'profile_description': 'Senior Game Developer | Game Programming, Game Mechanics, Mobile Game Development'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-touseef-73324b1b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFV-lcB_VoMVxtDP6ymakWSpojsOMSRZhQ', 'person_name': 'Muhammad Touseef', 'profile_description': 'Unity Developer @ TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/furkansenoglu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxjLDIB4PgSz3CQ0QqU65Ox24KkFm8kYhk', 'person_name': 'H. Furkan Şenoğlu', 'profile_description': 'Senior Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/mertcandogrucan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCwB5MBpUgl5ffRYXS9nKjqdpSLI9sDsKI', 'person_name': 'Mertcan Doğrucan', 'profile_description': 'Senior Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/victor-lebrun-graphiste?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxq4WsB9a2ifp6nyCaoIIxIl0h90q1bywM', 'person_name': 'Victor Lebrun', 'profile_description': 'Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/yang-yang92?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQg9wkBCwtdDmPEi4Zo4DS0pt_lDqillo4', 'person_name': 'Yang YANG', 'profile_description': 'Senior Acquisition &amp; Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/marinahallack?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABF-23QBeHkBCdQ_xIzOTK97JMzS70YoyTY', 'person_name': 'Marina Feres Hallack', 'profile_description': 'Senior User Acquisition Manager at TapNation | Mobile Growth, Perfomance Marketing &amp; User Acquisition'}, {'profile_url': 'https://www.linkedin.com/in/umutkarabuya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfahXIBuiypZpF0avdHh2wjhk89CzftzHc', 'person_name': 'Umut Karabuya', 'profile_description': 'Senior Game Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/boubker-elamri-964b47140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJXPJwBA1sAgWIM2JgfEP6bfxd6NSAVkd0', 'person_name': 'Boubker Elamri', 'profile_description': 'Game developer / Artist'}, {'profile_url': 'https://www.linkedin.com/in/samratsingh159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6mD40BMQNXEexuLBMJ7UEm0wgLqQaICTE', 'person_name': 'Samrat Singh', 'profile_description': 'MSc. in Data Analytics &amp; Artificial Intelligence at EDHEC Business School'}, {'profile_url': 'https://www.linkedin.com/in/jonjansencampos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADJysMB3DlkOyIlBL-L804BqwEEk3uIsXI', 'person_name': 'Jon Jansen Campos', 'profile_description': 'Live Ops Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umut-altun-285022122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5CUQUBJ3Dl8ZsJQB5tUnq8rQ3apCx3u-w', 'person_name': 'Umut Altun', 'profile_description': 'Data Scientist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/maryam-shamoon-6a13841b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGIatkBMtsCypB7BnozJvj9-hQ2xASQT1Q', 'person_name': 'Maryam Shamoon', 'profile_description': 'Senior graphic designer or ui ux designer'}, {'profile_url': 'https://www.linkedin.com/in/eesha-kohli-4b941b157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWdfg0BwGczs_2J58MSj9zvdhh0SQ2_d54', 'person_name': 'Eesha Kohli', 'profile_description': 'Product Management @ISB | Data Science'}, {'profile_url': 'https://www.linkedin.com/in/arhamchaudhry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeESloBDcIiwqA_BprS7yokkus0SxGdjGo', 'person_name': 'Arham Mustafa Chaudhry', 'profile_description': '3D Artist l Animator l UI Artist'}, {'profile_url': 'https://www.linkedin.com/in/meng-xiao-xm1998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxI11sBaT__6c2I6oGKJ-8GqyiVHVuJNbo', 'person_name': 'Meng XIAO', 'profile_description': 'User Acquisition Manager chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/siddhant-saxena-009229145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMYRskB6-11vFsFewlXPNPYDJmi-b-mwww', 'person_name': 'Siddhant Saxena', 'profile_description': 'Unity Developer (Live Ops) at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/dgorshkalev?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvic0BsuRk58Rp7JMJgwLe3kn8LWoIk0o', 'person_name': 'Daniil Gorshkalev', 'profile_description': 'M&amp;A Analyst at TapNation | ESSEC | HSE'}, {'profile_url': 'https://www.linkedin.com/in/hardy-jean?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbnCRUB_wkDVJ6eEUwvxTrqeLlLdjSC6YE', 'person_name': 'Jean Hardy', 'profile_description': 'Senior Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/renat-abbyazov-abbiazov-46a3738b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMY4dIB3yVA8pyiq-2cJVqNmgk03jDcaK4', 'person_name': 'Renat Abbyazov (Abbiazov)', 'profile_description': 'Data Scientist/Machine Learning Engineer'}, {'profile_url': 'https://www.linkedin.com/in/victor-hristov-7477741b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHyaicBUCqn0vd4-1vUw7fCZRvVyL0XlnE', 'person_name': 'Victor Hristov', 'profile_description': 'Business Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/irem-%C3%B6zg%C3%BCn-a412411bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMdWJEBYbnlX-V8sTd4OWeMzan5Y7BnU-M', 'person_name': 'İrem Özgün', 'profile_description': 'Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/karan-makvana-08645014a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQEZWYBCP8ezGkjwq-pGiG3xrkXtJrUgpo', 'person_name': 'Karan Makvana', 'profile_description': 'Unity3D Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muzzammil-naeem-siddiqui-047b82163?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcmibcBnsHex_KEotzwNzH2BEgZEOgRWq4', 'person_name': 'Muzzammil Naeem Siddiqui', 'profile_description': 'Unity Sdk Engineer | Game Developer | Playable Ads Developer'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-randon-262b55138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGhPCoBcQx-4_w8iw9RpIJKI0R_ui1FbIA', 'person_name': 'Léo Randon', 'profile_description': 'Game Designer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/efe-palas-360a49157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACW1KrgBtCSes5Nd60cABK55vFjPMUlCyLo', 'person_name': 'Efe PALAS', 'profile_description': 'Marketing Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/vena-trajkovska-a84012179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoutIQBrnIK7uYbfcg0AG3_gyALn_n96Eg', 'person_name': 'Vena Trajkovska', 'profile_description': 'User Acquisition Manager | Growth | Mobile Games 📱'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-arslan-zia-68198412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAAgsEBSOPsJx6mYVU5jeyKYkGRFsE0YE0', 'person_name': 'Muhammad Arslan Zia', 'profile_description': 'TapNation | SQA | Game Producer | Crafting Engaging Game Experiences'}, {'profile_url': 'https://www.linkedin.com/in/fathimaraseed?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQM7BcBlV6JDKjSiNc7GufwYk-BT8OpuHY', 'person_name': 'Fathima Raseed', 'profile_description': 'Senior 3D Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/merveakr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcDnwsBlDigXyRTlxHVbqauU1w-OFfWt9U', 'person_name': 'Merve Çakır', 'profile_description': 'Helping tech companies build data-driven products | Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sametfener?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpVi5EBaXPotBLqKc9gN0nnpkCBsSo09qk', 'person_name': 'Samet Can Fener', 'profile_description': 'Marketing Artist, Creative Video Producer, Motion Graphic Designer, Art Director'}, {'profile_url': 'https://www.linkedin.com/in/neel-mewada?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYI7ywBSI9CBayH1uiFpHqAvwGwTXvWt6E', 'person_name': 'Neil M.', 'profile_description': 'Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ryanrathgeber?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKtmh0Baqdp1gfvW4faR8ILrRTnO1VTgsk', 'person_name': 'Ryan Rathgeber', 'profile_description': 'Design Director | Senior Game Designer | Games Leadership'}, {'profile_url': 'https://www.linkedin.com/in/marrium-w-710a65213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYVc7wBPmVPhOz39K7xo4STbuY0QNrpVWc', 'person_name': 'Marrium W.', 'profile_description': 'ASO Manager @TapNation I Econ with Data Science @ ITU'}, {'profile_url': 'https://www.linkedin.com/in/tugcevatan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdIQkAB_U_eU2WaGFTrIOF5qYsZrirUbZY', 'person_name': 'Tugce Vatan', 'profile_description': 'Creative Production of Games / Open to relocation'}, {'profile_url': 'https://www.linkedin.com/in/dexter-morgan-440524280?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAERru3ABQ4JUrdwVtqo9gs8y68zJqvwtMOM', 'person_name': 'Dexter Morgan', 'profile_description': 'Recruiter at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/filza-ijaz-414ab718b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzV1JABMlpa-S0cGAIihnB17IEpxVZ2w2A', 'person_name': 'Filza Ijaz', 'profile_description': 'App Store Optimization (ASO) Specialist | User Acquisition Expert | Marketing Specialist | Organic Growth Manager | Games Publisher'}, {'profile_url': 'https://www.linkedin.com/in/tu%C4%9F%C3%A7e-k-11078514b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ-blwBYBvUiMr57NG18XcJR3ouKyyynPc', 'person_name': 'Tuğçe K.', 'profile_description': 'Market Analyst at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/smmehdirizvi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO0WKYBABMcRWpmTcjh5W3pzH09Bl_aMPo', 'person_name': 'Mehdi Rizvi', 'profile_description': "Expert en Optimisation de l'App Store (ASO), Responsable ASO, Spécialiste ASO, Consultant ASO, Responsable Marketing App Store, Expert en Référencement Mobile (SEO Mobile)."}, {'profile_url': 'https://www.linkedin.com/in/mehmetcemsit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAejbp8BtS_zMoYEFWiMLLHmZKlASdiqLoQ', 'person_name': 'Mehmet Cemsit', 'profile_description': 'Sr. Motion Designer'}, {'profile_url': 'https://www.linkedin.com/in/bur%C3%A7in-hayda%C5%9F-31354a3a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhEZT8B_2biVLm6l2jyna6TSHBHvX6vwqk', 'person_name': 'Burçin Haydaş', 'profile_description': 'Growth Expert/ Management- UA &amp; Monetization, Digital Marketer! Ambassador - Women in Game 📌'}, {'profile_url': 'https://www.linkedin.com/in/karen-bousquet-039080130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACALyC0B7p_lbclhd9y1B7-BvaWSNgJkuOk', 'person_name': 'Karen Bousquet', 'profile_description': 'Game Artist @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/aleksandrs-grigorjevs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs0XEcBAHPa8VyJPJVBJHwVHWB2zvVyUFc', 'person_name': 'Aleksandrs Grigorjevs', 'profile_description': 'Lead Game Developer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/bibche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAF8D0BzIrVqzw00QkwjLi-VUxEpVR_OLE', 'person_name': 'Filip Spasenovski', 'profile_description': 'Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/cetin-mustafa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUwbuYBaAizj4U_1apxWrkEWwe5PowuB2I', 'person_name': 'Mustafa Çetin', 'profile_description': 'Helping Creative Production of Games | 10+ years of experience | 15 Hit Games | UA &amp; Creative Strategy | Creative Consultant'}, {'profile_url': 'https://www.linkedin.com/in/awais-mughal-82a664187?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwOvaIByIiA5jhZpoT1zPyH4B_gy_wtKfU', 'person_name': 'Awais Mughal', 'profile_description': 'Unity Developer @TapNation | Creating Immersive and Engaging Games | Live Service Game Specialist | Metaverse | Casual Games | Multiplayer'}, {'profile_url': 'https://www.linkedin.com/in/elizabeth-yaminskaya-6379b58a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMDbEsBebUu5s1Xu1zYoT6PBbsoiDuUopQ', 'person_name': 'Elizabeth Yaminskaya', 'profile_description': 'Quality assurance manager'}, {'profile_url': 'https://www.linkedin.com/in/dmitry-telegin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQaenwB5bVtIS4rSyaaXx1SnpqkIH6UV-8', 'person_name': 'Dmitry Telegin', 'profile_description': 'Senior hyper-casual/casual games artist. 2D/3D. Ui/Ux. SFX. Animation. Unity.'}, {'profile_url': 'https://www.linkedin.com/in/brunogranja?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs96CcBCnlDt5Vc30aPYEARuk7WMhwHUU0', 'person_name': 'Bruno Granja Camarero', 'profile_description': 'Head of Data Analytics @Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}, {'profile_url': 'https://www.linkedin.com/in/herlinda-garcia-928906238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5GbABfGJhLLI9XaYKgb0hiXHF7Td3hbA', 'person_name': 'Herlinda Garcia', 'profile_description': '🎮 Acquisitions Manager at TapNation | Mobile Games | M&amp;A | Business Development | Legal &amp; Commercial Translator 🌍 ES-EN-FR-AR'}]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>303,95 %</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>6.491,36 %</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>44.324.280 €</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>672.460 €</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>25</v>
+      </c>
+      <c r="S30" t="n">
+        <v>58</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/julien-cocquerel-0a96abb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIPbMEBIZrSUoSJuv68VljS_2w5viepQ5U</t>
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TapNation </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.tap-nation.io/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['456-789-0123', '789-012-3456', '+1-202-555-0152', '123-456-7890', 'Fax: 987-654-3210', 'WhatsApp: +9876543210', '+123456789012', 'Fax: +1-202-555-0199', '+1-202-555-0117', 'WhatsApp: +1-202-555-0165']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Elm Street, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/tapnation</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Co-Founder &amp; CEO</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/philippe-grazina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzkoEkBnw25vk_XAjGZjp1o_xs4HlRs1sg', 'person_name': 'Philippe Grazina', 'profile_description': 'Head of Marketing @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}, {'profile_url': 'https://www.linkedin.com/in/shwetapakhare?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWz0A8Bh9WAkMa1h2nWXU106x-aGmzHNUM', 'person_name': 'Shweta Pakhare', 'profile_description': 'Marketing Manager at TapNation | 3 years in Communication and Marketing | International Marketing and Brand Management at NEOMA BS'}, {'profile_url': 'https://www.linkedin.com/in/philippe-ld?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaCPJEBDFEqoyQk4lG3RENlur5ME16_0zc', 'person_name': 'Philippe L.', 'profile_description': 'Head of Web3 @TapNation / Gaming &amp; Web3 Leader'}, {'profile_url': 'https://www.linkedin.com/in/anastase-helaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACE39dsBE__8LmuvL2dT_dzvIQk3-bGy2vs', 'person_name': 'Anastase Helaine', 'profile_description': 'Product Manager - Web 3 | Tapnation #Mobile #Gaming #Web3'}, {'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}, {'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}, {'profile_url': 'https://www.linkedin.com/in/emmanuelbrunet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAABKR8BMQDf-GK-HewEBnj2NHmlAGAqzNs', 'person_name': 'Emmanuel Brunet', 'profile_description': 'Digital expert turned into Wine enthusiast'}, {'profile_url': 'https://www.linkedin.com/in/syef-medini-040a3222a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl2GLABXZBXnJvDHdkqY1PYMMFRTb24fjE', 'person_name': 'Syef Medini', 'profile_description': 'Monetisation Manager'}, {'profile_url': 'https://www.linkedin.com/in/yohan-avakian-78366899?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABTruFMBDiddWriT4Kfv6cd4OUmhDh2T-G4', 'person_name': 'Yohan Avakian', 'profile_description': 'IT and System Engineer'}, {'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}, {'profile_url': 'https://www.linkedin.com/in/philippe-casassa-b519aa10a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuOP-0BzncSYfTZIV6e-cvuOhDCjlVE104', 'person_name': 'Philippe CASASSA', 'profile_description': 'Responsable financier chez TAPNATION'}, {'profile_url': 'https://www.linkedin.com/in/ecem-calban-13410b116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzZNvgBtHS58s8mDKa7pAjJNeDTVvICnSM', 'person_name': 'Ecem Calban', 'profile_description': 'User Acquisition Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/alexandreberthault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo5U54BPYbbNG7e9Obs8cyPA0ZQmjW0LiI', 'person_name': 'Alexandre Berthault', 'profile_description': 'Gameplay programmer'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-ramadier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-BHIkBdbUsePuGvWsNvX1hqXh039xQSM8', 'person_name': 'Laetitia Ramadier', 'profile_description': 'ASO graphic designer at TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/kinsey-dardanus-5971b4b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiXBUMBPsjMMIb1GxqM4y5A4TPpGoSyl7o', 'person_name': 'Kinsey Dardanus', 'profile_description': 'CPO at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}, {'profile_url': 'https://www.linkedin.com/in/kamelhaddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAojzecBjaS3LEwuYfuZ8_QL36iSYNSih84', 'person_name': 'Kamel Haddad 🏴\u200d☠️', 'profile_description': 'VP of Engineering at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sarthakjoshi17?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS4VIYBDqE_DLxPHhC1hzhmKcHBGLVE4v4', 'person_name': 'Sarthak Joshi', 'profile_description': "Senior Publishing Manager at TapNation | Let's make the next hit together"}, {'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}, {'profile_url': 'https://www.linkedin.com/in/andrei-luzan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkbBjIBbxGcR94iZW8R9yqoN_Q9SBr9VCU', 'person_name': 'Andrei Luzan', 'profile_description': 'Sr Ad Monetization Manager | Ad Monetization Consultant | Mobile Game Development | Ad Monetization'}, {'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}, {'profile_url': 'https://www.linkedin.com/in/vincent-f%C3%A9vrier-9580ab53?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs56ZQBdAVEj0Buxuo4CS9L6tuisTL7fzk', 'person_name': 'Vincent Février', 'profile_description': 'Chief Marketing Officer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julienlandez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtP1cBo8EpWzqq84ppD4unvsI89Trd17E', 'person_name': 'Julien Landez', 'profile_description': '3D artist'}, {'profile_url': 'https://www.linkedin.com/in/mittaljatin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUo-YBUKPNGMk6hBZy_37AOxu4uQK8G2w', 'person_name': 'Jatin Mittal', 'profile_description': 'Head of User Acquisition @ Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sumit-bhandari-350587171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjXhSwBqTXZa-8oDNg8aqAN5sJZKyRl7zg', 'person_name': 'Sumit Bhandari', 'profile_description': 'MSc Data Analytics Student at Paris School of Business | BI and Data Analytics Enthusiast | Open to Opportunities'}, {'profile_url': 'https://www.linkedin.com/in/paul-thibault-497149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmT3MB-6VPwtJjq2bpq73MkTYN2Gke6mg', 'person_name': 'Paul Thibault', 'profile_description': 'Game developer'}, {'profile_url': 'https://www.linkedin.com/in/ayush-lakra?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoLuCEBjyEOLc4SzlY8za4sO53wW3c6Ntk', 'person_name': 'Ayush Lakra', 'profile_description': 'Former Marketing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sa%C3%AFd-salloub-webmarketing?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASUcowB3IceGlL66dKa86OxZoXirtaow7E', 'person_name': 'Saïd Salloub', 'profile_description': "Expert en Monétisation d'audience et Acquisition de trafic"}, {'profile_url': 'https://www.linkedin.com/in/carolina-alzamora-gomes?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm_uEYBhLGGQggidJ9hQ411a3UNp4DcXJY', 'person_name': 'Carolina Alzamora Gomes', 'profile_description': 'Business Analyst | Digital Business Consultancy ✅ | Project Management | 🔴 MSc in E-Business and Digital Marketing | +5 year BBA | Data Analysis, Strategic Thinking, GTM Strategy, Inside Sales | ➡️ Tech Innovation'}, {'profile_url': 'https://www.linkedin.com/in/antoine-nisoli?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYzdiUBkTsPS7MYjMt0VTiHppVIZAfJiQI', 'person_name': 'Antoine Nisoli', 'profile_description': 'Unity Developer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/skelly-francisco-8b0184172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj11AQB57CIZIRjMYV-09nRoUcy9M43ubQ', 'person_name': 'Skelly Francisco', 'profile_description': 'Game designer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/a%C3%AFssatou-b-diop-46966618b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzFCREBVFsSlBMIuoVDAA2me6m45WE5UW8', 'person_name': 'Aïssatou B. Diop', 'profile_description': 'Data Analyst at TapNation | Business &amp; Technology Manager Student at Epitech Digital School'}, {'profile_url': 'https://www.linkedin.com/in/olgazhukowskaya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2k6HUBQCBy0ZMOX75EI3iBNFu1A00vwbg', 'person_name': 'Olga Z.', 'profile_description': 'Ad monetization manager'}, {'profile_url': 'https://www.linkedin.com/in/sufian-ahmad-%F0%9F%99%8C-0b38ab1a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCK1McBMYgTFkwDj6scDeigD0GP2xZZlBo', 'person_name': 'Sufian Ahmad 🙌', 'profile_description': 'Indie Game Developer | Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ozgursertel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvbn4sBxM5n5ek7DFP2pwp2aKrDpqTq7Sg', 'person_name': 'Özgür Sertel', 'profile_description': 'QA Engineer @ TapNation'}, {'profile_url': 'https://www.linkedin.com/in/segunsojobi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSodPUBPsSq5D6U7_DK1P85mTAwspn3by0', 'person_name': 'Segun Sojobi', 'profile_description': 'Software Engineer, Real-time 3D.'}, {'profile_url': 'https://www.linkedin.com/in/fabien-nicot-40348b174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClchIMBLAma35N-8kQLEnIj8HTe5n6YfdQ', 'person_name': 'Fabien Nicot', 'profile_description': 'Lead Dev Unity at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ahmet-akif-u%C4%9Furtan-2038b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkMxKMBIGZ5x_h4MebplTIJ_HG-j_WT06M', 'person_name': 'Ahmet Akif Uğurtan', 'profile_description': 'Backend Engineer at Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lisch-35831884?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHYLPQBMFCQDaGYaxblmFKLRU5O5h_eo1s', 'person_name': 'Maxime Lisch', 'profile_description': 'Head of Creative chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/jessie-bouton-0289b6231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADn9n6ABdU307fgp0sT17Mn2d9gbNyHeOAE', 'person_name': 'Jessie Bouton', 'profile_description': 'QA testeur Manager pour TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ilya-chaplinskiy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACced9IBNT2aU8287ksYiZmoFktqyDZJ0E0', 'person_name': 'Ilya Chaplinskiy', 'profile_description': 'Product Data Analyst @ TapNation | HEC Paris &amp; MSU Graduate'}, {'profile_url': 'https://www.linkedin.com/in/hosni-ammar-300307139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGu5PABIm1UKsQQ5gjxiMNq7txC5PLQ2eQ', 'person_name': 'Hosni Ammar', 'profile_description': 'Passionate Game Developer / Mobile Gaming Specialist / Freelancer / Founder of Broken Mug Studio'}, {'profile_url': 'https://www.linkedin.com/in/timoth%C3%A9e-bruneau-93b59a133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCoDb8BnWxcc6DYcFoVP0HxUNV9SdyHxiA', 'person_name': 'Timothée Bruneau', 'profile_description': 'Senior Game Designer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/uzairhassan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXu8aABg1K5CuF8aWd5DSOLPFf_miL0dOA', 'person_name': 'Uzair Hassan', 'profile_description': 'Unity Game Developer | Hyper-Hybrid-Casual-Puzzle'}, {'profile_url': 'https://www.linkedin.com/in/qichangwu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi8KN8B5UZrjiThXH9Iu8hdWMmzJHS6X3A', 'person_name': 'QC W.', 'profile_description': 'Product and Publishing in Gaming Industry'}, {'profile_url': 'https://www.linkedin.com/in/sandra-zlatkovska-a73b20204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQiq_cBIixmuF0582qvKR6D_6GaZfs4Fmk', 'person_name': 'Sandra Zlatkovska', 'profile_description': 'User Acquisition Manager'}, {'profile_url': 'https://www.linkedin.com/in/laetitiabelkhamsa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWA7hMB0oWpa5_9k19I8sADKLqe0_5smFU', 'person_name': 'Laetitia Belkhamsa', 'profile_description': 'Senior Product Manager @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-qasim-4052b292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOfAsUBckPjwbtJB-pjV4C21Y4iEsELYEQ', 'person_name': 'Muhammad Qasim', 'profile_description': 'Game Developer | Tech Lead | Hypercasual Games | Metaverse 3D | Unity 3D C#'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-pierre-3a1274205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvvCkBbkx9nnAjJNN7NFYQWmcEtqSDSx4', 'person_name': 'Sébastien Pierre', 'profile_description': 'Infographiste 3D Généraliste chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umairsaifullah01?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACipgxYB8JOS4JdqtmKHfG9YM1qymgk49_k', 'person_name': 'Umair Saifullah', 'profile_description': 'Sr. Game Developer - C# || Unity 3D | Unreal Engine || Metaverse (NFT) || Game Design'}, {'profile_url': 'https://www.linkedin.com/in/vasif-abdullayev-a3b582185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuwZ08Bb9xyLDZ0Vjdj_3-rlQBxlj-V_40', 'person_name': 'Vasif Abdullayev', 'profile_description': 'Senior Game Developer | Game Programming, Game Mechanics, Mobile Game Development'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-touseef-73324b1b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFV-lcB_VoMVxtDP6ymakWSpojsOMSRZhQ', 'person_name': 'Muhammad Touseef', 'profile_description': 'Unity Developer @ TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/furkansenoglu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxjLDIB4PgSz3CQ0QqU65Ox24KkFm8kYhk', 'person_name': 'H. Furkan Şenoğlu', 'profile_description': 'Senior Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/mertcandogrucan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCwB5MBpUgl5ffRYXS9nKjqdpSLI9sDsKI', 'person_name': 'Mertcan Doğrucan', 'profile_description': 'Senior Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/victor-lebrun-graphiste?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxq4WsB9a2ifp6nyCaoIIxIl0h90q1bywM', 'person_name': 'Victor Lebrun', 'profile_description': 'Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/yang-yang92?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQg9wkBCwtdDmPEi4Zo4DS0pt_lDqillo4', 'person_name': 'Yang YANG', 'profile_description': 'Senior Acquisition &amp; Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/marinahallack?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABF-23QBeHkBCdQ_xIzOTK97JMzS70YoyTY', 'person_name': 'Marina Feres Hallack', 'profile_description': 'Senior User Acquisition Manager at TapNation | Mobile Growth, Perfomance Marketing &amp; User Acquisition'}, {'profile_url': 'https://www.linkedin.com/in/umutkarabuya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfahXIBuiypZpF0avdHh2wjhk89CzftzHc', 'person_name': 'Umut Karabuya', 'profile_description': 'Senior Game Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/boubker-elamri-964b47140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJXPJwBA1sAgWIM2JgfEP6bfxd6NSAVkd0', 'person_name': 'Boubker Elamri', 'profile_description': 'Game developer / Artist'}, {'profile_url': 'https://www.linkedin.com/in/samratsingh159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6mD40BMQNXEexuLBMJ7UEm0wgLqQaICTE', 'person_name': 'Samrat Singh', 'profile_description': 'MSc. in Data Analytics &amp; Artificial Intelligence at EDHEC Business School'}, {'profile_url': 'https://www.linkedin.com/in/jonjansencampos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADJysMB3DlkOyIlBL-L804BqwEEk3uIsXI', 'person_name': 'Jon Jansen Campos', 'profile_description': 'Live Ops Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umut-altun-285022122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5CUQUBJ3Dl8ZsJQB5tUnq8rQ3apCx3u-w', 'person_name': 'Umut Altun', 'profile_description': 'Data Scientist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/maryam-shamoon-6a13841b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGIatkBMtsCypB7BnozJvj9-hQ2xASQT1Q', 'person_name': 'Maryam Shamoon', 'profile_description': 'Senior graphic designer or ui ux designer'}, {'profile_url': 'https://www.linkedin.com/in/eesha-kohli-4b941b157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWdfg0BwGczs_2J58MSj9zvdhh0SQ2_d54', 'person_name': 'Eesha Kohli', 'profile_description': 'Product Management @ISB | Data Science'}, {'profile_url': 'https://www.linkedin.com/in/arhamchaudhry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeESloBDcIiwqA_BprS7yokkus0SxGdjGo', 'person_name': 'Arham Mustafa Chaudhry', 'profile_description': '3D Artist l Animator l UI Artist'}, {'profile_url': 'https://www.linkedin.com/in/meng-xiao-xm1998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxI11sBaT__6c2I6oGKJ-8GqyiVHVuJNbo', 'person_name': 'Meng XIAO', 'profile_description': 'User Acquisition Manager chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/siddhant-saxena-009229145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMYRskB6-11vFsFewlXPNPYDJmi-b-mwww', 'person_name': 'Siddhant Saxena', 'profile_description': 'Unity Developer (Live Ops) at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/dgorshkalev?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvic0BsuRk58Rp7JMJgwLe3kn8LWoIk0o', 'person_name': 'Daniil Gorshkalev', 'profile_description': 'M&amp;A Analyst at TapNation | ESSEC | HSE'}, {'profile_url': 'https://www.linkedin.com/in/hardy-jean?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbnCRUB_wkDVJ6eEUwvxTrqeLlLdjSC6YE', 'person_name': 'Jean Hardy', 'profile_description': 'Senior Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/renat-abbyazov-abbiazov-46a3738b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMY4dIB3yVA8pyiq-2cJVqNmgk03jDcaK4', 'person_name': 'Renat Abbyazov (Abbiazov)', 'profile_description': 'Data Scientist/Machine Learning Engineer'}, {'profile_url': 'https://www.linkedin.com/in/victor-hristov-7477741b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHyaicBUCqn0vd4-1vUw7fCZRvVyL0XlnE', 'person_name': 'Victor Hristov', 'profile_description': 'Business Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/irem-%C3%B6zg%C3%BCn-a412411bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMdWJEBYbnlX-V8sTd4OWeMzan5Y7BnU-M', 'person_name': 'İrem Özgün', 'profile_description': 'Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/karan-makvana-08645014a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQEZWYBCP8ezGkjwq-pGiG3xrkXtJrUgpo', 'person_name': 'Karan Makvana', 'profile_description': 'Unity3D Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muzzammil-naeem-siddiqui-047b82163?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcmibcBnsHex_KEotzwNzH2BEgZEOgRWq4', 'person_name': 'Muzzammil Naeem Siddiqui', 'profile_description': 'Unity Sdk Engineer | Game Developer | Playable Ads Developer'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-randon-262b55138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGhPCoBcQx-4_w8iw9RpIJKI0R_ui1FbIA', 'person_name': 'Léo Randon', 'profile_description': 'Game Designer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/efe-palas-360a49157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACW1KrgBtCSes5Nd60cABK55vFjPMUlCyLo', 'person_name': 'Efe PALAS', 'profile_description': 'Marketing Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/vena-trajkovska-a84012179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoutIQBrnIK7uYbfcg0AG3_gyALn_n96Eg', 'person_name': 'Vena Trajkovska', 'profile_description': 'User Acquisition Manager | Growth | Mobile Games 📱'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-arslan-zia-68198412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAAgsEBSOPsJx6mYVU5jeyKYkGRFsE0YE0', 'person_name': 'Muhammad Arslan Zia', 'profile_description': 'TapNation | SQA | Game Producer | Crafting Engaging Game Experiences'}, {'profile_url': 'https://www.linkedin.com/in/fathimaraseed?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQM7BcBlV6JDKjSiNc7GufwYk-BT8OpuHY', 'person_name': 'Fathima Raseed', 'profile_description': 'Senior 3D Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/merveakr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcDnwsBlDigXyRTlxHVbqauU1w-OFfWt9U', 'person_name': 'Merve Çakır', 'profile_description': 'Helping tech companies build data-driven products | Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sametfener?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpVi5EBaXPotBLqKc9gN0nnpkCBsSo09qk', 'person_name': 'Samet Can Fener', 'profile_description': 'Marketing Artist, Creative Video Producer, Motion Graphic Designer, Art Director'}, {'profile_url': 'https://www.linkedin.com/in/neel-mewada?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYI7ywBSI9CBayH1uiFpHqAvwGwTXvWt6E', 'person_name': 'Neil M.', 'profile_description': 'Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ryanrathgeber?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKtmh0Baqdp1gfvW4faR8ILrRTnO1VTgsk', 'person_name': 'Ryan Rathgeber', 'profile_description': 'Design Director | Senior Game Designer | Games Leadership'}, {'profile_url': 'https://www.linkedin.com/in/marrium-w-710a65213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYVc7wBPmVPhOz39K7xo4STbuY0QNrpVWc', 'person_name': 'Marrium W.', 'profile_description': 'ASO Manager @TapNation I Econ with Data Science @ ITU'}, {'profile_url': 'https://www.linkedin.com/in/tugcevatan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdIQkAB_U_eU2WaGFTrIOF5qYsZrirUbZY', 'person_name': 'Tugce Vatan', 'profile_description': 'Creative Production of Games / Open to relocation'}, {'profile_url': 'https://www.linkedin.com/in/dexter-morgan-440524280?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAERru3ABQ4JUrdwVtqo9gs8y68zJqvwtMOM', 'person_name': 'Dexter Morgan', 'profile_description': 'Recruiter at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/filza-ijaz-414ab718b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzV1JABMlpa-S0cGAIihnB17IEpxVZ2w2A', 'person_name': 'Filza Ijaz', 'profile_description': 'App Store Optimization (ASO) Specialist | User Acquisition Expert | Marketing Specialist | Organic Growth Manager | Games Publisher'}, {'profile_url': 'https://www.linkedin.com/in/tu%C4%9F%C3%A7e-k-11078514b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ-blwBYBvUiMr57NG18XcJR3ouKyyynPc', 'person_name': 'Tuğçe K.', 'profile_description': 'Market Analyst at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/smmehdirizvi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO0WKYBABMcRWpmTcjh5W3pzH09Bl_aMPo', 'person_name': 'Mehdi Rizvi', 'profile_description': "Expert en Optimisation de l'App Store (ASO), Responsable ASO, Spécialiste ASO, Consultant ASO, Responsable Marketing App Store, Expert en Référencement Mobile (SEO Mobile)."}, {'profile_url': 'https://www.linkedin.com/in/mehmetcemsit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAejbp8BtS_zMoYEFWiMLLHmZKlASdiqLoQ', 'person_name': 'Mehmet Cemsit', 'profile_description': 'Sr. Motion Designer'}, {'profile_url': 'https://www.linkedin.com/in/bur%C3%A7in-hayda%C5%9F-31354a3a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhEZT8B_2biVLm6l2jyna6TSHBHvX6vwqk', 'person_name': 'Burçin Haydaş', 'profile_description': 'Growth Expert/ Management- UA &amp; Monetization, Digital Marketer! Ambassador - Women in Game 📌'}, {'profile_url': 'https://www.linkedin.com/in/karen-bousquet-039080130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACALyC0B7p_lbclhd9y1B7-BvaWSNgJkuOk', 'person_name': 'Karen Bousquet', 'profile_description': 'Game Artist @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/aleksandrs-grigorjevs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs0XEcBAHPa8VyJPJVBJHwVHWB2zvVyUFc', 'person_name': 'Aleksandrs Grigorjevs', 'profile_description': 'Lead Game Developer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/bibche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAF8D0BzIrVqzw00QkwjLi-VUxEpVR_OLE', 'person_name': 'Filip Spasenovski', 'profile_description': 'Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/cetin-mustafa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUwbuYBaAizj4U_1apxWrkEWwe5PowuB2I', 'person_name': 'Mustafa Çetin', 'profile_description': 'Helping Creative Production of Games | 10+ years of experience | 15 Hit Games | UA &amp; Creative Strategy | Creative Consultant'}, {'profile_url': 'https://www.linkedin.com/in/awais-mughal-82a664187?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwOvaIByIiA5jhZpoT1zPyH4B_gy_wtKfU', 'person_name': 'Awais Mughal', 'profile_description': 'Unity Developer @TapNation | Creating Immersive and Engaging Games | Live Service Game Specialist | Metaverse | Casual Games | Multiplayer'}, {'profile_url': 'https://www.linkedin.com/in/elizabeth-yaminskaya-6379b58a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMDbEsBebUu5s1Xu1zYoT6PBbsoiDuUopQ', 'person_name': 'Elizabeth Yaminskaya', 'profile_description': 'Quality assurance manager'}, {'profile_url': 'https://www.linkedin.com/in/dmitry-telegin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQaenwB5bVtIS4rSyaaXx1SnpqkIH6UV-8', 'person_name': 'Dmitry Telegin', 'profile_description': 'Senior hyper-casual/casual games artist. 2D/3D. Ui/Ux. SFX. Animation. Unity.'}, {'profile_url': 'https://www.linkedin.com/in/brunogranja?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs96CcBCnlDt5Vc30aPYEARuk7WMhwHUU0', 'person_name': 'Bruno Granja Camarero', 'profile_description': 'Head of Data Analytics @Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}, {'profile_url': 'https://www.linkedin.com/in/herlinda-garcia-928906238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5GbABfGJhLLI9XaYKgb0hiXHF7Td3hbA', 'person_name': 'Herlinda Garcia', 'profile_description': '🎮 Acquisitions Manager at TapNation | Mobile Games | M&amp;A | Business Development | Legal &amp; Commercial Translator 🌍 ES-EN-FR-AR'}]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>303,95 %</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>6.491,36 %</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>44.324.280 €</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>672.460 €</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>25</v>
+      </c>
+      <c r="S31" t="n">
+        <v>58</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU</t>
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TapNation </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.tap-nation.io/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['456-789-0123', '789-012-3456', '+1-202-555-0152', '123-456-7890', 'Fax: 987-654-3210', 'WhatsApp: +9876543210', '+123456789012', 'Fax: +1-202-555-0199', '+1-202-555-0117', 'WhatsApp: +1-202-555-0165']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Elm Street, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/tapnation</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Entrepreneur &amp; Investor</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/philippe-grazina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzkoEkBnw25vk_XAjGZjp1o_xs4HlRs1sg', 'person_name': 'Philippe Grazina', 'profile_description': 'Head of Marketing @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}, {'profile_url': 'https://www.linkedin.com/in/shwetapakhare?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWz0A8Bh9WAkMa1h2nWXU106x-aGmzHNUM', 'person_name': 'Shweta Pakhare', 'profile_description': 'Marketing Manager at TapNation | 3 years in Communication and Marketing | International Marketing and Brand Management at NEOMA BS'}, {'profile_url': 'https://www.linkedin.com/in/philippe-ld?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaCPJEBDFEqoyQk4lG3RENlur5ME16_0zc', 'person_name': 'Philippe L.', 'profile_description': 'Head of Web3 @TapNation / Gaming &amp; Web3 Leader'}, {'profile_url': 'https://www.linkedin.com/in/anastase-helaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACE39dsBE__8LmuvL2dT_dzvIQk3-bGy2vs', 'person_name': 'Anastase Helaine', 'profile_description': 'Product Manager - Web 3 | Tapnation #Mobile #Gaming #Web3'}, {'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}, {'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}, {'profile_url': 'https://www.linkedin.com/in/emmanuelbrunet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAABKR8BMQDf-GK-HewEBnj2NHmlAGAqzNs', 'person_name': 'Emmanuel Brunet', 'profile_description': 'Digital expert turned into Wine enthusiast'}, {'profile_url': 'https://www.linkedin.com/in/syef-medini-040a3222a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl2GLABXZBXnJvDHdkqY1PYMMFRTb24fjE', 'person_name': 'Syef Medini', 'profile_description': 'Monetisation Manager'}, {'profile_url': 'https://www.linkedin.com/in/yohan-avakian-78366899?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABTruFMBDiddWriT4Kfv6cd4OUmhDh2T-G4', 'person_name': 'Yohan Avakian', 'profile_description': 'IT and System Engineer'}, {'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}, {'profile_url': 'https://www.linkedin.com/in/philippe-casassa-b519aa10a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuOP-0BzncSYfTZIV6e-cvuOhDCjlVE104', 'person_name': 'Philippe CASASSA', 'profile_description': 'Responsable financier chez TAPNATION'}, {'profile_url': 'https://www.linkedin.com/in/ecem-calban-13410b116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzZNvgBtHS58s8mDKa7pAjJNeDTVvICnSM', 'person_name': 'Ecem Calban', 'profile_description': 'User Acquisition Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/alexandreberthault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo5U54BPYbbNG7e9Obs8cyPA0ZQmjW0LiI', 'person_name': 'Alexandre Berthault', 'profile_description': 'Gameplay programmer'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-ramadier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-BHIkBdbUsePuGvWsNvX1hqXh039xQSM8', 'person_name': 'Laetitia Ramadier', 'profile_description': 'ASO graphic designer at TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/kinsey-dardanus-5971b4b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiXBUMBPsjMMIb1GxqM4y5A4TPpGoSyl7o', 'person_name': 'Kinsey Dardanus', 'profile_description': 'CPO at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}, {'profile_url': 'https://www.linkedin.com/in/kamelhaddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAojzecBjaS3LEwuYfuZ8_QL36iSYNSih84', 'person_name': 'Kamel Haddad 🏴\u200d☠️', 'profile_description': 'VP of Engineering at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sarthakjoshi17?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS4VIYBDqE_DLxPHhC1hzhmKcHBGLVE4v4', 'person_name': 'Sarthak Joshi', 'profile_description': "Senior Publishing Manager at TapNation | Let's make the next hit together"}, {'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}, {'profile_url': 'https://www.linkedin.com/in/andrei-luzan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkbBjIBbxGcR94iZW8R9yqoN_Q9SBr9VCU', 'person_name': 'Andrei Luzan', 'profile_description': 'Sr Ad Monetization Manager | Ad Monetization Consultant | Mobile Game Development | Ad Monetization'}, {'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}, {'profile_url': 'https://www.linkedin.com/in/vincent-f%C3%A9vrier-9580ab53?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs56ZQBdAVEj0Buxuo4CS9L6tuisTL7fzk', 'person_name': 'Vincent Février', 'profile_description': 'Chief Marketing Officer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julienlandez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtP1cBo8EpWzqq84ppD4unvsI89Trd17E', 'person_name': 'Julien Landez', 'profile_description': '3D artist'}, {'profile_url': 'https://www.linkedin.com/in/mittaljatin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUo-YBUKPNGMk6hBZy_37AOxu4uQK8G2w', 'person_name': 'Jatin Mittal', 'profile_description': 'Head of User Acquisition @ Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sumit-bhandari-350587171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjXhSwBqTXZa-8oDNg8aqAN5sJZKyRl7zg', 'person_name': 'Sumit Bhandari', 'profile_description': 'MSc Data Analytics Student at Paris School of Business | BI and Data Analytics Enthusiast | Open to Opportunities'}, {'profile_url': 'https://www.linkedin.com/in/paul-thibault-497149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmT3MB-6VPwtJjq2bpq73MkTYN2Gke6mg', 'person_name': 'Paul Thibault', 'profile_description': 'Game developer'}, {'profile_url': 'https://www.linkedin.com/in/ayush-lakra?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoLuCEBjyEOLc4SzlY8za4sO53wW3c6Ntk', 'person_name': 'Ayush Lakra', 'profile_description': 'Former Marketing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sa%C3%AFd-salloub-webmarketing?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASUcowB3IceGlL66dKa86OxZoXirtaow7E', 'person_name': 'Saïd Salloub', 'profile_description': "Expert en Monétisation d'audience et Acquisition de trafic"}, {'profile_url': 'https://www.linkedin.com/in/carolina-alzamora-gomes?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm_uEYBhLGGQggidJ9hQ411a3UNp4DcXJY', 'person_name': 'Carolina Alzamora Gomes', 'profile_description': 'Business Analyst | Digital Business Consultancy ✅ | Project Management | 🔴 MSc in E-Business and Digital Marketing | +5 year BBA | Data Analysis, Strategic Thinking, GTM Strategy, Inside Sales | ➡️ Tech Innovation'}, {'profile_url': 'https://www.linkedin.com/in/antoine-nisoli?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYzdiUBkTsPS7MYjMt0VTiHppVIZAfJiQI', 'person_name': 'Antoine Nisoli', 'profile_description': 'Unity Developer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/skelly-francisco-8b0184172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj11AQB57CIZIRjMYV-09nRoUcy9M43ubQ', 'person_name': 'Skelly Francisco', 'profile_description': 'Game designer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/a%C3%AFssatou-b-diop-46966618b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzFCREBVFsSlBMIuoVDAA2me6m45WE5UW8', 'person_name': 'Aïssatou B. Diop', 'profile_description': 'Data Analyst at TapNation | Business &amp; Technology Manager Student at Epitech Digital School'}, {'profile_url': 'https://www.linkedin.com/in/olgazhukowskaya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2k6HUBQCBy0ZMOX75EI3iBNFu1A00vwbg', 'person_name': 'Olga Z.', 'profile_description': 'Ad monetization manager'}, {'profile_url': 'https://www.linkedin.com/in/sufian-ahmad-%F0%9F%99%8C-0b38ab1a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCK1McBMYgTFkwDj6scDeigD0GP2xZZlBo', 'person_name': 'Sufian Ahmad 🙌', 'profile_description': 'Indie Game Developer | Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ozgursertel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvbn4sBxM5n5ek7DFP2pwp2aKrDpqTq7Sg', 'person_name': 'Özgür Sertel', 'profile_description': 'QA Engineer @ TapNation'}, {'profile_url': 'https://www.linkedin.com/in/segunsojobi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSodPUBPsSq5D6U7_DK1P85mTAwspn3by0', 'person_name': 'Segun Sojobi', 'profile_description': 'Software Engineer, Real-time 3D.'}, {'profile_url': 'https://www.linkedin.com/in/fabien-nicot-40348b174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClchIMBLAma35N-8kQLEnIj8HTe5n6YfdQ', 'person_name': 'Fabien Nicot', 'profile_description': 'Lead Dev Unity at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ahmet-akif-u%C4%9Furtan-2038b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkMxKMBIGZ5x_h4MebplTIJ_HG-j_WT06M', 'person_name': 'Ahmet Akif Uğurtan', 'profile_description': 'Backend Engineer at Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lisch-35831884?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHYLPQBMFCQDaGYaxblmFKLRU5O5h_eo1s', 'person_name': 'Maxime Lisch', 'profile_description': 'Head of Creative chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/jessie-bouton-0289b6231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADn9n6ABdU307fgp0sT17Mn2d9gbNyHeOAE', 'person_name': 'Jessie Bouton', 'profile_description': 'QA testeur Manager pour TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ilya-chaplinskiy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACced9IBNT2aU8287ksYiZmoFktqyDZJ0E0', 'person_name': 'Ilya Chaplinskiy', 'profile_description': 'Product Data Analyst @ TapNation | HEC Paris &amp; MSU Graduate'}, {'profile_url': 'https://www.linkedin.com/in/hosni-ammar-300307139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGu5PABIm1UKsQQ5gjxiMNq7txC5PLQ2eQ', 'person_name': 'Hosni Ammar', 'profile_description': 'Passionate Game Developer / Mobile Gaming Specialist / Freelancer / Founder of Broken Mug Studio'}, {'profile_url': 'https://www.linkedin.com/in/timoth%C3%A9e-bruneau-93b59a133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCoDb8BnWxcc6DYcFoVP0HxUNV9SdyHxiA', 'person_name': 'Timothée Bruneau', 'profile_description': 'Senior Game Designer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/uzairhassan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXu8aABg1K5CuF8aWd5DSOLPFf_miL0dOA', 'person_name': 'Uzair Hassan', 'profile_description': 'Unity Game Developer | Hyper-Hybrid-Casual-Puzzle'}, {'profile_url': 'https://www.linkedin.com/in/qichangwu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi8KN8B5UZrjiThXH9Iu8hdWMmzJHS6X3A', 'person_name': 'QC W.', 'profile_description': 'Product and Publishing in Gaming Industry'}, {'profile_url': 'https://www.linkedin.com/in/sandra-zlatkovska-a73b20204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQiq_cBIixmuF0582qvKR6D_6GaZfs4Fmk', 'person_name': 'Sandra Zlatkovska', 'profile_description': 'User Acquisition Manager'}, {'profile_url': 'https://www.linkedin.com/in/laetitiabelkhamsa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWA7hMB0oWpa5_9k19I8sADKLqe0_5smFU', 'person_name': 'Laetitia Belkhamsa', 'profile_description': 'Senior Product Manager @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-qasim-4052b292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOfAsUBckPjwbtJB-pjV4C21Y4iEsELYEQ', 'person_name': 'Muhammad Qasim', 'profile_description': 'Game Developer | Tech Lead | Hypercasual Games | Metaverse 3D | Unity 3D C#'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-pierre-3a1274205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvvCkBbkx9nnAjJNN7NFYQWmcEtqSDSx4', 'person_name': 'Sébastien Pierre', 'profile_description': 'Infographiste 3D Généraliste chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umairsaifullah01?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACipgxYB8JOS4JdqtmKHfG9YM1qymgk49_k', 'person_name': 'Umair Saifullah', 'profile_description': 'Sr. Game Developer - C# || Unity 3D | Unreal Engine || Metaverse (NFT) || Game Design'}, {'profile_url': 'https://www.linkedin.com/in/vasif-abdullayev-a3b582185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuwZ08Bb9xyLDZ0Vjdj_3-rlQBxlj-V_40', 'person_name': 'Vasif Abdullayev', 'profile_description': 'Senior Game Developer | Game Programming, Game Mechanics, Mobile Game Development'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-touseef-73324b1b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFV-lcB_VoMVxtDP6ymakWSpojsOMSRZhQ', 'person_name': 'Muhammad Touseef', 'profile_description': 'Unity Developer @ TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/furkansenoglu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxjLDIB4PgSz3CQ0QqU65Ox24KkFm8kYhk', 'person_name': 'H. Furkan Şenoğlu', 'profile_description': 'Senior Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/mertcandogrucan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCwB5MBpUgl5ffRYXS9nKjqdpSLI9sDsKI', 'person_name': 'Mertcan Doğrucan', 'profile_description': 'Senior Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/victor-lebrun-graphiste?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxq4WsB9a2ifp6nyCaoIIxIl0h90q1bywM', 'person_name': 'Victor Lebrun', 'profile_description': 'Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/yang-yang92?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQg9wkBCwtdDmPEi4Zo4DS0pt_lDqillo4', 'person_name': 'Yang YANG', 'profile_description': 'Senior Acquisition &amp; Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/marinahallack?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABF-23QBeHkBCdQ_xIzOTK97JMzS70YoyTY', 'person_name': 'Marina Feres Hallack', 'profile_description': 'Senior User Acquisition Manager at TapNation | Mobile Growth, Perfomance Marketing &amp; User Acquisition'}, {'profile_url': 'https://www.linkedin.com/in/umutkarabuya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfahXIBuiypZpF0avdHh2wjhk89CzftzHc', 'person_name': 'Umut Karabuya', 'profile_description': 'Senior Game Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/boubker-elamri-964b47140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJXPJwBA1sAgWIM2JgfEP6bfxd6NSAVkd0', 'person_name': 'Boubker Elamri', 'profile_description': 'Game developer / Artist'}, {'profile_url': 'https://www.linkedin.com/in/samratsingh159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6mD40BMQNXEexuLBMJ7UEm0wgLqQaICTE', 'person_name': 'Samrat Singh', 'profile_description': 'MSc. in Data Analytics &amp; Artificial Intelligence at EDHEC Business School'}, {'profile_url': 'https://www.linkedin.com/in/jonjansencampos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADJysMB3DlkOyIlBL-L804BqwEEk3uIsXI', 'person_name': 'Jon Jansen Campos', 'profile_description': 'Live Ops Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umut-altun-285022122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5CUQUBJ3Dl8ZsJQB5tUnq8rQ3apCx3u-w', 'person_name': 'Umut Altun', 'profile_description': 'Data Scientist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/maryam-shamoon-6a13841b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGIatkBMtsCypB7BnozJvj9-hQ2xASQT1Q', 'person_name': 'Maryam Shamoon', 'profile_description': 'Senior graphic designer or ui ux designer'}, {'profile_url': 'https://www.linkedin.com/in/eesha-kohli-4b941b157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWdfg0BwGczs_2J58MSj9zvdhh0SQ2_d54', 'person_name': 'Eesha Kohli', 'profile_description': 'Product Management @ISB | Data Science'}, {'profile_url': 'https://www.linkedin.com/in/arhamchaudhry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeESloBDcIiwqA_BprS7yokkus0SxGdjGo', 'person_name': 'Arham Mustafa Chaudhry', 'profile_description': '3D Artist l Animator l UI Artist'}, {'profile_url': 'https://www.linkedin.com/in/meng-xiao-xm1998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxI11sBaT__6c2I6oGKJ-8GqyiVHVuJNbo', 'person_name': 'Meng XIAO', 'profile_description': 'User Acquisition Manager chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/siddhant-saxena-009229145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMYRskB6-11vFsFewlXPNPYDJmi-b-mwww', 'person_name': 'Siddhant Saxena', 'profile_description': 'Unity Developer (Live Ops) at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/dgorshkalev?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvic0BsuRk58Rp7JMJgwLe3kn8LWoIk0o', 'person_name': 'Daniil Gorshkalev', 'profile_description': 'M&amp;A Analyst at TapNation | ESSEC | HSE'}, {'profile_url': 'https://www.linkedin.com/in/hardy-jean?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbnCRUB_wkDVJ6eEUwvxTrqeLlLdjSC6YE', 'person_name': 'Jean Hardy', 'profile_description': 'Senior Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/renat-abbyazov-abbiazov-46a3738b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMY4dIB3yVA8pyiq-2cJVqNmgk03jDcaK4', 'person_name': 'Renat Abbyazov (Abbiazov)', 'profile_description': 'Data Scientist/Machine Learning Engineer'}, {'profile_url': 'https://www.linkedin.com/in/victor-hristov-7477741b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHyaicBUCqn0vd4-1vUw7fCZRvVyL0XlnE', 'person_name': 'Victor Hristov', 'profile_description': 'Business Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/irem-%C3%B6zg%C3%BCn-a412411bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMdWJEBYbnlX-V8sTd4OWeMzan5Y7BnU-M', 'person_name': 'İrem Özgün', 'profile_description': 'Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/karan-makvana-08645014a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQEZWYBCP8ezGkjwq-pGiG3xrkXtJrUgpo', 'person_name': 'Karan Makvana', 'profile_description': 'Unity3D Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muzzammil-naeem-siddiqui-047b82163?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcmibcBnsHex_KEotzwNzH2BEgZEOgRWq4', 'person_name': 'Muzzammil Naeem Siddiqui', 'profile_description': 'Unity Sdk Engineer | Game Developer | Playable Ads Developer'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-randon-262b55138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGhPCoBcQx-4_w8iw9RpIJKI0R_ui1FbIA', 'person_name': 'Léo Randon', 'profile_description': 'Game Designer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/efe-palas-360a49157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACW1KrgBtCSes5Nd60cABK55vFjPMUlCyLo', 'person_name': 'Efe PALAS', 'profile_description': 'Marketing Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/vena-trajkovska-a84012179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoutIQBrnIK7uYbfcg0AG3_gyALn_n96Eg', 'person_name': 'Vena Trajkovska', 'profile_description': 'User Acquisition Manager | Growth | Mobile Games 📱'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-arslan-zia-68198412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAAgsEBSOPsJx6mYVU5jeyKYkGRFsE0YE0', 'person_name': 'Muhammad Arslan Zia', 'profile_description': 'TapNation | SQA | Game Producer | Crafting Engaging Game Experiences'}, {'profile_url': 'https://www.linkedin.com/in/fathimaraseed?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQM7BcBlV6JDKjSiNc7GufwYk-BT8OpuHY', 'person_name': 'Fathima Raseed', 'profile_description': 'Senior 3D Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/merveakr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcDnwsBlDigXyRTlxHVbqauU1w-OFfWt9U', 'person_name': 'Merve Çakır', 'profile_description': 'Helping tech companies build data-driven products | Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sametfener?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpVi5EBaXPotBLqKc9gN0nnpkCBsSo09qk', 'person_name': 'Samet Can Fener', 'profile_description': 'Marketing Artist, Creative Video Producer, Motion Graphic Designer, Art Director'}, {'profile_url': 'https://www.linkedin.com/in/neel-mewada?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYI7ywBSI9CBayH1uiFpHqAvwGwTXvWt6E', 'person_name': 'Neil M.', 'profile_description': 'Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ryanrathgeber?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKtmh0Baqdp1gfvW4faR8ILrRTnO1VTgsk', 'person_name': 'Ryan Rathgeber', 'profile_description': 'Design Director | Senior Game Designer | Games Leadership'}, {'profile_url': 'https://www.linkedin.com/in/marrium-w-710a65213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYVc7wBPmVPhOz39K7xo4STbuY0QNrpVWc', 'person_name': 'Marrium W.', 'profile_description': 'ASO Manager @TapNation I Econ with Data Science @ ITU'}, {'profile_url': 'https://www.linkedin.com/in/tugcevatan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdIQkAB_U_eU2WaGFTrIOF5qYsZrirUbZY', 'person_name': 'Tugce Vatan', 'profile_description': 'Creative Production of Games / Open to relocation'}, {'profile_url': 'https://www.linkedin.com/in/dexter-morgan-440524280?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAERru3ABQ4JUrdwVtqo9gs8y68zJqvwtMOM', 'person_name': 'Dexter Morgan', 'profile_description': 'Recruiter at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/filza-ijaz-414ab718b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzV1JABMlpa-S0cGAIihnB17IEpxVZ2w2A', 'person_name': 'Filza Ijaz', 'profile_description': 'App Store Optimization (ASO) Specialist | User Acquisition Expert | Marketing Specialist | Organic Growth Manager | Games Publisher'}, {'profile_url': 'https://www.linkedin.com/in/tu%C4%9F%C3%A7e-k-11078514b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ-blwBYBvUiMr57NG18XcJR3ouKyyynPc', 'person_name': 'Tuğçe K.', 'profile_description': 'Market Analyst at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/smmehdirizvi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO0WKYBABMcRWpmTcjh5W3pzH09Bl_aMPo', 'person_name': 'Mehdi Rizvi', 'profile_description': "Expert en Optimisation de l'App Store (ASO), Responsable ASO, Spécialiste ASO, Consultant ASO, Responsable Marketing App Store, Expert en Référencement Mobile (SEO Mobile)."}, {'profile_url': 'https://www.linkedin.com/in/mehmetcemsit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAejbp8BtS_zMoYEFWiMLLHmZKlASdiqLoQ', 'person_name': 'Mehmet Cemsit', 'profile_description': 'Sr. Motion Designer'}, {'profile_url': 'https://www.linkedin.com/in/bur%C3%A7in-hayda%C5%9F-31354a3a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhEZT8B_2biVLm6l2jyna6TSHBHvX6vwqk', 'person_name': 'Burçin Haydaş', 'profile_description': 'Growth Expert/ Management- UA &amp; Monetization, Digital Marketer! Ambassador - Women in Game 📌'}, {'profile_url': 'https://www.linkedin.com/in/karen-bousquet-039080130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACALyC0B7p_lbclhd9y1B7-BvaWSNgJkuOk', 'person_name': 'Karen Bousquet', 'profile_description': 'Game Artist @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/aleksandrs-grigorjevs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs0XEcBAHPa8VyJPJVBJHwVHWB2zvVyUFc', 'person_name': 'Aleksandrs Grigorjevs', 'profile_description': 'Lead Game Developer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/bibche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAF8D0BzIrVqzw00QkwjLi-VUxEpVR_OLE', 'person_name': 'Filip Spasenovski', 'profile_description': 'Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/cetin-mustafa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUwbuYBaAizj4U_1apxWrkEWwe5PowuB2I', 'person_name': 'Mustafa Çetin', 'profile_description': 'Helping Creative Production of Games | 10+ years of experience | 15 Hit Games | UA &amp; Creative Strategy | Creative Consultant'}, {'profile_url': 'https://www.linkedin.com/in/awais-mughal-82a664187?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwOvaIByIiA5jhZpoT1zPyH4B_gy_wtKfU', 'person_name': 'Awais Mughal', 'profile_description': 'Unity Developer @TapNation | Creating Immersive and Engaging Games | Live Service Game Specialist | Metaverse | Casual Games | Multiplayer'}, {'profile_url': 'https://www.linkedin.com/in/elizabeth-yaminskaya-6379b58a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMDbEsBebUu5s1Xu1zYoT6PBbsoiDuUopQ', 'person_name': 'Elizabeth Yaminskaya', 'profile_description': 'Quality assurance manager'}, {'profile_url': 'https://www.linkedin.com/in/dmitry-telegin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQaenwB5bVtIS4rSyaaXx1SnpqkIH6UV-8', 'person_name': 'Dmitry Telegin', 'profile_description': 'Senior hyper-casual/casual games artist. 2D/3D. Ui/Ux. SFX. Animation. Unity.'}, {'profile_url': 'https://www.linkedin.com/in/brunogranja?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs96CcBCnlDt5Vc30aPYEARuk7WMhwHUU0', 'person_name': 'Bruno Granja Camarero', 'profile_description': 'Head of Data Analytics @Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}, {'profile_url': 'https://www.linkedin.com/in/herlinda-garcia-928906238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5GbABfGJhLLI9XaYKgb0hiXHF7Td3hbA', 'person_name': 'Herlinda Garcia', 'profile_description': '🎮 Acquisitions Manager at TapNation | Mobile Games | M&amp;A | Business Development | Legal &amp; Commercial Translator 🌍 ES-EN-FR-AR'}]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>303,95 %</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>6.491,36 %</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>44.324.280 €</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>672.460 €</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>25</v>
+      </c>
+      <c r="S32" t="n">
+        <v>58</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo</t>
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TapNation </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.tap-nation.io/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['456-789-0123', '789-012-3456', '+1-202-555-0152', '123-456-7890', 'Fax: 987-654-3210', 'WhatsApp: +9876543210', '+123456789012', 'Fax: +1-202-555-0199', '+1-202-555-0117', 'WhatsApp: +1-202-555-0165']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Elm Street, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/tapnation</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Entrepreneur &amp; investor</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/philippe-grazina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzkoEkBnw25vk_XAjGZjp1o_xs4HlRs1sg', 'person_name': 'Philippe Grazina', 'profile_description': 'Head of Marketing @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}, {'profile_url': 'https://www.linkedin.com/in/shwetapakhare?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWz0A8Bh9WAkMa1h2nWXU106x-aGmzHNUM', 'person_name': 'Shweta Pakhare', 'profile_description': 'Marketing Manager at TapNation | 3 years in Communication and Marketing | International Marketing and Brand Management at NEOMA BS'}, {'profile_url': 'https://www.linkedin.com/in/philippe-ld?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaCPJEBDFEqoyQk4lG3RENlur5ME16_0zc', 'person_name': 'Philippe L.', 'profile_description': 'Head of Web3 @TapNation / Gaming &amp; Web3 Leader'}, {'profile_url': 'https://www.linkedin.com/in/anastase-helaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACE39dsBE__8LmuvL2dT_dzvIQk3-bGy2vs', 'person_name': 'Anastase Helaine', 'profile_description': 'Product Manager - Web 3 | Tapnation #Mobile #Gaming #Web3'}, {'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}, {'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}, {'profile_url': 'https://www.linkedin.com/in/emmanuelbrunet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAABKR8BMQDf-GK-HewEBnj2NHmlAGAqzNs', 'person_name': 'Emmanuel Brunet', 'profile_description': 'Digital expert turned into Wine enthusiast'}, {'profile_url': 'https://www.linkedin.com/in/syef-medini-040a3222a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl2GLABXZBXnJvDHdkqY1PYMMFRTb24fjE', 'person_name': 'Syef Medini', 'profile_description': 'Monetisation Manager'}, {'profile_url': 'https://www.linkedin.com/in/yohan-avakian-78366899?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABTruFMBDiddWriT4Kfv6cd4OUmhDh2T-G4', 'person_name': 'Yohan Avakian', 'profile_description': 'IT and System Engineer'}, {'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}, {'profile_url': 'https://www.linkedin.com/in/philippe-casassa-b519aa10a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuOP-0BzncSYfTZIV6e-cvuOhDCjlVE104', 'person_name': 'Philippe CASASSA', 'profile_description': 'Responsable financier chez TAPNATION'}, {'profile_url': 'https://www.linkedin.com/in/ecem-calban-13410b116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzZNvgBtHS58s8mDKa7pAjJNeDTVvICnSM', 'person_name': 'Ecem Calban', 'profile_description': 'User Acquisition Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/alexandreberthault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo5U54BPYbbNG7e9Obs8cyPA0ZQmjW0LiI', 'person_name': 'Alexandre Berthault', 'profile_description': 'Gameplay programmer'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-ramadier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-BHIkBdbUsePuGvWsNvX1hqXh039xQSM8', 'person_name': 'Laetitia Ramadier', 'profile_description': 'ASO graphic designer at TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/kinsey-dardanus-5971b4b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiXBUMBPsjMMIb1GxqM4y5A4TPpGoSyl7o', 'person_name': 'Kinsey Dardanus', 'profile_description': 'CPO at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}, {'profile_url': 'https://www.linkedin.com/in/kamelhaddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAojzecBjaS3LEwuYfuZ8_QL36iSYNSih84', 'person_name': 'Kamel Haddad 🏴\u200d☠️', 'profile_description': 'VP of Engineering at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sarthakjoshi17?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS4VIYBDqE_DLxPHhC1hzhmKcHBGLVE4v4', 'person_name': 'Sarthak Joshi', 'profile_description': "Senior Publishing Manager at TapNation | Let's make the next hit together"}, {'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}, {'profile_url': 'https://www.linkedin.com/in/andrei-luzan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkbBjIBbxGcR94iZW8R9yqoN_Q9SBr9VCU', 'person_name': 'Andrei Luzan', 'profile_description': 'Sr Ad Monetization Manager | Ad Monetization Consultant | Mobile Game Development | Ad Monetization'}, {'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}, {'profile_url': 'https://www.linkedin.com/in/vincent-f%C3%A9vrier-9580ab53?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs56ZQBdAVEj0Buxuo4CS9L6tuisTL7fzk', 'person_name': 'Vincent Février', 'profile_description': 'Chief Marketing Officer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julienlandez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtP1cBo8EpWzqq84ppD4unvsI89Trd17E', 'person_name': 'Julien Landez', 'profile_description': '3D artist'}, {'profile_url': 'https://www.linkedin.com/in/mittaljatin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUo-YBUKPNGMk6hBZy_37AOxu4uQK8G2w', 'person_name': 'Jatin Mittal', 'profile_description': 'Head of User Acquisition @ Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sumit-bhandari-350587171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjXhSwBqTXZa-8oDNg8aqAN5sJZKyRl7zg', 'person_name': 'Sumit Bhandari', 'profile_description': 'MSc Data Analytics Student at Paris School of Business | BI and Data Analytics Enthusiast | Open to Opportunities'}, {'profile_url': 'https://www.linkedin.com/in/paul-thibault-497149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmT3MB-6VPwtJjq2bpq73MkTYN2Gke6mg', 'person_name': 'Paul Thibault', 'profile_description': 'Game developer'}, {'profile_url': 'https://www.linkedin.com/in/ayush-lakra?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoLuCEBjyEOLc4SzlY8za4sO53wW3c6Ntk', 'person_name': 'Ayush Lakra', 'profile_description': 'Former Marketing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sa%C3%AFd-salloub-webmarketing?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASUcowB3IceGlL66dKa86OxZoXirtaow7E', 'person_name': 'Saïd Salloub', 'profile_description': "Expert en Monétisation d'audience et Acquisition de trafic"}, {'profile_url': 'https://www.linkedin.com/in/carolina-alzamora-gomes?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm_uEYBhLGGQggidJ9hQ411a3UNp4DcXJY', 'person_name': 'Carolina Alzamora Gomes', 'profile_description': 'Business Analyst | Digital Business Consultancy ✅ | Project Management | 🔴 MSc in E-Business and Digital Marketing | +5 year BBA | Data Analysis, Strategic Thinking, GTM Strategy, Inside Sales | ➡️ Tech Innovation'}, {'profile_url': 'https://www.linkedin.com/in/antoine-nisoli?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYzdiUBkTsPS7MYjMt0VTiHppVIZAfJiQI', 'person_name': 'Antoine Nisoli', 'profile_description': 'Unity Developer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/skelly-francisco-8b0184172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj11AQB57CIZIRjMYV-09nRoUcy9M43ubQ', 'person_name': 'Skelly Francisco', 'profile_description': 'Game designer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/a%C3%AFssatou-b-diop-46966618b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzFCREBVFsSlBMIuoVDAA2me6m45WE5UW8', 'person_name': 'Aïssatou B. Diop', 'profile_description': 'Data Analyst at TapNation | Business &amp; Technology Manager Student at Epitech Digital School'}, {'profile_url': 'https://www.linkedin.com/in/olgazhukowskaya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2k6HUBQCBy0ZMOX75EI3iBNFu1A00vwbg', 'person_name': 'Olga Z.', 'profile_description': 'Ad monetization manager'}, {'profile_url': 'https://www.linkedin.com/in/sufian-ahmad-%F0%9F%99%8C-0b38ab1a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCK1McBMYgTFkwDj6scDeigD0GP2xZZlBo', 'person_name': 'Sufian Ahmad 🙌', 'profile_description': 'Indie Game Developer | Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ozgursertel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvbn4sBxM5n5ek7DFP2pwp2aKrDpqTq7Sg', 'person_name': 'Özgür Sertel', 'profile_description': 'QA Engineer @ TapNation'}, {'profile_url': 'https://www.linkedin.com/in/segunsojobi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSodPUBPsSq5D6U7_DK1P85mTAwspn3by0', 'person_name': 'Segun Sojobi', 'profile_description': 'Software Engineer, Real-time 3D.'}, {'profile_url': 'https://www.linkedin.com/in/fabien-nicot-40348b174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClchIMBLAma35N-8kQLEnIj8HTe5n6YfdQ', 'person_name': 'Fabien Nicot', 'profile_description': 'Lead Dev Unity at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ahmet-akif-u%C4%9Furtan-2038b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkMxKMBIGZ5x_h4MebplTIJ_HG-j_WT06M', 'person_name': 'Ahmet Akif Uğurtan', 'profile_description': 'Backend Engineer at Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lisch-35831884?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHYLPQBMFCQDaGYaxblmFKLRU5O5h_eo1s', 'person_name': 'Maxime Lisch', 'profile_description': 'Head of Creative chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/jessie-bouton-0289b6231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADn9n6ABdU307fgp0sT17Mn2d9gbNyHeOAE', 'person_name': 'Jessie Bouton', 'profile_description': 'QA testeur Manager pour TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ilya-chaplinskiy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACced9IBNT2aU8287ksYiZmoFktqyDZJ0E0', 'person_name': 'Ilya Chaplinskiy', 'profile_description': 'Product Data Analyst @ TapNation | HEC Paris &amp; MSU Graduate'}, {'profile_url': 'https://www.linkedin.com/in/hosni-ammar-300307139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGu5PABIm1UKsQQ5gjxiMNq7txC5PLQ2eQ', 'person_name': 'Hosni Ammar', 'profile_description': 'Passionate Game Developer / Mobile Gaming Specialist / Freelancer / Founder of Broken Mug Studio'}, {'profile_url': 'https://www.linkedin.com/in/timoth%C3%A9e-bruneau-93b59a133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCoDb8BnWxcc6DYcFoVP0HxUNV9SdyHxiA', 'person_name': 'Timothée Bruneau', 'profile_description': 'Senior Game Designer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/uzairhassan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXu8aABg1K5CuF8aWd5DSOLPFf_miL0dOA', 'person_name': 'Uzair Hassan', 'profile_description': 'Unity Game Developer | Hyper-Hybrid-Casual-Puzzle'}, {'profile_url': 'https://www.linkedin.com/in/qichangwu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi8KN8B5UZrjiThXH9Iu8hdWMmzJHS6X3A', 'person_name': 'QC W.', 'profile_description': 'Product and Publishing in Gaming Industry'}, {'profile_url': 'https://www.linkedin.com/in/sandra-zlatkovska-a73b20204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQiq_cBIixmuF0582qvKR6D_6GaZfs4Fmk', 'person_name': 'Sandra Zlatkovska', 'profile_description': 'User Acquisition Manager'}, {'profile_url': 'https://www.linkedin.com/in/laetitiabelkhamsa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWA7hMB0oWpa5_9k19I8sADKLqe0_5smFU', 'person_name': 'Laetitia Belkhamsa', 'profile_description': 'Senior Product Manager @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-qasim-4052b292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOfAsUBckPjwbtJB-pjV4C21Y4iEsELYEQ', 'person_name': 'Muhammad Qasim', 'profile_description': 'Game Developer | Tech Lead | Hypercasual Games | Metaverse 3D | Unity 3D C#'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-pierre-3a1274205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvvCkBbkx9nnAjJNN7NFYQWmcEtqSDSx4', 'person_name': 'Sébastien Pierre', 'profile_description': 'Infographiste 3D Généraliste chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umairsaifullah01?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACipgxYB8JOS4JdqtmKHfG9YM1qymgk49_k', 'person_name': 'Umair Saifullah', 'profile_description': 'Sr. Game Developer - C# || Unity 3D | Unreal Engine || Metaverse (NFT) || Game Design'}, {'profile_url': 'https://www.linkedin.com/in/vasif-abdullayev-a3b582185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuwZ08Bb9xyLDZ0Vjdj_3-rlQBxlj-V_40', 'person_name': 'Vasif Abdullayev', 'profile_description': 'Senior Game Developer | Game Programming, Game Mechanics, Mobile Game Development'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-touseef-73324b1b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFV-lcB_VoMVxtDP6ymakWSpojsOMSRZhQ', 'person_name': 'Muhammad Touseef', 'profile_description': 'Unity Developer @ TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/furkansenoglu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxjLDIB4PgSz3CQ0QqU65Ox24KkFm8kYhk', 'person_name': 'H. Furkan Şenoğlu', 'profile_description': 'Senior Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/mertcandogrucan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCwB5MBpUgl5ffRYXS9nKjqdpSLI9sDsKI', 'person_name': 'Mertcan Doğrucan', 'profile_description': 'Senior Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/victor-lebrun-graphiste?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxq4WsB9a2ifp6nyCaoIIxIl0h90q1bywM', 'person_name': 'Victor Lebrun', 'profile_description': 'Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/yang-yang92?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQg9wkBCwtdDmPEi4Zo4DS0pt_lDqillo4', 'person_name': 'Yang YANG', 'profile_description': 'Senior Acquisition &amp; Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/marinahallack?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABF-23QBeHkBCdQ_xIzOTK97JMzS70YoyTY', 'person_name': 'Marina Feres Hallack', 'profile_description': 'Senior User Acquisition Manager at TapNation | Mobile Growth, Perfomance Marketing &amp; User Acquisition'}, {'profile_url': 'https://www.linkedin.com/in/umutkarabuya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfahXIBuiypZpF0avdHh2wjhk89CzftzHc', 'person_name': 'Umut Karabuya', 'profile_description': 'Senior Game Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/boubker-elamri-964b47140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJXPJwBA1sAgWIM2JgfEP6bfxd6NSAVkd0', 'person_name': 'Boubker Elamri', 'profile_description': 'Game developer / Artist'}, {'profile_url': 'https://www.linkedin.com/in/samratsingh159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6mD40BMQNXEexuLBMJ7UEm0wgLqQaICTE', 'person_name': 'Samrat Singh', 'profile_description': 'MSc. in Data Analytics &amp; Artificial Intelligence at EDHEC Business School'}, {'profile_url': 'https://www.linkedin.com/in/jonjansencampos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADJysMB3DlkOyIlBL-L804BqwEEk3uIsXI', 'person_name': 'Jon Jansen Campos', 'profile_description': 'Live Ops Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umut-altun-285022122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5CUQUBJ3Dl8ZsJQB5tUnq8rQ3apCx3u-w', 'person_name': 'Umut Altun', 'profile_description': 'Data Scientist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/maryam-shamoon-6a13841b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGIatkBMtsCypB7BnozJvj9-hQ2xASQT1Q', 'person_name': 'Maryam Shamoon', 'profile_description': 'Senior graphic designer or ui ux designer'}, {'profile_url': 'https://www.linkedin.com/in/eesha-kohli-4b941b157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWdfg0BwGczs_2J58MSj9zvdhh0SQ2_d54', 'person_name': 'Eesha Kohli', 'profile_description': 'Product Management @ISB | Data Science'}, {'profile_url': 'https://www.linkedin.com/in/arhamchaudhry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeESloBDcIiwqA_BprS7yokkus0SxGdjGo', 'person_name': 'Arham Mustafa Chaudhry', 'profile_description': '3D Artist l Animator l UI Artist'}, {'profile_url': 'https://www.linkedin.com/in/meng-xiao-xm1998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxI11sBaT__6c2I6oGKJ-8GqyiVHVuJNbo', 'person_name': 'Meng XIAO', 'profile_description': 'User Acquisition Manager chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/siddhant-saxena-009229145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMYRskB6-11vFsFewlXPNPYDJmi-b-mwww', 'person_name': 'Siddhant Saxena', 'profile_description': 'Unity Developer (Live Ops) at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/dgorshkalev?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvic0BsuRk58Rp7JMJgwLe3kn8LWoIk0o', 'person_name': 'Daniil Gorshkalev', 'profile_description': 'M&amp;A Analyst at TapNation | ESSEC | HSE'}, {'profile_url': 'https://www.linkedin.com/in/hardy-jean?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbnCRUB_wkDVJ6eEUwvxTrqeLlLdjSC6YE', 'person_name': 'Jean Hardy', 'profile_description': 'Senior Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/renat-abbyazov-abbiazov-46a3738b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMY4dIB3yVA8pyiq-2cJVqNmgk03jDcaK4', 'person_name': 'Renat Abbyazov (Abbiazov)', 'profile_description': 'Data Scientist/Machine Learning Engineer'}, {'profile_url': 'https://www.linkedin.com/in/victor-hristov-7477741b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHyaicBUCqn0vd4-1vUw7fCZRvVyL0XlnE', 'person_name': 'Victor Hristov', 'profile_description': 'Business Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/irem-%C3%B6zg%C3%BCn-a412411bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMdWJEBYbnlX-V8sTd4OWeMzan5Y7BnU-M', 'person_name': 'İrem Özgün', 'profile_description': 'Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/karan-makvana-08645014a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQEZWYBCP8ezGkjwq-pGiG3xrkXtJrUgpo', 'person_name': 'Karan Makvana', 'profile_description': 'Unity3D Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muzzammil-naeem-siddiqui-047b82163?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcmibcBnsHex_KEotzwNzH2BEgZEOgRWq4', 'person_name': 'Muzzammil Naeem Siddiqui', 'profile_description': 'Unity Sdk Engineer | Game Developer | Playable Ads Developer'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-randon-262b55138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGhPCoBcQx-4_w8iw9RpIJKI0R_ui1FbIA', 'person_name': 'Léo Randon', 'profile_description': 'Game Designer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/efe-palas-360a49157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACW1KrgBtCSes5Nd60cABK55vFjPMUlCyLo', 'person_name': 'Efe PALAS', 'profile_description': 'Marketing Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/vena-trajkovska-a84012179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoutIQBrnIK7uYbfcg0AG3_gyALn_n96Eg', 'person_name': 'Vena Trajkovska', 'profile_description': 'User Acquisition Manager | Growth | Mobile Games 📱'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-arslan-zia-68198412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAAgsEBSOPsJx6mYVU5jeyKYkGRFsE0YE0', 'person_name': 'Muhammad Arslan Zia', 'profile_description': 'TapNation | SQA | Game Producer | Crafting Engaging Game Experiences'}, {'profile_url': 'https://www.linkedin.com/in/fathimaraseed?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQM7BcBlV6JDKjSiNc7GufwYk-BT8OpuHY', 'person_name': 'Fathima Raseed', 'profile_description': 'Senior 3D Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/merveakr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcDnwsBlDigXyRTlxHVbqauU1w-OFfWt9U', 'person_name': 'Merve Çakır', 'profile_description': 'Helping tech companies build data-driven products | Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sametfener?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpVi5EBaXPotBLqKc9gN0nnpkCBsSo09qk', 'person_name': 'Samet Can Fener', 'profile_description': 'Marketing Artist, Creative Video Producer, Motion Graphic Designer, Art Director'}, {'profile_url': 'https://www.linkedin.com/in/neel-mewada?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYI7ywBSI9CBayH1uiFpHqAvwGwTXvWt6E', 'person_name': 'Neil M.', 'profile_description': 'Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ryanrathgeber?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKtmh0Baqdp1gfvW4faR8ILrRTnO1VTgsk', 'person_name': 'Ryan Rathgeber', 'profile_description': 'Design Director | Senior Game Designer | Games Leadership'}, {'profile_url': 'https://www.linkedin.com/in/marrium-w-710a65213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYVc7wBPmVPhOz39K7xo4STbuY0QNrpVWc', 'person_name': 'Marrium W.', 'profile_description': 'ASO Manager @TapNation I Econ with Data Science @ ITU'}, {'profile_url': 'https://www.linkedin.com/in/tugcevatan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdIQkAB_U_eU2WaGFTrIOF5qYsZrirUbZY', 'person_name': 'Tugce Vatan', 'profile_description': 'Creative Production of Games / Open to relocation'}, {'profile_url': 'https://www.linkedin.com/in/dexter-morgan-440524280?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAERru3ABQ4JUrdwVtqo9gs8y68zJqvwtMOM', 'person_name': 'Dexter Morgan', 'profile_description': 'Recruiter at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/filza-ijaz-414ab718b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzV1JABMlpa-S0cGAIihnB17IEpxVZ2w2A', 'person_name': 'Filza Ijaz', 'profile_description': 'App Store Optimization (ASO) Specialist | User Acquisition Expert | Marketing Specialist | Organic Growth Manager | Games Publisher'}, {'profile_url': 'https://www.linkedin.com/in/tu%C4%9F%C3%A7e-k-11078514b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ-blwBYBvUiMr57NG18XcJR3ouKyyynPc', 'person_name': 'Tuğçe K.', 'profile_description': 'Market Analyst at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/smmehdirizvi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO0WKYBABMcRWpmTcjh5W3pzH09Bl_aMPo', 'person_name': 'Mehdi Rizvi', 'profile_description': "Expert en Optimisation de l'App Store (ASO), Responsable ASO, Spécialiste ASO, Consultant ASO, Responsable Marketing App Store, Expert en Référencement Mobile (SEO Mobile)."}, {'profile_url': 'https://www.linkedin.com/in/mehmetcemsit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAejbp8BtS_zMoYEFWiMLLHmZKlASdiqLoQ', 'person_name': 'Mehmet Cemsit', 'profile_description': 'Sr. Motion Designer'}, {'profile_url': 'https://www.linkedin.com/in/bur%C3%A7in-hayda%C5%9F-31354a3a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhEZT8B_2biVLm6l2jyna6TSHBHvX6vwqk', 'person_name': 'Burçin Haydaş', 'profile_description': 'Growth Expert/ Management- UA &amp; Monetization, Digital Marketer! Ambassador - Women in Game 📌'}, {'profile_url': 'https://www.linkedin.com/in/karen-bousquet-039080130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACALyC0B7p_lbclhd9y1B7-BvaWSNgJkuOk', 'person_name': 'Karen Bousquet', 'profile_description': 'Game Artist @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/aleksandrs-grigorjevs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs0XEcBAHPa8VyJPJVBJHwVHWB2zvVyUFc', 'person_name': 'Aleksandrs Grigorjevs', 'profile_description': 'Lead Game Developer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/bibche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAF8D0BzIrVqzw00QkwjLi-VUxEpVR_OLE', 'person_name': 'Filip Spasenovski', 'profile_description': 'Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/cetin-mustafa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUwbuYBaAizj4U_1apxWrkEWwe5PowuB2I', 'person_name': 'Mustafa Çetin', 'profile_description': 'Helping Creative Production of Games | 10+ years of experience | 15 Hit Games | UA &amp; Creative Strategy | Creative Consultant'}, {'profile_url': 'https://www.linkedin.com/in/awais-mughal-82a664187?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwOvaIByIiA5jhZpoT1zPyH4B_gy_wtKfU', 'person_name': 'Awais Mughal', 'profile_description': 'Unity Developer @TapNation | Creating Immersive and Engaging Games | Live Service Game Specialist | Metaverse | Casual Games | Multiplayer'}, {'profile_url': 'https://www.linkedin.com/in/elizabeth-yaminskaya-6379b58a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMDbEsBebUu5s1Xu1zYoT6PBbsoiDuUopQ', 'person_name': 'Elizabeth Yaminskaya', 'profile_description': 'Quality assurance manager'}, {'profile_url': 'https://www.linkedin.com/in/dmitry-telegin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQaenwB5bVtIS4rSyaaXx1SnpqkIH6UV-8', 'person_name': 'Dmitry Telegin', 'profile_description': 'Senior hyper-casual/casual games artist. 2D/3D. Ui/Ux. SFX. Animation. Unity.'}, {'profile_url': 'https://www.linkedin.com/in/brunogranja?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs96CcBCnlDt5Vc30aPYEARuk7WMhwHUU0', 'person_name': 'Bruno Granja Camarero', 'profile_description': 'Head of Data Analytics @Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}, {'profile_url': 'https://www.linkedin.com/in/herlinda-garcia-928906238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5GbABfGJhLLI9XaYKgb0hiXHF7Td3hbA', 'person_name': 'Herlinda Garcia', 'profile_description': '🎮 Acquisitions Manager at TapNation | Mobile Games | M&amp;A | Business Development | Legal &amp; Commercial Translator 🌍 ES-EN-FR-AR'}]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>303,95 %</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>6.491,36 %</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>44.324.280 €</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>672.460 €</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>25</v>
+      </c>
+      <c r="S33" t="n">
+        <v>58</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0</t>
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TapNation </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.tap-nation.io/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['456-789-0123', '789-012-3456', '+1-202-555-0152', '123-456-7890', 'Fax: 987-654-3210', 'WhatsApp: +9876543210', '+123456789012', 'Fax: +1-202-555-0199', '+1-202-555-0117', 'WhatsApp: +1-202-555-0165']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Elm Street, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/tapnation</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Co-founder at Ogury</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/philippe-grazina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzkoEkBnw25vk_XAjGZjp1o_xs4HlRs1sg', 'person_name': 'Philippe Grazina', 'profile_description': 'Head of Marketing @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}, {'profile_url': 'https://www.linkedin.com/in/shwetapakhare?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWz0A8Bh9WAkMa1h2nWXU106x-aGmzHNUM', 'person_name': 'Shweta Pakhare', 'profile_description': 'Marketing Manager at TapNation | 3 years in Communication and Marketing | International Marketing and Brand Management at NEOMA BS'}, {'profile_url': 'https://www.linkedin.com/in/philippe-ld?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaCPJEBDFEqoyQk4lG3RENlur5ME16_0zc', 'person_name': 'Philippe L.', 'profile_description': 'Head of Web3 @TapNation / Gaming &amp; Web3 Leader'}, {'profile_url': 'https://www.linkedin.com/in/anastase-helaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACE39dsBE__8LmuvL2dT_dzvIQk3-bGy2vs', 'person_name': 'Anastase Helaine', 'profile_description': 'Product Manager - Web 3 | Tapnation #Mobile #Gaming #Web3'}, {'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}, {'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}, {'profile_url': 'https://www.linkedin.com/in/emmanuelbrunet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAABKR8BMQDf-GK-HewEBnj2NHmlAGAqzNs', 'person_name': 'Emmanuel Brunet', 'profile_description': 'Digital expert turned into Wine enthusiast'}, {'profile_url': 'https://www.linkedin.com/in/syef-medini-040a3222a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl2GLABXZBXnJvDHdkqY1PYMMFRTb24fjE', 'person_name': 'Syef Medini', 'profile_description': 'Monetisation Manager'}, {'profile_url': 'https://www.linkedin.com/in/yohan-avakian-78366899?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABTruFMBDiddWriT4Kfv6cd4OUmhDh2T-G4', 'person_name': 'Yohan Avakian', 'profile_description': 'IT and System Engineer'}, {'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}, {'profile_url': 'https://www.linkedin.com/in/philippe-casassa-b519aa10a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuOP-0BzncSYfTZIV6e-cvuOhDCjlVE104', 'person_name': 'Philippe CASASSA', 'profile_description': 'Responsable financier chez TAPNATION'}, {'profile_url': 'https://www.linkedin.com/in/ecem-calban-13410b116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzZNvgBtHS58s8mDKa7pAjJNeDTVvICnSM', 'person_name': 'Ecem Calban', 'profile_description': 'User Acquisition Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/alexandreberthault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo5U54BPYbbNG7e9Obs8cyPA0ZQmjW0LiI', 'person_name': 'Alexandre Berthault', 'profile_description': 'Gameplay programmer'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-ramadier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-BHIkBdbUsePuGvWsNvX1hqXh039xQSM8', 'person_name': 'Laetitia Ramadier', 'profile_description': 'ASO graphic designer at TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/kinsey-dardanus-5971b4b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiXBUMBPsjMMIb1GxqM4y5A4TPpGoSyl7o', 'person_name': 'Kinsey Dardanus', 'profile_description': 'CPO at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}, {'profile_url': 'https://www.linkedin.com/in/kamelhaddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAojzecBjaS3LEwuYfuZ8_QL36iSYNSih84', 'person_name': 'Kamel Haddad 🏴\u200d☠️', 'profile_description': 'VP of Engineering at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sarthakjoshi17?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS4VIYBDqE_DLxPHhC1hzhmKcHBGLVE4v4', 'person_name': 'Sarthak Joshi', 'profile_description': "Senior Publishing Manager at TapNation | Let's make the next hit together"}, {'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}, {'profile_url': 'https://www.linkedin.com/in/andrei-luzan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkbBjIBbxGcR94iZW8R9yqoN_Q9SBr9VCU', 'person_name': 'Andrei Luzan', 'profile_description': 'Sr Ad Monetization Manager | Ad Monetization Consultant | Mobile Game Development | Ad Monetization'}, {'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}, {'profile_url': 'https://www.linkedin.com/in/vincent-f%C3%A9vrier-9580ab53?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs56ZQBdAVEj0Buxuo4CS9L6tuisTL7fzk', 'person_name': 'Vincent Février', 'profile_description': 'Chief Marketing Officer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julienlandez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtP1cBo8EpWzqq84ppD4unvsI89Trd17E', 'person_name': 'Julien Landez', 'profile_description': '3D artist'}, {'profile_url': 'https://www.linkedin.com/in/mittaljatin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUo-YBUKPNGMk6hBZy_37AOxu4uQK8G2w', 'person_name': 'Jatin Mittal', 'profile_description': 'Head of User Acquisition @ Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sumit-bhandari-350587171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjXhSwBqTXZa-8oDNg8aqAN5sJZKyRl7zg', 'person_name': 'Sumit Bhandari', 'profile_description': 'MSc Data Analytics Student at Paris School of Business | BI and Data Analytics Enthusiast | Open to Opportunities'}, {'profile_url': 'https://www.linkedin.com/in/paul-thibault-497149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmT3MB-6VPwtJjq2bpq73MkTYN2Gke6mg', 'person_name': 'Paul Thibault', 'profile_description': 'Game developer'}, {'profile_url': 'https://www.linkedin.com/in/ayush-lakra?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoLuCEBjyEOLc4SzlY8za4sO53wW3c6Ntk', 'person_name': 'Ayush Lakra', 'profile_description': 'Former Marketing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sa%C3%AFd-salloub-webmarketing?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASUcowB3IceGlL66dKa86OxZoXirtaow7E', 'person_name': 'Saïd Salloub', 'profile_description': "Expert en Monétisation d'audience et Acquisition de trafic"}, {'profile_url': 'https://www.linkedin.com/in/carolina-alzamora-gomes?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm_uEYBhLGGQggidJ9hQ411a3UNp4DcXJY', 'person_name': 'Carolina Alzamora Gomes', 'profile_description': 'Business Analyst | Digital Business Consultancy ✅ | Project Management | 🔴 MSc in E-Business and Digital Marketing | +5 year BBA | Data Analysis, Strategic Thinking, GTM Strategy, Inside Sales | ➡️ Tech Innovation'}, {'profile_url': 'https://www.linkedin.com/in/antoine-nisoli?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYzdiUBkTsPS7MYjMt0VTiHppVIZAfJiQI', 'person_name': 'Antoine Nisoli', 'profile_description': 'Unity Developer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/skelly-francisco-8b0184172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj11AQB57CIZIRjMYV-09nRoUcy9M43ubQ', 'person_name': 'Skelly Francisco', 'profile_description': 'Game designer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/a%C3%AFssatou-b-diop-46966618b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzFCREBVFsSlBMIuoVDAA2me6m45WE5UW8', 'person_name': 'Aïssatou B. Diop', 'profile_description': 'Data Analyst at TapNation | Business &amp; Technology Manager Student at Epitech Digital School'}, {'profile_url': 'https://www.linkedin.com/in/olgazhukowskaya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2k6HUBQCBy0ZMOX75EI3iBNFu1A00vwbg', 'person_name': 'Olga Z.', 'profile_description': 'Ad monetization manager'}, {'profile_url': 'https://www.linkedin.com/in/sufian-ahmad-%F0%9F%99%8C-0b38ab1a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCK1McBMYgTFkwDj6scDeigD0GP2xZZlBo', 'person_name': 'Sufian Ahmad 🙌', 'profile_description': 'Indie Game Developer | Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ozgursertel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvbn4sBxM5n5ek7DFP2pwp2aKrDpqTq7Sg', 'person_name': 'Özgür Sertel', 'profile_description': 'QA Engineer @ TapNation'}, {'profile_url': 'https://www.linkedin.com/in/segunsojobi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSodPUBPsSq5D6U7_DK1P85mTAwspn3by0', 'person_name': 'Segun Sojobi', 'profile_description': 'Software Engineer, Real-time 3D.'}, {'profile_url': 'https://www.linkedin.com/in/fabien-nicot-40348b174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClchIMBLAma35N-8kQLEnIj8HTe5n6YfdQ', 'person_name': 'Fabien Nicot', 'profile_description': 'Lead Dev Unity at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ahmet-akif-u%C4%9Furtan-2038b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkMxKMBIGZ5x_h4MebplTIJ_HG-j_WT06M', 'person_name': 'Ahmet Akif Uğurtan', 'profile_description': 'Backend Engineer at Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lisch-35831884?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHYLPQBMFCQDaGYaxblmFKLRU5O5h_eo1s', 'person_name': 'Maxime Lisch', 'profile_description': 'Head of Creative chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/jessie-bouton-0289b6231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADn9n6ABdU307fgp0sT17Mn2d9gbNyHeOAE', 'person_name': 'Jessie Bouton', 'profile_description': 'QA testeur Manager pour TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ilya-chaplinskiy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACced9IBNT2aU8287ksYiZmoFktqyDZJ0E0', 'person_name': 'Ilya Chaplinskiy', 'profile_description': 'Product Data Analyst @ TapNation | HEC Paris &amp; MSU Graduate'}, {'profile_url': 'https://www.linkedin.com/in/hosni-ammar-300307139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGu5PABIm1UKsQQ5gjxiMNq7txC5PLQ2eQ', 'person_name': 'Hosni Ammar', 'profile_description': 'Passionate Game Developer / Mobile Gaming Specialist / Freelancer / Founder of Broken Mug Studio'}, {'profile_url': 'https://www.linkedin.com/in/timoth%C3%A9e-bruneau-93b59a133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCoDb8BnWxcc6DYcFoVP0HxUNV9SdyHxiA', 'person_name': 'Timothée Bruneau', 'profile_description': 'Senior Game Designer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/uzairhassan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXu8aABg1K5CuF8aWd5DSOLPFf_miL0dOA', 'person_name': 'Uzair Hassan', 'profile_description': 'Unity Game Developer | Hyper-Hybrid-Casual-Puzzle'}, {'profile_url': 'https://www.linkedin.com/in/qichangwu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi8KN8B5UZrjiThXH9Iu8hdWMmzJHS6X3A', 'person_name': 'QC W.', 'profile_description': 'Product and Publishing in Gaming Industry'}, {'profile_url': 'https://www.linkedin.com/in/sandra-zlatkovska-a73b20204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQiq_cBIixmuF0582qvKR6D_6GaZfs4Fmk', 'person_name': 'Sandra Zlatkovska', 'profile_description': 'User Acquisition Manager'}, {'profile_url': 'https://www.linkedin.com/in/laetitiabelkhamsa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWA7hMB0oWpa5_9k19I8sADKLqe0_5smFU', 'person_name': 'Laetitia Belkhamsa', 'profile_description': 'Senior Product Manager @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-qasim-4052b292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOfAsUBckPjwbtJB-pjV4C21Y4iEsELYEQ', 'person_name': 'Muhammad Qasim', 'profile_description': 'Game Developer | Tech Lead | Hypercasual Games | Metaverse 3D | Unity 3D C#'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-pierre-3a1274205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvvCkBbkx9nnAjJNN7NFYQWmcEtqSDSx4', 'person_name': 'Sébastien Pierre', 'profile_description': 'Infographiste 3D Généraliste chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umairsaifullah01?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACipgxYB8JOS4JdqtmKHfG9YM1qymgk49_k', 'person_name': 'Umair Saifullah', 'profile_description': 'Sr. Game Developer - C# || Unity 3D | Unreal Engine || Metaverse (NFT) || Game Design'}, {'profile_url': 'https://www.linkedin.com/in/vasif-abdullayev-a3b582185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuwZ08Bb9xyLDZ0Vjdj_3-rlQBxlj-V_40', 'person_name': 'Vasif Abdullayev', 'profile_description': 'Senior Game Developer | Game Programming, Game Mechanics, Mobile Game Development'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-touseef-73324b1b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFV-lcB_VoMVxtDP6ymakWSpojsOMSRZhQ', 'person_name': 'Muhammad Touseef', 'profile_description': 'Unity Developer @ TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/furkansenoglu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxjLDIB4PgSz3CQ0QqU65Ox24KkFm8kYhk', 'person_name': 'H. Furkan Şenoğlu', 'profile_description': 'Senior Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/mertcandogrucan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCwB5MBpUgl5ffRYXS9nKjqdpSLI9sDsKI', 'person_name': 'Mertcan Doğrucan', 'profile_description': 'Senior Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/victor-lebrun-graphiste?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxq4WsB9a2ifp6nyCaoIIxIl0h90q1bywM', 'person_name': 'Victor Lebrun', 'profile_description': 'Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/yang-yang92?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQg9wkBCwtdDmPEi4Zo4DS0pt_lDqillo4', 'person_name': 'Yang YANG', 'profile_description': 'Senior Acquisition &amp; Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/marinahallack?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABF-23QBeHkBCdQ_xIzOTK97JMzS70YoyTY', 'person_name': 'Marina Feres Hallack', 'profile_description': 'Senior User Acquisition Manager at TapNation | Mobile Growth, Perfomance Marketing &amp; User Acquisition'}, {'profile_url': 'https://www.linkedin.com/in/umutkarabuya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfahXIBuiypZpF0avdHh2wjhk89CzftzHc', 'person_name': 'Umut Karabuya', 'profile_description': 'Senior Game Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/boubker-elamri-964b47140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJXPJwBA1sAgWIM2JgfEP6bfxd6NSAVkd0', 'person_name': 'Boubker Elamri', 'profile_description': 'Game developer / Artist'}, {'profile_url': 'https://www.linkedin.com/in/samratsingh159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6mD40BMQNXEexuLBMJ7UEm0wgLqQaICTE', 'person_name': 'Samrat Singh', 'profile_description': 'MSc. in Data Analytics &amp; Artificial Intelligence at EDHEC Business School'}, {'profile_url': 'https://www.linkedin.com/in/jonjansencampos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADJysMB3DlkOyIlBL-L804BqwEEk3uIsXI', 'person_name': 'Jon Jansen Campos', 'profile_description': 'Live Ops Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umut-altun-285022122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5CUQUBJ3Dl8ZsJQB5tUnq8rQ3apCx3u-w', 'person_name': 'Umut Altun', 'profile_description': 'Data Scientist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/maryam-shamoon-6a13841b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGIatkBMtsCypB7BnozJvj9-hQ2xASQT1Q', 'person_name': 'Maryam Shamoon', 'profile_description': 'Senior graphic designer or ui ux designer'}, {'profile_url': 'https://www.linkedin.com/in/eesha-kohli-4b941b157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWdfg0BwGczs_2J58MSj9zvdhh0SQ2_d54', 'person_name': 'Eesha Kohli', 'profile_description': 'Product Management @ISB | Data Science'}, {'profile_url': 'https://www.linkedin.com/in/arhamchaudhry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeESloBDcIiwqA_BprS7yokkus0SxGdjGo', 'person_name': 'Arham Mustafa Chaudhry', 'profile_description': '3D Artist l Animator l UI Artist'}, {'profile_url': 'https://www.linkedin.com/in/meng-xiao-xm1998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxI11sBaT__6c2I6oGKJ-8GqyiVHVuJNbo', 'person_name': 'Meng XIAO', 'profile_description': 'User Acquisition Manager chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/siddhant-saxena-009229145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMYRskB6-11vFsFewlXPNPYDJmi-b-mwww', 'person_name': 'Siddhant Saxena', 'profile_description': 'Unity Developer (Live Ops) at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/dgorshkalev?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvic0BsuRk58Rp7JMJgwLe3kn8LWoIk0o', 'person_name': 'Daniil Gorshkalev', 'profile_description': 'M&amp;A Analyst at TapNation | ESSEC | HSE'}, {'profile_url': 'https://www.linkedin.com/in/hardy-jean?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbnCRUB_wkDVJ6eEUwvxTrqeLlLdjSC6YE', 'person_name': 'Jean Hardy', 'profile_description': 'Senior Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/renat-abbyazov-abbiazov-46a3738b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMY4dIB3yVA8pyiq-2cJVqNmgk03jDcaK4', 'person_name': 'Renat Abbyazov (Abbiazov)', 'profile_description': 'Data Scientist/Machine Learning Engineer'}, {'profile_url': 'https://www.linkedin.com/in/victor-hristov-7477741b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHyaicBUCqn0vd4-1vUw7fCZRvVyL0XlnE', 'person_name': 'Victor Hristov', 'profile_description': 'Business Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/irem-%C3%B6zg%C3%BCn-a412411bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMdWJEBYbnlX-V8sTd4OWeMzan5Y7BnU-M', 'person_name': 'İrem Özgün', 'profile_description': 'Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/karan-makvana-08645014a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQEZWYBCP8ezGkjwq-pGiG3xrkXtJrUgpo', 'person_name': 'Karan Makvana', 'profile_description': 'Unity3D Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muzzammil-naeem-siddiqui-047b82163?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcmibcBnsHex_KEotzwNzH2BEgZEOgRWq4', 'person_name': 'Muzzammil Naeem Siddiqui', 'profile_description': 'Unity Sdk Engineer | Game Developer | Playable Ads Developer'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-randon-262b55138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGhPCoBcQx-4_w8iw9RpIJKI0R_ui1FbIA', 'person_name': 'Léo Randon', 'profile_description': 'Game Designer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/efe-palas-360a49157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACW1KrgBtCSes5Nd60cABK55vFjPMUlCyLo', 'person_name': 'Efe PALAS', 'profile_description': 'Marketing Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/vena-trajkovska-a84012179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoutIQBrnIK7uYbfcg0AG3_gyALn_n96Eg', 'person_name': 'Vena Trajkovska', 'profile_description': 'User Acquisition Manager | Growth | Mobile Games 📱'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-arslan-zia-68198412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAAgsEBSOPsJx6mYVU5jeyKYkGRFsE0YE0', 'person_name': 'Muhammad Arslan Zia', 'profile_description': 'TapNation | SQA | Game Producer | Crafting Engaging Game Experiences'}, {'profile_url': 'https://www.linkedin.com/in/fathimaraseed?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQM7BcBlV6JDKjSiNc7GufwYk-BT8OpuHY', 'person_name': 'Fathima Raseed', 'profile_description': 'Senior 3D Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/merveakr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcDnwsBlDigXyRTlxHVbqauU1w-OFfWt9U', 'person_name': 'Merve Çakır', 'profile_description': 'Helping tech companies build data-driven products | Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sametfener?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpVi5EBaXPotBLqKc9gN0nnpkCBsSo09qk', 'person_name': 'Samet Can Fener', 'profile_description': 'Marketing Artist, Creative Video Producer, Motion Graphic Designer, Art Director'}, {'profile_url': 'https://www.linkedin.com/in/neel-mewada?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYI7ywBSI9CBayH1uiFpHqAvwGwTXvWt6E', 'person_name': 'Neil M.', 'profile_description': 'Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ryanrathgeber?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKtmh0Baqdp1gfvW4faR8ILrRTnO1VTgsk', 'person_name': 'Ryan Rathgeber', 'profile_description': 'Design Director | Senior Game Designer | Games Leadership'}, {'profile_url': 'https://www.linkedin.com/in/marrium-w-710a65213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYVc7wBPmVPhOz39K7xo4STbuY0QNrpVWc', 'person_name': 'Marrium W.', 'profile_description': 'ASO Manager @TapNation I Econ with Data Science @ ITU'}, {'profile_url': 'https://www.linkedin.com/in/tugcevatan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdIQkAB_U_eU2WaGFTrIOF5qYsZrirUbZY', 'person_name': 'Tugce Vatan', 'profile_description': 'Creative Production of Games / Open to relocation'}, {'profile_url': 'https://www.linkedin.com/in/dexter-morgan-440524280?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAERru3ABQ4JUrdwVtqo9gs8y68zJqvwtMOM', 'person_name': 'Dexter Morgan', 'profile_description': 'Recruiter at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/filza-ijaz-414ab718b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzV1JABMlpa-S0cGAIihnB17IEpxVZ2w2A', 'person_name': 'Filza Ijaz', 'profile_description': 'App Store Optimization (ASO) Specialist | User Acquisition Expert | Marketing Specialist | Organic Growth Manager | Games Publisher'}, {'profile_url': 'https://www.linkedin.com/in/tu%C4%9F%C3%A7e-k-11078514b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ-blwBYBvUiMr57NG18XcJR3ouKyyynPc', 'person_name': 'Tuğçe K.', 'profile_description': 'Market Analyst at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/smmehdirizvi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO0WKYBABMcRWpmTcjh5W3pzH09Bl_aMPo', 'person_name': 'Mehdi Rizvi', 'profile_description': "Expert en Optimisation de l'App Store (ASO), Responsable ASO, Spécialiste ASO, Consultant ASO, Responsable Marketing App Store, Expert en Référencement Mobile (SEO Mobile)."}, {'profile_url': 'https://www.linkedin.com/in/mehmetcemsit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAejbp8BtS_zMoYEFWiMLLHmZKlASdiqLoQ', 'person_name': 'Mehmet Cemsit', 'profile_description': 'Sr. Motion Designer'}, {'profile_url': 'https://www.linkedin.com/in/bur%C3%A7in-hayda%C5%9F-31354a3a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhEZT8B_2biVLm6l2jyna6TSHBHvX6vwqk', 'person_name': 'Burçin Haydaş', 'profile_description': 'Growth Expert/ Management- UA &amp; Monetization, Digital Marketer! Ambassador - Women in Game 📌'}, {'profile_url': 'https://www.linkedin.com/in/karen-bousquet-039080130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACALyC0B7p_lbclhd9y1B7-BvaWSNgJkuOk', 'person_name': 'Karen Bousquet', 'profile_description': 'Game Artist @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/aleksandrs-grigorjevs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs0XEcBAHPa8VyJPJVBJHwVHWB2zvVyUFc', 'person_name': 'Aleksandrs Grigorjevs', 'profile_description': 'Lead Game Developer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/bibche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAF8D0BzIrVqzw00QkwjLi-VUxEpVR_OLE', 'person_name': 'Filip Spasenovski', 'profile_description': 'Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/cetin-mustafa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUwbuYBaAizj4U_1apxWrkEWwe5PowuB2I', 'person_name': 'Mustafa Çetin', 'profile_description': 'Helping Creative Production of Games | 10+ years of experience | 15 Hit Games | UA &amp; Creative Strategy | Creative Consultant'}, {'profile_url': 'https://www.linkedin.com/in/awais-mughal-82a664187?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwOvaIByIiA5jhZpoT1zPyH4B_gy_wtKfU', 'person_name': 'Awais Mughal', 'profile_description': 'Unity Developer @TapNation | Creating Immersive and Engaging Games | Live Service Game Specialist | Metaverse | Casual Games | Multiplayer'}, {'profile_url': 'https://www.linkedin.com/in/elizabeth-yaminskaya-6379b58a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMDbEsBebUu5s1Xu1zYoT6PBbsoiDuUopQ', 'person_name': 'Elizabeth Yaminskaya', 'profile_description': 'Quality assurance manager'}, {'profile_url': 'https://www.linkedin.com/in/dmitry-telegin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQaenwB5bVtIS4rSyaaXx1SnpqkIH6UV-8', 'person_name': 'Dmitry Telegin', 'profile_description': 'Senior hyper-casual/casual games artist. 2D/3D. Ui/Ux. SFX. Animation. Unity.'}, {'profile_url': 'https://www.linkedin.com/in/brunogranja?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs96CcBCnlDt5Vc30aPYEARuk7WMhwHUU0', 'person_name': 'Bruno Granja Camarero', 'profile_description': 'Head of Data Analytics @Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}, {'profile_url': 'https://www.linkedin.com/in/herlinda-garcia-928906238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5GbABfGJhLLI9XaYKgb0hiXHF7Td3hbA', 'person_name': 'Herlinda Garcia', 'profile_description': '🎮 Acquisitions Manager at TapNation | Mobile Games | M&amp;A | Business Development | Legal &amp; Commercial Translator 🌍 ES-EN-FR-AR'}]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>303,95 %</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>6.491,36 %</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>44.324.280 €</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>672.460 €</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>25</v>
+      </c>
+      <c r="S34" t="n">
+        <v>58</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI</t>
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TapNation </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.tap-nation.io/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['456-789-0123', '789-012-3456', '+1-202-555-0152', '123-456-7890', 'Fax: 987-654-3210', 'WhatsApp: +9876543210', '+123456789012', 'Fax: +1-202-555-0199', '+1-202-555-0117', 'WhatsApp: +1-202-555-0165']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Elm Street, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/tapnation</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Co-founder chez TapNation</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/philippe-grazina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzkoEkBnw25vk_XAjGZjp1o_xs4HlRs1sg', 'person_name': 'Philippe Grazina', 'profile_description': 'Head of Marketing @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}, {'profile_url': 'https://www.linkedin.com/in/shwetapakhare?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWz0A8Bh9WAkMa1h2nWXU106x-aGmzHNUM', 'person_name': 'Shweta Pakhare', 'profile_description': 'Marketing Manager at TapNation | 3 years in Communication and Marketing | International Marketing and Brand Management at NEOMA BS'}, {'profile_url': 'https://www.linkedin.com/in/philippe-ld?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaCPJEBDFEqoyQk4lG3RENlur5ME16_0zc', 'person_name': 'Philippe L.', 'profile_description': 'Head of Web3 @TapNation / Gaming &amp; Web3 Leader'}, {'profile_url': 'https://www.linkedin.com/in/anastase-helaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACE39dsBE__8LmuvL2dT_dzvIQk3-bGy2vs', 'person_name': 'Anastase Helaine', 'profile_description': 'Product Manager - Web 3 | Tapnation #Mobile #Gaming #Web3'}, {'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}, {'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}, {'profile_url': 'https://www.linkedin.com/in/emmanuelbrunet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAABKR8BMQDf-GK-HewEBnj2NHmlAGAqzNs', 'person_name': 'Emmanuel Brunet', 'profile_description': 'Digital expert turned into Wine enthusiast'}, {'profile_url': 'https://www.linkedin.com/in/syef-medini-040a3222a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl2GLABXZBXnJvDHdkqY1PYMMFRTb24fjE', 'person_name': 'Syef Medini', 'profile_description': 'Monetisation Manager'}, {'profile_url': 'https://www.linkedin.com/in/yohan-avakian-78366899?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABTruFMBDiddWriT4Kfv6cd4OUmhDh2T-G4', 'person_name': 'Yohan Avakian', 'profile_description': 'IT and System Engineer'}, {'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}, {'profile_url': 'https://www.linkedin.com/in/philippe-casassa-b519aa10a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuOP-0BzncSYfTZIV6e-cvuOhDCjlVE104', 'person_name': 'Philippe CASASSA', 'profile_description': 'Responsable financier chez TAPNATION'}, {'profile_url': 'https://www.linkedin.com/in/ecem-calban-13410b116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzZNvgBtHS58s8mDKa7pAjJNeDTVvICnSM', 'person_name': 'Ecem Calban', 'profile_description': 'User Acquisition Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/alexandreberthault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo5U54BPYbbNG7e9Obs8cyPA0ZQmjW0LiI', 'person_name': 'Alexandre Berthault', 'profile_description': 'Gameplay programmer'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-ramadier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-BHIkBdbUsePuGvWsNvX1hqXh039xQSM8', 'person_name': 'Laetitia Ramadier', 'profile_description': 'ASO graphic designer at TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/kinsey-dardanus-5971b4b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiXBUMBPsjMMIb1GxqM4y5A4TPpGoSyl7o', 'person_name': 'Kinsey Dardanus', 'profile_description': 'CPO at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}, {'profile_url': 'https://www.linkedin.com/in/kamelhaddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAojzecBjaS3LEwuYfuZ8_QL36iSYNSih84', 'person_name': 'Kamel Haddad 🏴\u200d☠️', 'profile_description': 'VP of Engineering at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sarthakjoshi17?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS4VIYBDqE_DLxPHhC1hzhmKcHBGLVE4v4', 'person_name': 'Sarthak Joshi', 'profile_description': "Senior Publishing Manager at TapNation | Let's make the next hit together"}, {'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}, {'profile_url': 'https://www.linkedin.com/in/andrei-luzan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkbBjIBbxGcR94iZW8R9yqoN_Q9SBr9VCU', 'person_name': 'Andrei Luzan', 'profile_description': 'Sr Ad Monetization Manager | Ad Monetization Consultant | Mobile Game Development | Ad Monetization'}, {'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}, {'profile_url': 'https://www.linkedin.com/in/vincent-f%C3%A9vrier-9580ab53?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs56ZQBdAVEj0Buxuo4CS9L6tuisTL7fzk', 'person_name': 'Vincent Février', 'profile_description': 'Chief Marketing Officer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julienlandez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtP1cBo8EpWzqq84ppD4unvsI89Trd17E', 'person_name': 'Julien Landez', 'profile_description': '3D artist'}, {'profile_url': 'https://www.linkedin.com/in/mittaljatin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUo-YBUKPNGMk6hBZy_37AOxu4uQK8G2w', 'person_name': 'Jatin Mittal', 'profile_description': 'Head of User Acquisition @ Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sumit-bhandari-350587171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjXhSwBqTXZa-8oDNg8aqAN5sJZKyRl7zg', 'person_name': 'Sumit Bhandari', 'profile_description': 'MSc Data Analytics Student at Paris School of Business | BI and Data Analytics Enthusiast | Open to Opportunities'}, {'profile_url': 'https://www.linkedin.com/in/paul-thibault-497149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmT3MB-6VPwtJjq2bpq73MkTYN2Gke6mg', 'person_name': 'Paul Thibault', 'profile_description': 'Game developer'}, {'profile_url': 'https://www.linkedin.com/in/ayush-lakra?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoLuCEBjyEOLc4SzlY8za4sO53wW3c6Ntk', 'person_name': 'Ayush Lakra', 'profile_description': 'Former Marketing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sa%C3%AFd-salloub-webmarketing?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASUcowB3IceGlL66dKa86OxZoXirtaow7E', 'person_name': 'Saïd Salloub', 'profile_description': "Expert en Monétisation d'audience et Acquisition de trafic"}, {'profile_url': 'https://www.linkedin.com/in/carolina-alzamora-gomes?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm_uEYBhLGGQggidJ9hQ411a3UNp4DcXJY', 'person_name': 'Carolina Alzamora Gomes', 'profile_description': 'Business Analyst | Digital Business Consultancy ✅ | Project Management | 🔴 MSc in E-Business and Digital Marketing | +5 year BBA | Data Analysis, Strategic Thinking, GTM Strategy, Inside Sales | ➡️ Tech Innovation'}, {'profile_url': 'https://www.linkedin.com/in/antoine-nisoli?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYzdiUBkTsPS7MYjMt0VTiHppVIZAfJiQI', 'person_name': 'Antoine Nisoli', 'profile_description': 'Unity Developer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/skelly-francisco-8b0184172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj11AQB57CIZIRjMYV-09nRoUcy9M43ubQ', 'person_name': 'Skelly Francisco', 'profile_description': 'Game designer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/a%C3%AFssatou-b-diop-46966618b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzFCREBVFsSlBMIuoVDAA2me6m45WE5UW8', 'person_name': 'Aïssatou B. Diop', 'profile_description': 'Data Analyst at TapNation | Business &amp; Technology Manager Student at Epitech Digital School'}, {'profile_url': 'https://www.linkedin.com/in/olgazhukowskaya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2k6HUBQCBy0ZMOX75EI3iBNFu1A00vwbg', 'person_name': 'Olga Z.', 'profile_description': 'Ad monetization manager'}, {'profile_url': 'https://www.linkedin.com/in/sufian-ahmad-%F0%9F%99%8C-0b38ab1a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCK1McBMYgTFkwDj6scDeigD0GP2xZZlBo', 'person_name': 'Sufian Ahmad 🙌', 'profile_description': 'Indie Game Developer | Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ozgursertel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvbn4sBxM5n5ek7DFP2pwp2aKrDpqTq7Sg', 'person_name': 'Özgür Sertel', 'profile_description': 'QA Engineer @ TapNation'}, {'profile_url': 'https://www.linkedin.com/in/segunsojobi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSodPUBPsSq5D6U7_DK1P85mTAwspn3by0', 'person_name': 'Segun Sojobi', 'profile_description': 'Software Engineer, Real-time 3D.'}, {'profile_url': 'https://www.linkedin.com/in/fabien-nicot-40348b174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClchIMBLAma35N-8kQLEnIj8HTe5n6YfdQ', 'person_name': 'Fabien Nicot', 'profile_description': 'Lead Dev Unity at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ahmet-akif-u%C4%9Furtan-2038b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkMxKMBIGZ5x_h4MebplTIJ_HG-j_WT06M', 'person_name': 'Ahmet Akif Uğurtan', 'profile_description': 'Backend Engineer at Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lisch-35831884?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHYLPQBMFCQDaGYaxblmFKLRU5O5h_eo1s', 'person_name': 'Maxime Lisch', 'profile_description': 'Head of Creative chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/jessie-bouton-0289b6231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADn9n6ABdU307fgp0sT17Mn2d9gbNyHeOAE', 'person_name': 'Jessie Bouton', 'profile_description': 'QA testeur Manager pour TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ilya-chaplinskiy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACced9IBNT2aU8287ksYiZmoFktqyDZJ0E0', 'person_name': 'Ilya Chaplinskiy', 'profile_description': 'Product Data Analyst @ TapNation | HEC Paris &amp; MSU Graduate'}, {'profile_url': 'https://www.linkedin.com/in/hosni-ammar-300307139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGu5PABIm1UKsQQ5gjxiMNq7txC5PLQ2eQ', 'person_name': 'Hosni Ammar', 'profile_description': 'Passionate Game Developer / Mobile Gaming Specialist / Freelancer / Founder of Broken Mug Studio'}, {'profile_url': 'https://www.linkedin.com/in/timoth%C3%A9e-bruneau-93b59a133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCoDb8BnWxcc6DYcFoVP0HxUNV9SdyHxiA', 'person_name': 'Timothée Bruneau', 'profile_description': 'Senior Game Designer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/uzairhassan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXu8aABg1K5CuF8aWd5DSOLPFf_miL0dOA', 'person_name': 'Uzair Hassan', 'profile_description': 'Unity Game Developer | Hyper-Hybrid-Casual-Puzzle'}, {'profile_url': 'https://www.linkedin.com/in/qichangwu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi8KN8B5UZrjiThXH9Iu8hdWMmzJHS6X3A', 'person_name': 'QC W.', 'profile_description': 'Product and Publishing in Gaming Industry'}, {'profile_url': 'https://www.linkedin.com/in/sandra-zlatkovska-a73b20204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQiq_cBIixmuF0582qvKR6D_6GaZfs4Fmk', 'person_name': 'Sandra Zlatkovska', 'profile_description': 'User Acquisition Manager'}, {'profile_url': 'https://www.linkedin.com/in/laetitiabelkhamsa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWA7hMB0oWpa5_9k19I8sADKLqe0_5smFU', 'person_name': 'Laetitia Belkhamsa', 'profile_description': 'Senior Product Manager @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-qasim-4052b292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOfAsUBckPjwbtJB-pjV4C21Y4iEsELYEQ', 'person_name': 'Muhammad Qasim', 'profile_description': 'Game Developer | Tech Lead | Hypercasual Games | Metaverse 3D | Unity 3D C#'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-pierre-3a1274205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvvCkBbkx9nnAjJNN7NFYQWmcEtqSDSx4', 'person_name': 'Sébastien Pierre', 'profile_description': 'Infographiste 3D Généraliste chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umairsaifullah01?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACipgxYB8JOS4JdqtmKHfG9YM1qymgk49_k', 'person_name': 'Umair Saifullah', 'profile_description': 'Sr. Game Developer - C# || Unity 3D | Unreal Engine || Metaverse (NFT) || Game Design'}, {'profile_url': 'https://www.linkedin.com/in/vasif-abdullayev-a3b582185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuwZ08Bb9xyLDZ0Vjdj_3-rlQBxlj-V_40', 'person_name': 'Vasif Abdullayev', 'profile_description': 'Senior Game Developer | Game Programming, Game Mechanics, Mobile Game Development'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-touseef-73324b1b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFV-lcB_VoMVxtDP6ymakWSpojsOMSRZhQ', 'person_name': 'Muhammad Touseef', 'profile_description': 'Unity Developer @ TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/furkansenoglu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxjLDIB4PgSz3CQ0QqU65Ox24KkFm8kYhk', 'person_name': 'H. Furkan Şenoğlu', 'profile_description': 'Senior Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/mertcandogrucan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCwB5MBpUgl5ffRYXS9nKjqdpSLI9sDsKI', 'person_name': 'Mertcan Doğrucan', 'profile_description': 'Senior Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/victor-lebrun-graphiste?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxq4WsB9a2ifp6nyCaoIIxIl0h90q1bywM', 'person_name': 'Victor Lebrun', 'profile_description': 'Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/yang-yang92?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQg9wkBCwtdDmPEi4Zo4DS0pt_lDqillo4', 'person_name': 'Yang YANG', 'profile_description': 'Senior Acquisition &amp; Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/marinahallack?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABF-23QBeHkBCdQ_xIzOTK97JMzS70YoyTY', 'person_name': 'Marina Feres Hallack', 'profile_description': 'Senior User Acquisition Manager at TapNation | Mobile Growth, Perfomance Marketing &amp; User Acquisition'}, {'profile_url': 'https://www.linkedin.com/in/umutkarabuya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfahXIBuiypZpF0avdHh2wjhk89CzftzHc', 'person_name': 'Umut Karabuya', 'profile_description': 'Senior Game Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/boubker-elamri-964b47140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJXPJwBA1sAgWIM2JgfEP6bfxd6NSAVkd0', 'person_name': 'Boubker Elamri', 'profile_description': 'Game developer / Artist'}, {'profile_url': 'https://www.linkedin.com/in/samratsingh159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6mD40BMQNXEexuLBMJ7UEm0wgLqQaICTE', 'person_name': 'Samrat Singh', 'profile_description': 'MSc. in Data Analytics &amp; Artificial Intelligence at EDHEC Business School'}, {'profile_url': 'https://www.linkedin.com/in/jonjansencampos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADJysMB3DlkOyIlBL-L804BqwEEk3uIsXI', 'person_name': 'Jon Jansen Campos', 'profile_description': 'Live Ops Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umut-altun-285022122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5CUQUBJ3Dl8ZsJQB5tUnq8rQ3apCx3u-w', 'person_name': 'Umut Altun', 'profile_description': 'Data Scientist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/maryam-shamoon-6a13841b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGIatkBMtsCypB7BnozJvj9-hQ2xASQT1Q', 'person_name': 'Maryam Shamoon', 'profile_description': 'Senior graphic designer or ui ux designer'}, {'profile_url': 'https://www.linkedin.com/in/eesha-kohli-4b941b157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWdfg0BwGczs_2J58MSj9zvdhh0SQ2_d54', 'person_name': 'Eesha Kohli', 'profile_description': 'Product Management @ISB | Data Science'}, {'profile_url': 'https://www.linkedin.com/in/arhamchaudhry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeESloBDcIiwqA_BprS7yokkus0SxGdjGo', 'person_name': 'Arham Mustafa Chaudhry', 'profile_description': '3D Artist l Animator l UI Artist'}, {'profile_url': 'https://www.linkedin.com/in/meng-xiao-xm1998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxI11sBaT__6c2I6oGKJ-8GqyiVHVuJNbo', 'person_name': 'Meng XIAO', 'profile_description': 'User Acquisition Manager chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/siddhant-saxena-009229145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMYRskB6-11vFsFewlXPNPYDJmi-b-mwww', 'person_name': 'Siddhant Saxena', 'profile_description': 'Unity Developer (Live Ops) at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/dgorshkalev?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvic0BsuRk58Rp7JMJgwLe3kn8LWoIk0o', 'person_name': 'Daniil Gorshkalev', 'profile_description': 'M&amp;A Analyst at TapNation | ESSEC | HSE'}, {'profile_url': 'https://www.linkedin.com/in/hardy-jean?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbnCRUB_wkDVJ6eEUwvxTrqeLlLdjSC6YE', 'person_name': 'Jean Hardy', 'profile_description': 'Senior Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/renat-abbyazov-abbiazov-46a3738b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMY4dIB3yVA8pyiq-2cJVqNmgk03jDcaK4', 'person_name': 'Renat Abbyazov (Abbiazov)', 'profile_description': 'Data Scientist/Machine Learning Engineer'}, {'profile_url': 'https://www.linkedin.com/in/victor-hristov-7477741b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHyaicBUCqn0vd4-1vUw7fCZRvVyL0XlnE', 'person_name': 'Victor Hristov', 'profile_description': 'Business Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/irem-%C3%B6zg%C3%BCn-a412411bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMdWJEBYbnlX-V8sTd4OWeMzan5Y7BnU-M', 'person_name': 'İrem Özgün', 'profile_description': 'Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/karan-makvana-08645014a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQEZWYBCP8ezGkjwq-pGiG3xrkXtJrUgpo', 'person_name': 'Karan Makvana', 'profile_description': 'Unity3D Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muzzammil-naeem-siddiqui-047b82163?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcmibcBnsHex_KEotzwNzH2BEgZEOgRWq4', 'person_name': 'Muzzammil Naeem Siddiqui', 'profile_description': 'Unity Sdk Engineer | Game Developer | Playable Ads Developer'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-randon-262b55138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGhPCoBcQx-4_w8iw9RpIJKI0R_ui1FbIA', 'person_name': 'Léo Randon', 'profile_description': 'Game Designer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/efe-palas-360a49157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACW1KrgBtCSes5Nd60cABK55vFjPMUlCyLo', 'person_name': 'Efe PALAS', 'profile_description': 'Marketing Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/vena-trajkovska-a84012179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoutIQBrnIK7uYbfcg0AG3_gyALn_n96Eg', 'person_name': 'Vena Trajkovska', 'profile_description': 'User Acquisition Manager | Growth | Mobile Games 📱'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-arslan-zia-68198412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAAgsEBSOPsJx6mYVU5jeyKYkGRFsE0YE0', 'person_name': 'Muhammad Arslan Zia', 'profile_description': 'TapNation | SQA | Game Producer | Crafting Engaging Game Experiences'}, {'profile_url': 'https://www.linkedin.com/in/fathimaraseed?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQM7BcBlV6JDKjSiNc7GufwYk-BT8OpuHY', 'person_name': 'Fathima Raseed', 'profile_description': 'Senior 3D Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/merveakr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcDnwsBlDigXyRTlxHVbqauU1w-OFfWt9U', 'person_name': 'Merve Çakır', 'profile_description': 'Helping tech companies build data-driven products | Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sametfener?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpVi5EBaXPotBLqKc9gN0nnpkCBsSo09qk', 'person_name': 'Samet Can Fener', 'profile_description': 'Marketing Artist, Creative Video Producer, Motion Graphic Designer, Art Director'}, {'profile_url': 'https://www.linkedin.com/in/neel-mewada?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYI7ywBSI9CBayH1uiFpHqAvwGwTXvWt6E', 'person_name': 'Neil M.', 'profile_description': 'Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ryanrathgeber?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKtmh0Baqdp1gfvW4faR8ILrRTnO1VTgsk', 'person_name': 'Ryan Rathgeber', 'profile_description': 'Design Director | Senior Game Designer | Games Leadership'}, {'profile_url': 'https://www.linkedin.com/in/marrium-w-710a65213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYVc7wBPmVPhOz39K7xo4STbuY0QNrpVWc', 'person_name': 'Marrium W.', 'profile_description': 'ASO Manager @TapNation I Econ with Data Science @ ITU'}, {'profile_url': 'https://www.linkedin.com/in/tugcevatan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdIQkAB_U_eU2WaGFTrIOF5qYsZrirUbZY', 'person_name': 'Tugce Vatan', 'profile_description': 'Creative Production of Games / Open to relocation'}, {'profile_url': 'https://www.linkedin.com/in/dexter-morgan-440524280?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAERru3ABQ4JUrdwVtqo9gs8y68zJqvwtMOM', 'person_name': 'Dexter Morgan', 'profile_description': 'Recruiter at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/filza-ijaz-414ab718b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzV1JABMlpa-S0cGAIihnB17IEpxVZ2w2A', 'person_name': 'Filza Ijaz', 'profile_description': 'App Store Optimization (ASO) Specialist | User Acquisition Expert | Marketing Specialist | Organic Growth Manager | Games Publisher'}, {'profile_url': 'https://www.linkedin.com/in/tu%C4%9F%C3%A7e-k-11078514b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ-blwBYBvUiMr57NG18XcJR3ouKyyynPc', 'person_name': 'Tuğçe K.', 'profile_description': 'Market Analyst at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/smmehdirizvi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO0WKYBABMcRWpmTcjh5W3pzH09Bl_aMPo', 'person_name': 'Mehdi Rizvi', 'profile_description': "Expert en Optimisation de l'App Store (ASO), Responsable ASO, Spécialiste ASO, Consultant ASO, Responsable Marketing App Store, Expert en Référencement Mobile (SEO Mobile)."}, {'profile_url': 'https://www.linkedin.com/in/mehmetcemsit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAejbp8BtS_zMoYEFWiMLLHmZKlASdiqLoQ', 'person_name': 'Mehmet Cemsit', 'profile_description': 'Sr. Motion Designer'}, {'profile_url': 'https://www.linkedin.com/in/bur%C3%A7in-hayda%C5%9F-31354a3a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhEZT8B_2biVLm6l2jyna6TSHBHvX6vwqk', 'person_name': 'Burçin Haydaş', 'profile_description': 'Growth Expert/ Management- UA &amp; Monetization, Digital Marketer! Ambassador - Women in Game 📌'}, {'profile_url': 'https://www.linkedin.com/in/karen-bousquet-039080130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACALyC0B7p_lbclhd9y1B7-BvaWSNgJkuOk', 'person_name': 'Karen Bousquet', 'profile_description': 'Game Artist @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/aleksandrs-grigorjevs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs0XEcBAHPa8VyJPJVBJHwVHWB2zvVyUFc', 'person_name': 'Aleksandrs Grigorjevs', 'profile_description': 'Lead Game Developer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/bibche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAF8D0BzIrVqzw00QkwjLi-VUxEpVR_OLE', 'person_name': 'Filip Spasenovski', 'profile_description': 'Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/cetin-mustafa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUwbuYBaAizj4U_1apxWrkEWwe5PowuB2I', 'person_name': 'Mustafa Çetin', 'profile_description': 'Helping Creative Production of Games | 10+ years of experience | 15 Hit Games | UA &amp; Creative Strategy | Creative Consultant'}, {'profile_url': 'https://www.linkedin.com/in/awais-mughal-82a664187?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwOvaIByIiA5jhZpoT1zPyH4B_gy_wtKfU', 'person_name': 'Awais Mughal', 'profile_description': 'Unity Developer @TapNation | Creating Immersive and Engaging Games | Live Service Game Specialist | Metaverse | Casual Games | Multiplayer'}, {'profile_url': 'https://www.linkedin.com/in/elizabeth-yaminskaya-6379b58a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMDbEsBebUu5s1Xu1zYoT6PBbsoiDuUopQ', 'person_name': 'Elizabeth Yaminskaya', 'profile_description': 'Quality assurance manager'}, {'profile_url': 'https://www.linkedin.com/in/dmitry-telegin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQaenwB5bVtIS4rSyaaXx1SnpqkIH6UV-8', 'person_name': 'Dmitry Telegin', 'profile_description': 'Senior hyper-casual/casual games artist. 2D/3D. Ui/Ux. SFX. Animation. Unity.'}, {'profile_url': 'https://www.linkedin.com/in/brunogranja?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs96CcBCnlDt5Vc30aPYEARuk7WMhwHUU0', 'person_name': 'Bruno Granja Camarero', 'profile_description': 'Head of Data Analytics @Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}, {'profile_url': 'https://www.linkedin.com/in/herlinda-garcia-928906238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5GbABfGJhLLI9XaYKgb0hiXHF7Td3hbA', 'person_name': 'Herlinda Garcia', 'profile_description': '🎮 Acquisitions Manager at TapNation | Mobile Games | M&amp;A | Business Development | Legal &amp; Commercial Translator 🌍 ES-EN-FR-AR'}]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>303,95 %</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>6.491,36 %</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>44.324.280 €</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>672.460 €</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>25</v>
+      </c>
+      <c r="S35" t="n">
+        <v>58</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ</t>
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TapNation </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.tap-nation.io/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['456-789-0123', '789-012-3456', '+1-202-555-0152', '123-456-7890', 'Fax: 987-654-3210', 'WhatsApp: +9876543210', '+123456789012', 'Fax: +1-202-555-0199', '+1-202-555-0117', 'WhatsApp: +1-202-555-0165']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Elm Street, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/tapnation</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/philippe-grazina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzkoEkBnw25vk_XAjGZjp1o_xs4HlRs1sg', 'person_name': 'Philippe Grazina', 'profile_description': 'Head of Marketing @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}, {'profile_url': 'https://www.linkedin.com/in/shwetapakhare?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWz0A8Bh9WAkMa1h2nWXU106x-aGmzHNUM', 'person_name': 'Shweta Pakhare', 'profile_description': 'Marketing Manager at TapNation | 3 years in Communication and Marketing | International Marketing and Brand Management at NEOMA BS'}, {'profile_url': 'https://www.linkedin.com/in/philippe-ld?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaCPJEBDFEqoyQk4lG3RENlur5ME16_0zc', 'person_name': 'Philippe L.', 'profile_description': 'Head of Web3 @TapNation / Gaming &amp; Web3 Leader'}, {'profile_url': 'https://www.linkedin.com/in/anastase-helaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACE39dsBE__8LmuvL2dT_dzvIQk3-bGy2vs', 'person_name': 'Anastase Helaine', 'profile_description': 'Product Manager - Web 3 | Tapnation #Mobile #Gaming #Web3'}, {'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}, {'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}, {'profile_url': 'https://www.linkedin.com/in/emmanuelbrunet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAABKR8BMQDf-GK-HewEBnj2NHmlAGAqzNs', 'person_name': 'Emmanuel Brunet', 'profile_description': 'Digital expert turned into Wine enthusiast'}, {'profile_url': 'https://www.linkedin.com/in/syef-medini-040a3222a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl2GLABXZBXnJvDHdkqY1PYMMFRTb24fjE', 'person_name': 'Syef Medini', 'profile_description': 'Monetisation Manager'}, {'profile_url': 'https://www.linkedin.com/in/yohan-avakian-78366899?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABTruFMBDiddWriT4Kfv6cd4OUmhDh2T-G4', 'person_name': 'Yohan Avakian', 'profile_description': 'IT and System Engineer'}, {'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}, {'profile_url': 'https://www.linkedin.com/in/philippe-casassa-b519aa10a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuOP-0BzncSYfTZIV6e-cvuOhDCjlVE104', 'person_name': 'Philippe CASASSA', 'profile_description': 'Responsable financier chez TAPNATION'}, {'profile_url': 'https://www.linkedin.com/in/ecem-calban-13410b116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzZNvgBtHS58s8mDKa7pAjJNeDTVvICnSM', 'person_name': 'Ecem Calban', 'profile_description': 'User Acquisition Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/alexandreberthault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo5U54BPYbbNG7e9Obs8cyPA0ZQmjW0LiI', 'person_name': 'Alexandre Berthault', 'profile_description': 'Gameplay programmer'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-ramadier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-BHIkBdbUsePuGvWsNvX1hqXh039xQSM8', 'person_name': 'Laetitia Ramadier', 'profile_description': 'ASO graphic designer at TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/kinsey-dardanus-5971b4b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiXBUMBPsjMMIb1GxqM4y5A4TPpGoSyl7o', 'person_name': 'Kinsey Dardanus', 'profile_description': 'CPO at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}, {'profile_url': 'https://www.linkedin.com/in/kamelhaddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAojzecBjaS3LEwuYfuZ8_QL36iSYNSih84', 'person_name': 'Kamel Haddad 🏴\u200d☠️', 'profile_description': 'VP of Engineering at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sarthakjoshi17?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS4VIYBDqE_DLxPHhC1hzhmKcHBGLVE4v4', 'person_name': 'Sarthak Joshi', 'profile_description': "Senior Publishing Manager at TapNation | Let's make the next hit together"}, {'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}, {'profile_url': 'https://www.linkedin.com/in/andrei-luzan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkbBjIBbxGcR94iZW8R9yqoN_Q9SBr9VCU', 'person_name': 'Andrei Luzan', 'profile_description': 'Sr Ad Monetization Manager | Ad Monetization Consultant | Mobile Game Development | Ad Monetization'}, {'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}, {'profile_url': 'https://www.linkedin.com/in/vincent-f%C3%A9vrier-9580ab53?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs56ZQBdAVEj0Buxuo4CS9L6tuisTL7fzk', 'person_name': 'Vincent Février', 'profile_description': 'Chief Marketing Officer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julienlandez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtP1cBo8EpWzqq84ppD4unvsI89Trd17E', 'person_name': 'Julien Landez', 'profile_description': '3D artist'}, {'profile_url': 'https://www.linkedin.com/in/mittaljatin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUo-YBUKPNGMk6hBZy_37AOxu4uQK8G2w', 'person_name': 'Jatin Mittal', 'profile_description': 'Head of User Acquisition @ Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sumit-bhandari-350587171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjXhSwBqTXZa-8oDNg8aqAN5sJZKyRl7zg', 'person_name': 'Sumit Bhandari', 'profile_description': 'MSc Data Analytics Student at Paris School of Business | BI and Data Analytics Enthusiast | Open to Opportunities'}, {'profile_url': 'https://www.linkedin.com/in/paul-thibault-497149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmT3MB-6VPwtJjq2bpq73MkTYN2Gke6mg', 'person_name': 'Paul Thibault', 'profile_description': 'Game developer'}, {'profile_url': 'https://www.linkedin.com/in/ayush-lakra?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoLuCEBjyEOLc4SzlY8za4sO53wW3c6Ntk', 'person_name': 'Ayush Lakra', 'profile_description': 'Former Marketing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sa%C3%AFd-salloub-webmarketing?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASUcowB3IceGlL66dKa86OxZoXirtaow7E', 'person_name': 'Saïd Salloub', 'profile_description': "Expert en Monétisation d'audience et Acquisition de trafic"}, {'profile_url': 'https://www.linkedin.com/in/carolina-alzamora-gomes?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm_uEYBhLGGQggidJ9hQ411a3UNp4DcXJY', 'person_name': 'Carolina Alzamora Gomes', 'profile_description': 'Business Analyst | Digital Business Consultancy ✅ | Project Management | 🔴 MSc in E-Business and Digital Marketing | +5 year BBA | Data Analysis, Strategic Thinking, GTM Strategy, Inside Sales | ➡️ Tech Innovation'}, {'profile_url': 'https://www.linkedin.com/in/antoine-nisoli?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYzdiUBkTsPS7MYjMt0VTiHppVIZAfJiQI', 'person_name': 'Antoine Nisoli', 'profile_description': 'Unity Developer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/skelly-francisco-8b0184172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj11AQB57CIZIRjMYV-09nRoUcy9M43ubQ', 'person_name': 'Skelly Francisco', 'profile_description': 'Game designer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/a%C3%AFssatou-b-diop-46966618b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzFCREBVFsSlBMIuoVDAA2me6m45WE5UW8', 'person_name': 'Aïssatou B. Diop', 'profile_description': 'Data Analyst at TapNation | Business &amp; Technology Manager Student at Epitech Digital School'}, {'profile_url': 'https://www.linkedin.com/in/olgazhukowskaya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2k6HUBQCBy0ZMOX75EI3iBNFu1A00vwbg', 'person_name': 'Olga Z.', 'profile_description': 'Ad monetization manager'}, {'profile_url': 'https://www.linkedin.com/in/sufian-ahmad-%F0%9F%99%8C-0b38ab1a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCK1McBMYgTFkwDj6scDeigD0GP2xZZlBo', 'person_name': 'Sufian Ahmad 🙌', 'profile_description': 'Indie Game Developer | Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ozgursertel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvbn4sBxM5n5ek7DFP2pwp2aKrDpqTq7Sg', 'person_name': 'Özgür Sertel', 'profile_description': 'QA Engineer @ TapNation'}, {'profile_url': 'https://www.linkedin.com/in/segunsojobi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSodPUBPsSq5D6U7_DK1P85mTAwspn3by0', 'person_name': 'Segun Sojobi', 'profile_description': 'Software Engineer, Real-time 3D.'}, {'profile_url': 'https://www.linkedin.com/in/fabien-nicot-40348b174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClchIMBLAma35N-8kQLEnIj8HTe5n6YfdQ', 'person_name': 'Fabien Nicot', 'profile_description': 'Lead Dev Unity at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ahmet-akif-u%C4%9Furtan-2038b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkMxKMBIGZ5x_h4MebplTIJ_HG-j_WT06M', 'person_name': 'Ahmet Akif Uğurtan', 'profile_description': 'Backend Engineer at Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lisch-35831884?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHYLPQBMFCQDaGYaxblmFKLRU5O5h_eo1s', 'person_name': 'Maxime Lisch', 'profile_description': 'Head of Creative chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/jessie-bouton-0289b6231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADn9n6ABdU307fgp0sT17Mn2d9gbNyHeOAE', 'person_name': 'Jessie Bouton', 'profile_description': 'QA testeur Manager pour TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ilya-chaplinskiy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACced9IBNT2aU8287ksYiZmoFktqyDZJ0E0', 'person_name': 'Ilya Chaplinskiy', 'profile_description': 'Product Data Analyst @ TapNation | HEC Paris &amp; MSU Graduate'}, {'profile_url': 'https://www.linkedin.com/in/hosni-ammar-300307139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGu5PABIm1UKsQQ5gjxiMNq7txC5PLQ2eQ', 'person_name': 'Hosni Ammar', 'profile_description': 'Passionate Game Developer / Mobile Gaming Specialist / Freelancer / Founder of Broken Mug Studio'}, {'profile_url': 'https://www.linkedin.com/in/timoth%C3%A9e-bruneau-93b59a133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCoDb8BnWxcc6DYcFoVP0HxUNV9SdyHxiA', 'person_name': 'Timothée Bruneau', 'profile_description': 'Senior Game Designer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/uzairhassan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXu8aABg1K5CuF8aWd5DSOLPFf_miL0dOA', 'person_name': 'Uzair Hassan', 'profile_description': 'Unity Game Developer | Hyper-Hybrid-Casual-Puzzle'}, {'profile_url': 'https://www.linkedin.com/in/qichangwu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi8KN8B5UZrjiThXH9Iu8hdWMmzJHS6X3A', 'person_name': 'QC W.', 'profile_description': 'Product and Publishing in Gaming Industry'}, {'profile_url': 'https://www.linkedin.com/in/sandra-zlatkovska-a73b20204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQiq_cBIixmuF0582qvKR6D_6GaZfs4Fmk', 'person_name': 'Sandra Zlatkovska', 'profile_description': 'User Acquisition Manager'}, {'profile_url': 'https://www.linkedin.com/in/laetitiabelkhamsa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWA7hMB0oWpa5_9k19I8sADKLqe0_5smFU', 'person_name': 'Laetitia Belkhamsa', 'profile_description': 'Senior Product Manager @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-qasim-4052b292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOfAsUBckPjwbtJB-pjV4C21Y4iEsELYEQ', 'person_name': 'Muhammad Qasim', 'profile_description': 'Game Developer | Tech Lead | Hypercasual Games | Metaverse 3D | Unity 3D C#'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-pierre-3a1274205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvvCkBbkx9nnAjJNN7NFYQWmcEtqSDSx4', 'person_name': 'Sébastien Pierre', 'profile_description': 'Infographiste 3D Généraliste chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umairsaifullah01?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACipgxYB8JOS4JdqtmKHfG9YM1qymgk49_k', 'person_name': 'Umair Saifullah', 'profile_description': 'Sr. Game Developer - C# || Unity 3D | Unreal Engine || Metaverse (NFT) || Game Design'}, {'profile_url': 'https://www.linkedin.com/in/vasif-abdullayev-a3b582185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuwZ08Bb9xyLDZ0Vjdj_3-rlQBxlj-V_40', 'person_name': 'Vasif Abdullayev', 'profile_description': 'Senior Game Developer | Game Programming, Game Mechanics, Mobile Game Development'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-touseef-73324b1b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFV-lcB_VoMVxtDP6ymakWSpojsOMSRZhQ', 'person_name': 'Muhammad Touseef', 'profile_description': 'Unity Developer @ TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/furkansenoglu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxjLDIB4PgSz3CQ0QqU65Ox24KkFm8kYhk', 'person_name': 'H. Furkan Şenoğlu', 'profile_description': 'Senior Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/mertcandogrucan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCwB5MBpUgl5ffRYXS9nKjqdpSLI9sDsKI', 'person_name': 'Mertcan Doğrucan', 'profile_description': 'Senior Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/victor-lebrun-graphiste?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxq4WsB9a2ifp6nyCaoIIxIl0h90q1bywM', 'person_name': 'Victor Lebrun', 'profile_description': 'Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/yang-yang92?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQg9wkBCwtdDmPEi4Zo4DS0pt_lDqillo4', 'person_name': 'Yang YANG', 'profile_description': 'Senior Acquisition &amp; Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/marinahallack?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABF-23QBeHkBCdQ_xIzOTK97JMzS70YoyTY', 'person_name': 'Marina Feres Hallack', 'profile_description': 'Senior User Acquisition Manager at TapNation | Mobile Growth, Perfomance Marketing &amp; User Acquisition'}, {'profile_url': 'https://www.linkedin.com/in/umutkarabuya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfahXIBuiypZpF0avdHh2wjhk89CzftzHc', 'person_name': 'Umut Karabuya', 'profile_description': 'Senior Game Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/boubker-elamri-964b47140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJXPJwBA1sAgWIM2JgfEP6bfxd6NSAVkd0', 'person_name': 'Boubker Elamri', 'profile_description': 'Game developer / Artist'}, {'profile_url': 'https://www.linkedin.com/in/samratsingh159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6mD40BMQNXEexuLBMJ7UEm0wgLqQaICTE', 'person_name': 'Samrat Singh', 'profile_description': 'MSc. in Data Analytics &amp; Artificial Intelligence at EDHEC Business School'}, {'profile_url': 'https://www.linkedin.com/in/jonjansencampos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADJysMB3DlkOyIlBL-L804BqwEEk3uIsXI', 'person_name': 'Jon Jansen Campos', 'profile_description': 'Live Ops Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umut-altun-285022122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5CUQUBJ3Dl8ZsJQB5tUnq8rQ3apCx3u-w', 'person_name': 'Umut Altun', 'profile_description': 'Data Scientist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/maryam-shamoon-6a13841b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGIatkBMtsCypB7BnozJvj9-hQ2xASQT1Q', 'person_name': 'Maryam Shamoon', 'profile_description': 'Senior graphic designer or ui ux designer'}, {'profile_url': 'https://www.linkedin.com/in/eesha-kohli-4b941b157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWdfg0BwGczs_2J58MSj9zvdhh0SQ2_d54', 'person_name': 'Eesha Kohli', 'profile_description': 'Product Management @ISB | Data Science'}, {'profile_url': 'https://www.linkedin.com/in/arhamchaudhry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeESloBDcIiwqA_BprS7yokkus0SxGdjGo', 'person_name': 'Arham Mustafa Chaudhry', 'profile_description': '3D Artist l Animator l UI Artist'}, {'profile_url': 'https://www.linkedin.com/in/meng-xiao-xm1998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxI11sBaT__6c2I6oGKJ-8GqyiVHVuJNbo', 'person_name': 'Meng XIAO', 'profile_description': 'User Acquisition Manager chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/siddhant-saxena-009229145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMYRskB6-11vFsFewlXPNPYDJmi-b-mwww', 'person_name': 'Siddhant Saxena', 'profile_description': 'Unity Developer (Live Ops) at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/dgorshkalev?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvic0BsuRk58Rp7JMJgwLe3kn8LWoIk0o', 'person_name': 'Daniil Gorshkalev', 'profile_description': 'M&amp;A Analyst at TapNation | ESSEC | HSE'}, {'profile_url': 'https://www.linkedin.com/in/hardy-jean?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbnCRUB_wkDVJ6eEUwvxTrqeLlLdjSC6YE', 'person_name': 'Jean Hardy', 'profile_description': 'Senior Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/renat-abbyazov-abbiazov-46a3738b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMY4dIB3yVA8pyiq-2cJVqNmgk03jDcaK4', 'person_name': 'Renat Abbyazov (Abbiazov)', 'profile_description': 'Data Scientist/Machine Learning Engineer'}, {'profile_url': 'https://www.linkedin.com/in/victor-hristov-7477741b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHyaicBUCqn0vd4-1vUw7fCZRvVyL0XlnE', 'person_name': 'Victor Hristov', 'profile_description': 'Business Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/irem-%C3%B6zg%C3%BCn-a412411bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMdWJEBYbnlX-V8sTd4OWeMzan5Y7BnU-M', 'person_name': 'İrem Özgün', 'profile_description': 'Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/karan-makvana-08645014a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQEZWYBCP8ezGkjwq-pGiG3xrkXtJrUgpo', 'person_name': 'Karan Makvana', 'profile_description': 'Unity3D Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muzzammil-naeem-siddiqui-047b82163?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcmibcBnsHex_KEotzwNzH2BEgZEOgRWq4', 'person_name': 'Muzzammil Naeem Siddiqui', 'profile_description': 'Unity Sdk Engineer | Game Developer | Playable Ads Developer'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-randon-262b55138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGhPCoBcQx-4_w8iw9RpIJKI0R_ui1FbIA', 'person_name': 'Léo Randon', 'profile_description': 'Game Designer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/efe-palas-360a49157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACW1KrgBtCSes5Nd60cABK55vFjPMUlCyLo', 'person_name': 'Efe PALAS', 'profile_description': 'Marketing Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/vena-trajkovska-a84012179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoutIQBrnIK7uYbfcg0AG3_gyALn_n96Eg', 'person_name': 'Vena Trajkovska', 'profile_description': 'User Acquisition Manager | Growth | Mobile Games 📱'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-arslan-zia-68198412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAAgsEBSOPsJx6mYVU5jeyKYkGRFsE0YE0', 'person_name': 'Muhammad Arslan Zia', 'profile_description': 'TapNation | SQA | Game Producer | Crafting Engaging Game Experiences'}, {'profile_url': 'https://www.linkedin.com/in/fathimaraseed?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQM7BcBlV6JDKjSiNc7GufwYk-BT8OpuHY', 'person_name': 'Fathima Raseed', 'profile_description': 'Senior 3D Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/merveakr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcDnwsBlDigXyRTlxHVbqauU1w-OFfWt9U', 'person_name': 'Merve Çakır', 'profile_description': 'Helping tech companies build data-driven products | Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sametfener?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpVi5EBaXPotBLqKc9gN0nnpkCBsSo09qk', 'person_name': 'Samet Can Fener', 'profile_description': 'Marketing Artist, Creative Video Producer, Motion Graphic Designer, Art Director'}, {'profile_url': 'https://www.linkedin.com/in/neel-mewada?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYI7ywBSI9CBayH1uiFpHqAvwGwTXvWt6E', 'person_name': 'Neil M.', 'profile_description': 'Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ryanrathgeber?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKtmh0Baqdp1gfvW4faR8ILrRTnO1VTgsk', 'person_name': 'Ryan Rathgeber', 'profile_description': 'Design Director | Senior Game Designer | Games Leadership'}, {'profile_url': 'https://www.linkedin.com/in/marrium-w-710a65213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYVc7wBPmVPhOz39K7xo4STbuY0QNrpVWc', 'person_name': 'Marrium W.', 'profile_description': 'ASO Manager @TapNation I Econ with Data Science @ ITU'}, {'profile_url': 'https://www.linkedin.com/in/tugcevatan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdIQkAB_U_eU2WaGFTrIOF5qYsZrirUbZY', 'person_name': 'Tugce Vatan', 'profile_description': 'Creative Production of Games / Open to relocation'}, {'profile_url': 'https://www.linkedin.com/in/dexter-morgan-440524280?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAERru3ABQ4JUrdwVtqo9gs8y68zJqvwtMOM', 'person_name': 'Dexter Morgan', 'profile_description': 'Recruiter at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/filza-ijaz-414ab718b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzV1JABMlpa-S0cGAIihnB17IEpxVZ2w2A', 'person_name': 'Filza Ijaz', 'profile_description': 'App Store Optimization (ASO) Specialist | User Acquisition Expert | Marketing Specialist | Organic Growth Manager | Games Publisher'}, {'profile_url': 'https://www.linkedin.com/in/tu%C4%9F%C3%A7e-k-11078514b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ-blwBYBvUiMr57NG18XcJR3ouKyyynPc', 'person_name': 'Tuğçe K.', 'profile_description': 'Market Analyst at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/smmehdirizvi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO0WKYBABMcRWpmTcjh5W3pzH09Bl_aMPo', 'person_name': 'Mehdi Rizvi', 'profile_description': "Expert en Optimisation de l'App Store (ASO), Responsable ASO, Spécialiste ASO, Consultant ASO, Responsable Marketing App Store, Expert en Référencement Mobile (SEO Mobile)."}, {'profile_url': 'https://www.linkedin.com/in/mehmetcemsit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAejbp8BtS_zMoYEFWiMLLHmZKlASdiqLoQ', 'person_name': 'Mehmet Cemsit', 'profile_description': 'Sr. Motion Designer'}, {'profile_url': 'https://www.linkedin.com/in/bur%C3%A7in-hayda%C5%9F-31354a3a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhEZT8B_2biVLm6l2jyna6TSHBHvX6vwqk', 'person_name': 'Burçin Haydaş', 'profile_description': 'Growth Expert/ Management- UA &amp; Monetization, Digital Marketer! Ambassador - Women in Game 📌'}, {'profile_url': 'https://www.linkedin.com/in/karen-bousquet-039080130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACALyC0B7p_lbclhd9y1B7-BvaWSNgJkuOk', 'person_name': 'Karen Bousquet', 'profile_description': 'Game Artist @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/aleksandrs-grigorjevs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs0XEcBAHPa8VyJPJVBJHwVHWB2zvVyUFc', 'person_name': 'Aleksandrs Grigorjevs', 'profile_description': 'Lead Game Developer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/bibche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAF8D0BzIrVqzw00QkwjLi-VUxEpVR_OLE', 'person_name': 'Filip Spasenovski', 'profile_description': 'Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/cetin-mustafa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUwbuYBaAizj4U_1apxWrkEWwe5PowuB2I', 'person_name': 'Mustafa Çetin', 'profile_description': 'Helping Creative Production of Games | 10+ years of experience | 15 Hit Games | UA &amp; Creative Strategy | Creative Consultant'}, {'profile_url': 'https://www.linkedin.com/in/awais-mughal-82a664187?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwOvaIByIiA5jhZpoT1zPyH4B_gy_wtKfU', 'person_name': 'Awais Mughal', 'profile_description': 'Unity Developer @TapNation | Creating Immersive and Engaging Games | Live Service Game Specialist | Metaverse | Casual Games | Multiplayer'}, {'profile_url': 'https://www.linkedin.com/in/elizabeth-yaminskaya-6379b58a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMDbEsBebUu5s1Xu1zYoT6PBbsoiDuUopQ', 'person_name': 'Elizabeth Yaminskaya', 'profile_description': 'Quality assurance manager'}, {'profile_url': 'https://www.linkedin.com/in/dmitry-telegin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQaenwB5bVtIS4rSyaaXx1SnpqkIH6UV-8', 'person_name': 'Dmitry Telegin', 'profile_description': 'Senior hyper-casual/casual games artist. 2D/3D. Ui/Ux. SFX. Animation. Unity.'}, {'profile_url': 'https://www.linkedin.com/in/brunogranja?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs96CcBCnlDt5Vc30aPYEARuk7WMhwHUU0', 'person_name': 'Bruno Granja Camarero', 'profile_description': 'Head of Data Analytics @Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}, {'profile_url': 'https://www.linkedin.com/in/herlinda-garcia-928906238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5GbABfGJhLLI9XaYKgb0hiXHF7Td3hbA', 'person_name': 'Herlinda Garcia', 'profile_description': '🎮 Acquisitions Manager at TapNation | Mobile Games | M&amp;A | Business Development | Legal &amp; Commercial Translator 🌍 ES-EN-FR-AR'}]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>303,95 %</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>6.491,36 %</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>44.324.280 €</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>672.460 €</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>25</v>
+      </c>
+      <c r="S36" t="n">
+        <v>58</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4</t>
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TapNation </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.tap-nation.io/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['456-789-0123', '789-012-3456', '+1-202-555-0152', '123-456-7890', 'Fax: 987-654-3210', 'WhatsApp: +9876543210', '+123456789012', 'Fax: +1-202-555-0199', '+1-202-555-0117', 'WhatsApp: +1-202-555-0165']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Elm Street, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/tapnation</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>CFO &amp; Chief of Staff - TapNation #FT120</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/philippe-grazina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzkoEkBnw25vk_XAjGZjp1o_xs4HlRs1sg', 'person_name': 'Philippe Grazina', 'profile_description': 'Head of Marketing @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}, {'profile_url': 'https://www.linkedin.com/in/shwetapakhare?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWz0A8Bh9WAkMa1h2nWXU106x-aGmzHNUM', 'person_name': 'Shweta Pakhare', 'profile_description': 'Marketing Manager at TapNation | 3 years in Communication and Marketing | International Marketing and Brand Management at NEOMA BS'}, {'profile_url': 'https://www.linkedin.com/in/philippe-ld?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaCPJEBDFEqoyQk4lG3RENlur5ME16_0zc', 'person_name': 'Philippe L.', 'profile_description': 'Head of Web3 @TapNation / Gaming &amp; Web3 Leader'}, {'profile_url': 'https://www.linkedin.com/in/anastase-helaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACE39dsBE__8LmuvL2dT_dzvIQk3-bGy2vs', 'person_name': 'Anastase Helaine', 'profile_description': 'Product Manager - Web 3 | Tapnation #Mobile #Gaming #Web3'}, {'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}, {'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}, {'profile_url': 'https://www.linkedin.com/in/emmanuelbrunet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAABKR8BMQDf-GK-HewEBnj2NHmlAGAqzNs', 'person_name': 'Emmanuel Brunet', 'profile_description': 'Digital expert turned into Wine enthusiast'}, {'profile_url': 'https://www.linkedin.com/in/syef-medini-040a3222a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl2GLABXZBXnJvDHdkqY1PYMMFRTb24fjE', 'person_name': 'Syef Medini', 'profile_description': 'Monetisation Manager'}, {'profile_url': 'https://www.linkedin.com/in/yohan-avakian-78366899?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABTruFMBDiddWriT4Kfv6cd4OUmhDh2T-G4', 'person_name': 'Yohan Avakian', 'profile_description': 'IT and System Engineer'}, {'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}, {'profile_url': 'https://www.linkedin.com/in/philippe-casassa-b519aa10a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuOP-0BzncSYfTZIV6e-cvuOhDCjlVE104', 'person_name': 'Philippe CASASSA', 'profile_description': 'Responsable financier chez TAPNATION'}, {'profile_url': 'https://www.linkedin.com/in/ecem-calban-13410b116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzZNvgBtHS58s8mDKa7pAjJNeDTVvICnSM', 'person_name': 'Ecem Calban', 'profile_description': 'User Acquisition Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/alexandreberthault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo5U54BPYbbNG7e9Obs8cyPA0ZQmjW0LiI', 'person_name': 'Alexandre Berthault', 'profile_description': 'Gameplay programmer'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-ramadier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-BHIkBdbUsePuGvWsNvX1hqXh039xQSM8', 'person_name': 'Laetitia Ramadier', 'profile_description': 'ASO graphic designer at TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/kinsey-dardanus-5971b4b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiXBUMBPsjMMIb1GxqM4y5A4TPpGoSyl7o', 'person_name': 'Kinsey Dardanus', 'profile_description': 'CPO at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}, {'profile_url': 'https://www.linkedin.com/in/kamelhaddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAojzecBjaS3LEwuYfuZ8_QL36iSYNSih84', 'person_name': 'Kamel Haddad 🏴\u200d☠️', 'profile_description': 'VP of Engineering at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sarthakjoshi17?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS4VIYBDqE_DLxPHhC1hzhmKcHBGLVE4v4', 'person_name': 'Sarthak Joshi', 'profile_description': "Senior Publishing Manager at TapNation | Let's make the next hit together"}, {'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}, {'profile_url': 'https://www.linkedin.com/in/andrei-luzan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkbBjIBbxGcR94iZW8R9yqoN_Q9SBr9VCU', 'person_name': 'Andrei Luzan', 'profile_description': 'Sr Ad Monetization Manager | Ad Monetization Consultant | Mobile Game Development | Ad Monetization'}, {'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}, {'profile_url': 'https://www.linkedin.com/in/vincent-f%C3%A9vrier-9580ab53?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs56ZQBdAVEj0Buxuo4CS9L6tuisTL7fzk', 'person_name': 'Vincent Février', 'profile_description': 'Chief Marketing Officer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julienlandez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtP1cBo8EpWzqq84ppD4unvsI89Trd17E', 'person_name': 'Julien Landez', 'profile_description': '3D artist'}, {'profile_url': 'https://www.linkedin.com/in/mittaljatin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUo-YBUKPNGMk6hBZy_37AOxu4uQK8G2w', 'person_name': 'Jatin Mittal', 'profile_description': 'Head of User Acquisition @ Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sumit-bhandari-350587171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjXhSwBqTXZa-8oDNg8aqAN5sJZKyRl7zg', 'person_name': 'Sumit Bhandari', 'profile_description': 'MSc Data Analytics Student at Paris School of Business | BI and Data Analytics Enthusiast | Open to Opportunities'}, {'profile_url': 'https://www.linkedin.com/in/paul-thibault-497149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmT3MB-6VPwtJjq2bpq73MkTYN2Gke6mg', 'person_name': 'Paul Thibault', 'profile_description': 'Game developer'}, {'profile_url': 'https://www.linkedin.com/in/ayush-lakra?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoLuCEBjyEOLc4SzlY8za4sO53wW3c6Ntk', 'person_name': 'Ayush Lakra', 'profile_description': 'Former Marketing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sa%C3%AFd-salloub-webmarketing?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASUcowB3IceGlL66dKa86OxZoXirtaow7E', 'person_name': 'Saïd Salloub', 'profile_description': "Expert en Monétisation d'audience et Acquisition de trafic"}, {'profile_url': 'https://www.linkedin.com/in/carolina-alzamora-gomes?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm_uEYBhLGGQggidJ9hQ411a3UNp4DcXJY', 'person_name': 'Carolina Alzamora Gomes', 'profile_description': 'Business Analyst | Digital Business Consultancy ✅ | Project Management | 🔴 MSc in E-Business and Digital Marketing | +5 year BBA | Data Analysis, Strategic Thinking, GTM Strategy, Inside Sales | ➡️ Tech Innovation'}, {'profile_url': 'https://www.linkedin.com/in/antoine-nisoli?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYzdiUBkTsPS7MYjMt0VTiHppVIZAfJiQI', 'person_name': 'Antoine Nisoli', 'profile_description': 'Unity Developer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/skelly-francisco-8b0184172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj11AQB57CIZIRjMYV-09nRoUcy9M43ubQ', 'person_name': 'Skelly Francisco', 'profile_description': 'Game designer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/a%C3%AFssatou-b-diop-46966618b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzFCREBVFsSlBMIuoVDAA2me6m45WE5UW8', 'person_name': 'Aïssatou B. Diop', 'profile_description': 'Data Analyst at TapNation | Business &amp; Technology Manager Student at Epitech Digital School'}, {'profile_url': 'https://www.linkedin.com/in/olgazhukowskaya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2k6HUBQCBy0ZMOX75EI3iBNFu1A00vwbg', 'person_name': 'Olga Z.', 'profile_description': 'Ad monetization manager'}, {'profile_url': 'https://www.linkedin.com/in/sufian-ahmad-%F0%9F%99%8C-0b38ab1a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCK1McBMYgTFkwDj6scDeigD0GP2xZZlBo', 'person_name': 'Sufian Ahmad 🙌', 'profile_description': 'Indie Game Developer | Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ozgursertel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvbn4sBxM5n5ek7DFP2pwp2aKrDpqTq7Sg', 'person_name': 'Özgür Sertel', 'profile_description': 'QA Engineer @ TapNation'}, {'profile_url': 'https://www.linkedin.com/in/segunsojobi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSodPUBPsSq5D6U7_DK1P85mTAwspn3by0', 'person_name': 'Segun Sojobi', 'profile_description': 'Software Engineer, Real-time 3D.'}, {'profile_url': 'https://www.linkedin.com/in/fabien-nicot-40348b174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClchIMBLAma35N-8kQLEnIj8HTe5n6YfdQ', 'person_name': 'Fabien Nicot', 'profile_description': 'Lead Dev Unity at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ahmet-akif-u%C4%9Furtan-2038b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkMxKMBIGZ5x_h4MebplTIJ_HG-j_WT06M', 'person_name': 'Ahmet Akif Uğurtan', 'profile_description': 'Backend Engineer at Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lisch-35831884?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHYLPQBMFCQDaGYaxblmFKLRU5O5h_eo1s', 'person_name': 'Maxime Lisch', 'profile_description': 'Head of Creative chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/jessie-bouton-0289b6231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADn9n6ABdU307fgp0sT17Mn2d9gbNyHeOAE', 'person_name': 'Jessie Bouton', 'profile_description': 'QA testeur Manager pour TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ilya-chaplinskiy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACced9IBNT2aU8287ksYiZmoFktqyDZJ0E0', 'person_name': 'Ilya Chaplinskiy', 'profile_description': 'Product Data Analyst @ TapNation | HEC Paris &amp; MSU Graduate'}, {'profile_url': 'https://www.linkedin.com/in/hosni-ammar-300307139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGu5PABIm1UKsQQ5gjxiMNq7txC5PLQ2eQ', 'person_name': 'Hosni Ammar', 'profile_description': 'Passionate Game Developer / Mobile Gaming Specialist / Freelancer / Founder of Broken Mug Studio'}, {'profile_url': 'https://www.linkedin.com/in/timoth%C3%A9e-bruneau-93b59a133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCoDb8BnWxcc6DYcFoVP0HxUNV9SdyHxiA', 'person_name': 'Timothée Bruneau', 'profile_description': 'Senior Game Designer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/uzairhassan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXu8aABg1K5CuF8aWd5DSOLPFf_miL0dOA', 'person_name': 'Uzair Hassan', 'profile_description': 'Unity Game Developer | Hyper-Hybrid-Casual-Puzzle'}, {'profile_url': 'https://www.linkedin.com/in/qichangwu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi8KN8B5UZrjiThXH9Iu8hdWMmzJHS6X3A', 'person_name': 'QC W.', 'profile_description': 'Product and Publishing in Gaming Industry'}, {'profile_url': 'https://www.linkedin.com/in/sandra-zlatkovska-a73b20204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQiq_cBIixmuF0582qvKR6D_6GaZfs4Fmk', 'person_name': 'Sandra Zlatkovska', 'profile_description': 'User Acquisition Manager'}, {'profile_url': 'https://www.linkedin.com/in/laetitiabelkhamsa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWA7hMB0oWpa5_9k19I8sADKLqe0_5smFU', 'person_name': 'Laetitia Belkhamsa', 'profile_description': 'Senior Product Manager @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-qasim-4052b292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOfAsUBckPjwbtJB-pjV4C21Y4iEsELYEQ', 'person_name': 'Muhammad Qasim', 'profile_description': 'Game Developer | Tech Lead | Hypercasual Games | Metaverse 3D | Unity 3D C#'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-pierre-3a1274205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvvCkBbkx9nnAjJNN7NFYQWmcEtqSDSx4', 'person_name': 'Sébastien Pierre', 'profile_description': 'Infographiste 3D Généraliste chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umairsaifullah01?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACipgxYB8JOS4JdqtmKHfG9YM1qymgk49_k', 'person_name': 'Umair Saifullah', 'profile_description': 'Sr. Game Developer - C# || Unity 3D | Unreal Engine || Metaverse (NFT) || Game Design'}, {'profile_url': 'https://www.linkedin.com/in/vasif-abdullayev-a3b582185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuwZ08Bb9xyLDZ0Vjdj_3-rlQBxlj-V_40', 'person_name': 'Vasif Abdullayev', 'profile_description': 'Senior Game Developer | Game Programming, Game Mechanics, Mobile Game Development'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-touseef-73324b1b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFV-lcB_VoMVxtDP6ymakWSpojsOMSRZhQ', 'person_name': 'Muhammad Touseef', 'profile_description': 'Unity Developer @ TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/furkansenoglu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxjLDIB4PgSz3CQ0QqU65Ox24KkFm8kYhk', 'person_name': 'H. Furkan Şenoğlu', 'profile_description': 'Senior Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/mertcandogrucan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCwB5MBpUgl5ffRYXS9nKjqdpSLI9sDsKI', 'person_name': 'Mertcan Doğrucan', 'profile_description': 'Senior Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/victor-lebrun-graphiste?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxq4WsB9a2ifp6nyCaoIIxIl0h90q1bywM', 'person_name': 'Victor Lebrun', 'profile_description': 'Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/yang-yang92?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQg9wkBCwtdDmPEi4Zo4DS0pt_lDqillo4', 'person_name': 'Yang YANG', 'profile_description': 'Senior Acquisition &amp; Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/marinahallack?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABF-23QBeHkBCdQ_xIzOTK97JMzS70YoyTY', 'person_name': 'Marina Feres Hallack', 'profile_description': 'Senior User Acquisition Manager at TapNation | Mobile Growth, Perfomance Marketing &amp; User Acquisition'}, {'profile_url': 'https://www.linkedin.com/in/umutkarabuya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfahXIBuiypZpF0avdHh2wjhk89CzftzHc', 'person_name': 'Umut Karabuya', 'profile_description': 'Senior Game Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/boubker-elamri-964b47140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJXPJwBA1sAgWIM2JgfEP6bfxd6NSAVkd0', 'person_name': 'Boubker Elamri', 'profile_description': 'Game developer / Artist'}, {'profile_url': 'https://www.linkedin.com/in/samratsingh159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6mD40BMQNXEexuLBMJ7UEm0wgLqQaICTE', 'person_name': 'Samrat Singh', 'profile_description': 'MSc. in Data Analytics &amp; Artificial Intelligence at EDHEC Business School'}, {'profile_url': 'https://www.linkedin.com/in/jonjansencampos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADJysMB3DlkOyIlBL-L804BqwEEk3uIsXI', 'person_name': 'Jon Jansen Campos', 'profile_description': 'Live Ops Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umut-altun-285022122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5CUQUBJ3Dl8ZsJQB5tUnq8rQ3apCx3u-w', 'person_name': 'Umut Altun', 'profile_description': 'Data Scientist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/maryam-shamoon-6a13841b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGIatkBMtsCypB7BnozJvj9-hQ2xASQT1Q', 'person_name': 'Maryam Shamoon', 'profile_description': 'Senior graphic designer or ui ux designer'}, {'profile_url': 'https://www.linkedin.com/in/eesha-kohli-4b941b157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWdfg0BwGczs_2J58MSj9zvdhh0SQ2_d54', 'person_name': 'Eesha Kohli', 'profile_description': 'Product Management @ISB | Data Science'}, {'profile_url': 'https://www.linkedin.com/in/arhamchaudhry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeESloBDcIiwqA_BprS7yokkus0SxGdjGo', 'person_name': 'Arham Mustafa Chaudhry', 'profile_description': '3D Artist l Animator l UI Artist'}, {'profile_url': 'https://www.linkedin.com/in/meng-xiao-xm1998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxI11sBaT__6c2I6oGKJ-8GqyiVHVuJNbo', 'person_name': 'Meng XIAO', 'profile_description': 'User Acquisition Manager chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/siddhant-saxena-009229145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMYRskB6-11vFsFewlXPNPYDJmi-b-mwww', 'person_name': 'Siddhant Saxena', 'profile_description': 'Unity Developer (Live Ops) at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/dgorshkalev?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvic0BsuRk58Rp7JMJgwLe3kn8LWoIk0o', 'person_name': 'Daniil Gorshkalev', 'profile_description': 'M&amp;A Analyst at TapNation | ESSEC | HSE'}, {'profile_url': 'https://www.linkedin.com/in/hardy-jean?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbnCRUB_wkDVJ6eEUwvxTrqeLlLdjSC6YE', 'person_name': 'Jean Hardy', 'profile_description': 'Senior Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/renat-abbyazov-abbiazov-46a3738b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMY4dIB3yVA8pyiq-2cJVqNmgk03jDcaK4', 'person_name': 'Renat Abbyazov (Abbiazov)', 'profile_description': 'Data Scientist/Machine Learning Engineer'}, {'profile_url': 'https://www.linkedin.com/in/victor-hristov-7477741b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHyaicBUCqn0vd4-1vUw7fCZRvVyL0XlnE', 'person_name': 'Victor Hristov', 'profile_description': 'Business Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/irem-%C3%B6zg%C3%BCn-a412411bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMdWJEBYbnlX-V8sTd4OWeMzan5Y7BnU-M', 'person_name': 'İrem Özgün', 'profile_description': 'Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/karan-makvana-08645014a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQEZWYBCP8ezGkjwq-pGiG3xrkXtJrUgpo', 'person_name': 'Karan Makvana', 'profile_description': 'Unity3D Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muzzammil-naeem-siddiqui-047b82163?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcmibcBnsHex_KEotzwNzH2BEgZEOgRWq4', 'person_name': 'Muzzammil Naeem Siddiqui', 'profile_description': 'Unity Sdk Engineer | Game Developer | Playable Ads Developer'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-randon-262b55138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGhPCoBcQx-4_w8iw9RpIJKI0R_ui1FbIA', 'person_name': 'Léo Randon', 'profile_description': 'Game Designer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/efe-palas-360a49157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACW1KrgBtCSes5Nd60cABK55vFjPMUlCyLo', 'person_name': 'Efe PALAS', 'profile_description': 'Marketing Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/vena-trajkovska-a84012179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoutIQBrnIK7uYbfcg0AG3_gyALn_n96Eg', 'person_name': 'Vena Trajkovska', 'profile_description': 'User Acquisition Manager | Growth | Mobile Games 📱'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-arslan-zia-68198412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAAgsEBSOPsJx6mYVU5jeyKYkGRFsE0YE0', 'person_name': 'Muhammad Arslan Zia', 'profile_description': 'TapNation | SQA | Game Producer | Crafting Engaging Game Experiences'}, {'profile_url': 'https://www.linkedin.com/in/fathimaraseed?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQM7BcBlV6JDKjSiNc7GufwYk-BT8OpuHY', 'person_name': 'Fathima Raseed', 'profile_description': 'Senior 3D Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/merveakr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcDnwsBlDigXyRTlxHVbqauU1w-OFfWt9U', 'person_name': 'Merve Çakır', 'profile_description': 'Helping tech companies build data-driven products | Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sametfener?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpVi5EBaXPotBLqKc9gN0nnpkCBsSo09qk', 'person_name': 'Samet Can Fener', 'profile_description': 'Marketing Artist, Creative Video Producer, Motion Graphic Designer, Art Director'}, {'profile_url': 'https://www.linkedin.com/in/neel-mewada?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYI7ywBSI9CBayH1uiFpHqAvwGwTXvWt6E', 'person_name': 'Neil M.', 'profile_description': 'Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ryanrathgeber?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKtmh0Baqdp1gfvW4faR8ILrRTnO1VTgsk', 'person_name': 'Ryan Rathgeber', 'profile_description': 'Design Director | Senior Game Designer | Games Leadership'}, {'profile_url': 'https://www.linkedin.com/in/marrium-w-710a65213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYVc7wBPmVPhOz39K7xo4STbuY0QNrpVWc', 'person_name': 'Marrium W.', 'profile_description': 'ASO Manager @TapNation I Econ with Data Science @ ITU'}, {'profile_url': 'https://www.linkedin.com/in/tugcevatan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdIQkAB_U_eU2WaGFTrIOF5qYsZrirUbZY', 'person_name': 'Tugce Vatan', 'profile_description': 'Creative Production of Games / Open to relocation'}, {'profile_url': 'https://www.linkedin.com/in/dexter-morgan-440524280?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAERru3ABQ4JUrdwVtqo9gs8y68zJqvwtMOM', 'person_name': 'Dexter Morgan', 'profile_description': 'Recruiter at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/filza-ijaz-414ab718b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzV1JABMlpa-S0cGAIihnB17IEpxVZ2w2A', 'person_name': 'Filza Ijaz', 'profile_description': 'App Store Optimization (ASO) Specialist | User Acquisition Expert | Marketing Specialist | Organic Growth Manager | Games Publisher'}, {'profile_url': 'https://www.linkedin.com/in/tu%C4%9F%C3%A7e-k-11078514b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ-blwBYBvUiMr57NG18XcJR3ouKyyynPc', 'person_name': 'Tuğçe K.', 'profile_description': 'Market Analyst at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/smmehdirizvi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO0WKYBABMcRWpmTcjh5W3pzH09Bl_aMPo', 'person_name': 'Mehdi Rizvi', 'profile_description': "Expert en Optimisation de l'App Store (ASO), Responsable ASO, Spécialiste ASO, Consultant ASO, Responsable Marketing App Store, Expert en Référencement Mobile (SEO Mobile)."}, {'profile_url': 'https://www.linkedin.com/in/mehmetcemsit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAejbp8BtS_zMoYEFWiMLLHmZKlASdiqLoQ', 'person_name': 'Mehmet Cemsit', 'profile_description': 'Sr. Motion Designer'}, {'profile_url': 'https://www.linkedin.com/in/bur%C3%A7in-hayda%C5%9F-31354a3a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhEZT8B_2biVLm6l2jyna6TSHBHvX6vwqk', 'person_name': 'Burçin Haydaş', 'profile_description': 'Growth Expert/ Management- UA &amp; Monetization, Digital Marketer! Ambassador - Women in Game 📌'}, {'profile_url': 'https://www.linkedin.com/in/karen-bousquet-039080130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACALyC0B7p_lbclhd9y1B7-BvaWSNgJkuOk', 'person_name': 'Karen Bousquet', 'profile_description': 'Game Artist @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/aleksandrs-grigorjevs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs0XEcBAHPa8VyJPJVBJHwVHWB2zvVyUFc', 'person_name': 'Aleksandrs Grigorjevs', 'profile_description': 'Lead Game Developer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/bibche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAF8D0BzIrVqzw00QkwjLi-VUxEpVR_OLE', 'person_name': 'Filip Spasenovski', 'profile_description': 'Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/cetin-mustafa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUwbuYBaAizj4U_1apxWrkEWwe5PowuB2I', 'person_name': 'Mustafa Çetin', 'profile_description': 'Helping Creative Production of Games | 10+ years of experience | 15 Hit Games | UA &amp; Creative Strategy | Creative Consultant'}, {'profile_url': 'https://www.linkedin.com/in/awais-mughal-82a664187?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwOvaIByIiA5jhZpoT1zPyH4B_gy_wtKfU', 'person_name': 'Awais Mughal', 'profile_description': 'Unity Developer @TapNation | Creating Immersive and Engaging Games | Live Service Game Specialist | Metaverse | Casual Games | Multiplayer'}, {'profile_url': 'https://www.linkedin.com/in/elizabeth-yaminskaya-6379b58a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMDbEsBebUu5s1Xu1zYoT6PBbsoiDuUopQ', 'person_name': 'Elizabeth Yaminskaya', 'profile_description': 'Quality assurance manager'}, {'profile_url': 'https://www.linkedin.com/in/dmitry-telegin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQaenwB5bVtIS4rSyaaXx1SnpqkIH6UV-8', 'person_name': 'Dmitry Telegin', 'profile_description': 'Senior hyper-casual/casual games artist. 2D/3D. Ui/Ux. SFX. Animation. Unity.'}, {'profile_url': 'https://www.linkedin.com/in/brunogranja?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs96CcBCnlDt5Vc30aPYEARuk7WMhwHUU0', 'person_name': 'Bruno Granja Camarero', 'profile_description': 'Head of Data Analytics @Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}, {'profile_url': 'https://www.linkedin.com/in/herlinda-garcia-928906238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5GbABfGJhLLI9XaYKgb0hiXHF7Td3hbA', 'person_name': 'Herlinda Garcia', 'profile_description': '🎮 Acquisitions Manager at TapNation | Mobile Games | M&amp;A | Business Development | Legal &amp; Commercial Translator 🌍 ES-EN-FR-AR'}]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>303,95 %</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>6.491,36 %</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>44.324.280 €</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>672.460 €</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>25</v>
+      </c>
+      <c r="S37" t="n">
+        <v>58</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU</t>
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TapNation </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.tap-nation.io/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['456-789-0123', '789-012-3456', '+1-202-555-0152', '123-456-7890', 'Fax: 987-654-3210', 'WhatsApp: +9876543210', '+123456789012', 'Fax: +1-202-555-0199', '+1-202-555-0117', 'WhatsApp: +1-202-555-0165']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Elm Street, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/tapnation</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>CTO &amp; Co-founder</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/philippe-grazina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzkoEkBnw25vk_XAjGZjp1o_xs4HlRs1sg', 'person_name': 'Philippe Grazina', 'profile_description': 'Head of Marketing @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}, {'profile_url': 'https://www.linkedin.com/in/shwetapakhare?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWz0A8Bh9WAkMa1h2nWXU106x-aGmzHNUM', 'person_name': 'Shweta Pakhare', 'profile_description': 'Marketing Manager at TapNation | 3 years in Communication and Marketing | International Marketing and Brand Management at NEOMA BS'}, {'profile_url': 'https://www.linkedin.com/in/philippe-ld?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaCPJEBDFEqoyQk4lG3RENlur5ME16_0zc', 'person_name': 'Philippe L.', 'profile_description': 'Head of Web3 @TapNation / Gaming &amp; Web3 Leader'}, {'profile_url': 'https://www.linkedin.com/in/anastase-helaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACE39dsBE__8LmuvL2dT_dzvIQk3-bGy2vs', 'person_name': 'Anastase Helaine', 'profile_description': 'Product Manager - Web 3 | Tapnation #Mobile #Gaming #Web3'}, {'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}, {'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}, {'profile_url': 'https://www.linkedin.com/in/emmanuelbrunet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAABKR8BMQDf-GK-HewEBnj2NHmlAGAqzNs', 'person_name': 'Emmanuel Brunet', 'profile_description': 'Digital expert turned into Wine enthusiast'}, {'profile_url': 'https://www.linkedin.com/in/syef-medini-040a3222a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl2GLABXZBXnJvDHdkqY1PYMMFRTb24fjE', 'person_name': 'Syef Medini', 'profile_description': 'Monetisation Manager'}, {'profile_url': 'https://www.linkedin.com/in/yohan-avakian-78366899?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABTruFMBDiddWriT4Kfv6cd4OUmhDh2T-G4', 'person_name': 'Yohan Avakian', 'profile_description': 'IT and System Engineer'}, {'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}, {'profile_url': 'https://www.linkedin.com/in/philippe-casassa-b519aa10a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuOP-0BzncSYfTZIV6e-cvuOhDCjlVE104', 'person_name': 'Philippe CASASSA', 'profile_description': 'Responsable financier chez TAPNATION'}, {'profile_url': 'https://www.linkedin.com/in/ecem-calban-13410b116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzZNvgBtHS58s8mDKa7pAjJNeDTVvICnSM', 'person_name': 'Ecem Calban', 'profile_description': 'User Acquisition Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/alexandreberthault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo5U54BPYbbNG7e9Obs8cyPA0ZQmjW0LiI', 'person_name': 'Alexandre Berthault', 'profile_description': 'Gameplay programmer'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-ramadier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-BHIkBdbUsePuGvWsNvX1hqXh039xQSM8', 'person_name': 'Laetitia Ramadier', 'profile_description': 'ASO graphic designer at TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/kinsey-dardanus-5971b4b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiXBUMBPsjMMIb1GxqM4y5A4TPpGoSyl7o', 'person_name': 'Kinsey Dardanus', 'profile_description': 'CPO at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}, {'profile_url': 'https://www.linkedin.com/in/kamelhaddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAojzecBjaS3LEwuYfuZ8_QL36iSYNSih84', 'person_name': 'Kamel Haddad 🏴\u200d☠️', 'profile_description': 'VP of Engineering at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sarthakjoshi17?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS4VIYBDqE_DLxPHhC1hzhmKcHBGLVE4v4', 'person_name': 'Sarthak Joshi', 'profile_description': "Senior Publishing Manager at TapNation | Let's make the next hit together"}, {'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}, {'profile_url': 'https://www.linkedin.com/in/andrei-luzan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkbBjIBbxGcR94iZW8R9yqoN_Q9SBr9VCU', 'person_name': 'Andrei Luzan', 'profile_description': 'Sr Ad Monetization Manager | Ad Monetization Consultant | Mobile Game Development | Ad Monetization'}, {'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}, {'profile_url': 'https://www.linkedin.com/in/vincent-f%C3%A9vrier-9580ab53?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs56ZQBdAVEj0Buxuo4CS9L6tuisTL7fzk', 'person_name': 'Vincent Février', 'profile_description': 'Chief Marketing Officer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julienlandez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtP1cBo8EpWzqq84ppD4unvsI89Trd17E', 'person_name': 'Julien Landez', 'profile_description': '3D artist'}, {'profile_url': 'https://www.linkedin.com/in/mittaljatin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUo-YBUKPNGMk6hBZy_37AOxu4uQK8G2w', 'person_name': 'Jatin Mittal', 'profile_description': 'Head of User Acquisition @ Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sumit-bhandari-350587171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjXhSwBqTXZa-8oDNg8aqAN5sJZKyRl7zg', 'person_name': 'Sumit Bhandari', 'profile_description': 'MSc Data Analytics Student at Paris School of Business | BI and Data Analytics Enthusiast | Open to Opportunities'}, {'profile_url': 'https://www.linkedin.com/in/paul-thibault-497149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmT3MB-6VPwtJjq2bpq73MkTYN2Gke6mg', 'person_name': 'Paul Thibault', 'profile_description': 'Game developer'}, {'profile_url': 'https://www.linkedin.com/in/ayush-lakra?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoLuCEBjyEOLc4SzlY8za4sO53wW3c6Ntk', 'person_name': 'Ayush Lakra', 'profile_description': 'Former Marketing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sa%C3%AFd-salloub-webmarketing?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASUcowB3IceGlL66dKa86OxZoXirtaow7E', 'person_name': 'Saïd Salloub', 'profile_description': "Expert en Monétisation d'audience et Acquisition de trafic"}, {'profile_url': 'https://www.linkedin.com/in/carolina-alzamora-gomes?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm_uEYBhLGGQggidJ9hQ411a3UNp4DcXJY', 'person_name': 'Carolina Alzamora Gomes', 'profile_description': 'Business Analyst | Digital Business Consultancy ✅ | Project Management | 🔴 MSc in E-Business and Digital Marketing | +5 year BBA | Data Analysis, Strategic Thinking, GTM Strategy, Inside Sales | ➡️ Tech Innovation'}, {'profile_url': 'https://www.linkedin.com/in/antoine-nisoli?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYzdiUBkTsPS7MYjMt0VTiHppVIZAfJiQI', 'person_name': 'Antoine Nisoli', 'profile_description': 'Unity Developer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/skelly-francisco-8b0184172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj11AQB57CIZIRjMYV-09nRoUcy9M43ubQ', 'person_name': 'Skelly Francisco', 'profile_description': 'Game designer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/a%C3%AFssatou-b-diop-46966618b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzFCREBVFsSlBMIuoVDAA2me6m45WE5UW8', 'person_name': 'Aïssatou B. Diop', 'profile_description': 'Data Analyst at TapNation | Business &amp; Technology Manager Student at Epitech Digital School'}, {'profile_url': 'https://www.linkedin.com/in/olgazhukowskaya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2k6HUBQCBy0ZMOX75EI3iBNFu1A00vwbg', 'person_name': 'Olga Z.', 'profile_description': 'Ad monetization manager'}, {'profile_url': 'https://www.linkedin.com/in/sufian-ahmad-%F0%9F%99%8C-0b38ab1a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCK1McBMYgTFkwDj6scDeigD0GP2xZZlBo', 'person_name': 'Sufian Ahmad 🙌', 'profile_description': 'Indie Game Developer | Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ozgursertel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvbn4sBxM5n5ek7DFP2pwp2aKrDpqTq7Sg', 'person_name': 'Özgür Sertel', 'profile_description': 'QA Engineer @ TapNation'}, {'profile_url': 'https://www.linkedin.com/in/segunsojobi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSodPUBPsSq5D6U7_DK1P85mTAwspn3by0', 'person_name': 'Segun Sojobi', 'profile_description': 'Software Engineer, Real-time 3D.'}, {'profile_url': 'https://www.linkedin.com/in/fabien-nicot-40348b174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClchIMBLAma35N-8kQLEnIj8HTe5n6YfdQ', 'person_name': 'Fabien Nicot', 'profile_description': 'Lead Dev Unity at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ahmet-akif-u%C4%9Furtan-2038b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkMxKMBIGZ5x_h4MebplTIJ_HG-j_WT06M', 'person_name': 'Ahmet Akif Uğurtan', 'profile_description': 'Backend Engineer at Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lisch-35831884?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHYLPQBMFCQDaGYaxblmFKLRU5O5h_eo1s', 'person_name': 'Maxime Lisch', 'profile_description': 'Head of Creative chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/jessie-bouton-0289b6231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADn9n6ABdU307fgp0sT17Mn2d9gbNyHeOAE', 'person_name': 'Jessie Bouton', 'profile_description': 'QA testeur Manager pour TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ilya-chaplinskiy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACced9IBNT2aU8287ksYiZmoFktqyDZJ0E0', 'person_name': 'Ilya Chaplinskiy', 'profile_description': 'Product Data Analyst @ TapNation | HEC Paris &amp; MSU Graduate'}, {'profile_url': 'https://www.linkedin.com/in/hosni-ammar-300307139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGu5PABIm1UKsQQ5gjxiMNq7txC5PLQ2eQ', 'person_name': 'Hosni Ammar', 'profile_description': 'Passionate Game Developer / Mobile Gaming Specialist / Freelancer / Founder of Broken Mug Studio'}, {'profile_url': 'https://www.linkedin.com/in/timoth%C3%A9e-bruneau-93b59a133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCoDb8BnWxcc6DYcFoVP0HxUNV9SdyHxiA', 'person_name': 'Timothée Bruneau', 'profile_description': 'Senior Game Designer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/uzairhassan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXu8aABg1K5CuF8aWd5DSOLPFf_miL0dOA', 'person_name': 'Uzair Hassan', 'profile_description': 'Unity Game Developer | Hyper-Hybrid-Casual-Puzzle'}, {'profile_url': 'https://www.linkedin.com/in/qichangwu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi8KN8B5UZrjiThXH9Iu8hdWMmzJHS6X3A', 'person_name': 'QC W.', 'profile_description': 'Product and Publishing in Gaming Industry'}, {'profile_url': 'https://www.linkedin.com/in/sandra-zlatkovska-a73b20204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQiq_cBIixmuF0582qvKR6D_6GaZfs4Fmk', 'person_name': 'Sandra Zlatkovska', 'profile_description': 'User Acquisition Manager'}, {'profile_url': 'https://www.linkedin.com/in/laetitiabelkhamsa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWA7hMB0oWpa5_9k19I8sADKLqe0_5smFU', 'person_name': 'Laetitia Belkhamsa', 'profile_description': 'Senior Product Manager @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-qasim-4052b292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOfAsUBckPjwbtJB-pjV4C21Y4iEsELYEQ', 'person_name': 'Muhammad Qasim', 'profile_description': 'Game Developer | Tech Lead | Hypercasual Games | Metaverse 3D | Unity 3D C#'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-pierre-3a1274205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvvCkBbkx9nnAjJNN7NFYQWmcEtqSDSx4', 'person_name': 'Sébastien Pierre', 'profile_description': 'Infographiste 3D Généraliste chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umairsaifullah01?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACipgxYB8JOS4JdqtmKHfG9YM1qymgk49_k', 'person_name': 'Umair Saifullah', 'profile_description': 'Sr. Game Developer - C# || Unity 3D | Unreal Engine || Metaverse (NFT) || Game Design'}, {'profile_url': 'https://www.linkedin.com/in/vasif-abdullayev-a3b582185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuwZ08Bb9xyLDZ0Vjdj_3-rlQBxlj-V_40', 'person_name': 'Vasif Abdullayev', 'profile_description': 'Senior Game Developer | Game Programming, Game Mechanics, Mobile Game Development'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-touseef-73324b1b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFV-lcB_VoMVxtDP6ymakWSpojsOMSRZhQ', 'person_name': 'Muhammad Touseef', 'profile_description': 'Unity Developer @ TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/furkansenoglu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxjLDIB4PgSz3CQ0QqU65Ox24KkFm8kYhk', 'person_name': 'H. Furkan Şenoğlu', 'profile_description': 'Senior Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/mertcandogrucan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCwB5MBpUgl5ffRYXS9nKjqdpSLI9sDsKI', 'person_name': 'Mertcan Doğrucan', 'profile_description': 'Senior Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/victor-lebrun-graphiste?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxq4WsB9a2ifp6nyCaoIIxIl0h90q1bywM', 'person_name': 'Victor Lebrun', 'profile_description': 'Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/yang-yang92?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQg9wkBCwtdDmPEi4Zo4DS0pt_lDqillo4', 'person_name': 'Yang YANG', 'profile_description': 'Senior Acquisition &amp; Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/marinahallack?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABF-23QBeHkBCdQ_xIzOTK97JMzS70YoyTY', 'person_name': 'Marina Feres Hallack', 'profile_description': 'Senior User Acquisition Manager at TapNation | Mobile Growth, Perfomance Marketing &amp; User Acquisition'}, {'profile_url': 'https://www.linkedin.com/in/umutkarabuya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfahXIBuiypZpF0avdHh2wjhk89CzftzHc', 'person_name': 'Umut Karabuya', 'profile_description': 'Senior Game Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/boubker-elamri-964b47140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJXPJwBA1sAgWIM2JgfEP6bfxd6NSAVkd0', 'person_name': 'Boubker Elamri', 'profile_description': 'Game developer / Artist'}, {'profile_url': 'https://www.linkedin.com/in/samratsingh159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6mD40BMQNXEexuLBMJ7UEm0wgLqQaICTE', 'person_name': 'Samrat Singh', 'profile_description': 'MSc. in Data Analytics &amp; Artificial Intelligence at EDHEC Business School'}, {'profile_url': 'https://www.linkedin.com/in/jonjansencampos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADJysMB3DlkOyIlBL-L804BqwEEk3uIsXI', 'person_name': 'Jon Jansen Campos', 'profile_description': 'Live Ops Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umut-altun-285022122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5CUQUBJ3Dl8ZsJQB5tUnq8rQ3apCx3u-w', 'person_name': 'Umut Altun', 'profile_description': 'Data Scientist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/maryam-shamoon-6a13841b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGIatkBMtsCypB7BnozJvj9-hQ2xASQT1Q', 'person_name': 'Maryam Shamoon', 'profile_description': 'Senior graphic designer or ui ux designer'}, {'profile_url': 'https://www.linkedin.com/in/eesha-kohli-4b941b157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWdfg0BwGczs_2J58MSj9zvdhh0SQ2_d54', 'person_name': 'Eesha Kohli', 'profile_description': 'Product Management @ISB | Data Science'}, {'profile_url': 'https://www.linkedin.com/in/arhamchaudhry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeESloBDcIiwqA_BprS7yokkus0SxGdjGo', 'person_name': 'Arham Mustafa Chaudhry', 'profile_description': '3D Artist l Animator l UI Artist'}, {'profile_url': 'https://www.linkedin.com/in/meng-xiao-xm1998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxI11sBaT__6c2I6oGKJ-8GqyiVHVuJNbo', 'person_name': 'Meng XIAO', 'profile_description': 'User Acquisition Manager chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/siddhant-saxena-009229145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMYRskB6-11vFsFewlXPNPYDJmi-b-mwww', 'person_name': 'Siddhant Saxena', 'profile_description': 'Unity Developer (Live Ops) at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/dgorshkalev?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvic0BsuRk58Rp7JMJgwLe3kn8LWoIk0o', 'person_name': 'Daniil Gorshkalev', 'profile_description': 'M&amp;A Analyst at TapNation | ESSEC | HSE'}, {'profile_url': 'https://www.linkedin.com/in/hardy-jean?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbnCRUB_wkDVJ6eEUwvxTrqeLlLdjSC6YE', 'person_name': 'Jean Hardy', 'profile_description': 'Senior Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/renat-abbyazov-abbiazov-46a3738b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMY4dIB3yVA8pyiq-2cJVqNmgk03jDcaK4', 'person_name': 'Renat Abbyazov (Abbiazov)', 'profile_description': 'Data Scientist/Machine Learning Engineer'}, {'profile_url': 'https://www.linkedin.com/in/victor-hristov-7477741b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHyaicBUCqn0vd4-1vUw7fCZRvVyL0XlnE', 'person_name': 'Victor Hristov', 'profile_description': 'Business Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/irem-%C3%B6zg%C3%BCn-a412411bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMdWJEBYbnlX-V8sTd4OWeMzan5Y7BnU-M', 'person_name': 'İrem Özgün', 'profile_description': 'Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/karan-makvana-08645014a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQEZWYBCP8ezGkjwq-pGiG3xrkXtJrUgpo', 'person_name': 'Karan Makvana', 'profile_description': 'Unity3D Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muzzammil-naeem-siddiqui-047b82163?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcmibcBnsHex_KEotzwNzH2BEgZEOgRWq4', 'person_name': 'Muzzammil Naeem Siddiqui', 'profile_description': 'Unity Sdk Engineer | Game Developer | Playable Ads Developer'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-randon-262b55138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGhPCoBcQx-4_w8iw9RpIJKI0R_ui1FbIA', 'person_name': 'Léo Randon', 'profile_description': 'Game Designer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/efe-palas-360a49157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACW1KrgBtCSes5Nd60cABK55vFjPMUlCyLo', 'person_name': 'Efe PALAS', 'profile_description': 'Marketing Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/vena-trajkovska-a84012179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoutIQBrnIK7uYbfcg0AG3_gyALn_n96Eg', 'person_name': 'Vena Trajkovska', 'profile_description': 'User Acquisition Manager | Growth | Mobile Games 📱'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-arslan-zia-68198412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAAgsEBSOPsJx6mYVU5jeyKYkGRFsE0YE0', 'person_name': 'Muhammad Arslan Zia', 'profile_description': 'TapNation | SQA | Game Producer | Crafting Engaging Game Experiences'}, {'profile_url': 'https://www.linkedin.com/in/fathimaraseed?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQM7BcBlV6JDKjSiNc7GufwYk-BT8OpuHY', 'person_name': 'Fathima Raseed', 'profile_description': 'Senior 3D Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/merveakr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcDnwsBlDigXyRTlxHVbqauU1w-OFfWt9U', 'person_name': 'Merve Çakır', 'profile_description': 'Helping tech companies build data-driven products | Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sametfener?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpVi5EBaXPotBLqKc9gN0nnpkCBsSo09qk', 'person_name': 'Samet Can Fener', 'profile_description': 'Marketing Artist, Creative Video Producer, Motion Graphic Designer, Art Director'}, {'profile_url': 'https://www.linkedin.com/in/neel-mewada?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYI7ywBSI9CBayH1uiFpHqAvwGwTXvWt6E', 'person_name': 'Neil M.', 'profile_description': 'Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ryanrathgeber?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKtmh0Baqdp1gfvW4faR8ILrRTnO1VTgsk', 'person_name': 'Ryan Rathgeber', 'profile_description': 'Design Director | Senior Game Designer | Games Leadership'}, {'profile_url': 'https://www.linkedin.com/in/marrium-w-710a65213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYVc7wBPmVPhOz39K7xo4STbuY0QNrpVWc', 'person_name': 'Marrium W.', 'profile_description': 'ASO Manager @TapNation I Econ with Data Science @ ITU'}, {'profile_url': 'https://www.linkedin.com/in/tugcevatan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdIQkAB_U_eU2WaGFTrIOF5qYsZrirUbZY', 'person_name': 'Tugce Vatan', 'profile_description': 'Creative Production of Games / Open to relocation'}, {'profile_url': 'https://www.linkedin.com/in/dexter-morgan-440524280?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAERru3ABQ4JUrdwVtqo9gs8y68zJqvwtMOM', 'person_name': 'Dexter Morgan', 'profile_description': 'Recruiter at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/filza-ijaz-414ab718b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzV1JABMlpa-S0cGAIihnB17IEpxVZ2w2A', 'person_name': 'Filza Ijaz', 'profile_description': 'App Store Optimization (ASO) Specialist | User Acquisition Expert | Marketing Specialist | Organic Growth Manager | Games Publisher'}, {'profile_url': 'https://www.linkedin.com/in/tu%C4%9F%C3%A7e-k-11078514b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ-blwBYBvUiMr57NG18XcJR3ouKyyynPc', 'person_name': 'Tuğçe K.', 'profile_description': 'Market Analyst at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/smmehdirizvi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO0WKYBABMcRWpmTcjh5W3pzH09Bl_aMPo', 'person_name': 'Mehdi Rizvi', 'profile_description': "Expert en Optimisation de l'App Store (ASO), Responsable ASO, Spécialiste ASO, Consultant ASO, Responsable Marketing App Store, Expert en Référencement Mobile (SEO Mobile)."}, {'profile_url': 'https://www.linkedin.com/in/mehmetcemsit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAejbp8BtS_zMoYEFWiMLLHmZKlASdiqLoQ', 'person_name': 'Mehmet Cemsit', 'profile_description': 'Sr. Motion Designer'}, {'profile_url': 'https://www.linkedin.com/in/bur%C3%A7in-hayda%C5%9F-31354a3a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhEZT8B_2biVLm6l2jyna6TSHBHvX6vwqk', 'person_name': 'Burçin Haydaş', 'profile_description': 'Growth Expert/ Management- UA &amp; Monetization, Digital Marketer! Ambassador - Women in Game 📌'}, {'profile_url': 'https://www.linkedin.com/in/karen-bousquet-039080130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACALyC0B7p_lbclhd9y1B7-BvaWSNgJkuOk', 'person_name': 'Karen Bousquet', 'profile_description': 'Game Artist @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/aleksandrs-grigorjevs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs0XEcBAHPa8VyJPJVBJHwVHWB2zvVyUFc', 'person_name': 'Aleksandrs Grigorjevs', 'profile_description': 'Lead Game Developer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/bibche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAF8D0BzIrVqzw00QkwjLi-VUxEpVR_OLE', 'person_name': 'Filip Spasenovski', 'profile_description': 'Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/cetin-mustafa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUwbuYBaAizj4U_1apxWrkEWwe5PowuB2I', 'person_name': 'Mustafa Çetin', 'profile_description': 'Helping Creative Production of Games | 10+ years of experience | 15 Hit Games | UA &amp; Creative Strategy | Creative Consultant'}, {'profile_url': 'https://www.linkedin.com/in/awais-mughal-82a664187?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwOvaIByIiA5jhZpoT1zPyH4B_gy_wtKfU', 'person_name': 'Awais Mughal', 'profile_description': 'Unity Developer @TapNation | Creating Immersive and Engaging Games | Live Service Game Specialist | Metaverse | Casual Games | Multiplayer'}, {'profile_url': 'https://www.linkedin.com/in/elizabeth-yaminskaya-6379b58a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMDbEsBebUu5s1Xu1zYoT6PBbsoiDuUopQ', 'person_name': 'Elizabeth Yaminskaya', 'profile_description': 'Quality assurance manager'}, {'profile_url': 'https://www.linkedin.com/in/dmitry-telegin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQaenwB5bVtIS4rSyaaXx1SnpqkIH6UV-8', 'person_name': 'Dmitry Telegin', 'profile_description': 'Senior hyper-casual/casual games artist. 2D/3D. Ui/Ux. SFX. Animation. Unity.'}, {'profile_url': 'https://www.linkedin.com/in/brunogranja?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs96CcBCnlDt5Vc30aPYEARuk7WMhwHUU0', 'person_name': 'Bruno Granja Camarero', 'profile_description': 'Head of Data Analytics @Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}, {'profile_url': 'https://www.linkedin.com/in/herlinda-garcia-928906238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5GbABfGJhLLI9XaYKgb0hiXHF7Td3hbA', 'person_name': 'Herlinda Garcia', 'profile_description': '🎮 Acquisitions Manager at TapNation | Mobile Games | M&amp;A | Business Development | Legal &amp; Commercial Translator 🌍 ES-EN-FR-AR'}]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>303,95 %</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>6.491,36 %</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>44.324.280 €</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>672.460 €</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>25</v>
+      </c>
+      <c r="S38" t="n">
+        <v>58</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM</t>
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TapNation </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.tap-nation.io/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['456-789-0123', '789-012-3456', '+1-202-555-0152', '123-456-7890', 'Fax: 987-654-3210', 'WhatsApp: +9876543210', '+123456789012', 'Fax: +1-202-555-0199', '+1-202-555-0117', 'WhatsApp: +1-202-555-0165']</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Elm Street, Town, Country', '456 Elm Street, Othertown, USA', '123 Main Street, Anytown, USA']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/tapnation</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Entrepreneur, Investor ,Business angel , Board member</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/philippe-grazina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzkoEkBnw25vk_XAjGZjp1o_xs4HlRs1sg', 'person_name': 'Philippe Grazina', 'profile_description': 'Head of Marketing @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/joseph-nguyen-6182b42?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABmUXQBuRVM8bDXgXOfNtLxSSt3jgnVxGo', 'person_name': 'Joseph Nguyen', 'profile_description': 'Co-Founder &amp; CEO'}, {'profile_url': 'https://www.linkedin.com/in/shwetapakhare?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWz0A8Bh9WAkMa1h2nWXU106x-aGmzHNUM', 'person_name': 'Shweta Pakhare', 'profile_description': 'Marketing Manager at TapNation | 3 years in Communication and Marketing | International Marketing and Brand Management at NEOMA BS'}, {'profile_url': 'https://www.linkedin.com/in/philippe-ld?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaCPJEBDFEqoyQk4lG3RENlur5ME16_0zc', 'person_name': 'Philippe L.', 'profile_description': 'Head of Web3 @TapNation / Gaming &amp; Web3 Leader'}, {'profile_url': 'https://www.linkedin.com/in/anastase-helaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACE39dsBE__8LmuvL2dT_dzvIQk3-bGy2vs', 'person_name': 'Anastase Helaine', 'profile_description': 'Product Manager - Web 3 | Tapnation #Mobile #Gaming #Web3'}, {'profile_url': 'https://www.linkedin.com/in/christophe-chausson-4b217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAAgwYBwifjWasTZQVRajHsjeIEsi0Npd0', 'person_name': 'Christophe Chausson', 'profile_description': 'Entrepreneur &amp; Investor'}, {'profile_url': 'https://www.linkedin.com/in/yannis-yahiaoui-58869837?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfBCjgB1_hRBUY_6V7s4RtYh6j8zwZ0WqI', 'person_name': 'Yannis Yahiaoui', 'profile_description': 'Entrepreneur &amp; investor'}, {'profile_url': 'https://www.linkedin.com/in/emmanuelbrunet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAABKR8BMQDf-GK-HewEBnj2NHmlAGAqzNs', 'person_name': 'Emmanuel Brunet', 'profile_description': 'Digital expert turned into Wine enthusiast'}, {'profile_url': 'https://www.linkedin.com/in/syef-medini-040a3222a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl2GLABXZBXnJvDHdkqY1PYMMFRTb24fjE', 'person_name': 'Syef Medini', 'profile_description': 'Monetisation Manager'}, {'profile_url': 'https://www.linkedin.com/in/yohan-avakian-78366899?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABTruFMBDiddWriT4Kfv6cd4OUmhDh2T-G4', 'person_name': 'Yohan Avakian', 'profile_description': 'IT and System Engineer'}, {'profile_url': 'https://www.linkedin.com/in/thomas-pasquet-a5642311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJgPCIBG6tskUatbQOeSdQnEmIYaVOFeAQ', 'person_name': 'Thomas Pasquet', 'profile_description': 'Co-founder at Ogury'}, {'profile_url': 'https://www.linkedin.com/in/philippe-casassa-b519aa10a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuOP-0BzncSYfTZIV6e-cvuOhDCjlVE104', 'person_name': 'Philippe CASASSA', 'profile_description': 'Responsable financier chez TAPNATION'}, {'profile_url': 'https://www.linkedin.com/in/ecem-calban-13410b116?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzZNvgBtHS58s8mDKa7pAjJNeDTVvICnSM', 'person_name': 'Ecem Calban', 'profile_description': 'User Acquisition Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/hervemontoute?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKSpIUBX0YBEKkAiohITM-wdCx718T-na4', 'person_name': 'Hervé Montoute', 'profile_description': 'Co-founder chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/alexandreberthault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo5U54BPYbbNG7e9Obs8cyPA0ZQmjW0LiI', 'person_name': 'Alexandre Berthault', 'profile_description': 'Gameplay programmer'}, {'profile_url': 'https://www.linkedin.com/in/laetitia-ramadier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-BHIkBdbUsePuGvWsNvX1hqXh039xQSM8', 'person_name': 'Laetitia Ramadier', 'profile_description': 'ASO graphic designer at TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/kinsey-dardanus-5971b4b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiXBUMBPsjMMIb1GxqM4y5A4TPpGoSyl7o', 'person_name': 'Kinsey Dardanus', 'profile_description': 'CPO at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julesminvielle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAF9XCABDQ-y3R9D3z88_0_KoYWW3uhTvJU', 'person_name': 'Jules Minvielle', 'profile_description': 'Cofounder CEO of Olyzon. Previously cofounder of Mozoo &amp; Ogury.'}, {'profile_url': 'https://www.linkedin.com/in/kamelhaddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAojzecBjaS3LEwuYfuZ8_QL36iSYNSih84', 'person_name': 'Kamel Haddad 🏴\u200d☠️', 'profile_description': 'VP of Engineering at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sarthakjoshi17?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS4VIYBDqE_DLxPHhC1hzhmKcHBGLVE4v4', 'person_name': 'Sarthak Joshi', 'profile_description': "Senior Publishing Manager at TapNation | Let's make the next hit together"}, {'profile_url': 'https://www.linkedin.com/in/louisclt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkD6NsBMv05K0Ta-ohCBiMy_DZRteQ_peM', 'person_name': 'Louis Clément', 'profile_description': 'CFO &amp; Chief of Staff - TapNation #FT120'}, {'profile_url': 'https://www.linkedin.com/in/andrei-luzan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkbBjIBbxGcR94iZW8R9yqoN_Q9SBr9VCU', 'person_name': 'Andrei Luzan', 'profile_description': 'Sr Ad Monetization Manager | Ad Monetization Consultant | Mobile Game Development | Ad Monetization'}, {'profile_url': 'https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY', 'person_name': 'Igor Zabukovec', 'profile_description': 'CTO &amp; Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k', 'person_name': 'Jean Canzoneri', 'profile_description': 'Entrepreneur, Investor ,Business angel , Board member'}, {'profile_url': 'https://www.linkedin.com/in/vincent-f%C3%A9vrier-9580ab53?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs56ZQBdAVEj0Buxuo4CS9L6tuisTL7fzk', 'person_name': 'Vincent Février', 'profile_description': 'Chief Marketing Officer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/julienlandez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtP1cBo8EpWzqq84ppD4unvsI89Trd17E', 'person_name': 'Julien Landez', 'profile_description': '3D artist'}, {'profile_url': 'https://www.linkedin.com/in/mittaljatin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUo-YBUKPNGMk6hBZy_37AOxu4uQK8G2w', 'person_name': 'Jatin Mittal', 'profile_description': 'Head of User Acquisition @ Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sumit-bhandari-350587171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjXhSwBqTXZa-8oDNg8aqAN5sJZKyRl7zg', 'person_name': 'Sumit Bhandari', 'profile_description': 'MSc Data Analytics Student at Paris School of Business | BI and Data Analytics Enthusiast | Open to Opportunities'}, {'profile_url': 'https://www.linkedin.com/in/paul-thibault-497149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmT3MB-6VPwtJjq2bpq73MkTYN2Gke6mg', 'person_name': 'Paul Thibault', 'profile_description': 'Game developer'}, {'profile_url': 'https://www.linkedin.com/in/ayush-lakra?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoLuCEBjyEOLc4SzlY8za4sO53wW3c6Ntk', 'person_name': 'Ayush Lakra', 'profile_description': 'Former Marketing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/sa%C3%AFd-salloub-webmarketing?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASUcowB3IceGlL66dKa86OxZoXirtaow7E', 'person_name': 'Saïd Salloub', 'profile_description': "Expert en Monétisation d'audience et Acquisition de trafic"}, {'profile_url': 'https://www.linkedin.com/in/carolina-alzamora-gomes?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm_uEYBhLGGQggidJ9hQ411a3UNp4DcXJY', 'person_name': 'Carolina Alzamora Gomes', 'profile_description': 'Business Analyst | Digital Business Consultancy ✅ | Project Management | 🔴 MSc in E-Business and Digital Marketing | +5 year BBA | Data Analysis, Strategic Thinking, GTM Strategy, Inside Sales | ➡️ Tech Innovation'}, {'profile_url': 'https://www.linkedin.com/in/antoine-nisoli?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYzdiUBkTsPS7MYjMt0VTiHppVIZAfJiQI', 'person_name': 'Antoine Nisoli', 'profile_description': 'Unity Developer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/skelly-francisco-8b0184172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj11AQB57CIZIRjMYV-09nRoUcy9M43ubQ', 'person_name': 'Skelly Francisco', 'profile_description': 'Game designer chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/a%C3%AFssatou-b-diop-46966618b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzFCREBVFsSlBMIuoVDAA2me6m45WE5UW8', 'person_name': 'Aïssatou B. Diop', 'profile_description': 'Data Analyst at TapNation | Business &amp; Technology Manager Student at Epitech Digital School'}, {'profile_url': 'https://www.linkedin.com/in/olgazhukowskaya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2k6HUBQCBy0ZMOX75EI3iBNFu1A00vwbg', 'person_name': 'Olga Z.', 'profile_description': 'Ad monetization manager'}, {'profile_url': 'https://www.linkedin.com/in/sufian-ahmad-%F0%9F%99%8C-0b38ab1a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCK1McBMYgTFkwDj6scDeigD0GP2xZZlBo', 'person_name': 'Sufian Ahmad 🙌', 'profile_description': 'Indie Game Developer | Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ozgursertel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvbn4sBxM5n5ek7DFP2pwp2aKrDpqTq7Sg', 'person_name': 'Özgür Sertel', 'profile_description': 'QA Engineer @ TapNation'}, {'profile_url': 'https://www.linkedin.com/in/segunsojobi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSodPUBPsSq5D6U7_DK1P85mTAwspn3by0', 'person_name': 'Segun Sojobi', 'profile_description': 'Software Engineer, Real-time 3D.'}, {'profile_url': 'https://www.linkedin.com/in/fabien-nicot-40348b174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClchIMBLAma35N-8kQLEnIj8HTe5n6YfdQ', 'person_name': 'Fabien Nicot', 'profile_description': 'Lead Dev Unity at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ahmet-akif-u%C4%9Furtan-2038b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkMxKMBIGZ5x_h4MebplTIJ_HG-j_WT06M', 'person_name': 'Ahmet Akif Uğurtan', 'profile_description': 'Backend Engineer at Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lisch-35831884?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHYLPQBMFCQDaGYaxblmFKLRU5O5h_eo1s', 'person_name': 'Maxime Lisch', 'profile_description': 'Head of Creative chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/jessie-bouton-0289b6231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADn9n6ABdU307fgp0sT17Mn2d9gbNyHeOAE', 'person_name': 'Jessie Bouton', 'profile_description': 'QA testeur Manager pour TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ilya-chaplinskiy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACced9IBNT2aU8287ksYiZmoFktqyDZJ0E0', 'person_name': 'Ilya Chaplinskiy', 'profile_description': 'Product Data Analyst @ TapNation | HEC Paris &amp; MSU Graduate'}, {'profile_url': 'https://www.linkedin.com/in/hosni-ammar-300307139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGu5PABIm1UKsQQ5gjxiMNq7txC5PLQ2eQ', 'person_name': 'Hosni Ammar', 'profile_description': 'Passionate Game Developer / Mobile Gaming Specialist / Freelancer / Founder of Broken Mug Studio'}, {'profile_url': 'https://www.linkedin.com/in/timoth%C3%A9e-bruneau-93b59a133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCoDb8BnWxcc6DYcFoVP0HxUNV9SdyHxiA', 'person_name': 'Timothée Bruneau', 'profile_description': 'Senior Game Designer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/uzairhassan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXu8aABg1K5CuF8aWd5DSOLPFf_miL0dOA', 'person_name': 'Uzair Hassan', 'profile_description': 'Unity Game Developer | Hyper-Hybrid-Casual-Puzzle'}, {'profile_url': 'https://www.linkedin.com/in/qichangwu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi8KN8B5UZrjiThXH9Iu8hdWMmzJHS6X3A', 'person_name': 'QC W.', 'profile_description': 'Product and Publishing in Gaming Industry'}, {'profile_url': 'https://www.linkedin.com/in/sandra-zlatkovska-a73b20204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQiq_cBIixmuF0582qvKR6D_6GaZfs4Fmk', 'person_name': 'Sandra Zlatkovska', 'profile_description': 'User Acquisition Manager'}, {'profile_url': 'https://www.linkedin.com/in/laetitiabelkhamsa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWA7hMB0oWpa5_9k19I8sADKLqe0_5smFU', 'person_name': 'Laetitia Belkhamsa', 'profile_description': 'Senior Product Manager @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-qasim-4052b292?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOfAsUBckPjwbtJB-pjV4C21Y4iEsELYEQ', 'person_name': 'Muhammad Qasim', 'profile_description': 'Game Developer | Tech Lead | Hypercasual Games | Metaverse 3D | Unity 3D C#'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-pierre-3a1274205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvvCkBbkx9nnAjJNN7NFYQWmcEtqSDSx4', 'person_name': 'Sébastien Pierre', 'profile_description': 'Infographiste 3D Généraliste chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umairsaifullah01?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACipgxYB8JOS4JdqtmKHfG9YM1qymgk49_k', 'person_name': 'Umair Saifullah', 'profile_description': 'Sr. Game Developer - C# || Unity 3D | Unreal Engine || Metaverse (NFT) || Game Design'}, {'profile_url': 'https://www.linkedin.com/in/vasif-abdullayev-a3b582185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuwZ08Bb9xyLDZ0Vjdj_3-rlQBxlj-V_40', 'person_name': 'Vasif Abdullayev', 'profile_description': 'Senior Game Developer | Game Programming, Game Mechanics, Mobile Game Development'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-touseef-73324b1b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADFV-lcB_VoMVxtDP6ymakWSpojsOMSRZhQ', 'person_name': 'Muhammad Touseef', 'profile_description': 'Unity Developer @ TapNation 🎮'}, {'profile_url': 'https://www.linkedin.com/in/furkansenoglu?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxjLDIB4PgSz3CQ0QqU65Ox24KkFm8kYhk', 'person_name': 'H. Furkan Şenoğlu', 'profile_description': 'Senior Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/mertcandogrucan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCwB5MBpUgl5ffRYXS9nKjqdpSLI9sDsKI', 'person_name': 'Mertcan Doğrucan', 'profile_description': 'Senior Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/victor-lebrun-graphiste?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxq4WsB9a2ifp6nyCaoIIxIl0h90q1bywM', 'person_name': 'Victor Lebrun', 'profile_description': 'Designer Graphique'}, {'profile_url': 'https://www.linkedin.com/in/yang-yang92?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQg9wkBCwtdDmPEi4Zo4DS0pt_lDqillo4', 'person_name': 'Yang YANG', 'profile_description': 'Senior Acquisition &amp; Publishing Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/marinahallack?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABF-23QBeHkBCdQ_xIzOTK97JMzS70YoyTY', 'person_name': 'Marina Feres Hallack', 'profile_description': 'Senior User Acquisition Manager at TapNation | Mobile Growth, Perfomance Marketing &amp; User Acquisition'}, {'profile_url': 'https://www.linkedin.com/in/umutkarabuya?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfahXIBuiypZpF0avdHh2wjhk89CzftzHc', 'person_name': 'Umut Karabuya', 'profile_description': 'Senior Game Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/boubker-elamri-964b47140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACJXPJwBA1sAgWIM2JgfEP6bfxd6NSAVkd0', 'person_name': 'Boubker Elamri', 'profile_description': 'Game developer / Artist'}, {'profile_url': 'https://www.linkedin.com/in/samratsingh159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6mD40BMQNXEexuLBMJ7UEm0wgLqQaICTE', 'person_name': 'Samrat Singh', 'profile_description': 'MSc. in Data Analytics &amp; Artificial Intelligence at EDHEC Business School'}, {'profile_url': 'https://www.linkedin.com/in/jonjansencampos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADJysMB3DlkOyIlBL-L804BqwEEk3uIsXI', 'person_name': 'Jon Jansen Campos', 'profile_description': 'Live Ops Manager at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/umut-altun-285022122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5CUQUBJ3Dl8ZsJQB5tUnq8rQ3apCx3u-w', 'person_name': 'Umut Altun', 'profile_description': 'Data Scientist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/maryam-shamoon-6a13841b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGIatkBMtsCypB7BnozJvj9-hQ2xASQT1Q', 'person_name': 'Maryam Shamoon', 'profile_description': 'Senior graphic designer or ui ux designer'}, {'profile_url': 'https://www.linkedin.com/in/eesha-kohli-4b941b157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWdfg0BwGczs_2J58MSj9zvdhh0SQ2_d54', 'person_name': 'Eesha Kohli', 'profile_description': 'Product Management @ISB | Data Science'}, {'profile_url': 'https://www.linkedin.com/in/arhamchaudhry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeESloBDcIiwqA_BprS7yokkus0SxGdjGo', 'person_name': 'Arham Mustafa Chaudhry', 'profile_description': '3D Artist l Animator l UI Artist'}, {'profile_url': 'https://www.linkedin.com/in/meng-xiao-xm1998?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxI11sBaT__6c2I6oGKJ-8GqyiVHVuJNbo', 'person_name': 'Meng XIAO', 'profile_description': 'User Acquisition Manager chez TapNation'}, {'profile_url': 'https://www.linkedin.com/in/siddhant-saxena-009229145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMYRskB6-11vFsFewlXPNPYDJmi-b-mwww', 'person_name': 'Siddhant Saxena', 'profile_description': 'Unity Developer (Live Ops) at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/dgorshkalev?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQvic0BsuRk58Rp7JMJgwLe3kn8LWoIk0o', 'person_name': 'Daniil Gorshkalev', 'profile_description': 'M&amp;A Analyst at TapNation | ESSEC | HSE'}, {'profile_url': 'https://www.linkedin.com/in/hardy-jean?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbnCRUB_wkDVJ6eEUwvxTrqeLlLdjSC6YE', 'person_name': 'Jean Hardy', 'profile_description': 'Senior Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/renat-abbyazov-abbiazov-46a3738b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMY4dIB3yVA8pyiq-2cJVqNmgk03jDcaK4', 'person_name': 'Renat Abbyazov (Abbiazov)', 'profile_description': 'Data Scientist/Machine Learning Engineer'}, {'profile_url': 'https://www.linkedin.com/in/victor-hristov-7477741b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHyaicBUCqn0vd4-1vUw7fCZRvVyL0XlnE', 'person_name': 'Victor Hristov', 'profile_description': 'Business Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/irem-%C3%B6zg%C3%BCn-a412411bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMdWJEBYbnlX-V8sTd4OWeMzan5Y7BnU-M', 'person_name': 'İrem Özgün', 'profile_description': 'Marketing Artist'}, {'profile_url': 'https://www.linkedin.com/in/karan-makvana-08645014a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQEZWYBCP8ezGkjwq-pGiG3xrkXtJrUgpo', 'person_name': 'Karan Makvana', 'profile_description': 'Unity3D Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/muzzammil-naeem-siddiqui-047b82163?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACcmibcBnsHex_KEotzwNzH2BEgZEOgRWq4', 'person_name': 'Muzzammil Naeem Siddiqui', 'profile_description': 'Unity Sdk Engineer | Game Developer | Playable Ads Developer'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-randon-262b55138?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGhPCoBcQx-4_w8iw9RpIJKI0R_ui1FbIA', 'person_name': 'Léo Randon', 'profile_description': 'Game Designer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/efe-palas-360a49157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACW1KrgBtCSes5Nd60cABK55vFjPMUlCyLo', 'person_name': 'Efe PALAS', 'profile_description': 'Marketing Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/vena-trajkovska-a84012179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoutIQBrnIK7uYbfcg0AG3_gyALn_n96Eg', 'person_name': 'Vena Trajkovska', 'profile_description': 'User Acquisition Manager | Growth | Mobile Games 📱'}, {'profile_url': 'https://www.linkedin.com/in/muhammad-arslan-zia-68198412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAAgsEBSOPsJx6mYVU5jeyKYkGRFsE0YE0', 'person_name': 'Muhammad Arslan Zia', 'profile_description': 'TapNation | SQA | Game Producer | Crafting Engaging Game Experiences'}, {'profile_url': 'https://www.linkedin.com/in/fathimaraseed?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQM7BcBlV6JDKjSiNc7GufwYk-BT8OpuHY', 'person_name': 'Fathima Raseed', 'profile_description': 'Senior 3D Artist at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/merveakr?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcDnwsBlDigXyRTlxHVbqauU1w-OFfWt9U', 'person_name': 'Merve Çakır', 'profile_description': 'Helping tech companies build data-driven products | Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/sametfener?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpVi5EBaXPotBLqKc9gN0nnpkCBsSo09qk', 'person_name': 'Samet Can Fener', 'profile_description': 'Marketing Artist, Creative Video Producer, Motion Graphic Designer, Art Director'}, {'profile_url': 'https://www.linkedin.com/in/neel-mewada?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYI7ywBSI9CBayH1uiFpHqAvwGwTXvWt6E', 'person_name': 'Neil M.', 'profile_description': 'Unity Developer at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/ryanrathgeber?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKtmh0Baqdp1gfvW4faR8ILrRTnO1VTgsk', 'person_name': 'Ryan Rathgeber', 'profile_description': 'Design Director | Senior Game Designer | Games Leadership'}, {'profile_url': 'https://www.linkedin.com/in/marrium-w-710a65213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYVc7wBPmVPhOz39K7xo4STbuY0QNrpVWc', 'person_name': 'Marrium W.', 'profile_description': 'ASO Manager @TapNation I Econ with Data Science @ ITU'}, {'profile_url': 'https://www.linkedin.com/in/tugcevatan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdIQkAB_U_eU2WaGFTrIOF5qYsZrirUbZY', 'person_name': 'Tugce Vatan', 'profile_description': 'Creative Production of Games / Open to relocation'}, {'profile_url': 'https://www.linkedin.com/in/dexter-morgan-440524280?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAERru3ABQ4JUrdwVtqo9gs8y68zJqvwtMOM', 'person_name': 'Dexter Morgan', 'profile_description': 'Recruiter at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/filza-ijaz-414ab718b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzV1JABMlpa-S0cGAIihnB17IEpxVZ2w2A', 'person_name': 'Filza Ijaz', 'profile_description': 'App Store Optimization (ASO) Specialist | User Acquisition Expert | Marketing Specialist | Organic Growth Manager | Games Publisher'}, {'profile_url': 'https://www.linkedin.com/in/tu%C4%9F%C3%A7e-k-11078514b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ-blwBYBvUiMr57NG18XcJR3ouKyyynPc', 'person_name': 'Tuğçe K.', 'profile_description': 'Market Analyst at TapNation'}, {'profile_url': 'https://www.linkedin.com/in/smmehdirizvi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO0WKYBABMcRWpmTcjh5W3pzH09Bl_aMPo', 'person_name': 'Mehdi Rizvi', 'profile_description': "Expert en Optimisation de l'App Store (ASO), Responsable ASO, Spécialiste ASO, Consultant ASO, Responsable Marketing App Store, Expert en Référencement Mobile (SEO Mobile)."}, {'profile_url': 'https://www.linkedin.com/in/mehmetcemsit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAejbp8BtS_zMoYEFWiMLLHmZKlASdiqLoQ', 'person_name': 'Mehmet Cemsit', 'profile_description': 'Sr. Motion Designer'}, {'profile_url': 'https://www.linkedin.com/in/bur%C3%A7in-hayda%C5%9F-31354a3a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhEZT8B_2biVLm6l2jyna6TSHBHvX6vwqk', 'person_name': 'Burçin Haydaş', 'profile_description': 'Growth Expert/ Management- UA &amp; Monetization, Digital Marketer! Ambassador - Women in Game 📌'}, {'profile_url': 'https://www.linkedin.com/in/karen-bousquet-039080130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACALyC0B7p_lbclhd9y1B7-BvaWSNgJkuOk', 'person_name': 'Karen Bousquet', 'profile_description': 'Game Artist @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/aleksandrs-grigorjevs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs0XEcBAHPa8VyJPJVBJHwVHWB2zvVyUFc', 'person_name': 'Aleksandrs Grigorjevs', 'profile_description': 'Lead Game Developer @TapNation'}, {'profile_url': 'https://www.linkedin.com/in/bibche?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAF8D0BzIrVqzw00QkwjLi-VUxEpVR_OLE', 'person_name': 'Filip Spasenovski', 'profile_description': 'Game Artist'}, {'profile_url': 'https://www.linkedin.com/in/cetin-mustafa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABUwbuYBaAizj4U_1apxWrkEWwe5PowuB2I', 'person_name': 'Mustafa Çetin', 'profile_description': 'Helping Creative Production of Games | 10+ years of experience | 15 Hit Games | UA &amp; Creative Strategy | Creative Consultant'}, {'profile_url': 'https://www.linkedin.com/in/awais-mughal-82a664187?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwOvaIByIiA5jhZpoT1zPyH4B_gy_wtKfU', 'person_name': 'Awais Mughal', 'profile_description': 'Unity Developer @TapNation | Creating Immersive and Engaging Games | Live Service Game Specialist | Metaverse | Casual Games | Multiplayer'}, {'profile_url': 'https://www.linkedin.com/in/elizabeth-yaminskaya-6379b58a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMDbEsBebUu5s1Xu1zYoT6PBbsoiDuUopQ', 'person_name': 'Elizabeth Yaminskaya', 'profile_description': 'Quality assurance manager'}, {'profile_url': 'https://www.linkedin.com/in/dmitry-telegin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQaenwB5bVtIS4rSyaaXx1SnpqkIH6UV-8', 'person_name': 'Dmitry Telegin', 'profile_description': 'Senior hyper-casual/casual games artist. 2D/3D. Ui/Ux. SFX. Animation. Unity.'}, {'profile_url': 'https://www.linkedin.com/in/brunogranja?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAs96CcBCnlDt5Vc30aPYEARuk7WMhwHUU0', 'person_name': 'Bruno Granja Camarero', 'profile_description': 'Head of Data Analytics @Tapnation'}, {'profile_url': 'https://www.linkedin.com/in/mourad-bakhali-97493652?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAssLOgBvPhwSAvdJ0ktYvvo4eUvtTlWRQU', 'person_name': 'Mourad Bakhali', 'profile_description': 'Game Developer @TapNation. Founder, Programmer &amp; Designer @GAMEDEVWORKS'}, {'profile_url': 'https://www.linkedin.com/in/herlinda-garcia-928906238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5GbABfGJhLLI9XaYKgb0hiXHF7Td3hbA', 'person_name': 'Herlinda Garcia', 'profile_description': '🎮 Acquisitions Manager at TapNation | Mobile Games | M&amp;A | Business Development | Legal &amp; Commercial Translator 🌍 ES-EN-FR-AR'}]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>303,95 %</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>6.491,36 %</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>44.324.280 €</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>672.460 €</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>25</v>
+      </c>
+      <c r="S39" t="n">
+        <v>58</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Divertissement, Culture, Multimédia</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/igorzabukovec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaK5XYBYpdve8KUfDuLJA99Cqe5KvArqFY</t>
+      <c r="A40" t="n">
+        <v>35</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B2Digit </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://b2digit.com/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['+1234567890', 'Fax: 987-654-3210', '123-456-7890', 'WhatsApp: 555-123-4567']</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/b2digit</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/b2digit-151560178?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoVos0BsVwS7OVy_JsGEtB27-FWOQ0Iyi4', 'person_name': 'B2DIGIT .', 'profile_description': 'Directeur général chez B2DIGIT'}</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Directeur général chez B2DIGIT</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/b2digit-151560178?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoVos0BsVwS7OVy_JsGEtB27-FWOQ0Iyi4</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/christian-constantin-0164594?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADHQdIBZI4dvhxhw84X-XwEQPFExbb1KYA', 'person_name': 'Christian Constantin', 'profile_description': 'Directeur général chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/fabiengom091656239?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADtc1e0BcIdeW-Kb4KOnWj_K8AzGizWphes', 'person_name': 'Fabien G.', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/marion-lehembre-160529286?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEV9O5gBwaKYmWxvWOfsH3Xy2Rt6nakWcXU', 'person_name': 'Marion Lehembre', 'profile_description': 'Business Manager'}, {'profile_url': 'https://www.linkedin.com/in/kevin-courroux-2aa39712a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-8jeIB-LNyE5Z7aQCogMbzDEQEUQ_Q5Tc', 'person_name': 'Kevin Courroux', 'profile_description': 'Chef de projet Technique'}, {'profile_url': 'https://www.linkedin.com/in/marie-jos%C3%A9-hallouin-28331659?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxTrwMBSds4Vp8-GHZbeIXFYz0GQJpNjYs', 'person_name': 'Marie-José Hallouin', 'profile_description': 'Consultante Manager B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/lucmion?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD6C0UBbUIpnq0v6Jx8De80YeBvmlCcGwU', 'person_name': 'Luc MION', 'profile_description': 'Directeur de projets chez B2Digit Agile Consulting'}, {'profile_url': 'https://www.linkedin.com/in/anas-najidi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNyQKMBanxxFsh3Jut4wkWtg03j00vyyFY', 'person_name': 'Anas N.', 'profile_description': 'Chef de projet iot'}, {'profile_url': 'https://www.linkedin.com/in/serge-mignon-167406?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAPWV8BTe2VsrMNImj9Z0mW6oOQtNA4HbM', 'person_name': 'Serge Mignon', 'profile_description': 'Chef de Projet'}, {'profile_url': 'https://www.linkedin.com/in/gouzi-am-4032a543?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkelgMBFCPIcymy_3geb8lwobHzjSwclFA', 'person_name': 'GOUZI ANNE-MARYLISE', 'profile_description': 'Administration des ventes et logistique'}, {'profile_url': 'https://www.linkedin.com/in/frederic-gelat-9a4223220?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADeP08wBLHNPR6cRq6pt09PMxqVdXCJLdco', 'person_name': 'Frederic Gelat', 'profile_description': 'Analyste / Développeur Java'}, {'profile_url': 'https://www.linkedin.com/in/jihane-jdaini-7a2a28137?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFvBGoBALJ2QPvn6Gwzzllon0HqKf-lP5g', 'person_name': 'jihane jdaini', 'profile_description': 'Consultante MOA'}, {'profile_url': 'https://www.linkedin.com/in/b2digit-151560178?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoVos0BsVwS7OVy_JsGEtB27-FWOQ0Iyi4', 'person_name': 'B2DIGIT .', 'profile_description': 'Directeur général chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/fran%C3%A7ois-boisson-10a68812b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_1NpoBWKppfKEzCB6PDtOyv6JAg2PTfdA', 'person_name': 'François Boisson', 'profile_description': 'Business Manager Junior'}, {'profile_url': 'https://www.linkedin.com/in/manalelhachimi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwVLK8BpnIPzsVk_yrwC4OcAvNlSuHLCtA', 'person_name': 'Manal EL HACHIMI', 'profile_description': 'Consultante en conduite du changement | Formatrice Digitale'}, {'profile_url': 'https://www.linkedin.com/in/florian-chades-a8431916a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAChFF8QBU0relX6WgAMYDo2nY4TUbzeXsgM', 'person_name': 'Florian Chades', 'profile_description': 'Formateur Digital'}, {'profile_url': 'https://www.linkedin.com/in/philibert-van-den-broek-03a05175?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_Yq-4B-aBweVrKanjRabhQoaw20mF9oFo', 'person_name': 'Philibert VAN DEN BROEK', 'profile_description': 'Responsable du Pôle déploiement/activité Digitales et IOT'}, {'profile_url': 'https://www.linkedin.com/in/lisablanchard07?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmBAvsBdmWy32tbd6QlIZuEaUx6fjNqhkk', 'person_name': 'Lisa Blanchard', 'profile_description': 'Responsable RH chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/gary-irala-arandia-%E2%9C%85-83340412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_q_6cBfvszfZS1Fk-pSraC9JI5qGgR0OQ', 'person_name': 'Gary Irala Arandia ✅', 'profile_description': 'Consultant Chef de Projet IOT'}, {'profile_url': 'https://www.linkedin.com/in/mariama-koufane-412677ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdp4I4BhFayCAxYW1iwzO7xYYgIWNREKPc', 'person_name': 'Mariama KOUFANE', 'profile_description': 'Senior ITSM Consultant'}, {'profile_url': 'https://www.linkedin.com/in/julie-dubois-b8976645?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmLeRkBloLrXZS9eHTqaChq0_b2tffdnRk', 'person_name': 'Julie Dubois', 'profile_description': 'Content Designer - UX/CX expert'}, {'profile_url': 'https://www.linkedin.com/in/evenn-haddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACIN0_gBPHQhvdsqDSqqn8y28Uvk2EB7wTA', 'person_name': 'Evenn Haddad', 'profile_description': 'Chef de projet &amp; Administrateur Système &amp; Réseau'}, {'profile_url': 'https://www.linkedin.com/in/jacques-masson?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADoFcKcBOtQYRsulegH7EHAgXAIiKkdI6y4', 'person_name': 'Jacques Masson', 'profile_description': 'Artificial Intelligence &amp; Data Engineer / Ingénieur Data et Intelligence Artificielle'}, {'profile_url': 'https://www.linkedin.com/in/olivier-coquillard-259456159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACX5vuUBvCyUfjPn95360SWlM9POS7En3v0', 'person_name': 'Olivier COQUILLARD', 'profile_description': 'Consultant Méthodologie et outillage de test, QA Test &amp; Automatisation'}, {'profile_url': 'https://www.linkedin.com/in/vincentdoulaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFo8K4BIvtQrkXm7fs3bHbVQwHW_-TD7mE', 'person_name': 'Vincent D.', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-dupuis-a0383315b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZjXOMBIq-2biTvVwiD1AaNo7a30Ydrf8g', 'person_name': 'Loïc DUPUIS', 'profile_description': 'Consultant'}, {'profile_url': 'https://www.linkedin.com/in/callyane-petit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_qngABKn-bFpIr03WM0EeSTnCpmvdJvWI', 'person_name': 'Callyane Petit', 'profile_description': 'Consultante communication IT'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-van-den-broek-a9a91721?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASVwlYBZgNyV6y65p27Gp1VM8rimCcDiY0', 'person_name': 'Guillaume van den Broek', 'profile_description': 'Directeur général'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%ABl-y-289694144?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACL7_YkBboacJZMMz4sMYM56N2HI9P0ZzUA', 'person_name': 'Noël Y.', 'profile_description': 'Responsable pôle support chez Clariane'}, {'profile_url': 'https://www.linkedin.com/in/nikolasavkovic?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRYiz4BV6BVtCV1UtdxAKOFMzvtUTNfXkw', 'person_name': 'Nikola Savkovic', 'profile_description': 'Consultant en Transformation digitale, Innovation et Formation'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-queraux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzI5YsByFNLIEMe1pq7nzobN8QuOvj3nI0', 'person_name': 'Benjamin Queraux', 'profile_description': 'Technicien support de proximité'}, {'profile_url': 'https://www.linkedin.com/in/stephanesao?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABj_ivoBv2qKoQQpb_5_-PboMkwo5dmGdwU', 'person_name': 'Stéphane SAO', 'profile_description': '✔Consultant digital'}, {'profile_url': 'https://www.linkedin.com/in/clement-constantin-engineer?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDx-ikBkfPFeVb39g6bFW9zxyhzq0kZ764', 'person_name': 'Clément Constantin', 'profile_description': 'Freelance - Ingénieur Informatique - Montréal - Paris'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-marionneau-7085702ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEqn5vgBzlTuUiWi0QXRsQ4WNB27-wFMdy8', 'person_name': 'Kévin Marionneau', 'profile_description': 'Administrateur Jira -- Automaticien -- Certif ISTQB -- Certif ACP-620 Administrateur Jira -- Certif Selenium'}, {'profile_url': 'https://www.linkedin.com/in/jean-luc-hernandez-3b4a172b3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEtvangB8RoYarnVFgbM1eXoF_OYT-XY8_Y', 'person_name': 'Jean-luc HERNANDEZ', 'profile_description': 'Consultant chez B2DIGIT'}]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>76,52 %</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>450,05 %</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>5.681.591 €</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1.032.918 €</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>12</v>
+      </c>
+      <c r="R40" t="n">
+        <v>20</v>
+      </c>
+      <c r="S40" t="n">
+        <v>60</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/jeancanzoneri?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAE1Vi0BmjcHgGh7txR4G17zHpbK1j5f-4k</t>
+      <c r="A41" t="n">
+        <v>35</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B2Digit </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://b2digit.com/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['+1234567890', 'Fax: 987-654-3210', '123-456-7890', 'WhatsApp: 555-123-4567']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/b2digit</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/lucmion?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD6C0UBbUIpnq0v6Jx8De80YeBvmlCcGwU', 'person_name': 'Luc MION', 'profile_description': 'Directeur de projets chez B2Digit Agile Consulting'}</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Directeur de projets chez B2Digit Agile Consulting</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/lucmion?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD6C0UBbUIpnq0v6Jx8De80YeBvmlCcGwU</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/christian-constantin-0164594?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADHQdIBZI4dvhxhw84X-XwEQPFExbb1KYA', 'person_name': 'Christian Constantin', 'profile_description': 'Directeur général chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/fabiengom091656239?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADtc1e0BcIdeW-Kb4KOnWj_K8AzGizWphes', 'person_name': 'Fabien G.', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/marion-lehembre-160529286?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEV9O5gBwaKYmWxvWOfsH3Xy2Rt6nakWcXU', 'person_name': 'Marion Lehembre', 'profile_description': 'Business Manager'}, {'profile_url': 'https://www.linkedin.com/in/kevin-courroux-2aa39712a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-8jeIB-LNyE5Z7aQCogMbzDEQEUQ_Q5Tc', 'person_name': 'Kevin Courroux', 'profile_description': 'Chef de projet Technique'}, {'profile_url': 'https://www.linkedin.com/in/marie-jos%C3%A9-hallouin-28331659?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxTrwMBSds4Vp8-GHZbeIXFYz0GQJpNjYs', 'person_name': 'Marie-José Hallouin', 'profile_description': 'Consultante Manager B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/lucmion?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD6C0UBbUIpnq0v6Jx8De80YeBvmlCcGwU', 'person_name': 'Luc MION', 'profile_description': 'Directeur de projets chez B2Digit Agile Consulting'}, {'profile_url': 'https://www.linkedin.com/in/anas-najidi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNyQKMBanxxFsh3Jut4wkWtg03j00vyyFY', 'person_name': 'Anas N.', 'profile_description': 'Chef de projet iot'}, {'profile_url': 'https://www.linkedin.com/in/serge-mignon-167406?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAPWV8BTe2VsrMNImj9Z0mW6oOQtNA4HbM', 'person_name': 'Serge Mignon', 'profile_description': 'Chef de Projet'}, {'profile_url': 'https://www.linkedin.com/in/gouzi-am-4032a543?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkelgMBFCPIcymy_3geb8lwobHzjSwclFA', 'person_name': 'GOUZI ANNE-MARYLISE', 'profile_description': 'Administration des ventes et logistique'}, {'profile_url': 'https://www.linkedin.com/in/frederic-gelat-9a4223220?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADeP08wBLHNPR6cRq6pt09PMxqVdXCJLdco', 'person_name': 'Frederic Gelat', 'profile_description': 'Analyste / Développeur Java'}, {'profile_url': 'https://www.linkedin.com/in/jihane-jdaini-7a2a28137?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFvBGoBALJ2QPvn6Gwzzllon0HqKf-lP5g', 'person_name': 'jihane jdaini', 'profile_description': 'Consultante MOA'}, {'profile_url': 'https://www.linkedin.com/in/b2digit-151560178?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoVos0BsVwS7OVy_JsGEtB27-FWOQ0Iyi4', 'person_name': 'B2DIGIT .', 'profile_description': 'Directeur général chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/fran%C3%A7ois-boisson-10a68812b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_1NpoBWKppfKEzCB6PDtOyv6JAg2PTfdA', 'person_name': 'François Boisson', 'profile_description': 'Business Manager Junior'}, {'profile_url': 'https://www.linkedin.com/in/manalelhachimi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwVLK8BpnIPzsVk_yrwC4OcAvNlSuHLCtA', 'person_name': 'Manal EL HACHIMI', 'profile_description': 'Consultante en conduite du changement | Formatrice Digitale'}, {'profile_url': 'https://www.linkedin.com/in/florian-chades-a8431916a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAChFF8QBU0relX6WgAMYDo2nY4TUbzeXsgM', 'person_name': 'Florian Chades', 'profile_description': 'Formateur Digital'}, {'profile_url': 'https://www.linkedin.com/in/philibert-van-den-broek-03a05175?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_Yq-4B-aBweVrKanjRabhQoaw20mF9oFo', 'person_name': 'Philibert VAN DEN BROEK', 'profile_description': 'Responsable du Pôle déploiement/activité Digitales et IOT'}, {'profile_url': 'https://www.linkedin.com/in/lisablanchard07?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmBAvsBdmWy32tbd6QlIZuEaUx6fjNqhkk', 'person_name': 'Lisa Blanchard', 'profile_description': 'Responsable RH chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/gary-irala-arandia-%E2%9C%85-83340412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_q_6cBfvszfZS1Fk-pSraC9JI5qGgR0OQ', 'person_name': 'Gary Irala Arandia ✅', 'profile_description': 'Consultant Chef de Projet IOT'}, {'profile_url': 'https://www.linkedin.com/in/mariama-koufane-412677ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdp4I4BhFayCAxYW1iwzO7xYYgIWNREKPc', 'person_name': 'Mariama KOUFANE', 'profile_description': 'Senior ITSM Consultant'}, {'profile_url': 'https://www.linkedin.com/in/julie-dubois-b8976645?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmLeRkBloLrXZS9eHTqaChq0_b2tffdnRk', 'person_name': 'Julie Dubois', 'profile_description': 'Content Designer - UX/CX expert'}, {'profile_url': 'https://www.linkedin.com/in/evenn-haddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACIN0_gBPHQhvdsqDSqqn8y28Uvk2EB7wTA', 'person_name': 'Evenn Haddad', 'profile_description': 'Chef de projet &amp; Administrateur Système &amp; Réseau'}, {'profile_url': 'https://www.linkedin.com/in/jacques-masson?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADoFcKcBOtQYRsulegH7EHAgXAIiKkdI6y4', 'person_name': 'Jacques Masson', 'profile_description': 'Artificial Intelligence &amp; Data Engineer / Ingénieur Data et Intelligence Artificielle'}, {'profile_url': 'https://www.linkedin.com/in/olivier-coquillard-259456159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACX5vuUBvCyUfjPn95360SWlM9POS7En3v0', 'person_name': 'Olivier COQUILLARD', 'profile_description': 'Consultant Méthodologie et outillage de test, QA Test &amp; Automatisation'}, {'profile_url': 'https://www.linkedin.com/in/vincentdoulaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFo8K4BIvtQrkXm7fs3bHbVQwHW_-TD7mE', 'person_name': 'Vincent D.', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-dupuis-a0383315b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZjXOMBIq-2biTvVwiD1AaNo7a30Ydrf8g', 'person_name': 'Loïc DUPUIS', 'profile_description': 'Consultant'}, {'profile_url': 'https://www.linkedin.com/in/callyane-petit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_qngABKn-bFpIr03WM0EeSTnCpmvdJvWI', 'person_name': 'Callyane Petit', 'profile_description': 'Consultante communication IT'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-van-den-broek-a9a91721?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASVwlYBZgNyV6y65p27Gp1VM8rimCcDiY0', 'person_name': 'Guillaume van den Broek', 'profile_description': 'Directeur général'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%ABl-y-289694144?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACL7_YkBboacJZMMz4sMYM56N2HI9P0ZzUA', 'person_name': 'Noël Y.', 'profile_description': 'Responsable pôle support chez Clariane'}, {'profile_url': 'https://www.linkedin.com/in/nikolasavkovic?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRYiz4BV6BVtCV1UtdxAKOFMzvtUTNfXkw', 'person_name': 'Nikola Savkovic', 'profile_description': 'Consultant en Transformation digitale, Innovation et Formation'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-queraux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzI5YsByFNLIEMe1pq7nzobN8QuOvj3nI0', 'person_name': 'Benjamin Queraux', 'profile_description': 'Technicien support de proximité'}, {'profile_url': 'https://www.linkedin.com/in/stephanesao?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABj_ivoBv2qKoQQpb_5_-PboMkwo5dmGdwU', 'person_name': 'Stéphane SAO', 'profile_description': '✔Consultant digital'}, {'profile_url': 'https://www.linkedin.com/in/clement-constantin-engineer?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDx-ikBkfPFeVb39g6bFW9zxyhzq0kZ764', 'person_name': 'Clément Constantin', 'profile_description': 'Freelance - Ingénieur Informatique - Montréal - Paris'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-marionneau-7085702ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEqn5vgBzlTuUiWi0QXRsQ4WNB27-wFMdy8', 'person_name': 'Kévin Marionneau', 'profile_description': 'Administrateur Jira -- Automaticien -- Certif ISTQB -- Certif ACP-620 Administrateur Jira -- Certif Selenium'}, {'profile_url': 'https://www.linkedin.com/in/jean-luc-hernandez-3b4a172b3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEtvangB8RoYarnVFgbM1eXoF_OYT-XY8_Y', 'person_name': 'Jean-luc HERNANDEZ', 'profile_description': 'Consultant chez B2DIGIT'}]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>76,52 %</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>450,05 %</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>5.681.591 €</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1.032.918 €</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>12</v>
+      </c>
+      <c r="R41" t="n">
+        <v>20</v>
+      </c>
+      <c r="S41" t="n">
+        <v>60</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/b2digit-151560178?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoVos0BsVwS7OVy_JsGEtB27-FWOQ0Iyi4</t>
+      <c r="A42" t="n">
+        <v>35</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B2Digit </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://b2digit.com/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['+1234567890', 'Fax: 987-654-3210', '123-456-7890', 'WhatsApp: 555-123-4567']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/b2digit</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/guillaume-van-den-broek-a9a91721?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASVwlYBZgNyV6y65p27Gp1VM8rimCcDiY0', 'person_name': 'Guillaume van den Broek', 'profile_description': 'Directeur général'}</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Directeur général</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/guillaume-van-den-broek-a9a91721?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASVwlYBZgNyV6y65p27Gp1VM8rimCcDiY0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/christian-constantin-0164594?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADHQdIBZI4dvhxhw84X-XwEQPFExbb1KYA', 'person_name': 'Christian Constantin', 'profile_description': 'Directeur général chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/fabiengom091656239?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADtc1e0BcIdeW-Kb4KOnWj_K8AzGizWphes', 'person_name': 'Fabien G.', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/marion-lehembre-160529286?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEV9O5gBwaKYmWxvWOfsH3Xy2Rt6nakWcXU', 'person_name': 'Marion Lehembre', 'profile_description': 'Business Manager'}, {'profile_url': 'https://www.linkedin.com/in/kevin-courroux-2aa39712a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-8jeIB-LNyE5Z7aQCogMbzDEQEUQ_Q5Tc', 'person_name': 'Kevin Courroux', 'profile_description': 'Chef de projet Technique'}, {'profile_url': 'https://www.linkedin.com/in/marie-jos%C3%A9-hallouin-28331659?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxTrwMBSds4Vp8-GHZbeIXFYz0GQJpNjYs', 'person_name': 'Marie-José Hallouin', 'profile_description': 'Consultante Manager B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/lucmion?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD6C0UBbUIpnq0v6Jx8De80YeBvmlCcGwU', 'person_name': 'Luc MION', 'profile_description': 'Directeur de projets chez B2Digit Agile Consulting'}, {'profile_url': 'https://www.linkedin.com/in/anas-najidi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNyQKMBanxxFsh3Jut4wkWtg03j00vyyFY', 'person_name': 'Anas N.', 'profile_description': 'Chef de projet iot'}, {'profile_url': 'https://www.linkedin.com/in/serge-mignon-167406?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAPWV8BTe2VsrMNImj9Z0mW6oOQtNA4HbM', 'person_name': 'Serge Mignon', 'profile_description': 'Chef de Projet'}, {'profile_url': 'https://www.linkedin.com/in/gouzi-am-4032a543?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkelgMBFCPIcymy_3geb8lwobHzjSwclFA', 'person_name': 'GOUZI ANNE-MARYLISE', 'profile_description': 'Administration des ventes et logistique'}, {'profile_url': 'https://www.linkedin.com/in/frederic-gelat-9a4223220?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADeP08wBLHNPR6cRq6pt09PMxqVdXCJLdco', 'person_name': 'Frederic Gelat', 'profile_description': 'Analyste / Développeur Java'}, {'profile_url': 'https://www.linkedin.com/in/jihane-jdaini-7a2a28137?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFvBGoBALJ2QPvn6Gwzzllon0HqKf-lP5g', 'person_name': 'jihane jdaini', 'profile_description': 'Consultante MOA'}, {'profile_url': 'https://www.linkedin.com/in/b2digit-151560178?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoVos0BsVwS7OVy_JsGEtB27-FWOQ0Iyi4', 'person_name': 'B2DIGIT .', 'profile_description': 'Directeur général chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/fran%C3%A7ois-boisson-10a68812b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_1NpoBWKppfKEzCB6PDtOyv6JAg2PTfdA', 'person_name': 'François Boisson', 'profile_description': 'Business Manager Junior'}, {'profile_url': 'https://www.linkedin.com/in/manalelhachimi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwVLK8BpnIPzsVk_yrwC4OcAvNlSuHLCtA', 'person_name': 'Manal EL HACHIMI', 'profile_description': 'Consultante en conduite du changement | Formatrice Digitale'}, {'profile_url': 'https://www.linkedin.com/in/florian-chades-a8431916a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAChFF8QBU0relX6WgAMYDo2nY4TUbzeXsgM', 'person_name': 'Florian Chades', 'profile_description': 'Formateur Digital'}, {'profile_url': 'https://www.linkedin.com/in/philibert-van-den-broek-03a05175?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_Yq-4B-aBweVrKanjRabhQoaw20mF9oFo', 'person_name': 'Philibert VAN DEN BROEK', 'profile_description': 'Responsable du Pôle déploiement/activité Digitales et IOT'}, {'profile_url': 'https://www.linkedin.com/in/lisablanchard07?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmBAvsBdmWy32tbd6QlIZuEaUx6fjNqhkk', 'person_name': 'Lisa Blanchard', 'profile_description': 'Responsable RH chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/gary-irala-arandia-%E2%9C%85-83340412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_q_6cBfvszfZS1Fk-pSraC9JI5qGgR0OQ', 'person_name': 'Gary Irala Arandia ✅', 'profile_description': 'Consultant Chef de Projet IOT'}, {'profile_url': 'https://www.linkedin.com/in/mariama-koufane-412677ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdp4I4BhFayCAxYW1iwzO7xYYgIWNREKPc', 'person_name': 'Mariama KOUFANE', 'profile_description': 'Senior ITSM Consultant'}, {'profile_url': 'https://www.linkedin.com/in/julie-dubois-b8976645?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmLeRkBloLrXZS9eHTqaChq0_b2tffdnRk', 'person_name': 'Julie Dubois', 'profile_description': 'Content Designer - UX/CX expert'}, {'profile_url': 'https://www.linkedin.com/in/evenn-haddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACIN0_gBPHQhvdsqDSqqn8y28Uvk2EB7wTA', 'person_name': 'Evenn Haddad', 'profile_description': 'Chef de projet &amp; Administrateur Système &amp; Réseau'}, {'profile_url': 'https://www.linkedin.com/in/jacques-masson?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADoFcKcBOtQYRsulegH7EHAgXAIiKkdI6y4', 'person_name': 'Jacques Masson', 'profile_description': 'Artificial Intelligence &amp; Data Engineer / Ingénieur Data et Intelligence Artificielle'}, {'profile_url': 'https://www.linkedin.com/in/olivier-coquillard-259456159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACX5vuUBvCyUfjPn95360SWlM9POS7En3v0', 'person_name': 'Olivier COQUILLARD', 'profile_description': 'Consultant Méthodologie et outillage de test, QA Test &amp; Automatisation'}, {'profile_url': 'https://www.linkedin.com/in/vincentdoulaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFo8K4BIvtQrkXm7fs3bHbVQwHW_-TD7mE', 'person_name': 'Vincent D.', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-dupuis-a0383315b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZjXOMBIq-2biTvVwiD1AaNo7a30Ydrf8g', 'person_name': 'Loïc DUPUIS', 'profile_description': 'Consultant'}, {'profile_url': 'https://www.linkedin.com/in/callyane-petit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_qngABKn-bFpIr03WM0EeSTnCpmvdJvWI', 'person_name': 'Callyane Petit', 'profile_description': 'Consultante communication IT'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-van-den-broek-a9a91721?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASVwlYBZgNyV6y65p27Gp1VM8rimCcDiY0', 'person_name': 'Guillaume van den Broek', 'profile_description': 'Directeur général'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%ABl-y-289694144?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACL7_YkBboacJZMMz4sMYM56N2HI9P0ZzUA', 'person_name': 'Noël Y.', 'profile_description': 'Responsable pôle support chez Clariane'}, {'profile_url': 'https://www.linkedin.com/in/nikolasavkovic?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRYiz4BV6BVtCV1UtdxAKOFMzvtUTNfXkw', 'person_name': 'Nikola Savkovic', 'profile_description': 'Consultant en Transformation digitale, Innovation et Formation'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-queraux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzI5YsByFNLIEMe1pq7nzobN8QuOvj3nI0', 'person_name': 'Benjamin Queraux', 'profile_description': 'Technicien support de proximité'}, {'profile_url': 'https://www.linkedin.com/in/stephanesao?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABj_ivoBv2qKoQQpb_5_-PboMkwo5dmGdwU', 'person_name': 'Stéphane SAO', 'profile_description': '✔Consultant digital'}, {'profile_url': 'https://www.linkedin.com/in/clement-constantin-engineer?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDx-ikBkfPFeVb39g6bFW9zxyhzq0kZ764', 'person_name': 'Clément Constantin', 'profile_description': 'Freelance - Ingénieur Informatique - Montréal - Paris'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-marionneau-7085702ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEqn5vgBzlTuUiWi0QXRsQ4WNB27-wFMdy8', 'person_name': 'Kévin Marionneau', 'profile_description': 'Administrateur Jira -- Automaticien -- Certif ISTQB -- Certif ACP-620 Administrateur Jira -- Certif Selenium'}, {'profile_url': 'https://www.linkedin.com/in/jean-luc-hernandez-3b4a172b3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEtvangB8RoYarnVFgbM1eXoF_OYT-XY8_Y', 'person_name': 'Jean-luc HERNANDEZ', 'profile_description': 'Consultant chez B2DIGIT'}]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>76,52 %</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>450,05 %</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>5.681.591 €</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1.032.918 €</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>12</v>
+      </c>
+      <c r="R42" t="n">
+        <v>20</v>
+      </c>
+      <c r="S42" t="n">
+        <v>60</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/lucmion?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD6C0UBbUIpnq0v6Jx8De80YeBvmlCcGwU</t>
+      <c r="A43" t="n">
+        <v>35</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B2Digit </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://b2digit.com/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['+1234567890', 'Fax: 987-654-3210', '123-456-7890', 'WhatsApp: 555-123-4567']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/b2digit</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/christian-constantin-0164594?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADHQdIBZI4dvhxhw84X-XwEQPFExbb1KYA', 'person_name': 'Christian Constantin', 'profile_description': 'Directeur général chez B2DIGIT'}</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Directeur général chez B2DIGIT</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christian-constantin-0164594?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADHQdIBZI4dvhxhw84X-XwEQPFExbb1KYA</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/christian-constantin-0164594?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADHQdIBZI4dvhxhw84X-XwEQPFExbb1KYA', 'person_name': 'Christian Constantin', 'profile_description': 'Directeur général chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/fabiengom091656239?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADtc1e0BcIdeW-Kb4KOnWj_K8AzGizWphes', 'person_name': 'Fabien G.', 'profile_description': 'Chef de projet'}, {'profile_url': 'https://www.linkedin.com/in/marion-lehembre-160529286?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEV9O5gBwaKYmWxvWOfsH3Xy2Rt6nakWcXU', 'person_name': 'Marion Lehembre', 'profile_description': 'Business Manager'}, {'profile_url': 'https://www.linkedin.com/in/kevin-courroux-2aa39712a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-8jeIB-LNyE5Z7aQCogMbzDEQEUQ_Q5Tc', 'person_name': 'Kevin Courroux', 'profile_description': 'Chef de projet Technique'}, {'profile_url': 'https://www.linkedin.com/in/marie-jos%C3%A9-hallouin-28331659?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxTrwMBSds4Vp8-GHZbeIXFYz0GQJpNjYs', 'person_name': 'Marie-José Hallouin', 'profile_description': 'Consultante Manager B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/lucmion?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAD6C0UBbUIpnq0v6Jx8De80YeBvmlCcGwU', 'person_name': 'Luc MION', 'profile_description': 'Directeur de projets chez B2Digit Agile Consulting'}, {'profile_url': 'https://www.linkedin.com/in/anas-najidi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNyQKMBanxxFsh3Jut4wkWtg03j00vyyFY', 'person_name': 'Anas N.', 'profile_description': 'Chef de projet iot'}, {'profile_url': 'https://www.linkedin.com/in/serge-mignon-167406?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAPWV8BTe2VsrMNImj9Z0mW6oOQtNA4HbM', 'person_name': 'Serge Mignon', 'profile_description': 'Chef de Projet'}, {'profile_url': 'https://www.linkedin.com/in/gouzi-am-4032a543?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkelgMBFCPIcymy_3geb8lwobHzjSwclFA', 'person_name': 'GOUZI ANNE-MARYLISE', 'profile_description': 'Administration des ventes et logistique'}, {'profile_url': 'https://www.linkedin.com/in/frederic-gelat-9a4223220?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADeP08wBLHNPR6cRq6pt09PMxqVdXCJLdco', 'person_name': 'Frederic Gelat', 'profile_description': 'Analyste / Développeur Java'}, {'profile_url': 'https://www.linkedin.com/in/jihane-jdaini-7a2a28137?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFvBGoBALJ2QPvn6Gwzzllon0HqKf-lP5g', 'person_name': 'jihane jdaini', 'profile_description': 'Consultante MOA'}, {'profile_url': 'https://www.linkedin.com/in/b2digit-151560178?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoVos0BsVwS7OVy_JsGEtB27-FWOQ0Iyi4', 'person_name': 'B2DIGIT .', 'profile_description': 'Directeur général chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/fran%C3%A7ois-boisson-10a68812b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_1NpoBWKppfKEzCB6PDtOyv6JAg2PTfdA', 'person_name': 'François Boisson', 'profile_description': 'Business Manager Junior'}, {'profile_url': 'https://www.linkedin.com/in/manalelhachimi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACwVLK8BpnIPzsVk_yrwC4OcAvNlSuHLCtA', 'person_name': 'Manal EL HACHIMI', 'profile_description': 'Consultante en conduite du changement | Formatrice Digitale'}, {'profile_url': 'https://www.linkedin.com/in/florian-chades-a8431916a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAChFF8QBU0relX6WgAMYDo2nY4TUbzeXsgM', 'person_name': 'Florian Chades', 'profile_description': 'Formateur Digital'}, {'profile_url': 'https://www.linkedin.com/in/philibert-van-den-broek-03a05175?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_Yq-4B-aBweVrKanjRabhQoaw20mF9oFo', 'person_name': 'Philibert VAN DEN BROEK', 'profile_description': 'Responsable du Pôle déploiement/activité Digitales et IOT'}, {'profile_url': 'https://www.linkedin.com/in/lisablanchard07?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmBAvsBdmWy32tbd6QlIZuEaUx6fjNqhkk', 'person_name': 'Lisa Blanchard', 'profile_description': 'Responsable RH chez B2DIGIT'}, {'profile_url': 'https://www.linkedin.com/in/gary-irala-arandia-%E2%9C%85-83340412b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_q_6cBfvszfZS1Fk-pSraC9JI5qGgR0OQ', 'person_name': 'Gary Irala Arandia ✅', 'profile_description': 'Consultant Chef de Projet IOT'}, {'profile_url': 'https://www.linkedin.com/in/mariama-koufane-412677ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdp4I4BhFayCAxYW1iwzO7xYYgIWNREKPc', 'person_name': 'Mariama KOUFANE', 'profile_description': 'Senior ITSM Consultant'}, {'profile_url': 'https://www.linkedin.com/in/julie-dubois-b8976645?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmLeRkBloLrXZS9eHTqaChq0_b2tffdnRk', 'person_name': 'Julie Dubois', 'profile_description': 'Content Designer - UX/CX expert'}, {'profile_url': 'https://www.linkedin.com/in/evenn-haddad?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACIN0_gBPHQhvdsqDSqqn8y28Uvk2EB7wTA', 'person_name': 'Evenn Haddad', 'profile_description': 'Chef de projet &amp; Administrateur Système &amp; Réseau'}, {'profile_url': 'https://www.linkedin.com/in/jacques-masson?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADoFcKcBOtQYRsulegH7EHAgXAIiKkdI6y4', 'person_name': 'Jacques Masson', 'profile_description': 'Artificial Intelligence &amp; Data Engineer / Ingénieur Data et Intelligence Artificielle'}, {'profile_url': 'https://www.linkedin.com/in/olivier-coquillard-259456159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACX5vuUBvCyUfjPn95360SWlM9POS7En3v0', 'person_name': 'Olivier COQUILLARD', 'profile_description': 'Consultant Méthodologie et outillage de test, QA Test &amp; Automatisation'}, {'profile_url': 'https://www.linkedin.com/in/vincentdoulaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFo8K4BIvtQrkXm7fs3bHbVQwHW_-TD7mE', 'person_name': 'Vincent D.', 'profile_description': 'Consultant digital senior'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-dupuis-a0383315b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZjXOMBIq-2biTvVwiD1AaNo7a30Ydrf8g', 'person_name': 'Loïc DUPUIS', 'profile_description': 'Consultant'}, {'profile_url': 'https://www.linkedin.com/in/callyane-petit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_qngABKn-bFpIr03WM0EeSTnCpmvdJvWI', 'person_name': 'Callyane Petit', 'profile_description': 'Consultante communication IT'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-van-den-broek-a9a91721?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASVwlYBZgNyV6y65p27Gp1VM8rimCcDiY0', 'person_name': 'Guillaume van den Broek', 'profile_description': 'Directeur général'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%ABl-y-289694144?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACL7_YkBboacJZMMz4sMYM56N2HI9P0ZzUA', 'person_name': 'Noël Y.', 'profile_description': 'Responsable pôle support chez Clariane'}, {'profile_url': 'https://www.linkedin.com/in/nikolasavkovic?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRYiz4BV6BVtCV1UtdxAKOFMzvtUTNfXkw', 'person_name': 'Nikola Savkovic', 'profile_description': 'Consultant en Transformation digitale, Innovation et Formation'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-queraux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzI5YsByFNLIEMe1pq7nzobN8QuOvj3nI0', 'person_name': 'Benjamin Queraux', 'profile_description': 'Technicien support de proximité'}, {'profile_url': 'https://www.linkedin.com/in/stephanesao?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABj_ivoBv2qKoQQpb_5_-PboMkwo5dmGdwU', 'person_name': 'Stéphane SAO', 'profile_description': '✔Consultant digital'}, {'profile_url': 'https://www.linkedin.com/in/clement-constantin-engineer?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDx-ikBkfPFeVb39g6bFW9zxyhzq0kZ764', 'person_name': 'Clément Constantin', 'profile_description': 'Freelance - Ingénieur Informatique - Montréal - Paris'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-marionneau-7085702ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEqn5vgBzlTuUiWi0QXRsQ4WNB27-wFMdy8', 'person_name': 'Kévin Marionneau', 'profile_description': 'Administrateur Jira -- Automaticien -- Certif ISTQB -- Certif ACP-620 Administrateur Jira -- Certif Selenium'}, {'profile_url': 'https://www.linkedin.com/in/jean-luc-hernandez-3b4a172b3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEtvangB8RoYarnVFgbM1eXoF_OYT-XY8_Y', 'person_name': 'Jean-luc HERNANDEZ', 'profile_description': 'Consultant chez B2DIGIT'}]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>76,52 %</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>450,05 %</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>5.681.591 €</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1.032.918 €</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>12</v>
+      </c>
+      <c r="R43" t="n">
+        <v>20</v>
+      </c>
+      <c r="S43" t="n">
+        <v>60</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/guillaume-van-den-broek-a9a91721?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASVwlYBZgNyV6y65p27Gp1VM8rimCcDiY0</t>
+      <c r="A44" t="n">
+        <v>250</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akajoule </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.akajoule.com/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['0240530661']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['commercial@akajoule.com', 'info@akajoule.com']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['55 rue Roland Moreno, BP 27130 Alixan, 26958 Valence Cedex 9', '18 boulevard Paul Perrin, 44600 Saint-Nazaire', 'Siège social : 18 boulevard Paul Perrin - 44600 Saint-Nazaire', 'Agence Sud - Est : 55 rue Roland Moreno - BP 27130 Alixan - 26958 Valence Cedex 9']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/akajoule</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/guillaume-accarion-11ba061?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABTsScBnQbo_8wXJ8LDZiQAQIBbOyrxOVQ', 'person_name': 'Guillaume ACCARION', 'profile_description': 'President AKAJOULE SAS'}</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>President AKAJOULE SAS</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/guillaume-accarion-11ba061?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABTsScBnQbo_8wXJ8LDZiQAQIBbOyrxOVQ</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/delphie-boutin-312b7a90?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNlAD4BcCipErQrB9kQR2D_haeGu0pbOCw', 'person_name': 'Delphie Boutin', 'profile_description': "Ingénieure projets d'études efficacité énergétique et énergies renouvelables chez Akajoule"}, {'profile_url': 'https://www.linkedin.com/in/m-hibert-750149100?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmmUOwB6wAXCD9aXxzAHdN6PQbgWhk6C2c', 'person_name': 'M. HIBERT', 'profile_description': 'Responsable Commercial Akajoule'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-barbier-b2b365177?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACngohMBfP1TVbjfHOUdykOWxlhDmOiAza0', 'person_name': 'Mathilde Barbier', 'profile_description': "Cheffe d'agence bureau d'études énergie"}, {'profile_url': 'https://www.linkedin.com/in/guillaume-accarion-11ba061?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABTsScBnQbo_8wXJ8LDZiQAQIBbOyrxOVQ', 'person_name': 'Guillaume ACCARION', 'profile_description': 'President AKAJOULE SAS'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-inglesant-b2369950?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAArHpAsB-rnQMlckWVYRLgrqaGkl2JKItzE', 'person_name': 'Benjamin Inglesant', 'profile_description': 'Ingénieur commercial'}, {'profile_url': 'https://www.linkedin.com/in/julien-roux44?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYyFvkB5Ng8Ix04tcXEW5zUwjQQl62Ms4A', 'person_name': 'Julien Roux', 'profile_description': 'Chargé d’études et de projets chez Akajoule Agence Sud-Ouest'}, {'profile_url': 'https://www.linkedin.com/in/matthieu-marchand4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjB7cwBEfsI1_sBV-8d4QZbSyDKtOqrDjA', 'person_name': 'Matthieu MARCHAND', 'profile_description': 'Ingénieur en Génie électrique/smart grids - Engineer in electrical engineering/smart grids'}, {'profile_url': 'https://www.linkedin.com/in/camille-leroy-069341195?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC3KPxEBbZKtDf62SR68HPEvKxhb2ZJOLI8', 'person_name': 'Camille Leroy', 'profile_description': 'Ingénieure Études et Projets'}, {'profile_url': 'https://www.linkedin.com/in/charles-pichon-wermeille-b3044a198?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5W_dQBUXCzeCnoPtvxG0RA4k7QGmJxgpw', 'person_name': 'Charles Pichon-Wermeille', 'profile_description': 'Ingénieur études et projets'}, {'profile_url': 'https://www.linkedin.com/in/vincent-brunot-24b709235?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADqo4hsBTg07kASR15AcGfKh_TGE0A4MMMY', 'person_name': 'Vincent Brunot', 'profile_description': 'Ingénieur recherche/développement chez Akajoule'}, {'profile_url': 'https://www.linkedin.com/in/baptiste-nouailhat-15a555b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABikU5YB8OfqPecQwRMBTzOVGenXHFRea64', 'person_name': 'Baptiste Nouailhat', 'profile_description': 'Ingénieur efficacité énergétique'}, {'profile_url': 'https://www.linkedin.com/in/beno%C3%AEt-bedock-74941880?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEluykBruNRy35PxrdJ1n1UlgsCa1BrhFU', 'person_name': 'Benoît Bedock', 'profile_description': 'Chef de projet Collectivités'}]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>26,23 %</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>101,11 %</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2.102.356 €</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1.045.362 €</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>18</v>
+      </c>
+      <c r="R44" t="n">
+        <v>20</v>
+      </c>
+      <c r="S44" t="n">
+        <v>60</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Ingénierie, Bureaux d’études techniques</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/christian-constantin-0164594?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADHQdIBZI4dvhxhw84X-XwEQPFExbb1KYA</t>
+      <c r="A45" t="n">
+        <v>293</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olympp </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://olympp.fr/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['01 85 54 01 61']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['contact@olympp.fr']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['20 rue des Poissonniers, 92200 Neuilly-sur-Seine']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/olympp</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/aurelien-thuillart-olympp?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAl2nLkB7SuQBanSFOO88r-grEJ7b3_DlcQ', 'person_name': 'Aurélien THUILLART', 'profile_description': 'Co-Founder &amp; CEO @ Olympp'}</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Co-Founder &amp; CEO @ Olympp</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/aurelien-thuillart-olympp?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAl2nLkB7SuQBanSFOO88r-grEJ7b3_DlcQ</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/julien-monnot?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB0_anMBpw-Y31lJOlh2wxj9vq6HXxOga6s', 'person_name': 'Julien Monnot', 'profile_description': 'Business Developer'}, {'profile_url': 'https://www.linkedin.com/in/allan-maitre-8b7058a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABW4cAsBGAeXWI67fyTxNqdcvT-rIMJ-rsQ', 'person_name': 'Allan Maitre', 'profile_description': 'Ingénieur Logiciel Full Stack'}, {'profile_url': 'https://www.linkedin.com/in/antranik-baboyan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACG_3OABK73zIv5nHyzRVnb4I9UBxW8Q4Ko', 'person_name': 'Antranik Baboyan', 'profile_description': 'Développeur chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/pierredem?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPT65cBnp4eq6veTsk-6n5iXY6qb9m_tsY', 'person_name': 'Pierre DEMOURY', 'profile_description': 'Entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/aurelien-thuillart-olympp?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAl2nLkB7SuQBanSFOO88r-grEJ7b3_DlcQ', 'person_name': 'Aurélien THUILLART', 'profile_description': 'Co-Founder &amp; CEO @ Olympp'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-thomias?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSIfw0BiCMWfzmKNuvA31olkazkt-bISuY', 'person_name': 'Jérémy Thomias', 'profile_description': "Responsable d'Agence"}, {'profile_url': 'https://www.linkedin.com/in/quentin-ringot-a59b5a198?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5x4mUBZSpGIxdmQ4bjDY9jcj_xnMoDYMM', 'person_name': 'Quentin Ringot', 'profile_description': 'Business Developer chez Olympp | Diplômé école de commerce et faculté de droit'}, {'profile_url': 'https://www.linkedin.com/in/srashti-sharma-065293b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABhslY0BiK6oOY_6GIlXXBKQuA8SNwaKeYk', 'person_name': 'SRASHTI SHARMA', 'profile_description': 'Full Stack Developer | .Net C# | Vuejs | Angular | React'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-gibert-7012?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHuIDkBTzn5I5A4HllOvH0VqT1ZQ6WczHo', 'person_name': 'Clément Gibert', 'profile_description': 'Développeur Java Spring et Big data'}, {'profile_url': 'https://www.linkedin.com/in/emile-ricaud-59a23086?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABIv7kYBgCQIcCsclNqPvcWqb4skmxLQNyY', 'person_name': 'Emile Ricaud', 'profile_description': 'Developpeur Fullstack'}, {'profile_url': 'https://www.linkedin.com/in/oleksii-kuzmin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSVXLIBktfWh1UoXXuP7B4FC_V4YP3Ly_Q', 'person_name': 'Oleksii Kuzmin', 'profile_description': 'Ingénieur Etudes et Développement C# .NET'}, {'profile_url': 'https://www.linkedin.com/in/jean-blarel-042a9321b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADeC1XIBsewxyNmanY7tANMiqPE_dprcn1g', 'person_name': 'Jean Blarel', 'profile_description': 'Business Developer'}, {'profile_url': 'https://www.linkedin.com/in/maxime-margaine-2b71158b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMPcGsBldEkvRUQj2b95ne-nLHgvDN_Svs', 'person_name': 'Maxime MARGAINE', 'profile_description': 'Consultant informatique chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/anthony-de-oliveira-26771710a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuDta8BUsuTKvilrA2DHjf1SciaqFt4ttE', 'person_name': 'Anthony De Oliveira', 'profile_description': 'Développeur fullstack .NET/Angular'}, {'profile_url': 'https://www.linkedin.com/in/maxime-rasse?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDFjRIBHaDtpkigyrw7KKOlZWF3hBI7854', 'person_name': 'Maxime RASSE', 'profile_description': 'Développeur Java/Angular chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/flavien-schriever?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1ub0gBEMZSUu9Pp7XMBBk_p79t1ZR90Es', 'person_name': 'Flavien Schriever', 'profile_description': 'Développeur FullStack, Spring / React.js / Angular'}, {'profile_url': 'https://www.linkedin.com/in/sylvainjanet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACe512EBv3ZXavaDwm39H8e3h9ijsR4mheE', 'person_name': 'Sylvain Janet', 'profile_description': 'Développeur fullstack'}, {'profile_url': 'https://www.linkedin.com/in/antmartinidf?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABLWm0cB42xY-Tj9Ni7ueXFwe68ViWHEF34', 'person_name': 'Antoine Martin', 'profile_description': 'Ingenieur'}, {'profile_url': 'https://www.linkedin.com/in/vincent-d-019921146?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNgNNUBaQNqc4M7ycYxJXBCA7-OfNZDYnw', 'person_name': 'Vincent D.', 'profile_description': '-'}, {'profile_url': 'https://www.linkedin.com/in/tristan-sicre-lorge-789060150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRQqlkBQH9FeD4zRikMYEgiZa-lKK6JRXY', 'person_name': 'Tristan Sicre--Lorge', 'profile_description': 'Consultant chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/david-boilevin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzeEzIB-A5-zjRclX-EKcqpwfy7NJrT8H0', 'person_name': 'David Boilevin', 'profile_description': 'Head of Business chez Olympp |'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9sar-la-torre-garay-a0712258?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAwewScB3NrY-zkSDkOPoAIXnMae20JtGAc', 'person_name': 'César La Torre Garay', 'profile_description': 'Développeur Fullstack Java J2EE chez Groupama'}, {'profile_url': 'https://www.linkedin.com/in/arnaud-couchet-41bb6264?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2yedcBoWWIdBFIy1IgoyizQXBnUqSnKR0', 'person_name': 'Arnaud Couchet', 'profile_description': 'Software Developer'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-arzel-2625b3108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABskDKoBmeEYPv_D73pyqRsWXl-GpyEKK5s', 'person_name': 'Jérôme Arzel', 'profile_description': 'DevOps Engineer'}, {'profile_url': 'https://www.linkedin.com/in/eric-longueville-b75090130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAMH4kB0TazzQz4dlA5l2uPmaiDn7xsGnc', 'person_name': 'Eric Longueville', 'profile_description': 'Consultant'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-chedri-7b2406106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrBvPYBua-98ZuS-ixRrYUdcCtO7mO4Ny8', 'person_name': 'Nicolas Chedri', 'profile_description': "Ingénieur informaticien A l'écoute d'opportunités pour un démarrage en janvier 2020"}, {'profile_url': 'https://www.linkedin.com/in/jamilusman?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABB5ZlgBg2VESAvqAQ3sUzXN_vPjeDfUZKI', 'person_name': 'Usman JAMIL', 'profile_description': 'Tech Lead - Developpeur Full Stack'}, {'profile_url': 'https://www.linkedin.com/in/dylan-renaud-58a84792?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOztnoBWXlkIsGU1nO3PcWSa-CNn6BwI7o', 'person_name': 'Dylan Renaud', 'profile_description': 'Ingénieur logiciels'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-kendall?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQK6PYBorxqLAefAG-uw2J7usETH9BwL3c', 'person_name': 'Guillaume Kendall', 'profile_description': 'Business Developer'}, {'profile_url': 'https://www.linkedin.com/in/boris-de-finance-a7571a94?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQKLnkBMn9BOISGu4jN9jK9sjGL0INE_Ik', 'person_name': 'Boris de Finance', 'profile_description': 'Ingénieur de développement'}, {'profile_url': 'https://www.linkedin.com/in/flo-fontaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAS8EDYBnQ3pzhVQhKA9yv5w0tJDG44NAJo', 'person_name': 'Florian Fontaine', 'profile_description': 'Développeur Java fullstack'}, {'profile_url': 'https://www.linkedin.com/in/elodie-difonzo-80b129152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSuj0sB9If28hkYR3S9yTgRG5XPHPvk2L8', 'person_name': 'Elodie Difonzo', 'profile_description': 'Ingénieure développement logiciel'}, {'profile_url': 'https://www.linkedin.com/in/valluvan-anthonypillai-5ba92483?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHBnF4BuW_EEszVsu00Z003IiAX_P18z_8', 'person_name': 'Valluvan Anthonypillai', 'profile_description': 'Dotnet Developer'}, {'profile_url': 'https://www.linkedin.com/in/roman-silagadze-727bbb164?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdVTU8B4GxjMCNrVwStS4N7FNDllljAcAo', 'person_name': 'Roman Silagadze', 'profile_description': 'Senior Back-end Software Engineer'}, {'profile_url': 'https://www.linkedin.com/in/sylvain-r-66902767?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA4QRPEB0o_KLoHPrYppSkYedamWKakTbiM', 'person_name': 'Sylvain R.', 'profile_description': 'Consultant Microsoft - @sylv_rec'}, {'profile_url': 'https://www.linkedin.com/in/maxence-lagarde-a0508410a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABtrSKUBf4o1xMxLwShyAtcK9Jr4zC0dHX8', 'person_name': 'Maxence Lagarde', 'profile_description': 'Ingénieur Cloud'}, {'profile_url': 'https://www.linkedin.com/in/antoine-haie?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFI820B2nXMxO2Z_yWL9jKojiBucNS_A20', 'person_name': 'Antoine Haie', 'profile_description': 'Développeur fullstack chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/nicola-marnat-b56408176?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm1DHIBepX_lu1DxnA4wJaM86ouF0oeNHo', 'person_name': 'Nicola Marnat', 'profile_description': 'Développeur Java/Angular chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/seedreamlabs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_wTdQB6TKa_ZX6qG_rkW2ZQ5MleNSMUAU', 'person_name': 'Dragos Stoichita', 'profile_description': 'Software developer'}, {'profile_url': 'https://www.linkedin.com/in/brondon-ung-0b6aaa101?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABn39goBd9Mnhdg9VX0bo6L3eVWT7F4AjYE', 'person_name': 'Brondon Ung', 'profile_description': 'Développeur Java'}, {'profile_url': 'https://www.linkedin.com/in/alex-nguyen-b0a910ba?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABloYzoBSaW58EYb3YifYCmka-CXaak00aU', 'person_name': 'Alex NGUYEN', 'profile_description': 'Consultant développeur C#'}, {'profile_url': 'https://www.linkedin.com/in/selom-viadenou-38b74310a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuEjlsB9bA8QMLbh4d9h37t9dNbtHkLo1E', 'person_name': 'Selom Viadenou', 'profile_description': 'Développeur Full Stack'}, {'profile_url': 'https://www.linkedin.com/in/hugues-pichemin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT5ob4BeTh4JUGRxMmAOrlqaO6DKEGsy1E', 'person_name': 'Hugues Pichemin', 'profile_description': 'Business Developer'}, {'profile_url': 'https://www.linkedin.com/in/aymeric-gand-a78983124?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB7BjjwBXjvWtGcCq-RlUtTh0DqxqZ0ZnQI', 'person_name': 'Aymeric GAND', 'profile_description': 'Consultant en informatique chez AXILEO'}, {'profile_url': 'https://www.linkedin.com/in/lior-diler-b32b7a149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPyVNYB6VuH_9Y_2TyR552YZTL2HXFZSKk', 'person_name': 'Lior Diler', 'profile_description': 'Développeur Fullstack'}, {'profile_url': 'https://www.linkedin.com/in/alvin-bruce-ondzounga?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACLsQA4Bls3aCfXDWs0ZrxbaLBH3ZgKmRGo', 'person_name': 'Alvin Bruce Ondzounga', 'profile_description': 'Développeur .Net C#'}, {'profile_url': 'https://www.linkedin.com/in/james-wong-00851363?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1skUgBhsT34U8tw-7HVyxU73bJIfuthhE', 'person_name': 'James Wong', 'profile_description': 'Développeur Java / Angular chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/jpaugois?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAyXFkBe69aOYKeKncBpLcRa9Sf9lF2vRM', 'person_name': 'Jonathan Paugois', 'profile_description': 'Expert Informatique / développeur fullstack'}, {'profile_url': 'https://www.linkedin.com/in/etienne-serrano-1ba20951?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAArjJd4B8aC21s9GZM6dlyZGy2c2fL_VOFo', 'person_name': 'Etienne Serrano', 'profile_description': 'Développeur senior fullstack, Java et Angular'}, {'profile_url': 'https://www.linkedin.com/in/vivien-prostak-91812b72?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9THWQBoq-gd-0xt7RLtyKOfa8qA7s7H1Y', 'person_name': 'Vivien Prostak', 'profile_description': 'Consultant Full Stack (.NET / Angular / Azure)'}, {'profile_url': 'https://www.linkedin.com/in/my-haja-robinson-3a55b9105?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqbhe0B_Xe6qIuZzIoAXKhc0oE4ejfS90s', 'person_name': 'My-haja ROBINSON', 'profile_description': '🚀 Développeur passionné Java &amp; Angular 💻 #Java #Angular #FullStackDev'}]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>22,78 %</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>85,08 %</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>8.662.915 €</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>4.680.607 €</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>26</v>
+      </c>
+      <c r="R45" t="n">
+        <v>20</v>
+      </c>
+      <c r="S45" t="n">
+        <v>60</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/guillaume-accarion-11ba061?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABTsScBnQbo_8wXJ8LDZiQAQIBbOyrxOVQ</t>
+      <c r="A46" t="n">
+        <v>293</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olympp </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://olympp.fr/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['01 85 54 01 61']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['contact@olympp.fr']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['20 rue des Poissonniers, 92200 Neuilly-sur-Seine']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/olympp</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/pierredem?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPT65cBnp4eq6veTsk-6n5iXY6qb9m_tsY', 'person_name': 'Pierre DEMOURY', 'profile_description': 'Entrepreneur'}</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Entrepreneur</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/pierredem?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPT65cBnp4eq6veTsk-6n5iXY6qb9m_tsY</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/julien-monnot?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB0_anMBpw-Y31lJOlh2wxj9vq6HXxOga6s', 'person_name': 'Julien Monnot', 'profile_description': 'Business Developer'}, {'profile_url': 'https://www.linkedin.com/in/allan-maitre-8b7058a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABW4cAsBGAeXWI67fyTxNqdcvT-rIMJ-rsQ', 'person_name': 'Allan Maitre', 'profile_description': 'Ingénieur Logiciel Full Stack'}, {'profile_url': 'https://www.linkedin.com/in/antranik-baboyan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACG_3OABK73zIv5nHyzRVnb4I9UBxW8Q4Ko', 'person_name': 'Antranik Baboyan', 'profile_description': 'Développeur chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/pierredem?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPT65cBnp4eq6veTsk-6n5iXY6qb9m_tsY', 'person_name': 'Pierre DEMOURY', 'profile_description': 'Entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/aurelien-thuillart-olympp?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAl2nLkB7SuQBanSFOO88r-grEJ7b3_DlcQ', 'person_name': 'Aurélien THUILLART', 'profile_description': 'Co-Founder &amp; CEO @ Olympp'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-thomias?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSIfw0BiCMWfzmKNuvA31olkazkt-bISuY', 'person_name': 'Jérémy Thomias', 'profile_description': "Responsable d'Agence"}, {'profile_url': 'https://www.linkedin.com/in/quentin-ringot-a59b5a198?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5x4mUBZSpGIxdmQ4bjDY9jcj_xnMoDYMM', 'person_name': 'Quentin Ringot', 'profile_description': 'Business Developer chez Olympp | Diplômé école de commerce et faculté de droit'}, {'profile_url': 'https://www.linkedin.com/in/srashti-sharma-065293b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABhslY0BiK6oOY_6GIlXXBKQuA8SNwaKeYk', 'person_name': 'SRASHTI SHARMA', 'profile_description': 'Full Stack Developer | .Net C# | Vuejs | Angular | React'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-gibert-7012?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHuIDkBTzn5I5A4HllOvH0VqT1ZQ6WczHo', 'person_name': 'Clément Gibert', 'profile_description': 'Développeur Java Spring et Big data'}, {'profile_url': 'https://www.linkedin.com/in/emile-ricaud-59a23086?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABIv7kYBgCQIcCsclNqPvcWqb4skmxLQNyY', 'person_name': 'Emile Ricaud', 'profile_description': 'Developpeur Fullstack'}, {'profile_url': 'https://www.linkedin.com/in/oleksii-kuzmin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSVXLIBktfWh1UoXXuP7B4FC_V4YP3Ly_Q', 'person_name': 'Oleksii Kuzmin', 'profile_description': 'Ingénieur Etudes et Développement C# .NET'}, {'profile_url': 'https://www.linkedin.com/in/jean-blarel-042a9321b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADeC1XIBsewxyNmanY7tANMiqPE_dprcn1g', 'person_name': 'Jean Blarel', 'profile_description': 'Business Developer'}, {'profile_url': 'https://www.linkedin.com/in/maxime-margaine-2b71158b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABMPcGsBldEkvRUQj2b95ne-nLHgvDN_Svs', 'person_name': 'Maxime MARGAINE', 'profile_description': 'Consultant informatique chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/anthony-de-oliveira-26771710a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuDta8BUsuTKvilrA2DHjf1SciaqFt4ttE', 'person_name': 'Anthony De Oliveira', 'profile_description': 'Développeur fullstack .NET/Angular'}, {'profile_url': 'https://www.linkedin.com/in/maxime-rasse?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDFjRIBHaDtpkigyrw7KKOlZWF3hBI7854', 'person_name': 'Maxime RASSE', 'profile_description': 'Développeur Java/Angular chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/flavien-schriever?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1ub0gBEMZSUu9Pp7XMBBk_p79t1ZR90Es', 'person_name': 'Flavien Schriever', 'profile_description': 'Développeur FullStack, Spring / React.js / Angular'}, {'profile_url': 'https://www.linkedin.com/in/sylvainjanet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACe512EBv3ZXavaDwm39H8e3h9ijsR4mheE', 'person_name': 'Sylvain Janet', 'profile_description': 'Développeur fullstack'}, {'profile_url': 'https://www.linkedin.com/in/antmartinidf?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABLWm0cB42xY-Tj9Ni7ueXFwe68ViWHEF34', 'person_name': 'Antoine Martin', 'profile_description': 'Ingenieur'}, {'profile_url': 'https://www.linkedin.com/in/vincent-d-019921146?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNgNNUBaQNqc4M7ycYxJXBCA7-OfNZDYnw', 'person_name': 'Vincent D.', 'profile_description': '-'}, {'profile_url': 'https://www.linkedin.com/in/tristan-sicre-lorge-789060150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRQqlkBQH9FeD4zRikMYEgiZa-lKK6JRXY', 'person_name': 'Tristan Sicre--Lorge', 'profile_description': 'Consultant chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/david-boilevin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzeEzIB-A5-zjRclX-EKcqpwfy7NJrT8H0', 'person_name': 'David Boilevin', 'profile_description': 'Head of Business chez Olympp |'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9sar-la-torre-garay-a0712258?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAwewScB3NrY-zkSDkOPoAIXnMae20JtGAc', 'person_name': 'César La Torre Garay', 'profile_description': 'Développeur Fullstack Java J2EE chez Groupama'}, {'profile_url': 'https://www.linkedin.com/in/arnaud-couchet-41bb6264?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2yedcBoWWIdBFIy1IgoyizQXBnUqSnKR0', 'person_name': 'Arnaud Couchet', 'profile_description': 'Software Developer'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-arzel-2625b3108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABskDKoBmeEYPv_D73pyqRsWXl-GpyEKK5s', 'person_name': 'Jérôme Arzel', 'profile_description': 'DevOps Engineer'}, {'profile_url': 'https://www.linkedin.com/in/eric-longueville-b75090130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAMH4kB0TazzQz4dlA5l2uPmaiDn7xsGnc', 'person_name': 'Eric Longueville', 'profile_description': 'Consultant'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-chedri-7b2406106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrBvPYBua-98ZuS-ixRrYUdcCtO7mO4Ny8', 'person_name': 'Nicolas Chedri', 'profile_description': "Ingénieur informaticien A l'écoute d'opportunités pour un démarrage en janvier 2020"}, {'profile_url': 'https://www.linkedin.com/in/jamilusman?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABB5ZlgBg2VESAvqAQ3sUzXN_vPjeDfUZKI', 'person_name': 'Usman JAMIL', 'profile_description': 'Tech Lead - Developpeur Full Stack'}, {'profile_url': 'https://www.linkedin.com/in/dylan-renaud-58a84792?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOztnoBWXlkIsGU1nO3PcWSa-CNn6BwI7o', 'person_name': 'Dylan Renaud', 'profile_description': 'Ingénieur logiciels'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-kendall?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQK6PYBorxqLAefAG-uw2J7usETH9BwL3c', 'person_name': 'Guillaume Kendall', 'profile_description': 'Business Developer'}, {'profile_url': 'https://www.linkedin.com/in/boris-de-finance-a7571a94?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQKLnkBMn9BOISGu4jN9jK9sjGL0INE_Ik', 'person_name': 'Boris de Finance', 'profile_description': 'Ingénieur de développement'}, {'profile_url': 'https://www.linkedin.com/in/flo-fontaine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAS8EDYBnQ3pzhVQhKA9yv5w0tJDG44NAJo', 'person_name': 'Florian Fontaine', 'profile_description': 'Développeur Java fullstack'}, {'profile_url': 'https://www.linkedin.com/in/elodie-difonzo-80b129152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSuj0sB9If28hkYR3S9yTgRG5XPHPvk2L8', 'person_name': 'Elodie Difonzo', 'profile_description': 'Ingénieure développement logiciel'}, {'profile_url': 'https://www.linkedin.com/in/valluvan-anthonypillai-5ba92483?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHBnF4BuW_EEszVsu00Z003IiAX_P18z_8', 'person_name': 'Valluvan Anthonypillai', 'profile_description': 'Dotnet Developer'}, {'profile_url': 'https://www.linkedin.com/in/roman-silagadze-727bbb164?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdVTU8B4GxjMCNrVwStS4N7FNDllljAcAo', 'person_name': 'Roman Silagadze', 'profile_description': 'Senior Back-end Software Engineer'}, {'profile_url': 'https://www.linkedin.com/in/sylvain-r-66902767?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA4QRPEB0o_KLoHPrYppSkYedamWKakTbiM', 'person_name': 'Sylvain R.', 'profile_description': 'Consultant Microsoft - @sylv_rec'}, {'profile_url': 'https://www.linkedin.com/in/maxence-lagarde-a0508410a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABtrSKUBf4o1xMxLwShyAtcK9Jr4zC0dHX8', 'person_name': 'Maxence Lagarde', 'profile_description': 'Ingénieur Cloud'}, {'profile_url': 'https://www.linkedin.com/in/antoine-haie?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFI820B2nXMxO2Z_yWL9jKojiBucNS_A20', 'person_name': 'Antoine Haie', 'profile_description': 'Développeur fullstack chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/nicola-marnat-b56408176?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACm1DHIBepX_lu1DxnA4wJaM86ouF0oeNHo', 'person_name': 'Nicola Marnat', 'profile_description': 'Développeur Java/Angular chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/seedreamlabs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_wTdQB6TKa_ZX6qG_rkW2ZQ5MleNSMUAU', 'person_name': 'Dragos Stoichita', 'profile_description': 'Software developer'}, {'profile_url': 'https://www.linkedin.com/in/brondon-ung-0b6aaa101?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABn39goBd9Mnhdg9VX0bo6L3eVWT7F4AjYE', 'person_name': 'Brondon Ung', 'profile_description': 'Développeur Java'}, {'profile_url': 'https://www.linkedin.com/in/alex-nguyen-b0a910ba?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABloYzoBSaW58EYb3YifYCmka-CXaak00aU', 'person_name': 'Alex NGUYEN', 'profile_description': 'Consultant développeur C#'}, {'profile_url': 'https://www.linkedin.com/in/selom-viadenou-38b74310a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABuEjlsB9bA8QMLbh4d9h37t9dNbtHkLo1E', 'person_name': 'Selom Viadenou', 'profile_description': 'Développeur Full Stack'}, {'profile_url': 'https://www.linkedin.com/in/hugues-pichemin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADT5ob4BeTh4JUGRxMmAOrlqaO6DKEGsy1E', 'person_name': 'Hugues Pichemin', 'profile_description': 'Business Developer'}, {'profile_url': 'https://www.linkedin.com/in/aymeric-gand-a78983124?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB7BjjwBXjvWtGcCq-RlUtTh0DqxqZ0ZnQI', 'person_name': 'Aymeric GAND', 'profile_description': 'Consultant en informatique chez AXILEO'}, {'profile_url': 'https://www.linkedin.com/in/lior-diler-b32b7a149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPyVNYB6VuH_9Y_2TyR552YZTL2HXFZSKk', 'person_name': 'Lior Diler', 'profile_description': 'Développeur Fullstack'}, {'profile_url': 'https://www.linkedin.com/in/alvin-bruce-ondzounga?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACLsQA4Bls3aCfXDWs0ZrxbaLBH3ZgKmRGo', 'person_name': 'Alvin Bruce Ondzounga', 'profile_description': 'Développeur .Net C#'}, {'profile_url': 'https://www.linkedin.com/in/james-wong-00851363?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1skUgBhsT34U8tw-7HVyxU73bJIfuthhE', 'person_name': 'James Wong', 'profile_description': 'Développeur Java / Angular chez Olympp'}, {'profile_url': 'https://www.linkedin.com/in/jpaugois?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAyXFkBe69aOYKeKncBpLcRa9Sf9lF2vRM', 'person_name': 'Jonathan Paugois', 'profile_description': 'Expert Informatique / développeur fullstack'}, {'profile_url': 'https://www.linkedin.com/in/etienne-serrano-1ba20951?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAArjJd4B8aC21s9GZM6dlyZGy2c2fL_VOFo', 'person_name': 'Etienne Serrano', 'profile_description': 'Développeur senior fullstack, Java et Angular'}, {'profile_url': 'https://www.linkedin.com/in/vivien-prostak-91812b72?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9THWQBoq-gd-0xt7RLtyKOfa8qA7s7H1Y', 'person_name': 'Vivien Prostak', 'profile_description': 'Consultant Full Stack (.NET / Angular / Azure)'}, {'profile_url': 'https://www.linkedin.com/in/my-haja-robinson-3a55b9105?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqbhe0B_Xe6qIuZzIoAXKhc0oE4ejfS90s', 'person_name': 'My-haja ROBINSON', 'profile_description': '🚀 Développeur passionné Java &amp; Angular 💻 #Java #Angular #FullStackDev'}]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>22,78 %</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>85,08 %</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>8.662.915 €</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>4.680.607 €</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>26</v>
+      </c>
+      <c r="R46" t="n">
+        <v>20</v>
+      </c>
+      <c r="S46" t="n">
+        <v>60</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/aurelien-thuillart-olympp?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAl2nLkB7SuQBanSFOO88r-grEJ7b3_DlcQ</t>
+      <c r="A47" t="n">
+        <v>346</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Minor </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://leminor.fr/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['02 97 65 97 67', '0297659767']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['contact@leminor.fr']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/le-minor</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-permingeat-5b958228?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAXHlN0Brh_hyGggXBPzl6cY9o-dhAffwXs', 'person_name': 'Jérôme PERMINGEAT', 'profile_description': 'Directeur général chez LE MINOR - #Choiseul100 2024'}</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Directeur général chez LE MINOR - #Choiseul100 2024</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/j%C3%A9r%C3%B4me-permingeat-5b958228?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAXHlN0Brh_hyGggXBPzl6cY9o-dhAffwXs</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%B4me-permingeat-5b958228?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAXHlN0Brh_hyGggXBPzl6cY9o-dhAffwXs', 'person_name': 'Jérôme PERMINGEAT', 'profile_description': 'Directeur général chez LE MINOR - #Choiseul100 2024'}, {'profile_url': 'https://www.linkedin.com/in/sophie-casati-ollier-15074417?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN9o8wBIOO0IE7cTtpb5tuGG8pQQeJNeLU', 'person_name': 'Sophie CASATI-OLLIER', 'profile_description': 'HR @One Man Support'}, {'profile_url': 'https://www.linkedin.com/in/fr-pruvost?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWcZPsBoorAgLwtZPrtvIpvbOgJp77uGIY', 'person_name': 'François Pruvost', 'profile_description': 'Responsable Supply Chain + Production semi-finis'}, {'profile_url': 'https://www.linkedin.com/in/leane-rospars-11b48a200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNT_CcByLlzTQ0GeiGoq1ho_-hSdM-YeF8', 'person_name': 'Leane Rospars', 'profile_description': 'Étudiant(e) à ESLI - REDON'}, {'profile_url': 'https://www.linkedin.com/in/sylvainflet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAASrxlYBQwbfP4VkiprFHAkRLlT9gC-piSQ', 'person_name': 'Sylvain FLET', 'profile_description': 'Le Minor est une marque de mode et une marque fabricante, qui a fêté ses 100 ans en 2022 | leminor.fr | entreprise du patrimoine vivant'}, {'profile_url': 'https://www.linkedin.com/in/romane-caunegre-42516a266?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEEp190BrgDOj9hI79dXnU3i-8oUS9yDHr4', 'person_name': 'Romane Caunegre', 'profile_description': 'Ouvrière polyvalente du textile'}, {'profile_url': 'https://www.linkedin.com/in/le-minor-bonneterie-baa324123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB57V7IBhMfgs_hzJ5_vGFFZrHkIaQTevQg', 'person_name': 'Le Minor Bonneterie', 'profile_description': 'Cadre dirigeant chez Le Minor'}, {'profile_url': 'https://www.linkedin.com/in/apolline-duboscq-1ba4961b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADExcp4BMw-v_9-WiFOm-pc9fLmx0FOiPkQ', 'person_name': 'Apolline Duboscq', 'profile_description': 'brodeuse main'}, {'profile_url': 'https://www.linkedin.com/in/vincent-berry-7910b6173?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkgl90BQ1K1Clszb2wl0VzBWCnvTnRRwe8', 'person_name': 'vincent Berry', 'profile_description': 'Technicien chez LE MINOR'}, {'profile_url': 'https://www.linkedin.com/in/rachel-jiquell%C3%A9-345429218?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADbhUKUBb-KDho-trCYYv6YnYWMBfydUcgM', 'person_name': 'Rachel Jiquellé', 'profile_description': 'Assistante commerciale'}, {'profile_url': 'https://www.linkedin.com/in/loudetesta?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3kCX4BV81JqsraY-vZejkeKieuDlVayOE', 'person_name': 'Louise de Testa', 'profile_description': 'Head of Design @A.P.C.'}, {'profile_url': 'https://www.linkedin.com/in/victoria-barbet-828985ba?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABlqumABqyCrJlN0cnE5NKu5ph3iEbwdURA', 'person_name': 'Victoria BARBET', 'profile_description': 'Coupeuse chez LE MINOR'}]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>19,07 %</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>68,81 %</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>3.828.104 €</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2.267.642 €</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>28</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7</v>
+      </c>
+      <c r="S47" t="n">
+        <v>61</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Commerce de détail</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/pierredem?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPT65cBnp4eq6veTsk-6n5iXY6qb9m_tsY</t>
+      <c r="A48" t="n">
+        <v>451</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steve </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.steve.paris/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['+33 (0) 1 40 04 90 00', '07 63 93 57 74']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['job@steve.paris', 'sandrine@steve.paris', 'contact@steve.paris', 'newbiz@steve.paris']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['20, rue de la Pierre Levée 75011 Paris, France', '79 Rue Ampère, 75017 Paris, France', '20, rue de la Pierre Levée, 75011 Paris, France', '79 Rue Ampère 75017 Paris, France']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/steve-agency</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/nancy-sosp%C3%A9dra-51954117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN1-aUBInwcBHB0HuvQhr3l4Y9RP0nqxtc', 'person_name': 'Nancy Sospédra', 'profile_description': 'Co fondatrice Steve - Directrice de Création'}</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Co fondatrice Steve - Directrice de Création</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/nancy-sosp%C3%A9dra-51954117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN1-aUBInwcBHB0HuvQhr3l4Y9RP0nqxtc</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/sandrine-delabre-5470ab19?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPAR0cBowwX5QGFVMdUORH0C62Fb6l-0f0', 'person_name': 'Sandrine Delabre', 'profile_description': 'DGA en charge du Développement chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/guillaumelartigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARlKWwBpjHqUC8H6LezsfcdB79HRjvMfpk', 'person_name': 'Guillaume Lartigue', 'profile_description': 'Co-Président / Steve'}, {'profile_url': 'https://www.linkedin.com/in/thomaseliaou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJAlesBQGp8WtbWcUp9rAWgO6LnA-74EF0', 'person_name': 'Thomas Eliaou', 'profile_description': 'Concepteur rédacteur.'}, {'profile_url': 'https://www.linkedin.com/in/agathe-dayre-a7ab28a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYO0f4B69Avy5h8q_4ZLcXfIaCwAdgVoUg', 'person_name': 'Agathe DAYRE', 'profile_description': 'Directrice de clientèle chez STEVE'}, {'profile_url': 'https://www.linkedin.com/in/cyprien-de-lardemelle-3586a5204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQSVbQBqWZKbbpZbjOyfmhlB5r2FoTyikk', 'person_name': 'Cyprien de Lardemelle', 'profile_description': 'Directeur Artistique Junior'}, {'profile_url': 'https://www.linkedin.com/in/diane-de-plas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxuuSIB89YyUgi4Z-t5_GY603rxpxdKMtY', 'person_name': 'Diane de Plas', 'profile_description': 'DGA en charge du commercial chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/louistierny?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAATYSQIB1imDK75JVeIyCADo4f_7f_rVKTY', 'person_name': 'Louis Tierny', 'profile_description': 'Business Director @Steve'}, {'profile_url': 'https://www.linkedin.com/in/flora-fatoux-720573106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrHq0gBf554J1j8OnRxZEVbRsXELz3oXJA', 'person_name': 'Flora Fatoux', 'profile_description': 'Planneuse stratégique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/gr%C3%A9goire-soufflet-37327675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_hCYcBh5z6AbMNmCJjUFKZSF64Q3sTv9c', 'person_name': 'Grégoire SOUFFLET', 'profile_description': 'Co-Président Steve'}, {'profile_url': 'https://www.linkedin.com/in/helya-ozer-44b772267?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEFuSvsBBmMR4cHtd3tDdpwNJOu492UwjMw', 'person_name': 'Helya Ozer', 'profile_description': 'Assistante cheffe de publicité 360 chez Steve (alternance)'}, {'profile_url': 'https://www.linkedin.com/in/pierre-van-elslande?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABwN_cMBqFjHuQSXgQT7grHk8Z1nbJZ9NdQ', 'person_name': 'Pierre Van Elslande', 'profile_description': 'Account Director at Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/lisa-delaval-25354a1a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADBP9N8BCUZ-EifshPZK1ldrulHQbEk_HEM', 'person_name': 'Lisa Delaval', 'profile_description': 'Conceptrice-Rédactrice chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/areix?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHlYCwBlls4TZliAd2Tp_nlHPr_kvzRU6g', 'person_name': 'Alexandra REIX', 'profile_description': 'Lead Social Media chez Steve.'}, {'profile_url': 'https://www.linkedin.com/in/mathieu-camillieri-b1796333?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcVHIMBlxLjgEFbbRM5iW9v2umlIe-v5Po', 'person_name': 'Mathieu Camillieri', 'profile_description': 'Directeur artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/louis-marguerite-384b66206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADR_NJQB5pzlh9RXULgUAFtY7VgsyAyq9PI', 'person_name': 'Louis Marguerite', 'profile_description': 'Concepteur-rédacteur Junior chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/morgane-schafer-7b8116a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZDmfwBKdQQYwMTmahIJaUwK0iRvV_Vh70', 'person_name': 'Morgane SCHAFER', 'profile_description': 'Directrice de clientèle - Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-weber-913116160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZ1yp8B5PYKCWqypuoozQ24NB4wTS0cJ84', 'person_name': 'Charlotte Weber', 'profile_description': 'Directrice Artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/violette-drouard-984522238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADsqcPQBzqe36O7_J5QhEK_I04JLVV6VfYQ', 'person_name': 'Violette Drouard', 'profile_description': 'Assistante Social Media Manager chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/benoit-jung-6599864?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADbICUBUyKk3-xxDrQb2yzOx3z80Yxd3b4', 'person_name': 'Benoit Jung', 'profile_description': 'Head of Art'}, {'profile_url': 'https://www.linkedin.com/in/manonlecan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5b9KcBTJRswjCUZpEkKBKcp0MlN2yqQf4', 'person_name': 'Manon Lecan', 'profile_description': 'Assistante DA chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/delphine-reiland-244a9b112?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxH_JQBt47D53uy2lyTO7cwpiNp7sR77FU', 'person_name': 'Delphine Reiland', 'profile_description': 'Directrice de clientèle social media chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/aymeric-druaux-11a85015?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMmhaYBFRSP8_FazJnE0UNothb-sufdqG4', 'person_name': 'Aymeric Druaux', 'profile_description': 'Concepteur rédacteur chez Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/sol%C3%A8ne-voci-650700150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRpV5wB8Cjs4iZ9hDHgN4OVHFgkqmt6o_w', 'person_name': 'Solène Voci', 'profile_description': 'Social Media &amp; Influence Manager'}, {'profile_url': 'https://www.linkedin.com/in/kenza-nekmouche-1914a226b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEIaGH0BPZ1DHI-Pa17DXAHBpgnL9MixQG8', 'person_name': 'Kenza NEKMOUCHE', 'profile_description': 'Étudiante en Bachelor Stratégie Digitale à L’ESP'}, {'profile_url': 'https://www.linkedin.com/in/paulinefourcade?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWkCVgBBZIBLRuyiCZ-zZdGhAfrRHy7S3o', 'person_name': 'Pauline Fourcade', 'profile_description': 'Productrice'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9a-brasseur-163482157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWfdlsBdkBNnHR2D1c8IZU5-HJZhVWMMMY', 'person_name': 'Léa Brasseur', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/jean-fran%C3%A7ois-bouchet-442a3382?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGYIbIB0INxZ_hGkNGPoBCNBanPOyaWOBA', 'person_name': 'Jean-François Bouchet', 'profile_description': 'Creative Director &amp; Copywriter, Steve'}, {'profile_url': 'https://www.linkedin.com/in/michel-ange-amores-5158a942?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkH6aEB2PieSBvWkcc9hl8JMZjBgUfs-ts', 'person_name': 'Michel-Ange Amores', 'profile_description': 'Responsable informatique free lance chez We are social'}, {'profile_url': 'https://www.linkedin.com/in/maeva-f-994079211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWUyUABP-4xZafqtCKnt6YJHrF4P7gIC18', 'person_name': 'Maeva F.', 'profile_description': 'Année de FCND École Duperré.'}, {'profile_url': 'https://www.linkedin.com/in/nancy-sosp%C3%A9dra-51954117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN1-aUBInwcBHB0HuvQhr3l4Y9RP0nqxtc', 'person_name': 'Nancy Sospédra', 'profile_description': 'Co fondatrice Steve - Directrice de Création'}, {'profile_url': 'https://www.linkedin.com/in/creative-developer-miara-joris?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnPfPEBPse8pTmMpnqFZQTYhYO_OWVUIoM', 'person_name': 'Joris RAKOTO', 'profile_description': 'Freelance Digital Designer | Creating digital web experiences that boost your SEO and your perceived value.'}, {'profile_url': 'https://www.linkedin.com/in/agathelesage?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4mTTUBCr6bLS2DT9aky78tf-VPLiLvZsM', 'person_name': 'Agathe Lesage', 'profile_description': '👩🏼\u200d💻 Alternante en communication'}, {'profile_url': 'https://www.linkedin.com/in/maria-j-vela?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD6A_GcBIIIuZ0WdRkIjiE0tgDjnQxTQ_PQ', 'person_name': 'Maria Vela', 'profile_description': '—————————'}, {'profile_url': 'https://www.linkedin.com/in/laure-lagarde-06309446?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmfVEsBfr8GmwhQaqkVFR_BFvFbhixxS9M', 'person_name': 'Laure Lagarde', 'profile_description': 'Directrice des stratégies @Steve'}, {'profile_url': 'https://www.linkedin.com/in/marie-seng?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJXNbwBN0-SbfWbJGhzqEPWArumuFe_HII', 'person_name': 'Marie Seng', 'profile_description': 'Assistante Social Media Manager chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/margaux-durin-2b0b3461?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0o46QB_0sNfyNsFtruaUm8KTutqmJL-YM', 'person_name': 'Margaux Durin', 'profile_description': 'Lead Directrice Artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/emmanuel-courteau-11146a4a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAApj-h0B5GdKN1iH5Okg99IPiHVxupjkFjQ', 'person_name': 'Emmanuel Courteau', 'profile_description': 'Creative Director'}, {'profile_url': 'https://www.linkedin.com/in/arnaud-de-brosses?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHJJq8BVaXmNRQVufm-oNWlpWukkRtjF1U', 'person_name': 'Arnaud de Brosses', 'profile_description': 'Assistant planneur stratégique'}, {'profile_url': 'https://www.linkedin.com/in/sohane-bouima-97b916238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5au8Bw_CbcFRTVvJoE6PV7-Luvej1-A4', 'person_name': 'Sohane Bouima', 'profile_description': "Étudiant(e) à ESCP - Membre de l'association Call On'U"}, {'profile_url': 'https://www.linkedin.com/in/linahajbaoui?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTru9oBbMx_H1Y_tWVZ4unCThSAz2Xbo40', 'person_name': 'Lina Hajbaoui', 'profile_description': 'Cheffe de publicité'}, {'profile_url': 'https://www.linkedin.com/in/thrushi-hallihinga-6869b1b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABk-AYYBNW_MRe8UHlzKQHpcbn3sCNVqIWI', 'person_name': 'Thrushi HALLIHINGA', 'profile_description': 'Contrôleuse de gestion'}, {'profile_url': 'https://www.linkedin.com/in/lauren-hatton-23bb75b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABhgng8BXkyKXsVF6WX0uU7QyBGsoD6LWTI', 'person_name': 'Lauren Hatton', 'profile_description': 'CONCEPTRICE RÉDACTRICE chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/stevemusicpro?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAza8GwByIZgfT_BF-nCh5sln8bksMCpo30', 'person_name': 'Steve Navacchi', 'profile_description': 'Artiste-Chanteur/Auteur/Compositeur/Arrangeur/VoixOFF/Pub/Studio Alchimie Productions'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%AFlys-balland-174360114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByHSugBtoyw397e-IhFgq5exp7hh0GOiVI', 'person_name': 'Maïlys Balland', 'profile_description': 'Directrice artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/asaph-hwochi-fosso-a9878521a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADdJo9QB0GI4AeSMEc-Iims9OYxWyC1KN_w', 'person_name': 'Asaph HWOCHI FOSSO', 'profile_description': 'Assistant comptable et contrôleur de gestion //MS Expert en Contrôle de Gestion, Audit et Système d’Information'}, {'profile_url': 'https://www.linkedin.com/in/st%C3%A9phane-sacuto-24054419?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPRLFABpX4j0j7pYzzBEBsMYNBiMseaTAs', 'person_name': 'Stéphane Sacuto', 'profile_description': 'Copywriter chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/stephen-kwateng-956151189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxWfRIBZrCY2j6yvgJNfmSK2wlWr3mTRek', 'person_name': 'Stephen kwateng', 'profile_description': "I'm a work at Steve"}]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>12,68 %</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>43,08 %</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>10.481.313 €</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>7.325.522 €</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>30</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>62</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/j%C3%A9r%C3%B4me-permingeat-5b958228?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAXHlN0Brh_hyGggXBPzl6cY9o-dhAffwXs</t>
+      <c r="A49" t="n">
+        <v>451</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steve </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.steve.paris/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['+33 (0) 1 40 04 90 00', '07 63 93 57 74']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['job@steve.paris', 'sandrine@steve.paris', 'contact@steve.paris', 'newbiz@steve.paris']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['20, rue de la Pierre Levée 75011 Paris, France', '79 Rue Ampère, 75017 Paris, France', '20, rue de la Pierre Levée, 75011 Paris, France', '79 Rue Ampère 75017 Paris, France']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/steve-agency</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/guillaumelartigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARlKWwBpjHqUC8H6LezsfcdB79HRjvMfpk', 'person_name': 'Guillaume Lartigue', 'profile_description': 'Co-Président / Steve'}</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Co-Président / Steve</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/guillaumelartigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARlKWwBpjHqUC8H6LezsfcdB79HRjvMfpk</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/sandrine-delabre-5470ab19?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPAR0cBowwX5QGFVMdUORH0C62Fb6l-0f0', 'person_name': 'Sandrine Delabre', 'profile_description': 'DGA en charge du Développement chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/guillaumelartigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARlKWwBpjHqUC8H6LezsfcdB79HRjvMfpk', 'person_name': 'Guillaume Lartigue', 'profile_description': 'Co-Président / Steve'}, {'profile_url': 'https://www.linkedin.com/in/thomaseliaou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJAlesBQGp8WtbWcUp9rAWgO6LnA-74EF0', 'person_name': 'Thomas Eliaou', 'profile_description': 'Concepteur rédacteur.'}, {'profile_url': 'https://www.linkedin.com/in/agathe-dayre-a7ab28a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYO0f4B69Avy5h8q_4ZLcXfIaCwAdgVoUg', 'person_name': 'Agathe DAYRE', 'profile_description': 'Directrice de clientèle chez STEVE'}, {'profile_url': 'https://www.linkedin.com/in/cyprien-de-lardemelle-3586a5204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQSVbQBqWZKbbpZbjOyfmhlB5r2FoTyikk', 'person_name': 'Cyprien de Lardemelle', 'profile_description': 'Directeur Artistique Junior'}, {'profile_url': 'https://www.linkedin.com/in/diane-de-plas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxuuSIB89YyUgi4Z-t5_GY603rxpxdKMtY', 'person_name': 'Diane de Plas', 'profile_description': 'DGA en charge du commercial chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/louistierny?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAATYSQIB1imDK75JVeIyCADo4f_7f_rVKTY', 'person_name': 'Louis Tierny', 'profile_description': 'Business Director @Steve'}, {'profile_url': 'https://www.linkedin.com/in/flora-fatoux-720573106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrHq0gBf554J1j8OnRxZEVbRsXELz3oXJA', 'person_name': 'Flora Fatoux', 'profile_description': 'Planneuse stratégique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/gr%C3%A9goire-soufflet-37327675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_hCYcBh5z6AbMNmCJjUFKZSF64Q3sTv9c', 'person_name': 'Grégoire SOUFFLET', 'profile_description': 'Co-Président Steve'}, {'profile_url': 'https://www.linkedin.com/in/helya-ozer-44b772267?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEFuSvsBBmMR4cHtd3tDdpwNJOu492UwjMw', 'person_name': 'Helya Ozer', 'profile_description': 'Assistante cheffe de publicité 360 chez Steve (alternance)'}, {'profile_url': 'https://www.linkedin.com/in/pierre-van-elslande?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABwN_cMBqFjHuQSXgQT7grHk8Z1nbJZ9NdQ', 'person_name': 'Pierre Van Elslande', 'profile_description': 'Account Director at Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/lisa-delaval-25354a1a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADBP9N8BCUZ-EifshPZK1ldrulHQbEk_HEM', 'person_name': 'Lisa Delaval', 'profile_description': 'Conceptrice-Rédactrice chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/areix?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHlYCwBlls4TZliAd2Tp_nlHPr_kvzRU6g', 'person_name': 'Alexandra REIX', 'profile_description': 'Lead Social Media chez Steve.'}, {'profile_url': 'https://www.linkedin.com/in/mathieu-camillieri-b1796333?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcVHIMBlxLjgEFbbRM5iW9v2umlIe-v5Po', 'person_name': 'Mathieu Camillieri', 'profile_description': 'Directeur artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/louis-marguerite-384b66206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADR_NJQB5pzlh9RXULgUAFtY7VgsyAyq9PI', 'person_name': 'Louis Marguerite', 'profile_description': 'Concepteur-rédacteur Junior chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/morgane-schafer-7b8116a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZDmfwBKdQQYwMTmahIJaUwK0iRvV_Vh70', 'person_name': 'Morgane SCHAFER', 'profile_description': 'Directrice de clientèle - Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-weber-913116160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZ1yp8B5PYKCWqypuoozQ24NB4wTS0cJ84', 'person_name': 'Charlotte Weber', 'profile_description': 'Directrice Artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/violette-drouard-984522238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADsqcPQBzqe36O7_J5QhEK_I04JLVV6VfYQ', 'person_name': 'Violette Drouard', 'profile_description': 'Assistante Social Media Manager chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/benoit-jung-6599864?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADbICUBUyKk3-xxDrQb2yzOx3z80Yxd3b4', 'person_name': 'Benoit Jung', 'profile_description': 'Head of Art'}, {'profile_url': 'https://www.linkedin.com/in/manonlecan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5b9KcBTJRswjCUZpEkKBKcp0MlN2yqQf4', 'person_name': 'Manon Lecan', 'profile_description': 'Assistante DA chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/delphine-reiland-244a9b112?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxH_JQBt47D53uy2lyTO7cwpiNp7sR77FU', 'person_name': 'Delphine Reiland', 'profile_description': 'Directrice de clientèle social media chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/aymeric-druaux-11a85015?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMmhaYBFRSP8_FazJnE0UNothb-sufdqG4', 'person_name': 'Aymeric Druaux', 'profile_description': 'Concepteur rédacteur chez Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/sol%C3%A8ne-voci-650700150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRpV5wB8Cjs4iZ9hDHgN4OVHFgkqmt6o_w', 'person_name': 'Solène Voci', 'profile_description': 'Social Media &amp; Influence Manager'}, {'profile_url': 'https://www.linkedin.com/in/kenza-nekmouche-1914a226b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEIaGH0BPZ1DHI-Pa17DXAHBpgnL9MixQG8', 'person_name': 'Kenza NEKMOUCHE', 'profile_description': 'Étudiante en Bachelor Stratégie Digitale à L’ESP'}, {'profile_url': 'https://www.linkedin.com/in/paulinefourcade?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWkCVgBBZIBLRuyiCZ-zZdGhAfrRHy7S3o', 'person_name': 'Pauline Fourcade', 'profile_description': 'Productrice'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9a-brasseur-163482157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWfdlsBdkBNnHR2D1c8IZU5-HJZhVWMMMY', 'person_name': 'Léa Brasseur', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/jean-fran%C3%A7ois-bouchet-442a3382?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGYIbIB0INxZ_hGkNGPoBCNBanPOyaWOBA', 'person_name': 'Jean-François Bouchet', 'profile_description': 'Creative Director &amp; Copywriter, Steve'}, {'profile_url': 'https://www.linkedin.com/in/michel-ange-amores-5158a942?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkH6aEB2PieSBvWkcc9hl8JMZjBgUfs-ts', 'person_name': 'Michel-Ange Amores', 'profile_description': 'Responsable informatique free lance chez We are social'}, {'profile_url': 'https://www.linkedin.com/in/maeva-f-994079211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWUyUABP-4xZafqtCKnt6YJHrF4P7gIC18', 'person_name': 'Maeva F.', 'profile_description': 'Année de FCND École Duperré.'}, {'profile_url': 'https://www.linkedin.com/in/nancy-sosp%C3%A9dra-51954117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN1-aUBInwcBHB0HuvQhr3l4Y9RP0nqxtc', 'person_name': 'Nancy Sospédra', 'profile_description': 'Co fondatrice Steve - Directrice de Création'}, {'profile_url': 'https://www.linkedin.com/in/creative-developer-miara-joris?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnPfPEBPse8pTmMpnqFZQTYhYO_OWVUIoM', 'person_name': 'Joris RAKOTO', 'profile_description': 'Freelance Digital Designer | Creating digital web experiences that boost your SEO and your perceived value.'}, {'profile_url': 'https://www.linkedin.com/in/agathelesage?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4mTTUBCr6bLS2DT9aky78tf-VPLiLvZsM', 'person_name': 'Agathe Lesage', 'profile_description': '👩🏼\u200d💻 Alternante en communication'}, {'profile_url': 'https://www.linkedin.com/in/maria-j-vela?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD6A_GcBIIIuZ0WdRkIjiE0tgDjnQxTQ_PQ', 'person_name': 'Maria Vela', 'profile_description': '—————————'}, {'profile_url': 'https://www.linkedin.com/in/laure-lagarde-06309446?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmfVEsBfr8GmwhQaqkVFR_BFvFbhixxS9M', 'person_name': 'Laure Lagarde', 'profile_description': 'Directrice des stratégies @Steve'}, {'profile_url': 'https://www.linkedin.com/in/marie-seng?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJXNbwBN0-SbfWbJGhzqEPWArumuFe_HII', 'person_name': 'Marie Seng', 'profile_description': 'Assistante Social Media Manager chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/margaux-durin-2b0b3461?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0o46QB_0sNfyNsFtruaUm8KTutqmJL-YM', 'person_name': 'Margaux Durin', 'profile_description': 'Lead Directrice Artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/emmanuel-courteau-11146a4a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAApj-h0B5GdKN1iH5Okg99IPiHVxupjkFjQ', 'person_name': 'Emmanuel Courteau', 'profile_description': 'Creative Director'}, {'profile_url': 'https://www.linkedin.com/in/arnaud-de-brosses?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHJJq8BVaXmNRQVufm-oNWlpWukkRtjF1U', 'person_name': 'Arnaud de Brosses', 'profile_description': 'Assistant planneur stratégique'}, {'profile_url': 'https://www.linkedin.com/in/sohane-bouima-97b916238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5au8Bw_CbcFRTVvJoE6PV7-Luvej1-A4', 'person_name': 'Sohane Bouima', 'profile_description': "Étudiant(e) à ESCP - Membre de l'association Call On'U"}, {'profile_url': 'https://www.linkedin.com/in/linahajbaoui?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTru9oBbMx_H1Y_tWVZ4unCThSAz2Xbo40', 'person_name': 'Lina Hajbaoui', 'profile_description': 'Cheffe de publicité'}, {'profile_url': 'https://www.linkedin.com/in/thrushi-hallihinga-6869b1b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABk-AYYBNW_MRe8UHlzKQHpcbn3sCNVqIWI', 'person_name': 'Thrushi HALLIHINGA', 'profile_description': 'Contrôleuse de gestion'}, {'profile_url': 'https://www.linkedin.com/in/lauren-hatton-23bb75b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABhgng8BXkyKXsVF6WX0uU7QyBGsoD6LWTI', 'person_name': 'Lauren Hatton', 'profile_description': 'CONCEPTRICE RÉDACTRICE chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/stevemusicpro?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAza8GwByIZgfT_BF-nCh5sln8bksMCpo30', 'person_name': 'Steve Navacchi', 'profile_description': 'Artiste-Chanteur/Auteur/Compositeur/Arrangeur/VoixOFF/Pub/Studio Alchimie Productions'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%AFlys-balland-174360114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByHSugBtoyw397e-IhFgq5exp7hh0GOiVI', 'person_name': 'Maïlys Balland', 'profile_description': 'Directrice artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/asaph-hwochi-fosso-a9878521a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADdJo9QB0GI4AeSMEc-Iims9OYxWyC1KN_w', 'person_name': 'Asaph HWOCHI FOSSO', 'profile_description': 'Assistant comptable et contrôleur de gestion //MS Expert en Contrôle de Gestion, Audit et Système d’Information'}, {'profile_url': 'https://www.linkedin.com/in/st%C3%A9phane-sacuto-24054419?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPRLFABpX4j0j7pYzzBEBsMYNBiMseaTAs', 'person_name': 'Stéphane Sacuto', 'profile_description': 'Copywriter chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/stephen-kwateng-956151189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxWfRIBZrCY2j6yvgJNfmSK2wlWr3mTRek', 'person_name': 'Stephen kwateng', 'profile_description': "I'm a work at Steve"}]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>12,68 %</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>43,08 %</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>10.481.313 €</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>7.325.522 €</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>30</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>62</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/nancy-sosp%C3%A9dra-51954117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN1-aUBInwcBHB0HuvQhr3l4Y9RP0nqxtc</t>
+      <c r="A50" t="n">
+        <v>451</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steve </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.steve.paris/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['+33 (0) 1 40 04 90 00', '07 63 93 57 74']</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['job@steve.paris', 'sandrine@steve.paris', 'contact@steve.paris', 'newbiz@steve.paris']</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['20, rue de la Pierre Levée 75011 Paris, France', '79 Rue Ampère, 75017 Paris, France', '20, rue de la Pierre Levée, 75011 Paris, France', '79 Rue Ampère 75017 Paris, France']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/steve-agency</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/gr%C3%A9goire-soufflet-37327675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_hCYcBh5z6AbMNmCJjUFKZSF64Q3sTv9c', 'person_name': 'Grégoire SOUFFLET', 'profile_description': 'Co-Président Steve'}</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Co-Président Steve</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gr%C3%A9goire-soufflet-37327675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_hCYcBh5z6AbMNmCJjUFKZSF64Q3sTv9c</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/sandrine-delabre-5470ab19?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPAR0cBowwX5QGFVMdUORH0C62Fb6l-0f0', 'person_name': 'Sandrine Delabre', 'profile_description': 'DGA en charge du Développement chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/guillaumelartigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARlKWwBpjHqUC8H6LezsfcdB79HRjvMfpk', 'person_name': 'Guillaume Lartigue', 'profile_description': 'Co-Président / Steve'}, {'profile_url': 'https://www.linkedin.com/in/thomaseliaou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJAlesBQGp8WtbWcUp9rAWgO6LnA-74EF0', 'person_name': 'Thomas Eliaou', 'profile_description': 'Concepteur rédacteur.'}, {'profile_url': 'https://www.linkedin.com/in/agathe-dayre-a7ab28a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYO0f4B69Avy5h8q_4ZLcXfIaCwAdgVoUg', 'person_name': 'Agathe DAYRE', 'profile_description': 'Directrice de clientèle chez STEVE'}, {'profile_url': 'https://www.linkedin.com/in/cyprien-de-lardemelle-3586a5204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQSVbQBqWZKbbpZbjOyfmhlB5r2FoTyikk', 'person_name': 'Cyprien de Lardemelle', 'profile_description': 'Directeur Artistique Junior'}, {'profile_url': 'https://www.linkedin.com/in/diane-de-plas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxuuSIB89YyUgi4Z-t5_GY603rxpxdKMtY', 'person_name': 'Diane de Plas', 'profile_description': 'DGA en charge du commercial chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/louistierny?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAATYSQIB1imDK75JVeIyCADo4f_7f_rVKTY', 'person_name': 'Louis Tierny', 'profile_description': 'Business Director @Steve'}, {'profile_url': 'https://www.linkedin.com/in/flora-fatoux-720573106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrHq0gBf554J1j8OnRxZEVbRsXELz3oXJA', 'person_name': 'Flora Fatoux', 'profile_description': 'Planneuse stratégique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/gr%C3%A9goire-soufflet-37327675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_hCYcBh5z6AbMNmCJjUFKZSF64Q3sTv9c', 'person_name': 'Grégoire SOUFFLET', 'profile_description': 'Co-Président Steve'}, {'profile_url': 'https://www.linkedin.com/in/helya-ozer-44b772267?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEFuSvsBBmMR4cHtd3tDdpwNJOu492UwjMw', 'person_name': 'Helya Ozer', 'profile_description': 'Assistante cheffe de publicité 360 chez Steve (alternance)'}, {'profile_url': 'https://www.linkedin.com/in/pierre-van-elslande?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABwN_cMBqFjHuQSXgQT7grHk8Z1nbJZ9NdQ', 'person_name': 'Pierre Van Elslande', 'profile_description': 'Account Director at Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/lisa-delaval-25354a1a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADBP9N8BCUZ-EifshPZK1ldrulHQbEk_HEM', 'person_name': 'Lisa Delaval', 'profile_description': 'Conceptrice-Rédactrice chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/areix?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHlYCwBlls4TZliAd2Tp_nlHPr_kvzRU6g', 'person_name': 'Alexandra REIX', 'profile_description': 'Lead Social Media chez Steve.'}, {'profile_url': 'https://www.linkedin.com/in/mathieu-camillieri-b1796333?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcVHIMBlxLjgEFbbRM5iW9v2umlIe-v5Po', 'person_name': 'Mathieu Camillieri', 'profile_description': 'Directeur artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/louis-marguerite-384b66206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADR_NJQB5pzlh9RXULgUAFtY7VgsyAyq9PI', 'person_name': 'Louis Marguerite', 'profile_description': 'Concepteur-rédacteur Junior chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/morgane-schafer-7b8116a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZDmfwBKdQQYwMTmahIJaUwK0iRvV_Vh70', 'person_name': 'Morgane SCHAFER', 'profile_description': 'Directrice de clientèle - Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-weber-913116160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZ1yp8B5PYKCWqypuoozQ24NB4wTS0cJ84', 'person_name': 'Charlotte Weber', 'profile_description': 'Directrice Artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/violette-drouard-984522238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADsqcPQBzqe36O7_J5QhEK_I04JLVV6VfYQ', 'person_name': 'Violette Drouard', 'profile_description': 'Assistante Social Media Manager chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/benoit-jung-6599864?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADbICUBUyKk3-xxDrQb2yzOx3z80Yxd3b4', 'person_name': 'Benoit Jung', 'profile_description': 'Head of Art'}, {'profile_url': 'https://www.linkedin.com/in/manonlecan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5b9KcBTJRswjCUZpEkKBKcp0MlN2yqQf4', 'person_name': 'Manon Lecan', 'profile_description': 'Assistante DA chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/delphine-reiland-244a9b112?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxH_JQBt47D53uy2lyTO7cwpiNp7sR77FU', 'person_name': 'Delphine Reiland', 'profile_description': 'Directrice de clientèle social media chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/aymeric-druaux-11a85015?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMmhaYBFRSP8_FazJnE0UNothb-sufdqG4', 'person_name': 'Aymeric Druaux', 'profile_description': 'Concepteur rédacteur chez Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/sol%C3%A8ne-voci-650700150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRpV5wB8Cjs4iZ9hDHgN4OVHFgkqmt6o_w', 'person_name': 'Solène Voci', 'profile_description': 'Social Media &amp; Influence Manager'}, {'profile_url': 'https://www.linkedin.com/in/kenza-nekmouche-1914a226b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEIaGH0BPZ1DHI-Pa17DXAHBpgnL9MixQG8', 'person_name': 'Kenza NEKMOUCHE', 'profile_description': 'Étudiante en Bachelor Stratégie Digitale à L’ESP'}, {'profile_url': 'https://www.linkedin.com/in/paulinefourcade?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWkCVgBBZIBLRuyiCZ-zZdGhAfrRHy7S3o', 'person_name': 'Pauline Fourcade', 'profile_description': 'Productrice'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9a-brasseur-163482157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWfdlsBdkBNnHR2D1c8IZU5-HJZhVWMMMY', 'person_name': 'Léa Brasseur', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/jean-fran%C3%A7ois-bouchet-442a3382?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGYIbIB0INxZ_hGkNGPoBCNBanPOyaWOBA', 'person_name': 'Jean-François Bouchet', 'profile_description': 'Creative Director &amp; Copywriter, Steve'}, {'profile_url': 'https://www.linkedin.com/in/michel-ange-amores-5158a942?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkH6aEB2PieSBvWkcc9hl8JMZjBgUfs-ts', 'person_name': 'Michel-Ange Amores', 'profile_description': 'Responsable informatique free lance chez We are social'}, {'profile_url': 'https://www.linkedin.com/in/maeva-f-994079211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWUyUABP-4xZafqtCKnt6YJHrF4P7gIC18', 'person_name': 'Maeva F.', 'profile_description': 'Année de FCND École Duperré.'}, {'profile_url': 'https://www.linkedin.com/in/nancy-sosp%C3%A9dra-51954117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN1-aUBInwcBHB0HuvQhr3l4Y9RP0nqxtc', 'person_name': 'Nancy Sospédra', 'profile_description': 'Co fondatrice Steve - Directrice de Création'}, {'profile_url': 'https://www.linkedin.com/in/creative-developer-miara-joris?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnPfPEBPse8pTmMpnqFZQTYhYO_OWVUIoM', 'person_name': 'Joris RAKOTO', 'profile_description': 'Freelance Digital Designer | Creating digital web experiences that boost your SEO and your perceived value.'}, {'profile_url': 'https://www.linkedin.com/in/agathelesage?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4mTTUBCr6bLS2DT9aky78tf-VPLiLvZsM', 'person_name': 'Agathe Lesage', 'profile_description': '👩🏼\u200d💻 Alternante en communication'}, {'profile_url': 'https://www.linkedin.com/in/maria-j-vela?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD6A_GcBIIIuZ0WdRkIjiE0tgDjnQxTQ_PQ', 'person_name': 'Maria Vela', 'profile_description': '—————————'}, {'profile_url': 'https://www.linkedin.com/in/laure-lagarde-06309446?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmfVEsBfr8GmwhQaqkVFR_BFvFbhixxS9M', 'person_name': 'Laure Lagarde', 'profile_description': 'Directrice des stratégies @Steve'}, {'profile_url': 'https://www.linkedin.com/in/marie-seng?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJXNbwBN0-SbfWbJGhzqEPWArumuFe_HII', 'person_name': 'Marie Seng', 'profile_description': 'Assistante Social Media Manager chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/margaux-durin-2b0b3461?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0o46QB_0sNfyNsFtruaUm8KTutqmJL-YM', 'person_name': 'Margaux Durin', 'profile_description': 'Lead Directrice Artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/emmanuel-courteau-11146a4a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAApj-h0B5GdKN1iH5Okg99IPiHVxupjkFjQ', 'person_name': 'Emmanuel Courteau', 'profile_description': 'Creative Director'}, {'profile_url': 'https://www.linkedin.com/in/arnaud-de-brosses?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHJJq8BVaXmNRQVufm-oNWlpWukkRtjF1U', 'person_name': 'Arnaud de Brosses', 'profile_description': 'Assistant planneur stratégique'}, {'profile_url': 'https://www.linkedin.com/in/sohane-bouima-97b916238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5au8Bw_CbcFRTVvJoE6PV7-Luvej1-A4', 'person_name': 'Sohane Bouima', 'profile_description': "Étudiant(e) à ESCP - Membre de l'association Call On'U"}, {'profile_url': 'https://www.linkedin.com/in/linahajbaoui?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTru9oBbMx_H1Y_tWVZ4unCThSAz2Xbo40', 'person_name': 'Lina Hajbaoui', 'profile_description': 'Cheffe de publicité'}, {'profile_url': 'https://www.linkedin.com/in/thrushi-hallihinga-6869b1b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABk-AYYBNW_MRe8UHlzKQHpcbn3sCNVqIWI', 'person_name': 'Thrushi HALLIHINGA', 'profile_description': 'Contrôleuse de gestion'}, {'profile_url': 'https://www.linkedin.com/in/lauren-hatton-23bb75b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABhgng8BXkyKXsVF6WX0uU7QyBGsoD6LWTI', 'person_name': 'Lauren Hatton', 'profile_description': 'CONCEPTRICE RÉDACTRICE chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/stevemusicpro?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAza8GwByIZgfT_BF-nCh5sln8bksMCpo30', 'person_name': 'Steve Navacchi', 'profile_description': 'Artiste-Chanteur/Auteur/Compositeur/Arrangeur/VoixOFF/Pub/Studio Alchimie Productions'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%AFlys-balland-174360114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByHSugBtoyw397e-IhFgq5exp7hh0GOiVI', 'person_name': 'Maïlys Balland', 'profile_description': 'Directrice artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/asaph-hwochi-fosso-a9878521a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADdJo9QB0GI4AeSMEc-Iims9OYxWyC1KN_w', 'person_name': 'Asaph HWOCHI FOSSO', 'profile_description': 'Assistant comptable et contrôleur de gestion //MS Expert en Contrôle de Gestion, Audit et Système d’Information'}, {'profile_url': 'https://www.linkedin.com/in/st%C3%A9phane-sacuto-24054419?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPRLFABpX4j0j7pYzzBEBsMYNBiMseaTAs', 'person_name': 'Stéphane Sacuto', 'profile_description': 'Copywriter chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/stephen-kwateng-956151189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxWfRIBZrCY2j6yvgJNfmSK2wlWr3mTRek', 'person_name': 'Stephen kwateng', 'profile_description': "I'm a work at Steve"}]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>12,68 %</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>43,08 %</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>10.481.313 €</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>7.325.522 €</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>30</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>62</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/guillaumelartigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARlKWwBpjHqUC8H6LezsfcdB79HRjvMfpk</t>
+      <c r="A51" t="n">
+        <v>451</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steve </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.steve.paris/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['+33 (0) 1 40 04 90 00', '07 63 93 57 74']</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['job@steve.paris', 'sandrine@steve.paris', 'contact@steve.paris', 'newbiz@steve.paris']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['20, rue de la Pierre Levée 75011 Paris, France', '79 Rue Ampère, 75017 Paris, France', '20, rue de la Pierre Levée, 75011 Paris, France', '79 Rue Ampère 75017 Paris, France']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/steve-agency</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/louistierny?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAATYSQIB1imDK75JVeIyCADo4f_7f_rVKTY', 'person_name': 'Louis Tierny', 'profile_description': 'Business Director @Steve'}</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Business Director @Steve</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/louistierny?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAATYSQIB1imDK75JVeIyCADo4f_7f_rVKTY</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/sandrine-delabre-5470ab19?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPAR0cBowwX5QGFVMdUORH0C62Fb6l-0f0', 'person_name': 'Sandrine Delabre', 'profile_description': 'DGA en charge du Développement chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/guillaumelartigue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARlKWwBpjHqUC8H6LezsfcdB79HRjvMfpk', 'person_name': 'Guillaume Lartigue', 'profile_description': 'Co-Président / Steve'}, {'profile_url': 'https://www.linkedin.com/in/thomaseliaou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJAlesBQGp8WtbWcUp9rAWgO6LnA-74EF0', 'person_name': 'Thomas Eliaou', 'profile_description': 'Concepteur rédacteur.'}, {'profile_url': 'https://www.linkedin.com/in/agathe-dayre-a7ab28a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYO0f4B69Avy5h8q_4ZLcXfIaCwAdgVoUg', 'person_name': 'Agathe DAYRE', 'profile_description': 'Directrice de clientèle chez STEVE'}, {'profile_url': 'https://www.linkedin.com/in/cyprien-de-lardemelle-3586a5204?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQSVbQBqWZKbbpZbjOyfmhlB5r2FoTyikk', 'person_name': 'Cyprien de Lardemelle', 'profile_description': 'Directeur Artistique Junior'}, {'profile_url': 'https://www.linkedin.com/in/diane-de-plas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxuuSIB89YyUgi4Z-t5_GY603rxpxdKMtY', 'person_name': 'Diane de Plas', 'profile_description': 'DGA en charge du commercial chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/louistierny?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAATYSQIB1imDK75JVeIyCADo4f_7f_rVKTY', 'person_name': 'Louis Tierny', 'profile_description': 'Business Director @Steve'}, {'profile_url': 'https://www.linkedin.com/in/flora-fatoux-720573106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrHq0gBf554J1j8OnRxZEVbRsXELz3oXJA', 'person_name': 'Flora Fatoux', 'profile_description': 'Planneuse stratégique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/gr%C3%A9goire-soufflet-37327675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_hCYcBh5z6AbMNmCJjUFKZSF64Q3sTv9c', 'person_name': 'Grégoire SOUFFLET', 'profile_description': 'Co-Président Steve'}, {'profile_url': 'https://www.linkedin.com/in/helya-ozer-44b772267?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEFuSvsBBmMR4cHtd3tDdpwNJOu492UwjMw', 'person_name': 'Helya Ozer', 'profile_description': 'Assistante cheffe de publicité 360 chez Steve (alternance)'}, {'profile_url': 'https://www.linkedin.com/in/pierre-van-elslande?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABwN_cMBqFjHuQSXgQT7grHk8Z1nbJZ9NdQ', 'person_name': 'Pierre Van Elslande', 'profile_description': 'Account Director at Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/lisa-delaval-25354a1a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADBP9N8BCUZ-EifshPZK1ldrulHQbEk_HEM', 'person_name': 'Lisa Delaval', 'profile_description': 'Conceptrice-Rédactrice chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/areix?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHlYCwBlls4TZliAd2Tp_nlHPr_kvzRU6g', 'person_name': 'Alexandra REIX', 'profile_description': 'Lead Social Media chez Steve.'}, {'profile_url': 'https://www.linkedin.com/in/mathieu-camillieri-b1796333?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcVHIMBlxLjgEFbbRM5iW9v2umlIe-v5Po', 'person_name': 'Mathieu Camillieri', 'profile_description': 'Directeur artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/louis-marguerite-384b66206?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADR_NJQB5pzlh9RXULgUAFtY7VgsyAyq9PI', 'person_name': 'Louis Marguerite', 'profile_description': 'Concepteur-rédacteur Junior chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/morgane-schafer-7b8116a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZDmfwBKdQQYwMTmahIJaUwK0iRvV_Vh70', 'person_name': 'Morgane SCHAFER', 'profile_description': 'Directrice de clientèle - Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-weber-913116160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZ1yp8B5PYKCWqypuoozQ24NB4wTS0cJ84', 'person_name': 'Charlotte Weber', 'profile_description': 'Directrice Artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/violette-drouard-984522238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADsqcPQBzqe36O7_J5QhEK_I04JLVV6VfYQ', 'person_name': 'Violette Drouard', 'profile_description': 'Assistante Social Media Manager chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/benoit-jung-6599864?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADbICUBUyKk3-xxDrQb2yzOx3z80Yxd3b4', 'person_name': 'Benoit Jung', 'profile_description': 'Head of Art'}, {'profile_url': 'https://www.linkedin.com/in/manonlecan?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5b9KcBTJRswjCUZpEkKBKcp0MlN2yqQf4', 'person_name': 'Manon Lecan', 'profile_description': 'Assistante DA chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/delphine-reiland-244a9b112?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxH_JQBt47D53uy2lyTO7cwpiNp7sR77FU', 'person_name': 'Delphine Reiland', 'profile_description': 'Directrice de clientèle social media chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/aymeric-druaux-11a85015?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMmhaYBFRSP8_FazJnE0UNothb-sufdqG4', 'person_name': 'Aymeric Druaux', 'profile_description': 'Concepteur rédacteur chez Steve Paris'}, {'profile_url': 'https://www.linkedin.com/in/sol%C3%A8ne-voci-650700150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRpV5wB8Cjs4iZ9hDHgN4OVHFgkqmt6o_w', 'person_name': 'Solène Voci', 'profile_description': 'Social Media &amp; Influence Manager'}, {'profile_url': 'https://www.linkedin.com/in/kenza-nekmouche-1914a226b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEIaGH0BPZ1DHI-Pa17DXAHBpgnL9MixQG8', 'person_name': 'Kenza NEKMOUCHE', 'profile_description': 'Étudiante en Bachelor Stratégie Digitale à L’ESP'}, {'profile_url': 'https://www.linkedin.com/in/paulinefourcade?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWkCVgBBZIBLRuyiCZ-zZdGhAfrRHy7S3o', 'person_name': 'Pauline Fourcade', 'profile_description': 'Productrice'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9a-brasseur-163482157?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWfdlsBdkBNnHR2D1c8IZU5-HJZhVWMMMY', 'person_name': 'Léa Brasseur', 'profile_description': 'Social Media Manager'}, {'profile_url': 'https://www.linkedin.com/in/jean-fran%C3%A7ois-bouchet-442a3382?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGYIbIB0INxZ_hGkNGPoBCNBanPOyaWOBA', 'person_name': 'Jean-François Bouchet', 'profile_description': 'Creative Director &amp; Copywriter, Steve'}, {'profile_url': 'https://www.linkedin.com/in/michel-ange-amores-5158a942?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkH6aEB2PieSBvWkcc9hl8JMZjBgUfs-ts', 'person_name': 'Michel-Ange Amores', 'profile_description': 'Responsable informatique free lance chez We are social'}, {'profile_url': 'https://www.linkedin.com/in/maeva-f-994079211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWUyUABP-4xZafqtCKnt6YJHrF4P7gIC18', 'person_name': 'Maeva F.', 'profile_description': 'Année de FCND École Duperré.'}, {'profile_url': 'https://www.linkedin.com/in/nancy-sosp%C3%A9dra-51954117?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAN1-aUBInwcBHB0HuvQhr3l4Y9RP0nqxtc', 'person_name': 'Nancy Sospédra', 'profile_description': 'Co fondatrice Steve - Directrice de Création'}, {'profile_url': 'https://www.linkedin.com/in/creative-developer-miara-joris?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnPfPEBPse8pTmMpnqFZQTYhYO_OWVUIoM', 'person_name': 'Joris RAKOTO', 'profile_description': 'Freelance Digital Designer | Creating digital web experiences that boost your SEO and your perceived value.'}, {'profile_url': 'https://www.linkedin.com/in/agathelesage?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4mTTUBCr6bLS2DT9aky78tf-VPLiLvZsM', 'person_name': 'Agathe Lesage', 'profile_description': '👩🏼\u200d💻 Alternante en communication'}, {'profile_url': 'https://www.linkedin.com/in/maria-j-vela?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD6A_GcBIIIuZ0WdRkIjiE0tgDjnQxTQ_PQ', 'person_name': 'Maria Vela', 'profile_description': '—————————'}, {'profile_url': 'https://www.linkedin.com/in/laure-lagarde-06309446?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmfVEsBfr8GmwhQaqkVFR_BFvFbhixxS9M', 'person_name': 'Laure Lagarde', 'profile_description': 'Directrice des stratégies @Steve'}, {'profile_url': 'https://www.linkedin.com/in/marie-seng?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJXNbwBN0-SbfWbJGhzqEPWArumuFe_HII', 'person_name': 'Marie Seng', 'profile_description': 'Assistante Social Media Manager chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/margaux-durin-2b0b3461?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA0o46QB_0sNfyNsFtruaUm8KTutqmJL-YM', 'person_name': 'Margaux Durin', 'profile_description': 'Lead Directrice Artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/emmanuel-courteau-11146a4a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAApj-h0B5GdKN1iH5Okg99IPiHVxupjkFjQ', 'person_name': 'Emmanuel Courteau', 'profile_description': 'Creative Director'}, {'profile_url': 'https://www.linkedin.com/in/arnaud-de-brosses?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADHJJq8BVaXmNRQVufm-oNWlpWukkRtjF1U', 'person_name': 'Arnaud de Brosses', 'profile_description': 'Assistant planneur stratégique'}, {'profile_url': 'https://www.linkedin.com/in/sohane-bouima-97b916238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADs5au8Bw_CbcFRTVvJoE6PV7-Luvej1-A4', 'person_name': 'Sohane Bouima', 'profile_description': "Étudiant(e) à ESCP - Membre de l'association Call On'U"}, {'profile_url': 'https://www.linkedin.com/in/linahajbaoui?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTru9oBbMx_H1Y_tWVZ4unCThSAz2Xbo40', 'person_name': 'Lina Hajbaoui', 'profile_description': 'Cheffe de publicité'}, {'profile_url': 'https://www.linkedin.com/in/thrushi-hallihinga-6869b1b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABk-AYYBNW_MRe8UHlzKQHpcbn3sCNVqIWI', 'person_name': 'Thrushi HALLIHINGA', 'profile_description': 'Contrôleuse de gestion'}, {'profile_url': 'https://www.linkedin.com/in/lauren-hatton-23bb75b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABhgng8BXkyKXsVF6WX0uU7QyBGsoD6LWTI', 'person_name': 'Lauren Hatton', 'profile_description': 'CONCEPTRICE RÉDACTRICE chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/stevemusicpro?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAza8GwByIZgfT_BF-nCh5sln8bksMCpo30', 'person_name': 'Steve Navacchi', 'profile_description': 'Artiste-Chanteur/Auteur/Compositeur/Arrangeur/VoixOFF/Pub/Studio Alchimie Productions'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%AFlys-balland-174360114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByHSugBtoyw397e-IhFgq5exp7hh0GOiVI', 'person_name': 'Maïlys Balland', 'profile_description': 'Directrice artistique chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/asaph-hwochi-fosso-a9878521a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADdJo9QB0GI4AeSMEc-Iims9OYxWyC1KN_w', 'person_name': 'Asaph HWOCHI FOSSO', 'profile_description': 'Assistant comptable et contrôleur de gestion //MS Expert en Contrôle de Gestion, Audit et Système d’Information'}, {'profile_url': 'https://www.linkedin.com/in/st%C3%A9phane-sacuto-24054419?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAPRLFABpX4j0j7pYzzBEBsMYNBiMseaTAs', 'person_name': 'Stéphane Sacuto', 'profile_description': 'Copywriter chez Steve'}, {'profile_url': 'https://www.linkedin.com/in/stephen-kwateng-956151189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxWfRIBZrCY2j6yvgJNfmSK2wlWr3mTRek', 'person_name': 'Stephen kwateng', 'profile_description': "I'm a work at Steve"}]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>12,68 %</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>43,08 %</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>10.481.313 €</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>7.325.522 €</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>30</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>62</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/gr%C3%A9goire-soufflet-37327675?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_hCYcBh5z6AbMNmCJjUFKZSF64Q3sTv9c</t>
+      <c r="A52" t="n">
+        <v>29</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LeHibou </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.lehibou.com/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['MCBQiQ, Pointe-aux-cannoniers, Pamplemousses District, Mauritius', "Bord'eau Village H15, Quai des Chartrons 33300 Bordeaux", '13 rue Sainte Ursule31000 Toulouse', '4388 R. Saint-Denis, Montreal, QC H2J 2L1', 'Ilot Quai 8.2 - 33800 Bordeaux', '4388 R. Saint-DenisMontréal, QC H2J 2L1', '7 rue Pelisson 44000 Nantes', '92 cours Lafayette69003 Lyon', 'Av. Arnaud Fraiteur 15/231050 Ixelles', 'Av. Arnaud Fraiteur 15/23, 1050 Ixelles', '13 rue Sainte Ursule 31000 Toulouse', '58-60 Avenue Edouard Vaillant, 92100 Boulogne-Billancourt', '92 cours Lafayette - 69003 Lyon', '7 rue Pelisson44000 Nantes']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/lehiboucom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/audrey-dufrenne-01a95a45?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmS1JYB-NK5NmHXJCisdiWbJFPCyWp5iaA', 'person_name': 'Audrey DUFRENNE', 'profile_description': 'DRH 🦉 @LeHibou.com | French Tech 120'}</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>DRH 🦉 @LeHibou.com | French Tech 120</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/audrey-dufrenne-01a95a45?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmS1JYB-NK5NmHXJCisdiWbJFPCyWp5iaA</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/benjamin-delarue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEOpxEBbuW6S49aoat8vGHUOEEGPrBgIog', 'person_name': 'Benjamin Delarue', 'profile_description': 'Chief Operating Officer chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/charles-bordereau-9b592a149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPpJxkBTSRlVHR26uNcazxBmLktX3KNpQQ', 'person_name': 'Charles Bordereau', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/christophe-dargnies-289671?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAZB0kB82TlASp5RKja8vFsOPwx_e1XXpo', 'person_name': 'Christophe Dargnies', 'profile_description': 'Co CEO @ LeHibou I Board Member I Ex ManoMano I Ex TotalEnergies'}, {'profile_url': 'https://www.linkedin.com/in/thomas-ducret-8aa42720?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARVhkIBz-sXEJSSTqZoGvaw8xrsuQCCRcI', 'person_name': 'Thomas DUCRET', 'profile_description': 'Directeur Commercial 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/camillewallet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRH_YMBinI1VNzJOGzhHepf2-Hx-Azu83s', 'person_name': 'Camille Wallet', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/christophe-de-becdelievre-859236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAIuEUBcB2xBZ7_THW82CI-HZ3neztKEd8', 'person_name': 'Christophe de Becdelievre', 'profile_description': 'Fondateur et CEO chez LeHibou | FT120'}, {'profile_url': 'https://www.linkedin.com/in/elodie-chatzieoannidis?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsQeXcB-_D3jICCMPDaqERj6YB3Ik2373Y', 'person_name': 'Elodie Chatzieoannidis', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-perchec-1726b682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGLjGYB9pFS1XJQc6Ptr9b-UhvNahiLMts', 'person_name': 'Raphaël Perchec', 'profile_description': 'CTO @ LeHibou 🦉'}, {'profile_url': 'https://www.linkedin.com/in/jeandelassomption?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXW4wEBhRmZpO_j3SeqEfMCWjCIX_J2Btg', 'person_name': "Jean de l'Assomption", 'profile_description': "Votre partenaire dans la recherche d'experts IT en France chez LeHibou.com / Accompagnement de Freelances"}, {'profile_url': 'https://www.linkedin.com/in/edouard-antheaume?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC0hHBcBft7dwF_95d9Sg3NtuSPgR753-QQ', 'person_name': 'Edouard Antheaume', 'profile_description': 'Business Developer chez LeHibou🦉'}, {'profile_url': 'https://www.linkedin.com/in/olivia-brami-45219a75?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_d-v4BkPjPqhHbVXq0ox3SOwdNP1zIb8I', 'person_name': 'Olivia Brami', 'profile_description': 'Sales Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/renaud-vandeven?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABRkRt8By7u7C5xz1pm1HMcotxjuzNg76WM', 'person_name': 'Renaud Vandeven', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/augustincastille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABX-j0sB84oo9uR6byOgmllLnEn2NQ7cJ5E', 'person_name': 'Augustin Castille', 'profile_description': 'Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/aure-de-la-rochebrochard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbEInQBus0ZSGbZFNbUFJAmIGMa0lV58Ec', 'person_name': 'Aure de La Rochebrochard', 'profile_description': 'Chargée des RH'}, {'profile_url': 'https://www.linkedin.com/in/barnabe-rollin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAiBDTgBGj5V7aPYpY1n_4x_x0I8dCSlC1U', 'person_name': 'Barnabé Rollin', 'profile_description': 'Directeur LeHibou Executive | LeHibou 🦉 | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/sandragarcialehibou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABf97T8B9AWHVAWaEsNj1MdEfs324OKwB7A', 'person_name': 'Sandra Garcia', 'profile_description': "Ingénieure d'affaires chez LeHibou 🦉 - Plateforme N°1 de Freelances IT"}, {'profile_url': 'https://www.linkedin.com/in/stephane-boutterouma?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABD4UAUB6GfKmsQQuhuflfMLt54vFZw_sT0', 'person_name': 'Stéphane Boutterouma', 'profile_description': '🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-magajna-75a692b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABh7wrYBr-3a81IxqlkTgas1DyV5kYKFEWg', 'person_name': 'Charlotte Magajna', 'profile_description': 'Responsable administration des ventes chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-pacini-9b6289139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGtsloBk84WpHJDEWcO3IH4fCXiiMvI1vM', 'person_name': 'Chloé PACINI', 'profile_description': 'Account Manager - at Le Hibou'}, {'profile_url': 'https://www.linkedin.com/in/william-odsi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABoBKAkB5ARy7-g1HloJc3KHwEgcrMVBA8w', 'person_name': 'William ODSI', 'profile_description': 'Business Team Manager – Occitanie chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/kevintardivel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs4BA0B9I1kBL3oXLDbTW16sczLBB889Os', 'person_name': 'Kevin Tardivel', 'profile_description': 'Account manager - LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/estelle-rousserie-235a78a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABcd9kkBN4X1knOfrger3K_GXbEa2HEQ1Jw', 'person_name': 'Estelle Rousserie', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/pierrelouiscouchouron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABErYiMBwyESA0Qr2RuZ4JojHFKQ-nQzOQA', 'person_name': 'Pierre-Louis Couchouron', 'profile_description': 'Account Executive-LEHIBOU-Dénicheur des meilleurs talents independants et specialiste IT 🦉'}, {'profile_url': 'https://www.linkedin.com/in/adrien-bruley-des-varannes-00961558?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAwxeskBAzhpiJ7xHev6CL1OjUDRaRhdnR0', 'person_name': 'Adrien BRULEY DES VARANNES', 'profile_description': 'Responsable de la région Auvergne Rhône Alpes chez Le Hibou'}, {'profile_url': 'https://www.linkedin.com/in/audrey-dufrenne-01a95a45?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmS1JYB-NK5NmHXJCisdiWbJFPCyWp5iaA', 'person_name': 'Audrey DUFRENNE', 'profile_description': 'DRH 🦉 @LeHibou.com | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-lebailly-41838032?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbRTlQBtEiKKxJ11pVdmqugAQl4SL4cHPU', 'person_name': 'Benjamin Lebailly', 'profile_description': 'Directeur Général Délégué LeHibou | French Tech 120 La Plateforme de Freelances N°1 en IT'}, {'profile_url': 'https://www.linkedin.com/in/catalina-del-orno?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGL9kgBdDpBRrL5wzIVxDATqV_nwBnbQgY', 'person_name': 'Catalina Del Orno', 'profile_description': 'Responsable Grands Comptes 🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/sacha-h-2b23009a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABULxaYBehtdFPTnJ6Caygo8tz-u4YEnwnA', 'person_name': 'Sacha H.', 'profile_description': 'Chargée de recrutement et Gestion RH 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/alexis-brunel-95388a156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWBUM8BoazaDAQqYAFGHQ5SeqHtpKH_B1E', 'person_name': 'Alexis Brunel', 'profile_description': "J'accompagne mes clients dans leurs challenges IT - Data | Infrastructure | Développement | Sécurité | Management Projets IT"}, {'profile_url': 'https://www.linkedin.com/in/aglae-peltier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6oN2UBIKQgyWpDqqtHgtIH7cF05NLKK04', 'person_name': 'Aglaé Peltier Ahidazan', 'profile_description': "Business Team Manager @LeHibou &amp; Fondatrice @L'armoire Paris"}, {'profile_url': 'https://www.linkedin.com/in/gaspard-legrain-8b5382132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACByXokBt1CeFYG3Je-lDWXGIU2Kfk-SM9E', 'person_name': 'Gaspard Legrain', 'profile_description': 'Enterprise Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/lucas-holder-00b8a313a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHyfksBU2-bE8JZADJoyA466Vd7cIh6lc4', 'person_name': 'Lucas Holder', 'profile_description': 'Matching Team Manager chez LeHibou.com'}, {'profile_url': 'https://www.linkedin.com/in/guenaelle-perrin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEhLicBYleejkRxsP7I9U4Z1nJbXAU0-go', 'person_name': 'Guénaëlle Perrin', 'profile_description': 'CMO, LeHibou | FT120 | #FutureOfWork | #Impact'}, {'profile_url': 'https://www.linkedin.com/in/vincent-deseine-b5331bb2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABflZa8BaoOCo5x84Ta1ZfCxpCprdyBd0EM', 'person_name': 'Vincent Deseine', 'profile_description': 'Business Team Manager chez LeHibou.com 🦉 | FT120'}, {'profile_url': 'https://www.linkedin.com/in/florianliraud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbA2s4Bv6QqzkC6rtJHhOa6iFoDnpnH-Os', 'person_name': 'Florian Liraud', 'profile_description': 'Growth / SalesOps @LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/jonathan-bailly-549446ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdhT4kBikVRRqwMHcvmnDAwJWfVhLK1z1A', 'person_name': 'Jonathan Bailly', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/anthony-balde-21aa6117b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqxVfYBJr7IAHYTsSbuh6iBiLDJO2bMSNM', 'person_name': 'Anthony BALDE', 'profile_description': "L'humain, pierre angulaire de la réussite 🦉FrenchTech 120 🐓"}, {'profile_url': 'https://www.linkedin.com/in/nasrine-jaouhar-a51481229?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADkzVJ0B5Pb4JbDwYaFBROKTQq2VL3vvyiM', 'person_name': 'Nasrine Jaouhar', 'profile_description': 'Chargée de contenus et de la communication externe🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/lucas-ponthieu-749424119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1twSkBkVguzij9mEpcmIOs_609aztGWSI', 'person_name': 'Lucas Ponthieu', 'profile_description': 'Responsable Région Grand-Ouest'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-buannic-65108a147?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNtvx0Bu1kT7s7Vk7nRqPy9esVI0tOIFiI', 'person_name': 'Nicolas Buannic', 'profile_description': 'Directeur LeHibou Canada 🦉🇨🇦🍁'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%A9va-agier-829596108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsjgiEBWni7zsQJPK2YD69eRry091ruYJI', 'person_name': 'Maéva Agier', 'profile_description': 'Matching Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/anne-araujo-5b035b64?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2UBpQBCsiTqrrFg-WXV-9u-O6IUovFY7Q', 'person_name': 'Anne Araujo', 'profile_description': 'Chargée RH 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/felix-loquet-5a65831a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC_IW44BIcyUt-ux3taYQVG-JjnxQEQH1Og', 'person_name': 'Felix Loquet', 'profile_description': 'Chargé de matching IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/nathalie-rodrigues-gey-12100b20?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARFyukB9i90_HKq4zEvXARrEdGSXLhs2uE', 'person_name': 'Nathalie Rodrigues-Gey', 'profile_description': 'GEYCKO owner, IT Project Manager and strategic PMO/ IT Quality auditor. Volunteer at "Toulouse Ville Durable"'}, {'profile_url': 'https://www.linkedin.com/in/jade-roulamellah-5062b41a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADChwNYB86jBq_hwgRyjMM7XFeAZlSaH3EE', 'person_name': 'Jade Roulamellah', 'profile_description': 'Chargée de recrutement IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/clarisse-gast%C3%A9-recruitment?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7gcAwBLYT-J-cjLhMe5SI2P9kNhjTmepc', 'person_name': 'Clarisse Gasté', 'profile_description': 'Talent Acquisition IT🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-merrien?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjFDmcBHbstIRbwmnO61yzDFRKLd1BvRT8', 'person_name': 'Mathilde Merrien', 'profile_description': 'Talent acquisition IT'}, {'profile_url': 'https://www.linkedin.com/in/laurinemasset?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo3TFoBmlyuOKrVZ0cLjTYdhDmBvwaMW14', 'person_name': 'Laurine Masset', 'profile_description': 'Business Developer chez LeHibou 🦉'}, {'profile_url': 'https://www.linkedin.com/in/girel-cl%C3%A9ment-55a23392?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOcglYBqAFjoGQm5O3FJMJhMCYxmbcbgGA', 'person_name': 'Girel Clément', 'profile_description': 'Directeur chez Clam'}, {'profile_url': 'https://www.linkedin.com/in/victoire-h%C3%BCrstel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhqZrUBggmDFGoE-hBUCZHrCx1tRanTitM', 'person_name': 'Victoire Hürstel', 'profile_description': 'Marketing Digitale🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/maximearcari?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3Lap4BVXcBCzmtTV0bx4iUS1PzL4abdcY', 'person_name': 'Maxime Arcari', 'profile_description': 'I connect ambitious companies with the largest freelance IT network on the market 🦉 🇧🇪'}, {'profile_url': 'https://www.linkedin.com/in/simon-desrues?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQKRoIB0xw3gEIue4GXm8kcTRyVqCiyc90', 'person_name': 'Simon Desrues', 'profile_description': 'Chargé de Growth Marketing @LeHibou🦉// M1 Digital Marketing à l’ESSCA Paris'}, {'profile_url': 'https://www.linkedin.com/in/gerome-billault-54473ba4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYtlEQBK98NYDviCcHGYA82644C9i1ffCI', 'person_name': 'Gerome Billault', 'profile_description': "ingénieur d'études et développement"}, {'profile_url': 'https://www.linkedin.com/in/thomasmeurinb2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2AhVcB1msskB8jLFjLBILbMmsP4VxgBok', 'person_name': 'Thomas Meurin', 'profile_description': 'Account Executive @LeHibou l FT NEXT 120'}, {'profile_url': 'https://www.linkedin.com/in/julie-d-91a9aa104?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp83qYBkZiozEV5wSD-gmT-0WQC4GiHooc', 'person_name': 'Julie D.', 'profile_description': 'Directrice Administrative et Financière'}, {'profile_url': 'https://www.linkedin.com/in/justine-pooroosotun-62ba96248?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD1ifQMBJUcwey-gVGrl4jw61NSm71tBdY0', 'person_name': 'Justine Pooroosotun', 'profile_description': 'Assistante Administrative | LeHibou🦉| French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/justine-l-41a4a6288?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEXXBNYBE64QjYDxnEHjdj6u0dJEeP-BZ-U', 'person_name': 'Justine L.', 'profile_description': 'Mulesoft Developer'}, {'profile_url': 'https://www.linkedin.com/in/corentin-vall%C3%A9e?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZcBSgBNKVUFdqEe7uUr2jFEXNdaK8bw7M', 'person_name': 'Corentin Vallée', 'profile_description': 'Talent Acquisition Manager IT🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/jessicajosub?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABr4L6IBZpvvzbUfNRPwqsSykWXJIeddSR8', 'person_name': 'Jessica Josub', 'profile_description': 'Matching Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/conquetmarlene?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZmJKUB3wsShZQA0Aroo0bzXRuMFdOL_bU', 'person_name': 'Marlène Conquet', 'profile_description': 'Head of Matching 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/antoinebarbierdechalais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi08DQBMlRMKG5RXKmzmwaiFa_O8X2C7FQ', 'person_name': 'Antoine Barbier de Chalais', 'profile_description': 'Responsable Région PACA'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9lo%C3%AFsevigne?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkxwPUBuulhkiQjjB6WMJDYzjX8y6TFuog', 'person_name': 'Héloïse Vigne', 'profile_description': 'Impact Manager 🦉LeHibou | FrenchTech 120 #GreenIT #RSE #Futureofwork'}, {'profile_url': 'https://www.linkedin.com/in/in%C3%A8s-a41985150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRzm5EB56OPBserHOUnXQE68oVi7CB745A', 'person_name': 'Inès Paillades', 'profile_description': 'Talent Acquisition Recruiter IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ah-gonthier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkkr9QBl7k1VVMzLJacjXWNTd4uz_0nRnk', 'person_name': 'Cléah Gonthier', 'profile_description': 'Chargée de matching IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/audrey-lambert-b82889257?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD9P21IBGBFEAi02ezbjNhK25KVj3nvq06c', 'person_name': 'Audrey Lambert', 'profile_description': 'Gestionnaire adv chez LEHIBOU'}, {'profile_url': 'https://www.linkedin.com/in/tom-decorte?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAECD8fMBYc5Kz1Lf81XhtIctfgYV4P7X6Uc', 'person_name': 'Tom Decorte', 'profile_description': 'Chargé de recrutement IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/janhavi-conhyea-729144201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADN0vxEBD5FIfkb7PSAbRgWO5uvldZVGrKE', 'person_name': 'Janhavi Conhyea', 'profile_description': 'Assistante Administrative | LeHibou🦉| French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9cile-grondin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoqBBgBdwV1-qytJfrFLkIoORXZhNlxp-0', 'person_name': 'Cécile GRONDIN', 'profile_description': 'Talent Recruiter IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/joannacullati?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjeYN8Bu3P75pz76LsuAha-j5KtfXzyNcA', 'person_name': 'Joanna Cullati', 'profile_description': 'Assistante administration des ventes LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/lorie-plaiche-722b07244?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADytN0oBll9hT_3YpSawMrOwuQMHyJ7yPFs', 'person_name': 'Lorie Plaiche', 'profile_description': 'User care operator / Office manager🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/juliette-cougnoux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfRu_kBP3eqNc1OCvfobR6NbMcCo-omZrs', 'person_name': 'Juliette COUGNOUX', 'profile_description': 'Développeuse Backend Node.js/NestJS 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/antoine-coutin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACisQnEB6G5srUYh0K8BiXSNEL7VrRS66GU', 'person_name': 'Antoine Coutin', 'profile_description': 'Proxy Product Owner chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/leslianne-augustin-356213169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACgTjzIBm-E1rbM67WZwYl8PxgQz8aE_77Y', 'person_name': 'Leslianne Augustin', 'profile_description': 'Administrative assistant'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-d-8b14691a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCn58UBwXZulijj34ECSY-L9PgFKfHTHJE', 'person_name': 'Raphaël D.', 'profile_description': 'Lead Front-end Developer'}, {'profile_url': 'https://www.linkedin.com/in/david-ramos-web?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAyaHJIB7fqaUd2SaJ1T9FMyyp2BmRT6tmE', 'person_name': 'David Ramos', 'profile_description': 'Lead Full Stack Développeur'}, {'profile_url': 'https://www.linkedin.com/in/julie-bavais-191490150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRgyf0BBMNYZtiWahNyjmFobic6ukGuSFM', 'person_name': 'Julie Bavais', 'profile_description': 'Administrative assistant at LeHibou'}]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>83,4 %</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>516,85 %</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>47.758.489 €</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>7.742.299 €</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>19</v>
+      </c>
+      <c r="R52" t="n">
+        <v>10</v>
+      </c>
+      <c r="S52" t="n">
+        <v>63</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/louistierny?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAATYSQIB1imDK75JVeIyCADo4f_7f_rVKTY</t>
+      <c r="A53" t="n">
+        <v>29</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LeHibou </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.lehibou.com/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['MCBQiQ, Pointe-aux-cannoniers, Pamplemousses District, Mauritius', "Bord'eau Village H15, Quai des Chartrons 33300 Bordeaux", '13 rue Sainte Ursule31000 Toulouse', '4388 R. Saint-Denis, Montreal, QC H2J 2L1', 'Ilot Quai 8.2 - 33800 Bordeaux', '4388 R. Saint-DenisMontréal, QC H2J 2L1', '7 rue Pelisson 44000 Nantes', '92 cours Lafayette69003 Lyon', 'Av. Arnaud Fraiteur 15/231050 Ixelles', 'Av. Arnaud Fraiteur 15/23, 1050 Ixelles', '13 rue Sainte Ursule 31000 Toulouse', '58-60 Avenue Edouard Vaillant, 92100 Boulogne-Billancourt', '92 cours Lafayette - 69003 Lyon', '7 rue Pelisson44000 Nantes']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/lehiboucom</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/aglae-peltier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6oN2UBIKQgyWpDqqtHgtIH7cF05NLKK04', 'person_name': 'Aglaé Peltier Ahidazan', 'profile_description': "Business Team Manager @LeHibou &amp; Fondatrice @L'armoire Paris"}</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Business Team Manager @LeHibou &amp; Fondatrice @L'armoire Paris</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/aglae-peltier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6oN2UBIKQgyWpDqqtHgtIH7cF05NLKK04</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/benjamin-delarue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEOpxEBbuW6S49aoat8vGHUOEEGPrBgIog', 'person_name': 'Benjamin Delarue', 'profile_description': 'Chief Operating Officer chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/charles-bordereau-9b592a149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPpJxkBTSRlVHR26uNcazxBmLktX3KNpQQ', 'person_name': 'Charles Bordereau', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/christophe-dargnies-289671?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAZB0kB82TlASp5RKja8vFsOPwx_e1XXpo', 'person_name': 'Christophe Dargnies', 'profile_description': 'Co CEO @ LeHibou I Board Member I Ex ManoMano I Ex TotalEnergies'}, {'profile_url': 'https://www.linkedin.com/in/thomas-ducret-8aa42720?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARVhkIBz-sXEJSSTqZoGvaw8xrsuQCCRcI', 'person_name': 'Thomas DUCRET', 'profile_description': 'Directeur Commercial 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/camillewallet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRH_YMBinI1VNzJOGzhHepf2-Hx-Azu83s', 'person_name': 'Camille Wallet', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/christophe-de-becdelievre-859236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAIuEUBcB2xBZ7_THW82CI-HZ3neztKEd8', 'person_name': 'Christophe de Becdelievre', 'profile_description': 'Fondateur et CEO chez LeHibou | FT120'}, {'profile_url': 'https://www.linkedin.com/in/elodie-chatzieoannidis?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsQeXcB-_D3jICCMPDaqERj6YB3Ik2373Y', 'person_name': 'Elodie Chatzieoannidis', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-perchec-1726b682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGLjGYB9pFS1XJQc6Ptr9b-UhvNahiLMts', 'person_name': 'Raphaël Perchec', 'profile_description': 'CTO @ LeHibou 🦉'}, {'profile_url': 'https://www.linkedin.com/in/jeandelassomption?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXW4wEBhRmZpO_j3SeqEfMCWjCIX_J2Btg', 'person_name': "Jean de l'Assomption", 'profile_description': "Votre partenaire dans la recherche d'experts IT en France chez LeHibou.com / Accompagnement de Freelances"}, {'profile_url': 'https://www.linkedin.com/in/edouard-antheaume?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC0hHBcBft7dwF_95d9Sg3NtuSPgR753-QQ', 'person_name': 'Edouard Antheaume', 'profile_description': 'Business Developer chez LeHibou🦉'}, {'profile_url': 'https://www.linkedin.com/in/olivia-brami-45219a75?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_d-v4BkPjPqhHbVXq0ox3SOwdNP1zIb8I', 'person_name': 'Olivia Brami', 'profile_description': 'Sales Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/renaud-vandeven?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABRkRt8By7u7C5xz1pm1HMcotxjuzNg76WM', 'person_name': 'Renaud Vandeven', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/augustincastille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABX-j0sB84oo9uR6byOgmllLnEn2NQ7cJ5E', 'person_name': 'Augustin Castille', 'profile_description': 'Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/aure-de-la-rochebrochard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbEInQBus0ZSGbZFNbUFJAmIGMa0lV58Ec', 'person_name': 'Aure de La Rochebrochard', 'profile_description': 'Chargée des RH'}, {'profile_url': 'https://www.linkedin.com/in/barnabe-rollin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAiBDTgBGj5V7aPYpY1n_4x_x0I8dCSlC1U', 'person_name': 'Barnabé Rollin', 'profile_description': 'Directeur LeHibou Executive | LeHibou 🦉 | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/sandragarcialehibou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABf97T8B9AWHVAWaEsNj1MdEfs324OKwB7A', 'person_name': 'Sandra Garcia', 'profile_description': "Ingénieure d'affaires chez LeHibou 🦉 - Plateforme N°1 de Freelances IT"}, {'profile_url': 'https://www.linkedin.com/in/stephane-boutterouma?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABD4UAUB6GfKmsQQuhuflfMLt54vFZw_sT0', 'person_name': 'Stéphane Boutterouma', 'profile_description': '🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-magajna-75a692b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABh7wrYBr-3a81IxqlkTgas1DyV5kYKFEWg', 'person_name': 'Charlotte Magajna', 'profile_description': 'Responsable administration des ventes chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-pacini-9b6289139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGtsloBk84WpHJDEWcO3IH4fCXiiMvI1vM', 'person_name': 'Chloé PACINI', 'profile_description': 'Account Manager - at Le Hibou'}, {'profile_url': 'https://www.linkedin.com/in/william-odsi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABoBKAkB5ARy7-g1HloJc3KHwEgcrMVBA8w', 'person_name': 'William ODSI', 'profile_description': 'Business Team Manager – Occitanie chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/kevintardivel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs4BA0B9I1kBL3oXLDbTW16sczLBB889Os', 'person_name': 'Kevin Tardivel', 'profile_description': 'Account manager - LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/estelle-rousserie-235a78a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABcd9kkBN4X1knOfrger3K_GXbEa2HEQ1Jw', 'person_name': 'Estelle Rousserie', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/pierrelouiscouchouron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABErYiMBwyESA0Qr2RuZ4JojHFKQ-nQzOQA', 'person_name': 'Pierre-Louis Couchouron', 'profile_description': 'Account Executive-LEHIBOU-Dénicheur des meilleurs talents independants et specialiste IT 🦉'}, {'profile_url': 'https://www.linkedin.com/in/adrien-bruley-des-varannes-00961558?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAwxeskBAzhpiJ7xHev6CL1OjUDRaRhdnR0', 'person_name': 'Adrien BRULEY DES VARANNES', 'profile_description': 'Responsable de la région Auvergne Rhône Alpes chez Le Hibou'}, {'profile_url': 'https://www.linkedin.com/in/audrey-dufrenne-01a95a45?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmS1JYB-NK5NmHXJCisdiWbJFPCyWp5iaA', 'person_name': 'Audrey DUFRENNE', 'profile_description': 'DRH 🦉 @LeHibou.com | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-lebailly-41838032?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbRTlQBtEiKKxJ11pVdmqugAQl4SL4cHPU', 'person_name': 'Benjamin Lebailly', 'profile_description': 'Directeur Général Délégué LeHibou | French Tech 120 La Plateforme de Freelances N°1 en IT'}, {'profile_url': 'https://www.linkedin.com/in/catalina-del-orno?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGL9kgBdDpBRrL5wzIVxDATqV_nwBnbQgY', 'person_name': 'Catalina Del Orno', 'profile_description': 'Responsable Grands Comptes 🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/sacha-h-2b23009a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABULxaYBehtdFPTnJ6Caygo8tz-u4YEnwnA', 'person_name': 'Sacha H.', 'profile_description': 'Chargée de recrutement et Gestion RH 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/alexis-brunel-95388a156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWBUM8BoazaDAQqYAFGHQ5SeqHtpKH_B1E', 'person_name': 'Alexis Brunel', 'profile_description': "J'accompagne mes clients dans leurs challenges IT - Data | Infrastructure | Développement | Sécurité | Management Projets IT"}, {'profile_url': 'https://www.linkedin.com/in/aglae-peltier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6oN2UBIKQgyWpDqqtHgtIH7cF05NLKK04', 'person_name': 'Aglaé Peltier Ahidazan', 'profile_description': "Business Team Manager @LeHibou &amp; Fondatrice @L'armoire Paris"}, {'profile_url': 'https://www.linkedin.com/in/gaspard-legrain-8b5382132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACByXokBt1CeFYG3Je-lDWXGIU2Kfk-SM9E', 'person_name': 'Gaspard Legrain', 'profile_description': 'Enterprise Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/lucas-holder-00b8a313a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHyfksBU2-bE8JZADJoyA466Vd7cIh6lc4', 'person_name': 'Lucas Holder', 'profile_description': 'Matching Team Manager chez LeHibou.com'}, {'profile_url': 'https://www.linkedin.com/in/guenaelle-perrin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEhLicBYleejkRxsP7I9U4Z1nJbXAU0-go', 'person_name': 'Guénaëlle Perrin', 'profile_description': 'CMO, LeHibou | FT120 | #FutureOfWork | #Impact'}, {'profile_url': 'https://www.linkedin.com/in/vincent-deseine-b5331bb2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABflZa8BaoOCo5x84Ta1ZfCxpCprdyBd0EM', 'person_name': 'Vincent Deseine', 'profile_description': 'Business Team Manager chez LeHibou.com 🦉 | FT120'}, {'profile_url': 'https://www.linkedin.com/in/florianliraud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbA2s4Bv6QqzkC6rtJHhOa6iFoDnpnH-Os', 'person_name': 'Florian Liraud', 'profile_description': 'Growth / SalesOps @LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/jonathan-bailly-549446ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdhT4kBikVRRqwMHcvmnDAwJWfVhLK1z1A', 'person_name': 'Jonathan Bailly', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/anthony-balde-21aa6117b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqxVfYBJr7IAHYTsSbuh6iBiLDJO2bMSNM', 'person_name': 'Anthony BALDE', 'profile_description': "L'humain, pierre angulaire de la réussite 🦉FrenchTech 120 🐓"}, {'profile_url': 'https://www.linkedin.com/in/nasrine-jaouhar-a51481229?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADkzVJ0B5Pb4JbDwYaFBROKTQq2VL3vvyiM', 'person_name': 'Nasrine Jaouhar', 'profile_description': 'Chargée de contenus et de la communication externe🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/lucas-ponthieu-749424119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1twSkBkVguzij9mEpcmIOs_609aztGWSI', 'person_name': 'Lucas Ponthieu', 'profile_description': 'Responsable Région Grand-Ouest'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-buannic-65108a147?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNtvx0Bu1kT7s7Vk7nRqPy9esVI0tOIFiI', 'person_name': 'Nicolas Buannic', 'profile_description': 'Directeur LeHibou Canada 🦉🇨🇦🍁'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%A9va-agier-829596108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsjgiEBWni7zsQJPK2YD69eRry091ruYJI', 'person_name': 'Maéva Agier', 'profile_description': 'Matching Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/anne-araujo-5b035b64?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2UBpQBCsiTqrrFg-WXV-9u-O6IUovFY7Q', 'person_name': 'Anne Araujo', 'profile_description': 'Chargée RH 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/felix-loquet-5a65831a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC_IW44BIcyUt-ux3taYQVG-JjnxQEQH1Og', 'person_name': 'Felix Loquet', 'profile_description': 'Chargé de matching IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/nathalie-rodrigues-gey-12100b20?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARFyukB9i90_HKq4zEvXARrEdGSXLhs2uE', 'person_name': 'Nathalie Rodrigues-Gey', 'profile_description': 'GEYCKO owner, IT Project Manager and strategic PMO/ IT Quality auditor. Volunteer at "Toulouse Ville Durable"'}, {'profile_url': 'https://www.linkedin.com/in/jade-roulamellah-5062b41a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADChwNYB86jBq_hwgRyjMM7XFeAZlSaH3EE', 'person_name': 'Jade Roulamellah', 'profile_description': 'Chargée de recrutement IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/clarisse-gast%C3%A9-recruitment?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7gcAwBLYT-J-cjLhMe5SI2P9kNhjTmepc', 'person_name': 'Clarisse Gasté', 'profile_description': 'Talent Acquisition IT🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-merrien?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjFDmcBHbstIRbwmnO61yzDFRKLd1BvRT8', 'person_name': 'Mathilde Merrien', 'profile_description': 'Talent acquisition IT'}, {'profile_url': 'https://www.linkedin.com/in/laurinemasset?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo3TFoBmlyuOKrVZ0cLjTYdhDmBvwaMW14', 'person_name': 'Laurine Masset', 'profile_description': 'Business Developer chez LeHibou 🦉'}, {'profile_url': 'https://www.linkedin.com/in/girel-cl%C3%A9ment-55a23392?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOcglYBqAFjoGQm5O3FJMJhMCYxmbcbgGA', 'person_name': 'Girel Clément', 'profile_description': 'Directeur chez Clam'}, {'profile_url': 'https://www.linkedin.com/in/victoire-h%C3%BCrstel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhqZrUBggmDFGoE-hBUCZHrCx1tRanTitM', 'person_name': 'Victoire Hürstel', 'profile_description': 'Marketing Digitale🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/maximearcari?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3Lap4BVXcBCzmtTV0bx4iUS1PzL4abdcY', 'person_name': 'Maxime Arcari', 'profile_description': 'I connect ambitious companies with the largest freelance IT network on the market 🦉 🇧🇪'}, {'profile_url': 'https://www.linkedin.com/in/simon-desrues?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQKRoIB0xw3gEIue4GXm8kcTRyVqCiyc90', 'person_name': 'Simon Desrues', 'profile_description': 'Chargé de Growth Marketing @LeHibou🦉// M1 Digital Marketing à l’ESSCA Paris'}, {'profile_url': 'https://www.linkedin.com/in/gerome-billault-54473ba4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYtlEQBK98NYDviCcHGYA82644C9i1ffCI', 'person_name': 'Gerome Billault', 'profile_description': "ingénieur d'études et développement"}, {'profile_url': 'https://www.linkedin.com/in/thomasmeurinb2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2AhVcB1msskB8jLFjLBILbMmsP4VxgBok', 'person_name': 'Thomas Meurin', 'profile_description': 'Account Executive @LeHibou l FT NEXT 120'}, {'profile_url': 'https://www.linkedin.com/in/julie-d-91a9aa104?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp83qYBkZiozEV5wSD-gmT-0WQC4GiHooc', 'person_name': 'Julie D.', 'profile_description': 'Directrice Administrative et Financière'}, {'profile_url': 'https://www.linkedin.com/in/justine-pooroosotun-62ba96248?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD1ifQMBJUcwey-gVGrl4jw61NSm71tBdY0', 'person_name': 'Justine Pooroosotun', 'profile_description': 'Assistante Administrative | LeHibou🦉| French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/justine-l-41a4a6288?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEXXBNYBE64QjYDxnEHjdj6u0dJEeP-BZ-U', 'person_name': 'Justine L.', 'profile_description': 'Mulesoft Developer'}, {'profile_url': 'https://www.linkedin.com/in/corentin-vall%C3%A9e?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZcBSgBNKVUFdqEe7uUr2jFEXNdaK8bw7M', 'person_name': 'Corentin Vallée', 'profile_description': 'Talent Acquisition Manager IT🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/jessicajosub?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABr4L6IBZpvvzbUfNRPwqsSykWXJIeddSR8', 'person_name': 'Jessica Josub', 'profile_description': 'Matching Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/conquetmarlene?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZmJKUB3wsShZQA0Aroo0bzXRuMFdOL_bU', 'person_name': 'Marlène Conquet', 'profile_description': 'Head of Matching 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/antoinebarbierdechalais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi08DQBMlRMKG5RXKmzmwaiFa_O8X2C7FQ', 'person_name': 'Antoine Barbier de Chalais', 'profile_description': 'Responsable Région PACA'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9lo%C3%AFsevigne?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkxwPUBuulhkiQjjB6WMJDYzjX8y6TFuog', 'person_name': 'Héloïse Vigne', 'profile_description': 'Impact Manager 🦉LeHibou | FrenchTech 120 #GreenIT #RSE #Futureofwork'}, {'profile_url': 'https://www.linkedin.com/in/in%C3%A8s-a41985150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRzm5EB56OPBserHOUnXQE68oVi7CB745A', 'person_name': 'Inès Paillades', 'profile_description': 'Talent Acquisition Recruiter IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ah-gonthier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkkr9QBl7k1VVMzLJacjXWNTd4uz_0nRnk', 'person_name': 'Cléah Gonthier', 'profile_description': 'Chargée de matching IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/audrey-lambert-b82889257?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD9P21IBGBFEAi02ezbjNhK25KVj3nvq06c', 'person_name': 'Audrey Lambert', 'profile_description': 'Gestionnaire adv chez LEHIBOU'}, {'profile_url': 'https://www.linkedin.com/in/tom-decorte?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAECD8fMBYc5Kz1Lf81XhtIctfgYV4P7X6Uc', 'person_name': 'Tom Decorte', 'profile_description': 'Chargé de recrutement IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/janhavi-conhyea-729144201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADN0vxEBD5FIfkb7PSAbRgWO5uvldZVGrKE', 'person_name': 'Janhavi Conhyea', 'profile_description': 'Assistante Administrative | LeHibou🦉| French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9cile-grondin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoqBBgBdwV1-qytJfrFLkIoORXZhNlxp-0', 'person_name': 'Cécile GRONDIN', 'profile_description': 'Talent Recruiter IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/joannacullati?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjeYN8Bu3P75pz76LsuAha-j5KtfXzyNcA', 'person_name': 'Joanna Cullati', 'profile_description': 'Assistante administration des ventes LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/lorie-plaiche-722b07244?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADytN0oBll9hT_3YpSawMrOwuQMHyJ7yPFs', 'person_name': 'Lorie Plaiche', 'profile_description': 'User care operator / Office manager🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/juliette-cougnoux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfRu_kBP3eqNc1OCvfobR6NbMcCo-omZrs', 'person_name': 'Juliette COUGNOUX', 'profile_description': 'Développeuse Backend Node.js/NestJS 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/antoine-coutin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACisQnEB6G5srUYh0K8BiXSNEL7VrRS66GU', 'person_name': 'Antoine Coutin', 'profile_description': 'Proxy Product Owner chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/leslianne-augustin-356213169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACgTjzIBm-E1rbM67WZwYl8PxgQz8aE_77Y', 'person_name': 'Leslianne Augustin', 'profile_description': 'Administrative assistant'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-d-8b14691a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCn58UBwXZulijj34ECSY-L9PgFKfHTHJE', 'person_name': 'Raphaël D.', 'profile_description': 'Lead Front-end Developer'}, {'profile_url': 'https://www.linkedin.com/in/david-ramos-web?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAyaHJIB7fqaUd2SaJ1T9FMyyp2BmRT6tmE', 'person_name': 'David Ramos', 'profile_description': 'Lead Full Stack Développeur'}, {'profile_url': 'https://www.linkedin.com/in/julie-bavais-191490150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRgyf0BBMNYZtiWahNyjmFobic6ukGuSFM', 'person_name': 'Julie Bavais', 'profile_description': 'Administrative assistant at LeHibou'}]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>83,4 %</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>516,85 %</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>47.758.489 €</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>7.742.299 €</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>19</v>
+      </c>
+      <c r="R53" t="n">
+        <v>10</v>
+      </c>
+      <c r="S53" t="n">
+        <v>63</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/audrey-dufrenne-01a95a45?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmS1JYB-NK5NmHXJCisdiWbJFPCyWp5iaA</t>
+      <c r="A54" t="n">
+        <v>29</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LeHibou </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.lehibou.com/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['MCBQiQ, Pointe-aux-cannoniers, Pamplemousses District, Mauritius', "Bord'eau Village H15, Quai des Chartrons 33300 Bordeaux", '13 rue Sainte Ursule31000 Toulouse', '4388 R. Saint-Denis, Montreal, QC H2J 2L1', 'Ilot Quai 8.2 - 33800 Bordeaux', '4388 R. Saint-DenisMontréal, QC H2J 2L1', '7 rue Pelisson 44000 Nantes', '92 cours Lafayette69003 Lyon', 'Av. Arnaud Fraiteur 15/231050 Ixelles', 'Av. Arnaud Fraiteur 15/23, 1050 Ixelles', '13 rue Sainte Ursule 31000 Toulouse', '58-60 Avenue Edouard Vaillant, 92100 Boulogne-Billancourt', '92 cours Lafayette - 69003 Lyon', '7 rue Pelisson44000 Nantes']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/lehiboucom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/christophe-dargnies-289671?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAZB0kB82TlASp5RKja8vFsOPwx_e1XXpo', 'person_name': 'Christophe Dargnies', 'profile_description': 'Co CEO @ LeHibou I Board Member I Ex ManoMano I Ex TotalEnergies'}</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Co CEO @ LeHibou I Board Member I Ex ManoMano I Ex TotalEnergies</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christophe-dargnies-289671?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAZB0kB82TlASp5RKja8vFsOPwx_e1XXpo</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/benjamin-delarue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEOpxEBbuW6S49aoat8vGHUOEEGPrBgIog', 'person_name': 'Benjamin Delarue', 'profile_description': 'Chief Operating Officer chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/charles-bordereau-9b592a149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPpJxkBTSRlVHR26uNcazxBmLktX3KNpQQ', 'person_name': 'Charles Bordereau', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/christophe-dargnies-289671?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAZB0kB82TlASp5RKja8vFsOPwx_e1XXpo', 'person_name': 'Christophe Dargnies', 'profile_description': 'Co CEO @ LeHibou I Board Member I Ex ManoMano I Ex TotalEnergies'}, {'profile_url': 'https://www.linkedin.com/in/thomas-ducret-8aa42720?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARVhkIBz-sXEJSSTqZoGvaw8xrsuQCCRcI', 'person_name': 'Thomas DUCRET', 'profile_description': 'Directeur Commercial 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/camillewallet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRH_YMBinI1VNzJOGzhHepf2-Hx-Azu83s', 'person_name': 'Camille Wallet', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/christophe-de-becdelievre-859236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAIuEUBcB2xBZ7_THW82CI-HZ3neztKEd8', 'person_name': 'Christophe de Becdelievre', 'profile_description': 'Fondateur et CEO chez LeHibou | FT120'}, {'profile_url': 'https://www.linkedin.com/in/elodie-chatzieoannidis?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsQeXcB-_D3jICCMPDaqERj6YB3Ik2373Y', 'person_name': 'Elodie Chatzieoannidis', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-perchec-1726b682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGLjGYB9pFS1XJQc6Ptr9b-UhvNahiLMts', 'person_name': 'Raphaël Perchec', 'profile_description': 'CTO @ LeHibou 🦉'}, {'profile_url': 'https://www.linkedin.com/in/jeandelassomption?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXW4wEBhRmZpO_j3SeqEfMCWjCIX_J2Btg', 'person_name': "Jean de l'Assomption", 'profile_description': "Votre partenaire dans la recherche d'experts IT en France chez LeHibou.com / Accompagnement de Freelances"}, {'profile_url': 'https://www.linkedin.com/in/edouard-antheaume?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC0hHBcBft7dwF_95d9Sg3NtuSPgR753-QQ', 'person_name': 'Edouard Antheaume', 'profile_description': 'Business Developer chez LeHibou🦉'}, {'profile_url': 'https://www.linkedin.com/in/olivia-brami-45219a75?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_d-v4BkPjPqhHbVXq0ox3SOwdNP1zIb8I', 'person_name': 'Olivia Brami', 'profile_description': 'Sales Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/renaud-vandeven?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABRkRt8By7u7C5xz1pm1HMcotxjuzNg76WM', 'person_name': 'Renaud Vandeven', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/augustincastille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABX-j0sB84oo9uR6byOgmllLnEn2NQ7cJ5E', 'person_name': 'Augustin Castille', 'profile_description': 'Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/aure-de-la-rochebrochard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbEInQBus0ZSGbZFNbUFJAmIGMa0lV58Ec', 'person_name': 'Aure de La Rochebrochard', 'profile_description': 'Chargée des RH'}, {'profile_url': 'https://www.linkedin.com/in/barnabe-rollin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAiBDTgBGj5V7aPYpY1n_4x_x0I8dCSlC1U', 'person_name': 'Barnabé Rollin', 'profile_description': 'Directeur LeHibou Executive | LeHibou 🦉 | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/sandragarcialehibou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABf97T8B9AWHVAWaEsNj1MdEfs324OKwB7A', 'person_name': 'Sandra Garcia', 'profile_description': "Ingénieure d'affaires chez LeHibou 🦉 - Plateforme N°1 de Freelances IT"}, {'profile_url': 'https://www.linkedin.com/in/stephane-boutterouma?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABD4UAUB6GfKmsQQuhuflfMLt54vFZw_sT0', 'person_name': 'Stéphane Boutterouma', 'profile_description': '🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-magajna-75a692b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABh7wrYBr-3a81IxqlkTgas1DyV5kYKFEWg', 'person_name': 'Charlotte Magajna', 'profile_description': 'Responsable administration des ventes chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-pacini-9b6289139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGtsloBk84WpHJDEWcO3IH4fCXiiMvI1vM', 'person_name': 'Chloé PACINI', 'profile_description': 'Account Manager - at Le Hibou'}, {'profile_url': 'https://www.linkedin.com/in/william-odsi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABoBKAkB5ARy7-g1HloJc3KHwEgcrMVBA8w', 'person_name': 'William ODSI', 'profile_description': 'Business Team Manager – Occitanie chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/kevintardivel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs4BA0B9I1kBL3oXLDbTW16sczLBB889Os', 'person_name': 'Kevin Tardivel', 'profile_description': 'Account manager - LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/estelle-rousserie-235a78a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABcd9kkBN4X1knOfrger3K_GXbEa2HEQ1Jw', 'person_name': 'Estelle Rousserie', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/pierrelouiscouchouron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABErYiMBwyESA0Qr2RuZ4JojHFKQ-nQzOQA', 'person_name': 'Pierre-Louis Couchouron', 'profile_description': 'Account Executive-LEHIBOU-Dénicheur des meilleurs talents independants et specialiste IT 🦉'}, {'profile_url': 'https://www.linkedin.com/in/adrien-bruley-des-varannes-00961558?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAwxeskBAzhpiJ7xHev6CL1OjUDRaRhdnR0', 'person_name': 'Adrien BRULEY DES VARANNES', 'profile_description': 'Responsable de la région Auvergne Rhône Alpes chez Le Hibou'}, {'profile_url': 'https://www.linkedin.com/in/audrey-dufrenne-01a95a45?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmS1JYB-NK5NmHXJCisdiWbJFPCyWp5iaA', 'person_name': 'Audrey DUFRENNE', 'profile_description': 'DRH 🦉 @LeHibou.com | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-lebailly-41838032?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbRTlQBtEiKKxJ11pVdmqugAQl4SL4cHPU', 'person_name': 'Benjamin Lebailly', 'profile_description': 'Directeur Général Délégué LeHibou | French Tech 120 La Plateforme de Freelances N°1 en IT'}, {'profile_url': 'https://www.linkedin.com/in/catalina-del-orno?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGL9kgBdDpBRrL5wzIVxDATqV_nwBnbQgY', 'person_name': 'Catalina Del Orno', 'profile_description': 'Responsable Grands Comptes 🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/sacha-h-2b23009a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABULxaYBehtdFPTnJ6Caygo8tz-u4YEnwnA', 'person_name': 'Sacha H.', 'profile_description': 'Chargée de recrutement et Gestion RH 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/alexis-brunel-95388a156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWBUM8BoazaDAQqYAFGHQ5SeqHtpKH_B1E', 'person_name': 'Alexis Brunel', 'profile_description': "J'accompagne mes clients dans leurs challenges IT - Data | Infrastructure | Développement | Sécurité | Management Projets IT"}, {'profile_url': 'https://www.linkedin.com/in/aglae-peltier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6oN2UBIKQgyWpDqqtHgtIH7cF05NLKK04', 'person_name': 'Aglaé Peltier Ahidazan', 'profile_description': "Business Team Manager @LeHibou &amp; Fondatrice @L'armoire Paris"}, {'profile_url': 'https://www.linkedin.com/in/gaspard-legrain-8b5382132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACByXokBt1CeFYG3Je-lDWXGIU2Kfk-SM9E', 'person_name': 'Gaspard Legrain', 'profile_description': 'Enterprise Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/lucas-holder-00b8a313a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHyfksBU2-bE8JZADJoyA466Vd7cIh6lc4', 'person_name': 'Lucas Holder', 'profile_description': 'Matching Team Manager chez LeHibou.com'}, {'profile_url': 'https://www.linkedin.com/in/guenaelle-perrin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEhLicBYleejkRxsP7I9U4Z1nJbXAU0-go', 'person_name': 'Guénaëlle Perrin', 'profile_description': 'CMO, LeHibou | FT120 | #FutureOfWork | #Impact'}, {'profile_url': 'https://www.linkedin.com/in/vincent-deseine-b5331bb2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABflZa8BaoOCo5x84Ta1ZfCxpCprdyBd0EM', 'person_name': 'Vincent Deseine', 'profile_description': 'Business Team Manager chez LeHibou.com 🦉 | FT120'}, {'profile_url': 'https://www.linkedin.com/in/florianliraud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbA2s4Bv6QqzkC6rtJHhOa6iFoDnpnH-Os', 'person_name': 'Florian Liraud', 'profile_description': 'Growth / SalesOps @LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/jonathan-bailly-549446ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdhT4kBikVRRqwMHcvmnDAwJWfVhLK1z1A', 'person_name': 'Jonathan Bailly', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/anthony-balde-21aa6117b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqxVfYBJr7IAHYTsSbuh6iBiLDJO2bMSNM', 'person_name': 'Anthony BALDE', 'profile_description': "L'humain, pierre angulaire de la réussite 🦉FrenchTech 120 🐓"}, {'profile_url': 'https://www.linkedin.com/in/nasrine-jaouhar-a51481229?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADkzVJ0B5Pb4JbDwYaFBROKTQq2VL3vvyiM', 'person_name': 'Nasrine Jaouhar', 'profile_description': 'Chargée de contenus et de la communication externe🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/lucas-ponthieu-749424119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1twSkBkVguzij9mEpcmIOs_609aztGWSI', 'person_name': 'Lucas Ponthieu', 'profile_description': 'Responsable Région Grand-Ouest'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-buannic-65108a147?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNtvx0Bu1kT7s7Vk7nRqPy9esVI0tOIFiI', 'person_name': 'Nicolas Buannic', 'profile_description': 'Directeur LeHibou Canada 🦉🇨🇦🍁'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%A9va-agier-829596108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsjgiEBWni7zsQJPK2YD69eRry091ruYJI', 'person_name': 'Maéva Agier', 'profile_description': 'Matching Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/anne-araujo-5b035b64?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2UBpQBCsiTqrrFg-WXV-9u-O6IUovFY7Q', 'person_name': 'Anne Araujo', 'profile_description': 'Chargée RH 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/felix-loquet-5a65831a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC_IW44BIcyUt-ux3taYQVG-JjnxQEQH1Og', 'person_name': 'Felix Loquet', 'profile_description': 'Chargé de matching IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/nathalie-rodrigues-gey-12100b20?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARFyukB9i90_HKq4zEvXARrEdGSXLhs2uE', 'person_name': 'Nathalie Rodrigues-Gey', 'profile_description': 'GEYCKO owner, IT Project Manager and strategic PMO/ IT Quality auditor. Volunteer at "Toulouse Ville Durable"'}, {'profile_url': 'https://www.linkedin.com/in/jade-roulamellah-5062b41a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADChwNYB86jBq_hwgRyjMM7XFeAZlSaH3EE', 'person_name': 'Jade Roulamellah', 'profile_description': 'Chargée de recrutement IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/clarisse-gast%C3%A9-recruitment?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7gcAwBLYT-J-cjLhMe5SI2P9kNhjTmepc', 'person_name': 'Clarisse Gasté', 'profile_description': 'Talent Acquisition IT🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-merrien?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjFDmcBHbstIRbwmnO61yzDFRKLd1BvRT8', 'person_name': 'Mathilde Merrien', 'profile_description': 'Talent acquisition IT'}, {'profile_url': 'https://www.linkedin.com/in/laurinemasset?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo3TFoBmlyuOKrVZ0cLjTYdhDmBvwaMW14', 'person_name': 'Laurine Masset', 'profile_description': 'Business Developer chez LeHibou 🦉'}, {'profile_url': 'https://www.linkedin.com/in/girel-cl%C3%A9ment-55a23392?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOcglYBqAFjoGQm5O3FJMJhMCYxmbcbgGA', 'person_name': 'Girel Clément', 'profile_description': 'Directeur chez Clam'}, {'profile_url': 'https://www.linkedin.com/in/victoire-h%C3%BCrstel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhqZrUBggmDFGoE-hBUCZHrCx1tRanTitM', 'person_name': 'Victoire Hürstel', 'profile_description': 'Marketing Digitale🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/maximearcari?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3Lap4BVXcBCzmtTV0bx4iUS1PzL4abdcY', 'person_name': 'Maxime Arcari', 'profile_description': 'I connect ambitious companies with the largest freelance IT network on the market 🦉 🇧🇪'}, {'profile_url': 'https://www.linkedin.com/in/simon-desrues?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQKRoIB0xw3gEIue4GXm8kcTRyVqCiyc90', 'person_name': 'Simon Desrues', 'profile_description': 'Chargé de Growth Marketing @LeHibou🦉// M1 Digital Marketing à l’ESSCA Paris'}, {'profile_url': 'https://www.linkedin.com/in/gerome-billault-54473ba4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYtlEQBK98NYDviCcHGYA82644C9i1ffCI', 'person_name': 'Gerome Billault', 'profile_description': "ingénieur d'études et développement"}, {'profile_url': 'https://www.linkedin.com/in/thomasmeurinb2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2AhVcB1msskB8jLFjLBILbMmsP4VxgBok', 'person_name': 'Thomas Meurin', 'profile_description': 'Account Executive @LeHibou l FT NEXT 120'}, {'profile_url': 'https://www.linkedin.com/in/julie-d-91a9aa104?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp83qYBkZiozEV5wSD-gmT-0WQC4GiHooc', 'person_name': 'Julie D.', 'profile_description': 'Directrice Administrative et Financière'}, {'profile_url': 'https://www.linkedin.com/in/justine-pooroosotun-62ba96248?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD1ifQMBJUcwey-gVGrl4jw61NSm71tBdY0', 'person_name': 'Justine Pooroosotun', 'profile_description': 'Assistante Administrative | LeHibou🦉| French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/justine-l-41a4a6288?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEXXBNYBE64QjYDxnEHjdj6u0dJEeP-BZ-U', 'person_name': 'Justine L.', 'profile_description': 'Mulesoft Developer'}, {'profile_url': 'https://www.linkedin.com/in/corentin-vall%C3%A9e?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZcBSgBNKVUFdqEe7uUr2jFEXNdaK8bw7M', 'person_name': 'Corentin Vallée', 'profile_description': 'Talent Acquisition Manager IT🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/jessicajosub?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABr4L6IBZpvvzbUfNRPwqsSykWXJIeddSR8', 'person_name': 'Jessica Josub', 'profile_description': 'Matching Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/conquetmarlene?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZmJKUB3wsShZQA0Aroo0bzXRuMFdOL_bU', 'person_name': 'Marlène Conquet', 'profile_description': 'Head of Matching 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/antoinebarbierdechalais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi08DQBMlRMKG5RXKmzmwaiFa_O8X2C7FQ', 'person_name': 'Antoine Barbier de Chalais', 'profile_description': 'Responsable Région PACA'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9lo%C3%AFsevigne?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkxwPUBuulhkiQjjB6WMJDYzjX8y6TFuog', 'person_name': 'Héloïse Vigne', 'profile_description': 'Impact Manager 🦉LeHibou | FrenchTech 120 #GreenIT #RSE #Futureofwork'}, {'profile_url': 'https://www.linkedin.com/in/in%C3%A8s-a41985150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRzm5EB56OPBserHOUnXQE68oVi7CB745A', 'person_name': 'Inès Paillades', 'profile_description': 'Talent Acquisition Recruiter IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ah-gonthier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkkr9QBl7k1VVMzLJacjXWNTd4uz_0nRnk', 'person_name': 'Cléah Gonthier', 'profile_description': 'Chargée de matching IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/audrey-lambert-b82889257?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD9P21IBGBFEAi02ezbjNhK25KVj3nvq06c', 'person_name': 'Audrey Lambert', 'profile_description': 'Gestionnaire adv chez LEHIBOU'}, {'profile_url': 'https://www.linkedin.com/in/tom-decorte?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAECD8fMBYc5Kz1Lf81XhtIctfgYV4P7X6Uc', 'person_name': 'Tom Decorte', 'profile_description': 'Chargé de recrutement IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/janhavi-conhyea-729144201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADN0vxEBD5FIfkb7PSAbRgWO5uvldZVGrKE', 'person_name': 'Janhavi Conhyea', 'profile_description': 'Assistante Administrative | LeHibou🦉| French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9cile-grondin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoqBBgBdwV1-qytJfrFLkIoORXZhNlxp-0', 'person_name': 'Cécile GRONDIN', 'profile_description': 'Talent Recruiter IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/joannacullati?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjeYN8Bu3P75pz76LsuAha-j5KtfXzyNcA', 'person_name': 'Joanna Cullati', 'profile_description': 'Assistante administration des ventes LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/lorie-plaiche-722b07244?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADytN0oBll9hT_3YpSawMrOwuQMHyJ7yPFs', 'person_name': 'Lorie Plaiche', 'profile_description': 'User care operator / Office manager🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/juliette-cougnoux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfRu_kBP3eqNc1OCvfobR6NbMcCo-omZrs', 'person_name': 'Juliette COUGNOUX', 'profile_description': 'Développeuse Backend Node.js/NestJS 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/antoine-coutin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACisQnEB6G5srUYh0K8BiXSNEL7VrRS66GU', 'person_name': 'Antoine Coutin', 'profile_description': 'Proxy Product Owner chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/leslianne-augustin-356213169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACgTjzIBm-E1rbM67WZwYl8PxgQz8aE_77Y', 'person_name': 'Leslianne Augustin', 'profile_description': 'Administrative assistant'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-d-8b14691a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCn58UBwXZulijj34ECSY-L9PgFKfHTHJE', 'person_name': 'Raphaël D.', 'profile_description': 'Lead Front-end Developer'}, {'profile_url': 'https://www.linkedin.com/in/david-ramos-web?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAyaHJIB7fqaUd2SaJ1T9FMyyp2BmRT6tmE', 'person_name': 'David Ramos', 'profile_description': 'Lead Full Stack Développeur'}, {'profile_url': 'https://www.linkedin.com/in/julie-bavais-191490150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRgyf0BBMNYZtiWahNyjmFobic6ukGuSFM', 'person_name': 'Julie Bavais', 'profile_description': 'Administrative assistant at LeHibou'}]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>83,4 %</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>516,85 %</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>47.758.489 €</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>7.742.299 €</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>19</v>
+      </c>
+      <c r="R54" t="n">
+        <v>10</v>
+      </c>
+      <c r="S54" t="n">
+        <v>63</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/aglae-peltier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6oN2UBIKQgyWpDqqtHgtIH7cF05NLKK04</t>
+      <c r="A55" t="n">
+        <v>29</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LeHibou </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.lehibou.com/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['MCBQiQ, Pointe-aux-cannoniers, Pamplemousses District, Mauritius', "Bord'eau Village H15, Quai des Chartrons 33300 Bordeaux", '13 rue Sainte Ursule31000 Toulouse', '4388 R. Saint-Denis, Montreal, QC H2J 2L1', 'Ilot Quai 8.2 - 33800 Bordeaux', '4388 R. Saint-DenisMontréal, QC H2J 2L1', '7 rue Pelisson 44000 Nantes', '92 cours Lafayette69003 Lyon', 'Av. Arnaud Fraiteur 15/231050 Ixelles', 'Av. Arnaud Fraiteur 15/23, 1050 Ixelles', '13 rue Sainte Ursule 31000 Toulouse', '58-60 Avenue Edouard Vaillant, 92100 Boulogne-Billancourt', '92 cours Lafayette - 69003 Lyon', '7 rue Pelisson44000 Nantes']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/lehiboucom</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/christophe-de-becdelievre-859236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAIuEUBcB2xBZ7_THW82CI-HZ3neztKEd8', 'person_name': 'Christophe de Becdelievre', 'profile_description': 'Fondateur et CEO chez LeHibou | FT120'}</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Fondateur et CEO chez LeHibou | FT120</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christophe-de-becdelievre-859236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAIuEUBcB2xBZ7_THW82CI-HZ3neztKEd8</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/benjamin-delarue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEOpxEBbuW6S49aoat8vGHUOEEGPrBgIog', 'person_name': 'Benjamin Delarue', 'profile_description': 'Chief Operating Officer chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/charles-bordereau-9b592a149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPpJxkBTSRlVHR26uNcazxBmLktX3KNpQQ', 'person_name': 'Charles Bordereau', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/christophe-dargnies-289671?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAZB0kB82TlASp5RKja8vFsOPwx_e1XXpo', 'person_name': 'Christophe Dargnies', 'profile_description': 'Co CEO @ LeHibou I Board Member I Ex ManoMano I Ex TotalEnergies'}, {'profile_url': 'https://www.linkedin.com/in/thomas-ducret-8aa42720?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARVhkIBz-sXEJSSTqZoGvaw8xrsuQCCRcI', 'person_name': 'Thomas DUCRET', 'profile_description': 'Directeur Commercial 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/camillewallet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRH_YMBinI1VNzJOGzhHepf2-Hx-Azu83s', 'person_name': 'Camille Wallet', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/christophe-de-becdelievre-859236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAIuEUBcB2xBZ7_THW82CI-HZ3neztKEd8', 'person_name': 'Christophe de Becdelievre', 'profile_description': 'Fondateur et CEO chez LeHibou | FT120'}, {'profile_url': 'https://www.linkedin.com/in/elodie-chatzieoannidis?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsQeXcB-_D3jICCMPDaqERj6YB3Ik2373Y', 'person_name': 'Elodie Chatzieoannidis', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-perchec-1726b682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGLjGYB9pFS1XJQc6Ptr9b-UhvNahiLMts', 'person_name': 'Raphaël Perchec', 'profile_description': 'CTO @ LeHibou 🦉'}, {'profile_url': 'https://www.linkedin.com/in/jeandelassomption?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXW4wEBhRmZpO_j3SeqEfMCWjCIX_J2Btg', 'person_name': "Jean de l'Assomption", 'profile_description': "Votre partenaire dans la recherche d'experts IT en France chez LeHibou.com / Accompagnement de Freelances"}, {'profile_url': 'https://www.linkedin.com/in/edouard-antheaume?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC0hHBcBft7dwF_95d9Sg3NtuSPgR753-QQ', 'person_name': 'Edouard Antheaume', 'profile_description': 'Business Developer chez LeHibou🦉'}, {'profile_url': 'https://www.linkedin.com/in/olivia-brami-45219a75?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_d-v4BkPjPqhHbVXq0ox3SOwdNP1zIb8I', 'person_name': 'Olivia Brami', 'profile_description': 'Sales Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/renaud-vandeven?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABRkRt8By7u7C5xz1pm1HMcotxjuzNg76WM', 'person_name': 'Renaud Vandeven', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/augustincastille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABX-j0sB84oo9uR6byOgmllLnEn2NQ7cJ5E', 'person_name': 'Augustin Castille', 'profile_description': 'Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/aure-de-la-rochebrochard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbEInQBus0ZSGbZFNbUFJAmIGMa0lV58Ec', 'person_name': 'Aure de La Rochebrochard', 'profile_description': 'Chargée des RH'}, {'profile_url': 'https://www.linkedin.com/in/barnabe-rollin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAiBDTgBGj5V7aPYpY1n_4x_x0I8dCSlC1U', 'person_name': 'Barnabé Rollin', 'profile_description': 'Directeur LeHibou Executive | LeHibou 🦉 | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/sandragarcialehibou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABf97T8B9AWHVAWaEsNj1MdEfs324OKwB7A', 'person_name': 'Sandra Garcia', 'profile_description': "Ingénieure d'affaires chez LeHibou 🦉 - Plateforme N°1 de Freelances IT"}, {'profile_url': 'https://www.linkedin.com/in/stephane-boutterouma?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABD4UAUB6GfKmsQQuhuflfMLt54vFZw_sT0', 'person_name': 'Stéphane Boutterouma', 'profile_description': '🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-magajna-75a692b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABh7wrYBr-3a81IxqlkTgas1DyV5kYKFEWg', 'person_name': 'Charlotte Magajna', 'profile_description': 'Responsable administration des ventes chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-pacini-9b6289139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGtsloBk84WpHJDEWcO3IH4fCXiiMvI1vM', 'person_name': 'Chloé PACINI', 'profile_description': 'Account Manager - at Le Hibou'}, {'profile_url': 'https://www.linkedin.com/in/william-odsi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABoBKAkB5ARy7-g1HloJc3KHwEgcrMVBA8w', 'person_name': 'William ODSI', 'profile_description': 'Business Team Manager – Occitanie chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/kevintardivel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs4BA0B9I1kBL3oXLDbTW16sczLBB889Os', 'person_name': 'Kevin Tardivel', 'profile_description': 'Account manager - LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/estelle-rousserie-235a78a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABcd9kkBN4X1knOfrger3K_GXbEa2HEQ1Jw', 'person_name': 'Estelle Rousserie', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/pierrelouiscouchouron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABErYiMBwyESA0Qr2RuZ4JojHFKQ-nQzOQA', 'person_name': 'Pierre-Louis Couchouron', 'profile_description': 'Account Executive-LEHIBOU-Dénicheur des meilleurs talents independants et specialiste IT 🦉'}, {'profile_url': 'https://www.linkedin.com/in/adrien-bruley-des-varannes-00961558?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAwxeskBAzhpiJ7xHev6CL1OjUDRaRhdnR0', 'person_name': 'Adrien BRULEY DES VARANNES', 'profile_description': 'Responsable de la région Auvergne Rhône Alpes chez Le Hibou'}, {'profile_url': 'https://www.linkedin.com/in/audrey-dufrenne-01a95a45?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmS1JYB-NK5NmHXJCisdiWbJFPCyWp5iaA', 'person_name': 'Audrey DUFRENNE', 'profile_description': 'DRH 🦉 @LeHibou.com | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-lebailly-41838032?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbRTlQBtEiKKxJ11pVdmqugAQl4SL4cHPU', 'person_name': 'Benjamin Lebailly', 'profile_description': 'Directeur Général Délégué LeHibou | French Tech 120 La Plateforme de Freelances N°1 en IT'}, {'profile_url': 'https://www.linkedin.com/in/catalina-del-orno?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGL9kgBdDpBRrL5wzIVxDATqV_nwBnbQgY', 'person_name': 'Catalina Del Orno', 'profile_description': 'Responsable Grands Comptes 🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/sacha-h-2b23009a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABULxaYBehtdFPTnJ6Caygo8tz-u4YEnwnA', 'person_name': 'Sacha H.', 'profile_description': 'Chargée de recrutement et Gestion RH 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/alexis-brunel-95388a156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWBUM8BoazaDAQqYAFGHQ5SeqHtpKH_B1E', 'person_name': 'Alexis Brunel', 'profile_description': "J'accompagne mes clients dans leurs challenges IT - Data | Infrastructure | Développement | Sécurité | Management Projets IT"}, {'profile_url': 'https://www.linkedin.com/in/aglae-peltier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6oN2UBIKQgyWpDqqtHgtIH7cF05NLKK04', 'person_name': 'Aglaé Peltier Ahidazan', 'profile_description': "Business Team Manager @LeHibou &amp; Fondatrice @L'armoire Paris"}, {'profile_url': 'https://www.linkedin.com/in/gaspard-legrain-8b5382132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACByXokBt1CeFYG3Je-lDWXGIU2Kfk-SM9E', 'person_name': 'Gaspard Legrain', 'profile_description': 'Enterprise Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/lucas-holder-00b8a313a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHyfksBU2-bE8JZADJoyA466Vd7cIh6lc4', 'person_name': 'Lucas Holder', 'profile_description': 'Matching Team Manager chez LeHibou.com'}, {'profile_url': 'https://www.linkedin.com/in/guenaelle-perrin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEhLicBYleejkRxsP7I9U4Z1nJbXAU0-go', 'person_name': 'Guénaëlle Perrin', 'profile_description': 'CMO, LeHibou | FT120 | #FutureOfWork | #Impact'}, {'profile_url': 'https://www.linkedin.com/in/vincent-deseine-b5331bb2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABflZa8BaoOCo5x84Ta1ZfCxpCprdyBd0EM', 'person_name': 'Vincent Deseine', 'profile_description': 'Business Team Manager chez LeHibou.com 🦉 | FT120'}, {'profile_url': 'https://www.linkedin.com/in/florianliraud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbA2s4Bv6QqzkC6rtJHhOa6iFoDnpnH-Os', 'person_name': 'Florian Liraud', 'profile_description': 'Growth / SalesOps @LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/jonathan-bailly-549446ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdhT4kBikVRRqwMHcvmnDAwJWfVhLK1z1A', 'person_name': 'Jonathan Bailly', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/anthony-balde-21aa6117b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqxVfYBJr7IAHYTsSbuh6iBiLDJO2bMSNM', 'person_name': 'Anthony BALDE', 'profile_description': "L'humain, pierre angulaire de la réussite 🦉FrenchTech 120 🐓"}, {'profile_url': 'https://www.linkedin.com/in/nasrine-jaouhar-a51481229?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADkzVJ0B5Pb4JbDwYaFBROKTQq2VL3vvyiM', 'person_name': 'Nasrine Jaouhar', 'profile_description': 'Chargée de contenus et de la communication externe🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/lucas-ponthieu-749424119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1twSkBkVguzij9mEpcmIOs_609aztGWSI', 'person_name': 'Lucas Ponthieu', 'profile_description': 'Responsable Région Grand-Ouest'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-buannic-65108a147?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNtvx0Bu1kT7s7Vk7nRqPy9esVI0tOIFiI', 'person_name': 'Nicolas Buannic', 'profile_description': 'Directeur LeHibou Canada 🦉🇨🇦🍁'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%A9va-agier-829596108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsjgiEBWni7zsQJPK2YD69eRry091ruYJI', 'person_name': 'Maéva Agier', 'profile_description': 'Matching Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/anne-araujo-5b035b64?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2UBpQBCsiTqrrFg-WXV-9u-O6IUovFY7Q', 'person_name': 'Anne Araujo', 'profile_description': 'Chargée RH 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/felix-loquet-5a65831a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC_IW44BIcyUt-ux3taYQVG-JjnxQEQH1Og', 'person_name': 'Felix Loquet', 'profile_description': 'Chargé de matching IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/nathalie-rodrigues-gey-12100b20?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARFyukB9i90_HKq4zEvXARrEdGSXLhs2uE', 'person_name': 'Nathalie Rodrigues-Gey', 'profile_description': 'GEYCKO owner, IT Project Manager and strategic PMO/ IT Quality auditor. Volunteer at "Toulouse Ville Durable"'}, {'profile_url': 'https://www.linkedin.com/in/jade-roulamellah-5062b41a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADChwNYB86jBq_hwgRyjMM7XFeAZlSaH3EE', 'person_name': 'Jade Roulamellah', 'profile_description': 'Chargée de recrutement IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/clarisse-gast%C3%A9-recruitment?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7gcAwBLYT-J-cjLhMe5SI2P9kNhjTmepc', 'person_name': 'Clarisse Gasté', 'profile_description': 'Talent Acquisition IT🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-merrien?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjFDmcBHbstIRbwmnO61yzDFRKLd1BvRT8', 'person_name': 'Mathilde Merrien', 'profile_description': 'Talent acquisition IT'}, {'profile_url': 'https://www.linkedin.com/in/laurinemasset?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo3TFoBmlyuOKrVZ0cLjTYdhDmBvwaMW14', 'person_name': 'Laurine Masset', 'profile_description': 'Business Developer chez LeHibou 🦉'}, {'profile_url': 'https://www.linkedin.com/in/girel-cl%C3%A9ment-55a23392?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOcglYBqAFjoGQm5O3FJMJhMCYxmbcbgGA', 'person_name': 'Girel Clément', 'profile_description': 'Directeur chez Clam'}, {'profile_url': 'https://www.linkedin.com/in/victoire-h%C3%BCrstel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhqZrUBggmDFGoE-hBUCZHrCx1tRanTitM', 'person_name': 'Victoire Hürstel', 'profile_description': 'Marketing Digitale🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/maximearcari?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3Lap4BVXcBCzmtTV0bx4iUS1PzL4abdcY', 'person_name': 'Maxime Arcari', 'profile_description': 'I connect ambitious companies with the largest freelance IT network on the market 🦉 🇧🇪'}, {'profile_url': 'https://www.linkedin.com/in/simon-desrues?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQKRoIB0xw3gEIue4GXm8kcTRyVqCiyc90', 'person_name': 'Simon Desrues', 'profile_description': 'Chargé de Growth Marketing @LeHibou🦉// M1 Digital Marketing à l’ESSCA Paris'}, {'profile_url': 'https://www.linkedin.com/in/gerome-billault-54473ba4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYtlEQBK98NYDviCcHGYA82644C9i1ffCI', 'person_name': 'Gerome Billault', 'profile_description': "ingénieur d'études et développement"}, {'profile_url': 'https://www.linkedin.com/in/thomasmeurinb2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2AhVcB1msskB8jLFjLBILbMmsP4VxgBok', 'person_name': 'Thomas Meurin', 'profile_description': 'Account Executive @LeHibou l FT NEXT 120'}, {'profile_url': 'https://www.linkedin.com/in/julie-d-91a9aa104?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp83qYBkZiozEV5wSD-gmT-0WQC4GiHooc', 'person_name': 'Julie D.', 'profile_description': 'Directrice Administrative et Financière'}, {'profile_url': 'https://www.linkedin.com/in/justine-pooroosotun-62ba96248?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD1ifQMBJUcwey-gVGrl4jw61NSm71tBdY0', 'person_name': 'Justine Pooroosotun', 'profile_description': 'Assistante Administrative | LeHibou🦉| French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/justine-l-41a4a6288?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEXXBNYBE64QjYDxnEHjdj6u0dJEeP-BZ-U', 'person_name': 'Justine L.', 'profile_description': 'Mulesoft Developer'}, {'profile_url': 'https://www.linkedin.com/in/corentin-vall%C3%A9e?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZcBSgBNKVUFdqEe7uUr2jFEXNdaK8bw7M', 'person_name': 'Corentin Vallée', 'profile_description': 'Talent Acquisition Manager IT🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/jessicajosub?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABr4L6IBZpvvzbUfNRPwqsSykWXJIeddSR8', 'person_name': 'Jessica Josub', 'profile_description': 'Matching Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/conquetmarlene?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZmJKUB3wsShZQA0Aroo0bzXRuMFdOL_bU', 'person_name': 'Marlène Conquet', 'profile_description': 'Head of Matching 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/antoinebarbierdechalais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi08DQBMlRMKG5RXKmzmwaiFa_O8X2C7FQ', 'person_name': 'Antoine Barbier de Chalais', 'profile_description': 'Responsable Région PACA'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9lo%C3%AFsevigne?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkxwPUBuulhkiQjjB6WMJDYzjX8y6TFuog', 'person_name': 'Héloïse Vigne', 'profile_description': 'Impact Manager 🦉LeHibou | FrenchTech 120 #GreenIT #RSE #Futureofwork'}, {'profile_url': 'https://www.linkedin.com/in/in%C3%A8s-a41985150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRzm5EB56OPBserHOUnXQE68oVi7CB745A', 'person_name': 'Inès Paillades', 'profile_description': 'Talent Acquisition Recruiter IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ah-gonthier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkkr9QBl7k1VVMzLJacjXWNTd4uz_0nRnk', 'person_name': 'Cléah Gonthier', 'profile_description': 'Chargée de matching IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/audrey-lambert-b82889257?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD9P21IBGBFEAi02ezbjNhK25KVj3nvq06c', 'person_name': 'Audrey Lambert', 'profile_description': 'Gestionnaire adv chez LEHIBOU'}, {'profile_url': 'https://www.linkedin.com/in/tom-decorte?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAECD8fMBYc5Kz1Lf81XhtIctfgYV4P7X6Uc', 'person_name': 'Tom Decorte', 'profile_description': 'Chargé de recrutement IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/janhavi-conhyea-729144201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADN0vxEBD5FIfkb7PSAbRgWO5uvldZVGrKE', 'person_name': 'Janhavi Conhyea', 'profile_description': 'Assistante Administrative | LeHibou🦉| French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9cile-grondin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoqBBgBdwV1-qytJfrFLkIoORXZhNlxp-0', 'person_name': 'Cécile GRONDIN', 'profile_description': 'Talent Recruiter IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/joannacullati?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjeYN8Bu3P75pz76LsuAha-j5KtfXzyNcA', 'person_name': 'Joanna Cullati', 'profile_description': 'Assistante administration des ventes LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/lorie-plaiche-722b07244?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADytN0oBll9hT_3YpSawMrOwuQMHyJ7yPFs', 'person_name': 'Lorie Plaiche', 'profile_description': 'User care operator / Office manager🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/juliette-cougnoux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfRu_kBP3eqNc1OCvfobR6NbMcCo-omZrs', 'person_name': 'Juliette COUGNOUX', 'profile_description': 'Développeuse Backend Node.js/NestJS 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/antoine-coutin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACisQnEB6G5srUYh0K8BiXSNEL7VrRS66GU', 'person_name': 'Antoine Coutin', 'profile_description': 'Proxy Product Owner chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/leslianne-augustin-356213169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACgTjzIBm-E1rbM67WZwYl8PxgQz8aE_77Y', 'person_name': 'Leslianne Augustin', 'profile_description': 'Administrative assistant'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-d-8b14691a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCn58UBwXZulijj34ECSY-L9PgFKfHTHJE', 'person_name': 'Raphaël D.', 'profile_description': 'Lead Front-end Developer'}, {'profile_url': 'https://www.linkedin.com/in/david-ramos-web?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAyaHJIB7fqaUd2SaJ1T9FMyyp2BmRT6tmE', 'person_name': 'David Ramos', 'profile_description': 'Lead Full Stack Développeur'}, {'profile_url': 'https://www.linkedin.com/in/julie-bavais-191490150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRgyf0BBMNYZtiWahNyjmFobic6ukGuSFM', 'person_name': 'Julie Bavais', 'profile_description': 'Administrative assistant at LeHibou'}]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>83,4 %</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>516,85 %</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>47.758.489 €</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>7.742.299 €</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>19</v>
+      </c>
+      <c r="R55" t="n">
+        <v>10</v>
+      </c>
+      <c r="S55" t="n">
+        <v>63</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/christophe-dargnies-289671?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAZB0kB82TlASp5RKja8vFsOPwx_e1XXpo</t>
+      <c r="A56" t="n">
+        <v>29</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LeHibou </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.lehibou.com/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['MCBQiQ, Pointe-aux-cannoniers, Pamplemousses District, Mauritius', "Bord'eau Village H15, Quai des Chartrons 33300 Bordeaux", '13 rue Sainte Ursule31000 Toulouse', '4388 R. Saint-Denis, Montreal, QC H2J 2L1', 'Ilot Quai 8.2 - 33800 Bordeaux', '4388 R. Saint-DenisMontréal, QC H2J 2L1', '7 rue Pelisson 44000 Nantes', '92 cours Lafayette69003 Lyon', 'Av. Arnaud Fraiteur 15/231050 Ixelles', 'Av. Arnaud Fraiteur 15/23, 1050 Ixelles', '13 rue Sainte Ursule 31000 Toulouse', '58-60 Avenue Edouard Vaillant, 92100 Boulogne-Billancourt', '92 cours Lafayette - 69003 Lyon', '7 rue Pelisson44000 Nantes']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/lehiboucom</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-perchec-1726b682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGLjGYB9pFS1XJQc6Ptr9b-UhvNahiLMts', 'person_name': 'Raphaël Perchec', 'profile_description': 'CTO @ LeHibou 🦉'}</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>CTO @ LeHibou 🦉</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rapha%C3%ABl-perchec-1726b682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGLjGYB9pFS1XJQc6Ptr9b-UhvNahiLMts</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/benjamin-delarue?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEOpxEBbuW6S49aoat8vGHUOEEGPrBgIog', 'person_name': 'Benjamin Delarue', 'profile_description': 'Chief Operating Officer chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/charles-bordereau-9b592a149?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACPpJxkBTSRlVHR26uNcazxBmLktX3KNpQQ', 'person_name': 'Charles Bordereau', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/christophe-dargnies-289671?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAZB0kB82TlASp5RKja8vFsOPwx_e1XXpo', 'person_name': 'Christophe Dargnies', 'profile_description': 'Co CEO @ LeHibou I Board Member I Ex ManoMano I Ex TotalEnergies'}, {'profile_url': 'https://www.linkedin.com/in/thomas-ducret-8aa42720?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARVhkIBz-sXEJSSTqZoGvaw8xrsuQCCRcI', 'person_name': 'Thomas DUCRET', 'profile_description': 'Directeur Commercial 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/camillewallet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRH_YMBinI1VNzJOGzhHepf2-Hx-Azu83s', 'person_name': 'Camille Wallet', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/christophe-de-becdelievre-859236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAIuEUBcB2xBZ7_THW82CI-HZ3neztKEd8', 'person_name': 'Christophe de Becdelievre', 'profile_description': 'Fondateur et CEO chez LeHibou | FT120'}, {'profile_url': 'https://www.linkedin.com/in/elodie-chatzieoannidis?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsQeXcB-_D3jICCMPDaqERj6YB3Ik2373Y', 'person_name': 'Elodie Chatzieoannidis', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-perchec-1726b682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGLjGYB9pFS1XJQc6Ptr9b-UhvNahiLMts', 'person_name': 'Raphaël Perchec', 'profile_description': 'CTO @ LeHibou 🦉'}, {'profile_url': 'https://www.linkedin.com/in/jeandelassomption?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABXW4wEBhRmZpO_j3SeqEfMCWjCIX_J2Btg', 'person_name': "Jean de l'Assomption", 'profile_description': "Votre partenaire dans la recherche d'experts IT en France chez LeHibou.com / Accompagnement de Freelances"}, {'profile_url': 'https://www.linkedin.com/in/edouard-antheaume?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC0hHBcBft7dwF_95d9Sg3NtuSPgR753-QQ', 'person_name': 'Edouard Antheaume', 'profile_description': 'Business Developer chez LeHibou🦉'}, {'profile_url': 'https://www.linkedin.com/in/olivia-brami-45219a75?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_d-v4BkPjPqhHbVXq0ox3SOwdNP1zIb8I', 'person_name': 'Olivia Brami', 'profile_description': 'Sales Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/renaud-vandeven?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABRkRt8By7u7C5xz1pm1HMcotxjuzNg76WM', 'person_name': 'Renaud Vandeven', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/augustincastille?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABX-j0sB84oo9uR6byOgmllLnEn2NQ7cJ5E', 'person_name': 'Augustin Castille', 'profile_description': 'Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/aure-de-la-rochebrochard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbEInQBus0ZSGbZFNbUFJAmIGMa0lV58Ec', 'person_name': 'Aure de La Rochebrochard', 'profile_description': 'Chargée des RH'}, {'profile_url': 'https://www.linkedin.com/in/barnabe-rollin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAiBDTgBGj5V7aPYpY1n_4x_x0I8dCSlC1U', 'person_name': 'Barnabé Rollin', 'profile_description': 'Directeur LeHibou Executive | LeHibou 🦉 | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/sandragarcialehibou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABf97T8B9AWHVAWaEsNj1MdEfs324OKwB7A', 'person_name': 'Sandra Garcia', 'profile_description': "Ingénieure d'affaires chez LeHibou 🦉 - Plateforme N°1 de Freelances IT"}, {'profile_url': 'https://www.linkedin.com/in/stephane-boutterouma?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABD4UAUB6GfKmsQQuhuflfMLt54vFZw_sT0', 'person_name': 'Stéphane Boutterouma', 'profile_description': '🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-magajna-75a692b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABh7wrYBr-3a81IxqlkTgas1DyV5kYKFEWg', 'person_name': 'Charlotte Magajna', 'profile_description': 'Responsable administration des ventes chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-pacini-9b6289139?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACGtsloBk84WpHJDEWcO3IH4fCXiiMvI1vM', 'person_name': 'Chloé PACINI', 'profile_description': 'Account Manager - at Le Hibou'}, {'profile_url': 'https://www.linkedin.com/in/william-odsi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABoBKAkB5ARy7-g1HloJc3KHwEgcrMVBA8w', 'person_name': 'William ODSI', 'profile_description': 'Business Team Manager – Occitanie chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/kevintardivel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABs4BA0B9I1kBL3oXLDbTW16sczLBB889Os', 'person_name': 'Kevin Tardivel', 'profile_description': 'Account manager - LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/estelle-rousserie-235a78a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABcd9kkBN4X1knOfrger3K_GXbEa2HEQ1Jw', 'person_name': 'Estelle Rousserie', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/pierrelouiscouchouron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABErYiMBwyESA0Qr2RuZ4JojHFKQ-nQzOQA', 'person_name': 'Pierre-Louis Couchouron', 'profile_description': 'Account Executive-LEHIBOU-Dénicheur des meilleurs talents independants et specialiste IT 🦉'}, {'profile_url': 'https://www.linkedin.com/in/adrien-bruley-des-varannes-00961558?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAwxeskBAzhpiJ7xHev6CL1OjUDRaRhdnR0', 'person_name': 'Adrien BRULEY DES VARANNES', 'profile_description': 'Responsable de la région Auvergne Rhône Alpes chez Le Hibou'}, {'profile_url': 'https://www.linkedin.com/in/audrey-dufrenne-01a95a45?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmS1JYB-NK5NmHXJCisdiWbJFPCyWp5iaA', 'person_name': 'Audrey DUFRENNE', 'profile_description': 'DRH 🦉 @LeHibou.com | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-lebailly-41838032?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbRTlQBtEiKKxJ11pVdmqugAQl4SL4cHPU', 'person_name': 'Benjamin Lebailly', 'profile_description': 'Directeur Général Délégué LeHibou | French Tech 120 La Plateforme de Freelances N°1 en IT'}, {'profile_url': 'https://www.linkedin.com/in/catalina-del-orno?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGL9kgBdDpBRrL5wzIVxDATqV_nwBnbQgY', 'person_name': 'Catalina Del Orno', 'profile_description': 'Responsable Grands Comptes 🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/sacha-h-2b23009a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABULxaYBehtdFPTnJ6Caygo8tz-u4YEnwnA', 'person_name': 'Sacha H.', 'profile_description': 'Chargée de recrutement et Gestion RH 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/alexis-brunel-95388a156?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWBUM8BoazaDAQqYAFGHQ5SeqHtpKH_B1E', 'person_name': 'Alexis Brunel', 'profile_description': "J'accompagne mes clients dans leurs challenges IT - Data | Infrastructure | Développement | Sécurité | Management Projets IT"}, {'profile_url': 'https://www.linkedin.com/in/aglae-peltier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6oN2UBIKQgyWpDqqtHgtIH7cF05NLKK04', 'person_name': 'Aglaé Peltier Ahidazan', 'profile_description': "Business Team Manager @LeHibou &amp; Fondatrice @L'armoire Paris"}, {'profile_url': 'https://www.linkedin.com/in/gaspard-legrain-8b5382132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACByXokBt1CeFYG3Je-lDWXGIU2Kfk-SM9E', 'person_name': 'Gaspard Legrain', 'profile_description': 'Enterprise Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/lucas-holder-00b8a313a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHyfksBU2-bE8JZADJoyA466Vd7cIh6lc4', 'person_name': 'Lucas Holder', 'profile_description': 'Matching Team Manager chez LeHibou.com'}, {'profile_url': 'https://www.linkedin.com/in/guenaelle-perrin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEhLicBYleejkRxsP7I9U4Z1nJbXAU0-go', 'person_name': 'Guénaëlle Perrin', 'profile_description': 'CMO, LeHibou | FT120 | #FutureOfWork | #Impact'}, {'profile_url': 'https://www.linkedin.com/in/vincent-deseine-b5331bb2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABflZa8BaoOCo5x84Ta1ZfCxpCprdyBd0EM', 'person_name': 'Vincent Deseine', 'profile_description': 'Business Team Manager chez LeHibou.com 🦉 | FT120'}, {'profile_url': 'https://www.linkedin.com/in/florianliraud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbA2s4Bv6QqzkC6rtJHhOa6iFoDnpnH-Os', 'person_name': 'Florian Liraud', 'profile_description': 'Growth / SalesOps @LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/jonathan-bailly-549446ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABdhT4kBikVRRqwMHcvmnDAwJWfVhLK1z1A', 'person_name': 'Jonathan Bailly', 'profile_description': 'Account Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/anthony-balde-21aa6117b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqxVfYBJr7IAHYTsSbuh6iBiLDJO2bMSNM', 'person_name': 'Anthony BALDE', 'profile_description': "L'humain, pierre angulaire de la réussite 🦉FrenchTech 120 🐓"}, {'profile_url': 'https://www.linkedin.com/in/nasrine-jaouhar-a51481229?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADkzVJ0B5Pb4JbDwYaFBROKTQq2VL3vvyiM', 'person_name': 'Nasrine Jaouhar', 'profile_description': 'Chargée de contenus et de la communication externe🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/lucas-ponthieu-749424119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1twSkBkVguzij9mEpcmIOs_609aztGWSI', 'person_name': 'Lucas Ponthieu', 'profile_description': 'Responsable Région Grand-Ouest'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-buannic-65108a147?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNtvx0Bu1kT7s7Vk7nRqPy9esVI0tOIFiI', 'person_name': 'Nicolas Buannic', 'profile_description': 'Directeur LeHibou Canada 🦉🇨🇦🍁'}, {'profile_url': 'https://www.linkedin.com/in/ma%C3%A9va-agier-829596108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsjgiEBWni7zsQJPK2YD69eRry091ruYJI', 'person_name': 'Maéva Agier', 'profile_description': 'Matching Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/anne-araujo-5b035b64?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA2UBpQBCsiTqrrFg-WXV-9u-O6IUovFY7Q', 'person_name': 'Anne Araujo', 'profile_description': 'Chargée RH 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/felix-loquet-5a65831a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC_IW44BIcyUt-ux3taYQVG-JjnxQEQH1Og', 'person_name': 'Felix Loquet', 'profile_description': 'Chargé de matching IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/nathalie-rodrigues-gey-12100b20?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARFyukB9i90_HKq4zEvXARrEdGSXLhs2uE', 'person_name': 'Nathalie Rodrigues-Gey', 'profile_description': 'GEYCKO owner, IT Project Manager and strategic PMO/ IT Quality auditor. Volunteer at "Toulouse Ville Durable"'}, {'profile_url': 'https://www.linkedin.com/in/jade-roulamellah-5062b41a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADChwNYB86jBq_hwgRyjMM7XFeAZlSaH3EE', 'person_name': 'Jade Roulamellah', 'profile_description': 'Chargée de recrutement IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/clarisse-gast%C3%A9-recruitment?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7gcAwBLYT-J-cjLhMe5SI2P9kNhjTmepc', 'person_name': 'Clarisse Gasté', 'profile_description': 'Talent Acquisition IT🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-merrien?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjFDmcBHbstIRbwmnO61yzDFRKLd1BvRT8', 'person_name': 'Mathilde Merrien', 'profile_description': 'Talent acquisition IT'}, {'profile_url': 'https://www.linkedin.com/in/laurinemasset?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACo3TFoBmlyuOKrVZ0cLjTYdhDmBvwaMW14', 'person_name': 'Laurine Masset', 'profile_description': 'Business Developer chez LeHibou 🦉'}, {'profile_url': 'https://www.linkedin.com/in/girel-cl%C3%A9ment-55a23392?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOcglYBqAFjoGQm5O3FJMJhMCYxmbcbgGA', 'person_name': 'Girel Clément', 'profile_description': 'Directeur chez Clam'}, {'profile_url': 'https://www.linkedin.com/in/victoire-h%C3%BCrstel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhqZrUBggmDFGoE-hBUCZHrCx1tRanTitM', 'person_name': 'Victoire Hürstel', 'profile_description': 'Marketing Digitale🦉LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/maximearcari?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3Lap4BVXcBCzmtTV0bx4iUS1PzL4abdcY', 'person_name': 'Maxime Arcari', 'profile_description': 'I connect ambitious companies with the largest freelance IT network on the market 🦉 🇧🇪'}, {'profile_url': 'https://www.linkedin.com/in/simon-desrues?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQKRoIB0xw3gEIue4GXm8kcTRyVqCiyc90', 'person_name': 'Simon Desrues', 'profile_description': 'Chargé de Growth Marketing @LeHibou🦉// M1 Digital Marketing à l’ESSCA Paris'}, {'profile_url': 'https://www.linkedin.com/in/gerome-billault-54473ba4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYtlEQBK98NYDviCcHGYA82644C9i1ffCI', 'person_name': 'Gerome Billault', 'profile_description': "ingénieur d'études et développement"}, {'profile_url': 'https://www.linkedin.com/in/thomasmeurinb2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2AhVcB1msskB8jLFjLBILbMmsP4VxgBok', 'person_name': 'Thomas Meurin', 'profile_description': 'Account Executive @LeHibou l FT NEXT 120'}, {'profile_url': 'https://www.linkedin.com/in/julie-d-91a9aa104?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp83qYBkZiozEV5wSD-gmT-0WQC4GiHooc', 'person_name': 'Julie D.', 'profile_description': 'Directrice Administrative et Financière'}, {'profile_url': 'https://www.linkedin.com/in/justine-pooroosotun-62ba96248?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD1ifQMBJUcwey-gVGrl4jw61NSm71tBdY0', 'person_name': 'Justine Pooroosotun', 'profile_description': 'Assistante Administrative | LeHibou🦉| French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/justine-l-41a4a6288?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEXXBNYBE64QjYDxnEHjdj6u0dJEeP-BZ-U', 'person_name': 'Justine L.', 'profile_description': 'Mulesoft Developer'}, {'profile_url': 'https://www.linkedin.com/in/corentin-vall%C3%A9e?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZcBSgBNKVUFdqEe7uUr2jFEXNdaK8bw7M', 'person_name': 'Corentin Vallée', 'profile_description': 'Talent Acquisition Manager IT🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/jessicajosub?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABr4L6IBZpvvzbUfNRPwqsSykWXJIeddSR8', 'person_name': 'Jessica Josub', 'profile_description': 'Matching Team Manager 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/conquetmarlene?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZmJKUB3wsShZQA0Aroo0bzXRuMFdOL_bU', 'person_name': 'Marlène Conquet', 'profile_description': 'Head of Matching 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/antoinebarbierdechalais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi08DQBMlRMKG5RXKmzmwaiFa_O8X2C7FQ', 'person_name': 'Antoine Barbier de Chalais', 'profile_description': 'Responsable Région PACA'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9lo%C3%AFsevigne?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkxwPUBuulhkiQjjB6WMJDYzjX8y6TFuog', 'person_name': 'Héloïse Vigne', 'profile_description': 'Impact Manager 🦉LeHibou | FrenchTech 120 #GreenIT #RSE #Futureofwork'}, {'profile_url': 'https://www.linkedin.com/in/in%C3%A8s-a41985150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRzm5EB56OPBserHOUnXQE68oVi7CB745A', 'person_name': 'Inès Paillades', 'profile_description': 'Talent Acquisition Recruiter IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ah-gonthier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkkr9QBl7k1VVMzLJacjXWNTd4uz_0nRnk', 'person_name': 'Cléah Gonthier', 'profile_description': 'Chargée de matching IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/audrey-lambert-b82889257?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD9P21IBGBFEAi02ezbjNhK25KVj3nvq06c', 'person_name': 'Audrey Lambert', 'profile_description': 'Gestionnaire adv chez LEHIBOU'}, {'profile_url': 'https://www.linkedin.com/in/tom-decorte?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAECD8fMBYc5Kz1Lf81XhtIctfgYV4P7X6Uc', 'person_name': 'Tom Decorte', 'profile_description': 'Chargé de recrutement IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/janhavi-conhyea-729144201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADN0vxEBD5FIfkb7PSAbRgWO5uvldZVGrKE', 'person_name': 'Janhavi Conhyea', 'profile_description': 'Assistante Administrative | LeHibou🦉| French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9cile-grondin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoqBBgBdwV1-qytJfrFLkIoORXZhNlxp-0', 'person_name': 'Cécile GRONDIN', 'profile_description': 'Talent Recruiter IT 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/joannacullati?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjeYN8Bu3P75pz76LsuAha-j5KtfXzyNcA', 'person_name': 'Joanna Cullati', 'profile_description': 'Assistante administration des ventes LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/lorie-plaiche-722b07244?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADytN0oBll9hT_3YpSawMrOwuQMHyJ7yPFs', 'person_name': 'Lorie Plaiche', 'profile_description': 'User care operator / Office manager🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/juliette-cougnoux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfRu_kBP3eqNc1OCvfobR6NbMcCo-omZrs', 'person_name': 'Juliette COUGNOUX', 'profile_description': 'Développeuse Backend Node.js/NestJS 🦉 LeHibou | French Tech 120'}, {'profile_url': 'https://www.linkedin.com/in/antoine-coutin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACisQnEB6G5srUYh0K8BiXSNEL7VrRS66GU', 'person_name': 'Antoine Coutin', 'profile_description': 'Proxy Product Owner chez LeHibou'}, {'profile_url': 'https://www.linkedin.com/in/leslianne-augustin-356213169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACgTjzIBm-E1rbM67WZwYl8PxgQz8aE_77Y', 'person_name': 'Leslianne Augustin', 'profile_description': 'Administrative assistant'}, {'profile_url': 'https://www.linkedin.com/in/rapha%C3%ABl-d-8b14691a9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADCn58UBwXZulijj34ECSY-L9PgFKfHTHJE', 'person_name': 'Raphaël D.', 'profile_description': 'Lead Front-end Developer'}, {'profile_url': 'https://www.linkedin.com/in/david-ramos-web?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAyaHJIB7fqaUd2SaJ1T9FMyyp2BmRT6tmE', 'person_name': 'David Ramos', 'profile_description': 'Lead Full Stack Développeur'}, {'profile_url': 'https://www.linkedin.com/in/julie-bavais-191490150?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRgyf0BBMNYZtiWahNyjmFobic6ukGuSFM', 'person_name': 'Julie Bavais', 'profile_description': 'Administrative assistant at LeHibou'}]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>83,4 %</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>516,85 %</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>47.758.489 €</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>7.742.299 €</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>19</v>
+      </c>
+      <c r="R56" t="n">
+        <v>10</v>
+      </c>
+      <c r="S56" t="n">
+        <v>63</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/christophe-de-becdelievre-859236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAIuEUBcB2xBZ7_THW82CI-HZ3neztKEd8</t>
+      <c r="A57" t="n">
+        <v>34</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edflex </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.edflex.com/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['+33 (0) 9 78 45 06 96', '+33(0)978450696', '+33978450696']</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/edflex-fr</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/johnny-cottereau-5424aa211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWk8IIB8pZoVSjqmUBUvrqK42eCmWA36Ds', 'person_name': 'Johnny Cottereau', 'profile_description': 'CTO chez Edflex | We‘re hiring 🚀'}</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>CTO chez Edflex | We‘re hiring 🚀</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/johnny-cottereau-5424aa211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWk8IIB8pZoVSjqmUBUvrqK42eCmWA36Ds</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/lisa-desnos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_5mrwBL4mD2ilQkl4LETfUeHX-xxlIecE', 'person_name': 'Lisa Desnos', 'profile_description': 'Account Manager @Edflex 💻'}, {'profile_url': 'https://www.linkedin.com/in/cyrille-brouiller-1262b191?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNxam4BEwyeC0CJbqgeEq7bDGmr3jvRhHY', 'person_name': 'Cyrille Brouiller', 'profile_description': 'Sales Operations @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/pierre-olivier-carli-147392105?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqTG0cBEbPI9otsUply_dCVhXh8ngWE_3o', 'person_name': 'Pierre-Olivier Carli', 'profile_description': 'Strategic Partnerships and Alliances Director'}, {'profile_url': 'https://www.linkedin.com/in/david-cornec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcMFBIBMiBveP0f56YNdS3HWuboCQEQHlU', 'person_name': 'David Cornec', 'profile_description': 'Sales Development Representative @Edflex - SaaS'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-buffet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPj0qEBJg84ayy3EXWBDRx106nJj9Tzu4g', 'person_name': 'Jérémy Buffet', 'profile_description': 'Team Lead SDR/BDR - Sales'}, {'profile_url': 'https://www.linkedin.com/in/mats-fournier-foch-43407992?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOWVigBlp_HdhObrtlssuNKjgd5rovvjvE', 'person_name': 'Mats Fournier-Foch', 'profile_description': 'Learning and development specialist'}, {'profile_url': 'https://www.linkedin.com/in/camillefauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA22xcsBufNz_A1_Ix964NUjRP0V2EcPS-E', 'person_name': 'Camille Fauveau', 'profile_description': 'Product Manager | Expertise en formation digitale 💡 | Gestion de projet 🎯 | Stratégie produit 🤩'}, {'profile_url': 'https://www.linkedin.com/in/cedric-corbineau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOMtoABcG-VLqfailwrcD2D1o4n946eCEE', 'person_name': 'Cédric Corbineau', 'profile_description': 'Product owner chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/raphael-camuset-pro?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaul74BojMt396XBMZ3omcjIqXD9PJ7Jjc', 'person_name': 'Raphael Camuset', 'profile_description': 'Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-hercou%C3%ABt-48327b114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByEG-MBSgzZr8GavJzwt4xbJr2aK1pIC6o', 'person_name': 'Clément Hercouët', 'profile_description': 'Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/elo%C3%AFse-hacquart-84978513a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHuInkBD9BUjxc8pR2ljVwrSKvLJEM1UaU', 'person_name': 'Eloïse Hacquart', 'profile_description': 'Sales @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gr%C3%A9goire-du-chaylard-edflex-elearning?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEwwRMBSxNfGY4n7YYXs_3KWFyzokio0Rs', 'person_name': 'Grégoire du Chaylard', 'profile_description': 'Enterprise Account Executive - Je connecte les entreprises et leurs salariés avec le meilleur de la formation grâce à Edflex | SaaS | Edtech'}, {'profile_url': 'https://www.linkedin.com/in/philippe-riveron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt6Rd8BpMpPC6GZ2oj-dtUwJGtlH1D9LoM', 'person_name': 'Philippe Riveron', 'profile_description': 'Founder &amp; Chairman @edflex | Learning and development enthusiast | innovator | speaker | entrepreneur | passionate about people, technology and Open Education | Forbes Human Resources Council Official Member.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mentine-tallet-edflex?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeLWUUB69eVr9VGaL2EvhFGEY9yqZswcRE', 'person_name': 'Clémentine Tallet', 'profile_description': "Senior Account Executive chez Edflex | Favorisez l'apprentissage au sein de votre organisation grâce au digital learning 🧠"}, {'profile_url': 'https://www.linkedin.com/in/francescabonavita?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFrpzEBNr5pCZD1awWlxL0S3NXQbriixT0', 'person_name': 'Francesca Bonavita', 'profile_description': 'VP Customer Success &amp; Client Opérations @edflex'}, {'profile_url': 'https://www.linkedin.com/in/raphael-dollat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOoNq4Bs2lacTKRybybpQwBi11tQmVBhP0', 'person_name': 'Raphaël Dollat', 'profile_description': 'Head of Learning Content chez EdFlex'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-glaser-818ba678?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCM2xQBn4Sp6mYA1EFTHQV6Ue_7LbvKwmk', 'person_name': 'Alexandre Glaser', 'profile_description': 'VC @Educapital'}, {'profile_url': 'https://www.linkedin.com/in/thomas-bonjour-401b5a47?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAn1jsEBzj-6FC0iUVw4weZ_YC2JhU7X70w', 'person_name': 'Thomas Bonjour', 'profile_description': "🌍Impact Investing VC 🔹 Arkéa Capital 🔹 We Positive Invest 🔹 Chargé d'affaires Impact"}, {'profile_url': 'https://www.linkedin.com/in/allison-souvignon-80804b32?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbE8sgB7ILB1VtVecqpbqzZFgRgFjXG8Wg', 'person_name': 'Allison Souvignon', 'profile_description': 'Strategic Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/corentinroger?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi-m5AB1FXT03Ybi7bOJLXwlZ1fSS_tJSU', 'person_name': 'Corentin Roger', 'profile_description': 'Customer Success Manager #Edflex'}, {'profile_url': 'https://www.linkedin.com/in/thibaut-adrian-03b64997?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSP-O8BAu0PDOuM_H7ognoP-E5gUq-jqnA', 'person_name': 'Thibaut Adrian', 'profile_description': 'VP Finance @Edflex, B2B SaaS for Open Education 📖'}, {'profile_url': 'https://www.linkedin.com/in/candice-morissonneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABKZQ8AB3Zlp1-vc6Gb3LlX6V__NoYt3jkQ', 'person_name': 'Candice Morissonneau', 'profile_description': 'Finance Ops @Edflex, B2B SaaS for Open Education 📖'}, {'profile_url': 'https://www.linkedin.com/in/victorlutreau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABLXtugBI2VwnQvAGMGlNMOnrF7eMfFnZHA', 'person_name': 'Victor Lutreau', 'profile_description': 'Sales Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/rdroissart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYE6egBPh2GDeIJs4jp2VmrgBfOY8UHDoA', 'person_name': 'Raphaël Droissart', 'profile_description': 'Co-Founder &amp; COO @ Edflex'}, {'profile_url': 'https://www.linkedin.com/in/cyrilpetit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARejhwBuPkLega2H2KuYfFWwbOB6n5hHTI', 'person_name': 'Cyril Petit', 'profile_description': 'VC Investor'}, {'profile_url': 'https://www.linkedin.com/in/clement-meslin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvHuScB9Nus8s-DxQgr-HuxaVkxqWhIf1s', 'person_name': 'Clément Meslin', 'profile_description': 'Founder &amp; CEO @Edflex | Speaker #Edtech | Host @LearningClub 🎙️'}, {'profile_url': 'https://www.linkedin.com/in/carolevendehauray?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAALiLNoBO_HkPZ-P7CDbia5xXWdjvVLsak0', 'person_name': 'Carole Vendé', 'profile_description': 'VP People &amp; Impact'}, {'profile_url': 'https://www.linkedin.com/in/eva-gerault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUJfwBeMnaA9FqRr-1SdB8QOgKkUQ1tbc', 'person_name': 'Eva Gérault', 'profile_description': 'Team Lead Account Manager @Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/manon-cousin-glorieux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-O3JoB-juOZgv42D6wjkuYpxGJK2TPqnA', 'person_name': 'Manon Cousin Glorieux', 'profile_description': '✍🏼 Content manager @Edflex • Connecter les organisations avec le meilleur de la formation👩\u200d🎓'}, {'profile_url': 'https://www.linkedin.com/in/jcgascoin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMQlucBPlMPCeTW4Dz7gTAHbfScJOVPciA', 'person_name': 'Jean-Charles G.', 'profile_description': 'VP Sales @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gaspardschmitt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA5pipIBk_vXBXQtKVSyBM_i-0xTYGEmHI4', 'person_name': 'Gaspard SCHMITT', 'profile_description': 'Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/opheliemallard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFMJ1oBg4dOWPepwdy2_gnCeEVHumuPCXg', 'person_name': 'Ophélie Mallard', 'profile_description': 'Learning Content Manager'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-lechelle-a518b0182?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACs0AN0By9_RrrB5RqtyJlryqGvycPraWfU', 'person_name': 'Loïc Lechelle', 'profile_description': 'Account Executive @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/laura-giacomuzzi-a929a7160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaXC04BGKI1nEIRkqfty0I-eIR341hgMBk', 'person_name': 'Laura Giacomuzzi', 'profile_description': 'Growth Marketing Manager'}, {'profile_url': 'https://www.linkedin.com/in/antoine-ricci?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWmeVkBChTqXkjSc_SBxoIBEA3qwDc0KAM', 'person_name': 'Antoine Ricci', 'profile_description': 'Développeur back-end PHP/Symfony - 100% remote 🚀'}, {'profile_url': 'https://www.linkedin.com/in/dorian-roos-b0769784?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHmFncBc1qEFwD3FsRtBqAcNTW-VX_ACAc', 'person_name': 'Dorian Roos', 'profile_description': 'Ingénieur DevOps / Dev Back Symfony'}, {'profile_url': 'https://www.linkedin.com/in/morgan-carval-4003037?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFKaoABTGugl6pUGtUtcPkb08bYwtiHeRI', 'person_name': 'MORGAN CARVAL', 'profile_description': 'Director, Impact Investing at Arkéa Capital'}, {'profile_url': 'https://www.linkedin.com/in/xavier-le-gouard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-h1CoB497pggKVrsBp50ZVqkpBvuqCnVI', 'person_name': 'Xavier Le Gouard', 'profile_description': 'Engineering Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/lucie-bullot-714440136?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACErGAABnWl0fklYtJtl1F8tg0WjrdHY-GM', 'person_name': 'Lucie Bullot', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/vincent-allegre-b1b295120?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB3xGQcBjCwhPNp2x9Je54Gu_ebptbkZqe8', 'person_name': 'Vincent Allegre', 'profile_description': 'Account executive'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-tassel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPhXVsBzCQyKmK_0BnZOllU4nXw9RUKSZc', 'person_name': 'Charlotte Tassel', 'profile_description': 'VP Marketing @Edflex-fr'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mence-paquier-a67270261?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEBJ5O8B6BoscbRXfQ3Y3HufsJHemoplRKk', 'person_name': 'Clémence Paquier', 'profile_description': 'Cheffe de projet digital marketing @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-charby?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqoxnUB6HKpz6fuhYKTOhM7RedFmEe1VLI', 'person_name': 'Mathilde CHARBY', 'profile_description': 'People Officer at Edflex | We‘re hiring 🚀'}, {'profile_url': 'https://www.linkedin.com/in/anaig-audrain-6b8454148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOpY-wBQmgTgSNLvYvsWiWTcPDj6VWtxeg', 'person_name': 'Anaig Audrain', 'profile_description': 'Communication Project Manager'}, {'profile_url': 'https://www.linkedin.com/in/remi-lesaint?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ5ao0Blg0xHV4zMdx1zITUrHg5csZz7Kk', 'person_name': 'Rémi Lesaint', 'profile_description': 'Co-founder &amp; CPO at Edflex'}, {'profile_url': 'https://www.linkedin.com/in/laura-cassin-95a489127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB83ahYBqUbUnTmZh-QDQW00pfyPg10CPbU', 'person_name': 'Laura Cassin', 'profile_description': 'Head of Customer Success Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/clement-gentile-3a1430128?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9jJSkBfOQcqEKjWVzDLuCxT_Ibn3FOTUU', 'person_name': 'CLEMENT GENTILE', 'profile_description': 'Strategic Account Executive chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/enzo-parm%C3%A9-378587198?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5b9UwBHEQmTqdUi8tMNNsgcC6kbkAYuzo', 'person_name': 'Enzo Parmé', 'profile_description': 'Learning Content Manager (spé Data / IA)'}, {'profile_url': 'https://www.linkedin.com/in/lucas-etienne?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB2U3-gBK_ugj-WgZN0MUMup2rS0Qx07kQY', 'person_name': 'Lucas Etienne 🎓', 'profile_description': 'Business Developer | Specialist en Solutions d’E-learning chez Edflex | Accélérateur de Compétences en SaaS &amp; Edtech'}, {'profile_url': 'https://www.linkedin.com/in/timotheepoulain?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJ8xmUBKug8u1kSUzx-zItqayeIzelmr1Y', 'person_name': 'Timothée Poulain', 'profile_description': 'Partner at Ternel｜early-stage tech &amp; impact investor'}, {'profile_url': 'https://www.linkedin.com/in/maelle-ouice-161894200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNjVNkBdGVC6yrz3djOlhfuzZwqFAaCWTA', 'person_name': 'Maelle Ouice', 'profile_description': 'Cheffe de projet Communication, EDFLEX.'}, {'profile_url': 'https://www.linkedin.com/in/sarralili?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCv-RMBSrylmhKgI1NEZGxumOU8q4hQXmg', 'person_name': 'Sarah Lili', 'profile_description': 'CSM / Chef de projet digital chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/maxime-piton-b962435?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADsxuIBMcAHMJqRngLcPxSZwoGhejYqkug', 'person_name': 'Maxime Piton', 'profile_description': 'DevOps/Infra Tech Lead at Edflex'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%A9mie-racineux-842490114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByMDbIBMn0PmsAiAx93x4CfD_yrUs9y3XI', 'person_name': 'Noémie Racineux', 'profile_description': 'Customer Success Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/emilie-jarry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABDwWgcBQzq6C9IWoWe3ZYPmfGuCe9X9Lkk', 'person_name': 'Emilie JARRY', 'profile_description': 'Learning Project Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/yannspatafora?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByfh5UBMEcA9rYRRcxW0X0yK1f8bhDGX4c', 'person_name': 'Yann Spatafora', 'profile_description': 'VC @Ternel | Impact Early-Stage'}, {'profile_url': 'https://www.linkedin.com/in/abdoul-hakim-diallo?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACX_nRYBF8ca3hq00SrprJmlOhhrN0uqOj0', 'person_name': 'Abdoul Hakim Diallo', 'profile_description': 'Learning Quality Content Manager'}, {'profile_url': 'https://www.linkedin.com/in/johnny-cottereau-5424aa211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWk8IIB8pZoVSjqmUBUvrqK42eCmWA36Ds', 'person_name': 'Johnny Cottereau', 'profile_description': 'CTO chez Edflex | We‘re hiring 🚀'}, {'profile_url': 'https://www.linkedin.com/in/morgane-rouyer?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBRlaYBS4glSO7VI6kQlotiEoutweJbVmM', 'person_name': 'Morgane Rouyer', 'profile_description': 'Senior Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/florian-bousseaud-57687275?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_3t6oB26ITQdl4d4Qm2EBKM4msYScD2Vw', 'person_name': 'Florian BOUSSEAUD', 'profile_description': 'Développeur back-end chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/romcol?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNN3y8BOebX60Y14RxBGnhS-0cfX4iVNhc', 'person_name': 'Romain Colombat', 'profile_description': 'Développeur Front-End @ Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/mario-baldi-1bb75077?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBOWh8BMJ4XXo4vOviNX2sCMber7aAwNZE', 'person_name': 'Mario Baldi', 'profile_description': 'Senior Software Engineer presso EdFlex Italia'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-charby-342471250?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4BL6IB82N564B_UMdDFI3ku9ILAaNWBzs', 'person_name': 'Mathilde Charby', 'profile_description': 'People officer chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/romanrobert-sales?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxPJkQBwZqRGM9eoWq4tTo_gfe__o6X8C0', 'person_name': 'Robert Rolland Roman', 'profile_description': 'SENIOR EMEA Account Executive ♦ SaaS "Maverick" ex Citrix/ Cisco/ Docebo (14K+)'}, {'profile_url': 'https://www.linkedin.com/in/rubine-mongali-1ab122137?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFMrJMB40HFWRJirjhz9A2eM_EnzchXR7A', 'person_name': 'Rubine MONGALI', 'profile_description': 'People Manager'}, {'profile_url': 'https://www.linkedin.com/in/arianna-graziano-152822194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2vEE4BfSBx_9o4ljZ831_wKjqdFN1zvTI', 'person_name': 'Arianna Graziano', 'profile_description': 'Customer Success – Product Specialist presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/charly-billaud-077006135?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtONsBg_R5fBeftsksh0tP2B2A5jCKelI', 'person_name': 'Charly Billaud', 'profile_description': 'Développeur Back-End - PHP Symfony chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/jade-enouf-442974221?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADfZkHIBgTYMfCS87iNyBT-FQH9ZfpCGJPg', 'person_name': 'Jade Enouf', 'profile_description': 'Etudiante en communication ✨👩\u200d🎓'}, {'profile_url': 'https://www.linkedin.com/in/simon-patrat-07260a110?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvay9YBLe741YhKZr8LzqJOWtdO8IhGaWQ', 'person_name': 'Simon Patrat', 'profile_description': 'Lead front-end developer chez Edflex France'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-martineau-%F0%9F%8C%B8-7a993782?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGUcrEBv7fsluAhonLJegn_hs3z8ztHTvw', 'person_name': 'Chloé Martineau 🌸', 'profile_description': 'Customer Success &amp; Onboarding | Professional Services | Management | Ecommerce'}, {'profile_url': 'https://www.linkedin.com/in/davideconforti?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADtkuEBa2weKDN7buz6dRQCXrPLTPv5lyU', 'person_name': 'Davide Conforti', 'profile_description': 'Managing Director at Edflex Italia, Closing Skill Gaps.'}, {'profile_url': 'https://www.linkedin.com/in/peggyheinen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1G-RsBnNBEG78RrsSFJPr92NK_A8OOxuI', 'person_name': 'Peggy Heinen', 'profile_description': 'Learning Project Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/jean-christophe-corre-0807031b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLT-KAB5WYpT3b6Li_sbqE7Lt7-mxa42WA', 'person_name': 'Jean-Christophe CORRE', 'profile_description': 'Ingénieur étude et développement chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gabriellelair?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQtMvcBJBZLQujvV4UAwGf_fR6ldjSTOC8', 'person_name': 'Gabrielle Lair', 'profile_description': 'Customer Success Manager 🤝'}, {'profile_url': 'https://www.linkedin.com/in/thomas-guillet-3558a4106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrUBvEBsLsVVMmTP8z82BqvFtYE-G3V1rQ', 'person_name': 'Thomas Guillet', 'profile_description': 'Software Developer @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/damien-vauchel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHcuywBwiL1WkTjh6RwMNNajx3l43vMzj4', 'person_name': 'Damien Vauchel', 'profile_description': 'Software Developer chez EdFlex - Chroniqueur comics chez Sanctuary.fr'}, {'profile_url': 'https://www.linkedin.com/in/fabrice-labbe-631437b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeOlcUBvfb4dM98UNep--nn4ROaFdMI7rE', 'person_name': 'fabrice labbe', 'profile_description': 'Développeur JS sénior chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/browningoliver?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABDgWsBje5sCRJ0T2z9dtrJPJ4TuhPJxqI', 'person_name': 'Ollie Browning, FLPI', 'profile_description': 'Country Manager | GTM Leader | Proud dad of 3'}, {'profile_url': 'https://www.linkedin.com/in/coraliebourdonnec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmyigYBp3gFRU58jmUd7bBaQ2f4nktwKIw', 'person_name': 'Coralie Bourdonnec', 'profile_description': 'Learning Project Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/samuel-serot-a3059a49?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAo7LkQBIbAlgP4YopeJgMQncwLfq6yX1IA', 'person_name': 'Samuel SEROT', 'profile_description': 'Tech lead chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/axelle-paulus-a7868b12b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_1UDwBV6j9Exg8yDPlk413WutUHSe79X4', 'person_name': 'Axelle Paulus', 'profile_description': 'Learning Content Expert @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/valentina-garbin-56511418a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACyC2x0B2NW3egyvMq9IV5cdWBUA3FkYfBE', 'person_name': 'Valentina Garbin', 'profile_description': 'Customer Success Operations Assistant'}, {'profile_url': 'https://www.linkedin.com/in/sophie-i-30655015b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZYgrYB2R_idvb06tLPDbL_QwtmoYIL9Dc', 'person_name': 'Sophie I.', 'profile_description': 'People &amp; Culture/ RRH'}, {'profile_url': 'https://www.linkedin.com/in/tscoarnec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpgmAIB_umXlL18e-xhKBC-lKeXD6eEWuA', 'person_name': 'Thomas Scoarnec', 'profile_description': 'Développeur Front-End'}, {'profile_url': 'https://www.linkedin.com/in/elisasantimone?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABV_XusBpqSVnbRcUJUPPtq7TqspnSH5Bds', 'person_name': 'Elisa Santimone', 'profile_description': 'Enterprise Account Executive @Edflex | Ex Uber'}, {'profile_url': 'https://www.linkedin.com/in/maria-giovanna-lanfranchi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcTVTYBy3UzynpivHJIqcr8hE46n0jXSfE', 'person_name': 'Maria Giovanna Lanfranchi', 'profile_description': 'Marketing manager presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/melissa-neveu-design?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQX7jABzcJA0B9tJVH7Z57Nk6ecfYUqI_c', 'person_name': 'Mélissa N.', 'profile_description': 'Creative Lead, Edflex &amp; Branding Creation, Freelance'}, {'profile_url': 'https://www.linkedin.com/in/audrey-calvier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACp9gKoBP0fLH5LUZtm9WpXFWsyHBcfYUlg', 'person_name': 'Audrey Calvier', 'profile_description': 'Head of Product Marketing chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/annesophiegutierrez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAdJd0oB98eYXE277Bt9a1_n5zigs2OPgZY', 'person_name': 'Anne-Sophie Gutierrez Gaborit', 'profile_description': 'Customer Communications Manager'}, {'profile_url': 'https://www.linkedin.com/in/wongelena?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeT8L4BBiQ3JPOXmQknQ-aDZbz0cyQuCU0', 'person_name': 'Elena Wong', 'profile_description': 'Edflex Product Designer ✨ Créatrice Collection Gévaudan'}, {'profile_url': 'https://www.linkedin.com/in/clothildelecose?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkg7vwBpQpsAliFF8ytNhyS2zU-d9Y93cI', 'person_name': 'Clothilde Le Cose', 'profile_description': 'Tech Implementation Manager'}, {'profile_url': 'https://www.linkedin.com/in/julia-minier-b30a6a1b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGih9QBxoy412rZ1urjnaIA3h5CeaZsu1E', 'person_name': 'Julia Minier', 'profile_description': 'Customer Success Manager @Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/stephaniebeaufort?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADx89sBNBYbUIFn0h4jhISN95DxJb-MO3w', 'person_name': 'Stephanie Beaufort', 'profile_description': 'Content is king! Delivering &amp; growing cutting-edge distribution solutions for content: music, gaming, learning. Maximizing revenue through win-win partnerships'}, {'profile_url': 'https://www.linkedin.com/in/santa-gelao-3008a091?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOH27AB_PVEVnlhlGaTqoiM-Y87DYroRI4', 'person_name': 'Santa Gelao', 'profile_description': 'Customer Success - Content &amp; Support Specialist presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/antoine-robert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAK1LfkBp5N_dLCwPA-buxlQwpU5I9fibu8', 'person_name': 'Antoine R.', 'profile_description': 'Senior software developer'}, {'profile_url': 'https://www.linkedin.com/in/matteocaberlotto?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMfOVIBgGK605rnp_gdqG1U7j-_sLkGfWM', 'person_name': 'Matteo Caberlotto', 'profile_description': 'Head of Tech'}, {'profile_url': 'https://www.linkedin.com/in/muriel-hamon-00b8b447?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAnr5gsBoFWgGrsNYU9eIZZjf0Ni3KhlfKw', 'person_name': 'Muriel Hamon', 'profile_description': 'Customer Success Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/mpasqualini?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACIYOIBM-NmabANTH3LW2MaUNabBTnA95M', 'person_name': 'Marco Pasqualini', 'profile_description': 'Senior Software Engineer at EdFlex Italia'}, {'profile_url': 'https://www.linkedin.com/in/elia-rinaldo-ab7758289?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEYOdSsBB2r0tr_qBn193zUm68iy1z0T1gc', 'person_name': 'Elia Rinaldo', 'profile_description': 'SDR presso EdFlex Italia 📈- Allenatore Uefa C ⚽️- USD Olginatese ⚫️⚪️ - Match Analyst 💻'}, {'profile_url': 'https://www.linkedin.com/in/francesco-carante-03b32b2a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYZcG8BGpBhZDY4OoiyJ2kiFgk-FEz_Fq0', 'person_name': 'Francesco Carante', 'profile_description': 'Managing Director presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/marilena-baldi-246916122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5kRtYBaPVHrTWAe-EkSOKahfRpHK6gXCw', 'person_name': 'Marilena Baldi', 'profile_description': 'Software Engineer'}, {'profile_url': 'https://www.linkedin.com/in/anna-ferrari-8a4b6392?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO_ozwBb_NJHElVLslaF4f42rq7l8dZJ_0', 'person_name': 'Anna Ferrari', 'profile_description': 'Head of Customer Success at Edflex Italia'}]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>76,76 %</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>452,22 %</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>3.537.000 €</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>640.500 €</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>14</v>
+      </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>64</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Éducation, Formation professionnelle</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/rapha%C3%ABl-perchec-1726b682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGLjGYB9pFS1XJQc6Ptr9b-UhvNahiLMts</t>
+      <c r="A58" t="n">
+        <v>34</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edflex </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.edflex.com/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['+33 (0) 9 78 45 06 96', '+33(0)978450696', '+33978450696']</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/edflex-fr</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/rdroissart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYE6egBPh2GDeIJs4jp2VmrgBfOY8UHDoA', 'person_name': 'Raphaël Droissart', 'profile_description': 'Co-Founder &amp; COO @ Edflex'}</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Co-Founder &amp; COO @ Edflex</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rdroissart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYE6egBPh2GDeIJs4jp2VmrgBfOY8UHDoA</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/lisa-desnos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_5mrwBL4mD2ilQkl4LETfUeHX-xxlIecE', 'person_name': 'Lisa Desnos', 'profile_description': 'Account Manager @Edflex 💻'}, {'profile_url': 'https://www.linkedin.com/in/cyrille-brouiller-1262b191?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNxam4BEwyeC0CJbqgeEq7bDGmr3jvRhHY', 'person_name': 'Cyrille Brouiller', 'profile_description': 'Sales Operations @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/pierre-olivier-carli-147392105?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqTG0cBEbPI9otsUply_dCVhXh8ngWE_3o', 'person_name': 'Pierre-Olivier Carli', 'profile_description': 'Strategic Partnerships and Alliances Director'}, {'profile_url': 'https://www.linkedin.com/in/david-cornec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcMFBIBMiBveP0f56YNdS3HWuboCQEQHlU', 'person_name': 'David Cornec', 'profile_description': 'Sales Development Representative @Edflex - SaaS'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-buffet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPj0qEBJg84ayy3EXWBDRx106nJj9Tzu4g', 'person_name': 'Jérémy Buffet', 'profile_description': 'Team Lead SDR/BDR - Sales'}, {'profile_url': 'https://www.linkedin.com/in/mats-fournier-foch-43407992?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOWVigBlp_HdhObrtlssuNKjgd5rovvjvE', 'person_name': 'Mats Fournier-Foch', 'profile_description': 'Learning and development specialist'}, {'profile_url': 'https://www.linkedin.com/in/camillefauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA22xcsBufNz_A1_Ix964NUjRP0V2EcPS-E', 'person_name': 'Camille Fauveau', 'profile_description': 'Product Manager | Expertise en formation digitale 💡 | Gestion de projet 🎯 | Stratégie produit 🤩'}, {'profile_url': 'https://www.linkedin.com/in/cedric-corbineau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOMtoABcG-VLqfailwrcD2D1o4n946eCEE', 'person_name': 'Cédric Corbineau', 'profile_description': 'Product owner chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/raphael-camuset-pro?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaul74BojMt396XBMZ3omcjIqXD9PJ7Jjc', 'person_name': 'Raphael Camuset', 'profile_description': 'Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-hercou%C3%ABt-48327b114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByEG-MBSgzZr8GavJzwt4xbJr2aK1pIC6o', 'person_name': 'Clément Hercouët', 'profile_description': 'Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/elo%C3%AFse-hacquart-84978513a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHuInkBD9BUjxc8pR2ljVwrSKvLJEM1UaU', 'person_name': 'Eloïse Hacquart', 'profile_description': 'Sales @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gr%C3%A9goire-du-chaylard-edflex-elearning?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEwwRMBSxNfGY4n7YYXs_3KWFyzokio0Rs', 'person_name': 'Grégoire du Chaylard', 'profile_description': 'Enterprise Account Executive - Je connecte les entreprises et leurs salariés avec le meilleur de la formation grâce à Edflex | SaaS | Edtech'}, {'profile_url': 'https://www.linkedin.com/in/philippe-riveron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt6Rd8BpMpPC6GZ2oj-dtUwJGtlH1D9LoM', 'person_name': 'Philippe Riveron', 'profile_description': 'Founder &amp; Chairman @edflex | Learning and development enthusiast | innovator | speaker | entrepreneur | passionate about people, technology and Open Education | Forbes Human Resources Council Official Member.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mentine-tallet-edflex?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeLWUUB69eVr9VGaL2EvhFGEY9yqZswcRE', 'person_name': 'Clémentine Tallet', 'profile_description': "Senior Account Executive chez Edflex | Favorisez l'apprentissage au sein de votre organisation grâce au digital learning 🧠"}, {'profile_url': 'https://www.linkedin.com/in/francescabonavita?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFrpzEBNr5pCZD1awWlxL0S3NXQbriixT0', 'person_name': 'Francesca Bonavita', 'profile_description': 'VP Customer Success &amp; Client Opérations @edflex'}, {'profile_url': 'https://www.linkedin.com/in/raphael-dollat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOoNq4Bs2lacTKRybybpQwBi11tQmVBhP0', 'person_name': 'Raphaël Dollat', 'profile_description': 'Head of Learning Content chez EdFlex'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-glaser-818ba678?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCM2xQBn4Sp6mYA1EFTHQV6Ue_7LbvKwmk', 'person_name': 'Alexandre Glaser', 'profile_description': 'VC @Educapital'}, {'profile_url': 'https://www.linkedin.com/in/thomas-bonjour-401b5a47?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAn1jsEBzj-6FC0iUVw4weZ_YC2JhU7X70w', 'person_name': 'Thomas Bonjour', 'profile_description': "🌍Impact Investing VC 🔹 Arkéa Capital 🔹 We Positive Invest 🔹 Chargé d'affaires Impact"}, {'profile_url': 'https://www.linkedin.com/in/allison-souvignon-80804b32?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbE8sgB7ILB1VtVecqpbqzZFgRgFjXG8Wg', 'person_name': 'Allison Souvignon', 'profile_description': 'Strategic Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/corentinroger?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi-m5AB1FXT03Ybi7bOJLXwlZ1fSS_tJSU', 'person_name': 'Corentin Roger', 'profile_description': 'Customer Success Manager #Edflex'}, {'profile_url': 'https://www.linkedin.com/in/thibaut-adrian-03b64997?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSP-O8BAu0PDOuM_H7ognoP-E5gUq-jqnA', 'person_name': 'Thibaut Adrian', 'profile_description': 'VP Finance @Edflex, B2B SaaS for Open Education 📖'}, {'profile_url': 'https://www.linkedin.com/in/candice-morissonneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABKZQ8AB3Zlp1-vc6Gb3LlX6V__NoYt3jkQ', 'person_name': 'Candice Morissonneau', 'profile_description': 'Finance Ops @Edflex, B2B SaaS for Open Education 📖'}, {'profile_url': 'https://www.linkedin.com/in/victorlutreau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABLXtugBI2VwnQvAGMGlNMOnrF7eMfFnZHA', 'person_name': 'Victor Lutreau', 'profile_description': 'Sales Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/rdroissart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYE6egBPh2GDeIJs4jp2VmrgBfOY8UHDoA', 'person_name': 'Raphaël Droissart', 'profile_description': 'Co-Founder &amp; COO @ Edflex'}, {'profile_url': 'https://www.linkedin.com/in/cyrilpetit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARejhwBuPkLega2H2KuYfFWwbOB6n5hHTI', 'person_name': 'Cyril Petit', 'profile_description': 'VC Investor'}, {'profile_url': 'https://www.linkedin.com/in/clement-meslin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvHuScB9Nus8s-DxQgr-HuxaVkxqWhIf1s', 'person_name': 'Clément Meslin', 'profile_description': 'Founder &amp; CEO @Edflex | Speaker #Edtech | Host @LearningClub 🎙️'}, {'profile_url': 'https://www.linkedin.com/in/carolevendehauray?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAALiLNoBO_HkPZ-P7CDbia5xXWdjvVLsak0', 'person_name': 'Carole Vendé', 'profile_description': 'VP People &amp; Impact'}, {'profile_url': 'https://www.linkedin.com/in/eva-gerault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUJfwBeMnaA9FqRr-1SdB8QOgKkUQ1tbc', 'person_name': 'Eva Gérault', 'profile_description': 'Team Lead Account Manager @Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/manon-cousin-glorieux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-O3JoB-juOZgv42D6wjkuYpxGJK2TPqnA', 'person_name': 'Manon Cousin Glorieux', 'profile_description': '✍🏼 Content manager @Edflex • Connecter les organisations avec le meilleur de la formation👩\u200d🎓'}, {'profile_url': 'https://www.linkedin.com/in/jcgascoin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMQlucBPlMPCeTW4Dz7gTAHbfScJOVPciA', 'person_name': 'Jean-Charles G.', 'profile_description': 'VP Sales @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gaspardschmitt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA5pipIBk_vXBXQtKVSyBM_i-0xTYGEmHI4', 'person_name': 'Gaspard SCHMITT', 'profile_description': 'Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/opheliemallard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFMJ1oBg4dOWPepwdy2_gnCeEVHumuPCXg', 'person_name': 'Ophélie Mallard', 'profile_description': 'Learning Content Manager'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-lechelle-a518b0182?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACs0AN0By9_RrrB5RqtyJlryqGvycPraWfU', 'person_name': 'Loïc Lechelle', 'profile_description': 'Account Executive @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/laura-giacomuzzi-a929a7160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaXC04BGKI1nEIRkqfty0I-eIR341hgMBk', 'person_name': 'Laura Giacomuzzi', 'profile_description': 'Growth Marketing Manager'}, {'profile_url': 'https://www.linkedin.com/in/antoine-ricci?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWmeVkBChTqXkjSc_SBxoIBEA3qwDc0KAM', 'person_name': 'Antoine Ricci', 'profile_description': 'Développeur back-end PHP/Symfony - 100% remote 🚀'}, {'profile_url': 'https://www.linkedin.com/in/dorian-roos-b0769784?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHmFncBc1qEFwD3FsRtBqAcNTW-VX_ACAc', 'person_name': 'Dorian Roos', 'profile_description': 'Ingénieur DevOps / Dev Back Symfony'}, {'profile_url': 'https://www.linkedin.com/in/morgan-carval-4003037?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFKaoABTGugl6pUGtUtcPkb08bYwtiHeRI', 'person_name': 'MORGAN CARVAL', 'profile_description': 'Director, Impact Investing at Arkéa Capital'}, {'profile_url': 'https://www.linkedin.com/in/xavier-le-gouard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-h1CoB497pggKVrsBp50ZVqkpBvuqCnVI', 'person_name': 'Xavier Le Gouard', 'profile_description': 'Engineering Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/lucie-bullot-714440136?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACErGAABnWl0fklYtJtl1F8tg0WjrdHY-GM', 'person_name': 'Lucie Bullot', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/vincent-allegre-b1b295120?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB3xGQcBjCwhPNp2x9Je54Gu_ebptbkZqe8', 'person_name': 'Vincent Allegre', 'profile_description': 'Account executive'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-tassel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPhXVsBzCQyKmK_0BnZOllU4nXw9RUKSZc', 'person_name': 'Charlotte Tassel', 'profile_description': 'VP Marketing @Edflex-fr'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mence-paquier-a67270261?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEBJ5O8B6BoscbRXfQ3Y3HufsJHemoplRKk', 'person_name': 'Clémence Paquier', 'profile_description': 'Cheffe de projet digital marketing @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-charby?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqoxnUB6HKpz6fuhYKTOhM7RedFmEe1VLI', 'person_name': 'Mathilde CHARBY', 'profile_description': 'People Officer at Edflex | We‘re hiring 🚀'}, {'profile_url': 'https://www.linkedin.com/in/anaig-audrain-6b8454148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOpY-wBQmgTgSNLvYvsWiWTcPDj6VWtxeg', 'person_name': 'Anaig Audrain', 'profile_description': 'Communication Project Manager'}, {'profile_url': 'https://www.linkedin.com/in/remi-lesaint?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ5ao0Blg0xHV4zMdx1zITUrHg5csZz7Kk', 'person_name': 'Rémi Lesaint', 'profile_description': 'Co-founder &amp; CPO at Edflex'}, {'profile_url': 'https://www.linkedin.com/in/laura-cassin-95a489127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB83ahYBqUbUnTmZh-QDQW00pfyPg10CPbU', 'person_name': 'Laura Cassin', 'profile_description': 'Head of Customer Success Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/clement-gentile-3a1430128?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9jJSkBfOQcqEKjWVzDLuCxT_Ibn3FOTUU', 'person_name': 'CLEMENT GENTILE', 'profile_description': 'Strategic Account Executive chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/enzo-parm%C3%A9-378587198?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5b9UwBHEQmTqdUi8tMNNsgcC6kbkAYuzo', 'person_name': 'Enzo Parmé', 'profile_description': 'Learning Content Manager (spé Data / IA)'}, {'profile_url': 'https://www.linkedin.com/in/lucas-etienne?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB2U3-gBK_ugj-WgZN0MUMup2rS0Qx07kQY', 'person_name': 'Lucas Etienne 🎓', 'profile_description': 'Business Developer | Specialist en Solutions d’E-learning chez Edflex | Accélérateur de Compétences en SaaS &amp; Edtech'}, {'profile_url': 'https://www.linkedin.com/in/timotheepoulain?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJ8xmUBKug8u1kSUzx-zItqayeIzelmr1Y', 'person_name': 'Timothée Poulain', 'profile_description': 'Partner at Ternel｜early-stage tech &amp; impact investor'}, {'profile_url': 'https://www.linkedin.com/in/maelle-ouice-161894200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNjVNkBdGVC6yrz3djOlhfuzZwqFAaCWTA', 'person_name': 'Maelle Ouice', 'profile_description': 'Cheffe de projet Communication, EDFLEX.'}, {'profile_url': 'https://www.linkedin.com/in/sarralili?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCv-RMBSrylmhKgI1NEZGxumOU8q4hQXmg', 'person_name': 'Sarah Lili', 'profile_description': 'CSM / Chef de projet digital chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/maxime-piton-b962435?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADsxuIBMcAHMJqRngLcPxSZwoGhejYqkug', 'person_name': 'Maxime Piton', 'profile_description': 'DevOps/Infra Tech Lead at Edflex'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%A9mie-racineux-842490114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByMDbIBMn0PmsAiAx93x4CfD_yrUs9y3XI', 'person_name': 'Noémie Racineux', 'profile_description': 'Customer Success Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/emilie-jarry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABDwWgcBQzq6C9IWoWe3ZYPmfGuCe9X9Lkk', 'person_name': 'Emilie JARRY', 'profile_description': 'Learning Project Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/yannspatafora?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByfh5UBMEcA9rYRRcxW0X0yK1f8bhDGX4c', 'person_name': 'Yann Spatafora', 'profile_description': 'VC @Ternel | Impact Early-Stage'}, {'profile_url': 'https://www.linkedin.com/in/abdoul-hakim-diallo?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACX_nRYBF8ca3hq00SrprJmlOhhrN0uqOj0', 'person_name': 'Abdoul Hakim Diallo', 'profile_description': 'Learning Quality Content Manager'}, {'profile_url': 'https://www.linkedin.com/in/johnny-cottereau-5424aa211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWk8IIB8pZoVSjqmUBUvrqK42eCmWA36Ds', 'person_name': 'Johnny Cottereau', 'profile_description': 'CTO chez Edflex | We‘re hiring 🚀'}, {'profile_url': 'https://www.linkedin.com/in/morgane-rouyer?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBRlaYBS4glSO7VI6kQlotiEoutweJbVmM', 'person_name': 'Morgane Rouyer', 'profile_description': 'Senior Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/florian-bousseaud-57687275?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_3t6oB26ITQdl4d4Qm2EBKM4msYScD2Vw', 'person_name': 'Florian BOUSSEAUD', 'profile_description': 'Développeur back-end chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/romcol?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNN3y8BOebX60Y14RxBGnhS-0cfX4iVNhc', 'person_name': 'Romain Colombat', 'profile_description': 'Développeur Front-End @ Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/mario-baldi-1bb75077?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBOWh8BMJ4XXo4vOviNX2sCMber7aAwNZE', 'person_name': 'Mario Baldi', 'profile_description': 'Senior Software Engineer presso EdFlex Italia'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-charby-342471250?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4BL6IB82N564B_UMdDFI3ku9ILAaNWBzs', 'person_name': 'Mathilde Charby', 'profile_description': 'People officer chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/romanrobert-sales?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxPJkQBwZqRGM9eoWq4tTo_gfe__o6X8C0', 'person_name': 'Robert Rolland Roman', 'profile_description': 'SENIOR EMEA Account Executive ♦ SaaS "Maverick" ex Citrix/ Cisco/ Docebo (14K+)'}, {'profile_url': 'https://www.linkedin.com/in/rubine-mongali-1ab122137?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFMrJMB40HFWRJirjhz9A2eM_EnzchXR7A', 'person_name': 'Rubine MONGALI', 'profile_description': 'People Manager'}, {'profile_url': 'https://www.linkedin.com/in/arianna-graziano-152822194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2vEE4BfSBx_9o4ljZ831_wKjqdFN1zvTI', 'person_name': 'Arianna Graziano', 'profile_description': 'Customer Success – Product Specialist presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/charly-billaud-077006135?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtONsBg_R5fBeftsksh0tP2B2A5jCKelI', 'person_name': 'Charly Billaud', 'profile_description': 'Développeur Back-End - PHP Symfony chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/jade-enouf-442974221?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADfZkHIBgTYMfCS87iNyBT-FQH9ZfpCGJPg', 'person_name': 'Jade Enouf', 'profile_description': 'Etudiante en communication ✨👩\u200d🎓'}, {'profile_url': 'https://www.linkedin.com/in/simon-patrat-07260a110?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvay9YBLe741YhKZr8LzqJOWtdO8IhGaWQ', 'person_name': 'Simon Patrat', 'profile_description': 'Lead front-end developer chez Edflex France'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-martineau-%F0%9F%8C%B8-7a993782?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGUcrEBv7fsluAhonLJegn_hs3z8ztHTvw', 'person_name': 'Chloé Martineau 🌸', 'profile_description': 'Customer Success &amp; Onboarding | Professional Services | Management | Ecommerce'}, {'profile_url': 'https://www.linkedin.com/in/davideconforti?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADtkuEBa2weKDN7buz6dRQCXrPLTPv5lyU', 'person_name': 'Davide Conforti', 'profile_description': 'Managing Director at Edflex Italia, Closing Skill Gaps.'}, {'profile_url': 'https://www.linkedin.com/in/peggyheinen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1G-RsBnNBEG78RrsSFJPr92NK_A8OOxuI', 'person_name': 'Peggy Heinen', 'profile_description': 'Learning Project Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/jean-christophe-corre-0807031b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLT-KAB5WYpT3b6Li_sbqE7Lt7-mxa42WA', 'person_name': 'Jean-Christophe CORRE', 'profile_description': 'Ingénieur étude et développement chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gabriellelair?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQtMvcBJBZLQujvV4UAwGf_fR6ldjSTOC8', 'person_name': 'Gabrielle Lair', 'profile_description': 'Customer Success Manager 🤝'}, {'profile_url': 'https://www.linkedin.com/in/thomas-guillet-3558a4106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrUBvEBsLsVVMmTP8z82BqvFtYE-G3V1rQ', 'person_name': 'Thomas Guillet', 'profile_description': 'Software Developer @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/damien-vauchel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHcuywBwiL1WkTjh6RwMNNajx3l43vMzj4', 'person_name': 'Damien Vauchel', 'profile_description': 'Software Developer chez EdFlex - Chroniqueur comics chez Sanctuary.fr'}, {'profile_url': 'https://www.linkedin.com/in/fabrice-labbe-631437b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeOlcUBvfb4dM98UNep--nn4ROaFdMI7rE', 'person_name': 'fabrice labbe', 'profile_description': 'Développeur JS sénior chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/browningoliver?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABDgWsBje5sCRJ0T2z9dtrJPJ4TuhPJxqI', 'person_name': 'Ollie Browning, FLPI', 'profile_description': 'Country Manager | GTM Leader | Proud dad of 3'}, {'profile_url': 'https://www.linkedin.com/in/coraliebourdonnec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmyigYBp3gFRU58jmUd7bBaQ2f4nktwKIw', 'person_name': 'Coralie Bourdonnec', 'profile_description': 'Learning Project Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/samuel-serot-a3059a49?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAo7LkQBIbAlgP4YopeJgMQncwLfq6yX1IA', 'person_name': 'Samuel SEROT', 'profile_description': 'Tech lead chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/axelle-paulus-a7868b12b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_1UDwBV6j9Exg8yDPlk413WutUHSe79X4', 'person_name': 'Axelle Paulus', 'profile_description': 'Learning Content Expert @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/valentina-garbin-56511418a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACyC2x0B2NW3egyvMq9IV5cdWBUA3FkYfBE', 'person_name': 'Valentina Garbin', 'profile_description': 'Customer Success Operations Assistant'}, {'profile_url': 'https://www.linkedin.com/in/sophie-i-30655015b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZYgrYB2R_idvb06tLPDbL_QwtmoYIL9Dc', 'person_name': 'Sophie I.', 'profile_description': 'People &amp; Culture/ RRH'}, {'profile_url': 'https://www.linkedin.com/in/tscoarnec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpgmAIB_umXlL18e-xhKBC-lKeXD6eEWuA', 'person_name': 'Thomas Scoarnec', 'profile_description': 'Développeur Front-End'}, {'profile_url': 'https://www.linkedin.com/in/elisasantimone?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABV_XusBpqSVnbRcUJUPPtq7TqspnSH5Bds', 'person_name': 'Elisa Santimone', 'profile_description': 'Enterprise Account Executive @Edflex | Ex Uber'}, {'profile_url': 'https://www.linkedin.com/in/maria-giovanna-lanfranchi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcTVTYBy3UzynpivHJIqcr8hE46n0jXSfE', 'person_name': 'Maria Giovanna Lanfranchi', 'profile_description': 'Marketing manager presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/melissa-neveu-design?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQX7jABzcJA0B9tJVH7Z57Nk6ecfYUqI_c', 'person_name': 'Mélissa N.', 'profile_description': 'Creative Lead, Edflex &amp; Branding Creation, Freelance'}, {'profile_url': 'https://www.linkedin.com/in/audrey-calvier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACp9gKoBP0fLH5LUZtm9WpXFWsyHBcfYUlg', 'person_name': 'Audrey Calvier', 'profile_description': 'Head of Product Marketing chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/annesophiegutierrez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAdJd0oB98eYXE277Bt9a1_n5zigs2OPgZY', 'person_name': 'Anne-Sophie Gutierrez Gaborit', 'profile_description': 'Customer Communications Manager'}, {'profile_url': 'https://www.linkedin.com/in/wongelena?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeT8L4BBiQ3JPOXmQknQ-aDZbz0cyQuCU0', 'person_name': 'Elena Wong', 'profile_description': 'Edflex Product Designer ✨ Créatrice Collection Gévaudan'}, {'profile_url': 'https://www.linkedin.com/in/clothildelecose?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkg7vwBpQpsAliFF8ytNhyS2zU-d9Y93cI', 'person_name': 'Clothilde Le Cose', 'profile_description': 'Tech Implementation Manager'}, {'profile_url': 'https://www.linkedin.com/in/julia-minier-b30a6a1b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGih9QBxoy412rZ1urjnaIA3h5CeaZsu1E', 'person_name': 'Julia Minier', 'profile_description': 'Customer Success Manager @Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/stephaniebeaufort?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADx89sBNBYbUIFn0h4jhISN95DxJb-MO3w', 'person_name': 'Stephanie Beaufort', 'profile_description': 'Content is king! Delivering &amp; growing cutting-edge distribution solutions for content: music, gaming, learning. Maximizing revenue through win-win partnerships'}, {'profile_url': 'https://www.linkedin.com/in/santa-gelao-3008a091?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOH27AB_PVEVnlhlGaTqoiM-Y87DYroRI4', 'person_name': 'Santa Gelao', 'profile_description': 'Customer Success - Content &amp; Support Specialist presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/antoine-robert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAK1LfkBp5N_dLCwPA-buxlQwpU5I9fibu8', 'person_name': 'Antoine R.', 'profile_description': 'Senior software developer'}, {'profile_url': 'https://www.linkedin.com/in/matteocaberlotto?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMfOVIBgGK605rnp_gdqG1U7j-_sLkGfWM', 'person_name': 'Matteo Caberlotto', 'profile_description': 'Head of Tech'}, {'profile_url': 'https://www.linkedin.com/in/muriel-hamon-00b8b447?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAnr5gsBoFWgGrsNYU9eIZZjf0Ni3KhlfKw', 'person_name': 'Muriel Hamon', 'profile_description': 'Customer Success Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/mpasqualini?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACIYOIBM-NmabANTH3LW2MaUNabBTnA95M', 'person_name': 'Marco Pasqualini', 'profile_description': 'Senior Software Engineer at EdFlex Italia'}, {'profile_url': 'https://www.linkedin.com/in/elia-rinaldo-ab7758289?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEYOdSsBB2r0tr_qBn193zUm68iy1z0T1gc', 'person_name': 'Elia Rinaldo', 'profile_description': 'SDR presso EdFlex Italia 📈- Allenatore Uefa C ⚽️- USD Olginatese ⚫️⚪️ - Match Analyst 💻'}, {'profile_url': 'https://www.linkedin.com/in/francesco-carante-03b32b2a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYZcG8BGpBhZDY4OoiyJ2kiFgk-FEz_Fq0', 'person_name': 'Francesco Carante', 'profile_description': 'Managing Director presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/marilena-baldi-246916122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5kRtYBaPVHrTWAe-EkSOKahfRpHK6gXCw', 'person_name': 'Marilena Baldi', 'profile_description': 'Software Engineer'}, {'profile_url': 'https://www.linkedin.com/in/anna-ferrari-8a4b6392?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO_ozwBb_NJHElVLslaF4f42rq7l8dZJ_0', 'person_name': 'Anna Ferrari', 'profile_description': 'Head of Customer Success at Edflex Italia'}]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>76,76 %</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>452,22 %</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>3.537.000 €</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>640.500 €</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>14</v>
+      </c>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>64</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Éducation, Formation professionnelle</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/johnny-cottereau-5424aa211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWk8IIB8pZoVSjqmUBUvrqK42eCmWA36Ds</t>
+      <c r="A59" t="n">
+        <v>34</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edflex </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.edflex.com/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['+33 (0) 9 78 45 06 96', '+33(0)978450696', '+33978450696']</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/edflex-fr</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/clement-meslin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvHuScB9Nus8s-DxQgr-HuxaVkxqWhIf1s', 'person_name': 'Clément Meslin', 'profile_description': 'Founder &amp; CEO @Edflex | Speaker #Edtech | Host @LearningClub 🎙️'}</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Founder &amp; CEO @Edflex | Speaker #Edtech | Host @LearningClub 🎙️</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/clement-meslin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvHuScB9Nus8s-DxQgr-HuxaVkxqWhIf1s</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/lisa-desnos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_5mrwBL4mD2ilQkl4LETfUeHX-xxlIecE', 'person_name': 'Lisa Desnos', 'profile_description': 'Account Manager @Edflex 💻'}, {'profile_url': 'https://www.linkedin.com/in/cyrille-brouiller-1262b191?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNxam4BEwyeC0CJbqgeEq7bDGmr3jvRhHY', 'person_name': 'Cyrille Brouiller', 'profile_description': 'Sales Operations @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/pierre-olivier-carli-147392105?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqTG0cBEbPI9otsUply_dCVhXh8ngWE_3o', 'person_name': 'Pierre-Olivier Carli', 'profile_description': 'Strategic Partnerships and Alliances Director'}, {'profile_url': 'https://www.linkedin.com/in/david-cornec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcMFBIBMiBveP0f56YNdS3HWuboCQEQHlU', 'person_name': 'David Cornec', 'profile_description': 'Sales Development Representative @Edflex - SaaS'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-buffet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPj0qEBJg84ayy3EXWBDRx106nJj9Tzu4g', 'person_name': 'Jérémy Buffet', 'profile_description': 'Team Lead SDR/BDR - Sales'}, {'profile_url': 'https://www.linkedin.com/in/mats-fournier-foch-43407992?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOWVigBlp_HdhObrtlssuNKjgd5rovvjvE', 'person_name': 'Mats Fournier-Foch', 'profile_description': 'Learning and development specialist'}, {'profile_url': 'https://www.linkedin.com/in/camillefauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA22xcsBufNz_A1_Ix964NUjRP0V2EcPS-E', 'person_name': 'Camille Fauveau', 'profile_description': 'Product Manager | Expertise en formation digitale 💡 | Gestion de projet 🎯 | Stratégie produit 🤩'}, {'profile_url': 'https://www.linkedin.com/in/cedric-corbineau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOMtoABcG-VLqfailwrcD2D1o4n946eCEE', 'person_name': 'Cédric Corbineau', 'profile_description': 'Product owner chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/raphael-camuset-pro?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaul74BojMt396XBMZ3omcjIqXD9PJ7Jjc', 'person_name': 'Raphael Camuset', 'profile_description': 'Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-hercou%C3%ABt-48327b114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByEG-MBSgzZr8GavJzwt4xbJr2aK1pIC6o', 'person_name': 'Clément Hercouët', 'profile_description': 'Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/elo%C3%AFse-hacquart-84978513a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHuInkBD9BUjxc8pR2ljVwrSKvLJEM1UaU', 'person_name': 'Eloïse Hacquart', 'profile_description': 'Sales @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gr%C3%A9goire-du-chaylard-edflex-elearning?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEwwRMBSxNfGY4n7YYXs_3KWFyzokio0Rs', 'person_name': 'Grégoire du Chaylard', 'profile_description': 'Enterprise Account Executive - Je connecte les entreprises et leurs salariés avec le meilleur de la formation grâce à Edflex | SaaS | Edtech'}, {'profile_url': 'https://www.linkedin.com/in/philippe-riveron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt6Rd8BpMpPC6GZ2oj-dtUwJGtlH1D9LoM', 'person_name': 'Philippe Riveron', 'profile_description': 'Founder &amp; Chairman @edflex | Learning and development enthusiast | innovator | speaker | entrepreneur | passionate about people, technology and Open Education | Forbes Human Resources Council Official Member.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mentine-tallet-edflex?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeLWUUB69eVr9VGaL2EvhFGEY9yqZswcRE', 'person_name': 'Clémentine Tallet', 'profile_description': "Senior Account Executive chez Edflex | Favorisez l'apprentissage au sein de votre organisation grâce au digital learning 🧠"}, {'profile_url': 'https://www.linkedin.com/in/francescabonavita?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFrpzEBNr5pCZD1awWlxL0S3NXQbriixT0', 'person_name': 'Francesca Bonavita', 'profile_description': 'VP Customer Success &amp; Client Opérations @edflex'}, {'profile_url': 'https://www.linkedin.com/in/raphael-dollat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOoNq4Bs2lacTKRybybpQwBi11tQmVBhP0', 'person_name': 'Raphaël Dollat', 'profile_description': 'Head of Learning Content chez EdFlex'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-glaser-818ba678?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCM2xQBn4Sp6mYA1EFTHQV6Ue_7LbvKwmk', 'person_name': 'Alexandre Glaser', 'profile_description': 'VC @Educapital'}, {'profile_url': 'https://www.linkedin.com/in/thomas-bonjour-401b5a47?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAn1jsEBzj-6FC0iUVw4weZ_YC2JhU7X70w', 'person_name': 'Thomas Bonjour', 'profile_description': "🌍Impact Investing VC 🔹 Arkéa Capital 🔹 We Positive Invest 🔹 Chargé d'affaires Impact"}, {'profile_url': 'https://www.linkedin.com/in/allison-souvignon-80804b32?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbE8sgB7ILB1VtVecqpbqzZFgRgFjXG8Wg', 'person_name': 'Allison Souvignon', 'profile_description': 'Strategic Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/corentinroger?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi-m5AB1FXT03Ybi7bOJLXwlZ1fSS_tJSU', 'person_name': 'Corentin Roger', 'profile_description': 'Customer Success Manager #Edflex'}, {'profile_url': 'https://www.linkedin.com/in/thibaut-adrian-03b64997?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSP-O8BAu0PDOuM_H7ognoP-E5gUq-jqnA', 'person_name': 'Thibaut Adrian', 'profile_description': 'VP Finance @Edflex, B2B SaaS for Open Education 📖'}, {'profile_url': 'https://www.linkedin.com/in/candice-morissonneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABKZQ8AB3Zlp1-vc6Gb3LlX6V__NoYt3jkQ', 'person_name': 'Candice Morissonneau', 'profile_description': 'Finance Ops @Edflex, B2B SaaS for Open Education 📖'}, {'profile_url': 'https://www.linkedin.com/in/victorlutreau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABLXtugBI2VwnQvAGMGlNMOnrF7eMfFnZHA', 'person_name': 'Victor Lutreau', 'profile_description': 'Sales Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/rdroissart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYE6egBPh2GDeIJs4jp2VmrgBfOY8UHDoA', 'person_name': 'Raphaël Droissart', 'profile_description': 'Co-Founder &amp; COO @ Edflex'}, {'profile_url': 'https://www.linkedin.com/in/cyrilpetit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARejhwBuPkLega2H2KuYfFWwbOB6n5hHTI', 'person_name': 'Cyril Petit', 'profile_description': 'VC Investor'}, {'profile_url': 'https://www.linkedin.com/in/clement-meslin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvHuScB9Nus8s-DxQgr-HuxaVkxqWhIf1s', 'person_name': 'Clément Meslin', 'profile_description': 'Founder &amp; CEO @Edflex | Speaker #Edtech | Host @LearningClub 🎙️'}, {'profile_url': 'https://www.linkedin.com/in/carolevendehauray?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAALiLNoBO_HkPZ-P7CDbia5xXWdjvVLsak0', 'person_name': 'Carole Vendé', 'profile_description': 'VP People &amp; Impact'}, {'profile_url': 'https://www.linkedin.com/in/eva-gerault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUJfwBeMnaA9FqRr-1SdB8QOgKkUQ1tbc', 'person_name': 'Eva Gérault', 'profile_description': 'Team Lead Account Manager @Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/manon-cousin-glorieux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-O3JoB-juOZgv42D6wjkuYpxGJK2TPqnA', 'person_name': 'Manon Cousin Glorieux', 'profile_description': '✍🏼 Content manager @Edflex • Connecter les organisations avec le meilleur de la formation👩\u200d🎓'}, {'profile_url': 'https://www.linkedin.com/in/jcgascoin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMQlucBPlMPCeTW4Dz7gTAHbfScJOVPciA', 'person_name': 'Jean-Charles G.', 'profile_description': 'VP Sales @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gaspardschmitt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA5pipIBk_vXBXQtKVSyBM_i-0xTYGEmHI4', 'person_name': 'Gaspard SCHMITT', 'profile_description': 'Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/opheliemallard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFMJ1oBg4dOWPepwdy2_gnCeEVHumuPCXg', 'person_name': 'Ophélie Mallard', 'profile_description': 'Learning Content Manager'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-lechelle-a518b0182?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACs0AN0By9_RrrB5RqtyJlryqGvycPraWfU', 'person_name': 'Loïc Lechelle', 'profile_description': 'Account Executive @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/laura-giacomuzzi-a929a7160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaXC04BGKI1nEIRkqfty0I-eIR341hgMBk', 'person_name': 'Laura Giacomuzzi', 'profile_description': 'Growth Marketing Manager'}, {'profile_url': 'https://www.linkedin.com/in/antoine-ricci?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWmeVkBChTqXkjSc_SBxoIBEA3qwDc0KAM', 'person_name': 'Antoine Ricci', 'profile_description': 'Développeur back-end PHP/Symfony - 100% remote 🚀'}, {'profile_url': 'https://www.linkedin.com/in/dorian-roos-b0769784?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHmFncBc1qEFwD3FsRtBqAcNTW-VX_ACAc', 'person_name': 'Dorian Roos', 'profile_description': 'Ingénieur DevOps / Dev Back Symfony'}, {'profile_url': 'https://www.linkedin.com/in/morgan-carval-4003037?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFKaoABTGugl6pUGtUtcPkb08bYwtiHeRI', 'person_name': 'MORGAN CARVAL', 'profile_description': 'Director, Impact Investing at Arkéa Capital'}, {'profile_url': 'https://www.linkedin.com/in/xavier-le-gouard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-h1CoB497pggKVrsBp50ZVqkpBvuqCnVI', 'person_name': 'Xavier Le Gouard', 'profile_description': 'Engineering Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/lucie-bullot-714440136?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACErGAABnWl0fklYtJtl1F8tg0WjrdHY-GM', 'person_name': 'Lucie Bullot', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/vincent-allegre-b1b295120?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB3xGQcBjCwhPNp2x9Je54Gu_ebptbkZqe8', 'person_name': 'Vincent Allegre', 'profile_description': 'Account executive'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-tassel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPhXVsBzCQyKmK_0BnZOllU4nXw9RUKSZc', 'person_name': 'Charlotte Tassel', 'profile_description': 'VP Marketing @Edflex-fr'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mence-paquier-a67270261?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEBJ5O8B6BoscbRXfQ3Y3HufsJHemoplRKk', 'person_name': 'Clémence Paquier', 'profile_description': 'Cheffe de projet digital marketing @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-charby?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqoxnUB6HKpz6fuhYKTOhM7RedFmEe1VLI', 'person_name': 'Mathilde CHARBY', 'profile_description': 'People Officer at Edflex | We‘re hiring 🚀'}, {'profile_url': 'https://www.linkedin.com/in/anaig-audrain-6b8454148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOpY-wBQmgTgSNLvYvsWiWTcPDj6VWtxeg', 'person_name': 'Anaig Audrain', 'profile_description': 'Communication Project Manager'}, {'profile_url': 'https://www.linkedin.com/in/remi-lesaint?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ5ao0Blg0xHV4zMdx1zITUrHg5csZz7Kk', 'person_name': 'Rémi Lesaint', 'profile_description': 'Co-founder &amp; CPO at Edflex'}, {'profile_url': 'https://www.linkedin.com/in/laura-cassin-95a489127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB83ahYBqUbUnTmZh-QDQW00pfyPg10CPbU', 'person_name': 'Laura Cassin', 'profile_description': 'Head of Customer Success Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/clement-gentile-3a1430128?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9jJSkBfOQcqEKjWVzDLuCxT_Ibn3FOTUU', 'person_name': 'CLEMENT GENTILE', 'profile_description': 'Strategic Account Executive chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/enzo-parm%C3%A9-378587198?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5b9UwBHEQmTqdUi8tMNNsgcC6kbkAYuzo', 'person_name': 'Enzo Parmé', 'profile_description': 'Learning Content Manager (spé Data / IA)'}, {'profile_url': 'https://www.linkedin.com/in/lucas-etienne?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB2U3-gBK_ugj-WgZN0MUMup2rS0Qx07kQY', 'person_name': 'Lucas Etienne 🎓', 'profile_description': 'Business Developer | Specialist en Solutions d’E-learning chez Edflex | Accélérateur de Compétences en SaaS &amp; Edtech'}, {'profile_url': 'https://www.linkedin.com/in/timotheepoulain?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJ8xmUBKug8u1kSUzx-zItqayeIzelmr1Y', 'person_name': 'Timothée Poulain', 'profile_description': 'Partner at Ternel｜early-stage tech &amp; impact investor'}, {'profile_url': 'https://www.linkedin.com/in/maelle-ouice-161894200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNjVNkBdGVC6yrz3djOlhfuzZwqFAaCWTA', 'person_name': 'Maelle Ouice', 'profile_description': 'Cheffe de projet Communication, EDFLEX.'}, {'profile_url': 'https://www.linkedin.com/in/sarralili?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCv-RMBSrylmhKgI1NEZGxumOU8q4hQXmg', 'person_name': 'Sarah Lili', 'profile_description': 'CSM / Chef de projet digital chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/maxime-piton-b962435?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADsxuIBMcAHMJqRngLcPxSZwoGhejYqkug', 'person_name': 'Maxime Piton', 'profile_description': 'DevOps/Infra Tech Lead at Edflex'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%A9mie-racineux-842490114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByMDbIBMn0PmsAiAx93x4CfD_yrUs9y3XI', 'person_name': 'Noémie Racineux', 'profile_description': 'Customer Success Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/emilie-jarry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABDwWgcBQzq6C9IWoWe3ZYPmfGuCe9X9Lkk', 'person_name': 'Emilie JARRY', 'profile_description': 'Learning Project Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/yannspatafora?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByfh5UBMEcA9rYRRcxW0X0yK1f8bhDGX4c', 'person_name': 'Yann Spatafora', 'profile_description': 'VC @Ternel | Impact Early-Stage'}, {'profile_url': 'https://www.linkedin.com/in/abdoul-hakim-diallo?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACX_nRYBF8ca3hq00SrprJmlOhhrN0uqOj0', 'person_name': 'Abdoul Hakim Diallo', 'profile_description': 'Learning Quality Content Manager'}, {'profile_url': 'https://www.linkedin.com/in/johnny-cottereau-5424aa211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWk8IIB8pZoVSjqmUBUvrqK42eCmWA36Ds', 'person_name': 'Johnny Cottereau', 'profile_description': 'CTO chez Edflex | We‘re hiring 🚀'}, {'profile_url': 'https://www.linkedin.com/in/morgane-rouyer?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBRlaYBS4glSO7VI6kQlotiEoutweJbVmM', 'person_name': 'Morgane Rouyer', 'profile_description': 'Senior Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/florian-bousseaud-57687275?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_3t6oB26ITQdl4d4Qm2EBKM4msYScD2Vw', 'person_name': 'Florian BOUSSEAUD', 'profile_description': 'Développeur back-end chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/romcol?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNN3y8BOebX60Y14RxBGnhS-0cfX4iVNhc', 'person_name': 'Romain Colombat', 'profile_description': 'Développeur Front-End @ Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/mario-baldi-1bb75077?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBOWh8BMJ4XXo4vOviNX2sCMber7aAwNZE', 'person_name': 'Mario Baldi', 'profile_description': 'Senior Software Engineer presso EdFlex Italia'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-charby-342471250?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4BL6IB82N564B_UMdDFI3ku9ILAaNWBzs', 'person_name': 'Mathilde Charby', 'profile_description': 'People officer chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/romanrobert-sales?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxPJkQBwZqRGM9eoWq4tTo_gfe__o6X8C0', 'person_name': 'Robert Rolland Roman', 'profile_description': 'SENIOR EMEA Account Executive ♦ SaaS "Maverick" ex Citrix/ Cisco/ Docebo (14K+)'}, {'profile_url': 'https://www.linkedin.com/in/rubine-mongali-1ab122137?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFMrJMB40HFWRJirjhz9A2eM_EnzchXR7A', 'person_name': 'Rubine MONGALI', 'profile_description': 'People Manager'}, {'profile_url': 'https://www.linkedin.com/in/arianna-graziano-152822194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2vEE4BfSBx_9o4ljZ831_wKjqdFN1zvTI', 'person_name': 'Arianna Graziano', 'profile_description': 'Customer Success – Product Specialist presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/charly-billaud-077006135?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtONsBg_R5fBeftsksh0tP2B2A5jCKelI', 'person_name': 'Charly Billaud', 'profile_description': 'Développeur Back-End - PHP Symfony chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/jade-enouf-442974221?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADfZkHIBgTYMfCS87iNyBT-FQH9ZfpCGJPg', 'person_name': 'Jade Enouf', 'profile_description': 'Etudiante en communication ✨👩\u200d🎓'}, {'profile_url': 'https://www.linkedin.com/in/simon-patrat-07260a110?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvay9YBLe741YhKZr8LzqJOWtdO8IhGaWQ', 'person_name': 'Simon Patrat', 'profile_description': 'Lead front-end developer chez Edflex France'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-martineau-%F0%9F%8C%B8-7a993782?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGUcrEBv7fsluAhonLJegn_hs3z8ztHTvw', 'person_name': 'Chloé Martineau 🌸', 'profile_description': 'Customer Success &amp; Onboarding | Professional Services | Management | Ecommerce'}, {'profile_url': 'https://www.linkedin.com/in/davideconforti?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADtkuEBa2weKDN7buz6dRQCXrPLTPv5lyU', 'person_name': 'Davide Conforti', 'profile_description': 'Managing Director at Edflex Italia, Closing Skill Gaps.'}, {'profile_url': 'https://www.linkedin.com/in/peggyheinen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1G-RsBnNBEG78RrsSFJPr92NK_A8OOxuI', 'person_name': 'Peggy Heinen', 'profile_description': 'Learning Project Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/jean-christophe-corre-0807031b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLT-KAB5WYpT3b6Li_sbqE7Lt7-mxa42WA', 'person_name': 'Jean-Christophe CORRE', 'profile_description': 'Ingénieur étude et développement chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gabriellelair?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQtMvcBJBZLQujvV4UAwGf_fR6ldjSTOC8', 'person_name': 'Gabrielle Lair', 'profile_description': 'Customer Success Manager 🤝'}, {'profile_url': 'https://www.linkedin.com/in/thomas-guillet-3558a4106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrUBvEBsLsVVMmTP8z82BqvFtYE-G3V1rQ', 'person_name': 'Thomas Guillet', 'profile_description': 'Software Developer @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/damien-vauchel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHcuywBwiL1WkTjh6RwMNNajx3l43vMzj4', 'person_name': 'Damien Vauchel', 'profile_description': 'Software Developer chez EdFlex - Chroniqueur comics chez Sanctuary.fr'}, {'profile_url': 'https://www.linkedin.com/in/fabrice-labbe-631437b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeOlcUBvfb4dM98UNep--nn4ROaFdMI7rE', 'person_name': 'fabrice labbe', 'profile_description': 'Développeur JS sénior chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/browningoliver?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABDgWsBje5sCRJ0T2z9dtrJPJ4TuhPJxqI', 'person_name': 'Ollie Browning, FLPI', 'profile_description': 'Country Manager | GTM Leader | Proud dad of 3'}, {'profile_url': 'https://www.linkedin.com/in/coraliebourdonnec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmyigYBp3gFRU58jmUd7bBaQ2f4nktwKIw', 'person_name': 'Coralie Bourdonnec', 'profile_description': 'Learning Project Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/samuel-serot-a3059a49?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAo7LkQBIbAlgP4YopeJgMQncwLfq6yX1IA', 'person_name': 'Samuel SEROT', 'profile_description': 'Tech lead chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/axelle-paulus-a7868b12b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_1UDwBV6j9Exg8yDPlk413WutUHSe79X4', 'person_name': 'Axelle Paulus', 'profile_description': 'Learning Content Expert @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/valentina-garbin-56511418a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACyC2x0B2NW3egyvMq9IV5cdWBUA3FkYfBE', 'person_name': 'Valentina Garbin', 'profile_description': 'Customer Success Operations Assistant'}, {'profile_url': 'https://www.linkedin.com/in/sophie-i-30655015b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZYgrYB2R_idvb06tLPDbL_QwtmoYIL9Dc', 'person_name': 'Sophie I.', 'profile_description': 'People &amp; Culture/ RRH'}, {'profile_url': 'https://www.linkedin.com/in/tscoarnec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpgmAIB_umXlL18e-xhKBC-lKeXD6eEWuA', 'person_name': 'Thomas Scoarnec', 'profile_description': 'Développeur Front-End'}, {'profile_url': 'https://www.linkedin.com/in/elisasantimone?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABV_XusBpqSVnbRcUJUPPtq7TqspnSH5Bds', 'person_name': 'Elisa Santimone', 'profile_description': 'Enterprise Account Executive @Edflex | Ex Uber'}, {'profile_url': 'https://www.linkedin.com/in/maria-giovanna-lanfranchi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcTVTYBy3UzynpivHJIqcr8hE46n0jXSfE', 'person_name': 'Maria Giovanna Lanfranchi', 'profile_description': 'Marketing manager presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/melissa-neveu-design?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQX7jABzcJA0B9tJVH7Z57Nk6ecfYUqI_c', 'person_name': 'Mélissa N.', 'profile_description': 'Creative Lead, Edflex &amp; Branding Creation, Freelance'}, {'profile_url': 'https://www.linkedin.com/in/audrey-calvier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACp9gKoBP0fLH5LUZtm9WpXFWsyHBcfYUlg', 'person_name': 'Audrey Calvier', 'profile_description': 'Head of Product Marketing chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/annesophiegutierrez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAdJd0oB98eYXE277Bt9a1_n5zigs2OPgZY', 'person_name': 'Anne-Sophie Gutierrez Gaborit', 'profile_description': 'Customer Communications Manager'}, {'profile_url': 'https://www.linkedin.com/in/wongelena?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeT8L4BBiQ3JPOXmQknQ-aDZbz0cyQuCU0', 'person_name': 'Elena Wong', 'profile_description': 'Edflex Product Designer ✨ Créatrice Collection Gévaudan'}, {'profile_url': 'https://www.linkedin.com/in/clothildelecose?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkg7vwBpQpsAliFF8ytNhyS2zU-d9Y93cI', 'person_name': 'Clothilde Le Cose', 'profile_description': 'Tech Implementation Manager'}, {'profile_url': 'https://www.linkedin.com/in/julia-minier-b30a6a1b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGih9QBxoy412rZ1urjnaIA3h5CeaZsu1E', 'person_name': 'Julia Minier', 'profile_description': 'Customer Success Manager @Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/stephaniebeaufort?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADx89sBNBYbUIFn0h4jhISN95DxJb-MO3w', 'person_name': 'Stephanie Beaufort', 'profile_description': 'Content is king! Delivering &amp; growing cutting-edge distribution solutions for content: music, gaming, learning. Maximizing revenue through win-win partnerships'}, {'profile_url': 'https://www.linkedin.com/in/santa-gelao-3008a091?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOH27AB_PVEVnlhlGaTqoiM-Y87DYroRI4', 'person_name': 'Santa Gelao', 'profile_description': 'Customer Success - Content &amp; Support Specialist presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/antoine-robert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAK1LfkBp5N_dLCwPA-buxlQwpU5I9fibu8', 'person_name': 'Antoine R.', 'profile_description': 'Senior software developer'}, {'profile_url': 'https://www.linkedin.com/in/matteocaberlotto?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMfOVIBgGK605rnp_gdqG1U7j-_sLkGfWM', 'person_name': 'Matteo Caberlotto', 'profile_description': 'Head of Tech'}, {'profile_url': 'https://www.linkedin.com/in/muriel-hamon-00b8b447?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAnr5gsBoFWgGrsNYU9eIZZjf0Ni3KhlfKw', 'person_name': 'Muriel Hamon', 'profile_description': 'Customer Success Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/mpasqualini?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACIYOIBM-NmabANTH3LW2MaUNabBTnA95M', 'person_name': 'Marco Pasqualini', 'profile_description': 'Senior Software Engineer at EdFlex Italia'}, {'profile_url': 'https://www.linkedin.com/in/elia-rinaldo-ab7758289?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEYOdSsBB2r0tr_qBn193zUm68iy1z0T1gc', 'person_name': 'Elia Rinaldo', 'profile_description': 'SDR presso EdFlex Italia 📈- Allenatore Uefa C ⚽️- USD Olginatese ⚫️⚪️ - Match Analyst 💻'}, {'profile_url': 'https://www.linkedin.com/in/francesco-carante-03b32b2a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYZcG8BGpBhZDY4OoiyJ2kiFgk-FEz_Fq0', 'person_name': 'Francesco Carante', 'profile_description': 'Managing Director presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/marilena-baldi-246916122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5kRtYBaPVHrTWAe-EkSOKahfRpHK6gXCw', 'person_name': 'Marilena Baldi', 'profile_description': 'Software Engineer'}, {'profile_url': 'https://www.linkedin.com/in/anna-ferrari-8a4b6392?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO_ozwBb_NJHElVLslaF4f42rq7l8dZJ_0', 'person_name': 'Anna Ferrari', 'profile_description': 'Head of Customer Success at Edflex Italia'}]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>76,76 %</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>452,22 %</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>3.537.000 €</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>640.500 €</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>14</v>
+      </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>64</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Éducation, Formation professionnelle</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/rdroissart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYE6egBPh2GDeIJs4jp2VmrgBfOY8UHDoA</t>
+      <c r="A60" t="n">
+        <v>34</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edflex </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.edflex.com/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['+33 (0) 9 78 45 06 96', '+33(0)978450696', '+33978450696']</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/edflex-fr</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/remi-lesaint?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ5ao0Blg0xHV4zMdx1zITUrHg5csZz7Kk', 'person_name': 'Rémi Lesaint', 'profile_description': 'Co-founder &amp; CPO at Edflex'}</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Co-founder &amp; CPO at Edflex</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/remi-lesaint?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ5ao0Blg0xHV4zMdx1zITUrHg5csZz7Kk</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/lisa-desnos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_5mrwBL4mD2ilQkl4LETfUeHX-xxlIecE', 'person_name': 'Lisa Desnos', 'profile_description': 'Account Manager @Edflex 💻'}, {'profile_url': 'https://www.linkedin.com/in/cyrille-brouiller-1262b191?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNxam4BEwyeC0CJbqgeEq7bDGmr3jvRhHY', 'person_name': 'Cyrille Brouiller', 'profile_description': 'Sales Operations @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/pierre-olivier-carli-147392105?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqTG0cBEbPI9otsUply_dCVhXh8ngWE_3o', 'person_name': 'Pierre-Olivier Carli', 'profile_description': 'Strategic Partnerships and Alliances Director'}, {'profile_url': 'https://www.linkedin.com/in/david-cornec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcMFBIBMiBveP0f56YNdS3HWuboCQEQHlU', 'person_name': 'David Cornec', 'profile_description': 'Sales Development Representative @Edflex - SaaS'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-buffet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPj0qEBJg84ayy3EXWBDRx106nJj9Tzu4g', 'person_name': 'Jérémy Buffet', 'profile_description': 'Team Lead SDR/BDR - Sales'}, {'profile_url': 'https://www.linkedin.com/in/mats-fournier-foch-43407992?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOWVigBlp_HdhObrtlssuNKjgd5rovvjvE', 'person_name': 'Mats Fournier-Foch', 'profile_description': 'Learning and development specialist'}, {'profile_url': 'https://www.linkedin.com/in/camillefauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA22xcsBufNz_A1_Ix964NUjRP0V2EcPS-E', 'person_name': 'Camille Fauveau', 'profile_description': 'Product Manager | Expertise en formation digitale 💡 | Gestion de projet 🎯 | Stratégie produit 🤩'}, {'profile_url': 'https://www.linkedin.com/in/cedric-corbineau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOMtoABcG-VLqfailwrcD2D1o4n946eCEE', 'person_name': 'Cédric Corbineau', 'profile_description': 'Product owner chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/raphael-camuset-pro?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaul74BojMt396XBMZ3omcjIqXD9PJ7Jjc', 'person_name': 'Raphael Camuset', 'profile_description': 'Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-hercou%C3%ABt-48327b114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByEG-MBSgzZr8GavJzwt4xbJr2aK1pIC6o', 'person_name': 'Clément Hercouët', 'profile_description': 'Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/elo%C3%AFse-hacquart-84978513a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHuInkBD9BUjxc8pR2ljVwrSKvLJEM1UaU', 'person_name': 'Eloïse Hacquart', 'profile_description': 'Sales @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gr%C3%A9goire-du-chaylard-edflex-elearning?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEwwRMBSxNfGY4n7YYXs_3KWFyzokio0Rs', 'person_name': 'Grégoire du Chaylard', 'profile_description': 'Enterprise Account Executive - Je connecte les entreprises et leurs salariés avec le meilleur de la formation grâce à Edflex | SaaS | Edtech'}, {'profile_url': 'https://www.linkedin.com/in/philippe-riveron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt6Rd8BpMpPC6GZ2oj-dtUwJGtlH1D9LoM', 'person_name': 'Philippe Riveron', 'profile_description': 'Founder &amp; Chairman @edflex | Learning and development enthusiast | innovator | speaker | entrepreneur | passionate about people, technology and Open Education | Forbes Human Resources Council Official Member.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mentine-tallet-edflex?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeLWUUB69eVr9VGaL2EvhFGEY9yqZswcRE', 'person_name': 'Clémentine Tallet', 'profile_description': "Senior Account Executive chez Edflex | Favorisez l'apprentissage au sein de votre organisation grâce au digital learning 🧠"}, {'profile_url': 'https://www.linkedin.com/in/francescabonavita?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFrpzEBNr5pCZD1awWlxL0S3NXQbriixT0', 'person_name': 'Francesca Bonavita', 'profile_description': 'VP Customer Success &amp; Client Opérations @edflex'}, {'profile_url': 'https://www.linkedin.com/in/raphael-dollat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOoNq4Bs2lacTKRybybpQwBi11tQmVBhP0', 'person_name': 'Raphaël Dollat', 'profile_description': 'Head of Learning Content chez EdFlex'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-glaser-818ba678?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCM2xQBn4Sp6mYA1EFTHQV6Ue_7LbvKwmk', 'person_name': 'Alexandre Glaser', 'profile_description': 'VC @Educapital'}, {'profile_url': 'https://www.linkedin.com/in/thomas-bonjour-401b5a47?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAn1jsEBzj-6FC0iUVw4weZ_YC2JhU7X70w', 'person_name': 'Thomas Bonjour', 'profile_description': "🌍Impact Investing VC 🔹 Arkéa Capital 🔹 We Positive Invest 🔹 Chargé d'affaires Impact"}, {'profile_url': 'https://www.linkedin.com/in/allison-souvignon-80804b32?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbE8sgB7ILB1VtVecqpbqzZFgRgFjXG8Wg', 'person_name': 'Allison Souvignon', 'profile_description': 'Strategic Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/corentinroger?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi-m5AB1FXT03Ybi7bOJLXwlZ1fSS_tJSU', 'person_name': 'Corentin Roger', 'profile_description': 'Customer Success Manager #Edflex'}, {'profile_url': 'https://www.linkedin.com/in/thibaut-adrian-03b64997?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSP-O8BAu0PDOuM_H7ognoP-E5gUq-jqnA', 'person_name': 'Thibaut Adrian', 'profile_description': 'VP Finance @Edflex, B2B SaaS for Open Education 📖'}, {'profile_url': 'https://www.linkedin.com/in/candice-morissonneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABKZQ8AB3Zlp1-vc6Gb3LlX6V__NoYt3jkQ', 'person_name': 'Candice Morissonneau', 'profile_description': 'Finance Ops @Edflex, B2B SaaS for Open Education 📖'}, {'profile_url': 'https://www.linkedin.com/in/victorlutreau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABLXtugBI2VwnQvAGMGlNMOnrF7eMfFnZHA', 'person_name': 'Victor Lutreau', 'profile_description': 'Sales Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/rdroissart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYE6egBPh2GDeIJs4jp2VmrgBfOY8UHDoA', 'person_name': 'Raphaël Droissart', 'profile_description': 'Co-Founder &amp; COO @ Edflex'}, {'profile_url': 'https://www.linkedin.com/in/cyrilpetit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARejhwBuPkLega2H2KuYfFWwbOB6n5hHTI', 'person_name': 'Cyril Petit', 'profile_description': 'VC Investor'}, {'profile_url': 'https://www.linkedin.com/in/clement-meslin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvHuScB9Nus8s-DxQgr-HuxaVkxqWhIf1s', 'person_name': 'Clément Meslin', 'profile_description': 'Founder &amp; CEO @Edflex | Speaker #Edtech | Host @LearningClub 🎙️'}, {'profile_url': 'https://www.linkedin.com/in/carolevendehauray?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAALiLNoBO_HkPZ-P7CDbia5xXWdjvVLsak0', 'person_name': 'Carole Vendé', 'profile_description': 'VP People &amp; Impact'}, {'profile_url': 'https://www.linkedin.com/in/eva-gerault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUJfwBeMnaA9FqRr-1SdB8QOgKkUQ1tbc', 'person_name': 'Eva Gérault', 'profile_description': 'Team Lead Account Manager @Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/manon-cousin-glorieux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-O3JoB-juOZgv42D6wjkuYpxGJK2TPqnA', 'person_name': 'Manon Cousin Glorieux', 'profile_description': '✍🏼 Content manager @Edflex • Connecter les organisations avec le meilleur de la formation👩\u200d🎓'}, {'profile_url': 'https://www.linkedin.com/in/jcgascoin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMQlucBPlMPCeTW4Dz7gTAHbfScJOVPciA', 'person_name': 'Jean-Charles G.', 'profile_description': 'VP Sales @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gaspardschmitt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA5pipIBk_vXBXQtKVSyBM_i-0xTYGEmHI4', 'person_name': 'Gaspard SCHMITT', 'profile_description': 'Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/opheliemallard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFMJ1oBg4dOWPepwdy2_gnCeEVHumuPCXg', 'person_name': 'Ophélie Mallard', 'profile_description': 'Learning Content Manager'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-lechelle-a518b0182?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACs0AN0By9_RrrB5RqtyJlryqGvycPraWfU', 'person_name': 'Loïc Lechelle', 'profile_description': 'Account Executive @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/laura-giacomuzzi-a929a7160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaXC04BGKI1nEIRkqfty0I-eIR341hgMBk', 'person_name': 'Laura Giacomuzzi', 'profile_description': 'Growth Marketing Manager'}, {'profile_url': 'https://www.linkedin.com/in/antoine-ricci?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWmeVkBChTqXkjSc_SBxoIBEA3qwDc0KAM', 'person_name': 'Antoine Ricci', 'profile_description': 'Développeur back-end PHP/Symfony - 100% remote 🚀'}, {'profile_url': 'https://www.linkedin.com/in/dorian-roos-b0769784?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHmFncBc1qEFwD3FsRtBqAcNTW-VX_ACAc', 'person_name': 'Dorian Roos', 'profile_description': 'Ingénieur DevOps / Dev Back Symfony'}, {'profile_url': 'https://www.linkedin.com/in/morgan-carval-4003037?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFKaoABTGugl6pUGtUtcPkb08bYwtiHeRI', 'person_name': 'MORGAN CARVAL', 'profile_description': 'Director, Impact Investing at Arkéa Capital'}, {'profile_url': 'https://www.linkedin.com/in/xavier-le-gouard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-h1CoB497pggKVrsBp50ZVqkpBvuqCnVI', 'person_name': 'Xavier Le Gouard', 'profile_description': 'Engineering Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/lucie-bullot-714440136?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACErGAABnWl0fklYtJtl1F8tg0WjrdHY-GM', 'person_name': 'Lucie Bullot', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/vincent-allegre-b1b295120?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB3xGQcBjCwhPNp2x9Je54Gu_ebptbkZqe8', 'person_name': 'Vincent Allegre', 'profile_description': 'Account executive'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-tassel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPhXVsBzCQyKmK_0BnZOllU4nXw9RUKSZc', 'person_name': 'Charlotte Tassel', 'profile_description': 'VP Marketing @Edflex-fr'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mence-paquier-a67270261?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEBJ5O8B6BoscbRXfQ3Y3HufsJHemoplRKk', 'person_name': 'Clémence Paquier', 'profile_description': 'Cheffe de projet digital marketing @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-charby?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqoxnUB6HKpz6fuhYKTOhM7RedFmEe1VLI', 'person_name': 'Mathilde CHARBY', 'profile_description': 'People Officer at Edflex | We‘re hiring 🚀'}, {'profile_url': 'https://www.linkedin.com/in/anaig-audrain-6b8454148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOpY-wBQmgTgSNLvYvsWiWTcPDj6VWtxeg', 'person_name': 'Anaig Audrain', 'profile_description': 'Communication Project Manager'}, {'profile_url': 'https://www.linkedin.com/in/remi-lesaint?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ5ao0Blg0xHV4zMdx1zITUrHg5csZz7Kk', 'person_name': 'Rémi Lesaint', 'profile_description': 'Co-founder &amp; CPO at Edflex'}, {'profile_url': 'https://www.linkedin.com/in/laura-cassin-95a489127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB83ahYBqUbUnTmZh-QDQW00pfyPg10CPbU', 'person_name': 'Laura Cassin', 'profile_description': 'Head of Customer Success Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/clement-gentile-3a1430128?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9jJSkBfOQcqEKjWVzDLuCxT_Ibn3FOTUU', 'person_name': 'CLEMENT GENTILE', 'profile_description': 'Strategic Account Executive chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/enzo-parm%C3%A9-378587198?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5b9UwBHEQmTqdUi8tMNNsgcC6kbkAYuzo', 'person_name': 'Enzo Parmé', 'profile_description': 'Learning Content Manager (spé Data / IA)'}, {'profile_url': 'https://www.linkedin.com/in/lucas-etienne?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB2U3-gBK_ugj-WgZN0MUMup2rS0Qx07kQY', 'person_name': 'Lucas Etienne 🎓', 'profile_description': 'Business Developer | Specialist en Solutions d’E-learning chez Edflex | Accélérateur de Compétences en SaaS &amp; Edtech'}, {'profile_url': 'https://www.linkedin.com/in/timotheepoulain?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJ8xmUBKug8u1kSUzx-zItqayeIzelmr1Y', 'person_name': 'Timothée Poulain', 'profile_description': 'Partner at Ternel｜early-stage tech &amp; impact investor'}, {'profile_url': 'https://www.linkedin.com/in/maelle-ouice-161894200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNjVNkBdGVC6yrz3djOlhfuzZwqFAaCWTA', 'person_name': 'Maelle Ouice', 'profile_description': 'Cheffe de projet Communication, EDFLEX.'}, {'profile_url': 'https://www.linkedin.com/in/sarralili?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCv-RMBSrylmhKgI1NEZGxumOU8q4hQXmg', 'person_name': 'Sarah Lili', 'profile_description': 'CSM / Chef de projet digital chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/maxime-piton-b962435?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADsxuIBMcAHMJqRngLcPxSZwoGhejYqkug', 'person_name': 'Maxime Piton', 'profile_description': 'DevOps/Infra Tech Lead at Edflex'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%A9mie-racineux-842490114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByMDbIBMn0PmsAiAx93x4CfD_yrUs9y3XI', 'person_name': 'Noémie Racineux', 'profile_description': 'Customer Success Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/emilie-jarry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABDwWgcBQzq6C9IWoWe3ZYPmfGuCe9X9Lkk', 'person_name': 'Emilie JARRY', 'profile_description': 'Learning Project Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/yannspatafora?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByfh5UBMEcA9rYRRcxW0X0yK1f8bhDGX4c', 'person_name': 'Yann Spatafora', 'profile_description': 'VC @Ternel | Impact Early-Stage'}, {'profile_url': 'https://www.linkedin.com/in/abdoul-hakim-diallo?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACX_nRYBF8ca3hq00SrprJmlOhhrN0uqOj0', 'person_name': 'Abdoul Hakim Diallo', 'profile_description': 'Learning Quality Content Manager'}, {'profile_url': 'https://www.linkedin.com/in/johnny-cottereau-5424aa211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWk8IIB8pZoVSjqmUBUvrqK42eCmWA36Ds', 'person_name': 'Johnny Cottereau', 'profile_description': 'CTO chez Edflex | We‘re hiring 🚀'}, {'profile_url': 'https://www.linkedin.com/in/morgane-rouyer?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBRlaYBS4glSO7VI6kQlotiEoutweJbVmM', 'person_name': 'Morgane Rouyer', 'profile_description': 'Senior Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/florian-bousseaud-57687275?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_3t6oB26ITQdl4d4Qm2EBKM4msYScD2Vw', 'person_name': 'Florian BOUSSEAUD', 'profile_description': 'Développeur back-end chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/romcol?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNN3y8BOebX60Y14RxBGnhS-0cfX4iVNhc', 'person_name': 'Romain Colombat', 'profile_description': 'Développeur Front-End @ Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/mario-baldi-1bb75077?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBOWh8BMJ4XXo4vOviNX2sCMber7aAwNZE', 'person_name': 'Mario Baldi', 'profile_description': 'Senior Software Engineer presso EdFlex Italia'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-charby-342471250?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4BL6IB82N564B_UMdDFI3ku9ILAaNWBzs', 'person_name': 'Mathilde Charby', 'profile_description': 'People officer chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/romanrobert-sales?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxPJkQBwZqRGM9eoWq4tTo_gfe__o6X8C0', 'person_name': 'Robert Rolland Roman', 'profile_description': 'SENIOR EMEA Account Executive ♦ SaaS "Maverick" ex Citrix/ Cisco/ Docebo (14K+)'}, {'profile_url': 'https://www.linkedin.com/in/rubine-mongali-1ab122137?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFMrJMB40HFWRJirjhz9A2eM_EnzchXR7A', 'person_name': 'Rubine MONGALI', 'profile_description': 'People Manager'}, {'profile_url': 'https://www.linkedin.com/in/arianna-graziano-152822194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2vEE4BfSBx_9o4ljZ831_wKjqdFN1zvTI', 'person_name': 'Arianna Graziano', 'profile_description': 'Customer Success – Product Specialist presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/charly-billaud-077006135?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtONsBg_R5fBeftsksh0tP2B2A5jCKelI', 'person_name': 'Charly Billaud', 'profile_description': 'Développeur Back-End - PHP Symfony chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/jade-enouf-442974221?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADfZkHIBgTYMfCS87iNyBT-FQH9ZfpCGJPg', 'person_name': 'Jade Enouf', 'profile_description': 'Etudiante en communication ✨👩\u200d🎓'}, {'profile_url': 'https://www.linkedin.com/in/simon-patrat-07260a110?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvay9YBLe741YhKZr8LzqJOWtdO8IhGaWQ', 'person_name': 'Simon Patrat', 'profile_description': 'Lead front-end developer chez Edflex France'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-martineau-%F0%9F%8C%B8-7a993782?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGUcrEBv7fsluAhonLJegn_hs3z8ztHTvw', 'person_name': 'Chloé Martineau 🌸', 'profile_description': 'Customer Success &amp; Onboarding | Professional Services | Management | Ecommerce'}, {'profile_url': 'https://www.linkedin.com/in/davideconforti?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADtkuEBa2weKDN7buz6dRQCXrPLTPv5lyU', 'person_name': 'Davide Conforti', 'profile_description': 'Managing Director at Edflex Italia, Closing Skill Gaps.'}, {'profile_url': 'https://www.linkedin.com/in/peggyheinen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1G-RsBnNBEG78RrsSFJPr92NK_A8OOxuI', 'person_name': 'Peggy Heinen', 'profile_description': 'Learning Project Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/jean-christophe-corre-0807031b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLT-KAB5WYpT3b6Li_sbqE7Lt7-mxa42WA', 'person_name': 'Jean-Christophe CORRE', 'profile_description': 'Ingénieur étude et développement chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gabriellelair?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQtMvcBJBZLQujvV4UAwGf_fR6ldjSTOC8', 'person_name': 'Gabrielle Lair', 'profile_description': 'Customer Success Manager 🤝'}, {'profile_url': 'https://www.linkedin.com/in/thomas-guillet-3558a4106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrUBvEBsLsVVMmTP8z82BqvFtYE-G3V1rQ', 'person_name': 'Thomas Guillet', 'profile_description': 'Software Developer @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/damien-vauchel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHcuywBwiL1WkTjh6RwMNNajx3l43vMzj4', 'person_name': 'Damien Vauchel', 'profile_description': 'Software Developer chez EdFlex - Chroniqueur comics chez Sanctuary.fr'}, {'profile_url': 'https://www.linkedin.com/in/fabrice-labbe-631437b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeOlcUBvfb4dM98UNep--nn4ROaFdMI7rE', 'person_name': 'fabrice labbe', 'profile_description': 'Développeur JS sénior chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/browningoliver?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABDgWsBje5sCRJ0T2z9dtrJPJ4TuhPJxqI', 'person_name': 'Ollie Browning, FLPI', 'profile_description': 'Country Manager | GTM Leader | Proud dad of 3'}, {'profile_url': 'https://www.linkedin.com/in/coraliebourdonnec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmyigYBp3gFRU58jmUd7bBaQ2f4nktwKIw', 'person_name': 'Coralie Bourdonnec', 'profile_description': 'Learning Project Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/samuel-serot-a3059a49?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAo7LkQBIbAlgP4YopeJgMQncwLfq6yX1IA', 'person_name': 'Samuel SEROT', 'profile_description': 'Tech lead chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/axelle-paulus-a7868b12b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_1UDwBV6j9Exg8yDPlk413WutUHSe79X4', 'person_name': 'Axelle Paulus', 'profile_description': 'Learning Content Expert @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/valentina-garbin-56511418a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACyC2x0B2NW3egyvMq9IV5cdWBUA3FkYfBE', 'person_name': 'Valentina Garbin', 'profile_description': 'Customer Success Operations Assistant'}, {'profile_url': 'https://www.linkedin.com/in/sophie-i-30655015b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZYgrYB2R_idvb06tLPDbL_QwtmoYIL9Dc', 'person_name': 'Sophie I.', 'profile_description': 'People &amp; Culture/ RRH'}, {'profile_url': 'https://www.linkedin.com/in/tscoarnec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpgmAIB_umXlL18e-xhKBC-lKeXD6eEWuA', 'person_name': 'Thomas Scoarnec', 'profile_description': 'Développeur Front-End'}, {'profile_url': 'https://www.linkedin.com/in/elisasantimone?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABV_XusBpqSVnbRcUJUPPtq7TqspnSH5Bds', 'person_name': 'Elisa Santimone', 'profile_description': 'Enterprise Account Executive @Edflex | Ex Uber'}, {'profile_url': 'https://www.linkedin.com/in/maria-giovanna-lanfranchi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcTVTYBy3UzynpivHJIqcr8hE46n0jXSfE', 'person_name': 'Maria Giovanna Lanfranchi', 'profile_description': 'Marketing manager presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/melissa-neveu-design?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQX7jABzcJA0B9tJVH7Z57Nk6ecfYUqI_c', 'person_name': 'Mélissa N.', 'profile_description': 'Creative Lead, Edflex &amp; Branding Creation, Freelance'}, {'profile_url': 'https://www.linkedin.com/in/audrey-calvier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACp9gKoBP0fLH5LUZtm9WpXFWsyHBcfYUlg', 'person_name': 'Audrey Calvier', 'profile_description': 'Head of Product Marketing chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/annesophiegutierrez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAdJd0oB98eYXE277Bt9a1_n5zigs2OPgZY', 'person_name': 'Anne-Sophie Gutierrez Gaborit', 'profile_description': 'Customer Communications Manager'}, {'profile_url': 'https://www.linkedin.com/in/wongelena?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeT8L4BBiQ3JPOXmQknQ-aDZbz0cyQuCU0', 'person_name': 'Elena Wong', 'profile_description': 'Edflex Product Designer ✨ Créatrice Collection Gévaudan'}, {'profile_url': 'https://www.linkedin.com/in/clothildelecose?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkg7vwBpQpsAliFF8ytNhyS2zU-d9Y93cI', 'person_name': 'Clothilde Le Cose', 'profile_description': 'Tech Implementation Manager'}, {'profile_url': 'https://www.linkedin.com/in/julia-minier-b30a6a1b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGih9QBxoy412rZ1urjnaIA3h5CeaZsu1E', 'person_name': 'Julia Minier', 'profile_description': 'Customer Success Manager @Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/stephaniebeaufort?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADx89sBNBYbUIFn0h4jhISN95DxJb-MO3w', 'person_name': 'Stephanie Beaufort', 'profile_description': 'Content is king! Delivering &amp; growing cutting-edge distribution solutions for content: music, gaming, learning. Maximizing revenue through win-win partnerships'}, {'profile_url': 'https://www.linkedin.com/in/santa-gelao-3008a091?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOH27AB_PVEVnlhlGaTqoiM-Y87DYroRI4', 'person_name': 'Santa Gelao', 'profile_description': 'Customer Success - Content &amp; Support Specialist presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/antoine-robert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAK1LfkBp5N_dLCwPA-buxlQwpU5I9fibu8', 'person_name': 'Antoine R.', 'profile_description': 'Senior software developer'}, {'profile_url': 'https://www.linkedin.com/in/matteocaberlotto?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMfOVIBgGK605rnp_gdqG1U7j-_sLkGfWM', 'person_name': 'Matteo Caberlotto', 'profile_description': 'Head of Tech'}, {'profile_url': 'https://www.linkedin.com/in/muriel-hamon-00b8b447?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAnr5gsBoFWgGrsNYU9eIZZjf0Ni3KhlfKw', 'person_name': 'Muriel Hamon', 'profile_description': 'Customer Success Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/mpasqualini?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACIYOIBM-NmabANTH3LW2MaUNabBTnA95M', 'person_name': 'Marco Pasqualini', 'profile_description': 'Senior Software Engineer at EdFlex Italia'}, {'profile_url': 'https://www.linkedin.com/in/elia-rinaldo-ab7758289?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEYOdSsBB2r0tr_qBn193zUm68iy1z0T1gc', 'person_name': 'Elia Rinaldo', 'profile_description': 'SDR presso EdFlex Italia 📈- Allenatore Uefa C ⚽️- USD Olginatese ⚫️⚪️ - Match Analyst 💻'}, {'profile_url': 'https://www.linkedin.com/in/francesco-carante-03b32b2a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYZcG8BGpBhZDY4OoiyJ2kiFgk-FEz_Fq0', 'person_name': 'Francesco Carante', 'profile_description': 'Managing Director presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/marilena-baldi-246916122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5kRtYBaPVHrTWAe-EkSOKahfRpHK6gXCw', 'person_name': 'Marilena Baldi', 'profile_description': 'Software Engineer'}, {'profile_url': 'https://www.linkedin.com/in/anna-ferrari-8a4b6392?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO_ozwBb_NJHElVLslaF4f42rq7l8dZJ_0', 'person_name': 'Anna Ferrari', 'profile_description': 'Head of Customer Success at Edflex Italia'}]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>76,76 %</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>452,22 %</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>3.537.000 €</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>640.500 €</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>14</v>
+      </c>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>64</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Éducation, Formation professionnelle</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/clement-meslin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvHuScB9Nus8s-DxQgr-HuxaVkxqWhIf1s</t>
+      <c r="A61" t="n">
+        <v>34</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edflex </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.edflex.com/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['+33 (0) 9 78 45 06 96', '+33(0)978450696', '+33978450696']</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/edflex-fr</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/philippe-riveron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt6Rd8BpMpPC6GZ2oj-dtUwJGtlH1D9LoM', 'person_name': 'Philippe Riveron', 'profile_description': 'Founder &amp; Chairman @edflex | Learning and development enthusiast | innovator | speaker | entrepreneur | passionate about people, technology and Open Education | Forbes Human Resources Council Official Member.'}</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Founder &amp; Chairman @edflex | Learning and development enthusiast | innovator | speaker | entrepreneur | passionate about people, technology and Open Education | Forbes Human Resources Council Official Member.</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/philippe-riveron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt6Rd8BpMpPC6GZ2oj-dtUwJGtlH1D9LoM</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/lisa-desnos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_5mrwBL4mD2ilQkl4LETfUeHX-xxlIecE', 'person_name': 'Lisa Desnos', 'profile_description': 'Account Manager @Edflex 💻'}, {'profile_url': 'https://www.linkedin.com/in/cyrille-brouiller-1262b191?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNxam4BEwyeC0CJbqgeEq7bDGmr3jvRhHY', 'person_name': 'Cyrille Brouiller', 'profile_description': 'Sales Operations @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/pierre-olivier-carli-147392105?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqTG0cBEbPI9otsUply_dCVhXh8ngWE_3o', 'person_name': 'Pierre-Olivier Carli', 'profile_description': 'Strategic Partnerships and Alliances Director'}, {'profile_url': 'https://www.linkedin.com/in/david-cornec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcMFBIBMiBveP0f56YNdS3HWuboCQEQHlU', 'person_name': 'David Cornec', 'profile_description': 'Sales Development Representative @Edflex - SaaS'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9my-buffet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPj0qEBJg84ayy3EXWBDRx106nJj9Tzu4g', 'person_name': 'Jérémy Buffet', 'profile_description': 'Team Lead SDR/BDR - Sales'}, {'profile_url': 'https://www.linkedin.com/in/mats-fournier-foch-43407992?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOWVigBlp_HdhObrtlssuNKjgd5rovvjvE', 'person_name': 'Mats Fournier-Foch', 'profile_description': 'Learning and development specialist'}, {'profile_url': 'https://www.linkedin.com/in/camillefauveau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA22xcsBufNz_A1_Ix964NUjRP0V2EcPS-E', 'person_name': 'Camille Fauveau', 'profile_description': 'Product Manager | Expertise en formation digitale 💡 | Gestion de projet 🎯 | Stratégie produit 🤩'}, {'profile_url': 'https://www.linkedin.com/in/cedric-corbineau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAOMtoABcG-VLqfailwrcD2D1o4n946eCEE', 'person_name': 'Cédric Corbineau', 'profile_description': 'Product owner chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/raphael-camuset-pro?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaul74BojMt396XBMZ3omcjIqXD9PJ7Jjc', 'person_name': 'Raphael Camuset', 'profile_description': 'Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-hercou%C3%ABt-48327b114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByEG-MBSgzZr8GavJzwt4xbJr2aK1pIC6o', 'person_name': 'Clément Hercouët', 'profile_description': 'Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/elo%C3%AFse-hacquart-84978513a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHuInkBD9BUjxc8pR2ljVwrSKvLJEM1UaU', 'person_name': 'Eloïse Hacquart', 'profile_description': 'Sales @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gr%C3%A9goire-du-chaylard-edflex-elearning?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEwwRMBSxNfGY4n7YYXs_3KWFyzokio0Rs', 'person_name': 'Grégoire du Chaylard', 'profile_description': 'Enterprise Account Executive - Je connecte les entreprises et leurs salariés avec le meilleur de la formation grâce à Edflex | SaaS | Edtech'}, {'profile_url': 'https://www.linkedin.com/in/philippe-riveron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt6Rd8BpMpPC6GZ2oj-dtUwJGtlH1D9LoM', 'person_name': 'Philippe Riveron', 'profile_description': 'Founder &amp; Chairman @edflex | Learning and development enthusiast | innovator | speaker | entrepreneur | passionate about people, technology and Open Education | Forbes Human Resources Council Official Member.'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mentine-tallet-edflex?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeLWUUB69eVr9VGaL2EvhFGEY9yqZswcRE', 'person_name': 'Clémentine Tallet', 'profile_description': "Senior Account Executive chez Edflex | Favorisez l'apprentissage au sein de votre organisation grâce au digital learning 🧠"}, {'profile_url': 'https://www.linkedin.com/in/francescabonavita?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFrpzEBNr5pCZD1awWlxL0S3NXQbriixT0', 'person_name': 'Francesca Bonavita', 'profile_description': 'VP Customer Success &amp; Client Opérations @edflex'}, {'profile_url': 'https://www.linkedin.com/in/raphael-dollat?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOoNq4Bs2lacTKRybybpQwBi11tQmVBhP0', 'person_name': 'Raphaël Dollat', 'profile_description': 'Head of Learning Content chez EdFlex'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-glaser-818ba678?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCM2xQBn4Sp6mYA1EFTHQV6Ue_7LbvKwmk', 'person_name': 'Alexandre Glaser', 'profile_description': 'VC @Educapital'}, {'profile_url': 'https://www.linkedin.com/in/thomas-bonjour-401b5a47?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAn1jsEBzj-6FC0iUVw4weZ_YC2JhU7X70w', 'person_name': 'Thomas Bonjour', 'profile_description': "🌍Impact Investing VC 🔹 Arkéa Capital 🔹 We Positive Invest 🔹 Chargé d'affaires Impact"}, {'profile_url': 'https://www.linkedin.com/in/allison-souvignon-80804b32?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAbE8sgB7ILB1VtVecqpbqzZFgRgFjXG8Wg', 'person_name': 'Allison Souvignon', 'profile_description': 'Strategic Account Executive'}, {'profile_url': 'https://www.linkedin.com/in/corentinroger?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABi-m5AB1FXT03Ybi7bOJLXwlZ1fSS_tJSU', 'person_name': 'Corentin Roger', 'profile_description': 'Customer Success Manager #Edflex'}, {'profile_url': 'https://www.linkedin.com/in/thibaut-adrian-03b64997?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSP-O8BAu0PDOuM_H7ognoP-E5gUq-jqnA', 'person_name': 'Thibaut Adrian', 'profile_description': 'VP Finance @Edflex, B2B SaaS for Open Education 📖'}, {'profile_url': 'https://www.linkedin.com/in/candice-morissonneau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABKZQ8AB3Zlp1-vc6Gb3LlX6V__NoYt3jkQ', 'person_name': 'Candice Morissonneau', 'profile_description': 'Finance Ops @Edflex, B2B SaaS for Open Education 📖'}, {'profile_url': 'https://www.linkedin.com/in/victorlutreau?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABLXtugBI2VwnQvAGMGlNMOnrF7eMfFnZHA', 'person_name': 'Victor Lutreau', 'profile_description': 'Sales Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/rdroissart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYE6egBPh2GDeIJs4jp2VmrgBfOY8UHDoA', 'person_name': 'Raphaël Droissart', 'profile_description': 'Co-Founder &amp; COO @ Edflex'}, {'profile_url': 'https://www.linkedin.com/in/cyrilpetit?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARejhwBuPkLega2H2KuYfFWwbOB6n5hHTI', 'person_name': 'Cyril Petit', 'profile_description': 'VC Investor'}, {'profile_url': 'https://www.linkedin.com/in/clement-meslin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAvHuScB9Nus8s-DxQgr-HuxaVkxqWhIf1s', 'person_name': 'Clément Meslin', 'profile_description': 'Founder &amp; CEO @Edflex | Speaker #Edtech | Host @LearningClub 🎙️'}, {'profile_url': 'https://www.linkedin.com/in/carolevendehauray?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAALiLNoBO_HkPZ-P7CDbia5xXWdjvVLsak0', 'person_name': 'Carole Vendé', 'profile_description': 'VP People &amp; Impact'}, {'profile_url': 'https://www.linkedin.com/in/eva-gerault?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvUJfwBeMnaA9FqRr-1SdB8QOgKkUQ1tbc', 'person_name': 'Eva Gérault', 'profile_description': 'Team Lead Account Manager @Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/manon-cousin-glorieux?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB-O3JoB-juOZgv42D6wjkuYpxGJK2TPqnA', 'person_name': 'Manon Cousin Glorieux', 'profile_description': '✍🏼 Content manager @Edflex • Connecter les organisations avec le meilleur de la formation👩\u200d🎓'}, {'profile_url': 'https://www.linkedin.com/in/jcgascoin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMQlucBPlMPCeTW4Dz7gTAHbfScJOVPciA', 'person_name': 'Jean-Charles G.', 'profile_description': 'VP Sales @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gaspardschmitt?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA5pipIBk_vXBXQtKVSyBM_i-0xTYGEmHI4', 'person_name': 'Gaspard SCHMITT', 'profile_description': 'Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/opheliemallard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFMJ1oBg4dOWPepwdy2_gnCeEVHumuPCXg', 'person_name': 'Ophélie Mallard', 'profile_description': 'Learning Content Manager'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-lechelle-a518b0182?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACs0AN0By9_RrrB5RqtyJlryqGvycPraWfU', 'person_name': 'Loïc Lechelle', 'profile_description': 'Account Executive @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/laura-giacomuzzi-a929a7160?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACaXC04BGKI1nEIRkqfty0I-eIR341hgMBk', 'person_name': 'Laura Giacomuzzi', 'profile_description': 'Growth Marketing Manager'}, {'profile_url': 'https://www.linkedin.com/in/antoine-ricci?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWmeVkBChTqXkjSc_SBxoIBEA3qwDc0KAM', 'person_name': 'Antoine Ricci', 'profile_description': 'Développeur back-end PHP/Symfony - 100% remote 🚀'}, {'profile_url': 'https://www.linkedin.com/in/dorian-roos-b0769784?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHmFncBc1qEFwD3FsRtBqAcNTW-VX_ACAc', 'person_name': 'Dorian Roos', 'profile_description': 'Ingénieur DevOps / Dev Back Symfony'}, {'profile_url': 'https://www.linkedin.com/in/morgan-carval-4003037?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAFKaoABTGugl6pUGtUtcPkb08bYwtiHeRI', 'person_name': 'MORGAN CARVAL', 'profile_description': 'Director, Impact Investing at Arkéa Capital'}, {'profile_url': 'https://www.linkedin.com/in/xavier-le-gouard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-h1CoB497pggKVrsBp50ZVqkpBvuqCnVI', 'person_name': 'Xavier Le Gouard', 'profile_description': 'Engineering Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/lucie-bullot-714440136?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACErGAABnWl0fklYtJtl1F8tg0WjrdHY-GM', 'person_name': 'Lucie Bullot', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/vincent-allegre-b1b295120?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB3xGQcBjCwhPNp2x9Je54Gu_ebptbkZqe8', 'person_name': 'Vincent Allegre', 'profile_description': 'Account executive'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-tassel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPhXVsBzCQyKmK_0BnZOllU4nXw9RUKSZc', 'person_name': 'Charlotte Tassel', 'profile_description': 'VP Marketing @Edflex-fr'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9mence-paquier-a67270261?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEBJ5O8B6BoscbRXfQ3Y3HufsJHemoplRKk', 'person_name': 'Clémence Paquier', 'profile_description': 'Cheffe de projet digital marketing @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-charby?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqoxnUB6HKpz6fuhYKTOhM7RedFmEe1VLI', 'person_name': 'Mathilde CHARBY', 'profile_description': 'People Officer at Edflex | We‘re hiring 🚀'}, {'profile_url': 'https://www.linkedin.com/in/anaig-audrain-6b8454148?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOpY-wBQmgTgSNLvYvsWiWTcPDj6VWtxeg', 'person_name': 'Anaig Audrain', 'profile_description': 'Communication Project Manager'}, {'profile_url': 'https://www.linkedin.com/in/remi-lesaint?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ5ao0Blg0xHV4zMdx1zITUrHg5csZz7Kk', 'person_name': 'Rémi Lesaint', 'profile_description': 'Co-founder &amp; CPO at Edflex'}, {'profile_url': 'https://www.linkedin.com/in/laura-cassin-95a489127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB83ahYBqUbUnTmZh-QDQW00pfyPg10CPbU', 'person_name': 'Laura Cassin', 'profile_description': 'Head of Customer Success Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/clement-gentile-3a1430128?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9jJSkBfOQcqEKjWVzDLuCxT_Ibn3FOTUU', 'person_name': 'CLEMENT GENTILE', 'profile_description': 'Strategic Account Executive chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/enzo-parm%C3%A9-378587198?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5b9UwBHEQmTqdUi8tMNNsgcC6kbkAYuzo', 'person_name': 'Enzo Parmé', 'profile_description': 'Learning Content Manager (spé Data / IA)'}, {'profile_url': 'https://www.linkedin.com/in/lucas-etienne?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB2U3-gBK_ugj-WgZN0MUMup2rS0Qx07kQY', 'person_name': 'Lucas Etienne 🎓', 'profile_description': 'Business Developer | Specialist en Solutions d’E-learning chez Edflex | Accélérateur de Compétences en SaaS &amp; Edtech'}, {'profile_url': 'https://www.linkedin.com/in/timotheepoulain?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJ8xmUBKug8u1kSUzx-zItqayeIzelmr1Y', 'person_name': 'Timothée Poulain', 'profile_description': 'Partner at Ternel｜early-stage tech &amp; impact investor'}, {'profile_url': 'https://www.linkedin.com/in/maelle-ouice-161894200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNjVNkBdGVC6yrz3djOlhfuzZwqFAaCWTA', 'person_name': 'Maelle Ouice', 'profile_description': 'Cheffe de projet Communication, EDFLEX.'}, {'profile_url': 'https://www.linkedin.com/in/sarralili?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACCv-RMBSrylmhKgI1NEZGxumOU8q4hQXmg', 'person_name': 'Sarah Lili', 'profile_description': 'CSM / Chef de projet digital chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/maxime-piton-b962435?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADsxuIBMcAHMJqRngLcPxSZwoGhejYqkug', 'person_name': 'Maxime Piton', 'profile_description': 'DevOps/Infra Tech Lead at Edflex'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%A9mie-racineux-842490114?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByMDbIBMn0PmsAiAx93x4CfD_yrUs9y3XI', 'person_name': 'Noémie Racineux', 'profile_description': 'Customer Success Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/emilie-jarry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABDwWgcBQzq6C9IWoWe3ZYPmfGuCe9X9Lkk', 'person_name': 'Emilie JARRY', 'profile_description': 'Learning Project Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/yannspatafora?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAByfh5UBMEcA9rYRRcxW0X0yK1f8bhDGX4c', 'person_name': 'Yann Spatafora', 'profile_description': 'VC @Ternel | Impact Early-Stage'}, {'profile_url': 'https://www.linkedin.com/in/abdoul-hakim-diallo?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACX_nRYBF8ca3hq00SrprJmlOhhrN0uqOj0', 'person_name': 'Abdoul Hakim Diallo', 'profile_description': 'Learning Quality Content Manager'}, {'profile_url': 'https://www.linkedin.com/in/johnny-cottereau-5424aa211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWk8IIB8pZoVSjqmUBUvrqK42eCmWA36Ds', 'person_name': 'Johnny Cottereau', 'profile_description': 'CTO chez Edflex | We‘re hiring 🚀'}, {'profile_url': 'https://www.linkedin.com/in/morgane-rouyer?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBRlaYBS4glSO7VI6kQlotiEoutweJbVmM', 'person_name': 'Morgane Rouyer', 'profile_description': 'Senior Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/florian-bousseaud-57687275?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA_3t6oB26ITQdl4d4Qm2EBKM4msYScD2Vw', 'person_name': 'Florian BOUSSEAUD', 'profile_description': 'Développeur back-end chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/romcol?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNN3y8BOebX60Y14RxBGnhS-0cfX4iVNhc', 'person_name': 'Romain Colombat', 'profile_description': 'Développeur Front-End @ Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/mario-baldi-1bb75077?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBOWh8BMJ4XXo4vOviNX2sCMber7aAwNZE', 'person_name': 'Mario Baldi', 'profile_description': 'Senior Software Engineer presso EdFlex Italia'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-charby-342471250?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4BL6IB82N564B_UMdDFI3ku9ILAaNWBzs', 'person_name': 'Mathilde Charby', 'profile_description': 'People officer chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/romanrobert-sales?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxPJkQBwZqRGM9eoWq4tTo_gfe__o6X8C0', 'person_name': 'Robert Rolland Roman', 'profile_description': 'SENIOR EMEA Account Executive ♦ SaaS "Maverick" ex Citrix/ Cisco/ Docebo (14K+)'}, {'profile_url': 'https://www.linkedin.com/in/rubine-mongali-1ab122137?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACFMrJMB40HFWRJirjhz9A2eM_EnzchXR7A', 'person_name': 'Rubine MONGALI', 'profile_description': 'People Manager'}, {'profile_url': 'https://www.linkedin.com/in/arianna-graziano-152822194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2vEE4BfSBx_9o4ljZ831_wKjqdFN1zvTI', 'person_name': 'Arianna Graziano', 'profile_description': 'Customer Success – Product Specialist presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/charly-billaud-077006135?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDtONsBg_R5fBeftsksh0tP2B2A5jCKelI', 'person_name': 'Charly Billaud', 'profile_description': 'Développeur Back-End - PHP Symfony chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/jade-enouf-442974221?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADfZkHIBgTYMfCS87iNyBT-FQH9ZfpCGJPg', 'person_name': 'Jade Enouf', 'profile_description': 'Etudiante en communication ✨👩\u200d🎓'}, {'profile_url': 'https://www.linkedin.com/in/simon-patrat-07260a110?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvay9YBLe741YhKZr8LzqJOWtdO8IhGaWQ', 'person_name': 'Simon Patrat', 'profile_description': 'Lead front-end developer chez Edflex France'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-martineau-%F0%9F%8C%B8-7a993782?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGUcrEBv7fsluAhonLJegn_hs3z8ztHTvw', 'person_name': 'Chloé Martineau 🌸', 'profile_description': 'Customer Success &amp; Onboarding | Professional Services | Management | Ecommerce'}, {'profile_url': 'https://www.linkedin.com/in/davideconforti?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADtkuEBa2weKDN7buz6dRQCXrPLTPv5lyU', 'person_name': 'Davide Conforti', 'profile_description': 'Managing Director at Edflex Italia, Closing Skill Gaps.'}, {'profile_url': 'https://www.linkedin.com/in/peggyheinen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA1G-RsBnNBEG78RrsSFJPr92NK_A8OOxuI', 'person_name': 'Peggy Heinen', 'profile_description': 'Learning Project Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/jean-christophe-corre-0807031b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADLT-KAB5WYpT3b6Li_sbqE7Lt7-mxa42WA', 'person_name': 'Jean-Christophe CORRE', 'profile_description': 'Ingénieur étude et développement chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/gabriellelair?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQtMvcBJBZLQujvV4UAwGf_fR6ldjSTOC8', 'person_name': 'Gabrielle Lair', 'profile_description': 'Customer Success Manager 🤝'}, {'profile_url': 'https://www.linkedin.com/in/thomas-guillet-3558a4106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABrUBvEBsLsVVMmTP8z82BqvFtYE-G3V1rQ', 'person_name': 'Thomas Guillet', 'profile_description': 'Software Developer @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/damien-vauchel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHcuywBwiL1WkTjh6RwMNNajx3l43vMzj4', 'person_name': 'Damien Vauchel', 'profile_description': 'Software Developer chez EdFlex - Chroniqueur comics chez Sanctuary.fr'}, {'profile_url': 'https://www.linkedin.com/in/fabrice-labbe-631437b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeOlcUBvfb4dM98UNep--nn4ROaFdMI7rE', 'person_name': 'fabrice labbe', 'profile_description': 'Développeur JS sénior chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/browningoliver?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABDgWsBje5sCRJ0T2z9dtrJPJ4TuhPJxqI', 'person_name': 'Ollie Browning, FLPI', 'profile_description': 'Country Manager | GTM Leader | Proud dad of 3'}, {'profile_url': 'https://www.linkedin.com/in/coraliebourdonnec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAmyigYBp3gFRU58jmUd7bBaQ2f4nktwKIw', 'person_name': 'Coralie Bourdonnec', 'profile_description': 'Learning Project Manager @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/samuel-serot-a3059a49?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAo7LkQBIbAlgP4YopeJgMQncwLfq6yX1IA', 'person_name': 'Samuel SEROT', 'profile_description': 'Tech lead chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/axelle-paulus-a7868b12b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_1UDwBV6j9Exg8yDPlk413WutUHSe79X4', 'person_name': 'Axelle Paulus', 'profile_description': 'Learning Content Expert @Edflex'}, {'profile_url': 'https://www.linkedin.com/in/valentina-garbin-56511418a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACyC2x0B2NW3egyvMq9IV5cdWBUA3FkYfBE', 'person_name': 'Valentina Garbin', 'profile_description': 'Customer Success Operations Assistant'}, {'profile_url': 'https://www.linkedin.com/in/sophie-i-30655015b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZYgrYB2R_idvb06tLPDbL_QwtmoYIL9Dc', 'person_name': 'Sophie I.', 'profile_description': 'People &amp; Culture/ RRH'}, {'profile_url': 'https://www.linkedin.com/in/tscoarnec?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpgmAIB_umXlL18e-xhKBC-lKeXD6eEWuA', 'person_name': 'Thomas Scoarnec', 'profile_description': 'Développeur Front-End'}, {'profile_url': 'https://www.linkedin.com/in/elisasantimone?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABV_XusBpqSVnbRcUJUPPtq7TqspnSH5Bds', 'person_name': 'Elisa Santimone', 'profile_description': 'Enterprise Account Executive @Edflex | Ex Uber'}, {'profile_url': 'https://www.linkedin.com/in/maria-giovanna-lanfranchi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAcTVTYBy3UzynpivHJIqcr8hE46n0jXSfE', 'person_name': 'Maria Giovanna Lanfranchi', 'profile_description': 'Marketing manager presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/melissa-neveu-design?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQX7jABzcJA0B9tJVH7Z57Nk6ecfYUqI_c', 'person_name': 'Mélissa N.', 'profile_description': 'Creative Lead, Edflex &amp; Branding Creation, Freelance'}, {'profile_url': 'https://www.linkedin.com/in/audrey-calvier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACp9gKoBP0fLH5LUZtm9WpXFWsyHBcfYUlg', 'person_name': 'Audrey Calvier', 'profile_description': 'Head of Product Marketing chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/annesophiegutierrez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAdJd0oB98eYXE277Bt9a1_n5zigs2OPgZY', 'person_name': 'Anne-Sophie Gutierrez Gaborit', 'profile_description': 'Customer Communications Manager'}, {'profile_url': 'https://www.linkedin.com/in/wongelena?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABeT8L4BBiQ3JPOXmQknQ-aDZbz0cyQuCU0', 'person_name': 'Elena Wong', 'profile_description': 'Edflex Product Designer ✨ Créatrice Collection Gévaudan'}, {'profile_url': 'https://www.linkedin.com/in/clothildelecose?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAkg7vwBpQpsAliFF8ytNhyS2zU-d9Y93cI', 'person_name': 'Clothilde Le Cose', 'profile_description': 'Tech Implementation Manager'}, {'profile_url': 'https://www.linkedin.com/in/julia-minier-b30a6a1b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADGih9QBxoy412rZ1urjnaIA3h5CeaZsu1E', 'person_name': 'Julia Minier', 'profile_description': 'Customer Success Manager @Edflex 🎓'}, {'profile_url': 'https://www.linkedin.com/in/stephaniebeaufort?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADx89sBNBYbUIFn0h4jhISN95DxJb-MO3w', 'person_name': 'Stephanie Beaufort', 'profile_description': 'Content is king! Delivering &amp; growing cutting-edge distribution solutions for content: music, gaming, learning. Maximizing revenue through win-win partnerships'}, {'profile_url': 'https://www.linkedin.com/in/santa-gelao-3008a091?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOH27AB_PVEVnlhlGaTqoiM-Y87DYroRI4', 'person_name': 'Santa Gelao', 'profile_description': 'Customer Success - Content &amp; Support Specialist presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/antoine-robert?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAK1LfkBp5N_dLCwPA-buxlQwpU5I9fibu8', 'person_name': 'Antoine R.', 'profile_description': 'Senior software developer'}, {'profile_url': 'https://www.linkedin.com/in/matteocaberlotto?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMfOVIBgGK605rnp_gdqG1U7j-_sLkGfWM', 'person_name': 'Matteo Caberlotto', 'profile_description': 'Head of Tech'}, {'profile_url': 'https://www.linkedin.com/in/muriel-hamon-00b8b447?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAnr5gsBoFWgGrsNYU9eIZZjf0Ni3KhlfKw', 'person_name': 'Muriel Hamon', 'profile_description': 'Customer Success Manager chez Edflex'}, {'profile_url': 'https://www.linkedin.com/in/mpasqualini?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACIYOIBM-NmabANTH3LW2MaUNabBTnA95M', 'person_name': 'Marco Pasqualini', 'profile_description': 'Senior Software Engineer at EdFlex Italia'}, {'profile_url': 'https://www.linkedin.com/in/elia-rinaldo-ab7758289?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEYOdSsBB2r0tr_qBn193zUm68iy1z0T1gc', 'person_name': 'Elia Rinaldo', 'profile_description': 'SDR presso EdFlex Italia 📈- Allenatore Uefa C ⚽️- USD Olginatese ⚫️⚪️ - Match Analyst 💻'}, {'profile_url': 'https://www.linkedin.com/in/francesco-carante-03b32b2a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYZcG8BGpBhZDY4OoiyJ2kiFgk-FEz_Fq0', 'person_name': 'Francesco Carante', 'profile_description': 'Managing Director presso Edflex Italia'}, {'profile_url': 'https://www.linkedin.com/in/marilena-baldi-246916122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5kRtYBaPVHrTWAe-EkSOKahfRpHK6gXCw', 'person_name': 'Marilena Baldi', 'profile_description': 'Software Engineer'}, {'profile_url': 'https://www.linkedin.com/in/anna-ferrari-8a4b6392?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO_ozwBb_NJHElVLslaF4f42rq7l8dZJ_0', 'person_name': 'Anna Ferrari', 'profile_description': 'Head of Customer Success at Edflex Italia'}]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>76,76 %</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>452,22 %</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>3.537.000 €</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>640.500 €</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>14</v>
+      </c>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>64</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Éducation, Formation professionnelle</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/remi-lesaint?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ5ao0Blg0xHV4zMdx1zITUrHg5csZz7Kk</t>
+      <c r="A62" t="n">
+        <v>162</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cohérence </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.coherence-communication.fr/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[' 02 99 99 99 41', '+33 2 99 99 99 41', '02 99 99 99 41']</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['support@agence-coherence.fr', 'm.liger@agence-coherence.fr']</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['27 Av. des Peupliers, 35510 Cesson-Sévigné']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/coherencecommunication</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/fabrice-poupard-1b4761127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9B8dgBmsynbdGlnQvFxlz5D9Zn9l6bMiE', 'person_name': 'Fabrice POUPARD', 'profile_description': 'Co-Fondateur Associé Groupe Cohérence'}</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Co-Fondateur Associé Groupe Cohérence</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/fabrice-poupard-1b4761127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9B8dgBmsynbdGlnQvFxlz5D9Zn9l6bMiE</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/karim-soualah-737b4692?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABO_FJsBDA0Wo-drpOqTUznDiMK1uIFnSRc', 'person_name': 'Karim Soualah', 'profile_description': 'Responsable développement commercial et réseau mandataires'}, {'profile_url': 'https://www.linkedin.com/in/agrebi-m-management-commercial-strat%C3%A9gie-digitale-vente-coaching?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABbRSUoBwMpn9zbP3QKYSu8QnkHoNoPXwi4', 'person_name': 'Mohamed AGREBI', 'profile_description': 'Senior Advisor - Business Unit &amp; Manager Sales - Customer Success SaaS - Transition Manager'}, {'profile_url': 'https://www.linkedin.com/in/cyrille-fadier-8294a4191?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC0ZyaEBqqaUleiDyDbWCsYGxto0Pvj9Gr4', 'person_name': 'Cyrille Fadier', 'profile_description': 'Responsable Agence chez Coherence communication'}, {'profile_url': 'https://www.linkedin.com/in/fabrice-poupard-1b4761127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9B8dgBmsynbdGlnQvFxlz5D9Zn9l6bMiE', 'person_name': 'Fabrice POUPARD', 'profile_description': 'Co-Fondateur Associé Groupe Cohérence'}, {'profile_url': 'https://www.linkedin.com/in/mariongueguen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHNBD0B2Xp5djLod9PhopiDxRSir0efpdE', 'person_name': 'Marion Bard', 'profile_description': 'Responsable Ressources Humaines chez Cohérence Communication'}, {'profile_url': 'https://www.linkedin.com/in/laury-brunoy-rogeau-84528984?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABHWoXUB27_eEk909xwmIaj-MCaiCtLUooY', 'person_name': 'Laury Brunoy - Rogeau', 'profile_description': 'Directrice des opérations'}, {'profile_url': 'https://www.linkedin.com/in/frederic-chenaud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABKLKfcBZxKyx4-daEchHRSq_oXpH68mg7U', 'person_name': 'Frédéric Chenaud', 'profile_description': '🚀Vente Digitale B2B🚀|Transformation digitale| Opérations &amp; Stratégie Commerciale | Outsourcing'}, {'profile_url': 'https://www.linkedin.com/in/mathieu-baupl%C3%A9-2810ba124?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6ggAEBZ50EsKEQWZ31CqFiTIrzfpSuMXU', 'person_name': 'Mathieu Bauplé', 'profile_description': 'Team leader chez Cohérence Communication Google Partner'}, {'profile_url': 'https://www.linkedin.com/in/maxime-cau-5900006a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAChlK_EBPUVX-srfDpGzwt8ne1Zkyus9IYk', 'person_name': 'Maxime Cau', 'profile_description': 'Business Developer'}, {'profile_url': 'https://www.linkedin.com/in/sophie-mayen-ch%C3%A9n%C3%A9-b0a27b14b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQrT3oByGnixLJq1I6C-bBlu_n08m8wgFw', 'person_name': 'Sophie MAYEN CHÉNÉ', 'profile_description': 'Conseillère commerciale'}, {'profile_url': 'https://www.linkedin.com/in/quentin-lebatard-9bb0b1285?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEU_V18B0XwWKaXtEDX4X1xfMCs_1WY3w60', 'person_name': 'Quentin Lebatard', 'profile_description': 'Conseiller Commercial en Communication Digitale'}, {'profile_url': 'https://www.linkedin.com/in/johan-ziri-840416159?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACX4fjABcKVwiF3AHAwjOlMgDxiytX3z7aI', 'person_name': 'Johan Ziri', 'profile_description': 'Conseiller Indépendant en communication IDF'}]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>35,15 %</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>146,87 %</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>8.377.323 €</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>3.393.429 €</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>27</v>
+      </c>
+      <c r="R62" t="n">
+        <v>10</v>
+      </c>
+      <c r="S62" t="n">
+        <v>65</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Publicité, Marketing et Communication</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/philippe-riveron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt6Rd8BpMpPC6GZ2oj-dtUwJGtlH1D9LoM</t>
+      <c r="A63" t="n">
+        <v>203</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Middleway </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.middleway.eu/fr/accueil/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['jobs@middleway.eu', 'contact@middleway.eu']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/middleway</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/cmymw?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjgk64BOZuTsxauZfMogFavkuGNo99nBhs', 'person_name': 'Cédric MARMEY', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Data Integration Architect | Co-Founder at MiddleWay</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/cmymw?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjgk64BOZuTsxauZfMogFavkuGNo99nBhs</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/jacques-lesur-a3572b170?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACivxgkBYKo-2Lr1AYwP6aNDdqo4v3bNLf4', 'person_name': 'Jacques Lesur', 'profile_description': 'Dev .Net'}, {'profile_url': 'https://www.linkedin.com/in/sauben?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPUIyUBKVEubPOxaP3pLpn-gkl6wvlSIvc', 'person_name': 'Stephanie A.', 'profile_description': 'C# / .Net developer'}, {'profile_url': 'https://www.linkedin.com/in/adrien-deconinck-b32204162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbUWVYB0ieHustVjSyNnb1EtQS7_iJo5jU', 'person_name': 'Adrien- Deconinck', 'profile_description': 'Data Integration Engineer'}, {'profile_url': 'https://www.linkedin.com/in/bastien-brailly-vignal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp3-_kBfzk0HIjiEZq8KgpT0MA2BqbMncI', 'person_name': 'Bastien BRAILLY-VIGNAL', 'profile_description': 'Data Integration Consultant | Partner at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/ganne-armel-55087a200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNi3YwBGv-Wx4v6dLRvSIMve1BOHMDEbEk', 'person_name': 'Ganne Armel', 'profile_description': 'Data Integration Engineer'}, {'profile_url': 'https://www.linkedin.com/in/charles-caron-04a067107?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABriBXoBGU5WQbuihgqsiaPve8GVpWExD20', 'person_name': 'Charles CARON', 'profile_description': 'Ingénieur en recherche et développement Azure chez MiddleWay | Architecture technique des flux'}, {'profile_url': 'https://www.linkedin.com/in/dgrospelier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAie7YBZYvQCHNHlO2BIgQwmMSxfvEwlFo', 'person_name': 'David GROSPELIER', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/oguzhan-yigit-847449162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbdVXcBcxSh1QRKxBSdgCQP00wo2NAtBqc', 'person_name': 'Oguzhan YIGIT', 'profile_description': 'Data Integration Architect chez MIDDLEWAY Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/maxime-arbez-1a747144?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlSrs8BYSaE2RN0myxW97n1gqzJ6DsVUpc', 'person_name': 'Maxime Arbez', 'profile_description': 'IT Project Manager and Business Analyst at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/abeaufrere?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbri_0BC8pXeYOG7IgbrmaZCNSIQ_djIqY', 'person_name': 'Antoine Beaufrère', 'profile_description': 'Data Integration Engineer at Middleway'}, {'profile_url': 'https://www.linkedin.com/in/cmymw?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjgk64BOZuTsxauZfMogFavkuGNo99nBhs', 'person_name': 'Cédric MARMEY', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-guichard-562bb920?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARy_toBWXSHlz-XEs1QAnYsKCNJyo127DY', 'person_name': 'Alexandre Guichard', 'profile_description': 'BI &amp; Data Integration Architect | Partner at MiddleWay'}]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>30,16 %</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>120,51 %</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>7.343.329 €</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>3.330.144 €</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>21</v>
+      </c>
+      <c r="R63" t="n">
+        <v>10</v>
+      </c>
+      <c r="S63" t="n">
+        <v>65</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/fabrice-poupard-1b4761127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9B8dgBmsynbdGlnQvFxlz5D9Zn9l6bMiE</t>
+      <c r="A64" t="n">
+        <v>203</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Middleway </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.middleway.eu/fr/accueil/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['jobs@middleway.eu', 'contact@middleway.eu']</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/middleway</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/dgrospelier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAie7YBZYvQCHNHlO2BIgQwmMSxfvEwlFo', 'person_name': 'David GROSPELIER', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Data Integration Architect | Co-Founder at MiddleWay</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dgrospelier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAie7YBZYvQCHNHlO2BIgQwmMSxfvEwlFo</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/jacques-lesur-a3572b170?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACivxgkBYKo-2Lr1AYwP6aNDdqo4v3bNLf4', 'person_name': 'Jacques Lesur', 'profile_description': 'Dev .Net'}, {'profile_url': 'https://www.linkedin.com/in/sauben?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPUIyUBKVEubPOxaP3pLpn-gkl6wvlSIvc', 'person_name': 'Stephanie A.', 'profile_description': 'C# / .Net developer'}, {'profile_url': 'https://www.linkedin.com/in/adrien-deconinck-b32204162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbUWVYB0ieHustVjSyNnb1EtQS7_iJo5jU', 'person_name': 'Adrien- Deconinck', 'profile_description': 'Data Integration Engineer'}, {'profile_url': 'https://www.linkedin.com/in/bastien-brailly-vignal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp3-_kBfzk0HIjiEZq8KgpT0MA2BqbMncI', 'person_name': 'Bastien BRAILLY-VIGNAL', 'profile_description': 'Data Integration Consultant | Partner at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/ganne-armel-55087a200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNi3YwBGv-Wx4v6dLRvSIMve1BOHMDEbEk', 'person_name': 'Ganne Armel', 'profile_description': 'Data Integration Engineer'}, {'profile_url': 'https://www.linkedin.com/in/charles-caron-04a067107?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABriBXoBGU5WQbuihgqsiaPve8GVpWExD20', 'person_name': 'Charles CARON', 'profile_description': 'Ingénieur en recherche et développement Azure chez MiddleWay | Architecture technique des flux'}, {'profile_url': 'https://www.linkedin.com/in/dgrospelier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAie7YBZYvQCHNHlO2BIgQwmMSxfvEwlFo', 'person_name': 'David GROSPELIER', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/oguzhan-yigit-847449162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbdVXcBcxSh1QRKxBSdgCQP00wo2NAtBqc', 'person_name': 'Oguzhan YIGIT', 'profile_description': 'Data Integration Architect chez MIDDLEWAY Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/maxime-arbez-1a747144?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlSrs8BYSaE2RN0myxW97n1gqzJ6DsVUpc', 'person_name': 'Maxime Arbez', 'profile_description': 'IT Project Manager and Business Analyst at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/abeaufrere?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbri_0BC8pXeYOG7IgbrmaZCNSIQ_djIqY', 'person_name': 'Antoine Beaufrère', 'profile_description': 'Data Integration Engineer at Middleway'}, {'profile_url': 'https://www.linkedin.com/in/cmymw?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjgk64BOZuTsxauZfMogFavkuGNo99nBhs', 'person_name': 'Cédric MARMEY', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-guichard-562bb920?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARy_toBWXSHlz-XEs1QAnYsKCNJyo127DY', 'person_name': 'Alexandre Guichard', 'profile_description': 'BI &amp; Data Integration Architect | Partner at MiddleWay'}]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>30,16 %</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>120,51 %</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>7.343.329 €</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>3.330.144 €</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>21</v>
+      </c>
+      <c r="R64" t="n">
+        <v>10</v>
+      </c>
+      <c r="S64" t="n">
+        <v>65</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/cmymw?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjgk64BOZuTsxauZfMogFavkuGNo99nBhs</t>
+      <c r="A65" t="n">
+        <v>203</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Middleway </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.middleway.eu/fr/accueil/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['jobs@middleway.eu', 'contact@middleway.eu']</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/middleway</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/oguzhan-yigit-847449162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbdVXcBcxSh1QRKxBSdgCQP00wo2NAtBqc', 'person_name': 'Oguzhan YIGIT', 'profile_description': 'Data Integration Architect chez MIDDLEWAY Co-founder'}</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Data Integration Architect chez MIDDLEWAY Co-founder</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/oguzhan-yigit-847449162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbdVXcBcxSh1QRKxBSdgCQP00wo2NAtBqc</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/jacques-lesur-a3572b170?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACivxgkBYKo-2Lr1AYwP6aNDdqo4v3bNLf4', 'person_name': 'Jacques Lesur', 'profile_description': 'Dev .Net'}, {'profile_url': 'https://www.linkedin.com/in/sauben?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPUIyUBKVEubPOxaP3pLpn-gkl6wvlSIvc', 'person_name': 'Stephanie A.', 'profile_description': 'C# / .Net developer'}, {'profile_url': 'https://www.linkedin.com/in/adrien-deconinck-b32204162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbUWVYB0ieHustVjSyNnb1EtQS7_iJo5jU', 'person_name': 'Adrien- Deconinck', 'profile_description': 'Data Integration Engineer'}, {'profile_url': 'https://www.linkedin.com/in/bastien-brailly-vignal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp3-_kBfzk0HIjiEZq8KgpT0MA2BqbMncI', 'person_name': 'Bastien BRAILLY-VIGNAL', 'profile_description': 'Data Integration Consultant | Partner at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/ganne-armel-55087a200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNi3YwBGv-Wx4v6dLRvSIMve1BOHMDEbEk', 'person_name': 'Ganne Armel', 'profile_description': 'Data Integration Engineer'}, {'profile_url': 'https://www.linkedin.com/in/charles-caron-04a067107?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABriBXoBGU5WQbuihgqsiaPve8GVpWExD20', 'person_name': 'Charles CARON', 'profile_description': 'Ingénieur en recherche et développement Azure chez MiddleWay | Architecture technique des flux'}, {'profile_url': 'https://www.linkedin.com/in/dgrospelier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAie7YBZYvQCHNHlO2BIgQwmMSxfvEwlFo', 'person_name': 'David GROSPELIER', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/oguzhan-yigit-847449162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbdVXcBcxSh1QRKxBSdgCQP00wo2NAtBqc', 'person_name': 'Oguzhan YIGIT', 'profile_description': 'Data Integration Architect chez MIDDLEWAY Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/maxime-arbez-1a747144?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlSrs8BYSaE2RN0myxW97n1gqzJ6DsVUpc', 'person_name': 'Maxime Arbez', 'profile_description': 'IT Project Manager and Business Analyst at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/abeaufrere?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbri_0BC8pXeYOG7IgbrmaZCNSIQ_djIqY', 'person_name': 'Antoine Beaufrère', 'profile_description': 'Data Integration Engineer at Middleway'}, {'profile_url': 'https://www.linkedin.com/in/cmymw?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjgk64BOZuTsxauZfMogFavkuGNo99nBhs', 'person_name': 'Cédric MARMEY', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-guichard-562bb920?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARy_toBWXSHlz-XEs1QAnYsKCNJyo127DY', 'person_name': 'Alexandre Guichard', 'profile_description': 'BI &amp; Data Integration Architect | Partner at MiddleWay'}]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>30,16 %</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>120,51 %</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>7.343.329 €</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>3.330.144 €</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>21</v>
+      </c>
+      <c r="R65" t="n">
+        <v>10</v>
+      </c>
+      <c r="S65" t="n">
+        <v>65</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/dgrospelier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAie7YBZYvQCHNHlO2BIgQwmMSxfvEwlFo</t>
+      <c r="A66" t="n">
+        <v>203</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Middleway </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.middleway.eu/fr/accueil/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['jobs@middleway.eu', 'contact@middleway.eu']</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/middleway</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/bastien-brailly-vignal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp3-_kBfzk0HIjiEZq8KgpT0MA2BqbMncI', 'person_name': 'Bastien BRAILLY-VIGNAL', 'profile_description': 'Data Integration Consultant | Partner at MiddleWay'}</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Data Integration Consultant | Partner at MiddleWay</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bastien-brailly-vignal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp3-_kBfzk0HIjiEZq8KgpT0MA2BqbMncI</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/jacques-lesur-a3572b170?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACivxgkBYKo-2Lr1AYwP6aNDdqo4v3bNLf4', 'person_name': 'Jacques Lesur', 'profile_description': 'Dev .Net'}, {'profile_url': 'https://www.linkedin.com/in/sauben?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPUIyUBKVEubPOxaP3pLpn-gkl6wvlSIvc', 'person_name': 'Stephanie A.', 'profile_description': 'C# / .Net developer'}, {'profile_url': 'https://www.linkedin.com/in/adrien-deconinck-b32204162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbUWVYB0ieHustVjSyNnb1EtQS7_iJo5jU', 'person_name': 'Adrien- Deconinck', 'profile_description': 'Data Integration Engineer'}, {'profile_url': 'https://www.linkedin.com/in/bastien-brailly-vignal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp3-_kBfzk0HIjiEZq8KgpT0MA2BqbMncI', 'person_name': 'Bastien BRAILLY-VIGNAL', 'profile_description': 'Data Integration Consultant | Partner at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/ganne-armel-55087a200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNi3YwBGv-Wx4v6dLRvSIMve1BOHMDEbEk', 'person_name': 'Ganne Armel', 'profile_description': 'Data Integration Engineer'}, {'profile_url': 'https://www.linkedin.com/in/charles-caron-04a067107?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABriBXoBGU5WQbuihgqsiaPve8GVpWExD20', 'person_name': 'Charles CARON', 'profile_description': 'Ingénieur en recherche et développement Azure chez MiddleWay | Architecture technique des flux'}, {'profile_url': 'https://www.linkedin.com/in/dgrospelier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAie7YBZYvQCHNHlO2BIgQwmMSxfvEwlFo', 'person_name': 'David GROSPELIER', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/oguzhan-yigit-847449162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbdVXcBcxSh1QRKxBSdgCQP00wo2NAtBqc', 'person_name': 'Oguzhan YIGIT', 'profile_description': 'Data Integration Architect chez MIDDLEWAY Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/maxime-arbez-1a747144?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlSrs8BYSaE2RN0myxW97n1gqzJ6DsVUpc', 'person_name': 'Maxime Arbez', 'profile_description': 'IT Project Manager and Business Analyst at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/abeaufrere?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbri_0BC8pXeYOG7IgbrmaZCNSIQ_djIqY', 'person_name': 'Antoine Beaufrère', 'profile_description': 'Data Integration Engineer at Middleway'}, {'profile_url': 'https://www.linkedin.com/in/cmymw?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjgk64BOZuTsxauZfMogFavkuGNo99nBhs', 'person_name': 'Cédric MARMEY', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-guichard-562bb920?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARy_toBWXSHlz-XEs1QAnYsKCNJyo127DY', 'person_name': 'Alexandre Guichard', 'profile_description': 'BI &amp; Data Integration Architect | Partner at MiddleWay'}]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>30,16 %</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>120,51 %</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>7.343.329 €</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>3.330.144 €</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>21</v>
+      </c>
+      <c r="R66" t="n">
+        <v>10</v>
+      </c>
+      <c r="S66" t="n">
+        <v>65</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/oguzhan-yigit-847449162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbdVXcBcxSh1QRKxBSdgCQP00wo2NAtBqc</t>
+      <c r="A67" t="n">
+        <v>203</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Middleway </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.middleway.eu/fr/accueil/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['jobs@middleway.eu', 'contact@middleway.eu']</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/middleway</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/alexandre-guichard-562bb920?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARy_toBWXSHlz-XEs1QAnYsKCNJyo127DY', 'person_name': 'Alexandre Guichard', 'profile_description': 'BI &amp; Data Integration Architect | Partner at MiddleWay'}</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>BI &amp; Data Integration Architect | Partner at MiddleWay</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexandre-guichard-562bb920?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARy_toBWXSHlz-XEs1QAnYsKCNJyo127DY</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/jacques-lesur-a3572b170?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACivxgkBYKo-2Lr1AYwP6aNDdqo4v3bNLf4', 'person_name': 'Jacques Lesur', 'profile_description': 'Dev .Net'}, {'profile_url': 'https://www.linkedin.com/in/sauben?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABPUIyUBKVEubPOxaP3pLpn-gkl6wvlSIvc', 'person_name': 'Stephanie A.', 'profile_description': 'C# / .Net developer'}, {'profile_url': 'https://www.linkedin.com/in/adrien-deconinck-b32204162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbUWVYB0ieHustVjSyNnb1EtQS7_iJo5jU', 'person_name': 'Adrien- Deconinck', 'profile_description': 'Data Integration Engineer'}, {'profile_url': 'https://www.linkedin.com/in/bastien-brailly-vignal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp3-_kBfzk0HIjiEZq8KgpT0MA2BqbMncI', 'person_name': 'Bastien BRAILLY-VIGNAL', 'profile_description': 'Data Integration Consultant | Partner at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/ganne-armel-55087a200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNi3YwBGv-Wx4v6dLRvSIMve1BOHMDEbEk', 'person_name': 'Ganne Armel', 'profile_description': 'Data Integration Engineer'}, {'profile_url': 'https://www.linkedin.com/in/charles-caron-04a067107?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABriBXoBGU5WQbuihgqsiaPve8GVpWExD20', 'person_name': 'Charles CARON', 'profile_description': 'Ingénieur en recherche et développement Azure chez MiddleWay | Architecture technique des flux'}, {'profile_url': 'https://www.linkedin.com/in/dgrospelier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAie7YBZYvQCHNHlO2BIgQwmMSxfvEwlFo', 'person_name': 'David GROSPELIER', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/oguzhan-yigit-847449162?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbdVXcBcxSh1QRKxBSdgCQP00wo2NAtBqc', 'person_name': 'Oguzhan YIGIT', 'profile_description': 'Data Integration Architect chez MIDDLEWAY Co-founder'}, {'profile_url': 'https://www.linkedin.com/in/maxime-arbez-1a747144?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlSrs8BYSaE2RN0myxW97n1gqzJ6DsVUpc', 'person_name': 'Maxime Arbez', 'profile_description': 'IT Project Manager and Business Analyst at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/abeaufrere?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbri_0BC8pXeYOG7IgbrmaZCNSIQ_djIqY', 'person_name': 'Antoine Beaufrère', 'profile_description': 'Data Integration Engineer at Middleway'}, {'profile_url': 'https://www.linkedin.com/in/cmymw?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjgk64BOZuTsxauZfMogFavkuGNo99nBhs', 'person_name': 'Cédric MARMEY', 'profile_description': 'Data Integration Architect | Co-Founder at MiddleWay'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-guichard-562bb920?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARy_toBWXSHlz-XEs1QAnYsKCNJyo127DY', 'person_name': 'Alexandre Guichard', 'profile_description': 'BI &amp; Data Integration Architect | Partner at MiddleWay'}]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>30,16 %</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>120,51 %</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>7.343.329 €</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>3.330.144 €</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>21</v>
+      </c>
+      <c r="R67" t="n">
+        <v>10</v>
+      </c>
+      <c r="S67" t="n">
+        <v>65</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/bastien-brailly-vignal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABp3-_kBfzk0HIjiEZq8KgpT0MA2BqbMncI</t>
+      <c r="A68" t="n">
+        <v>228</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klaas All-Road </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>http://www.klaas.fr/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['456-789-0123', 'WhatsApp: +1234567890', 'Fax: 789-012-3456', '123-456-7890']</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['123 Main Street, City, Country', '456 Oak Avenue, Town, Country']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/klaasallroad</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/henri-lemoine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBDvJQBP2grEhG9ondnJhEAySRh5SS8Zt0', 'person_name': 'HENRI LEMOINE 👍 🚀🏗', 'profile_description': 'Président chez Groupe DEUMIN &amp; DG chez KLAAS .... Engagé chez Bureau fédération Réseau Entreprendre'}</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Président chez Groupe DEUMIN &amp; DG chez KLAAS .... Engagé chez Bureau fédération Réseau Entreprendre</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/henri-lemoine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBDvJQBP2grEhG9ondnJhEAySRh5SS8Zt0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/sidney-blanc-3662b6b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABj1_X4Bq2-mU-XvmoaxsNpB0RNUYJ7v_IM', 'person_name': 'Sidney BLANC', 'profile_description': 'Technico-Commercial Alsace ▪︎ Grue sur remorque, Camion grue, Mini-Grue araignée, Grue sur chenilles, Nacelle araignée ▪︎ Vente, Location, Formation, SAV, Financement ▪︎ 9000 clients satisfaits ▪︎ 8 agences en France'}, {'profile_url': 'https://www.linkedin.com/in/tamara-rusu-1b8a07145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACM1-FwBz8xxSBFj6AeLpSAyRHXooBUbNTQ', 'person_name': 'Tamara RUSU', 'profile_description': 'ADV - KLAAS All-Road'}, {'profile_url': 'https://www.linkedin.com/in/henri-lemoine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBDvJQBP2grEhG9ondnJhEAySRh5SS8Zt0', 'person_name': 'HENRI LEMOINE 👍 🚀🏗', 'profile_description': 'Président chez Groupe DEUMIN &amp; DG chez KLAAS .... Engagé chez Bureau fédération Réseau Entreprendre'}, {'profile_url': 'https://www.linkedin.com/in/alexis-gerard-%E2%96%AA%EF%B8%8F-klaas-all-road-73358018b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzBuBcBmPXVFq-V9N5LHBv2dMPO29G1huk', 'person_name': 'Alexis Gerard ▪️ KLAAS ALL ROAD', 'profile_description': 'Vente et Location avec livraison sur chantier ▪️ SAV Formations ▪️ Technico-commercial Grand-Est/ Bourgogne Franche-Comté ▪︎ 9000 clients satisfaits ▪︎ 8 agences en France ▪︎ Grues, Montes, Nacelles'}, {'profile_url': 'https://www.linkedin.com/in/lambert-bouleau-574981250?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4UfegBgoLdqmuRDal0YOPdZNgT3BtKwVo', 'person_name': 'Lambert Bouleau', 'profile_description': 'Technico-commercial'}, {'profile_url': 'https://www.linkedin.com/in/%C3%A9douard-lamiche-klaas-all-raod-a36108208?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADSyh8oBgmsUZnetlOUZItvc3sFGHzJrH8I', 'person_name': 'Édouard Lamiche.Klaas All Raod', 'profile_description': '▪️ Technico commercial KLAAS ALL ROAD ▪️ Groupe DEUMIN▪️ Vente , Location, Formation , SAV , Financement Materiel de levage▪️ Région Nord ▪️ + 9000 Clients▪️'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-legavre-025142123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB50TZ0BB54FytFziz7lHgl_kuumfa9idQY', 'person_name': 'Benjamin Legavre', 'profile_description': 'Technicien SAV Itinérant'}, {'profile_url': 'https://www.linkedin.com/in/mayeul-brasset-231a5617a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACqDlsUB2Oow9HQMnMYi9NPLniKQ-XjsUQU', 'person_name': 'Mayeul Brasset', 'profile_description': '▪️ KLAAS ALL ROAD ▪️ Groupe DEUMIN ▪️ Vente , Location, Formation , SAV , Financement Materiel de levage ▪️ + 9000 Clients▪️'}, {'profile_url': 'https://www.linkedin.com/in/florent-duval-3524a6261?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEBSlG4B3d6eQbNbbVG0WmlW_HDYRwYDsS8', 'person_name': 'Florent DUVAL', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/marc-liegeois-9a14a6136?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACEtKAkBVXZR9z5PbbIobCAJD6x3_EA94DM', 'person_name': 'Marc LIEGEOIS', 'profile_description': 'S.A.V chez Klaas All-Road'}, {'profile_url': 'https://www.linkedin.com/in/serge-jean-elie-89694118a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACyiG7IB6hkSrU8ntk508tB6G7ZmvOIqp0Q', 'person_name': 'Serge JEAN-ELIE', 'profile_description': 'location de minigrues chez Klaas by All Road'}, {'profile_url': 'https://www.linkedin.com/in/delamour-jerome-6a8a5615b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZrqWABwS2x0j4Sqi0gl86jQrVesNsYb00', 'person_name': 'DELAMOUR JEROME', 'profile_description': "Responsable d'exploitation chez Klaas All-Road"}]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>28,22 %</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>110,8 %</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>21.753.980 €</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>10.319.708 €</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>30</v>
+      </c>
+      <c r="R68" t="n">
+        <v>10</v>
+      </c>
+      <c r="S68" t="n">
+        <v>65</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Construction, Bâtiment</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/alexandre-guichard-562bb920?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARy_toBWXSHlz-XEs1QAnYsKCNJyo127DY</t>
+      <c r="A69" t="n">
+        <v>366</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zenconnect </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://zenconnect.fr/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>['+33 9 75 18 51 55', '+33 (0)9 75 18 51 55']</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['legal@zenconnect.fr', 'contact@zenconnect.fr']</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['233 rue Etienne Marcel, 93100 MONTREUIL']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/zenconnect</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/marnaco?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaphcB3kPGj2tLRwzwjX5C3bKk6TKo42E', 'person_name': 'Olivier MARNAC', 'profile_description': 'Co-founder at ZENCONNECT'}</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Co-founder at ZENCONNECT</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marnaco?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaphcB3kPGj2tLRwzwjX5C3bKk6TKo42E</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/noam-chibane-6666151b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJ1bm4B1JAtdVtmjYOnzfttPJQZGyKf82g', 'person_name': 'Noam Chibane', 'profile_description': 'Étudiant à ISTEC - Ecole Supérieure de Commerce et de Marketing'}, {'profile_url': 'https://www.linkedin.com/in/hugo-philippon-913910142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKpoh8BSplZNTQs90uUR5MzwsMLNMR2b1I', 'person_name': 'Hugo PHILIPPON', 'profile_description': 'Sales Engineer at Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/marnaco?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaphcB3kPGj2tLRwzwjX5C3bKk6TKo42E', 'person_name': 'Olivier MARNAC', 'profile_description': 'Co-founder at ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/goldsteinfiona?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ4rJcBvSrKSaNY5BarUwsXqGh0lSosjrY', 'person_name': 'Fiona Goldstein', 'profile_description': 'Customer Success Manager at Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lina-talmat-a51b42220?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADeym10BnPjRSg8k4duipkIDmOJbj7r32Jw', 'person_name': 'Mélina Talmat', 'profile_description': 'Technicienne Réseau en alternance'}, {'profile_url': 'https://www.linkedin.com/in/carole-meret-9a8a1430?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaOqZABRfg1R4bjkc04-merZ6VIqqB4xQQ', 'person_name': 'Carole Meret', 'profile_description': 'Directrice administrative et financiere chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/chris-brouard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABf5p8sBKIw6Bb5Ex3elD57TNmkcqkfDQzs', 'person_name': 'chris brouard', 'profile_description': 'Ingénieur commercial'}, {'profile_url': 'https://www.linkedin.com/in/lina-aderkichi-1b781a253?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD6XZZsBF3BK5ryIZrIuktiYVXfTlTQlRJc', 'person_name': 'Lina Aderkichi', 'profile_description': "Etudiant(e) à EPSI - L'école de l'ingénierie informatique"}, {'profile_url': 'https://www.linkedin.com/in/pierre-hmd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbM_cYBeJziUTQlKMR8Kp5ETHiAtxYSWuo', 'person_name': 'Pierre HAMAIDE', 'profile_description': 'Responsable infrastructure et sécurité chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/salim-boutouba-041030272?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEKRUzEBvFJInZ9Syymk-Il-KlmAjGjvfKk', 'person_name': 'Salim Boutouba', 'profile_description': 'Apprenti ingénieur à ESIEE PARIS en réseaux et sécurité'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-cattier-583787127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9CvnMBjoZMDFOjUszwH7C_Ygh-zy0h-tU', 'person_name': 'Kévin Cattier', 'profile_description': 'CTO &amp; DSI chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/faurestephane?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEUM9sBQFbhbvmpDMdSamXtiwdPiQqjMF4', 'person_name': 'Stéphane FAURE', 'profile_description': "Engineering Manager, Senior Network Architect, Pre Sales, Cisco Meraki M'Ambassadeur"}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9line-cattier-2165081a1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC89QzIBjcEuQublWqX846x_ZkyDmm-BsQI', 'person_name': 'Céline Cattier', 'profile_description': 'Ingénieure commerciale/ Sales Engineer chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/bastien-delpoux-55a707b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkFhlYBN87Ddg9URvlC7hKJQeOJiMyIMoQ', 'person_name': 'Bastien Delpoux', 'profile_description': 'Ingénieur commercial'}, {'profile_url': 'https://www.linkedin.com/in/kathy-desclos-a4973491?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOB99kBmO3fhVP3XLQaJLVeb7CpFn2N4KY', 'person_name': 'Kathy DESCLOS', 'profile_description': 'Chef de projets'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-guillo-2b145a167?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfBeiUB3DZTvf3qsk81ZEaq54Q4wvlRD3g', 'person_name': 'Benjamin GUILLO', 'profile_description': 'Ingénieur réseau chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/pierre-janaudy-74756317a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACpw2mcBW3VGqkZujlVV_Ng8sWrr1x9FrBI', 'person_name': 'Pierre JANAUDY', 'profile_description': 'Ingénieur réseaux'}, {'profile_url': 'https://www.linkedin.com/in/alain-haution-60575682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGNdOUBMvNzA-5jP9NXNAAeGbvoJ7CwNZk', 'person_name': 'Alain Haution', 'profile_description': 'Ingénieur Commercial / Sales Engineer chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/josselin-hamburger-414538179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACpCd1ABEx8OzuLdS2HHpxxGLipfGbMHGCc', 'person_name': 'josselin hamburger', 'profile_description': 'Responsable adv chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/oceaneholz?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAANQgIgB5hnJ9NzjfUA78X2o_4MFzqLdN6E', 'person_name': 'Océane Holz', 'profile_description': 'Marketing &amp; Communication Manager chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/mohand-m?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADH9r04BJhnHSPA8ZgcjOtAcKGpBPOEN8E8', 'person_name': 'Mohand M.', 'profile_description': 'Votre partenaire pour optimiser votre environnement numérique !'}, {'profile_url': 'https://www.linkedin.com/in/ali-oudad-503738238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADsyf9MBHIqwsVw2OuULi1RbMNLQJR819Fk', 'person_name': 'Ali Oudad', 'profile_description': 'Cloud / Cyber sécurité / Réseau / Data'}, {'profile_url': 'https://www.linkedin.com/in/anthony-braun?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC1YPaQBgI25WiVRVCvaILcN6PvSRTQeIWU', 'person_name': 'Anthony BRAUN', 'profile_description': 'Étudiant à ITIC Paris'}, {'profile_url': 'https://www.linkedin.com/in/tristan-ld-3197b723b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADu9sAUBCmm3i4ZfhnYZ4zaeDIulSFNI0ik', 'person_name': 'Tristan LD', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/yann-mercier-3183891?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA7uoQBLLf-iFkM9yhmBzjhe019Zl-bqs0', 'person_name': 'Yann Mercier', 'profile_description': 'Co-founder at Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/gianni-arbib-8528b524a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD22oX4B5WyW7YUOMatEvqY7W6RFE_8KAuA', 'person_name': 'Gianni Arbib', 'profile_description': "Recherche d'une alternance dans le domaine de l'informatique"}, {'profile_url': 'https://www.linkedin.com/in/erwan-le-meur-15bb4478?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCK49cBZ62sYuQ3w_756QWmimp5elT4R40', 'person_name': 'Erwan Le Meur', 'profile_description': 'Responsable des Opérations chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-ganesh-0aba851a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADBkEkMB0HPLkQoIGv612oMoqBTa6g2bvjY', 'person_name': 'Sébastien Ganesh', 'profile_description': 'Étudiant à Sup de vinci et alternant administrateur réseau et télécom'}, {'profile_url': 'https://www.linkedin.com/in/ugo-cordier-923880246?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADz_TSsBi1LjfsiMrrS4ACLigFZpu59Mp0M', 'person_name': 'Ugo Cordier', 'profile_description': 'ADV Logistique chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/sandra-marchal-16581b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKmHB0BlC_iD7vMeJbGRRwmo8X2EFlyzVA', 'person_name': 'Sandra Marchal', 'profile_description': 'Ingénieur commercial chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-marchal-2b8760115?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzEC6wBCVFpwXZ_UuBvUcz1ZH1F_4XpWyU', 'person_name': 'Nicolas Marchal', 'profile_description': 'Customer Service Manager'}, {'profile_url': 'https://www.linkedin.com/in/thomas-hamdi-568286132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBuq6ABDi3d0EK2hMD0I5lIb8t8k-NVrK0', 'person_name': 'Thomas Hamdi', 'profile_description': 'Technicien Niveau 2 chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/yasminamouaddine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWZNDwBz104a7A4gFCkTQHcq8a79ZTD_zI', 'person_name': 'Yasmina MOUADDINE FAKHRI', 'profile_description': 'Cheffe de projet Marketing chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/sabri-abid-8225aa19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7lXhoBZZ-D8GYQSen00aOweEODQSbQOEM', 'person_name': 'Sabri Abid', 'profile_description': 'Étudiant en BTS SIO option Service Informatique Systèmes et Réseaux'}, {'profile_url': 'https://www.linkedin.com/in/rosanna-mohamed-945677131?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBQA4UByGP2IJ2h55B8sh8AZnKGisuuyY8', 'person_name': 'Rosanna Mohamed', 'profile_description': 'Référente qualité chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/khizar-ali-sheikh-6bb1b8251?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4k0O8BEYLnEN_a0h_sBgLLDqTOJ6Vi-rQ', 'person_name': 'Khizar-Ali SHEIKH', 'profile_description': "Étudiant BTS SIO (Services informatiques aux organisations) Option SISR (Solutions d'Infrastructure, Systèmes et Réseaux)"}, {'profile_url': 'https://www.linkedin.com/in/christiana-rocchia-3b1a85210?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWNY_UBijcApFkTSublA8gxm30umATr6yk', 'person_name': 'Christiana Rocchia', 'profile_description': 'Master 2 Contrôle de gestion et Audit organisationnel'}, {'profile_url': 'https://www.linkedin.com/in/syliasadoud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACevW3oBxCBhyp1QTMmA7ofw_YfBZftJjl4', 'person_name': 'Sylia S.', 'profile_description': 'Ingénieure réseaux'}, {'profile_url': 'https://www.linkedin.com/in/bistrova?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEQmGABnVJuoJr8HIZO5jPfjn972EBnxc4', 'person_name': 'Natalia BISTROVA', 'profile_description': 'Responsable comptable chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/senia-halla?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcTW-8B2T0p6yX5Ma8kQQ0FDRIoV3lXPnw', 'person_name': 'Senia HALLA', 'profile_description': "Tier 1 Network &amp; Support Engineer @ Zenconnect | Engineer's degree - Telecommunications and ICTs"}, {'profile_url': 'https://www.linkedin.com/in/ina-khachatryan-4739651a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADAEhlcBiRfttjqdUlIqUK3qV9F37eH_qBA', 'person_name': 'Ina Khachatryan', 'profile_description': 'Comptable &amp; assistante RH Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/avimimoun?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBvkCcBDkqOONGLCKDN9tKrOTaYnQgKTHg', 'person_name': 'Avi Mimoun', 'profile_description': "Responsable technique Full-Stack DevOps et IT chez ZENCONNECT, Professeur à l'Université Paris-Dauphine"}, {'profile_url': 'https://www.linkedin.com/in/younes-mechernene-r-t?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACA8pewBYYbYfHQxVuciZQQlI8zhFJg7BIQ', 'person_name': 'Younes Mechernene', 'profile_description': 'Technicien réseau Niveau 2 chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-das-neves-b6060641?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjPhvgBTIPf_dz9tV1AIMGj2IL7NKcM0cI', 'person_name': 'Célia DAS NEVES', 'profile_description': "Project Manager - @Zenconnect Happily working with those who want to grow with integrity, intelligence, and energy. Let's get our customers zen while we connect them !"}, {'profile_url': 'https://www.linkedin.com/in/jonathan-ah-tchine-6b2678308?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE5ouOYBuYsOkWR3zPBlGm--Ly3yg_ngTL8', 'person_name': 'jonathan ah-tchine', 'profile_description': 'Référent Installation Réseau Client chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/walid-boutouba-317489315?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE_7hoMBfEnRtESJaJmITSzfTSjm1rDdwv4', 'person_name': 'Walid Boutouba', 'profile_description': 'Technicien Réseau en alternance chez ZENCONNECT'}]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>17,51 %</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>62,27 %</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>10.514.114 €</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>6.479.385 €</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>40</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>66</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/henri-lemoine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBDvJQBP2grEhG9ondnJhEAySRh5SS8Zt0</t>
+      <c r="A70" t="n">
+        <v>366</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zenconnect </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://zenconnect.fr/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['+33 9 75 18 51 55', '+33 (0)9 75 18 51 55']</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['legal@zenconnect.fr', 'contact@zenconnect.fr']</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['233 rue Etienne Marcel, 93100 MONTREUIL']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/zenconnect</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/yann-mercier-3183891?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA7uoQBLLf-iFkM9yhmBzjhe019Zl-bqs0', 'person_name': 'Yann Mercier', 'profile_description': 'Co-founder at Zenconnect'}</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Co-founder at Zenconnect</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/yann-mercier-3183891?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA7uoQBLLf-iFkM9yhmBzjhe019Zl-bqs0</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/noam-chibane-6666151b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJ1bm4B1JAtdVtmjYOnzfttPJQZGyKf82g', 'person_name': 'Noam Chibane', 'profile_description': 'Étudiant à ISTEC - Ecole Supérieure de Commerce et de Marketing'}, {'profile_url': 'https://www.linkedin.com/in/hugo-philippon-913910142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKpoh8BSplZNTQs90uUR5MzwsMLNMR2b1I', 'person_name': 'Hugo PHILIPPON', 'profile_description': 'Sales Engineer at Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/marnaco?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaphcB3kPGj2tLRwzwjX5C3bKk6TKo42E', 'person_name': 'Olivier MARNAC', 'profile_description': 'Co-founder at ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/goldsteinfiona?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ4rJcBvSrKSaNY5BarUwsXqGh0lSosjrY', 'person_name': 'Fiona Goldstein', 'profile_description': 'Customer Success Manager at Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lina-talmat-a51b42220?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADeym10BnPjRSg8k4duipkIDmOJbj7r32Jw', 'person_name': 'Mélina Talmat', 'profile_description': 'Technicienne Réseau en alternance'}, {'profile_url': 'https://www.linkedin.com/in/carole-meret-9a8a1430?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaOqZABRfg1R4bjkc04-merZ6VIqqB4xQQ', 'person_name': 'Carole Meret', 'profile_description': 'Directrice administrative et financiere chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/chris-brouard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABf5p8sBKIw6Bb5Ex3elD57TNmkcqkfDQzs', 'person_name': 'chris brouard', 'profile_description': 'Ingénieur commercial'}, {'profile_url': 'https://www.linkedin.com/in/lina-aderkichi-1b781a253?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD6XZZsBF3BK5ryIZrIuktiYVXfTlTQlRJc', 'person_name': 'Lina Aderkichi', 'profile_description': "Etudiant(e) à EPSI - L'école de l'ingénierie informatique"}, {'profile_url': 'https://www.linkedin.com/in/pierre-hmd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbM_cYBeJziUTQlKMR8Kp5ETHiAtxYSWuo', 'person_name': 'Pierre HAMAIDE', 'profile_description': 'Responsable infrastructure et sécurité chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/salim-boutouba-041030272?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEKRUzEBvFJInZ9Syymk-Il-KlmAjGjvfKk', 'person_name': 'Salim Boutouba', 'profile_description': 'Apprenti ingénieur à ESIEE PARIS en réseaux et sécurité'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-cattier-583787127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9CvnMBjoZMDFOjUszwH7C_Ygh-zy0h-tU', 'person_name': 'Kévin Cattier', 'profile_description': 'CTO &amp; DSI chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/faurestephane?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEUM9sBQFbhbvmpDMdSamXtiwdPiQqjMF4', 'person_name': 'Stéphane FAURE', 'profile_description': "Engineering Manager, Senior Network Architect, Pre Sales, Cisco Meraki M'Ambassadeur"}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9line-cattier-2165081a1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC89QzIBjcEuQublWqX846x_ZkyDmm-BsQI', 'person_name': 'Céline Cattier', 'profile_description': 'Ingénieure commerciale/ Sales Engineer chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/bastien-delpoux-55a707b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkFhlYBN87Ddg9URvlC7hKJQeOJiMyIMoQ', 'person_name': 'Bastien Delpoux', 'profile_description': 'Ingénieur commercial'}, {'profile_url': 'https://www.linkedin.com/in/kathy-desclos-a4973491?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOB99kBmO3fhVP3XLQaJLVeb7CpFn2N4KY', 'person_name': 'Kathy DESCLOS', 'profile_description': 'Chef de projets'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-guillo-2b145a167?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfBeiUB3DZTvf3qsk81ZEaq54Q4wvlRD3g', 'person_name': 'Benjamin GUILLO', 'profile_description': 'Ingénieur réseau chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/pierre-janaudy-74756317a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACpw2mcBW3VGqkZujlVV_Ng8sWrr1x9FrBI', 'person_name': 'Pierre JANAUDY', 'profile_description': 'Ingénieur réseaux'}, {'profile_url': 'https://www.linkedin.com/in/alain-haution-60575682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGNdOUBMvNzA-5jP9NXNAAeGbvoJ7CwNZk', 'person_name': 'Alain Haution', 'profile_description': 'Ingénieur Commercial / Sales Engineer chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/josselin-hamburger-414538179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACpCd1ABEx8OzuLdS2HHpxxGLipfGbMHGCc', 'person_name': 'josselin hamburger', 'profile_description': 'Responsable adv chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/oceaneholz?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAANQgIgB5hnJ9NzjfUA78X2o_4MFzqLdN6E', 'person_name': 'Océane Holz', 'profile_description': 'Marketing &amp; Communication Manager chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/mohand-m?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADH9r04BJhnHSPA8ZgcjOtAcKGpBPOEN8E8', 'person_name': 'Mohand M.', 'profile_description': 'Votre partenaire pour optimiser votre environnement numérique !'}, {'profile_url': 'https://www.linkedin.com/in/ali-oudad-503738238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADsyf9MBHIqwsVw2OuULi1RbMNLQJR819Fk', 'person_name': 'Ali Oudad', 'profile_description': 'Cloud / Cyber sécurité / Réseau / Data'}, {'profile_url': 'https://www.linkedin.com/in/anthony-braun?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC1YPaQBgI25WiVRVCvaILcN6PvSRTQeIWU', 'person_name': 'Anthony BRAUN', 'profile_description': 'Étudiant à ITIC Paris'}, {'profile_url': 'https://www.linkedin.com/in/tristan-ld-3197b723b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADu9sAUBCmm3i4ZfhnYZ4zaeDIulSFNI0ik', 'person_name': 'Tristan LD', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/yann-mercier-3183891?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA7uoQBLLf-iFkM9yhmBzjhe019Zl-bqs0', 'person_name': 'Yann Mercier', 'profile_description': 'Co-founder at Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/gianni-arbib-8528b524a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD22oX4B5WyW7YUOMatEvqY7W6RFE_8KAuA', 'person_name': 'Gianni Arbib', 'profile_description': "Recherche d'une alternance dans le domaine de l'informatique"}, {'profile_url': 'https://www.linkedin.com/in/erwan-le-meur-15bb4478?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCK49cBZ62sYuQ3w_756QWmimp5elT4R40', 'person_name': 'Erwan Le Meur', 'profile_description': 'Responsable des Opérations chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-ganesh-0aba851a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADBkEkMB0HPLkQoIGv612oMoqBTa6g2bvjY', 'person_name': 'Sébastien Ganesh', 'profile_description': 'Étudiant à Sup de vinci et alternant administrateur réseau et télécom'}, {'profile_url': 'https://www.linkedin.com/in/ugo-cordier-923880246?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADz_TSsBi1LjfsiMrrS4ACLigFZpu59Mp0M', 'person_name': 'Ugo Cordier', 'profile_description': 'ADV Logistique chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/sandra-marchal-16581b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKmHB0BlC_iD7vMeJbGRRwmo8X2EFlyzVA', 'person_name': 'Sandra Marchal', 'profile_description': 'Ingénieur commercial chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-marchal-2b8760115?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzEC6wBCVFpwXZ_UuBvUcz1ZH1F_4XpWyU', 'person_name': 'Nicolas Marchal', 'profile_description': 'Customer Service Manager'}, {'profile_url': 'https://www.linkedin.com/in/thomas-hamdi-568286132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBuq6ABDi3d0EK2hMD0I5lIb8t8k-NVrK0', 'person_name': 'Thomas Hamdi', 'profile_description': 'Technicien Niveau 2 chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/yasminamouaddine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWZNDwBz104a7A4gFCkTQHcq8a79ZTD_zI', 'person_name': 'Yasmina MOUADDINE FAKHRI', 'profile_description': 'Cheffe de projet Marketing chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/sabri-abid-8225aa19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7lXhoBZZ-D8GYQSen00aOweEODQSbQOEM', 'person_name': 'Sabri Abid', 'profile_description': 'Étudiant en BTS SIO option Service Informatique Systèmes et Réseaux'}, {'profile_url': 'https://www.linkedin.com/in/rosanna-mohamed-945677131?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBQA4UByGP2IJ2h55B8sh8AZnKGisuuyY8', 'person_name': 'Rosanna Mohamed', 'profile_description': 'Référente qualité chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/khizar-ali-sheikh-6bb1b8251?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4k0O8BEYLnEN_a0h_sBgLLDqTOJ6Vi-rQ', 'person_name': 'Khizar-Ali SHEIKH', 'profile_description': "Étudiant BTS SIO (Services informatiques aux organisations) Option SISR (Solutions d'Infrastructure, Systèmes et Réseaux)"}, {'profile_url': 'https://www.linkedin.com/in/christiana-rocchia-3b1a85210?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWNY_UBijcApFkTSublA8gxm30umATr6yk', 'person_name': 'Christiana Rocchia', 'profile_description': 'Master 2 Contrôle de gestion et Audit organisationnel'}, {'profile_url': 'https://www.linkedin.com/in/syliasadoud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACevW3oBxCBhyp1QTMmA7ofw_YfBZftJjl4', 'person_name': 'Sylia S.', 'profile_description': 'Ingénieure réseaux'}, {'profile_url': 'https://www.linkedin.com/in/bistrova?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEQmGABnVJuoJr8HIZO5jPfjn972EBnxc4', 'person_name': 'Natalia BISTROVA', 'profile_description': 'Responsable comptable chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/senia-halla?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcTW-8B2T0p6yX5Ma8kQQ0FDRIoV3lXPnw', 'person_name': 'Senia HALLA', 'profile_description': "Tier 1 Network &amp; Support Engineer @ Zenconnect | Engineer's degree - Telecommunications and ICTs"}, {'profile_url': 'https://www.linkedin.com/in/ina-khachatryan-4739651a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADAEhlcBiRfttjqdUlIqUK3qV9F37eH_qBA', 'person_name': 'Ina Khachatryan', 'profile_description': 'Comptable &amp; assistante RH Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/avimimoun?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBvkCcBDkqOONGLCKDN9tKrOTaYnQgKTHg', 'person_name': 'Avi Mimoun', 'profile_description': "Responsable technique Full-Stack DevOps et IT chez ZENCONNECT, Professeur à l'Université Paris-Dauphine"}, {'profile_url': 'https://www.linkedin.com/in/younes-mechernene-r-t?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACA8pewBYYbYfHQxVuciZQQlI8zhFJg7BIQ', 'person_name': 'Younes Mechernene', 'profile_description': 'Technicien réseau Niveau 2 chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-das-neves-b6060641?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjPhvgBTIPf_dz9tV1AIMGj2IL7NKcM0cI', 'person_name': 'Célia DAS NEVES', 'profile_description': "Project Manager - @Zenconnect Happily working with those who want to grow with integrity, intelligence, and energy. Let's get our customers zen while we connect them !"}, {'profile_url': 'https://www.linkedin.com/in/jonathan-ah-tchine-6b2678308?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE5ouOYBuYsOkWR3zPBlGm--Ly3yg_ngTL8', 'person_name': 'jonathan ah-tchine', 'profile_description': 'Référent Installation Réseau Client chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/walid-boutouba-317489315?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE_7hoMBfEnRtESJaJmITSzfTSjm1rDdwv4', 'person_name': 'Walid Boutouba', 'profile_description': 'Technicien Réseau en alternance chez ZENCONNECT'}]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>17,51 %</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>62,27 %</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>10.514.114 €</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>6.479.385 €</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>40</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>66</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/marnaco?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaphcB3kPGj2tLRwzwjX5C3bKk6TKo42E</t>
+      <c r="A71" t="n">
+        <v>366</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zenconnect </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://zenconnect.fr/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['+33 9 75 18 51 55', '+33 (0)9 75 18 51 55']</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>['legal@zenconnect.fr', 'contact@zenconnect.fr']</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['233 rue Etienne Marcel, 93100 MONTREUIL']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/zenconnect</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-cattier-583787127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9CvnMBjoZMDFOjUszwH7C_Ygh-zy0h-tU', 'person_name': 'Kévin Cattier', 'profile_description': 'CTO &amp; DSI chez Zenconnect'}</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CTO &amp; DSI chez Zenconnect</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/k%C3%A9vin-cattier-583787127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9CvnMBjoZMDFOjUszwH7C_Ygh-zy0h-tU</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/noam-chibane-6666151b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJ1bm4B1JAtdVtmjYOnzfttPJQZGyKf82g', 'person_name': 'Noam Chibane', 'profile_description': 'Étudiant à ISTEC - Ecole Supérieure de Commerce et de Marketing'}, {'profile_url': 'https://www.linkedin.com/in/hugo-philippon-913910142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKpoh8BSplZNTQs90uUR5MzwsMLNMR2b1I', 'person_name': 'Hugo PHILIPPON', 'profile_description': 'Sales Engineer at Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/marnaco?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABaphcB3kPGj2tLRwzwjX5C3bKk6TKo42E', 'person_name': 'Olivier MARNAC', 'profile_description': 'Co-founder at ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/goldsteinfiona?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ4rJcBvSrKSaNY5BarUwsXqGh0lSosjrY', 'person_name': 'Fiona Goldstein', 'profile_description': 'Customer Success Manager at Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/m%C3%A9lina-talmat-a51b42220?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADeym10BnPjRSg8k4duipkIDmOJbj7r32Jw', 'person_name': 'Mélina Talmat', 'profile_description': 'Technicienne Réseau en alternance'}, {'profile_url': 'https://www.linkedin.com/in/carole-meret-9a8a1430?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAaOqZABRfg1R4bjkc04-merZ6VIqqB4xQQ', 'person_name': 'Carole Meret', 'profile_description': 'Directrice administrative et financiere chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/chris-brouard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABf5p8sBKIw6Bb5Ex3elD57TNmkcqkfDQzs', 'person_name': 'chris brouard', 'profile_description': 'Ingénieur commercial'}, {'profile_url': 'https://www.linkedin.com/in/lina-aderkichi-1b781a253?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD6XZZsBF3BK5ryIZrIuktiYVXfTlTQlRJc', 'person_name': 'Lina Aderkichi', 'profile_description': "Etudiant(e) à EPSI - L'école de l'ingénierie informatique"}, {'profile_url': 'https://www.linkedin.com/in/pierre-hmd?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbM_cYBeJziUTQlKMR8Kp5ETHiAtxYSWuo', 'person_name': 'Pierre HAMAIDE', 'profile_description': 'Responsable infrastructure et sécurité chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/salim-boutouba-041030272?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEKRUzEBvFJInZ9Syymk-Il-KlmAjGjvfKk', 'person_name': 'Salim Boutouba', 'profile_description': 'Apprenti ingénieur à ESIEE PARIS en réseaux et sécurité'}, {'profile_url': 'https://www.linkedin.com/in/k%C3%A9vin-cattier-583787127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9CvnMBjoZMDFOjUszwH7C_Ygh-zy0h-tU', 'person_name': 'Kévin Cattier', 'profile_description': 'CTO &amp; DSI chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/faurestephane?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEUM9sBQFbhbvmpDMdSamXtiwdPiQqjMF4', 'person_name': 'Stéphane FAURE', 'profile_description': "Engineering Manager, Senior Network Architect, Pre Sales, Cisco Meraki M'Ambassadeur"}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9line-cattier-2165081a1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC89QzIBjcEuQublWqX846x_ZkyDmm-BsQI', 'person_name': 'Céline Cattier', 'profile_description': 'Ingénieure commerciale/ Sales Engineer chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/bastien-delpoux-55a707b8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkFhlYBN87Ddg9URvlC7hKJQeOJiMyIMoQ', 'person_name': 'Bastien Delpoux', 'profile_description': 'Ingénieur commercial'}, {'profile_url': 'https://www.linkedin.com/in/kathy-desclos-a4973491?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABOB99kBmO3fhVP3XLQaJLVeb7CpFn2N4KY', 'person_name': 'Kathy DESCLOS', 'profile_description': 'Chef de projets'}, {'profile_url': 'https://www.linkedin.com/in/benjamin-guillo-2b145a167?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACfBeiUB3DZTvf3qsk81ZEaq54Q4wvlRD3g', 'person_name': 'Benjamin GUILLO', 'profile_description': 'Ingénieur réseau chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/pierre-janaudy-74756317a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACpw2mcBW3VGqkZujlVV_Ng8sWrr1x9FrBI', 'person_name': 'Pierre JANAUDY', 'profile_description': 'Ingénieur réseaux'}, {'profile_url': 'https://www.linkedin.com/in/alain-haution-60575682?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGNdOUBMvNzA-5jP9NXNAAeGbvoJ7CwNZk', 'person_name': 'Alain Haution', 'profile_description': 'Ingénieur Commercial / Sales Engineer chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/josselin-hamburger-414538179?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACpCd1ABEx8OzuLdS2HHpxxGLipfGbMHGCc', 'person_name': 'josselin hamburger', 'profile_description': 'Responsable adv chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/oceaneholz?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAANQgIgB5hnJ9NzjfUA78X2o_4MFzqLdN6E', 'person_name': 'Océane Holz', 'profile_description': 'Marketing &amp; Communication Manager chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/mohand-m?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADH9r04BJhnHSPA8ZgcjOtAcKGpBPOEN8E8', 'person_name': 'Mohand M.', 'profile_description': 'Votre partenaire pour optimiser votre environnement numérique !'}, {'profile_url': 'https://www.linkedin.com/in/ali-oudad-503738238?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADsyf9MBHIqwsVw2OuULi1RbMNLQJR819Fk', 'person_name': 'Ali Oudad', 'profile_description': 'Cloud / Cyber sécurité / Réseau / Data'}, {'profile_url': 'https://www.linkedin.com/in/anthony-braun?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC1YPaQBgI25WiVRVCvaILcN6PvSRTQeIWU', 'person_name': 'Anthony BRAUN', 'profile_description': 'Étudiant à ITIC Paris'}, {'profile_url': 'https://www.linkedin.com/in/tristan-ld-3197b723b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADu9sAUBCmm3i4ZfhnYZ4zaeDIulSFNI0ik', 'person_name': 'Tristan LD', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/yann-mercier-3183891?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA7uoQBLLf-iFkM9yhmBzjhe019Zl-bqs0', 'person_name': 'Yann Mercier', 'profile_description': 'Co-founder at Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/gianni-arbib-8528b524a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD22oX4B5WyW7YUOMatEvqY7W6RFE_8KAuA', 'person_name': 'Gianni Arbib', 'profile_description': "Recherche d'une alternance dans le domaine de l'informatique"}, {'profile_url': 'https://www.linkedin.com/in/erwan-le-meur-15bb4478?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABCK49cBZ62sYuQ3w_756QWmimp5elT4R40', 'person_name': 'Erwan Le Meur', 'profile_description': 'Responsable des Opérations chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/s%C3%A9bastien-ganesh-0aba851a7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADBkEkMB0HPLkQoIGv612oMoqBTa6g2bvjY', 'person_name': 'Sébastien Ganesh', 'profile_description': 'Étudiant à Sup de vinci et alternant administrateur réseau et télécom'}, {'profile_url': 'https://www.linkedin.com/in/ugo-cordier-923880246?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADz_TSsBi1LjfsiMrrS4ACLigFZpu59Mp0M', 'person_name': 'Ugo Cordier', 'profile_description': 'ADV Logistique chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/sandra-marchal-16581b142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKmHB0BlC_iD7vMeJbGRRwmo8X2EFlyzVA', 'person_name': 'Sandra Marchal', 'profile_description': 'Ingénieur commercial chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-marchal-2b8760115?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzEC6wBCVFpwXZ_UuBvUcz1ZH1F_4XpWyU', 'person_name': 'Nicolas Marchal', 'profile_description': 'Customer Service Manager'}, {'profile_url': 'https://www.linkedin.com/in/thomas-hamdi-568286132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBuq6ABDi3d0EK2hMD0I5lIb8t8k-NVrK0', 'person_name': 'Thomas Hamdi', 'profile_description': 'Technicien Niveau 2 chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/yasminamouaddine?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACWZNDwBz104a7A4gFCkTQHcq8a79ZTD_zI', 'person_name': 'Yasmina MOUADDINE FAKHRI', 'profile_description': 'Cheffe de projet Marketing chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/sabri-abid-8225aa19b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC7lXhoBZZ-D8GYQSen00aOweEODQSbQOEM', 'person_name': 'Sabri Abid', 'profile_description': 'Étudiant en BTS SIO option Service Informatique Systèmes et Réseaux'}, {'profile_url': 'https://www.linkedin.com/in/rosanna-mohamed-945677131?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBQA4UByGP2IJ2h55B8sh8AZnKGisuuyY8', 'person_name': 'Rosanna Mohamed', 'profile_description': 'Référente qualité chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/khizar-ali-sheikh-6bb1b8251?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD4k0O8BEYLnEN_a0h_sBgLLDqTOJ6Vi-rQ', 'person_name': 'Khizar-Ali SHEIKH', 'profile_description': "Étudiant BTS SIO (Services informatiques aux organisations) Option SISR (Solutions d'Infrastructure, Systèmes et Réseaux)"}, {'profile_url': 'https://www.linkedin.com/in/christiana-rocchia-3b1a85210?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWNY_UBijcApFkTSublA8gxm30umATr6yk', 'person_name': 'Christiana Rocchia', 'profile_description': 'Master 2 Contrôle de gestion et Audit organisationnel'}, {'profile_url': 'https://www.linkedin.com/in/syliasadoud?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACevW3oBxCBhyp1QTMmA7ofw_YfBZftJjl4', 'person_name': 'Sylia S.', 'profile_description': 'Ingénieure réseaux'}, {'profile_url': 'https://www.linkedin.com/in/bistrova?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEQmGABnVJuoJr8HIZO5jPfjn972EBnxc4', 'person_name': 'Natalia BISTROVA', 'profile_description': 'Responsable comptable chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/senia-halla?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADcTW-8B2T0p6yX5Ma8kQQ0FDRIoV3lXPnw', 'person_name': 'Senia HALLA', 'profile_description': "Tier 1 Network &amp; Support Engineer @ Zenconnect | Engineer's degree - Telecommunications and ICTs"}, {'profile_url': 'https://www.linkedin.com/in/ina-khachatryan-4739651a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADAEhlcBiRfttjqdUlIqUK3qV9F37eH_qBA', 'person_name': 'Ina Khachatryan', 'profile_description': 'Comptable &amp; assistante RH Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/avimimoun?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBvkCcBDkqOONGLCKDN9tKrOTaYnQgKTHg', 'person_name': 'Avi Mimoun', 'profile_description': "Responsable technique Full-Stack DevOps et IT chez ZENCONNECT, Professeur à l'Université Paris-Dauphine"}, {'profile_url': 'https://www.linkedin.com/in/younes-mechernene-r-t?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACA8pewBYYbYfHQxVuciZQQlI8zhFJg7BIQ', 'person_name': 'Younes Mechernene', 'profile_description': 'Technicien réseau Niveau 2 chez ZENCONNECT'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9lia-das-neves-b6060641?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAjPhvgBTIPf_dz9tV1AIMGj2IL7NKcM0cI', 'person_name': 'Célia DAS NEVES', 'profile_description': "Project Manager - @Zenconnect Happily working with those who want to grow with integrity, intelligence, and energy. Let's get our customers zen while we connect them !"}, {'profile_url': 'https://www.linkedin.com/in/jonathan-ah-tchine-6b2678308?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE5ouOYBuYsOkWR3zPBlGm--Ly3yg_ngTL8', 'person_name': 'jonathan ah-tchine', 'profile_description': 'Référent Installation Réseau Client chez Zenconnect'}, {'profile_url': 'https://www.linkedin.com/in/walid-boutouba-317489315?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE_7hoMBfEnRtESJaJmITSzfTSjm1rDdwv4', 'person_name': 'Walid Boutouba', 'profile_description': 'Technicien Réseau en alternance chez ZENCONNECT'}]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>17,51 %</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>62,27 %</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>10.514.114 €</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>6.479.385 €</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>40</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>66</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Informatique, Digital et High-Tech (installation, conseil)</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/yann-mercier-3183891?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAA7uoQBLLf-iFkM9yhmBzjhe019Zl-bqs0</t>
+      <c r="A72" t="n">
+        <v>60</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Natural Grass </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://naturalgrass.com/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['01 45 25 78 15', '+54 7078-0747', '01 64 98 56 47']</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['info@rg7construcciones.com.ar', 'info@naturalgrass.fr']</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['3 rue de la Montagne de Maisse, 91490 Milly-La-Foret, FRANCE', '6 rue Claude Farrère, 75016 Paris, FRANCE']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/natural-grass</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/bertrand-picard-25ab59?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAArlyYBSt7YVnb9bk2H5fgvISKSuAqc3SU', 'person_name': 'Bertrand Picard', 'profile_description': 'Entrepreneur &amp; Investor - Founding Partner @Natural Grass @CityNest @Ground Control @Clos St Sulpice vineyard'}</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Entrepreneur &amp; Investor - Founding Partner @Natural Grass @CityNest @Ground Control @Clos St Sulpice vineyard</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bertrand-picard-25ab59?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAArlyYBSt7YVnb9bk2H5fgvISKSuAqc3SU</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/thomas-villette-56a1b3239?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADtLrmIBEQu78cTbdyUPWgz4d5QLv10qBv0', 'person_name': 'Thomas Villette', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9l%C3%A8ne-papon-7212512b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAZD58kBvVn7_r5INlCh6T8XLLlSGfHKT8k', 'person_name': 'Hélène Papon', 'profile_description': 'CFO'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9mie-leray-b78592202?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOzCQwBItfHI6_-xMR4-aQKDW4sUPZ45LQ', 'person_name': 'jérémie Leray', 'profile_description': 'Technicien de Construction'}, {'profile_url': 'https://www.linkedin.com/in/bertrand-picard-25ab59?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAArlyYBSt7YVnb9bk2H5fgvISKSuAqc3SU', 'person_name': 'Bertrand Picard', 'profile_description': 'Entrepreneur &amp; Investor - Founding Partner @Natural Grass @CityNest @Ground Control @Clos St Sulpice vineyard'}, {'profile_url': 'https://www.linkedin.com/in/antoine-babl%C3%A9e-593932142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKqT78BIEU0fEn70yq09xeXbdU803-QSZ8', 'person_name': 'Antoine Bablée', 'profile_description': 'Responsable RH @Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/jeromedatchary?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEzE8oBg8ByT2uhn2mtjiggRR6jlJ30wn8', 'person_name': 'Jérôme Datchary', 'profile_description': 'General Secretary - Growth Director'}, {'profile_url': 'https://www.linkedin.com/in/augustin-rochmann-b70b2a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGXMAQBYKsc5BQqGXnUdNJkuoPk7j2uMX4', 'person_name': 'Augustin Rochmann', 'profile_description': 'Business Development &amp; Sales Director chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/erwan-rius?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbeq9kBj-2-IGu2NY3FTaIFHhunsaDymEU', 'person_name': 'Erwan Rius', 'profile_description': 'Chargé de projet Design &amp; Construction - NG'}, {'profile_url': 'https://www.linkedin.com/in/salarolimatheus?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4jHuQBGQbARqaGH2lwfvnEp2koDmg08z4', 'person_name': 'Matheus Salaroli', 'profile_description': 'Ingénieur Systèmes Embarqués &amp; IoT | Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/aur%C3%A9lien-pramayon-9891a11ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADD4sjkBK86QGr6XHR7b1iVg7GYDqjPh0Rc', 'person_name': 'Aurélien Pramayon', 'profile_description': "Groundsman chez Natural Grass au centre d'entraînement du cercle Bruges."}, {'profile_url': 'https://www.linkedin.com/in/hadrien-mauriac-04776565?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3Q6_cBa9k08rIQSUgZRBj6GkZ_kkTjs1U', 'person_name': 'Hadrien Mauriac', 'profile_description': 'Responsable des Opération France et Export (NG)'}, {'profile_url': 'https://www.linkedin.com/in/alicia-brisset-1623621b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADI9-FoB9thZ8hz2E5dAbu9Tk9a8-W6TP60', 'person_name': 'Alicia Brisset', 'profile_description': 'Chargé de projet Design &amp; Construction - NG'}, {'profile_url': 'https://www.linkedin.com/in/theo-izoulet-2292b8290?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEaGCkEBsHw1mEBnuFDUnsepIv8BvRnx6ks', 'person_name': 'Theo IZOULET', 'profile_description': 'Groundsman at Cercle Brugge'}, {'profile_url': 'https://www.linkedin.com/in/thomas-lipsker-998a62200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNp8QQB-FCAni3UiivE-OM0m1IdLNcoQk8', 'person_name': 'Thomas Lipsker', 'profile_description': 'Groundsman au centre d’entrainement du PSG'}, {'profile_url': 'https://www.linkedin.com/in/louka-p-758b70290?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEamvzQBtaF5z7cdjAjvvnPvxFt6A3Ruac4', 'person_name': 'Louka P.', 'profile_description': ''}, {'profile_url': 'https://www.linkedin.com/in/xavier-van-der-laan-012955108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsxYs4BHHpLsf1UlOoyzxNXC44AXHIsP7Y', 'person_name': 'Xavier Van der Laan', 'profile_description': 'Responsable R&amp;D chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/math%C3%A9o-perigaud-75a349270?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEJCKPYBCPHMW2WpyIVJRYyb3MMM5b3ObP0', 'person_name': 'Mathéo PERIGAUD', 'profile_description': 'Groudsman Natural Grass ( Training Center Paris-Saint-Germain)'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-bodin-3b174946?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAm4dvUBvsgm2Vpn6izDs_4E99XPcpSuI0k', 'person_name': 'Clément BODIN', 'profile_description': 'Managing Director @Natural Grass Co-fondateur @AirPrint'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-gouet-5614641a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-WZBkBud7hlkPIoviUHgvlw2_xbvNDm44', 'person_name': 'Nicolas Gouet', 'profile_description': 'Greenkeeper chez Natural Grass - Stade Malherbe de Caen'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9line-f-8b854174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-9y8wB02c7CNyl8XlDj1XUicLLQUUHtZ8', 'person_name': 'Céline F.', 'profile_description': 'Responsable administratif et opérationnel'}, {'profile_url': 'https://www.linkedin.com/in/kevyn-fagot-b21857249?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD2HOokBIq4WlRLbvTrnag4O9_GMbwCf8Dw', 'person_name': 'Kevyn Fagot', 'profile_description': "Groundsman (Training Center Paris-Saint-Germain) Chef d'équipe Natural Grass"}, {'profile_url': 'https://www.linkedin.com/in/thomas-coulette-693495177?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnlXo8B97xwsaXBltkQNwT6LVYlatClmKc', 'person_name': 'Thomas Coulette', 'profile_description': 'Groundsman Training Center PSG'}, {'profile_url': 'https://www.linkedin.com/in/fr%C3%A9d%C3%A9rick-paul-62681a15b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZi5_4BgMb-zdQmqIamZJXBunrG6ATI-RY', 'person_name': 'Frédérick Paul', 'profile_description': 'Head Groundsman chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/marceau-dubourdeaux-359bab1a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-yajUBk5W3uU6Itf0DWMSzG1TGIUeDZng', 'person_name': 'Marceau Dubourdeaux', 'profile_description': 'Construction chez Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/fatih-tosun-139680208?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADTH0L0BhHSnKSmRp8oYhQrJ8c5EElFk2W4', 'person_name': 'Fatih Tosun', 'profile_description': 'Groudsman chez Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/marien-bigot-948223272?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEKYs4gBsEq_6jEqtMap9eBRIX5eUpudeZo', 'person_name': 'Marien Bigot', 'profile_description': 'Responsable de la branche Maintenance chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/scott-brooks-18991223?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAATwu3kBacSwPZkwozjOH8CJeWiW5N2WTZU', 'person_name': 'Scott Brooks', 'profile_description': 'Director at Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/gabriel-gulat-a23b6b228?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADkf-fsB1lemp03bsfopKWhL4cSdAlQ-S7U', 'person_name': 'Gabriel Gulat', 'profile_description': 'Construction'}, {'profile_url': 'https://www.linkedin.com/in/charly-coudert-131668268?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEGX5LUBK02hLFSOPWl_b18EKdZM0d6Y520', 'person_name': 'Charly Coudert', 'profile_description': 'Groundsman'}, {'profile_url': 'https://www.linkedin.com/in/melanie-doulet-02480114b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ_ltwBDY1-wvTLbitNa4GROx3hU64Go_M', 'person_name': 'Melanie Doulet', 'profile_description': 'Comptable'}, {'profile_url': 'https://www.linkedin.com/in/adrien-gagnot-83395b239?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADtoX-cBMU13pEmLsAwy-eWnXyP9B47HIzk', 'person_name': 'Adrien Gagnot', 'profile_description': 'head grounsdman'}, {'profile_url': 'https://www.linkedin.com/in/sebastienhouitte?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAANvdiUB_7u-h0EotmjpEqEuoYBZzage00E', 'person_name': 'Sébastien Houitte', 'profile_description': 'Directeur de projets &amp; développement'}, {'profile_url': 'https://www.linkedin.com/in/corentin-lemoine-6b7061226?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADia0KsBYcAReXRvmsAs57LNhkxIzBXiaCk', 'person_name': 'Corentin LEMOINE', 'profile_description': 'Headgroundman au CEVA Campus - UBB Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/hugo-viney-thomas-1b1743231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADnzvVUBGD_56iExoZSZuWsBv322Km7rClU', 'person_name': 'Hugo Viney-Thomas', 'profile_description': 'Responsable des terrains / Head groundsperson'}, {'profile_url': 'https://www.linkedin.com/in/youcef-benmaghsoula-941988194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2070EBBua47WpJ_OIfhMMsJatxe1gAffA', 'person_name': 'Youcef Benmaghsoula', 'profile_description': 'Project Manager NGA'}, {'profile_url': 'https://www.linkedin.com/in/logan-gouet-b87817189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxv9tcBsWBjcRHE_hLqPxWYouFD6rdAhNI', 'person_name': 'Logan Gouet', 'profile_description': 'Head groundsman chez SPARFEL'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-tebbakh-aa7363214?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYoZF8Brakw2Y25OEuOi8pRuMdXITQRh6E', 'person_name': 'Loïc Tebbakh', 'profile_description': 'Agent de production chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/theophile-pertriaux-12b83a12a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_NtzMB4i7-LzqvZA3Dy5nDTWWdSR59Ft0', 'person_name': 'Theophile Pertriaux', 'profile_description': 'Responsable Maintenance Ile-de-France pour Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/nazim-safsaf-pmp%C2%AE-539a17181?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACsLCz0BcMaX-NdB7lGv4dQ5A_4LHTXupYs', 'person_name': 'Nazim Safsaf, PMP®', 'profile_description': 'Directeur technique'}, {'profile_url': 'https://www.linkedin.com/in/anne-sophie-da-costa-378b8717b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACq17UwB2OuZZ_dg_QhlEb76xyebz5kKAnw', 'person_name': 'Anne-Sophie Da Costa', 'profile_description': 'Assistante comptable polyvalente chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/deangilasbey?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAeZFQABhIA7bI71wU5P6GzwF9tABLf3w60', 'person_name': 'Dean Gilasbey', 'profile_description': 'Director of International Pitch Management'}, {'profile_url': 'https://www.linkedin.com/in/mamadou-baradji-600600229?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADk4W2ABgG9mUZ47FX7qNClYCpQYs0ppaQw', 'person_name': 'Mamadou Baradji', 'profile_description': 'technicien de construction de terrains de sport chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-raspilaire-483083111?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvz7uMBiMHTMm7wfS1ALiCptgYpxI-4tX4', 'person_name': 'Léo Raspilaire', 'profile_description': 'Head Groundsman at Cercle Brugge'}, {'profile_url': 'https://www.linkedin.com/in/marlenepivard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA15OrMBHlEDyXN6s0IBfHvQPfSjCoOm5uY', 'person_name': 'Marlene Pivard', 'profile_description': 'Directrice Marketing &amp; Communication @Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/jeremy-gouillon-944a12128?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB95W8QBHUw1jv_ZBlEhiqmr3A4-UqWhraI', 'person_name': 'jeremy gouillon', 'profile_description': 'Ingenieur de recherche en biomecanique chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/khaled-becheikh-b8b878279?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEPwI5sBRADfDkB1OgrDJSTODanhDa7FyGc', 'person_name': 'Khaled Becheikh', 'profile_description': 'entretien &amp; maintenance du gazon naturel stade olympique oran'}, {'profile_url': 'https://www.linkedin.com/in/patrice-angelliaume-angelliaume-639b0a110?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvtyw0B151UNaPsXF6UJgh2OES3JTbfIpQ', 'person_name': 'Patrice ANGELLIAUME ANGELLIAUME', 'profile_description': 'Technicien de recherche chez Naturalgrass'}, {'profile_url': 'https://www.linkedin.com/in/lucas-brunet-1222a11b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADEqCWoBAYmkiJawMgAeF6j-b-_0pIkIrhk', 'person_name': 'Lucas Brunet', 'profile_description': 'Recherche de poste'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-vaudout-79b487275?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEMq-6cBFTgBWeYbL1e00HeELIrsMqBQD1o', 'person_name': 'Alexandre Vaudout', 'profile_description': 'Apprenti chez Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/lucie-van-de-velde-3b71171aa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADDIbnsBefuBD49gP8rYhx0N-g3GXo8peU0', 'person_name': 'Lucie Van de velde', 'profile_description': 'Assistante RH chez NG'}, {'profile_url': 'https://www.linkedin.com/in/gregory-schepens-314b7112a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_aI4ABnZNTWRcVWaJeTTs6m9HFBKBxI5E', 'person_name': 'Gregory Schepens', 'profile_description': 'Head groundsman Stade Malherbe Caen'}, {'profile_url': 'https://www.linkedin.com/in/meney-sulvanus-obodji-255836218?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADbwvOEBE-3GfYRj2Wjp7uRWJBNBW56WSlw', 'person_name': 'Meney Sulvanus Obodji', 'profile_description': 'Groundsman chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9cile-cadiou-0a66b9b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfGUD4BWfmE-4OvcoBB5j_M6-f1RwhIP5E', 'person_name': 'Cécile Cadiou', 'profile_description': 'Assistante ADV Bureau d’Etudes'}, {'profile_url': 'https://www.linkedin.com/in/farid-boussaad-bbbb49224?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhpC38BDKPiT-gJfPndIWh-YuXcmUSPS3c', 'person_name': 'Farid Boussaad', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/alexian-roumec-5019052a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEi_0JEBW-svpw3D_DevQdIgwQfkFy6Y0OQ', 'person_name': 'Alexian Roumec', 'profile_description': 'Groundsman'}, {'profile_url': 'https://www.linkedin.com/in/killian-ereau-b68b31201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOaVEABmcOuXrP7_MAXKqEBqUwnt8wnYPI', 'person_name': 'Killian Ereau', 'profile_description': 'Technicien construction'}, {'profile_url': 'https://www.linkedin.com/in/floryan-carlet-463274118?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB06LIsBZx-a9GZCxJdF6bQm0ugbwGlMF_Q', 'person_name': 'Floryan Carlet', 'profile_description': 'Technicien/Jardinier'}, {'profile_url': 'https://www.linkedin.com/in/mouloud-mouloud-a0b17b165?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdbousBTDw9j5je6SK99Dqx8vgk6m32k5A', 'person_name': 'Mouloud Mouloud', 'profile_description': 'Responsable technique'}, {'profile_url': 'https://www.linkedin.com/in/mathieu-noye-159b22b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjnpFUBWIhqcurmu7lx1kI3Hrcz5jimQNs', 'person_name': 'Mathieu NOYE', 'profile_description': 'Chargé d’affaires'}, {'profile_url': 'https://www.linkedin.com/in/david-moutin-0894141bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMkDGkBDJjCN4YxOz_iHW2C7mu682E0hPI', 'person_name': 'David Moutin', 'profile_description': 'Jardins/espaces verts chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/germain-coenon-1aa321245?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADy83dIBIsMnkFv8OFjr1qHDS7wd2ZftmDU', 'person_name': 'Germain Coenon', 'profile_description': 'Technicien chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/killian-louison-446312190?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzlhPYBw_wnBFRY6KJg3yKAET576LGbSUY', 'person_name': 'Killian Louison', 'profile_description': 'Réalisateur / Monteur vidéo / Motion Designer Freelance'}, {'profile_url': 'https://www.linkedin.com/in/paul-ornada-500756236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADrX9FABJvqTpAlpz2AOhlzZ27ELp9Uv1Vg', 'person_name': 'Paul Ornada', 'profile_description': 'Responsable projets construction'}, {'profile_url': 'https://www.linkedin.com/in/romain-giraud-a8aa91165?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACd-LcoB22m_03A8tEk7FZWwe_Z0TC39IXo', 'person_name': 'Romain GIRAUD', 'profile_description': 'Agronome chargé de recherche / turf agronomist - Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/kai-yuan-ko-0a8709119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB14oUABJMB2WEWK_xQv5_ouJX-kIYuarHQ', 'person_name': 'Kai-yuan Ko', 'profile_description': 'NATURAL GRASS TECHNOLOGY CO,LTD Enginner'}, {'profile_url': 'https://www.linkedin.com/in/michel-van-uffelen-561042b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkZpJkBvR3iSYDxU9VnlzFFFhaZuPUcXJc', 'person_name': 'Michel Van Uffelen', 'profile_description': 'Greenkeeper, groundskeeper and interested in everything that involves turfgrass management.'}, {'profile_url': 'https://www.linkedin.com/in/mike-kenna-ngs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlzOXIB1BrpTaMf9zMt1pXHgP6wb3M1tKs', 'person_name': 'Mike Kenna', 'profile_description': 'Consultant at Natural Grass Science'}, {'profile_url': 'https://www.linkedin.com/in/sven-steenkiste-b37a05219?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADck8BsB31_KPLq4YjA4zUuKqaCwboTp874', 'person_name': 'Sven Steenkiste', 'profile_description': 'Assistant Head Groundsman at Cercle Brugge'}, {'profile_url': 'https://www.linkedin.com/in/abraham-t-4aa76922b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADmZaYIBRi8uaVTmBDIMFW8VoTbn6O5SEvk', 'person_name': 'Abraham T.', 'profile_description': 'operario Maquinista'}, {'profile_url': 'https://www.linkedin.com/in/waldemarritterarcos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQBd6AB2i5R-alER-m-snuPspnw7bId0wI', 'person_name': 'Waldemar Ritter Arcos', 'profile_description': 'Administrador de obra en Natural grass'}, {'profile_url': 'https://www.linkedin.com/in/alberto-m-55690486?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJJqhIBWU1m1I11VHoBYRIbEcbEas62wOQ', 'person_name': 'Alberto M.', 'profile_description': 'Sales &amp; Operations Manager Spain and Portugal for NG Iberica'}, {'profile_url': 'https://www.linkedin.com/in/youen-geffroy-b786a4318?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFCMU4wB0gJV6Cb0y5jvxa6jFwtI9wnQLeQ', 'person_name': 'Youen Geffroy', 'profile_description': 'Groundsman chez Natural Grass (NG) ( trainning center paris saint Germain Poissy )'}, {'profile_url': 'https://www.linkedin.com/in/valentin-herve-643b532a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEmswNMBfH5PZZ4eM8_GKqgMMIi4dRPIcEU', 'person_name': 'Valentin Herve', 'profile_description': 'Groundsman Natural Grass Olympique de Marseille'}, {'profile_url': 'https://www.linkedin.com/in/fouceni-diarisso-b9099831b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFEgMZwBHdceNhhCYz_ttQY6oxcLXF1Qx04', 'person_name': 'Fouceni Diarisso', 'profile_description': 'Technicien de construction chez Natural Grass (NG)'}]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>59,25 %</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>303,89 %</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>21.574.625 €</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>5.341.734 €</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>28</v>
+      </c>
+      <c r="R72" t="n">
+        <v>20</v>
+      </c>
+      <c r="S72" t="n">
+        <v>68</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Construction, Bâtiment</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/k%C3%A9vin-cattier-583787127?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB9CvnMBjoZMDFOjUszwH7C_Ygh-zy0h-tU</t>
+      <c r="A73" t="n">
+        <v>60</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Natural Grass </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://naturalgrass.com/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['01 45 25 78 15', '+54 7078-0747', '01 64 98 56 47']</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>['info@rg7construcciones.com.ar', 'info@naturalgrass.fr']</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>['3 rue de la Montagne de Maisse, 91490 Milly-La-Foret, FRANCE', '6 rue Claude Farrère, 75016 Paris, FRANCE']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/natural-grass</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-bodin-3b174946?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAm4dvUBvsgm2Vpn6izDs_4E99XPcpSuI0k', 'person_name': 'Clément BODIN', 'profile_description': 'Managing Director @Natural Grass Co-fondateur @AirPrint'}</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Managing Director @Natural Grass Co-fondateur @AirPrint</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/cl%C3%A9ment-bodin-3b174946?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAm4dvUBvsgm2Vpn6izDs_4E99XPcpSuI0k</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/thomas-villette-56a1b3239?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADtLrmIBEQu78cTbdyUPWgz4d5QLv10qBv0', 'person_name': 'Thomas Villette', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/h%C3%A9l%C3%A8ne-papon-7212512b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAZD58kBvVn7_r5INlCh6T8XLLlSGfHKT8k', 'person_name': 'Hélène Papon', 'profile_description': 'CFO'}, {'profile_url': 'https://www.linkedin.com/in/j%C3%A9r%C3%A9mie-leray-b78592202?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOzCQwBItfHI6_-xMR4-aQKDW4sUPZ45LQ', 'person_name': 'jérémie Leray', 'profile_description': 'Technicien de Construction'}, {'profile_url': 'https://www.linkedin.com/in/bertrand-picard-25ab59?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAArlyYBSt7YVnb9bk2H5fgvISKSuAqc3SU', 'person_name': 'Bertrand Picard', 'profile_description': 'Entrepreneur &amp; Investor - Founding Partner @Natural Grass @CityNest @Ground Control @Clos St Sulpice vineyard'}, {'profile_url': 'https://www.linkedin.com/in/antoine-babl%C3%A9e-593932142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKqT78BIEU0fEn70yq09xeXbdU803-QSZ8', 'person_name': 'Antoine Bablée', 'profile_description': 'Responsable RH @Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/jeromedatchary?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEzE8oBg8ByT2uhn2mtjiggRR6jlJ30wn8', 'person_name': 'Jérôme Datchary', 'profile_description': 'General Secretary - Growth Director'}, {'profile_url': 'https://www.linkedin.com/in/augustin-rochmann-b70b2a8?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGXMAQBYKsc5BQqGXnUdNJkuoPk7j2uMX4', 'person_name': 'Augustin Rochmann', 'profile_description': 'Business Development &amp; Sales Director chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/erwan-rius?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACbeq9kBj-2-IGu2NY3FTaIFHhunsaDymEU', 'person_name': 'Erwan Rius', 'profile_description': 'Chargé de projet Design &amp; Construction - NG'}, {'profile_url': 'https://www.linkedin.com/in/salarolimatheus?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4jHuQBGQbARqaGH2lwfvnEp2koDmg08z4', 'person_name': 'Matheus Salaroli', 'profile_description': 'Ingénieur Systèmes Embarqués &amp; IoT | Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/aur%C3%A9lien-pramayon-9891a11ab?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADD4sjkBK86QGr6XHR7b1iVg7GYDqjPh0Rc', 'person_name': 'Aurélien Pramayon', 'profile_description': "Groundsman chez Natural Grass au centre d'entraînement du cercle Bruges."}, {'profile_url': 'https://www.linkedin.com/in/hadrien-mauriac-04776565?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3Q6_cBa9k08rIQSUgZRBj6GkZ_kkTjs1U', 'person_name': 'Hadrien Mauriac', 'profile_description': 'Responsable des Opération France et Export (NG)'}, {'profile_url': 'https://www.linkedin.com/in/alicia-brisset-1623621b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADI9-FoB9thZ8hz2E5dAbu9Tk9a8-W6TP60', 'person_name': 'Alicia Brisset', 'profile_description': 'Chargé de projet Design &amp; Construction - NG'}, {'profile_url': 'https://www.linkedin.com/in/theo-izoulet-2292b8290?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEaGCkEBsHw1mEBnuFDUnsepIv8BvRnx6ks', 'person_name': 'Theo IZOULET', 'profile_description': 'Groundsman at Cercle Brugge'}, {'profile_url': 'https://www.linkedin.com/in/thomas-lipsker-998a62200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNp8QQB-FCAni3UiivE-OM0m1IdLNcoQk8', 'person_name': 'Thomas Lipsker', 'profile_description': 'Groundsman au centre d’entrainement du PSG'}, {'profile_url': 'https://www.linkedin.com/in/louka-p-758b70290?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEamvzQBtaF5z7cdjAjvvnPvxFt6A3Ruac4', 'person_name': 'Louka P.', 'profile_description': ''}, {'profile_url': 'https://www.linkedin.com/in/xavier-van-der-laan-012955108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsxYs4BHHpLsf1UlOoyzxNXC44AXHIsP7Y', 'person_name': 'Xavier Van der Laan', 'profile_description': 'Responsable R&amp;D chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/math%C3%A9o-perigaud-75a349270?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEJCKPYBCPHMW2WpyIVJRYyb3MMM5b3ObP0', 'person_name': 'Mathéo PERIGAUD', 'profile_description': 'Groudsman Natural Grass ( Training Center Paris-Saint-Germain)'}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-bodin-3b174946?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAm4dvUBvsgm2Vpn6izDs_4E99XPcpSuI0k', 'person_name': 'Clément BODIN', 'profile_description': 'Managing Director @Natural Grass Co-fondateur @AirPrint'}, {'profile_url': 'https://www.linkedin.com/in/nicolas-gouet-5614641a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-WZBkBud7hlkPIoviUHgvlw2_xbvNDm44', 'person_name': 'Nicolas Gouet', 'profile_description': 'Greenkeeper chez Natural Grass - Stade Malherbe de Caen'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9line-f-8b854174?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-9y8wB02c7CNyl8XlDj1XUicLLQUUHtZ8', 'person_name': 'Céline F.', 'profile_description': 'Responsable administratif et opérationnel'}, {'profile_url': 'https://www.linkedin.com/in/kevyn-fagot-b21857249?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD2HOokBIq4WlRLbvTrnag4O9_GMbwCf8Dw', 'person_name': 'Kevyn Fagot', 'profile_description': "Groundsman (Training Center Paris-Saint-Germain) Chef d'équipe Natural Grass"}, {'profile_url': 'https://www.linkedin.com/in/thomas-coulette-693495177?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnlXo8B97xwsaXBltkQNwT6LVYlatClmKc', 'person_name': 'Thomas Coulette', 'profile_description': 'Groundsman Training Center PSG'}, {'profile_url': 'https://www.linkedin.com/in/fr%C3%A9d%C3%A9rick-paul-62681a15b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZi5_4BgMb-zdQmqIamZJXBunrG6ATI-RY', 'person_name': 'Frédérick Paul', 'profile_description': 'Head Groundsman chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/marceau-dubourdeaux-359bab1a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-yajUBk5W3uU6Itf0DWMSzG1TGIUeDZng', 'person_name': 'Marceau Dubourdeaux', 'profile_description': 'Construction chez Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/fatih-tosun-139680208?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADTH0L0BhHSnKSmRp8oYhQrJ8c5EElFk2W4', 'person_name': 'Fatih Tosun', 'profile_description': 'Groudsman chez Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/marien-bigot-948223272?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEKYs4gBsEq_6jEqtMap9eBRIX5eUpudeZo', 'person_name': 'Marien Bigot', 'profile_description': 'Responsable de la branche Maintenance chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/scott-brooks-18991223?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAATwu3kBacSwPZkwozjOH8CJeWiW5N2WTZU', 'person_name': 'Scott Brooks', 'profile_description': 'Director at Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/gabriel-gulat-a23b6b228?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADkf-fsB1lemp03bsfopKWhL4cSdAlQ-S7U', 'person_name': 'Gabriel Gulat', 'profile_description': 'Construction'}, {'profile_url': 'https://www.linkedin.com/in/charly-coudert-131668268?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEGX5LUBK02hLFSOPWl_b18EKdZM0d6Y520', 'person_name': 'Charly Coudert', 'profile_description': 'Groundsman'}, {'profile_url': 'https://www.linkedin.com/in/melanie-doulet-02480114b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQ_ltwBDY1-wvTLbitNa4GROx3hU64Go_M', 'person_name': 'Melanie Doulet', 'profile_description': 'Comptable'}, {'profile_url': 'https://www.linkedin.com/in/adrien-gagnot-83395b239?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADtoX-cBMU13pEmLsAwy-eWnXyP9B47HIzk', 'person_name': 'Adrien Gagnot', 'profile_description': 'head grounsdman'}, {'profile_url': 'https://www.linkedin.com/in/sebastienhouitte?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAANvdiUB_7u-h0EotmjpEqEuoYBZzage00E', 'person_name': 'Sébastien Houitte', 'profile_description': 'Directeur de projets &amp; développement'}, {'profile_url': 'https://www.linkedin.com/in/corentin-lemoine-6b7061226?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADia0KsBYcAReXRvmsAs57LNhkxIzBXiaCk', 'person_name': 'Corentin LEMOINE', 'profile_description': 'Headgroundman au CEVA Campus - UBB Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/hugo-viney-thomas-1b1743231?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADnzvVUBGD_56iExoZSZuWsBv322Km7rClU', 'person_name': 'Hugo Viney-Thomas', 'profile_description': 'Responsable des terrains / Head groundsperson'}, {'profile_url': 'https://www.linkedin.com/in/youcef-benmaghsoula-941988194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC2070EBBua47WpJ_OIfhMMsJatxe1gAffA', 'person_name': 'Youcef Benmaghsoula', 'profile_description': 'Project Manager NGA'}, {'profile_url': 'https://www.linkedin.com/in/logan-gouet-b87817189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACxv9tcBsWBjcRHE_hLqPxWYouFD6rdAhNI', 'person_name': 'Logan Gouet', 'profile_description': 'Head groundsman chez SPARFEL'}, {'profile_url': 'https://www.linkedin.com/in/lo%C3%AFc-tebbakh-aa7363214?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYoZF8Brakw2Y25OEuOi8pRuMdXITQRh6E', 'person_name': 'Loïc Tebbakh', 'profile_description': 'Agent de production chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/theophile-pertriaux-12b83a12a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_NtzMB4i7-LzqvZA3Dy5nDTWWdSR59Ft0', 'person_name': 'Theophile Pertriaux', 'profile_description': 'Responsable Maintenance Ile-de-France pour Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/nazim-safsaf-pmp%C2%AE-539a17181?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACsLCz0BcMaX-NdB7lGv4dQ5A_4LHTXupYs', 'person_name': 'Nazim Safsaf, PMP®', 'profile_description': 'Directeur technique'}, {'profile_url': 'https://www.linkedin.com/in/anne-sophie-da-costa-378b8717b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACq17UwB2OuZZ_dg_QhlEb76xyebz5kKAnw', 'person_name': 'Anne-Sophie Da Costa', 'profile_description': 'Assistante comptable polyvalente chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/deangilasbey?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAeZFQABhIA7bI71wU5P6GzwF9tABLf3w60', 'person_name': 'Dean Gilasbey', 'profile_description': 'Director of International Pitch Management'}, {'profile_url': 'https://www.linkedin.com/in/mamadou-baradji-600600229?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADk4W2ABgG9mUZ47FX7qNClYCpQYs0ppaQw', 'person_name': 'Mamadou Baradji', 'profile_description': 'technicien de construction de terrains de sport chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9o-raspilaire-483083111?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvz7uMBiMHTMm7wfS1ALiCptgYpxI-4tX4', 'person_name': 'Léo Raspilaire', 'profile_description': 'Head Groundsman at Cercle Brugge'}, {'profile_url': 'https://www.linkedin.com/in/marlenepivard?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA15OrMBHlEDyXN6s0IBfHvQPfSjCoOm5uY', 'person_name': 'Marlene Pivard', 'profile_description': 'Directrice Marketing &amp; Communication @Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/jeremy-gouillon-944a12128?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB95W8QBHUw1jv_ZBlEhiqmr3A4-UqWhraI', 'person_name': 'jeremy gouillon', 'profile_description': 'Ingenieur de recherche en biomecanique chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/khaled-becheikh-b8b878279?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEPwI5sBRADfDkB1OgrDJSTODanhDa7FyGc', 'person_name': 'Khaled Becheikh', 'profile_description': 'entretien &amp; maintenance du gazon naturel stade olympique oran'}, {'profile_url': 'https://www.linkedin.com/in/patrice-angelliaume-angelliaume-639b0a110?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABvtyw0B151UNaPsXF6UJgh2OES3JTbfIpQ', 'person_name': 'Patrice ANGELLIAUME ANGELLIAUME', 'profile_description': 'Technicien de recherche chez Naturalgrass'}, {'profile_url': 'https://www.linkedin.com/in/lucas-brunet-1222a11b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADEqCWoBAYmkiJawMgAeF6j-b-_0pIkIrhk', 'person_name': 'Lucas Brunet', 'profile_description': 'Recherche de poste'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-vaudout-79b487275?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEMq-6cBFTgBWeYbL1e00HeELIrsMqBQD1o', 'person_name': 'Alexandre Vaudout', 'profile_description': 'Apprenti chez Natural Grass'}, {'profile_url': 'https://www.linkedin.com/in/lucie-van-de-velde-3b71171aa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADDIbnsBefuBD49gP8rYhx0N-g3GXo8peU0', 'person_name': 'Lucie Van de velde', 'profile_description': 'Assistante RH chez NG'}, {'profile_url': 'https://www.linkedin.com/in/gregory-schepens-314b7112a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_aI4ABnZNTWRcVWaJeTTs6m9HFBKBxI5E', 'person_name': 'Gregory Schepens', 'profile_description': 'Head groundsman Stade Malherbe Caen'}, {'profile_url': 'https://www.linkedin.com/in/meney-sulvanus-obodji-255836218?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADbwvOEBE-3GfYRj2Wjp7uRWJBNBW56WSlw', 'person_name': 'Meney Sulvanus Obodji', 'profile_description': 'Groundsman chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9cile-cadiou-0a66b9b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABfGUD4BWfmE-4OvcoBB5j_M6-f1RwhIP5E', 'person_name': 'Cécile Cadiou', 'profile_description': 'Assistante ADV Bureau d’Etudes'}, {'profile_url': 'https://www.linkedin.com/in/farid-boussaad-bbbb49224?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhpC38BDKPiT-gJfPndIWh-YuXcmUSPS3c', 'person_name': 'Farid Boussaad', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/alexian-roumec-5019052a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEi_0JEBW-svpw3D_DevQdIgwQfkFy6Y0OQ', 'person_name': 'Alexian Roumec', 'profile_description': 'Groundsman'}, {'profile_url': 'https://www.linkedin.com/in/killian-ereau-b68b31201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOaVEABmcOuXrP7_MAXKqEBqUwnt8wnYPI', 'person_name': 'Killian Ereau', 'profile_description': 'Technicien construction'}, {'profile_url': 'https://www.linkedin.com/in/floryan-carlet-463274118?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB06LIsBZx-a9GZCxJdF6bQm0ugbwGlMF_Q', 'person_name': 'Floryan Carlet', 'profile_description': 'Technicien/Jardinier'}, {'profile_url': 'https://www.linkedin.com/in/mouloud-mouloud-a0b17b165?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdbousBTDw9j5je6SK99Dqx8vgk6m32k5A', 'person_name': 'Mouloud Mouloud', 'profile_description': 'Responsable technique'}, {'profile_url': 'https://www.linkedin.com/in/mathieu-noye-159b22b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjnpFUBWIhqcurmu7lx1kI3Hrcz5jimQNs', 'person_name': 'Mathieu NOYE', 'profile_description': 'Chargé d’affaires'}, {'profile_url': 'https://www.linkedin.com/in/david-moutin-0894141bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMkDGkBDJjCN4YxOz_iHW2C7mu682E0hPI', 'person_name': 'David Moutin', 'profile_description': 'Jardins/espaces verts chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/germain-coenon-1aa321245?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADy83dIBIsMnkFv8OFjr1qHDS7wd2ZftmDU', 'person_name': 'Germain Coenon', 'profile_description': 'Technicien chez Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/killian-louison-446312190?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACzlhPYBw_wnBFRY6KJg3yKAET576LGbSUY', 'person_name': 'Killian Louison', 'profile_description': 'Réalisateur / Monteur vidéo / Motion Designer Freelance'}, {'profile_url': 'https://www.linkedin.com/in/paul-ornada-500756236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADrX9FABJvqTpAlpz2AOhlzZ27ELp9Uv1Vg', 'person_name': 'Paul Ornada', 'profile_description': 'Responsable projets construction'}, {'profile_url': 'https://www.linkedin.com/in/romain-giraud-a8aa91165?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACd-LcoB22m_03A8tEk7FZWwe_Z0TC39IXo', 'person_name': 'Romain GIRAUD', 'profile_description': 'Agronome chargé de recherche / turf agronomist - Natural Grass (NG)'}, {'profile_url': 'https://www.linkedin.com/in/kai-yuan-ko-0a8709119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB14oUABJMB2WEWK_xQv5_ouJX-kIYuarHQ', 'person_name': 'Kai-yuan Ko', 'profile_description': 'NATURAL GRASS TECHNOLOGY CO,LTD Enginner'}, {'profile_url': 'https://www.linkedin.com/in/michel-van-uffelen-561042b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABkZpJkBvR3iSYDxU9VnlzFFFhaZuPUcXJc', 'person_name': 'Michel Van Uffelen', 'profile_description': 'Greenkeeper, groundskeeper and interested in everything that involves turfgrass management.'}, {'profile_url': 'https://www.linkedin.com/in/mike-kenna-ngs?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAlzOXIB1BrpTaMf9zMt1pXHgP6wb3M1tKs', 'person_name': 'Mike Kenna', 'profile_description': 'Consultant at Natural Grass Science'}, {'profile_url': 'https://www.linkedin.com/in/sven-steenkiste-b37a05219?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADck8BsB31_KPLq4YjA4zUuKqaCwboTp874', 'person_name': 'Sven Steenkiste', 'profile_description': 'Assistant Head Groundsman at Cercle Brugge'}, {'profile_url': 'https://www.linkedin.com/in/abraham-t-4aa76922b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADmZaYIBRi8uaVTmBDIMFW8VoTbn6O5SEvk', 'person_name': 'Abraham T.', 'profile_description': 'operario Maquinista'}, {'profile_url': 'https://www.linkedin.com/in/waldemarritterarcos?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAQBd6AB2i5R-alER-m-snuPspnw7bId0wI', 'person_name': 'Waldemar Ritter Arcos', 'profile_description': 'Administrador de obra en Natural grass'}, {'profile_url': 'https://www.linkedin.com/in/alberto-m-55690486?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABJJqhIBWU1m1I11VHoBYRIbEcbEas62wOQ', 'person_name': 'Alberto M.', 'profile_description': 'Sales &amp; Operations Manager Spain and Portugal for NG Iberica'}, {'profile_url': 'https://www.linkedin.com/in/youen-geffroy-b786a4318?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFCMU4wB0gJV6Cb0y5jvxa6jFwtI9wnQLeQ', 'person_name': 'Youen Geffroy', 'profile_description': 'Groundsman chez Natural Grass (NG) ( trainning center paris saint Germain Poissy )'}, {'profile_url': 'https://www.linkedin.com/in/valentin-herve-643b532a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEmswNMBfH5PZZ4eM8_GKqgMMIi4dRPIcEU', 'person_name': 'Valentin Herve', 'profile_description': 'Groundsman Natural Grass Olympique de Marseille'}, {'profile_url': 'https://www.linkedin.com/in/fouceni-diarisso-b9099831b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFEgMZwBHdceNhhCYz_ttQY6oxcLXF1Qx04', 'person_name': 'Fouceni Diarisso', 'profile_description': 'Technicien de construction chez Natural Grass (NG)'}]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>59,25 %</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>303,89 %</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>21.574.625 €</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>5.341.734 €</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>28</v>
+      </c>
+      <c r="R73" t="n">
+        <v>20</v>
+      </c>
+      <c r="S73" t="n">
+        <v>68</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Construction, Bâtiment</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/bertrand-picard-25ab59?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAArlyYBSt7YVnb9bk2H5fgvISKSuAqc3SU</t>
+      <c r="A74" t="n">
+        <v>40</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kumulus Vape </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.kumulusvape.fr/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['0411909595']</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/kumulusvape</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/vincent-baudoin-2059189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAG8xCUBa1m1SmPmE-Jfh3hjW7Xpd1AeF_U', 'person_name': 'Vincent Baudoin', 'profile_description': 'Associé, Directeur de la communication'}</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Associé, Directeur de la communication</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vincent-baudoin-2059189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAG8xCUBa1m1SmPmE-Jfh3hjW7Xpd1AeF_U</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/mathieu-escoffier-33781a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEwVlsBqwrm38QIrLPt7P3bPn9Rb0eMHEc', 'person_name': 'Mathieu Escoffier', 'profile_description': 'Directeur des projets digitaux / acquisition'}, {'profile_url': 'https://www.linkedin.com/in/laetitiadetouchet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABK3YiYBGQn4YIM-1jG1PvVLFNtGGxRW3cc', 'person_name': 'Laetitia de Touchet', 'profile_description': 'Directeur Financier'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-diallo-53b8a97a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABDcqb8B9Xv6W5kpE_PqZeyuMhSzrXG64Pk', 'person_name': 'Cédric Diallo', 'profile_description': 'Experienced Project Manager | Strategic Leader | Expertise in High-Profile Sports &amp; Retail Event Management | Innovator in Fitness &amp; Wellness Solutions | Driven Sales Achiever'}, {'profile_url': 'https://www.linkedin.com/in/vincent-li%C3%A9vois-b02a0831?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAa8BDIBnOLZkivIGORACJyWEJSkHsC3r-M', 'person_name': 'Vincent Liévois', 'profile_description': "Directeur des Achats chez Kumulus Vape | Expert en gestion de portefeuilles d'achats stratégiques"}, {'profile_url': 'https://www.linkedin.com/in/amaurydupouey?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIKhb8BHJT4A7P2JPhWU1l53BxNGRx13us', 'person_name': 'Amaury Dupouey', 'profile_description': 'ballad.club, le coworking augmenté #futurofcowork'}, {'profile_url': 'https://www.linkedin.com/in/anabelle-stanislas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqDVOcBOVwbWTYaAvdp92xbb5vnXT4TL94', 'person_name': 'Anabelle Stanislas', 'profile_description': 'Commerciale KMLS Pro'}, {'profile_url': 'https://www.linkedin.com/in/laura-lattaud-21a473293?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEcU7HYBZvvHa-InX9UcTKOPWgDjn06zQAw', 'person_name': 'Laura Lattaud', 'profile_description': 'Étudiante en Master Achats à l’INSEEC MSc Lyon en alternance'}, {'profile_url': 'https://www.linkedin.com/in/baertremi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJvy6IBioWiGCVRS89Of34-LAQWpda4LuU', 'person_name': 'Rémi BAERT', 'profile_description': 'Founder &amp; CEO at Kumulus Vape | Self-made entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-wolff-1a89b5153?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACT9OdABRvxmSnCpp06wk1jpvOgglFsF9FY', 'person_name': 'Charlotte Wolff', 'profile_description': 'Directrice commerciale Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/alice-bougarel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhzDVoB7oGqOp8u76DVUs_wEEIm6WpJu54', 'person_name': 'Alice Bougarel', 'profile_description': 'Étudiante en Design Graphique et Direction Artistique à Sup de Pub Graphiste Print et Web en alternance chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/lionel-hugues-6bb50b14a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQG6i8BPAI4VpLdm4Jf7GanKoRUidvQTLA', 'person_name': 'Lionel HUGUES', 'profile_description': 'D.E.O. Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/loris-cite-7b4b0515a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZASjgBLHGly1PWLeiBNGUnoQBVCbsrWgY', 'person_name': 'Loris CITE', 'profile_description': 'Responsable commercial chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/axel-gerome-77b041211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWTnw8BsoLTAL6XLAN3RGiUr9ltYM5a1HA', 'person_name': 'Axel Gerome', 'profile_description': 'Responsable des achats chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-vincent-398299130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAT7-QBH_QbRcTK8anvAxrIcuJZPGc9wfs', 'person_name': 'alexandre vincent', 'profile_description': 'Responsable produits chez KumulusVape.fr'}, {'profile_url': 'https://www.linkedin.com/in/marc-antoine-allard-a624881a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAP8U-oBFcULbiKBvDV_yYiHmEnZloykfuM', 'person_name': 'Marc-antoine Allard', 'profile_description': 'Directeur de la création chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/gissell-picard-6502a4146?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNIQJwBX179c7ZZjBcByNdT_qVq94W5ZAI', 'person_name': 'GISSELL Picard', 'profile_description': 'Gestion des Entreprises'}, {'profile_url': 'https://www.linkedin.com/in/astrid-menut-27b08538?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfXaz8BhwE3_6v77nnGs3R_mte2ZeGD-Yw', 'person_name': 'Astrid Menut', 'profile_description': 'Directrice Administrative et RH / Responsable financière, KUMULUS VAPE S.A., 69960'}, {'profile_url': 'https://www.linkedin.com/in/gianni-bartolesi-6a42331b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADEn4xwB42pqjzKkYz0wm_KrKzmGmkNFwNs', 'person_name': 'Gianni Bartolesi', 'profile_description': 'Key Account Manager chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/adrien-bernard-guerin-65458420a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUfQqABvQ4WkzpBPn83T7BniSqfhKRGB7A', 'person_name': 'Adrien BERNARD-GUERIN', 'profile_description': 'Responsable commerciale chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/morgan-mouton-benoit-8084a8193?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC11BIgBk3qLTjqwnXHqTbEeZMSwxOUtCgM', 'person_name': 'Morgan MOUTON-BENOIT', 'profile_description': 'Chargé de réception'}, {'profile_url': 'https://www.linkedin.com/in/borispaulme?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9krRABFuRsC4jW4b8uMjwmkXkWQrUm6TM', 'person_name': 'Boris PAULME', 'profile_description': 'Directeur Services Clients / Logistiques / Transporteurs'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-vo-40a768b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABk1AkoBUbBEZkJOqevFlEVK8gxEMkzm2do', 'person_name': 'Guillaume Guillaume', 'profile_description': 'Graphiste indépendant'}, {'profile_url': 'https://www.linkedin.com/in/thomas-simonin-5a59811a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADAyng0B5KVKlUFlFbpkEg684kZHHtg-eVA', 'person_name': 'Thomas Simonin', 'profile_description': 'Employé chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/fanny-crozet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1VscABTmKaBfRqXpPv4VsDMosKl4CSFIg', 'person_name': 'Fanny Crozet', 'profile_description': 'Responsable Éditorial Web'}, {'profile_url': 'https://www.linkedin.com/in/jessica-carlesimo-43aa17258?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD-Cuq4BRcL2aynSsXXQtABtUMTLQ8TK3rg', 'person_name': 'Jessica Carlesimo', 'profile_description': 'Responsable commercial chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/maxence-d-147917b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABhXLQcBsSU2PmpxL6pTup-1qEi0nypls6s', 'person_name': 'Maxence D.', 'profile_description': 'Responsable marketing chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/vincent-baudoin-2059189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAG8xCUBa1m1SmPmE-Jfh3hjW7Xpd1AeF_U', 'person_name': 'Vincent Baudoin', 'profile_description': 'Associé, Directeur de la communication'}, {'profile_url': 'https://www.linkedin.com/in/axelle-gulikers-de-rore-0611984a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAApZe0kBqQ624n1NgwpRyLYoZXB9xArU0P4', 'person_name': 'Axelle Gulikers-De Rore', 'profile_description': 'Verkoop en educatie bij SALLY Dansgezelschap Maastricht'}, {'profile_url': 'https://www.linkedin.com/in/plagne-iris-b920742b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEumaJ4BZBno5AayAmVZGdR8Ey5J3PnRnY8', 'person_name': 'Plagne Iris', 'profile_description': 'Responsable du service client chez Kumulus Vape'}]</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>74,09 %</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>427,66 %</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>55.676.665 €</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>10.551.671 €</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>26</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>69</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>eCommerce</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/cl%C3%A9ment-bodin-3b174946?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAm4dvUBvsgm2Vpn6izDs_4E99XPcpSuI0k</t>
+      <c r="A75" t="n">
+        <v>40</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kumulus Vape </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.kumulusvape.fr/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['0411909595']</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/kumulusvape</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/baertremi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJvy6IBioWiGCVRS89Of34-LAQWpda4LuU', 'person_name': 'Rémi BAERT', 'profile_description': 'Founder &amp; CEO at Kumulus Vape | Self-made entrepreneur'}</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Founder &amp; CEO at Kumulus Vape | Self-made entrepreneur</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/baertremi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJvy6IBioWiGCVRS89Of34-LAQWpda4LuU</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/mathieu-escoffier-33781a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEwVlsBqwrm38QIrLPt7P3bPn9Rb0eMHEc', 'person_name': 'Mathieu Escoffier', 'profile_description': 'Directeur des projets digitaux / acquisition'}, {'profile_url': 'https://www.linkedin.com/in/laetitiadetouchet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABK3YiYBGQn4YIM-1jG1PvVLFNtGGxRW3cc', 'person_name': 'Laetitia de Touchet', 'profile_description': 'Directeur Financier'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-diallo-53b8a97a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABDcqb8B9Xv6W5kpE_PqZeyuMhSzrXG64Pk', 'person_name': 'Cédric Diallo', 'profile_description': 'Experienced Project Manager | Strategic Leader | Expertise in High-Profile Sports &amp; Retail Event Management | Innovator in Fitness &amp; Wellness Solutions | Driven Sales Achiever'}, {'profile_url': 'https://www.linkedin.com/in/vincent-li%C3%A9vois-b02a0831?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAa8BDIBnOLZkivIGORACJyWEJSkHsC3r-M', 'person_name': 'Vincent Liévois', 'profile_description': "Directeur des Achats chez Kumulus Vape | Expert en gestion de portefeuilles d'achats stratégiques"}, {'profile_url': 'https://www.linkedin.com/in/amaurydupouey?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIKhb8BHJT4A7P2JPhWU1l53BxNGRx13us', 'person_name': 'Amaury Dupouey', 'profile_description': 'ballad.club, le coworking augmenté #futurofcowork'}, {'profile_url': 'https://www.linkedin.com/in/anabelle-stanislas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqDVOcBOVwbWTYaAvdp92xbb5vnXT4TL94', 'person_name': 'Anabelle Stanislas', 'profile_description': 'Commerciale KMLS Pro'}, {'profile_url': 'https://www.linkedin.com/in/laura-lattaud-21a473293?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEcU7HYBZvvHa-InX9UcTKOPWgDjn06zQAw', 'person_name': 'Laura Lattaud', 'profile_description': 'Étudiante en Master Achats à l’INSEEC MSc Lyon en alternance'}, {'profile_url': 'https://www.linkedin.com/in/baertremi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJvy6IBioWiGCVRS89Of34-LAQWpda4LuU', 'person_name': 'Rémi BAERT', 'profile_description': 'Founder &amp; CEO at Kumulus Vape | Self-made entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-wolff-1a89b5153?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACT9OdABRvxmSnCpp06wk1jpvOgglFsF9FY', 'person_name': 'Charlotte Wolff', 'profile_description': 'Directrice commerciale Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/alice-bougarel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhzDVoB7oGqOp8u76DVUs_wEEIm6WpJu54', 'person_name': 'Alice Bougarel', 'profile_description': 'Étudiante en Design Graphique et Direction Artistique à Sup de Pub Graphiste Print et Web en alternance chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/lionel-hugues-6bb50b14a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQG6i8BPAI4VpLdm4Jf7GanKoRUidvQTLA', 'person_name': 'Lionel HUGUES', 'profile_description': 'D.E.O. Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/loris-cite-7b4b0515a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZASjgBLHGly1PWLeiBNGUnoQBVCbsrWgY', 'person_name': 'Loris CITE', 'profile_description': 'Responsable commercial chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/axel-gerome-77b041211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWTnw8BsoLTAL6XLAN3RGiUr9ltYM5a1HA', 'person_name': 'Axel Gerome', 'profile_description': 'Responsable des achats chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-vincent-398299130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAT7-QBH_QbRcTK8anvAxrIcuJZPGc9wfs', 'person_name': 'alexandre vincent', 'profile_description': 'Responsable produits chez KumulusVape.fr'}, {'profile_url': 'https://www.linkedin.com/in/marc-antoine-allard-a624881a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAP8U-oBFcULbiKBvDV_yYiHmEnZloykfuM', 'person_name': 'Marc-antoine Allard', 'profile_description': 'Directeur de la création chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/gissell-picard-6502a4146?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNIQJwBX179c7ZZjBcByNdT_qVq94W5ZAI', 'person_name': 'GISSELL Picard', 'profile_description': 'Gestion des Entreprises'}, {'profile_url': 'https://www.linkedin.com/in/astrid-menut-27b08538?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfXaz8BhwE3_6v77nnGs3R_mte2ZeGD-Yw', 'person_name': 'Astrid Menut', 'profile_description': 'Directrice Administrative et RH / Responsable financière, KUMULUS VAPE S.A., 69960'}, {'profile_url': 'https://www.linkedin.com/in/gianni-bartolesi-6a42331b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADEn4xwB42pqjzKkYz0wm_KrKzmGmkNFwNs', 'person_name': 'Gianni Bartolesi', 'profile_description': 'Key Account Manager chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/adrien-bernard-guerin-65458420a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUfQqABvQ4WkzpBPn83T7BniSqfhKRGB7A', 'person_name': 'Adrien BERNARD-GUERIN', 'profile_description': 'Responsable commerciale chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/morgan-mouton-benoit-8084a8193?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC11BIgBk3qLTjqwnXHqTbEeZMSwxOUtCgM', 'person_name': 'Morgan MOUTON-BENOIT', 'profile_description': 'Chargé de réception'}, {'profile_url': 'https://www.linkedin.com/in/borispaulme?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9krRABFuRsC4jW4b8uMjwmkXkWQrUm6TM', 'person_name': 'Boris PAULME', 'profile_description': 'Directeur Services Clients / Logistiques / Transporteurs'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-vo-40a768b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABk1AkoBUbBEZkJOqevFlEVK8gxEMkzm2do', 'person_name': 'Guillaume Guillaume', 'profile_description': 'Graphiste indépendant'}, {'profile_url': 'https://www.linkedin.com/in/thomas-simonin-5a59811a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADAyng0B5KVKlUFlFbpkEg684kZHHtg-eVA', 'person_name': 'Thomas Simonin', 'profile_description': 'Employé chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/fanny-crozet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1VscABTmKaBfRqXpPv4VsDMosKl4CSFIg', 'person_name': 'Fanny Crozet', 'profile_description': 'Responsable Éditorial Web'}, {'profile_url': 'https://www.linkedin.com/in/jessica-carlesimo-43aa17258?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD-Cuq4BRcL2aynSsXXQtABtUMTLQ8TK3rg', 'person_name': 'Jessica Carlesimo', 'profile_description': 'Responsable commercial chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/maxence-d-147917b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABhXLQcBsSU2PmpxL6pTup-1qEi0nypls6s', 'person_name': 'Maxence D.', 'profile_description': 'Responsable marketing chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/vincent-baudoin-2059189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAG8xCUBa1m1SmPmE-Jfh3hjW7Xpd1AeF_U', 'person_name': 'Vincent Baudoin', 'profile_description': 'Associé, Directeur de la communication'}, {'profile_url': 'https://www.linkedin.com/in/axelle-gulikers-de-rore-0611984a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAApZe0kBqQ624n1NgwpRyLYoZXB9xArU0P4', 'person_name': 'Axelle Gulikers-De Rore', 'profile_description': 'Verkoop en educatie bij SALLY Dansgezelschap Maastricht'}, {'profile_url': 'https://www.linkedin.com/in/plagne-iris-b920742b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEumaJ4BZBno5AayAmVZGdR8Ey5J3PnRnY8', 'person_name': 'Plagne Iris', 'profile_description': 'Responsable du service client chez Kumulus Vape'}]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>74,09 %</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>427,66 %</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>55.676.665 €</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>10.551.671 €</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>26</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>69</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>eCommerce</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/vincent-baudoin-2059189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAG8xCUBa1m1SmPmE-Jfh3hjW7Xpd1AeF_U</t>
+      <c r="A76" t="n">
+        <v>40</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kumulus Vape </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.kumulusvape.fr/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['0411909595']</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/kumulusvape</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/astrid-menut-27b08538?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfXaz8BhwE3_6v77nnGs3R_mte2ZeGD-Yw', 'person_name': 'Astrid Menut', 'profile_description': 'Directrice Administrative et RH / Responsable financière, KUMULUS VAPE S.A., 69960'}</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Directrice Administrative et RH / Responsable financière, KUMULUS VAPE S.A., 69960</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/astrid-menut-27b08538?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfXaz8BhwE3_6v77nnGs3R_mte2ZeGD-Yw</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/mathieu-escoffier-33781a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEwVlsBqwrm38QIrLPt7P3bPn9Rb0eMHEc', 'person_name': 'Mathieu Escoffier', 'profile_description': 'Directeur des projets digitaux / acquisition'}, {'profile_url': 'https://www.linkedin.com/in/laetitiadetouchet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABK3YiYBGQn4YIM-1jG1PvVLFNtGGxRW3cc', 'person_name': 'Laetitia de Touchet', 'profile_description': 'Directeur Financier'}, {'profile_url': 'https://www.linkedin.com/in/c%C3%A9dric-diallo-53b8a97a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABDcqb8B9Xv6W5kpE_PqZeyuMhSzrXG64Pk', 'person_name': 'Cédric Diallo', 'profile_description': 'Experienced Project Manager | Strategic Leader | Expertise in High-Profile Sports &amp; Retail Event Management | Innovator in Fitness &amp; Wellness Solutions | Driven Sales Achiever'}, {'profile_url': 'https://www.linkedin.com/in/vincent-li%C3%A9vois-b02a0831?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAa8BDIBnOLZkivIGORACJyWEJSkHsC3r-M', 'person_name': 'Vincent Liévois', 'profile_description': "Directeur des Achats chez Kumulus Vape | Expert en gestion de portefeuilles d'achats stratégiques"}, {'profile_url': 'https://www.linkedin.com/in/amaurydupouey?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIKhb8BHJT4A7P2JPhWU1l53BxNGRx13us', 'person_name': 'Amaury Dupouey', 'profile_description': 'ballad.club, le coworking augmenté #futurofcowork'}, {'profile_url': 'https://www.linkedin.com/in/anabelle-stanislas?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABqDVOcBOVwbWTYaAvdp92xbb5vnXT4TL94', 'person_name': 'Anabelle Stanislas', 'profile_description': 'Commerciale KMLS Pro'}, {'profile_url': 'https://www.linkedin.com/in/laura-lattaud-21a473293?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEcU7HYBZvvHa-InX9UcTKOPWgDjn06zQAw', 'person_name': 'Laura Lattaud', 'profile_description': 'Étudiante en Master Achats à l’INSEEC MSc Lyon en alternance'}, {'profile_url': 'https://www.linkedin.com/in/baertremi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJvy6IBioWiGCVRS89Of34-LAQWpda4LuU', 'person_name': 'Rémi BAERT', 'profile_description': 'Founder &amp; CEO at Kumulus Vape | Self-made entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/charlotte-wolff-1a89b5153?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACT9OdABRvxmSnCpp06wk1jpvOgglFsF9FY', 'person_name': 'Charlotte Wolff', 'profile_description': 'Directrice commerciale Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/alice-bougarel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhzDVoB7oGqOp8u76DVUs_wEEIm6WpJu54', 'person_name': 'Alice Bougarel', 'profile_description': 'Étudiante en Design Graphique et Direction Artistique à Sup de Pub Graphiste Print et Web en alternance chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/lionel-hugues-6bb50b14a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQG6i8BPAI4VpLdm4Jf7GanKoRUidvQTLA', 'person_name': 'Lionel HUGUES', 'profile_description': 'D.E.O. Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/loris-cite-7b4b0515a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZASjgBLHGly1PWLeiBNGUnoQBVCbsrWgY', 'person_name': 'Loris CITE', 'profile_description': 'Responsable commercial chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/axel-gerome-77b041211?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADWTnw8BsoLTAL6XLAN3RGiUr9ltYM5a1HA', 'person_name': 'Axel Gerome', 'profile_description': 'Responsable des achats chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-vincent-398299130?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACAT7-QBH_QbRcTK8anvAxrIcuJZPGc9wfs', 'person_name': 'alexandre vincent', 'profile_description': 'Responsable produits chez KumulusVape.fr'}, {'profile_url': 'https://www.linkedin.com/in/marc-antoine-allard-a624881a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAP8U-oBFcULbiKBvDV_yYiHmEnZloykfuM', 'person_name': 'Marc-antoine Allard', 'profile_description': 'Directeur de la création chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/gissell-picard-6502a4146?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACNIQJwBX179c7ZZjBcByNdT_qVq94W5ZAI', 'person_name': 'GISSELL Picard', 'profile_description': 'Gestion des Entreprises'}, {'profile_url': 'https://www.linkedin.com/in/astrid-menut-27b08538?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfXaz8BhwE3_6v77nnGs3R_mte2ZeGD-Yw', 'person_name': 'Astrid Menut', 'profile_description': 'Directrice Administrative et RH / Responsable financière, KUMULUS VAPE S.A., 69960'}, {'profile_url': 'https://www.linkedin.com/in/gianni-bartolesi-6a42331b0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADEn4xwB42pqjzKkYz0wm_KrKzmGmkNFwNs', 'person_name': 'Gianni Bartolesi', 'profile_description': 'Key Account Manager chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/adrien-bernard-guerin-65458420a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUfQqABvQ4WkzpBPn83T7BniSqfhKRGB7A', 'person_name': 'Adrien BERNARD-GUERIN', 'profile_description': 'Responsable commerciale chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/morgan-mouton-benoit-8084a8193?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC11BIgBk3qLTjqwnXHqTbEeZMSwxOUtCgM', 'person_name': 'Morgan MOUTON-BENOIT', 'profile_description': 'Chargé de réception'}, {'profile_url': 'https://www.linkedin.com/in/borispaulme?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9krRABFuRsC4jW4b8uMjwmkXkWQrUm6TM', 'person_name': 'Boris PAULME', 'profile_description': 'Directeur Services Clients / Logistiques / Transporteurs'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-vo-40a768b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABk1AkoBUbBEZkJOqevFlEVK8gxEMkzm2do', 'person_name': 'Guillaume Guillaume', 'profile_description': 'Graphiste indépendant'}, {'profile_url': 'https://www.linkedin.com/in/thomas-simonin-5a59811a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADAyng0B5KVKlUFlFbpkEg684kZHHtg-eVA', 'person_name': 'Thomas Simonin', 'profile_description': 'Employé chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/fanny-crozet?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1VscABTmKaBfRqXpPv4VsDMosKl4CSFIg', 'person_name': 'Fanny Crozet', 'profile_description': 'Responsable Éditorial Web'}, {'profile_url': 'https://www.linkedin.com/in/jessica-carlesimo-43aa17258?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD-Cuq4BRcL2aynSsXXQtABtUMTLQ8TK3rg', 'person_name': 'Jessica Carlesimo', 'profile_description': 'Responsable commercial chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/maxence-d-147917b4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABhXLQcBsSU2PmpxL6pTup-1qEi0nypls6s', 'person_name': 'Maxence D.', 'profile_description': 'Responsable marketing chez Kumulus Vape'}, {'profile_url': 'https://www.linkedin.com/in/vincent-baudoin-2059189?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAG8xCUBa1m1SmPmE-Jfh3hjW7Xpd1AeF_U', 'person_name': 'Vincent Baudoin', 'profile_description': 'Associé, Directeur de la communication'}, {'profile_url': 'https://www.linkedin.com/in/axelle-gulikers-de-rore-0611984a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAApZe0kBqQ624n1NgwpRyLYoZXB9xArU0P4', 'person_name': 'Axelle Gulikers-De Rore', 'profile_description': 'Verkoop en educatie bij SALLY Dansgezelschap Maastricht'}, {'profile_url': 'https://www.linkedin.com/in/plagne-iris-b920742b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEumaJ4BZBno5AayAmVZGdR8Ey5J3PnRnY8', 'person_name': 'Plagne Iris', 'profile_description': 'Responsable du service client chez Kumulus Vape'}]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>74,09 %</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>427,66 %</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>55.676.665 €</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>10.551.671 €</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>26</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>69</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>eCommerce</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/baertremi?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJvy6IBioWiGCVRS89Of34-LAQWpda4LuU</t>
+      <c r="A77" t="n">
+        <v>53</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extracadabra </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.extracadabra.com/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>['contact@extracadabra.com']</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>["82, rue d'Hauteville, 75010 Paris"]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/extracadabra</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/thomaslandais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAISthgBR9MY12uFf21_IDgkYAH-GdxncWg', 'person_name': 'Thomas Landais', 'profile_description': 'Entrepreneur - Business Angel'}</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Entrepreneur - Business Angel</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/thomaslandais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAISthgBR9MY12uFf21_IDgkYAH-GdxncWg</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/romain-minchella-7b939412?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMPH0BhAYNrNHkS6oQwOvYFuVvvG3OIuQ', 'person_name': 'Romain Minchella', 'profile_description': 'CTO @ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/edouard-lau-49a316125?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB7WMDYBcLNmuXYhdM4bJp7xFPbGJDrVNXk', 'person_name': 'Edouard Lau', 'profile_description': 'Directeur commercial - Nous vous permettons de trouver du personnel qualifié en un temps record'}, {'profile_url': 'https://www.linkedin.com/in/doriane-sarron-ab780495?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ7ESsBxisWZSJEfqhH86IiZ-62ARv8akQ', 'person_name': 'Doriane Sarron', 'profile_description': 'Product Owner/ Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/benoit-ricart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_FQCkBoiaYFa3zjy7pmpRh7PQ24koX8ow', 'person_name': 'Benoît Ricart', 'profile_description': 'Data Analyst'}, {'profile_url': 'https://www.linkedin.com/in/fredericnardon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEe56wB6eD2569mB6Mk-JJd6iA06TJmHyc', 'person_name': 'Frederic Nardon', 'profile_description': "CEO Extracadabra - La Plateforme pour recruter des CDI et des Extras sur l'Hôtellerie-Restauration et le Retail"}, {'profile_url': 'https://www.linkedin.com/in/charlotte-poiron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl8K_MBvgaS7cILgb-nVqlTy26nlQoOm_M', 'person_name': 'Charlotte Poiron', 'profile_description': 'Customer Success Manager Grands Comptes'}, {'profile_url': 'https://www.linkedin.com/in/emilie-cauly-0bb45360?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzhWc8Bnx7oTsAqJUGt7PMo2UvkHxwIZo0', 'person_name': 'Emilie Cauly', 'profile_description': 'Responsable des opérations chez Extracadabra 🎉'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%A9miemallevays?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOEyT4BPIWylSxKqoyOljjmMUjjPZvPPtc', 'person_name': 'Noémie MALLEVAYS', 'profile_description': 'Responsable Gestion Client at ✨Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/claudia-toma-6a57842b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAZX6t0BEdV9WuvH_AXjiex1tXab6MWKxh8', 'person_name': 'Claudia TOMA', 'profile_description': 'Responsable Ressources Humaines chez Extracadabra | Diplômée en Ressources Humaines'}, {'profile_url': 'https://www.linkedin.com/in/nantenaina-rahoiljaon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUEKpcBbkVyhQzq5EPABz9HH3lGY0mS4TI', 'person_name': 'Nantenaina Rahoiljaon', 'profile_description': 'Alternant Sales chez Extracadabra dans le cadre du MSc Business Development &amp; Clients Grands Comptes de Neoma Business School'}, {'profile_url': 'https://www.linkedin.com/in/remiboisson?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGMUUIBiVlMef4M1Cf9YVrztkyVoqiAHfg', 'person_name': 'Rémi Boisson', 'profile_description': 'Co-fondateur @ Extracadabra ✨ Trouvez et gérez vos candidats idéaux en un instant en restauration, event, retail et logistique !'}, {'profile_url': 'https://www.linkedin.com/in/louis-raverdy-191104197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4cl_0BbULwPaFDtpcAHoV2GEPqe1AHthE', 'person_name': 'Louis Raverdy', 'profile_description': 'Data Engineer'}, {'profile_url': 'https://www.linkedin.com/in/mahaut-de-bouillane-932279193?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC1sgPYBRHbTJwzyGVjeZiwIQAM3scUO0VE', 'person_name': 'Mahaut De Bouillane', 'profile_description': 'Responsable Commerciale Restauration - Extracadabra ✨'}, {'profile_url': 'https://www.linkedin.com/in/chamia-nizaraly?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABc8hDMBnL3QQdp1B4LjmVc6o4pmpzsLDtI', 'person_name': 'Chamia N.', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lemarchand-a49a169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHAh1kB-U8FDwxpi--pwVEHo1TTFrQfhDc', 'person_name': 'Maxime LEMARCHAND', 'profile_description': 'Partner @Redstart @50 Partners, Entrepreneur, Advisor &amp; Business Angel / Co founder SURPRIZEMI (WEBEDIA GROUP)'}, {'profile_url': 'https://www.linkedin.com/in/renato-martins-04786714a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQUFXcBmXbBVSlhJSPH7BPDd7SAe9vPHXE', 'person_name': 'Renato Martins', 'profile_description': 'Customer Success Manager chez Extracadabra | Gestion de comptes et partenariats dans le secteur de la FoodTech 🚀🍔'}, {'profile_url': 'https://www.linkedin.com/in/matthieu-mandoula-9669a773?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-hep4BqHxOHNyT6h6tNzFf_xJwzICTCIk', 'person_name': 'Matthieu Mandoula', 'profile_description': 'Web Developer'}, {'profile_url': 'https://www.linkedin.com/in/julien-radic-5b3a0827?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWqoVcBSHlKCi1BVYXTqPCnC1LPaugVZO4', 'person_name': 'Julien Radic', 'profile_description': 'Entrepreneur, Advisor &amp; Business Angel / Co-founder Surprizemi (Webedia Group)'}, {'profile_url': 'https://www.linkedin.com/in/adelnazmy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACXOKmAB6_XmXVwZq0dlSxr5-J4voymd52Y', 'person_name': 'Adel Nazmy', 'profile_description': 'Chef de Projet | Business Analyst'}, {'profile_url': 'https://www.linkedin.com/in/flavien-tiberghien?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABhX9MBRJ-F47DObtpNXErCwtL9OVmhb7A', 'person_name': 'Flavien Tiberghien', 'profile_description': 'Private Equity - Hospitality - Tourisme'}, {'profile_url': 'https://www.linkedin.com/in/estelle-messant-24766a205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQ-wtcB1E0tKacJVSYr3eCGgXbJN-kuK5E', 'person_name': 'Estelle Messant', 'profile_description': 'Étudiante à l’Ecole de Communication et Marketing Digital'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9a-devillers-959428259?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD-Z3VUBZ55CKDFKKwYgASHm8KuNIOrAvuQ', 'person_name': 'Léa Devillers', 'profile_description': 'Étudiant(e) à Vatel France'}, {'profile_url': 'https://www.linkedin.com/in/sebahat-suna-24973a297?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEfVe9kBdtUVChtaEQAh_z_xPXudd4uSpDo', 'person_name': 'Sebahat Suna', 'profile_description': 'Master PGE - Management • Apprentie Chargée de projet'}, {'profile_url': 'https://www.linkedin.com/in/liah-m-5835a0272?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEKmiTMB7-qySX_CCBQI0cawUf7CoxhcrmI', 'person_name': 'Liah M.', 'profile_description': 'Prestataire Restauration / Facturation / Administratif'}, {'profile_url': 'https://www.linkedin.com/in/yoann-zarifian-048777178?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACodungBiTzuURPJcBPDnBBeX7QNimTt8Ug', 'person_name': 'YOANN ZARIFIAN', 'profile_description': 'Commercial Grands Comptes Hôtellerie-Restauration chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/kdamoudokpo?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj18dwBSXsD-KflsxOKgquvcr9nrSgZ7ac', 'person_name': 'Kokou Daniel Amoudokpo', 'profile_description': 'Full-stack Developer Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/maxence-macia-247a35172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkWbhcBYX38izyQm6wtk1Ynu1fF2blyMAI', 'person_name': 'Maxence Macia', 'profile_description': 'Commercial grands comptes Retail chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/jordane-jimenez-52ab37b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABgESTIBzPl3WU22j8W-E_53gg1XFAyWRks', 'person_name': 'Jordane Jimenez', 'profile_description': 'Responsable commercial restauration indépendante, Responsable Partenariats'}, {'profile_url': 'https://www.linkedin.com/in/thibautangevin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJbRQsBORathfgqohqRJkReIsffRR1VueU', 'person_name': 'Thibaut ANGEVIN', 'profile_description': 'Entrepreneur &amp; Enthusiastic VC/PE investor in Tech &amp; Impact startups, Real estate and Hospitality ex Founding Partner Quanteam 🙏 Notifications are turned off so please don’t get offensed if I don’t reply'}, {'profile_url': 'https://www.linkedin.com/in/fariza-h-13834b21a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADc5UvwBbKotF4nX3tKjMI7KX_xMyieTITk', 'person_name': 'fariza H.', 'profile_description': 'Talent acquisition'}, {'profile_url': 'https://www.linkedin.com/in/dhikra-lahouel-456691229?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADk7OkIBW1S0jWEOsH1nPziXWOPcS9gEsa0', 'person_name': 'Dhikra LAHOUEL', 'profile_description': 'Customer Care Specialist'}, {'profile_url': 'https://www.linkedin.com/in/thomaslandais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAISthgBR9MY12uFf21_IDgkYAH-GdxncWg', 'person_name': 'Thomas Landais', 'profile_description': 'Entrepreneur - Business Angel'}, {'profile_url': 'https://www.linkedin.com/in/sara-boujenane-25a615207?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADSYLCYBUnwFdzHXEgMjm6fE2vK3vyt6UyI', 'person_name': 'Sara Boujenane', 'profile_description': 'Assistante Marketing Produit'}, {'profile_url': 'https://www.linkedin.com/in/beryl-dabezies-6774a6152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACS8ZjsBetdj2bhK_Un5XQDZbKV7kOGgnAA', 'person_name': 'Beryl Dabezies', 'profile_description': 'Consultante en recrutement - Hôtellerie'}, {'profile_url': 'https://www.linkedin.com/in/andrea-storti-617236132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBtFvMBDRPi_1_PXh8S_nxXNVnfkVlksCc', 'person_name': 'Andrea Storti', 'profile_description': 'Pizzaiolo Freelance'}, {'profile_url': 'https://www.linkedin.com/in/selim-bakir-10231870?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA7_K5IBZwKL0lKtAFYTn-mHpGeMAuZseqA', 'person_name': 'Selim Bakir', 'profile_description': 'Growth engineer - Dev Front-End'}, {'profile_url': 'https://www.linkedin.com/in/tognon-guidi-794646109?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABtTSOABvtq6tNcw0eewiywRgsKBcXgzFT8', 'person_name': 'Tognon Guidi', 'profile_description': 'Engineering manager'}, {'profile_url': 'https://www.linkedin.com/in/hugues-aldebert-4a481b14b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRALfwB3y1HFggHVMTDlpTkI3_Kz24Hj08', 'person_name': 'Hugues Aldebert', 'profile_description': 'Account Manager Retail chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/marie-cavalier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB3PDacBz12I-e6i3t61_sdqikF4P3y5SNk', 'person_name': 'Marie CAVALIER', 'profile_description': 'Talent Acquisition &amp; Partnership Manager'}, {'profile_url': 'https://www.linkedin.com/in/elissa-semaan-924b92169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACg4P6wBLdsCgZUqsIYAUvmYBz51i8e5th8', 'person_name': 'Elissa Semaan', 'profile_description': 'Team Leader - Pôle Intérim at Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/eva-raphanel-08811b151?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSAt6gBbAwYX6wJSqhC7Laj4EIFwPU3Ziw', 'person_name': 'Eva Raphanel', 'profile_description': 'Account Manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/noari-rakotomanga-63505a1b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJgDAkBV80TpwFCv7X0lfgmpMsFoNoOcyo', 'person_name': 'Noari RAKOTOMANGA', 'profile_description': 'Chargée des ressources humaines'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-des-valli%C3%A8res-b634b2108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsgPvsBTRC-T13GN289MNNz3C8KXrC4UTo', 'person_name': 'Chloé des Vallières', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/orah-ben-tolila-993a942a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEjGcX8BoNOxccGUJRrHszM2MRUq9WZazwI', 'person_name': 'Orah BEN TOLILA', 'profile_description': 'Étudiante PGE EM Normandie'}, {'profile_url': 'https://www.linkedin.com/in/opaline-de-lafaye?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACc76v8BhiuU5azG_mwUumMiMcRU39I91Lk', 'person_name': 'Opaline de Lafaye', 'profile_description': 'Commerciale Grands Comptes Hôtellerie-Restauration chez Extracadabra ✨'}, {'profile_url': 'https://www.linkedin.com/in/apollinecazes99?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACg0xfEB_gpWV7kXpynjwC4jTZRuqu9i7PI', 'person_name': 'Apolline Cazes', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/cheikh-ibra-ndiaye-6b5b141b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADItQ-kBSP5t0Mp7zriEeckjPDXEkNzr2RI', 'person_name': 'Cheikh Ibra Ndiaye', 'profile_description': 'Étudiant en master de Droit Fiscal à l’université Aix-Marseille'}, {'profile_url': 'https://www.linkedin.com/in/florent-schmitt-314b69b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABlEOIABRybFfqJmfFswLOApw5vMhH0tsKQ', 'person_name': 'Florent Schmitt', 'profile_description': 'Développeur front-end'}, {'profile_url': 'https://www.linkedin.com/in/olivierclemencon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACOZR4BajMqzDNN5k-ghyuHmkovGAFlIwg', 'person_name': 'Olivier Clemençon 🐬', 'profile_description': "Gestalt Thérapeute (phase finale de certification), Coach systémique RNCP et Consultant en Dynamiques Relationnelles. Aiguilleur du changement, je vous aide à habiter votre corps et transformer l'expérience en conscience"}, {'profile_url': 'https://www.linkedin.com/in/georgesviglietti?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIOHt4BfGo5ogmsa6uDWx9FucYFVRNQ7lc', 'person_name': 'Georges Viglietti', 'profile_description': 'Co-fondateur | Président de Sowefund'}, {'profile_url': 'https://www.linkedin.com/in/abderrahmane-touatou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC8s6PMBjPAvxBc4eFSb0qpT7HYZblU73b8', 'person_name': 'Abderrahmane Touatou', 'profile_description': "Ingénieur d'application en informatique"}, {'profile_url': 'https://www.linkedin.com/in/clara-peauger-a702a6113?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxXYHQB9NTOfwRD0UDaFu8LBJjUANeiVZg', 'person_name': 'Clara Peauger', 'profile_description': 'A la recherche des meilleurs extras pour les secteurs de la restauration, vente et de la logistique ✨ Community and partnership manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/teddy-loison-690944202?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPArswBeA9u5N72BhlPFKXJ1CXuB3jm0cw', 'person_name': 'Teddy Loison', 'profile_description': "Account Manager grands comptes chez Extracadabra : Mise a disposition de personnel qualifié dans le domaine de l'hôtellerie &amp; restauration"}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-lucas-960368104?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpkxVgB9GIad-HJ4NAUtBGOrEgTPcrFMMk', 'person_name': 'Clément Lucas', 'profile_description': 'Partner - CFO services for startups chez Lisan Finance'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-pron-96862535?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAdjoSABO4QdK8BgQysItNMFJANFlNInE3Q', 'person_name': 'Guillaume Pron', 'profile_description': 'Co-Founder chez Athena Capital Partners'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-haillot-69b643203?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPi1BcBXoycMX_TpvrVwJqi1kZEIvxqS1I', 'person_name': 'Mathilde Haillot', 'profile_description': 'Étudiante Master 1 Marketing Digital et Responsable à l’université Paris cité'}, {'profile_url': 'https://www.linkedin.com/in/arnaud-cerdan-129a5a22a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl28TEBjUgiqnLxtpB0TqWPEKnvyyhFpG8', 'person_name': 'Arnaud Cerdan', 'profile_description': "Étudiant en Master 2 ECOSIM ( E-Formation, communication, système d'information et médias) à la Sorbonne Nouvelle"}, {'profile_url': 'https://www.linkedin.com/in/valentin-harault-210633142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKe8GwBdeQrmZ6fd1ZL06ljT3bxZflPiBg', 'person_name': 'Valentin Harault', 'profile_description': 'Lead Dev Backend chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/karine-ranjatoarisoa-7146a2226?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADiy44AB-eEPrKajsdOaUF-SfmFA7qn0EGA', 'person_name': 'Karine RANJATOARISOA', 'profile_description': 'Assistante comptable et client recouvrement'}, {'profile_url': 'https://www.linkedin.com/in/thibault-frinault-26a64912b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_z-jIBHMWjvhFcXduAfmYkeftOyyL_tao', 'person_name': 'Thibault Frinault', 'profile_description': 'Responsable administratif et financier'}, {'profile_url': 'https://www.linkedin.com/in/mikeako?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClW8VYBYPYCtsxdNfy073uHJxpjM3TU4lk', 'person_name': 'Mike Ako', 'profile_description': 'Traffic &amp; Data Marketing Manager at Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/eva-cahanin-aaa617241?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwR3mIBytVPsRj2Eb-gUe5l1pVAZDMKjKQ', 'person_name': 'Eva Cahanin', 'profile_description': "Étudiante à Sciences Po Paris en échange avec l'Université de Montréal"}, {'profile_url': 'https://www.linkedin.com/in/camellia-shella-ahovissi-djakpo-985486268?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEGQ5fUBNg_nV9blaowi2VHY-bWpah41JFc', 'person_name': 'Camellia shella Ahovissi djakpo', 'profile_description': '--cheffe de rang'}, {'profile_url': 'https://www.linkedin.com/in/emilien-wisniak-a93453224?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhOn08Bi1K_svcsNhbreF6PlEb9eLJypB4', 'person_name': 'Emilien Wisniak', 'profile_description': 'sous chef et chef de partie en freelance'}, {'profile_url': 'https://www.linkedin.com/in/khalil-zerarga1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB16-8sB4lXWbylxJb7tnOg-8Y22QJZ8Wro', 'person_name': 'Khalil ZERARGA', 'profile_description': 'Customer relations officer | Administrative Assistant | Speaker | Trainer'}, {'profile_url': 'https://www.linkedin.com/in/benjaminattal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABEqEMBiv8IlY1gUXZQz11ECsfos981WSo', 'person_name': 'Benjamin Attal', 'profile_description': 'Co - Founder @ Franks®'}, {'profile_url': 'https://www.linkedin.com/in/victoriathornback-29b303135?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACD4idcBoczEkvH7V1sOPbM53ae2sPXf6V4', 'person_name': 'Victoria Thornback', 'profile_description': 'Responsable du suivi des clients Retail, Restauration Collective &amp; Traiteurs / Évènementiel chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-crosby-94313b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADo3oMBbVzxyL1usEKaNN1xUw7VrgE3IM8', 'person_name': 'Alexandre Crosby', 'profile_description': 'Entrepreneur (ubeeqo exit to Europcar) - Investor - Part time COO/CPO - Internal app builder with no code tools (Airtable, Make,..)'}, {'profile_url': 'https://www.linkedin.com/in/aurelie-notarianni?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGF63ABpqM-BV8vdSFMfZISdbsu4-M3rh8', 'person_name': 'Aurélie Notarianni', 'profile_description': 'Growth Marketing Manager @ Extracadabra | Co-fondatrice @ Kedelaï 🌱Entrepreneurship, Marketing'}, {'profile_url': 'https://www.linkedin.com/in/andrea-chevalier-864b8522a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl7kowBDz71Jz_q_N4gzgW_loFl2A_eiBA', 'person_name': 'Andrea Chevalier', 'profile_description': 'Étudiant(e) à IPAG Business School'}, {'profile_url': 'https://www.linkedin.com/in/myriam-nechi-488074252?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD5NNKgB-LqewBi6h2UMj5kSRcquzp3Y5uA', 'person_name': 'Myriam Nechi', 'profile_description': "Étudiant(e) à L'inseec Bachelor"}, {'profile_url': 'https://www.linkedin.com/in/mathilde-petit-2b1266205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQveCUBB5KxOC7wsxq5Hfxn7Uyl5Hw8_8c', 'person_name': 'Mathilde Petit', 'profile_description': 'Titulaire d’une licence STAPS en Management du sport'}, {'profile_url': 'https://www.linkedin.com/in/in%C3%A8s-bennaj-7b9a73223?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADg4d70B0MdiL2zODAhQNOeFtWO9EX4KyeU', 'person_name': 'Inès Bennaj', 'profile_description': 'Étudiante à INSEEC'}, {'profile_url': 'https://www.linkedin.com/in/louis-delpierre-607117182?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACsWb6cBs9FkRu-SDAOlLrO8TQH3s7N7YA0', 'person_name': 'Louis Delpierre', 'profile_description': 'Étudiant à Université Paris-Est Marne-la-Vallée'}, {'profile_url': 'https://www.linkedin.com/in/paul-vancutsen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADA83C8BBvXjKzVsVfz3ikASwBgJru8CyTI', 'person_name': 'Paul Vancutsen', 'profile_description': 'Etudiant ISG Paris'}, {'profile_url': 'https://www.linkedin.com/in/andrea-tomasi-490b14133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACC8IqwB7NVpqGgbV4CnAzCsBE59c6nNrh8', 'person_name': 'Andrea Tomasi', 'profile_description': 'Assistant Chef de Projet eCrm chez Air France'}, {'profile_url': 'https://www.linkedin.com/in/fred-garreau-635715270?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEJQSkkBSgThh9rDml78uZlmewU1CiDAY7o', 'person_name': 'Fred GARREAU', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/ahmed-md-rayhan-86a175225?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhxeZIB89FbUOZUqLYxkoM_02X8y25ujIc', 'person_name': 'Ahmed Md rayhan', 'profile_description': 'Chef de partie, YAKUZA katsu sando &amp; coffee.'}, {'profile_url': 'https://www.linkedin.com/in/omar-di-prima-89454bba?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABlabzABuM26uYVE1W6NYAqzLkLieXLqfdI', 'person_name': 'Omar Di Prima', 'profile_description': 'Cuisinier - Entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/davidvieira1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABAAjHEBWulu0v0N8dekRhgoyxKkUdHBehQ', 'person_name': 'David Vieira', 'profile_description': 'Investisseur | Auteur'}, {'profile_url': 'https://www.linkedin.com/in/laurent-mehl-9b72281bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMc5ZsB-Z2WRwlogw91ONa-RiWuA_pIuNg', 'person_name': 'Laurent Mehl', 'profile_description': 'Account manager I Pôle restauration collective Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/hadj-amar-tadjer-139390202?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOrXb0BUyZ0JPoGlfpvessSFw1hCVkrro4', 'person_name': 'Hadj Amar TADJER', 'profile_description': 'Auto-entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/maya-hadj-arab-13210893?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACynxGIBHZN3QQcyHZnM5HhbCmNNH3Ub8qk', 'person_name': 'Maya Hadj Arab', 'profile_description': 'Chargée de suivi clients - CHR chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/cindy-mercier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACF8HD0B1fuw7DQQqAU-XiD-Cil8cZVWygg', 'person_name': 'Cindy Mercier', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/aude-voisine-2b9b44113?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABx3lK0BWVOc8J8je73UA7ebbAEBBYnfvHs', 'person_name': 'Aude Voisine', 'profile_description': 'Cuisinière'}, {'profile_url': 'https://www.linkedin.com/in/sid-ahmed-h?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDUTKoBBbPP0dp5iZ8UDDeIv7MbJVRSjwM', 'person_name': 'Sid Ahmed H.', 'profile_description': 'Scrum master certifié PSM II'}, {'profile_url': 'https://www.linkedin.com/in/yanis-sahrane-038b43a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYPTGwBdI9VDAS5CJILzPGFt-o-k6ECqLI', 'person_name': 'Yanis Sahrane', 'profile_description': 'barman'}, {'profile_url': 'https://www.linkedin.com/in/bikas-kumar-sarker-96988966?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA4DCiEBLrIXoo7c1nRx7ZvT3q1hte015OM', 'person_name': 'Bikas Kumar Sarker', 'profile_description': 'Pizaaiolo and cousiner'}, {'profile_url': 'https://www.linkedin.com/in/akram-chowdhury-67b987218?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADb2Jv8BjbwxiINRDJyNsvw18Doi7u-RKjs', 'person_name': 'Akram CHOWDHURY', 'profile_description': 'Étudiant en B.U.T TC (Business international)'}, {'profile_url': 'https://www.linkedin.com/in/florent-van-liebergen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABlJqPAB_C5esBEgzY9ROl_pC0WeBWOCNuI', 'person_name': 'Florent Van Liebergen', 'profile_description': 'Responsable des Pôles Restauration Collective et Traiteur Évènementiel chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/caroline-thyss-a43147152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSvJRMBk65v7lHtsWfI2yjXXOrC2PN90sE', 'person_name': 'Caroline Thyss', 'profile_description': 'Customer Success Manager Restauration | Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/theo-seznec-257ba1230?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADnXNiMBxsWQkQcm9-Pko3htNczDm-vI20E', 'person_name': 'Theo Seznec', 'profile_description': 'Barman Indépendant'}, {'profile_url': 'https://www.linkedin.com/in/sandrae?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1TIbQBq9I9U_mfrnlA4N4FZEOgwZNRmLY', 'person_name': 'Sandra Etine', 'profile_description': 'Account Executive chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/stephaneladevez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzqLowB6zMFxjOStOD8wEmKoj7GcFQbkHs', 'person_name': 'Stephane Ladevez', 'profile_description': 'Chef-cuisinier chez le parisii'}, {'profile_url': 'https://www.linkedin.com/in/mehdi-kannouni?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoBt4UBZKdwRtqb_bg3laHFCGfOaD7zSng', 'person_name': 'Mehdi Kannouni', 'profile_description': 'Développeur back-end Symfony/Laravel'}, {'profile_url': 'https://www.linkedin.com/in/%E2%9C%A8-in%C3%A8s-mira-12ab22217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADbOJDIBHDmY4ZSWNnM9DpmrAYFXIF9ETD8', 'person_name': '✨ Inès Mira', 'profile_description': 'Product Owner | Product Designer'}, {'profile_url': 'https://www.linkedin.com/in/alexis-guerin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHv4iMBd47_nddJVsVpcHSmIty7B18yzqQ', 'person_name': 'Alexis Guérin', 'profile_description': 'Devops et IT Manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/kaymreen-charransol-b26914184?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuP3k4Bj7ffH2egvyXKM__JRLFSkpMkAOA', 'person_name': 'Kaymreen Charransol', 'profile_description': 'Hostess and Artist'}, {'profile_url': 'https://www.linkedin.com/in/karim-bani-290737145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMrh8wBcLfF0ZpXq4cXbZdfSBkKOSfcNXM', 'person_name': 'Karim Bani', 'profile_description': 'Serveur maitre d’hotel chez Les filles du traiteur'}, {'profile_url': 'https://www.linkedin.com/in/manon-curfs-13933a1b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADIPqz0BMcaCVvo55Iw43CFIQuTTPWwGD_o', 'person_name': 'Manon CURFS', 'profile_description': 'En reconversion'}, {'profile_url': 'https://www.linkedin.com/in/paullaffont?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACtVl3UBAik3zhhkz0maHbR4BEsNhTnE-EQ', 'person_name': 'Paul Laffont', 'profile_description': 'Étudiant Master 1 Management Grande École'}, {'profile_url': 'https://www.linkedin.com/in/simon-oubry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOpmYgBlyOtf1-uai4GYOh3RGDScK7WRVI', 'person_name': 'Simon OUBRY', 'profile_description': 'Extracadabra - ISM IAE'}, {'profile_url': 'https://www.linkedin.com/in/momar-djibril-ndongo-950509213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYArgwBT0nvmrPIO-uO4nouf98I594tnXM', 'person_name': 'Momar Djibril Ndongo', 'profile_description': "E-commerce, Marketing digital, Analyst | + d'15 entreprises accompagnées | Le succès de votre site web grâce à des stratégies personnalisées et percutantes"}, {'profile_url': 'https://www.linkedin.com/in/pauline-chatellard-ba0b68194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC275qgBaCDHEZxvbrPbrVY6LUPIRHPIOf8', 'person_name': 'Pauline Chatellard', 'profile_description': 'Droit de la propriété intellectuelle - préparation de l’examen d’entrée au CRFPA 2024'}, {'profile_url': 'https://www.linkedin.com/in/raphael-schwarcz-25202rlb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACpfs6AB1C1oIY83B_vbJVCcx3nTghFF7Xg', 'person_name': 'Raphael Schwarcz', 'profile_description': 'Student at IESEG School of Management in Operations and Supply Chain'}, {'profile_url': 'https://www.linkedin.com/in/lilibelle-dreuilhe-95a793236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADrZJpYB2lAmc8U4N64YX3jRhnx8ZUe9g1o', 'person_name': 'Lilibelle Dreuilhe', 'profile_description': 'Étudiante à l’INSEEC en M1 programme grande école'}, {'profile_url': 'https://www.linkedin.com/in/sauvane-martinez-32b8b4a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZhR9MBTt99TJcFgxZmqa8MwHAGTCigyjA', 'person_name': 'Sauvane MARTINEZ', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/clement-reboul?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHMoX0BKLlIP0fJig8LgN_RmpbQ4kY4Vq8', 'person_name': 'Clement Reboul', 'profile_description': 'Développeur front'}, {'profile_url': 'https://www.linkedin.com/in/f%C3%A9lix-le-tanneur-648815171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjgplgB7shL9nR3w5O5Ceqj5UOTF6fXghs', 'person_name': 'Félix Le Tanneur', 'profile_description': 'Commercial Grands Comptes Hôtellerie-Restauration chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/pierre-antoine-saunier-620b7311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJ8YrgBa_hRZd1P7KquZzmVa6Lhl3SE0LE', 'person_name': 'Pierre-Antoine Saunier', 'profile_description': 'Président chez Athena Capital Partners'}, {'profile_url': 'https://www.linkedin.com/in/marcosalvescardoso?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGCXoQB5ovuv4lOSZzpWVTf7zXQMALTXz4', 'person_name': 'Marcos Alves Cardoso', 'profile_description': 'Partner &amp; Chief Growth Officer LUDA Partners'}, {'profile_url': 'https://www.linkedin.com/in/thibault-clusel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABLd148BYcuCvSa9XZZBfURDX0JgNOtcEd8', 'person_name': '💻Thibault Clusel', 'profile_description': 'Développeur front-end chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/salmahadid?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEoEQpcBEYdajQa6TfHvJ3Afmz83M83mpb8', 'person_name': 'Salma H.', 'profile_description': 'Étudiante en Bachelor Marketing et Communication (PEM) à la recherche d’une ALTERNANCE 2024/2025'}, {'profile_url': 'https://www.linkedin.com/in/jessy-vautour?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB0rN7IBx2wfi4JSWXdUtyslQJPpmF1zJks', 'person_name': 'Jessy V.', 'profile_description': 'Développeur front-end'}, {'profile_url': 'https://www.linkedin.com/in/enzo-chupin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEBCFWkBFkLcmX69cBMq3Q5mvYiJBcqO2kc', 'person_name': 'Enzo Chupin', 'profile_description': 'Social media manager chez Extracadabra | Freelance WordPress - Elementor'}, {'profile_url': 'https://www.linkedin.com/in/briac-kubica?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS5E04BE5BMjRLUdyyGyoTEHOb8-GOs7Zs', 'person_name': 'Briac Kubica', 'profile_description': 'Responsable Administratif et Financier Adjoint'}, {'profile_url': 'https://www.linkedin.com/in/clara-retail-08b008319?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFCgBmsB4MlXifzf6H3_ci47YnYJG0h96cs', 'person_name': 'Clara Retail', 'profile_description': 'Etudiante en BTS communication | Entraineur de rugby diplomé'}, {'profile_url': 'https://www.linkedin.com/in/nad%C3%A8ge-hor-8a0454155?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVDdPgBokFit1CdQ-jhlACrW8u9QknPAZI', 'person_name': 'Nadège Hor', 'profile_description': 'Cheffe de partie'}, {'profile_url': 'https://www.linkedin.com/in/nazim-lekouara-2211562b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEwEurkBPVfmkxwtQu4gZza4-QUvTkWen1w', 'person_name': 'Nazim Lekouara', 'profile_description': 'Licence en Économie et Gestion parcours Économie, Finance, Entreprise an3 (E3EFE) .'}, {'profile_url': 'https://www.linkedin.com/in/alia-bensalem-5a0978240?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADvxnEgBjUakzxgVDr8rCYkujBwgR97wPQY', 'person_name': 'Alia Bensalem', 'profile_description': 'Customer success manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/suzanne-n-988239143?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACK9fTgBoUkQAsI4hewRz1xeYo5OFDJRZnw', 'person_name': 'Suzanne N.', 'profile_description': 'Apprentie en restauration aux Westin Paris Vendome'}, {'profile_url': 'https://www.linkedin.com/in/aicha-fadika-298a75309?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE6lYlQB601EWbL3Szi5Un9Zc0GqkBYYCok', 'person_name': 'Aicha Fadika', 'profile_description': 'Student at Ascencia Business School'}, {'profile_url': 'https://www.linkedin.com/in/myriam-cisse-27912430a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE6vKn0BbEBGguDV7_29A2jq1_qi0TP0LPk', 'person_name': 'Myriam Cisse', 'profile_description': "Étudiante à l’École de Droit et d'Intelligence Juridique"}, {'profile_url': 'https://www.linkedin.com/in/michel-hernando-herrera-7996a42b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEsH4WUB5I2waPruTWGIGa0JrmgAXlmiKaA', 'person_name': 'Michel Hernando Herrera', 'profile_description': '--'}, {</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>65,33 %</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>351,95 %</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>11.148.361 €</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2.466.750 €</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>17</v>
+      </c>
+      <c r="R77" t="n">
+        <v>15</v>
+      </c>
+      <c r="S77" t="n">
+        <v>69</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Services à l’emploi (intérim, recrutement)</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/astrid-menut-27b08538?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAfXaz8BhwE3_6v77nnGs3R_mte2ZeGD-Yw</t>
+      <c r="A78" t="n">
+        <v>53</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extracadabra </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.extracadabra.com/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>['contact@extracadabra.com']</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>["82, rue d'Hauteville, 75010 Paris"]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/extracadabra</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/remiboisson?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGMUUIBiVlMef4M1Cf9YVrztkyVoqiAHfg', 'person_name': 'Rémi Boisson', 'profile_description': 'Co-fondateur @ Extracadabra ✨ Trouvez et gérez vos candidats idéaux en un instant en restauration, event, retail et logistique !'}</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Co-fondateur @ Extracadabra ✨ Trouvez et gérez vos candidats idéaux en un instant en restauration, event, retail et logistique !</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/remiboisson?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGMUUIBiVlMef4M1Cf9YVrztkyVoqiAHfg</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/romain-minchella-7b939412?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMPH0BhAYNrNHkS6oQwOvYFuVvvG3OIuQ', 'person_name': 'Romain Minchella', 'profile_description': 'CTO @ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/edouard-lau-49a316125?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB7WMDYBcLNmuXYhdM4bJp7xFPbGJDrVNXk', 'person_name': 'Edouard Lau', 'profile_description': 'Directeur commercial - Nous vous permettons de trouver du personnel qualifié en un temps record'}, {'profile_url': 'https://www.linkedin.com/in/doriane-sarron-ab780495?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ7ESsBxisWZSJEfqhH86IiZ-62ARv8akQ', 'person_name': 'Doriane Sarron', 'profile_description': 'Product Owner/ Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/benoit-ricart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_FQCkBoiaYFa3zjy7pmpRh7PQ24koX8ow', 'person_name': 'Benoît Ricart', 'profile_description': 'Data Analyst'}, {'profile_url': 'https://www.linkedin.com/in/fredericnardon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEe56wB6eD2569mB6Mk-JJd6iA06TJmHyc', 'person_name': 'Frederic Nardon', 'profile_description': "CEO Extracadabra - La Plateforme pour recruter des CDI et des Extras sur l'Hôtellerie-Restauration et le Retail"}, {'profile_url': 'https://www.linkedin.com/in/charlotte-poiron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl8K_MBvgaS7cILgb-nVqlTy26nlQoOm_M', 'person_name': 'Charlotte Poiron', 'profile_description': 'Customer Success Manager Grands Comptes'}, {'profile_url': 'https://www.linkedin.com/in/emilie-cauly-0bb45360?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzhWc8Bnx7oTsAqJUGt7PMo2UvkHxwIZo0', 'person_name': 'Emilie Cauly', 'profile_description': 'Responsable des opérations chez Extracadabra 🎉'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%A9miemallevays?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOEyT4BPIWylSxKqoyOljjmMUjjPZvPPtc', 'person_name': 'Noémie MALLEVAYS', 'profile_description': 'Responsable Gestion Client at ✨Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/claudia-toma-6a57842b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAZX6t0BEdV9WuvH_AXjiex1tXab6MWKxh8', 'person_name': 'Claudia TOMA', 'profile_description': 'Responsable Ressources Humaines chez Extracadabra | Diplômée en Ressources Humaines'}, {'profile_url': 'https://www.linkedin.com/in/nantenaina-rahoiljaon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUEKpcBbkVyhQzq5EPABz9HH3lGY0mS4TI', 'person_name': 'Nantenaina Rahoiljaon', 'profile_description': 'Alternant Sales chez Extracadabra dans le cadre du MSc Business Development &amp; Clients Grands Comptes de Neoma Business School'}, {'profile_url': 'https://www.linkedin.com/in/remiboisson?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGMUUIBiVlMef4M1Cf9YVrztkyVoqiAHfg', 'person_name': 'Rémi Boisson', 'profile_description': 'Co-fondateur @ Extracadabra ✨ Trouvez et gérez vos candidats idéaux en un instant en restauration, event, retail et logistique !'}, {'profile_url': 'https://www.linkedin.com/in/louis-raverdy-191104197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4cl_0BbULwPaFDtpcAHoV2GEPqe1AHthE', 'person_name': 'Louis Raverdy', 'profile_description': 'Data Engineer'}, {'profile_url': 'https://www.linkedin.com/in/mahaut-de-bouillane-932279193?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC1sgPYBRHbTJwzyGVjeZiwIQAM3scUO0VE', 'person_name': 'Mahaut De Bouillane', 'profile_description': 'Responsable Commerciale Restauration - Extracadabra ✨'}, {'profile_url': 'https://www.linkedin.com/in/chamia-nizaraly?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABc8hDMBnL3QQdp1B4LjmVc6o4pmpzsLDtI', 'person_name': 'Chamia N.', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lemarchand-a49a169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHAh1kB-U8FDwxpi--pwVEHo1TTFrQfhDc', 'person_name': 'Maxime LEMARCHAND', 'profile_description': 'Partner @Redstart @50 Partners, Entrepreneur, Advisor &amp; Business Angel / Co founder SURPRIZEMI (WEBEDIA GROUP)'}, {'profile_url': 'https://www.linkedin.com/in/renato-martins-04786714a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQUFXcBmXbBVSlhJSPH7BPDd7SAe9vPHXE', 'person_name': 'Renato Martins', 'profile_description': 'Customer Success Manager chez Extracadabra | Gestion de comptes et partenariats dans le secteur de la FoodTech 🚀🍔'}, {'profile_url': 'https://www.linkedin.com/in/matthieu-mandoula-9669a773?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-hep4BqHxOHNyT6h6tNzFf_xJwzICTCIk', 'person_name': 'Matthieu Mandoula', 'profile_description': 'Web Developer'}, {'profile_url': 'https://www.linkedin.com/in/julien-radic-5b3a0827?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWqoVcBSHlKCi1BVYXTqPCnC1LPaugVZO4', 'person_name': 'Julien Radic', 'profile_description': 'Entrepreneur, Advisor &amp; Business Angel / Co-founder Surprizemi (Webedia Group)'}, {'profile_url': 'https://www.linkedin.com/in/adelnazmy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACXOKmAB6_XmXVwZq0dlSxr5-J4voymd52Y', 'person_name': 'Adel Nazmy', 'profile_description': 'Chef de Projet | Business Analyst'}, {'profile_url': 'https://www.linkedin.com/in/flavien-tiberghien?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABhX9MBRJ-F47DObtpNXErCwtL9OVmhb7A', 'person_name': 'Flavien Tiberghien', 'profile_description': 'Private Equity - Hospitality - Tourisme'}, {'profile_url': 'https://www.linkedin.com/in/estelle-messant-24766a205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQ-wtcB1E0tKacJVSYr3eCGgXbJN-kuK5E', 'person_name': 'Estelle Messant', 'profile_description': 'Étudiante à l’Ecole de Communication et Marketing Digital'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9a-devillers-959428259?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD-Z3VUBZ55CKDFKKwYgASHm8KuNIOrAvuQ', 'person_name': 'Léa Devillers', 'profile_description': 'Étudiant(e) à Vatel France'}, {'profile_url': 'https://www.linkedin.com/in/sebahat-suna-24973a297?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEfVe9kBdtUVChtaEQAh_z_xPXudd4uSpDo', 'person_name': 'Sebahat Suna', 'profile_description': 'Master PGE - Management • Apprentie Chargée de projet'}, {'profile_url': 'https://www.linkedin.com/in/liah-m-5835a0272?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEKmiTMB7-qySX_CCBQI0cawUf7CoxhcrmI', 'person_name': 'Liah M.', 'profile_description': 'Prestataire Restauration / Facturation / Administratif'}, {'profile_url': 'https://www.linkedin.com/in/yoann-zarifian-048777178?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACodungBiTzuURPJcBPDnBBeX7QNimTt8Ug', 'person_name': 'YOANN ZARIFIAN', 'profile_description': 'Commercial Grands Comptes Hôtellerie-Restauration chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/kdamoudokpo?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj18dwBSXsD-KflsxOKgquvcr9nrSgZ7ac', 'person_name': 'Kokou Daniel Amoudokpo', 'profile_description': 'Full-stack Developer Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/maxence-macia-247a35172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkWbhcBYX38izyQm6wtk1Ynu1fF2blyMAI', 'person_name': 'Maxence Macia', 'profile_description': 'Commercial grands comptes Retail chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/jordane-jimenez-52ab37b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABgESTIBzPl3WU22j8W-E_53gg1XFAyWRks', 'person_name': 'Jordane Jimenez', 'profile_description': 'Responsable commercial restauration indépendante, Responsable Partenariats'}, {'profile_url': 'https://www.linkedin.com/in/thibautangevin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJbRQsBORathfgqohqRJkReIsffRR1VueU', 'person_name': 'Thibaut ANGEVIN', 'profile_description': 'Entrepreneur &amp; Enthusiastic VC/PE investor in Tech &amp; Impact startups, Real estate and Hospitality ex Founding Partner Quanteam 🙏 Notifications are turned off so please don’t get offensed if I don’t reply'}, {'profile_url': 'https://www.linkedin.com/in/fariza-h-13834b21a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADc5UvwBbKotF4nX3tKjMI7KX_xMyieTITk', 'person_name': 'fariza H.', 'profile_description': 'Talent acquisition'}, {'profile_url': 'https://www.linkedin.com/in/dhikra-lahouel-456691229?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADk7OkIBW1S0jWEOsH1nPziXWOPcS9gEsa0', 'person_name': 'Dhikra LAHOUEL', 'profile_description': 'Customer Care Specialist'}, {'profile_url': 'https://www.linkedin.com/in/thomaslandais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAISthgBR9MY12uFf21_IDgkYAH-GdxncWg', 'person_name': 'Thomas Landais', 'profile_description': 'Entrepreneur - Business Angel'}, {'profile_url': 'https://www.linkedin.com/in/sara-boujenane-25a615207?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADSYLCYBUnwFdzHXEgMjm6fE2vK3vyt6UyI', 'person_name': 'Sara Boujenane', 'profile_description': 'Assistante Marketing Produit'}, {'profile_url': 'https://www.linkedin.com/in/beryl-dabezies-6774a6152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACS8ZjsBetdj2bhK_Un5XQDZbKV7kOGgnAA', 'person_name': 'Beryl Dabezies', 'profile_description': 'Consultante en recrutement - Hôtellerie'}, {'profile_url': 'https://www.linkedin.com/in/andrea-storti-617236132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBtFvMBDRPi_1_PXh8S_nxXNVnfkVlksCc', 'person_name': 'Andrea Storti', 'profile_description': 'Pizzaiolo Freelance'}, {'profile_url': 'https://www.linkedin.com/in/selim-bakir-10231870?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA7_K5IBZwKL0lKtAFYTn-mHpGeMAuZseqA', 'person_name': 'Selim Bakir', 'profile_description': 'Growth engineer - Dev Front-End'}, {'profile_url': 'https://www.linkedin.com/in/tognon-guidi-794646109?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABtTSOABvtq6tNcw0eewiywRgsKBcXgzFT8', 'person_name': 'Tognon Guidi', 'profile_description': 'Engineering manager'}, {'profile_url': 'https://www.linkedin.com/in/hugues-aldebert-4a481b14b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRALfwB3y1HFggHVMTDlpTkI3_Kz24Hj08', 'person_name': 'Hugues Aldebert', 'profile_description': 'Account Manager Retail chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/marie-cavalier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB3PDacBz12I-e6i3t61_sdqikF4P3y5SNk', 'person_name': 'Marie CAVALIER', 'profile_description': 'Talent Acquisition &amp; Partnership Manager'}, {'profile_url': 'https://www.linkedin.com/in/elissa-semaan-924b92169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACg4P6wBLdsCgZUqsIYAUvmYBz51i8e5th8', 'person_name': 'Elissa Semaan', 'profile_description': 'Team Leader - Pôle Intérim at Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/eva-raphanel-08811b151?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSAt6gBbAwYX6wJSqhC7Laj4EIFwPU3Ziw', 'person_name': 'Eva Raphanel', 'profile_description': 'Account Manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/noari-rakotomanga-63505a1b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJgDAkBV80TpwFCv7X0lfgmpMsFoNoOcyo', 'person_name': 'Noari RAKOTOMANGA', 'profile_description': 'Chargée des ressources humaines'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-des-valli%C3%A8res-b634b2108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsgPvsBTRC-T13GN289MNNz3C8KXrC4UTo', 'person_name': 'Chloé des Vallières', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/orah-ben-tolila-993a942a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEjGcX8BoNOxccGUJRrHszM2MRUq9WZazwI', 'person_name': 'Orah BEN TOLILA', 'profile_description': 'Étudiante PGE EM Normandie'}, {'profile_url': 'https://www.linkedin.com/in/opaline-de-lafaye?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACc76v8BhiuU5azG_mwUumMiMcRU39I91Lk', 'person_name': 'Opaline de Lafaye', 'profile_description': 'Commerciale Grands Comptes Hôtellerie-Restauration chez Extracadabra ✨'}, {'profile_url': 'https://www.linkedin.com/in/apollinecazes99?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACg0xfEB_gpWV7kXpynjwC4jTZRuqu9i7PI', 'person_name': 'Apolline Cazes', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/cheikh-ibra-ndiaye-6b5b141b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADItQ-kBSP5t0Mp7zriEeckjPDXEkNzr2RI', 'person_name': 'Cheikh Ibra Ndiaye', 'profile_description': 'Étudiant en master de Droit Fiscal à l’université Aix-Marseille'}, {'profile_url': 'https://www.linkedin.com/in/florent-schmitt-314b69b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABlEOIABRybFfqJmfFswLOApw5vMhH0tsKQ', 'person_name': 'Florent Schmitt', 'profile_description': 'Développeur front-end'}, {'profile_url': 'https://www.linkedin.com/in/olivierclemencon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACOZR4BajMqzDNN5k-ghyuHmkovGAFlIwg', 'person_name': 'Olivier Clemençon 🐬', 'profile_description': "Gestalt Thérapeute (phase finale de certification), Coach systémique RNCP et Consultant en Dynamiques Relationnelles. Aiguilleur du changement, je vous aide à habiter votre corps et transformer l'expérience en conscience"}, {'profile_url': 'https://www.linkedin.com/in/georgesviglietti?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIOHt4BfGo5ogmsa6uDWx9FucYFVRNQ7lc', 'person_name': 'Georges Viglietti', 'profile_description': 'Co-fondateur | Président de Sowefund'}, {'profile_url': 'https://www.linkedin.com/in/abderrahmane-touatou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC8s6PMBjPAvxBc4eFSb0qpT7HYZblU73b8', 'person_name': 'Abderrahmane Touatou', 'profile_description': "Ingénieur d'application en informatique"}, {'profile_url': 'https://www.linkedin.com/in/clara-peauger-a702a6113?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxXYHQB9NTOfwRD0UDaFu8LBJjUANeiVZg', 'person_name': 'Clara Peauger', 'profile_description': 'A la recherche des meilleurs extras pour les secteurs de la restauration, vente et de la logistique ✨ Community and partnership manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/teddy-loison-690944202?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPArswBeA9u5N72BhlPFKXJ1CXuB3jm0cw', 'person_name': 'Teddy Loison', 'profile_description': "Account Manager grands comptes chez Extracadabra : Mise a disposition de personnel qualifié dans le domaine de l'hôtellerie &amp; restauration"}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-lucas-960368104?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpkxVgB9GIad-HJ4NAUtBGOrEgTPcrFMMk', 'person_name': 'Clément Lucas', 'profile_description': 'Partner - CFO services for startups chez Lisan Finance'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-pron-96862535?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAdjoSABO4QdK8BgQysItNMFJANFlNInE3Q', 'person_name': 'Guillaume Pron', 'profile_description': 'Co-Founder chez Athena Capital Partners'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-haillot-69b643203?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPi1BcBXoycMX_TpvrVwJqi1kZEIvxqS1I', 'person_name': 'Mathilde Haillot', 'profile_description': 'Étudiante Master 1 Marketing Digital et Responsable à l’université Paris cité'}, {'profile_url': 'https://www.linkedin.com/in/arnaud-cerdan-129a5a22a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl28TEBjUgiqnLxtpB0TqWPEKnvyyhFpG8', 'person_name': 'Arnaud Cerdan', 'profile_description': "Étudiant en Master 2 ECOSIM ( E-Formation, communication, système d'information et médias) à la Sorbonne Nouvelle"}, {'profile_url': 'https://www.linkedin.com/in/valentin-harault-210633142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKe8GwBdeQrmZ6fd1ZL06ljT3bxZflPiBg', 'person_name': 'Valentin Harault', 'profile_description': 'Lead Dev Backend chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/karine-ranjatoarisoa-7146a2226?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADiy44AB-eEPrKajsdOaUF-SfmFA7qn0EGA', 'person_name': 'Karine RANJATOARISOA', 'profile_description': 'Assistante comptable et client recouvrement'}, {'profile_url': 'https://www.linkedin.com/in/thibault-frinault-26a64912b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_z-jIBHMWjvhFcXduAfmYkeftOyyL_tao', 'person_name': 'Thibault Frinault', 'profile_description': 'Responsable administratif et financier'}, {'profile_url': 'https://www.linkedin.com/in/mikeako?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClW8VYBYPYCtsxdNfy073uHJxpjM3TU4lk', 'person_name': 'Mike Ako', 'profile_description': 'Traffic &amp; Data Marketing Manager at Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/eva-cahanin-aaa617241?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwR3mIBytVPsRj2Eb-gUe5l1pVAZDMKjKQ', 'person_name': 'Eva Cahanin', 'profile_description': "Étudiante à Sciences Po Paris en échange avec l'Université de Montréal"}, {'profile_url': 'https://www.linkedin.com/in/camellia-shella-ahovissi-djakpo-985486268?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEGQ5fUBNg_nV9blaowi2VHY-bWpah41JFc', 'person_name': 'Camellia shella Ahovissi djakpo', 'profile_description': '--cheffe de rang'}, {'profile_url': 'https://www.linkedin.com/in/emilien-wisniak-a93453224?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhOn08Bi1K_svcsNhbreF6PlEb9eLJypB4', 'person_name': 'Emilien Wisniak', 'profile_description': 'sous chef et chef de partie en freelance'}, {'profile_url': 'https://www.linkedin.com/in/khalil-zerarga1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB16-8sB4lXWbylxJb7tnOg-8Y22QJZ8Wro', 'person_name': 'Khalil ZERARGA', 'profile_description': 'Customer relations officer | Administrative Assistant | Speaker | Trainer'}, {'profile_url': 'https://www.linkedin.com/in/benjaminattal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABEqEMBiv8IlY1gUXZQz11ECsfos981WSo', 'person_name': 'Benjamin Attal', 'profile_description': 'Co - Founder @ Franks®'}, {'profile_url': 'https://www.linkedin.com/in/victoriathornback-29b303135?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACD4idcBoczEkvH7V1sOPbM53ae2sPXf6V4', 'person_name': 'Victoria Thornback', 'profile_description': 'Responsable du suivi des clients Retail, Restauration Collective &amp; Traiteurs / Évènementiel chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-crosby-94313b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADo3oMBbVzxyL1usEKaNN1xUw7VrgE3IM8', 'person_name': 'Alexandre Crosby', 'profile_description': 'Entrepreneur (ubeeqo exit to Europcar) - Investor - Part time COO/CPO - Internal app builder with no code tools (Airtable, Make,..)'}, {'profile_url': 'https://www.linkedin.com/in/aurelie-notarianni?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGF63ABpqM-BV8vdSFMfZISdbsu4-M3rh8', 'person_name': 'Aurélie Notarianni', 'profile_description': 'Growth Marketing Manager @ Extracadabra | Co-fondatrice @ Kedelaï 🌱Entrepreneurship, Marketing'}, {'profile_url': 'https://www.linkedin.com/in/andrea-chevalier-864b8522a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl7kowBDz71Jz_q_N4gzgW_loFl2A_eiBA', 'person_name': 'Andrea Chevalier', 'profile_description': 'Étudiant(e) à IPAG Business School'}, {'profile_url': 'https://www.linkedin.com/in/myriam-nechi-488074252?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD5NNKgB-LqewBi6h2UMj5kSRcquzp3Y5uA', 'person_name': 'Myriam Nechi', 'profile_description': "Étudiant(e) à L'inseec Bachelor"}, {'profile_url': 'https://www.linkedin.com/in/mathilde-petit-2b1266205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQveCUBB5KxOC7wsxq5Hfxn7Uyl5Hw8_8c', 'person_name': 'Mathilde Petit', 'profile_description': 'Titulaire d’une licence STAPS en Management du sport'}, {'profile_url': 'https://www.linkedin.com/in/in%C3%A8s-bennaj-7b9a73223?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADg4d70B0MdiL2zODAhQNOeFtWO9EX4KyeU', 'person_name': 'Inès Bennaj', 'profile_description': 'Étudiante à INSEEC'}, {'profile_url': 'https://www.linkedin.com/in/louis-delpierre-607117182?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACsWb6cBs9FkRu-SDAOlLrO8TQH3s7N7YA0', 'person_name': 'Louis Delpierre', 'profile_description': 'Étudiant à Université Paris-Est Marne-la-Vallée'}, {'profile_url': 'https://www.linkedin.com/in/paul-vancutsen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADA83C8BBvXjKzVsVfz3ikASwBgJru8CyTI', 'person_name': 'Paul Vancutsen', 'profile_description': 'Etudiant ISG Paris'}, {'profile_url': 'https://www.linkedin.com/in/andrea-tomasi-490b14133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACC8IqwB7NVpqGgbV4CnAzCsBE59c6nNrh8', 'person_name': 'Andrea Tomasi', 'profile_description': 'Assistant Chef de Projet eCrm chez Air France'}, {'profile_url': 'https://www.linkedin.com/in/fred-garreau-635715270?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEJQSkkBSgThh9rDml78uZlmewU1CiDAY7o', 'person_name': 'Fred GARREAU', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/ahmed-md-rayhan-86a175225?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhxeZIB89FbUOZUqLYxkoM_02X8y25ujIc', 'person_name': 'Ahmed Md rayhan', 'profile_description': 'Chef de partie, YAKUZA katsu sando &amp; coffee.'}, {'profile_url': 'https://www.linkedin.com/in/omar-di-prima-89454bba?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABlabzABuM26uYVE1W6NYAqzLkLieXLqfdI', 'person_name': 'Omar Di Prima', 'profile_description': 'Cuisinier - Entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/davidvieira1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABAAjHEBWulu0v0N8dekRhgoyxKkUdHBehQ', 'person_name': 'David Vieira', 'profile_description': 'Investisseur | Auteur'}, {'profile_url': 'https://www.linkedin.com/in/laurent-mehl-9b72281bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMc5ZsB-Z2WRwlogw91ONa-RiWuA_pIuNg', 'person_name': 'Laurent Mehl', 'profile_description': 'Account manager I Pôle restauration collective Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/hadj-amar-tadjer-139390202?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOrXb0BUyZ0JPoGlfpvessSFw1hCVkrro4', 'person_name': 'Hadj Amar TADJER', 'profile_description': 'Auto-entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/maya-hadj-arab-13210893?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACynxGIBHZN3QQcyHZnM5HhbCmNNH3Ub8qk', 'person_name': 'Maya Hadj Arab', 'profile_description': 'Chargée de suivi clients - CHR chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/cindy-mercier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACF8HD0B1fuw7DQQqAU-XiD-Cil8cZVWygg', 'person_name': 'Cindy Mercier', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/aude-voisine-2b9b44113?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABx3lK0BWVOc8J8je73UA7ebbAEBBYnfvHs', 'person_name': 'Aude Voisine', 'profile_description': 'Cuisinière'}, {'profile_url': 'https://www.linkedin.com/in/sid-ahmed-h?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDUTKoBBbPP0dp5iZ8UDDeIv7MbJVRSjwM', 'person_name': 'Sid Ahmed H.', 'profile_description': 'Scrum master certifié PSM II'}, {'profile_url': 'https://www.linkedin.com/in/yanis-sahrane-038b43a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYPTGwBdI9VDAS5CJILzPGFt-o-k6ECqLI', 'person_name': 'Yanis Sahrane', 'profile_description': 'barman'}, {'profile_url': 'https://www.linkedin.com/in/bikas-kumar-sarker-96988966?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA4DCiEBLrIXoo7c1nRx7ZvT3q1hte015OM', 'person_name': 'Bikas Kumar Sarker', 'profile_description': 'Pizaaiolo and cousiner'}, {'profile_url': 'https://www.linkedin.com/in/akram-chowdhury-67b987218?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADb2Jv8BjbwxiINRDJyNsvw18Doi7u-RKjs', 'person_name': 'Akram CHOWDHURY', 'profile_description': 'Étudiant en B.U.T TC (Business international)'}, {'profile_url': 'https://www.linkedin.com/in/florent-van-liebergen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABlJqPAB_C5esBEgzY9ROl_pC0WeBWOCNuI', 'person_name': 'Florent Van Liebergen', 'profile_description': 'Responsable des Pôles Restauration Collective et Traiteur Évènementiel chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/caroline-thyss-a43147152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSvJRMBk65v7lHtsWfI2yjXXOrC2PN90sE', 'person_name': 'Caroline Thyss', 'profile_description': 'Customer Success Manager Restauration | Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/theo-seznec-257ba1230?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADnXNiMBxsWQkQcm9-Pko3htNczDm-vI20E', 'person_name': 'Theo Seznec', 'profile_description': 'Barman Indépendant'}, {'profile_url': 'https://www.linkedin.com/in/sandrae?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1TIbQBq9I9U_mfrnlA4N4FZEOgwZNRmLY', 'person_name': 'Sandra Etine', 'profile_description': 'Account Executive chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/stephaneladevez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzqLowB6zMFxjOStOD8wEmKoj7GcFQbkHs', 'person_name': 'Stephane Ladevez', 'profile_description': 'Chef-cuisinier chez le parisii'}, {'profile_url': 'https://www.linkedin.com/in/mehdi-kannouni?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoBt4UBZKdwRtqb_bg3laHFCGfOaD7zSng', 'person_name': 'Mehdi Kannouni', 'profile_description': 'Développeur back-end Symfony/Laravel'}, {'profile_url': 'https://www.linkedin.com/in/%E2%9C%A8-in%C3%A8s-mira-12ab22217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADbOJDIBHDmY4ZSWNnM9DpmrAYFXIF9ETD8', 'person_name': '✨ Inès Mira', 'profile_description': 'Product Owner | Product Designer'}, {'profile_url': 'https://www.linkedin.com/in/alexis-guerin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHv4iMBd47_nddJVsVpcHSmIty7B18yzqQ', 'person_name': 'Alexis Guérin', 'profile_description': 'Devops et IT Manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/kaymreen-charransol-b26914184?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuP3k4Bj7ffH2egvyXKM__JRLFSkpMkAOA', 'person_name': 'Kaymreen Charransol', 'profile_description': 'Hostess and Artist'}, {'profile_url': 'https://www.linkedin.com/in/karim-bani-290737145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMrh8wBcLfF0ZpXq4cXbZdfSBkKOSfcNXM', 'person_name': 'Karim Bani', 'profile_description': 'Serveur maitre d’hotel chez Les filles du traiteur'}, {'profile_url': 'https://www.linkedin.com/in/manon-curfs-13933a1b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADIPqz0BMcaCVvo55Iw43CFIQuTTPWwGD_o', 'person_name': 'Manon CURFS', 'profile_description': 'En reconversion'}, {'profile_url': 'https://www.linkedin.com/in/paullaffont?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACtVl3UBAik3zhhkz0maHbR4BEsNhTnE-EQ', 'person_name': 'Paul Laffont', 'profile_description': 'Étudiant Master 1 Management Grande École'}, {'profile_url': 'https://www.linkedin.com/in/simon-oubry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOpmYgBlyOtf1-uai4GYOh3RGDScK7WRVI', 'person_name': 'Simon OUBRY', 'profile_description': 'Extracadabra - ISM IAE'}, {'profile_url': 'https://www.linkedin.com/in/momar-djibril-ndongo-950509213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYArgwBT0nvmrPIO-uO4nouf98I594tnXM', 'person_name': 'Momar Djibril Ndongo', 'profile_description': "E-commerce, Marketing digital, Analyst | + d'15 entreprises accompagnées | Le succès de votre site web grâce à des stratégies personnalisées et percutantes"}, {'profile_url': 'https://www.linkedin.com/in/pauline-chatellard-ba0b68194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC275qgBaCDHEZxvbrPbrVY6LUPIRHPIOf8', 'person_name': 'Pauline Chatellard', 'profile_description': 'Droit de la propriété intellectuelle - préparation de l’examen d’entrée au CRFPA 2024'}, {'profile_url': 'https://www.linkedin.com/in/raphael-schwarcz-25202rlb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACpfs6AB1C1oIY83B_vbJVCcx3nTghFF7Xg', 'person_name': 'Raphael Schwarcz', 'profile_description': 'Student at IESEG School of Management in Operations and Supply Chain'}, {'profile_url': 'https://www.linkedin.com/in/lilibelle-dreuilhe-95a793236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADrZJpYB2lAmc8U4N64YX3jRhnx8ZUe9g1o', 'person_name': 'Lilibelle Dreuilhe', 'profile_description': 'Étudiante à l’INSEEC en M1 programme grande école'}, {'profile_url': 'https://www.linkedin.com/in/sauvane-martinez-32b8b4a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZhR9MBTt99TJcFgxZmqa8MwHAGTCigyjA', 'person_name': 'Sauvane MARTINEZ', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/clement-reboul?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHMoX0BKLlIP0fJig8LgN_RmpbQ4kY4Vq8', 'person_name': 'Clement Reboul', 'profile_description': 'Développeur front'}, {'profile_url': 'https://www.linkedin.com/in/f%C3%A9lix-le-tanneur-648815171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjgplgB7shL9nR3w5O5Ceqj5UOTF6fXghs', 'person_name': 'Félix Le Tanneur', 'profile_description': 'Commercial Grands Comptes Hôtellerie-Restauration chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/pierre-antoine-saunier-620b7311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJ8YrgBa_hRZd1P7KquZzmVa6Lhl3SE0LE', 'person_name': 'Pierre-Antoine Saunier', 'profile_description': 'Président chez Athena Capital Partners'}, {'profile_url': 'https://www.linkedin.com/in/marcosalvescardoso?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGCXoQB5ovuv4lOSZzpWVTf7zXQMALTXz4', 'person_name': 'Marcos Alves Cardoso', 'profile_description': 'Partner &amp; Chief Growth Officer LUDA Partners'}, {'profile_url': 'https://www.linkedin.com/in/thibault-clusel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABLd148BYcuCvSa9XZZBfURDX0JgNOtcEd8', 'person_name': '💻Thibault Clusel', 'profile_description': 'Développeur front-end chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/salmahadid?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEoEQpcBEYdajQa6TfHvJ3Afmz83M83mpb8', 'person_name': 'Salma H.', 'profile_description': 'Étudiante en Bachelor Marketing et Communication (PEM) à la recherche d’une ALTERNANCE 2024/2025'}, {'profile_url': 'https://www.linkedin.com/in/jessy-vautour?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB0rN7IBx2wfi4JSWXdUtyslQJPpmF1zJks', 'person_name': 'Jessy V.', 'profile_description': 'Développeur front-end'}, {'profile_url': 'https://www.linkedin.com/in/enzo-chupin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEBCFWkBFkLcmX69cBMq3Q5mvYiJBcqO2kc', 'person_name': 'Enzo Chupin', 'profile_description': 'Social media manager chez Extracadabra | Freelance WordPress - Elementor'}, {'profile_url': 'https://www.linkedin.com/in/briac-kubica?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS5E04BE5BMjRLUdyyGyoTEHOb8-GOs7Zs', 'person_name': 'Briac Kubica', 'profile_description': 'Responsable Administratif et Financier Adjoint'}, {'profile_url': 'https://www.linkedin.com/in/clara-retail-08b008319?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFCgBmsB4MlXifzf6H3_ci47YnYJG0h96cs', 'person_name': 'Clara Retail', 'profile_description': 'Etudiante en BTS communication | Entraineur de rugby diplomé'}, {'profile_url': 'https://www.linkedin.com/in/nad%C3%A8ge-hor-8a0454155?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVDdPgBokFit1CdQ-jhlACrW8u9QknPAZI', 'person_name': 'Nadège Hor', 'profile_description': 'Cheffe de partie'}, {'profile_url': 'https://www.linkedin.com/in/nazim-lekouara-2211562b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEwEurkBPVfmkxwtQu4gZza4-QUvTkWen1w', 'person_name': 'Nazim Lekouara', 'profile_description': 'Licence en Économie et Gestion parcours Économie, Finance, Entreprise an3 (E3EFE) .'}, {'profile_url': 'https://www.linkedin.com/in/alia-bensalem-5a0978240?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADvxnEgBjUakzxgVDr8rCYkujBwgR97wPQY', 'person_name': 'Alia Bensalem', 'profile_description': 'Customer success manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/suzanne-n-988239143?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACK9fTgBoUkQAsI4hewRz1xeYo5OFDJRZnw', 'person_name': 'Suzanne N.', 'profile_description': 'Apprentie en restauration aux Westin Paris Vendome'}, {'profile_url': 'https://www.linkedin.com/in/aicha-fadika-298a75309?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE6lYlQB601EWbL3Szi5Un9Zc0GqkBYYCok', 'person_name': 'Aicha Fadika', 'profile_description': 'Student at Ascencia Business School'}, {'profile_url': 'https://www.linkedin.com/in/myriam-cisse-27912430a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE6vKn0BbEBGguDV7_29A2jq1_qi0TP0LPk', 'person_name': 'Myriam Cisse', 'profile_description': "Étudiante à l’École de Droit et d'Intelligence Juridique"}, {'profile_url': 'https://www.linkedin.com/in/michel-hernando-herrera-7996a42b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEsH4WUB5I2waPruTWGIGa0JrmgAXlmiKaA', 'person_name': 'Michel Hernando Herrera', 'profile_description': '--'}, {</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>65,33 %</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>351,95 %</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>11.148.361 €</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2.466.750 €</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>17</v>
+      </c>
+      <c r="R78" t="n">
+        <v>15</v>
+      </c>
+      <c r="S78" t="n">
+        <v>69</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Services à l’emploi (intérim, recrutement)</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/thomaslandais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAISthgBR9MY12uFf21_IDgkYAH-GdxncWg</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/remiboisson?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGMUUIBiVlMef4M1Cf9YVrztkyVoqiAHfg</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A79" t="n">
+        <v>53</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extracadabra </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.extracadabra.com/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>['contact@extracadabra.com']</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>["82, rue d'Hauteville, 75010 Paris"]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/company/extracadabra</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{'profile_url': 'https://www.linkedin.com/in/maxime-lemarchand-a49a169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHAh1kB-U8FDwxpi--pwVEHo1TTFrQfhDc', 'person_name': 'Maxime LEMARCHAND', 'profile_description': 'Partner @Redstart @50 Partners, Entrepreneur, Advisor &amp; Business Angel / Co founder SURPRIZEMI (WEBEDIA GROUP)'}</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Partner @Redstart @50 Partners, Entrepreneur, Advisor &amp; Business Angel / Co founder SURPRIZEMI (WEBEDIA GROUP)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/maxime-lemarchand-a49a169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHAh1kB-U8FDwxpi--pwVEHo1TTFrQfhDc</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>[{'profile_url': 'https://www.linkedin.com/in/romain-minchella-7b939412?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKMPH0BhAYNrNHkS6oQwOvYFuVvvG3OIuQ', 'person_name': 'Romain Minchella', 'profile_description': 'CTO @ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/edouard-lau-49a316125?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB7WMDYBcLNmuXYhdM4bJp7xFPbGJDrVNXk', 'person_name': 'Edouard Lau', 'profile_description': 'Directeur commercial - Nous vous permettons de trouver du personnel qualifié en un temps record'}, {'profile_url': 'https://www.linkedin.com/in/doriane-sarron-ab780495?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABQ7ESsBxisWZSJEfqhH86IiZ-62ARv8akQ', 'person_name': 'Doriane Sarron', 'profile_description': 'Product Owner/ Product Manager'}, {'profile_url': 'https://www.linkedin.com/in/benoit-ricart?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_FQCkBoiaYFa3zjy7pmpRh7PQ24koX8ow', 'person_name': 'Benoît Ricart', 'profile_description': 'Data Analyst'}, {'profile_url': 'https://www.linkedin.com/in/fredericnardon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAEe56wB6eD2569mB6Mk-JJd6iA06TJmHyc', 'person_name': 'Frederic Nardon', 'profile_description': "CEO Extracadabra - La Plateforme pour recruter des CDI et des Extras sur l'Hôtellerie-Restauration et le Retail"}, {'profile_url': 'https://www.linkedin.com/in/charlotte-poiron?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACl8K_MBvgaS7cILgb-nVqlTy26nlQoOm_M', 'person_name': 'Charlotte Poiron', 'profile_description': 'Customer Success Manager Grands Comptes'}, {'profile_url': 'https://www.linkedin.com/in/emilie-cauly-0bb45360?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAzhWc8Bnx7oTsAqJUGt7PMo2UvkHxwIZo0', 'person_name': 'Emilie Cauly', 'profile_description': 'Responsable des opérations chez Extracadabra 🎉'}, {'profile_url': 'https://www.linkedin.com/in/no%C3%A9miemallevays?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOEyT4BPIWylSxKqoyOljjmMUjjPZvPPtc', 'person_name': 'Noémie MALLEVAYS', 'profile_description': 'Responsable Gestion Client at ✨Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/claudia-toma-6a57842b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAZX6t0BEdV9WuvH_AXjiex1tXab6MWKxh8', 'person_name': 'Claudia TOMA', 'profile_description': 'Responsable Ressources Humaines chez Extracadabra | Diplômée en Ressources Humaines'}, {'profile_url': 'https://www.linkedin.com/in/nantenaina-rahoiljaon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADUEKpcBbkVyhQzq5EPABz9HH3lGY0mS4TI', 'person_name': 'Nantenaina Rahoiljaon', 'profile_description': 'Alternant Sales chez Extracadabra dans le cadre du MSc Business Development &amp; Clients Grands Comptes de Neoma Business School'}, {'profile_url': 'https://www.linkedin.com/in/remiboisson?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGMUUIBiVlMef4M1Cf9YVrztkyVoqiAHfg', 'person_name': 'Rémi Boisson', 'profile_description': 'Co-fondateur @ Extracadabra ✨ Trouvez et gérez vos candidats idéaux en un instant en restauration, event, retail et logistique !'}, {'profile_url': 'https://www.linkedin.com/in/louis-raverdy-191104197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4cl_0BbULwPaFDtpcAHoV2GEPqe1AHthE', 'person_name': 'Louis Raverdy', 'profile_description': 'Data Engineer'}, {'profile_url': 'https://www.linkedin.com/in/mahaut-de-bouillane-932279193?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC1sgPYBRHbTJwzyGVjeZiwIQAM3scUO0VE', 'person_name': 'Mahaut De Bouillane', 'profile_description': 'Responsable Commerciale Restauration - Extracadabra ✨'}, {'profile_url': 'https://www.linkedin.com/in/chamia-nizaraly?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABc8hDMBnL3QQdp1B4LjmVc6o4pmpzsLDtI', 'person_name': 'Chamia N.', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/maxime-lemarchand-a49a169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAHAh1kB-U8FDwxpi--pwVEHo1TTFrQfhDc', 'person_name': 'Maxime LEMARCHAND', 'profile_description': 'Partner @Redstart @50 Partners, Entrepreneur, Advisor &amp; Business Angel / Co founder SURPRIZEMI (WEBEDIA GROUP)'}, {'profile_url': 'https://www.linkedin.com/in/renato-martins-04786714a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACQUFXcBmXbBVSlhJSPH7BPDd7SAe9vPHXE', 'person_name': 'Renato Martins', 'profile_description': 'Customer Success Manager chez Extracadabra | Gestion de comptes et partenariats dans le secteur de la FoodTech 🚀🍔'}, {'profile_url': 'https://www.linkedin.com/in/matthieu-mandoula-9669a773?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA-hep4BqHxOHNyT6h6tNzFf_xJwzICTCIk', 'person_name': 'Matthieu Mandoula', 'profile_description': 'Web Developer'}, {'profile_url': 'https://www.linkedin.com/in/julien-radic-5b3a0827?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAWqoVcBSHlKCi1BVYXTqPCnC1LPaugVZO4', 'person_name': 'Julien Radic', 'profile_description': 'Entrepreneur, Advisor &amp; Business Angel / Co-founder Surprizemi (Webedia Group)'}, {'profile_url': 'https://www.linkedin.com/in/adelnazmy?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACXOKmAB6_XmXVwZq0dlSxr5-J4voymd52Y', 'person_name': 'Adel Nazmy', 'profile_description': 'Chef de Projet | Business Analyst'}, {'profile_url': 'https://www.linkedin.com/in/flavien-tiberghien?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABhX9MBRJ-F47DObtpNXErCwtL9OVmhb7A', 'person_name': 'Flavien Tiberghien', 'profile_description': 'Private Equity - Hospitality - Tourisme'}, {'profile_url': 'https://www.linkedin.com/in/estelle-messant-24766a205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQ-wtcB1E0tKacJVSYr3eCGgXbJN-kuK5E', 'person_name': 'Estelle Messant', 'profile_description': 'Étudiante à l’Ecole de Communication et Marketing Digital'}, {'profile_url': 'https://www.linkedin.com/in/l%C3%A9a-devillers-959428259?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD-Z3VUBZ55CKDFKKwYgASHm8KuNIOrAvuQ', 'person_name': 'Léa Devillers', 'profile_description': 'Étudiant(e) à Vatel France'}, {'profile_url': 'https://www.linkedin.com/in/sebahat-suna-24973a297?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEfVe9kBdtUVChtaEQAh_z_xPXudd4uSpDo', 'person_name': 'Sebahat Suna', 'profile_description': 'Master PGE - Management • Apprentie Chargée de projet'}, {'profile_url': 'https://www.linkedin.com/in/liah-m-5835a0272?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEKmiTMB7-qySX_CCBQI0cawUf7CoxhcrmI', 'person_name': 'Liah M.', 'profile_description': 'Prestataire Restauration / Facturation / Administratif'}, {'profile_url': 'https://www.linkedin.com/in/yoann-zarifian-048777178?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACodungBiTzuURPJcBPDnBBeX7QNimTt8Ug', 'person_name': 'YOANN ZARIFIAN', 'profile_description': 'Commercial Grands Comptes Hôtellerie-Restauration chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/kdamoudokpo?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj18dwBSXsD-KflsxOKgquvcr9nrSgZ7ac', 'person_name': 'Kokou Daniel Amoudokpo', 'profile_description': 'Full-stack Developer Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/maxence-macia-247a35172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkWbhcBYX38izyQm6wtk1Ynu1fF2blyMAI', 'person_name': 'Maxence Macia', 'profile_description': 'Commercial grands comptes Retail chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/jordane-jimenez-52ab37b2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABgESTIBzPl3WU22j8W-E_53gg1XFAyWRks', 'person_name': 'Jordane Jimenez', 'profile_description': 'Responsable commercial restauration indépendante, Responsable Partenariats'}, {'profile_url': 'https://www.linkedin.com/in/thibautangevin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJbRQsBORathfgqohqRJkReIsffRR1VueU', 'person_name': 'Thibaut ANGEVIN', 'profile_description': 'Entrepreneur &amp; Enthusiastic VC/PE investor in Tech &amp; Impact startups, Real estate and Hospitality ex Founding Partner Quanteam 🙏 Notifications are turned off so please don’t get offensed if I don’t reply'}, {'profile_url': 'https://www.linkedin.com/in/fariza-h-13834b21a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADc5UvwBbKotF4nX3tKjMI7KX_xMyieTITk', 'person_name': 'fariza H.', 'profile_description': 'Talent acquisition'}, {'profile_url': 'https://www.linkedin.com/in/dhikra-lahouel-456691229?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADk7OkIBW1S0jWEOsH1nPziXWOPcS9gEsa0', 'person_name': 'Dhikra LAHOUEL', 'profile_description': 'Customer Care Specialist'}, {'profile_url': 'https://www.linkedin.com/in/thomaslandais?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAISthgBR9MY12uFf21_IDgkYAH-GdxncWg', 'person_name': 'Thomas Landais', 'profile_description': 'Entrepreneur - Business Angel'}, {'profile_url': 'https://www.linkedin.com/in/sara-boujenane-25a615207?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADSYLCYBUnwFdzHXEgMjm6fE2vK3vyt6UyI', 'person_name': 'Sara Boujenane', 'profile_description': 'Assistante Marketing Produit'}, {'profile_url': 'https://www.linkedin.com/in/beryl-dabezies-6774a6152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACS8ZjsBetdj2bhK_Un5XQDZbKV7kOGgnAA', 'person_name': 'Beryl Dabezies', 'profile_description': 'Consultante en recrutement - Hôtellerie'}, {'profile_url': 'https://www.linkedin.com/in/andrea-storti-617236132?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACBtFvMBDRPi_1_PXh8S_nxXNVnfkVlksCc', 'person_name': 'Andrea Storti', 'profile_description': 'Pizzaiolo Freelance'}, {'profile_url': 'https://www.linkedin.com/in/selim-bakir-10231870?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA7_K5IBZwKL0lKtAFYTn-mHpGeMAuZseqA', 'person_name': 'Selim Bakir', 'profile_description': 'Growth engineer - Dev Front-End'}, {'profile_url': 'https://www.linkedin.com/in/tognon-guidi-794646109?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABtTSOABvtq6tNcw0eewiywRgsKBcXgzFT8', 'person_name': 'Tognon Guidi', 'profile_description': 'Engineering manager'}, {'profile_url': 'https://www.linkedin.com/in/hugues-aldebert-4a481b14b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACRALfwB3y1HFggHVMTDlpTkI3_Kz24Hj08', 'person_name': 'Hugues Aldebert', 'profile_description': 'Account Manager Retail chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/marie-cavalier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB3PDacBz12I-e6i3t61_sdqikF4P3y5SNk', 'person_name': 'Marie CAVALIER', 'profile_description': 'Talent Acquisition &amp; Partnership Manager'}, {'profile_url': 'https://www.linkedin.com/in/elissa-semaan-924b92169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACg4P6wBLdsCgZUqsIYAUvmYBz51i8e5th8', 'person_name': 'Elissa Semaan', 'profile_description': 'Team Leader - Pôle Intérim at Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/eva-raphanel-08811b151?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSAt6gBbAwYX6wJSqhC7Laj4EIFwPU3Ziw', 'person_name': 'Eva Raphanel', 'profile_description': 'Account Manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/noari-rakotomanga-63505a1b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJgDAkBV80TpwFCv7X0lfgmpMsFoNoOcyo', 'person_name': 'Noari RAKOTOMANGA', 'profile_description': 'Chargée des ressources humaines'}, {'profile_url': 'https://www.linkedin.com/in/chlo%C3%A9-des-valli%C3%A8res-b634b2108?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsgPvsBTRC-T13GN289MNNz3C8KXrC4UTo', 'person_name': 'Chloé des Vallières', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/orah-ben-tolila-993a942a0?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEjGcX8BoNOxccGUJRrHszM2MRUq9WZazwI', 'person_name': 'Orah BEN TOLILA', 'profile_description': 'Étudiante PGE EM Normandie'}, {'profile_url': 'https://www.linkedin.com/in/opaline-de-lafaye?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACc76v8BhiuU5azG_mwUumMiMcRU39I91Lk', 'person_name': 'Opaline de Lafaye', 'profile_description': 'Commerciale Grands Comptes Hôtellerie-Restauration chez Extracadabra ✨'}, {'profile_url': 'https://www.linkedin.com/in/apollinecazes99?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACg0xfEB_gpWV7kXpynjwC4jTZRuqu9i7PI', 'person_name': 'Apolline Cazes', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/cheikh-ibra-ndiaye-6b5b141b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADItQ-kBSP5t0Mp7zriEeckjPDXEkNzr2RI', 'person_name': 'Cheikh Ibra Ndiaye', 'profile_description': 'Étudiant en master de Droit Fiscal à l’université Aix-Marseille'}, {'profile_url': 'https://www.linkedin.com/in/florent-schmitt-314b69b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABlEOIABRybFfqJmfFswLOApw5vMhH0tsKQ', 'person_name': 'Florent Schmitt', 'profile_description': 'Développeur front-end'}, {'profile_url': 'https://www.linkedin.com/in/olivierclemencon?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAACOZR4BajMqzDNN5k-ghyuHmkovGAFlIwg', 'person_name': 'Olivier Clemençon 🐬', 'profile_description': "Gestalt Thérapeute (phase finale de certification), Coach systémique RNCP et Consultant en Dynamiques Relationnelles. Aiguilleur du changement, je vous aide à habiter votre corps et transformer l'expérience en conscience"}, {'profile_url': 'https://www.linkedin.com/in/georgesviglietti?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAIOHt4BfGo5ogmsa6uDWx9FucYFVRNQ7lc', 'person_name': 'Georges Viglietti', 'profile_description': 'Co-fondateur | Président de Sowefund'}, {'profile_url': 'https://www.linkedin.com/in/abderrahmane-touatou?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC8s6PMBjPAvxBc4eFSb0qpT7HYZblU73b8', 'person_name': 'Abderrahmane Touatou', 'profile_description': "Ingénieur d'application en informatique"}, {'profile_url': 'https://www.linkedin.com/in/clara-peauger-a702a6113?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABxXYHQB9NTOfwRD0UDaFu8LBJjUANeiVZg', 'person_name': 'Clara Peauger', 'profile_description': 'A la recherche des meilleurs extras pour les secteurs de la restauration, vente et de la logistique ✨ Community and partnership manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/teddy-loison-690944202?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPArswBeA9u5N72BhlPFKXJ1CXuB3jm0cw', 'person_name': 'Teddy Loison', 'profile_description': "Account Manager grands comptes chez Extracadabra : Mise a disposition de personnel qualifié dans le domaine de l'hôtellerie &amp; restauration"}, {'profile_url': 'https://www.linkedin.com/in/cl%C3%A9ment-lucas-960368104?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpkxVgB9GIad-HJ4NAUtBGOrEgTPcrFMMk', 'person_name': 'Clément Lucas', 'profile_description': 'Partner - CFO services for startups chez Lisan Finance'}, {'profile_url': 'https://www.linkedin.com/in/guillaume-pron-96862535?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAdjoSABO4QdK8BgQysItNMFJANFlNInE3Q', 'person_name': 'Guillaume Pron', 'profile_description': 'Co-Founder chez Athena Capital Partners'}, {'profile_url': 'https://www.linkedin.com/in/mathilde-haillot-69b643203?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADPi1BcBXoycMX_TpvrVwJqi1kZEIvxqS1I', 'person_name': 'Mathilde Haillot', 'profile_description': 'Étudiante Master 1 Marketing Digital et Responsable à l’université Paris cité'}, {'profile_url': 'https://www.linkedin.com/in/arnaud-cerdan-129a5a22a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl28TEBjUgiqnLxtpB0TqWPEKnvyyhFpG8', 'person_name': 'Arnaud Cerdan', 'profile_description': "Étudiant en Master 2 ECOSIM ( E-Formation, communication, système d'information et médias) à la Sorbonne Nouvelle"}, {'profile_url': 'https://www.linkedin.com/in/valentin-harault-210633142?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACKe8GwBdeQrmZ6fd1ZL06ljT3bxZflPiBg', 'person_name': 'Valentin Harault', 'profile_description': 'Lead Dev Backend chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/karine-ranjatoarisoa-7146a2226?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADiy44AB-eEPrKajsdOaUF-SfmFA7qn0EGA', 'person_name': 'Karine RANJATOARISOA', 'profile_description': 'Assistante comptable et client recouvrement'}, {'profile_url': 'https://www.linkedin.com/in/thibault-frinault-26a64912b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_z-jIBHMWjvhFcXduAfmYkeftOyyL_tao', 'person_name': 'Thibault Frinault', 'profile_description': 'Responsable administratif et financier'}, {'profile_url': 'https://www.linkedin.com/in/mikeako?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAClW8VYBYPYCtsxdNfy073uHJxpjM3TU4lk', 'person_name': 'Mike Ako', 'profile_description': 'Traffic &amp; Data Marketing Manager at Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/eva-cahanin-aaa617241?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADwR3mIBytVPsRj2Eb-gUe5l1pVAZDMKjKQ', 'person_name': 'Eva Cahanin', 'profile_description': "Étudiante à Sciences Po Paris en échange avec l'Université de Montréal"}, {'profile_url': 'https://www.linkedin.com/in/camellia-shella-ahovissi-djakpo-985486268?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEGQ5fUBNg_nV9blaowi2VHY-bWpah41JFc', 'person_name': 'Camellia shella Ahovissi djakpo', 'profile_description': '--cheffe de rang'}, {'profile_url': 'https://www.linkedin.com/in/emilien-wisniak-a93453224?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhOn08Bi1K_svcsNhbreF6PlEb9eLJypB4', 'person_name': 'Emilien Wisniak', 'profile_description': 'sous chef et chef de partie en freelance'}, {'profile_url': 'https://www.linkedin.com/in/khalil-zerarga1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB16-8sB4lXWbylxJb7tnOg-8Y22QJZ8Wro', 'person_name': 'Khalil ZERARGA', 'profile_description': 'Customer relations officer | Administrative Assistant | Speaker | Trainer'}, {'profile_url': 'https://www.linkedin.com/in/benjaminattal?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAABEqEMBiv8IlY1gUXZQz11ECsfos981WSo', 'person_name': 'Benjamin Attal', 'profile_description': 'Co - Founder @ Franks®'}, {'profile_url': 'https://www.linkedin.com/in/victoriathornback-29b303135?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACD4idcBoczEkvH7V1sOPbM53ae2sPXf6V4', 'person_name': 'Victoria Thornback', 'profile_description': 'Responsable du suivi des clients Retail, Restauration Collective &amp; Traiteurs / Évènementiel chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/alexandre-crosby-94313b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAADo3oMBbVzxyL1usEKaNN1xUw7VrgE3IM8', 'person_name': 'Alexandre Crosby', 'profile_description': 'Entrepreneur (ubeeqo exit to Europcar) - Investor - Part time COO/CPO - Internal app builder with no code tools (Airtable, Make,..)'}, {'profile_url': 'https://www.linkedin.com/in/aurelie-notarianni?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGF63ABpqM-BV8vdSFMfZISdbsu4-M3rh8', 'person_name': 'Aurélie Notarianni', 'profile_description': 'Growth Marketing Manager @ Extracadabra | Co-fondatrice @ Kedelaï 🌱Entrepreneurship, Marketing'}, {'profile_url': 'https://www.linkedin.com/in/andrea-chevalier-864b8522a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADl7kowBDz71Jz_q_N4gzgW_loFl2A_eiBA', 'person_name': 'Andrea Chevalier', 'profile_description': 'Étudiant(e) à IPAG Business School'}, {'profile_url': 'https://www.linkedin.com/in/myriam-nechi-488074252?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD5NNKgB-LqewBi6h2UMj5kSRcquzp3Y5uA', 'person_name': 'Myriam Nechi', 'profile_description': "Étudiant(e) à L'inseec Bachelor"}, {'profile_url': 'https://www.linkedin.com/in/mathilde-petit-2b1266205?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADQveCUBB5KxOC7wsxq5Hfxn7Uyl5Hw8_8c', 'person_name': 'Mathilde Petit', 'profile_description': 'Titulaire d’une licence STAPS en Management du sport'}, {'profile_url': 'https://www.linkedin.com/in/in%C3%A8s-bennaj-7b9a73223?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADg4d70B0MdiL2zODAhQNOeFtWO9EX4KyeU', 'person_name': 'Inès Bennaj', 'profile_description': 'Étudiante à INSEEC'}, {'profile_url': 'https://www.linkedin.com/in/louis-delpierre-607117182?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACsWb6cBs9FkRu-SDAOlLrO8TQH3s7N7YA0', 'person_name': 'Louis Delpierre', 'profile_description': 'Étudiant à Université Paris-Est Marne-la-Vallée'}, {'profile_url': 'https://www.linkedin.com/in/paul-vancutsen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADA83C8BBvXjKzVsVfz3ikASwBgJru8CyTI', 'person_name': 'Paul Vancutsen', 'profile_description': 'Etudiant ISG Paris'}, {'profile_url': 'https://www.linkedin.com/in/andrea-tomasi-490b14133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACC8IqwB7NVpqGgbV4CnAzCsBE59c6nNrh8', 'person_name': 'Andrea Tomasi', 'profile_description': 'Assistant Chef de Projet eCrm chez Air France'}, {'profile_url': 'https://www.linkedin.com/in/fred-garreau-635715270?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEJQSkkBSgThh9rDml78uZlmewU1CiDAY7o', 'person_name': 'Fred GARREAU', 'profile_description': '--'}, {'profile_url': 'https://www.linkedin.com/in/ahmed-md-rayhan-86a175225?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADhxeZIB89FbUOZUqLYxkoM_02X8y25ujIc', 'person_name': 'Ahmed Md rayhan', 'profile_description': 'Chef de partie, YAKUZA katsu sando &amp; coffee.'}, {'profile_url': 'https://www.linkedin.com/in/omar-di-prima-89454bba?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABlabzABuM26uYVE1W6NYAqzLkLieXLqfdI', 'person_name': 'Omar Di Prima', 'profile_description': 'Cuisinier - Entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/davidvieira1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABAAjHEBWulu0v0N8dekRhgoyxKkUdHBehQ', 'person_name': 'David Vieira', 'profile_description': 'Investisseur | Auteur'}, {'profile_url': 'https://www.linkedin.com/in/laurent-mehl-9b72281bb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADMc5ZsB-Z2WRwlogw91ONa-RiWuA_pIuNg', 'person_name': 'Laurent Mehl', 'profile_description': 'Account manager I Pôle restauration collective Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/hadj-amar-tadjer-139390202?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOrXb0BUyZ0JPoGlfpvessSFw1hCVkrro4', 'person_name': 'Hadj Amar TADJER', 'profile_description': 'Auto-entrepreneur'}, {'profile_url': 'https://www.linkedin.com/in/maya-hadj-arab-13210893?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACynxGIBHZN3QQcyHZnM5HhbCmNNH3Ub8qk', 'person_name': 'Maya Hadj Arab', 'profile_description': 'Chargée de suivi clients - CHR chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/cindy-mercier?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACF8HD0B1fuw7DQQqAU-XiD-Cil8cZVWygg', 'person_name': 'Cindy Mercier', 'profile_description': 'Account Manager'}, {'profile_url': 'https://www.linkedin.com/in/aude-voisine-2b9b44113?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABx3lK0BWVOc8J8je73UA7ebbAEBBYnfvHs', 'person_name': 'Aude Voisine', 'profile_description': 'Cuisinière'}, {'profile_url': 'https://www.linkedin.com/in/sid-ahmed-h?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACDUTKoBBbPP0dp5iZ8UDDeIv7MbJVRSjwM', 'person_name': 'Sid Ahmed H.', 'profile_description': 'Scrum master certifié PSM II'}, {'profile_url': 'https://www.linkedin.com/in/yanis-sahrane-038b43a3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABYPTGwBdI9VDAS5CJILzPGFt-o-k6ECqLI', 'person_name': 'Yanis Sahrane', 'profile_description': 'barman'}, {'profile_url': 'https://www.linkedin.com/in/bikas-kumar-sarker-96988966?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA4DCiEBLrIXoo7c1nRx7ZvT3q1hte015OM', 'person_name': 'Bikas Kumar Sarker', 'profile_description': 'Pizaaiolo and cousiner'}, {'profile_url': 'https://www.linkedin.com/in/akram-chowdhury-67b987218?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADb2Jv8BjbwxiINRDJyNsvw18Doi7u-RKjs', 'person_name': 'Akram CHOWDHURY', 'profile_description': 'Étudiant en B.U.T TC (Business international)'}, {'profile_url': 'https://www.linkedin.com/in/florent-van-liebergen?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABlJqPAB_C5esBEgzY9ROl_pC0WeBWOCNuI', 'person_name': 'Florent Van Liebergen', 'profile_description': 'Responsable des Pôles Restauration Collective et Traiteur Évènementiel chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/caroline-thyss-a43147152?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACSvJRMBk65v7lHtsWfI2yjXXOrC2PN90sE', 'person_name': 'Caroline Thyss', 'profile_description': 'Customer Success Manager Restauration | Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/theo-seznec-257ba1230?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADnXNiMBxsWQkQcm9-Pko3htNczDm-vI20E', 'person_name': 'Theo Seznec', 'profile_description': 'Barman Indépendant'}, {'profile_url': 'https://www.linkedin.com/in/sandrae?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1TIbQBq9I9U_mfrnlA4N4FZEOgwZNRmLY', 'person_name': 'Sandra Etine', 'profile_description': 'Account Executive chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/stephaneladevez?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABzqLowB6zMFxjOStOD8wEmKoj7GcFQbkHs', 'person_name': 'Stephane Ladevez', 'profile_description': 'Chef-cuisinier chez le parisii'}, {'profile_url': 'https://www.linkedin.com/in/mehdi-kannouni?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACoBt4UBZKdwRtqb_bg3laHFCGfOaD7zSng', 'person_name': 'Mehdi Kannouni', 'profile_description': 'Développeur back-end Symfony/Laravel'}, {'profile_url': 'https://www.linkedin.com/in/%E2%9C%A8-in%C3%A8s-mira-12ab22217?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADbOJDIBHDmY4ZSWNnM9DpmrAYFXIF9ETD8', 'person_name': '✨ Inès Mira', 'profile_description': 'Product Owner | Product Designer'}, {'profile_url': 'https://www.linkedin.com/in/alexis-guerin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHv4iMBd47_nddJVsVpcHSmIty7B18yzqQ', 'person_name': 'Alexis Guérin', 'profile_description': 'Devops et IT Manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/kaymreen-charransol-b26914184?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuP3k4Bj7ffH2egvyXKM__JRLFSkpMkAOA', 'person_name': 'Kaymreen Charransol', 'profile_description': 'Hostess and Artist'}, {'profile_url': 'https://www.linkedin.com/in/karim-bani-290737145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMrh8wBcLfF0ZpXq4cXbZdfSBkKOSfcNXM', 'person_name': 'Karim Bani', 'profile_description': 'Serveur maitre d’hotel chez Les filles du traiteur'}, {'profile_url': 'https://www.linkedin.com/in/manon-curfs-13933a1b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADIPqz0BMcaCVvo55Iw43CFIQuTTPWwGD_o', 'person_name': 'Manon CURFS', 'profile_description': 'En reconversion'}, {'profile_url': 'https://www.linkedin.com/in/paullaffont?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACtVl3UBAik3zhhkz0maHbR4BEsNhTnE-EQ', 'person_name': 'Paul Laffont', 'profile_description': 'Étudiant Master 1 Management Grande École'}, {'profile_url': 'https://www.linkedin.com/in/simon-oubry?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOpmYgBlyOtf1-uai4GYOh3RGDScK7WRVI', 'person_name': 'Simon OUBRY', 'profile_description': 'Extracadabra - ISM IAE'}, {'profile_url': 'https://www.linkedin.com/in/momar-djibril-ndongo-950509213?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADYArgwBT0nvmrPIO-uO4nouf98I594tnXM', 'person_name': 'Momar Djibril Ndongo', 'profile_description': "E-commerce, Marketing digital, Analyst | + d'15 entreprises accompagnées | Le succès de votre site web grâce à des stratégies personnalisées et percutantes"}, {'profile_url': 'https://www.linkedin.com/in/pauline-chatellard-ba0b68194?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC275qgBaCDHEZxvbrPbrVY6LUPIRHPIOf8', 'person_name': 'Pauline Chatellard', 'profile_description': 'Droit de la propriété intellectuelle - préparation de l’examen d’entrée au CRFPA 2024'}, {'profile_url': 'https://www.linkedin.com/in/raphael-schwarcz-25202rlb?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACpfs6AB1C1oIY83B_vbJVCcx3nTghFF7Xg', 'person_name': 'Raphael Schwarcz', 'profile_description': 'Student at IESEG School of Management in Operations and Supply Chain'}, {'profile_url': 'https://www.linkedin.com/in/lilibelle-dreuilhe-95a793236?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADrZJpYB2lAmc8U4N64YX3jRhnx8ZUe9g1o', 'person_name': 'Lilibelle Dreuilhe', 'profile_description': 'Étudiante à l’INSEEC en M1 programme grande école'}, {'profile_url': 'https://www.linkedin.com/in/sauvane-martinez-32b8b4a5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZhR9MBTt99TJcFgxZmqa8MwHAGTCigyjA', 'person_name': 'Sauvane MARTINEZ', 'profile_description': 'Customer Success Manager'}, {'profile_url': 'https://www.linkedin.com/in/clement-reboul?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACHMoX0BKLlIP0fJig8LgN_RmpbQ4kY4Vq8', 'person_name': 'Clement Reboul', 'profile_description': 'Développeur front'}, {'profile_url': 'https://www.linkedin.com/in/f%C3%A9lix-le-tanneur-648815171?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACjgplgB7shL9nR3w5O5Ceqj5UOTF6fXghs', 'person_name': 'Félix Le Tanneur', 'profile_description': 'Commercial Grands Comptes Hôtellerie-Restauration chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/pierre-antoine-saunier-620b7311?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJ8YrgBa_hRZd1P7KquZzmVa6Lhl3SE0LE', 'person_name': 'Pierre-Antoine Saunier', 'profile_description': 'Président chez Athena Capital Partners'}, {'profile_url': 'https://www.linkedin.com/in/marcosalvescardoso?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAGCXoQB5ovuv4lOSZzpWVTf7zXQMALTXz4', 'person_name': 'Marcos Alves Cardoso', 'profile_description': 'Partner &amp; Chief Growth Officer LUDA Partners'}, {'profile_url': 'https://www.linkedin.com/in/thibault-clusel?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABLd148BYcuCvSa9XZZBfURDX0JgNOtcEd8', 'person_name': '💻Thibault Clusel', 'profile_description': 'Développeur front-end chez ✨ Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/salmahadid?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEoEQpcBEYdajQa6TfHvJ3Afmz83M83mpb8', 'person_name': 'Salma H.', 'profile_description': 'Étudiante en Bachelor Marketing et Communication (PEM) à la recherche d’une ALTERNANCE 2024/2025'}, {'profile_url': 'https://www.linkedin.com/in/jessy-vautour?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB0rN7IBx2wfi4JSWXdUtyslQJPpmF1zJks', 'person_name': 'Jessy V.', 'profile_description': 'Développeur front-end'}, {'profile_url': 'https://www.linkedin.com/in/enzo-chupin?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEBCFWkBFkLcmX69cBMq3Q5mvYiJBcqO2kc', 'person_name': 'Enzo Chupin', 'profile_description': 'Social media manager chez Extracadabra | Freelance WordPress - Elementor'}, {'profile_url': 'https://www.linkedin.com/in/briac-kubica?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADS5E04BE5BMjRLUdyyGyoTEHOb8-GOs7Zs', 'person_name': 'Briac Kubica', 'profile_description': 'Responsable Administratif et Financier Adjoint'}, {'profile_url': 'https://www.linkedin.com/in/clara-retail-08b008319?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAFCgBmsB4MlXifzf6H3_ci47YnYJG0h96cs', 'person_name': 'Clara Retail', 'profile_description': 'Etudiante en BTS communication | Entraineur de rugby diplomé'}, {'profile_url': 'https://www.linkedin.com/in/nad%C3%A8ge-hor-8a0454155?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACVDdPgBokFit1CdQ-jhlACrW8u9QknPAZI', 'person_name': 'Nadège Hor', 'profile_description': 'Cheffe de partie'}, {'profile_url': 'https://www.linkedin.com/in/nazim-lekouara-2211562b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEwEurkBPVfmkxwtQu4gZza4-QUvTkWen1w', 'person_name': 'Nazim Lekouara', 'profile_description': 'Licence en Économie et Gestion parcours Économie, Finance, Entreprise an3 (E3EFE) .'}, {'profile_url': 'https://www.linkedin.com/in/alia-bensalem-5a0978240?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADvxnEgBjUakzxgVDr8rCYkujBwgR97wPQY', 'person_name': 'Alia Bensalem', 'profile_description': 'Customer success manager chez Extracadabra'}, {'profile_url': 'https://www.linkedin.com/in/suzanne-n-988239143?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACK9fTgBoUkQAsI4hewRz1xeYo5OFDJRZnw', 'person_name': 'Suzanne N.', 'profile_description': 'Apprentie en restauration aux Westin Paris Vendome'}, {'profile_url': 'https://www.linkedin.com/in/aicha-fadika-298a75309?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE6lYlQB601EWbL3Szi5Un9Zc0GqkBYYCok', 'person_name': 'Aicha Fadika', 'profile_description': 'Student at Ascencia Business School'}, {'profile_url': 'https://www.linkedin.com/in/myriam-cisse-27912430a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAE6vKn0BbEBGguDV7_29A2jq1_qi0TP0LPk', 'person_name': 'Myriam Cisse', 'profile_description': "Étudiante à l’École de Droit et d'Intelligence Juridique"}, {'profile_url': 'https://www.linkedin.com/in/michel-hernando-herrera-7996a42b1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAEsH4WUB5I2waPruTWGIGa0JrmgAXlmiKaA', 'person_name': 'Michel Hernando Herrera', 'profile_description': '--'}, {</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>65,33 %</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>351,95 %</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>11.148.361 €</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2.466.750 €</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>17</v>
+      </c>
+      <c r="R79" t="n">
+        <v>15</v>
+      </c>
+      <c r="S79" t="n">
+        <v>69</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Services à l’emploi (intérim, recrutement)</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
